--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\desktop\palabras\excel\mbr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B10355-B506-48DB-9920-22A5D559E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5453B14F-5A94-486C-86A3-31385EA8C842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="1500" windowWidth="23505" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1422">
   <si>
     <t>(女性に対して)「どちらのご出身ですか？」
 「私はスペイン人です」</t>
@@ -160,23 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「何がご入用ですか？」
-「赤いTシャツが欲しいんです」</t>
-    <rPh sb="1" eb="2">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イリヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(君に対して)「お子さんはいますか？」
 「はい、娘と息子がいます」</t>
     <rPh sb="1" eb="2">
@@ -3703,11 +3686,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>¿Está soltero Álex?
-No, está casado.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>¿Cómo es su mujer?
 Es muy simpática.</t>
     <phoneticPr fontId="1"/>
@@ -10421,34 +10399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>医者(女性)は息子に強い痛みのときにだけ錠剤を飲むようにと言いました</t>
-    <rPh sb="0" eb="2">
-      <t>イシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ムスコ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウザイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>警官(男性)は彼女に前の晩誰といたのかと聞いた</t>
     <rPh sb="0" eb="2">
       <t>ケイカン</t>
@@ -10487,10 +10437,6 @@
   </si>
   <si>
     <t>Nuria nos comentó que hablaría con Pedro al día siguiente.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vi a un excompañero de trabajo la semana pasada y me dijo que había tenido un accidente hacía un mes.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -15500,6 +15446,153 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>医者(女性)(D)は息子に強い痛みのときにだけ錠剤を飲むようにと言いました</t>
+    <rPh sb="0" eb="2">
+      <t>イシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムスコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウザイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文の "nunca llegaba tarde a casa"（決して家に遅く帰らなかった）は、
+過去の習慣や繰り返される行動を表現するために 線過去（imperfecto） が使われています。以下に詳しく解説します。
+1. 文全体の構造
+Cristina siempre decía que...
+→ 「クリスティーナはいつもこう言っていた」という発言の導入部分。
+cuando trabajaba en Londres...
+→ 過去のある期間（ロンドンで働いていた時）を示す補足情報。
+nunca llegaba tarde a casa.
+→ 過去のその期間中に繰り返し行われていた行動（遅刻せずに家に帰ったこと）を説明。
+2. 線過去（imperfecto）の選択
+"llegaba"（線過去） は、過去の習慣的または繰り返しの動作を表すために使われます。
+この場合、「ロンドンで働いていた間、彼女が家に遅く帰ることは一度もなかった」 という意味を伝えています。
+線過去の特徴:
+動作が過去の一定期間にわたって繰り返されたことを示す。
+状態や背景情報を提供する。
+3. 時制の一致
+この文は間接話法（estilo indirecto）の形式です。
+"decía"（線過去） が主節で使われているため、従属節の時制も 線過去（trabajaba, llegaba） に一致しています。
+発話の内容が過去に行われた繰り返しの行動であるため、"llegaba"（線過去） が選ばれています。
+4. 過去の点過去（pretérito perfecto simple）との違い
+"nunca llegó tarde a casa"（彼女は一度も遅く帰らなかった）を使うと、過去のある一瞬の出来事として強調されます。
+例:
+"Cristina siempre decía que cuando trabajó en Londres nunca llegó tarde a casa."
+→ この場合、ロンドンで働いていた期間が短く、単一の完結した事実として話しているニュアンス。
+しかし、元の文は「習慣」を伝えたいので 線過去 が自然です。
+5. "nunca" の役割
+"nunca" は否定副詞で、「一度も～ない」「決して～ない」という強い否定を表します。
+この文では、「ロンドンで働いていた間に一度も遅れなかった」という強い否定を表現しています。
+まとめ
+文全体の意味は次のように解釈できます：
+クリスティーナは「ロンドンで働いていた時は、決して家に遅く帰ることはなかった」といつも言っていた。
+この文では、過去の習慣や状態を表すために線過去 "llegaba" が適切に使われています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文の構造
+文を分解すると次のようになります：
+El próximo viernes
+→ 「次の金曜日」 を意味する時間の表現（主語ではありません）。
+está prevista
+→ 動詞 estar ＋ 形容詞の prevista の組み合わせ。
+「予定されている」という状態を表す構造です。ここでは 「estar + 過去分詞 (prevista)」 が用いられています。
+prevista は動詞 prever（予測する、予定する） の過去分詞形が形容詞化したものです。
+性・数は主語 「una huelga」（女性単数）に一致しています。
+una huelga de profesores
+→ 主語です。「教師のストライキ」 を意味します。
+文の全体的な文法
+「estar + 過去分詞」
+この表現は、「状態」や「結果」を表すために使われます。ここでは「ストライキが予定されている（状態）」を表現しています。
+ser + 過去分詞 を使った場合は、受動態になり「ストライキが予定された（行為）」というニュアンスになります。
+estar + 過去分詞 の場合は、「ストライキが予定されている」という結果的な状態を強調します。
+直訳と自然な訳
+直訳:
+「次の金曜日には、教師のストライキが予定されている。」
+自然な訳:
+「次の金曜日に教師のストライキが行われる予定です。」
+補足
+「prevista」について
+「prevista」は 過去分詞形が形容詞として使われている ケースです。以下の例を比較すると理解が深まります：
+Está prevista una huelga.
+→ 「ストライキが予定されている」（状態）。
+La huelga fue prevista por los profesores.
+→ 「ストライキは教師たちによって予定された」（行為の受動態）。
+この違いにより、文のニュアンスが変わります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「una relaciónはla relaciónではない理由は何ですか？」
+1. 「una relación」ではなく「la relación」ではない理由
+文中で 「una relación」 が使われているのは、
+ここで言う「関係」が まだ具体的に特定されていない一般的な概念 だからです。
+具体的な違い：
+「una relación」
+意味: 「ある種の関係」や「何らかの関係」という、特定されていない一般的な意味を表します。
+この文では、「国と国との関係をより近いものにしたい」という一般的な関係を指しています。
+文脈上、読者や聞き手はどの関係かを特定していないので、不定冠詞の una が適切です。
+例:
+Quiero una relación más cercana con mi hermano.
+（兄弟ともっと近い関係を築きたい。）
+「la relación」
+意味: 「その関係」や、話し手と聞き手の間で特定されている具体的な関係を指します。
+すでに文脈で明確になっている場合や特定の関係を指す場合 に使用されます。
+例:
+La relación con mi hermano ha mejorado mucho.
+（兄弟との関係が大いに改善した。）
+具体的な文脈の説明:
+この文では「una relación」
+文脈上、この関係は 「具体的な国同士の関係」をすでに特定しているわけではなく、
+単に「より親密な関係」という概念を示している ため、不定冠詞 una が使われています。
+対照的な例:
+もし文脈上、その関係がすでに特定されている場合、
+例えば前の文で「国同士の関係」について具体的に話しているときは、次のように la が使われるかもしれません。
+Ya tenemos muchos acuerdos con el país vecino, pero queremos fortalecer la relación existente.
+（すでに隣国と多くの協定があるが、既存の関係を強化したい。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文で 「expliques」 に接続法が使われている理由は、
+動詞 「venir」 の目的を表す 「a que + 接続法」 の構造が使用されているためです。
+文法的なポイント
+「a que」+ 接続法
+「a que」 は目的を表し、「〜するために」というニュアンスを持つ表現です。
+この場合、「expliques」 は話し手が相手に期待している行動（説明すること）を表しており、接続法が使われます。
+接続法は話し手の意図や願望、目的を表現する際に用いられるのが特徴です。
+文の全体的な意味
+「He venido hasta aquí a que me expliques tú mismo lo que está pasando.」
+→ 「私はここまで来ました、あなた自身に何が起こっているのか説明してもらうために。」
+「説明してもらうこと」が目的であり、話し手が相手に対して何らかの行動を求めているため、接続法が適切です。
+「indicativo（直接法）」との違い
+「a que」 を使った場合には接続法が必要であり、直接法は使いません。
+一方で、目的ではなく単なる事実を述べる場合は直接法が使われます。
+例えば：
+「Vine aquí porque me explicaste lo que pasó.」
+→ 「あなたが何が起こったのかを説明してくれたので、ここに来た。」
+（事実に基づいて述べているため、直接法が使われています。）
+「a que + 接続法」 は、目的や意図を表現する文脈で非常によく使われる構造なので覚えておくと便利です！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>tomaraは命令法ではなくmi hijo自身が飲むということでse tomaraですか？
 はい、その通りです！この文で "se tomara" が使われているのは、
 息子自身が薬を飲むという行為を指しており、命令法ではなく 接続法過去 で表現されています。以下に詳しく解説します。
@@ -15545,7 +15638,193 @@
 息子自身が薬を飲む行為を指しているため、再帰代名詞 "se" が必要。
 医者の言葉を間接的に伝えており、接続法過去形 "tomara" を使うのが適切。
 命令形ではなく、条件付きで間接的に指示を表しているから。
-したがって、文法的にも意味的にも完全に正しい表現です！</t>
+したがって、文法的にも意味的にも完全に正しい表現です！
+-----------------
+una pastillaではなくla pastillaである理由と
+dolorに冠詞がつかない理由を教えてください
+1. la pastilla について
+文中で la pastilla という定冠詞が使われている理由は、
+話し手や聞き手にとってどの薬のことを指しているかが明確だからです。
+例えば、この場合「医者が特定の薬を指示した」状況が考えられるため、
+特定の薬（≒その薬）を指す 定冠詞 la が使われています。
+もし una pastilla が使われた場合、それは「ある薬（不特定の1つ）」というニュアンスになり、
+この文脈では適切ではありません。
+2. dolor に冠詞がつかない理由
+冠詞がつかない名詞のパターン の1つに、抽象的な概念や性質を表す場合があります。
+この場合、dolor（痛み）は一般的な「痛み」という抽象的な概念として扱われています。
+冠詞をつけた場合（例: el dolor や un dolor）は、次のようなニュアンスの違いが生じます：
+el dolor: 特定の痛み（例: 以前に言及した痛みや、ある人の特定の痛み）。
+un dolor: 不特定の痛み、ある種類の痛み（例: 「ある痛みがある」）。
+この文脈では、冠詞を省略することで「強い痛み」という一般的な状況を指しています。
+まとめ
+la pastilla は「特定の薬」を指すために定冠詞を使っています。
+dolor には冠詞をつけず、「痛み」という抽象的・一般的な概念として扱っています。
+文脈とニュアンスのバランスを考慮した表現です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vi a un excompañero de trabajo la semana pasada y (me) dijo que había tenido un accidente hacía un mes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文は、サッカーやスポーツのチームを話題にする際によく使われるスペイン語の表現を含んでいます。
+それぞれの文を分解して解説します。
+1. ¿De qué equipo sois?
+構造と文法ポイント
+¿De qué equipo...?
+「どのチームの？」を意味します。
+¿De qué...? は「何の〜？」や「どの〜？」を尋ねる表現です。
+equipo は「チーム」や「団体」という意味の名詞です。
+sois
+動詞 ser の2人称複数形（vosotros形）現在形です。
+「あなたたちは〜に属していますか？」というニュアンスを持っています。
+スペインでは vosotros が使われますが、
+ラテンアメリカでは ustedes を用いて ¿De qué equipo son? となるのが一般的です。
+全体の意味
+「君たちはどのチームのファンですか？」
+スペインでは、スポーツチームの応援や支持するチームを聞く際にこの表現が使われます。
+2. Somos del Atlético.
+構造と文法ポイント
+Somos
+動詞 ser の1人称複数形（nosotros形）現在形で、「私たちは〜である」を表します。
+del Atlético
+del は de + el の縮約形で、「〜の」を意味します。
+Atlético は、マドリードのサッカーチーム「アトレティコ・マドリード」を指します。
+省略形として el Atlético や Atlético de Madrid と呼ばれることがあります。
+全体の意味
+「私たちはアトレティコのファンです。」
+文法的な注意点
+属するものを表す前置詞 "de"
+¿De qué equipo...? や Somos del Atlético. のように、
+「どのチームに属しているか／どのチームの一員か」を聞く際に de を用います。
+vosotros と nosotros の一致
+質問が sois（2人称複数）で行われているため、答えも somos（1人称複数）で返しています。
+全体の意味
+¿De qué equipo sois?
+「君たちはどのチームのファンですか？」
+Somos del Atlético.
+「私たちはアトレティコのファンです。」
+この文は、スペイン語でスポーツの話題を始める際の典型的な表現と言えます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店員がお客様に「何をお望みですか？」や「何かお探しですか？」
+と尋ねる際に使える他のよく使われるフレーズは次の通りです：
+¿En qué puedo ayudarle?
+「何かお手伝いできますか？」
+¿Qué está buscando?
+「何をお探しですか？」
+¿Le puedo ayudar en algo?
+「何かお手伝いしましょうか？」
+¿Necesita algo?
+「何か必要ですか？」
+¿Quiere ver algo en particular?
+「何か特定のものをご覧になりたいですか？」
+¿Hay algo que le interese?
+「何か興味のあるものはありますか？」
+これらの表現は状況や話し手の丁寧さの度合いに応じて使い分けることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「何がご入用ですか？(D)」
+「赤いTシャツが欲しいんです」</t>
+    <rPh sb="1" eb="2">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イリヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文の 「Le」 は、スペイン語の代名詞の一種で、
+間接目的語 を表します。以下に詳しく説明します。
+1. 「Le」の役割
+Le は、「誰に」 を指す間接目的語の代名詞です。
+この文では、質問をされる相手（敬意を込めて「あなた」を指す）を指しています。
+例：
+¿Le puedo hacer unas preguntas, por favor?
+→ 「あなたにいくつか質問をしてもよろしいですか？」
+英語では "Can I ask you some questions, please?" にあたります。
+2. 文構造の分解
+hacer unas preguntas = 「いくつか質問をする」
+a usted = 「あなたに」
+（ただし、a usted は le によって代用されています）
+完全な文にすると： ¿Puedo hacer unas preguntas a usted, por favor? 
+→ これが 「Le」 を使って簡略化されました。
+3. 文法的ポイント
+Le は丁寧な敬称「usted」に対応しています。
+一方、親しい間柄で話す場合には「te」（二人称単数・親しい形）を使います。
+例: ¿Te puedo hacer unas preguntas? （「君に質問してもいい？」）
+4. 類似の表現
+以下も同じ意味で使われますが、文脈によって丁寧さや形式さが異なります：
+¿Le puedo preguntar algo?
+（「少し質問してもよろしいですか？」）
+¿Me permite hacerle unas preguntas?
+（「質問させていただけますか？」）
+¿Podría hacerle unas preguntas?
+（「いくつか質問してもよろしいでしょうか？」）
+¿Te puedo preguntar algo?
+（親しい相手への「質問していい？」）
+「Le」 を用いた表現は、敬意や形式さを示すスペイン語の重要なポイントの一つです。
+-----------------
+つまり、Leがなくても文法的には誤りではないということですか？
+はい、正しいです。スペイン語では 「¿Puedo hacer unas preguntas, por favor?」
+ と言っても文法的に正しく、相手にも通じます。
+ ただし、「Le」 を使うことで次のようなニュアンスや効果が加わります：
+＜敬意を表す＞
+「Le」は相手に対する敬称の間接目的語で、
+「あなたに質問をしてもよろしいですか？」という丁寧さを明確にします。
+丁寧な会話の場では、これが一般的です。
+＜個人を対象とすることの明示＞
+「Le」を入れることで、特定の人（この場合は聞いている相手）が質問の対象であることを明確にします。
+「Le」を省略した場合のニュアンス
+省略しても意味は伝わりますが、少しカジュアルまたは直接的な印象を与えます。
+フォーマルな場面では、「Le」を使ったほうが良いでしょう。
+例えば：
+¿Puedo hacer unas preguntas? （カジュアルまたは一般的）
+¿Le puedo hacer unas preguntas? （丁寧、フォーマル）
+状況に応じて使い分けるのがポイントです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Me gusta la música.
+はla músicaで
+Me gusta escuchar música.
+のmúsicaにlaがつかないのは何故ですか？
+以下の文で冠詞の有無の違いがある理由は、
+文中の「música」が名詞として具体的に指されているか、
+一般的な意味で使われているかによります。
+1. Me gusta la música.
+冠詞「la」あり:
+「la música」は特定または一般的な音楽全般を指します。
+この文では「音楽そのものが好き」という意味で、
+音楽というジャンル全体を一つの対象として扱っています。
+例: 音楽という芸術全体への愛好心を示す場合に使われます。
+2. Me gusta escuchar música.
+冠詞「la」なし:
+この場合、「música」は不特定の音楽を指し、
+「音楽を聞くこと」という行為を強調しています。
+具体的な音楽の種類やジャンルに言及していないため、冠詞が必要ありません。
+例: 音楽そのものではなく、聞く行為を楽しむことを表現しています。
+違いを整理すると:
+冠詞「la」があると、「音楽」というジャンル全体や特定の音楽に焦点が当たります。
+例: La música clásica es relajante. （クラシック音楽はリラックスできる。）
+冠詞「la」がないと、より抽象的に「音楽を聞く」という行為や不特定の音楽を指します。
+例: Escuchar música me relaja. （音楽を聞くことが私をリラックスさせる。）
+これらの使い分けは、
+スペイン語の「具体的なものに冠詞を付ける」という基本的なルールに従っています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[¿Está soltero Álex?^¿Álex está soltero?]
+No, está casado.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -15885,8 +16164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C596" workbookViewId="0">
-      <selection activeCell="C606" sqref="C606"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -15896,5287 +16175,5311 @@
     <col min="6" max="6" width="102.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5">
+    <row r="1" spans="1:6" ht="37.5">
       <c r="A1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="37.5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="37.5">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="37.5">
+      <c r="B5" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5">
-      <c r="B5" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="37.5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="37.5">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.5">
       <c r="B10" s="1" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>385</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="409.5">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>367</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C17" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="18" spans="2:6" ht="409.5">
+      <c r="B18" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F18" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="37.5">
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="37.5">
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="20" spans="2:6" ht="409.5">
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="37.5">
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="37.5">
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="37.5">
+      <c r="B21" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" t="s">
+        <v>397</v>
+      </c>
+      <c r="E21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="37.5">
-      <c r="B21" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" t="s">
         <v>358</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="23" spans="2:6" ht="37.5">
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="37.5">
+      <c r="B24" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="37.5">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="37.5">
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="37.5">
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E31" t="s">
         <v>399</v>
       </c>
-      <c r="E21" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="37.5">
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="37.5">
-      <c r="B24" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="37.5">
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="37.5">
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="37.5">
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" spans="2:6" ht="37.5">
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D31" t="s">
-        <v>400</v>
-      </c>
-      <c r="E31" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="37.5">
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="37.5">
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="37.5">
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="37.5">
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="37.5">
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="37.5">
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="1" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="37.5">
       <c r="B41" s="1" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C41" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E41" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="37.5">
       <c r="B42" s="1" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="37.5">
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="37.5">
       <c r="B44" s="1" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="37.5">
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="37.5">
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="37.5">
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="1" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="37.5">
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="37.5">
       <c r="B51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D51" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="37.5">
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="37.5">
       <c r="B53" s="1" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="37.5">
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="37.5">
       <c r="B58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="37.5">
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="37.5">
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D61" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="37.5">
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="37.5">
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="37.5">
       <c r="B64" s="1" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="37.5">
       <c r="B66" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="37.5">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="37.5">
       <c r="B68" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="37.5">
       <c r="B70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="37.5">
       <c r="B71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E71" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="37.5">
       <c r="B73" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="37.5">
       <c r="B76" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="37.5">
       <c r="B77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="37.5">
       <c r="B78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="37.5">
       <c r="B79" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="37.5">
       <c r="B80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="37.5">
       <c r="B81" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D81" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E81" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="37.5">
       <c r="B82" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="56.25">
       <c r="B83" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="37.5">
       <c r="B88" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="56.25">
       <c r="B89" s="1" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D91" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E91" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="37.5">
       <c r="B92" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="1" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="37.5">
       <c r="B94" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="37.5">
       <c r="B95" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="37.5">
       <c r="B96" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="37.5">
       <c r="B97" s="1" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="37.5">
       <c r="B98" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="37.5">
       <c r="B100" s="1" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="37.5">
       <c r="B101" s="1" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D101" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E101" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="56.25">
       <c r="B102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="37.5">
       <c r="B103" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="37.5">
       <c r="B104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="56.25">
       <c r="B105" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="56.25">
       <c r="B106" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="37.5">
       <c r="B107" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="37.5">
       <c r="B108" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="37.5">
       <c r="B109" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="37.5">
       <c r="B110" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D111" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E111" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="37.5">
       <c r="B112" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="37.5">
       <c r="B113" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="37.5">
       <c r="B118" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="37.5">
       <c r="B119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="37.5">
       <c r="B120" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="1" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E121" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="37.5">
       <c r="B122" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="37.5">
       <c r="B123" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="37.5">
       <c r="B124" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="37.5">
       <c r="B125" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="37.5">
       <c r="B126" s="1" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="37.5">
       <c r="B127" s="1" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="56.25">
       <c r="B128" s="1" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="37.5">
       <c r="B129" s="1" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="37.5">
       <c r="B130" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="37.5">
       <c r="B131" s="1" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D131" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E131" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="37.5">
       <c r="B132" s="1" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="37.5">
       <c r="B133" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="37.5">
       <c r="B134" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="37.5">
       <c r="B135" s="1" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="56.25">
       <c r="B136" s="1" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="1" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="37.5">
       <c r="B138" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="37.5">
       <c r="B139" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="37.5">
       <c r="B140" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="37.5">
       <c r="B141" s="1" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D141" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E141" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="37.5">
       <c r="B142" s="1" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="37.5">
       <c r="B143" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="1" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="37.5">
       <c r="B145" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="37.5">
       <c r="B146" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="56.25">
       <c r="B147" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="37.5">
       <c r="B148" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="37.5">
       <c r="B149" s="1" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="37.5">
       <c r="B150" s="1" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="37.5">
       <c r="B151" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D151" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E151" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="37.5">
       <c r="B152" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="56.25">
       <c r="B153" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="37.5">
       <c r="B154" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C154" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="37.5">
       <c r="B155" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="37.5">
       <c r="B156" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C157" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="37.5">
       <c r="B158" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C158" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C159" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C160" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="37.5">
       <c r="B161" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D161" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E161" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="37.5">
       <c r="B163" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="37.5">
       <c r="B164" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="56.25">
       <c r="B166" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="37.5">
       <c r="B167" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="37.5">
       <c r="B168" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="37.5">
       <c r="B169" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="37.5">
       <c r="B170" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C171" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D171" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E171" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C172" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="37.5">
       <c r="B174" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="1" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C175" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="37.5">
       <c r="B176" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C176" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="37.5">
       <c r="B177" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="37.5">
       <c r="B178" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="37.5">
       <c r="B179" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="37.5">
       <c r="B180" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C181" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D181" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E181" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="37.5">
       <c r="B182" s="1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C182" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="B183" s="1" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="B184" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C184" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C185" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C186" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="B187" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C187" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="B188" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C188" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="37.5">
       <c r="B189" s="1" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="B190" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C190" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="37.5">
       <c r="B191" s="1" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D191" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="37.5">
       <c r="B192" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="37.5">
       <c r="B193" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="37.5">
       <c r="B194" s="1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C195" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C196" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C197" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="C198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C199" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="56.25">
       <c r="B200" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="37.5">
       <c r="B201" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D201" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E201" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="37.5">
       <c r="B202" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C204" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="37.5">
       <c r="B205" s="1" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C205" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="37.5">
       <c r="B206" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="37.5">
       <c r="B207" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="37.5">
       <c r="B208" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C209" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="37.5">
       <c r="B210" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C211" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D211" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="E211" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C212" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C213" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="37.5">
       <c r="B214" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="37.5">
       <c r="B215" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="37.5">
       <c r="B216" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="1" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="37.5">
       <c r="B218" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="1" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C221" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E221" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="37.5">
       <c r="B222" s="1" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="37.5">
       <c r="B223" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="37.5">
       <c r="B224" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C224" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="56.25">
       <c r="B225" s="1" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="37.5">
       <c r="B226" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="37.5">
       <c r="B227" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="1" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="37.5">
       <c r="B229" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="37.5">
       <c r="B230" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C231" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D231" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C232" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C233" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="37.5">
       <c r="B234" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C235" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="37.5">
       <c r="B236" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="37.5">
       <c r="B237" s="1" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="37.5">
       <c r="B238" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="37.5">
       <c r="B239" s="1" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="56.25">
       <c r="A241" t="s">
+        <v>435</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D241" t="s">
+        <v>436</v>
+      </c>
+      <c r="E241" t="s">
         <v>437</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D241" t="s">
-        <v>438</v>
-      </c>
-      <c r="E241" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="37.5">
       <c r="B243" s="1" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="37.5">
       <c r="B244" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="B245" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="37.5">
       <c r="B246" s="1" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="B247" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="37.5">
       <c r="B248" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="37.5">
       <c r="B249" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="37.5">
       <c r="B250" s="1" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="37.5">
       <c r="B251" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D251" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E251" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="37.5">
       <c r="B252" s="1" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="B253" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="37.5">
       <c r="B254" s="1" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="37.5">
       <c r="B255" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="37.5">
       <c r="B256" s="1" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="257" spans="2:5">
       <c r="B257" s="1" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="37.5">
       <c r="B258" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="37.5">
       <c r="B259" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="260" spans="2:5">
       <c r="B260" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="37.5">
       <c r="B261" s="1" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C261" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D261" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E261" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" spans="2:5">
       <c r="B262" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C262" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="37.5">
       <c r="B263" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C263" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="37.5">
       <c r="B264" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C264" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="265" spans="2:5">
       <c r="B265" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C265" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="266" spans="2:5">
       <c r="B266" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C266" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="56.25">
       <c r="B267" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="37.5">
       <c r="B268" s="1" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="37.5">
       <c r="B269" s="1" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="37.5">
       <c r="B270" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="37.5">
       <c r="B271" s="1" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D271" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E271" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="37.5">
       <c r="B272" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="273" spans="2:5">
       <c r="B273" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="56.25">
       <c r="B274" s="1" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="37.5">
       <c r="B275" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="276" spans="2:5">
       <c r="B276" s="1" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="37.5">
       <c r="B277" s="1" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="37.5">
       <c r="B278" s="1" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="37.5">
       <c r="B279" s="1" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="37.5">
       <c r="B280" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="37.5">
       <c r="B281" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D281" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E281" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="37.5">
       <c r="B282" s="1" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="37.5">
       <c r="B283" s="1" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="284" spans="2:5">
       <c r="B284" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="37.5">
       <c r="B285" s="1" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" spans="2:5">
       <c r="B286" s="1" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="37.5">
       <c r="B287" s="1" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="37.5">
       <c r="B288" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="37.5">
       <c r="B289" s="1" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="37.5">
       <c r="B290" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="291" spans="2:5">
       <c r="B291" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D291" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E291" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="37.5">
       <c r="B292" s="1" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="37.5">
       <c r="B293" s="1" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="37.5">
       <c r="B294" s="1" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="37.5">
       <c r="B295" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="37.5">
       <c r="B296" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="37.5">
       <c r="B297" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="37.5">
       <c r="B298" s="1" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="299" spans="2:5">
       <c r="B299" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="37.5">
       <c r="B300" s="1" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="301" spans="2:5">
       <c r="B301" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D301" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="2:5" ht="37.5">
       <c r="B302" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="37.5">
       <c r="B303" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="304" spans="2:5">
       <c r="B304" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="37.5">
       <c r="B305" s="1" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="37.5">
       <c r="B306" s="1" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="37.5">
       <c r="B307" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="37.5">
       <c r="B308" s="1" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="37.5">
       <c r="B309" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="37.5">
       <c r="B310" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="37.5">
       <c r="B311" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D311" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E311" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="312" spans="2:5">
       <c r="B312" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="313" spans="2:5">
       <c r="B313" s="1" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="37.5">
       <c r="B314" s="1" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="37.5">
       <c r="B315" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="316" spans="2:5">
       <c r="B316" s="1" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="317" spans="2:5">
       <c r="B317" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="37.5">
       <c r="B318" s="1" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="37.5">
       <c r="B319" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="37.5">
       <c r="B320" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="37.5">
       <c r="B321" s="1" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D321" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E321" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="37.5">
       <c r="B322" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="37.5">
       <c r="B323" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="324" spans="2:5">
       <c r="B324" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="37.5">
       <c r="B325" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="37.5">
       <c r="B326" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="327" spans="2:5">
       <c r="B327" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="37.5">
       <c r="B328" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="37.5">
       <c r="B329" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="37.5">
       <c r="B330" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="37.5">
       <c r="B331" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D331" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E331" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="332" spans="2:5">
       <c r="B332" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="37.5">
       <c r="B333" s="1" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="334" spans="2:5">
       <c r="B334" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="37.5">
       <c r="B335" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="336" spans="2:5">
       <c r="B336" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="37.5">
       <c r="B337" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="37.5">
       <c r="B338" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="1" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="56.25">
       <c r="B340" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="37.5">
       <c r="B341" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D341" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="342" spans="2:5">
       <c r="B342" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="37.5">
       <c r="B343" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="344" spans="2:5">
       <c r="B344" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="345" spans="2:5">
       <c r="B345" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="37.5">
       <c r="B346" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="347" spans="2:5">
       <c r="B347" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="348" spans="2:5">
       <c r="B348" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="349" spans="2:5">
       <c r="B349" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="37.5">
       <c r="B350" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D351" t="s">
+        <v>619</v>
+      </c>
+      <c r="E351" t="s">
         <v>620</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D351" t="s">
-        <v>621</v>
-      </c>
-      <c r="E351" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="37.5">
       <c r="B352" s="1" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="353" spans="2:5">
       <c r="B353" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="354" spans="2:5">
       <c r="B354" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="37.5">
       <c r="B355" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="356" spans="2:5">
       <c r="B356" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="37.5">
       <c r="B357" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="358" spans="2:5">
       <c r="B358" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="359" spans="2:5">
       <c r="B359" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="360" spans="2:5">
       <c r="B360" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="361" spans="2:5">
       <c r="B361" s="1" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D361" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E361" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="362" spans="2:5">
       <c r="B362" s="1" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="37.5">
       <c r="B363" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="364" spans="2:5">
       <c r="B364" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="37.5">
       <c r="B365" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="366" spans="2:5">
       <c r="B366" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="368" spans="2:5">
       <c r="B368" s="1" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="369" spans="2:5">
       <c r="B369" s="1" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="370" spans="2:5" ht="37.5">
       <c r="B370" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="371" spans="2:5">
       <c r="B371" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D371" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E371" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="372" spans="2:5">
       <c r="B372" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="373" spans="2:5" ht="37.5">
       <c r="B373" s="1" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="374" spans="2:5" ht="37.5">
       <c r="B374" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="375" spans="2:5" ht="37.5">
       <c r="B375" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="376" spans="2:5">
       <c r="B376" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="377" spans="2:5" ht="37.5">
       <c r="B377" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="378" spans="2:5" ht="37.5">
       <c r="B378" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="379" spans="2:5" ht="56.25">
       <c r="B379" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="380" spans="2:5">
       <c r="B380" s="1" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="381" spans="2:5">
       <c r="B381" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D381" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E381" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="382" spans="2:5" ht="37.5">
       <c r="B382" s="1" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="383" spans="2:5">
       <c r="B383" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="384" spans="2:5" ht="37.5">
       <c r="B384" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="37.5">
       <c r="B385" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="37.5">
       <c r="B386" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="37.5">
       <c r="B387" s="1" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="388" spans="2:5">
       <c r="B388" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="37.5">
       <c r="B389" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="56.25">
       <c r="B390" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="391" spans="2:5">
       <c r="B391" s="1" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D391" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E391" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="37.5">
       <c r="B392" s="1" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="37.5">
       <c r="B393" s="1" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="37.5">
       <c r="B394" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="37.5">
       <c r="B395" s="1" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="398" spans="2:5">
       <c r="B398" s="1" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="37.5">
       <c r="B399" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="37.5">
       <c r="B400" s="1" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="37.5">
       <c r="B401" s="1" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D401" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E401" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="37.5">
       <c r="B402" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="403" spans="2:5">
       <c r="B403" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="37.5">
       <c r="B404" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="37.5">
       <c r="B405" s="1" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="37.5">
       <c r="B406" s="1" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="37.5">
       <c r="B407" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="408" spans="2:5">
       <c r="B408" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="37.5">
       <c r="B409" s="1" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="37.5">
       <c r="B410" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="37.5">
       <c r="B411" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D411" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E411" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="412" spans="2:5">
       <c r="B412" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="37.5">
       <c r="B413" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="37.5">
       <c r="B414" s="1" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="415" spans="2:5">
       <c r="B415" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="37.5">
       <c r="B416" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="417" spans="2:5">
       <c r="B417" s="1" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="418" spans="2:5">
       <c r="B418" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="419" spans="2:5">
       <c r="B419" s="1" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="56.25">
       <c r="B420" s="1" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="37.5">
       <c r="B421" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D421" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E421" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="37.5">
       <c r="B422" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="37.5">
       <c r="B423" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="56.25">
       <c r="B424" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="37.5">
       <c r="B425" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="37.5">
       <c r="B426" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="37.5">
       <c r="B427" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="37.5">
       <c r="B428" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="429" spans="2:5">
       <c r="B429" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="430" spans="2:5">
       <c r="B430" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="431" spans="2:5">
       <c r="B431" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D431" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E431" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="37.5">
       <c r="B432" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="B433" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="37.5">
       <c r="B434" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="93.75">
       <c r="B435" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="131.25">
       <c r="B436" s="1" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="37.5">
       <c r="B437" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="37.5">
       <c r="B438" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="37.5">
       <c r="B439" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="B440" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="37.5">
       <c r="A441" t="s">
+        <v>773</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D441" t="s">
+        <v>774</v>
+      </c>
+      <c r="E441" t="s">
         <v>775</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D441" t="s">
-        <v>776</v>
-      </c>
-      <c r="E441" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="37.5">
       <c r="B442" s="1" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="37.5">
       <c r="B443" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="37.5">
       <c r="B444" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="131.25">
       <c r="B445" s="1" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="37.5">
       <c r="B446" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="37.5">
       <c r="B447" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="37.5">
       <c r="B448" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="56.25">
       <c r="B449" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="37.5">
       <c r="B450" s="1" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="451" spans="2:5">
       <c r="B451" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D451" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E451" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="37.5">
       <c r="B452" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="37.5">
       <c r="B453" s="1" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="37.5">
       <c r="B454" s="1" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="37.5">
       <c r="B455" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="37.5">
       <c r="B456" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="37.5">
       <c r="B457" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="458" spans="2:5">
       <c r="B458" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="459" spans="2:5">
       <c r="B459" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="460" spans="2:5" ht="37.5">
       <c r="B460" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="461" spans="2:5">
       <c r="B461" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D461" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E461" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="462" spans="2:5">
       <c r="B462" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="463" spans="2:5">
       <c r="B463" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="464" spans="2:5">
       <c r="B464" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="37.5">
       <c r="B465" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="466" spans="2:5">
       <c r="B466" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="467" spans="2:5">
       <c r="B467" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="37.5">
       <c r="B468" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="469" spans="2:5">
       <c r="B469" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="470" spans="2:5">
       <c r="B470" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="37.5">
       <c r="B471" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D471" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E471" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="472" spans="2:5" ht="37.5">
       <c r="B472" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="37.5">
       <c r="B473" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="37.5">
       <c r="B474" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="37.5">
       <c r="B475" s="1" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="37.5">
       <c r="B476" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="37.5">
       <c r="B477" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="478" spans="2:5">
       <c r="B478" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="37.5">
       <c r="B479" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="37.5">
       <c r="B480" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="481" spans="2:6" ht="37.5">
       <c r="B481" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D481" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E481" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="482" spans="2:6">
       <c r="B482" s="1" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="483" spans="2:6" ht="37.5">
       <c r="B483" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="484" spans="2:6" ht="75">
       <c r="B484" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="485" spans="2:6">
       <c r="B485" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="486" spans="2:6" ht="37.5">
       <c r="B486" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="487" spans="2:6" ht="37.5">
       <c r="B487" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="488" spans="2:6" ht="112.5">
       <c r="B488" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="489" spans="2:6" ht="225">
       <c r="B489" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="490" spans="2:6" ht="37.5">
       <c r="B490" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="491" spans="2:6" ht="37.5">
       <c r="B491" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D491" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E491" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="492" spans="2:6">
       <c r="B492" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="493" spans="2:6" ht="37.5">
       <c r="B493" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="494" spans="2:6">
       <c r="B494" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="495" spans="2:6" ht="37.5">
       <c r="B495" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="496" spans="2:6" ht="37.5">
       <c r="B496" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="497" spans="2:6" ht="243.75">
       <c r="B497" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="498" spans="2:6" ht="37.5">
       <c r="B498" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="499" spans="2:6" ht="37.5">
       <c r="B499" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="500" spans="2:6" ht="37.5">
       <c r="B500" s="1" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="501" spans="2:6">
       <c r="B501" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D501" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E501" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="502" spans="2:6" ht="37.5">
       <c r="B502" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="503" spans="2:6">
       <c r="B503" s="1" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="504" spans="2:6">
       <c r="B504" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="505" spans="2:6" ht="37.5">
       <c r="B505" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="506" spans="2:6" ht="37.5">
       <c r="B506" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="507" spans="2:6">
       <c r="B507" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="508" spans="2:6" ht="37.5">
       <c r="B508" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="509" spans="2:6">
       <c r="B509" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="510" spans="2:6" ht="409.5">
       <c r="B510" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="511" spans="2:6">
       <c r="B511" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D511" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E511" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="512" spans="2:6" ht="318.75">
       <c r="B512" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="513" spans="2:6" ht="409.5">
       <c r="B513" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="515" spans="2:6" ht="56.25">
       <c r="B515" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="516" spans="2:6" ht="37.5">
       <c r="B516" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="518" spans="2:6" ht="409.5">
       <c r="B518" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="519" spans="2:6" ht="409.5">
       <c r="B519" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="520" spans="2:6" ht="409.5">
       <c r="B520" s="1" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="521" spans="2:6">
       <c r="B521" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D521" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E521" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="522" spans="2:6" ht="37.5">
       <c r="B522" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="523" spans="2:6">
       <c r="B523" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="524" spans="2:6">
       <c r="B524" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="525" spans="2:6">
       <c r="B525" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="526" spans="2:6">
       <c r="B526" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="527" spans="2:6">
       <c r="B527" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="528" spans="2:6" ht="356.25">
       <c r="B528" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="529" spans="2:6" ht="409.5">
       <c r="B529" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="530" spans="2:6" ht="409.5">
       <c r="B530" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="531" spans="2:6">
       <c r="B531" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D531" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E531" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="532" spans="2:6" ht="409.5">
       <c r="B532" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="533" spans="2:6">
       <c r="B533" s="1" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="534" spans="2:6" ht="37.5">
       <c r="B534" s="1" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="535" spans="2:6" ht="37.5">
       <c r="B535" s="1" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="536" spans="2:6" ht="37.5">
       <c r="B536" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="537" spans="2:6" ht="37.5">
       <c r="B537" s="1" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="538" spans="2:6" ht="37.5">
       <c r="B538" s="1" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="539" spans="2:6" ht="37.5">
       <c r="B539" s="1" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="540" spans="2:6" ht="318.75">
       <c r="B540" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="541" spans="2:6" ht="37.5">
       <c r="B541" s="1" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D541" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E541" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="542" spans="2:6" ht="409.5">
       <c r="B542" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="543" spans="2:6">
       <c r="B543" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="544" spans="2:6" ht="37.5">
       <c r="B544" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="545" spans="2:6" ht="187.5">
       <c r="B545" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="546" spans="2:6" ht="409.5">
       <c r="B546" s="1" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="547" spans="2:6" ht="409.5">
       <c r="B547" s="1" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="548" spans="2:6" ht="409.5">
       <c r="B548" s="1" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="549" spans="2:6" ht="409.5">
       <c r="B549" s="1" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="550" spans="2:6" ht="409.5">
       <c r="B550" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="551" spans="2:6" ht="37.5">
       <c r="B551" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D551" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E551" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="552" spans="2:6" ht="37.5">
       <c r="B552" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="553" spans="2:6" ht="37.5">
       <c r="B553" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="554" spans="2:6" ht="409.5">
       <c r="B554" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="555" spans="2:6" ht="37.5">
       <c r="B555" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="556" spans="2:6" ht="37.5">
       <c r="B556" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="557" spans="2:6" ht="37.5">
       <c r="B557" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="558" spans="2:6" ht="37.5">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="558" spans="2:6" ht="409.5">
       <c r="B558" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="559" spans="2:6" ht="409.5">
       <c r="B559" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="560" spans="2:6" ht="409.5">
       <c r="B560" s="1" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="561" spans="2:6" ht="37.5">
       <c r="B561" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D561" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E561" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="562" spans="2:6">
       <c r="B562" s="1" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="563" spans="2:6" ht="409.5">
       <c r="B563" s="1" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="564" spans="2:6" ht="37.5">
       <c r="B564" s="1" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="565" spans="2:6" ht="37.5">
       <c r="B565" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="566" spans="2:6" ht="37.5">
       <c r="B566" s="1" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="567" spans="2:6" ht="37.5">
       <c r="B567" s="1" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="568" spans="2:6" ht="37.5">
       <c r="B568" s="1" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="569" spans="2:6" ht="56.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="569" spans="2:6" ht="409.5">
       <c r="B569" s="1" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="570" spans="2:6" ht="37.5">
+        <v>1014</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="570" spans="2:6" ht="409.5">
       <c r="B570" s="1" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="571" spans="2:6" ht="37.5">
       <c r="B571" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D571" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E571" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="572" spans="2:6" ht="37.5">
       <c r="B572" s="1" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="573" spans="2:6" ht="37.5">
       <c r="B573" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="574" spans="2:6" ht="37.5">
       <c r="B574" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="575" spans="2:6">
       <c r="B575" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="576" spans="2:6">
       <c r="B576" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="577" spans="2:6" ht="409.5">
       <c r="B577" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="578" spans="2:6">
       <c r="B578" s="1" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="579" spans="2:6" ht="37.5">
       <c r="B579" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="580" spans="2:6">
       <c r="B580" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="581" spans="2:6" ht="409.5">
       <c r="B581" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D581" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E581" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="582" spans="2:6" ht="131.25">
       <c r="B582" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="583" spans="2:6" ht="375">
       <c r="B583" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="584" spans="2:6" ht="300">
       <c r="B584" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="585" spans="2:6">
       <c r="B585" s="1" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="586" spans="2:6">
       <c r="B586" s="1" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="587" spans="2:6" ht="37.5">
       <c r="B587" s="1" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="588" spans="2:6" ht="75">
       <c r="B588" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="589" spans="2:6" ht="409.5">
       <c r="B589" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="590" spans="2:6" ht="262.5">
       <c r="B590" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="591" spans="2:6" ht="37.5">
       <c r="B591" s="1" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D591" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E591" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="592" spans="2:6" ht="37.5">
       <c r="B592" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="593" spans="2:6" ht="37.5">
       <c r="B593" s="1" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="594" spans="2:6" ht="75">
       <c r="B594" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="595" spans="2:6" ht="168.75">
       <c r="B595" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1070</v>
+        <v>1415</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="596" spans="2:6" ht="409.5">
       <c r="B596" s="1" t="s">
-        <v>1064</v>
+        <v>1409</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="597" spans="2:6" ht="37.5">
       <c r="B597" s="1" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="598" spans="2:6">
       <c r="B598" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="599" spans="2:6">
       <c r="B599" s="1" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="600" spans="2:6" ht="37.5">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="600" spans="2:6" ht="409.5">
       <c r="B600" s="1" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -21204,7 +21507,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21212,7 +21515,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -21220,7 +21523,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -21228,7 +21531,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -21236,7 +21539,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21244,7 +21547,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21252,7 +21555,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21260,7 +21563,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21268,7 +21571,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -21276,7 +21579,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -21284,7 +21587,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21292,7 +21595,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -21300,7 +21603,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -21308,7 +21611,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -21316,7 +21619,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -21324,7 +21627,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -21332,7 +21635,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -21340,7 +21643,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -21348,7 +21651,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -21356,7 +21659,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -21364,7 +21667,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -21372,7 +21675,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -21380,7 +21683,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -21388,7 +21691,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -21396,10 +21699,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C26" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -21407,7 +21710,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -21415,7 +21718,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -21423,7 +21726,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -21431,7 +21734,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -21439,7 +21742,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -21447,7 +21750,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -21455,7 +21758,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -21463,7 +21766,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -21471,7 +21774,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -21479,7 +21782,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -21487,7 +21790,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -21495,7 +21798,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -21503,7 +21806,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -21511,7 +21814,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -21519,7 +21822,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -21527,7 +21830,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -21535,7 +21838,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -21543,7 +21846,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -21551,7 +21854,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -21559,10 +21862,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C46" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -21570,7 +21873,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -21578,7 +21881,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -21586,7 +21889,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -21594,7 +21897,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -21602,7 +21905,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -21610,7 +21913,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -21618,7 +21921,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -21626,7 +21929,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -21634,7 +21937,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -21642,7 +21945,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -21650,7 +21953,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -21658,7 +21961,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -21666,7 +21969,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -21674,7 +21977,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -21682,7 +21985,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5453B14F-5A94-486C-86A3-31385EA8C842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE0E3E-EF51-497A-8A5B-DA32A498AE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="1500" windowWidth="23505" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1429">
   <si>
     <t>(女性に対して)「どちらのご出身ですか？」
 「私はスペイン人です」</t>
@@ -465,29 +465,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(男性について)「あの人は誰ですか？」
-「私たちの仕事仲間です」</t>
-    <rPh sb="1" eb="3">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ナカマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「これは君たちの家？」
 「そうだったらなあ。私たちのはそっちです」</t>
     <rPh sb="4" eb="5">
@@ -559,23 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「どこに住んでるの？」
-「ルナ通り８番地に住んでます」</t>
-    <rPh sb="4" eb="5">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「今すぐ地下鉄に乗るね、5分で着くよ」 
 「完璧、駅で待ってるね」</t>
     <rPh sb="1" eb="2">
@@ -935,29 +895,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「あなた方はこの日曜日何をされる予定ですか？」
-「うーん、特に何も」</t>
-    <rPh sb="4" eb="5">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ニチヨウビ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>すぐ戻ります。よかったら、ここで待っててくれていいよ</t>
     <rPh sb="2" eb="3">
       <t>モド</t>
@@ -999,26 +936,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ここの名物料理を何か私たちにお勧めしていただけますか？」
-「はい、もちろんです」</t>
-    <rPh sb="4" eb="6">
-      <t>メイブツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>明日私たちは朝7時の電車に乗りたいんです</t>
     <rPh sb="0" eb="2">
       <t>アシタ</t>
@@ -1189,30 +1106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「テニスしません？」
-「いや、肩をけがしていてできないんです」</t>
-    <rPh sb="15" eb="16">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この交通系ICカードでほとんど全国を移動できるんですよ</t>
-    <rPh sb="2" eb="4">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ゼンコク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この町のことはすごくよく知ってるんです</t>
     <rPh sb="2" eb="3">
       <t>マチ</t>
@@ -1292,29 +1185,6 @@
   <si>
     <t>¿Puede recomendarnos algún plato típico de aquí?
 Sí, cómo no.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(あなた方に対して)「どこに住んでらっしゃるんですか？」
-「東京の郊外に住んでいます」</t>
-    <rPh sb="4" eb="5">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウガイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3411,11 +3281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>¿Dónde viven ustedes?
-Vivimos en las afueras de Tokio.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>¿Cuál es el nombre del protagonista?
 Ahora mismo no me acuerdo.</t>
     <phoneticPr fontId="1"/>
@@ -3423,11 +3288,6 @@
   <si>
     <t>¿Qué tipo de película te gusta y por qué?
 Me gustan las de acción porque son emocionantes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>¿Qué piensan ustedes del nuevo jefe?
-Nos parece muy competente.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -15825,6 +15685,424 @@
   <si>
     <t>[¿Está soltero Álex?^¿Álex está soltero?]
 No, está casado.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+価格は流動的なので、sonではなくestánが適しているように思うのですが
+良い指摘ですね！「Las frutas son muy baratas en esta tienda.」において、
+なぜ「son」が使われているのか疑問に感じるのは自然なことです。
+以下に、「ser」と「estar」の違いをこの文脈で解説します：
+1. SerとEstarの基本的な違い
+Ser: 本質的、恒常的、または普遍的な性質を表します。
+Estar: 状態や一時的な特徴、ある特定の状況に限られる性質を表します。
+2. この文脈での解釈
+「son」の場合
+「この店では果物が常に安い」という意味になります。
+→ この店で果物が安いことが、その店の特徴（本質的な特性）として語られている。
+「están」の場合
+「果物が今だけ一時的に安い」または「この店の果物が特定の状況で安い」というニュアンスになります。
+→ 例えば、セールや特定の日に限って安い場合に適しています。
+実際の使い分け
+「son」: 一般的・恒常的な事実を表現。
+Las frutas son muy baratas en esta tienda.
+→ この店の果物はいつも安い、という恒常的な事実。
+「están」: 一時的・限定的な状態を表現。
+Las frutas están muy baratas en esta tienda hoy.
+→ 今日この店で果物が安い、という一時的な状況。
+結論
+教科書の文では「この店で果物がいつも安い」という一般的な特徴を述べているため、
+「son」が適切です。しかし、状況によって「están」を使うことも十分あり得ます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>casaに冠詞がつかず、cocinaに冠詞がつく理由はなんですか？
+----
+以下にそれぞれの名詞に冠詞がつくかつかないかの理由を説明します。
+1. 「¿Hay alguien en casa?」の casa に冠詞がつかない理由
+スペイン語では、casa が「自分の家」や「誰かが住んでいる家」を指す場合、冠詞を省略するのが一般的です。
+	例:
+	Estoy en casa.（私は家にいる）
+	Vamos a casa.（私たちは家に行く）
+	冠詞を付ける場合 (la casa) は、
+	具体的な家を指し示す場合や「一般的な建物」としての家を意味します。
+	例:
+	Estamos pintando la casa.（私たちは家を塗装しています）
+	La casa de Pedro es muy grande.（ペドロの家はとても大きいです）
+この例文では、casa が「自分の家」を示すため冠詞は不要です。
+2. 「Estoy en la cocina.」の la cocina に冠詞がつく理由
+cocina は「キッチン」という特定の場所を示しており、
+文脈上「家の中にあるキッチン」として具体的な空間を指しています。
+そのため、冠詞 (la) を付ける必要があります。
+例:
+Estoy en la cocina.（私はキッチンにいます）
+Voy a la cocina a preparar algo.（キッチンに行って何か作ります）
+冠詞を付けない cocina は、抽象的または一般的な概念として「料理」や「キッチン全般」を指す場合に限られます。
+例:
+La cocina española es deliciosa.（スペイン料理は美味しい）
+Cocina es mi pasión.（料理は私の情熱です）
+まとめ
+casa に冠詞がない理由: 「自分の家」という文脈では冠詞を省略するのが一般的。
+cocina に冠詞がある理由: 特定の場所（ここでは家のキッチン）を指しているため、冠詞が必要。
+このルールは他の類似の場所にも適用されます
+（例: Estoy en clase.（授業中です）, Estoy en la escuela.（学校にいます））。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(男性について)「あの人(C)は誰ですか？」
+「私たちの仕事仲間です」</t>
+    <rPh sb="1" eb="3">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)「どこに住んでるの？」
+「ルナ通り８番地に住んでます」</t>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「por si」 は「〜の場合に備えて」「〜かもしれないので」というニュアンスで使われる表現です。
+主に仮定や可能性を示すために用いられ、
+主節と副詞句をつなぐ役割を果たします。以下に詳しく説明します：
+1. por si + 直説法
+この構文は、「現実的な可能性」を表す場合に使われます。
+ニュアンス: 「〜の場合に備えて」または「〜かもしれないから」
+例文:
+Llévate un paraguas por si llueve.
+（雨が降るといけないから傘を持って行ってね。）
+→ 雨が降る可能性が十分あると話者が考えている。
+Apunta mi número por si necesitas algo.
+（何か必要なことがあったらいけないから、私の番号をメモして。）
+2. por si + 接続法
+この構文は、「可能性が低い」「仮定的な状況」を表す場合に使われます。
+可能性が現実的でない場合や話者がそれを低いと見なしている場合に用いられます。
+ニュアンス: 「〜だった場合に備えて」
+例文:
+Voy a preparar más comida por si viniera alguien más.
+（誰か他の人が来るかもしれないから、もう少し料理を用意しておく。）
+→ 来る可能性はあるが、それほど高くない。
+Por si fuera necesario, traigo algunos documentos adicionales.
+（必要になるかもしれないから、追加の書類を持ってきた。）
+→ 必要になる可能性は低いが、万が一に備えて。
+3. 直説法と接続法の選択ポイント
+- 直説法を選ぶ場合
+現実的な可能性を表現したいとき。話者がその出来事が起こる可能性を十分に信じている場合。
+- 接続法を選ぶ場合
+仮定や可能性が低いと考えられる場合。または話者がその出来事を単なる仮定として扱っている場合。
+4. 表現の応用例
+Por si acaso（念のため、万が一の場合に備えて）:
+Voy a llevar un abrigo por si acaso hace frío.
+（念のため、寒いかもしれないからコートを持って行く。）
+Por si las moscas（口語表現: 念のため、用心して）:
+Llévate un cargador portátil por si las moscas.
+（念のため、携帯用充電器を持って行って。）
+注意点
+「por si」の後に来る動詞の形は、話者がその可能性をどの程度現実的と考えているかによって変わります。
+口語表現では、現実的な可能性が低い場合でも直説法を使うことがありますが、正式な文脈では接続法が適切です。
+まとめ
+現実的な可能性 → 直説法
+仮定的な可能性 → 接続法
+「por si」は「念のため」「場合に備えて」と覚え、
+使い分けの際に話者の視点や状況の確実性を考慮すると自然に使えます！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続法現在と接続法過去は、それぞれ異なる時間軸や文脈で使われますが、
+そのニュアンスには微妙な違いもあります。以下に両者の違いを整理します。
+1. 時間軸の違い
+接続法現在
+現在または未来に関連した状況や事柄について使われます。
+例:
+Espero que vengas a la fiesta.
+（君がパーティーに来ることを願っています。）
+→ 未来に起こることへの期待。
+Me alegra que estés aquí.
+（君がここにいるのが嬉しい。）
+→ 現在の状況に関する感情。
+接続法過去
+過去に関連した状況や事柄について使われます。
+例:
+Esperaba que vinieras a la fiesta.
+（君がパーティーに来ることを期待していました。）
+→ 過去に期待していたが、結果は明示されていない。
+Me alegró que estuvieras aquí.
+（君がここにいてくれて嬉しかった。）
+→ 過去の出来事に対する感情。
+2. 文法的文脈の違い
+接続法現在
+主節が現在形または未来形の場合に使われる。
+例:
+Es importante que sepas la verdad.
+（君が真実を知ることが大切です。）
+→ 主節が現在形（Es importante）。
+接続法過去
+主節が過去形や条件法の場合に使われる。
+例:
+Era importante que supieras la verdad.
+（君が真実を知ることが大切でした。）
+→ 主節が過去形（Era importante）。
+3. ニュアンスや意味の違い
+接続法現在は、話者の現在の感情、希望、疑念、または未来の可能性を強調します。
+例:
+Dudo que sea cierto.
+（それが本当かどうか疑わしい。）
+→ 今、疑念を感じている。
+接続法過去は、過去の希望や感情、または現実的でない仮定や条件を表します。
+例:
+Dudaba que fuera cierto.
+（それが本当かどうか疑っていました。）
+→ 過去の疑念。
+Si tuviera dinero, iría de viaje.
+（もしお金があれば、旅行に行くのに。）
+→ 現実とは異なる仮定。
+4. 例文比較でのニュアンスの違い
+接続法現在:
+Ojalá llueva mañana.
+（明日雨が降るといいな。）
+→ 未来に対する期待。
+接続法過去:
+Ojalá lloviera mañana.
+（明日雨が降ればいいのに。）
+→ 実現の可能性が低い、または現実的でない願望。
+まとめ
+接続法現在は「現在」や「未来」の希望や感情を表す。
+接続法過去は「過去」や「仮定」の状況、または実現困難な願望や仮想のシナリオを表す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「あなた方はこの日曜日何をされる予定(考え)ですか？」
+「うーん、特に何も」</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニチヨウビ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ここの名物料理を何か私たちにお勧めしていただけますか？」
+「はい、もちろんです」(CN)</t>
+    <rPh sb="4" eb="6">
+      <t>メイブツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Se me está acabando la batería
+この表現は、バッテリーが減ってきている（切れかかっている）状況を表す自然なスペイン語表現です。
+文法的に分解すると以下のようになります：
+1. Se me está acabando
+Se: 再帰動詞 acabarse を使った形式で、「（何かが）終わる」「尽きる」「なくなる」といった意味を持ちます。
+この場合は「なくなりつつある」という進行形です。
+me: 間接目的語代名詞で、「私にとって」「私に関係する」というニュアンスを加えています。
+つまり「私のバッテリーが減ってきている」となります。
+está acabando: 動詞の進行形 (estar + 現在分詞) を使って、
+「今まさにバッテリーが減少している途中」という動作の進行を表現しています。
+2. la batería
+ここでは特定の「（携帯電話の）バッテリー」を指すので、定冠詞 la が使われています。
+文の直訳とニュアンス
+直訳: 「私のところでバッテリーがなくなりつつある。」
+自然な訳: 「バッテリーが切れかかっている。」
+文法的ポイント
+再帰動詞: 動作が自発的に起きていることを表現します。
+この場合、バッテリーが自ら消耗していくイメージです。
+間接目的語: 話し手との関係を示しており、「その動作が話し手に影響を与える」ことを伝えます。
+他の例文
+同じ構造を持つ表現をいくつか挙げます：
+Se me rompieron las gafas.
+（私の眼鏡が壊れてしまった。）
+Se le cayó el café.
+（彼／彼女がコーヒーを落としてしまった。）
+Se nos acabó el tiempo.
+（私たちの時間がなくなった。）
+これらの表現では、再帰動詞と間接目的語の組み合わせによって、
+話し手や主語に何らかの影響が及ぶことを自然に伝えています。
+----------
+Se me 三人称 系の文は文法を使って、「私にとって～された＝私の責任ではない(故意ではない)」と説明はできるけど
+結局のところ、この構文が使われている文をみて
+「自発的なことではないですよ」という気持ちが出てくるまで、何度も何度もこの構文に浸る必要がある。
+その気持ちが出てくる道のりを考えてみる。
+まず、単語と他の文法が無意識に理解できていないといけない
+Se me está acabandoを例にとると
+・もちろんacabarを知っている
+・se me とかse lo とか間接目的語と直接目的語がならんでるやつはいっぱい出てくるから、それに慣れる・
+・進行形、estar + gerundioを理解している。
+ここまで理解できていると、Se me está acabandoは、
+自分と関係なく勝手に、バッテリが切れかけてる！っていう気持ちが出てくる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)「テニスしません？」
+「いや、肩をけがしていてできないんです」</t>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)この交通系ICカード(複数)でほとんど全国を移動できるんですよ</t>
+    <rPh sb="6" eb="8">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンコク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>de: 前置詞。「～について」という意味です。
+el: 定冠詞。「新しい上司」を特定するために使われます。
+nuevo jefe: 名詞句。「新しい上司」の意味です。
+文法的ポイント
+疑問詞 + 直説法現在形
+スペイン語では疑問文を作る際、疑問詞（qué など）を文頭に置き、その後に通常の文の語順で述べます。
+この文では piensan（考える）という具体的な動作を聞いています。
+de + el = del
+前置詞 de（～について）と定冠詞 el が続く場合、del という短縮形になります。
+定冠詞 el の使用
+nuevo jefe（新しい上司）は話し手と聞き手の間で具体的に誰のことを指しているかが明確であるため、定冠詞 el が使われています。
+可能なバリエーション
+¿Qué opinan ustedes del nuevo jefe?
+opinan（意見を持つ）を使った表現。
+「新しい上司についてどう思いますか？」の別の言い方。
+¿Qué les parece el nuevo jefe?
+parece（～のように思える）を使った表現。
+「新しい上司についてどのように思いますか？」というニュアンス。
+まとめ
+この文では、**「新しい上司についてどう思いますか？」**という質問を聞いています。
+丁寧でフォーマルな表現であり、どのような意見を持っているかを尋ねる際に使われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿Dónde viven (ustedes)?
+Vivimos en las afueras de Tokio.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(あなた方に対して)「どこに住んでらっしゃるんですか？」
+「東京の郊外(複数)に住んでいます」</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウガイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿Qué piensan (ustedes) del nuevo jefe?
+Nos parece muy competente.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文は、強調や否定を表現するために効果的に構造が組み立てられています。
+それぞれの要素について解説します。
+1. Ni
+意味: 「～でさえも～ない」「まったく～ない」といった否定を強調する副詞。
+文脈: この場合、「自分自身でさえ説明できない」というニュアンスを表現しています。
+例:
+Ni tú lo sabes.（君でさえ知らない。）
+Ni siquiera lo intentó.（試しさえもしなかった。）
+2. Yo misma
+意味: 「私自身」という強調表現。
+"misma" は再帰代名詞の強調として使われます。
+文の主語「yo」を修飾し、「私自身でさえも」とさらに強調します。
+文脈: 「自分でさえも理解できない」という意味を強調しています。
+例:
+Yo misma lo haré.（私自身がそれをやる。）
+Tú mismo deberías comprobarlo.（君自身で確認すべきだよ。）
+3. Me lo explico
+構造: 再帰動詞 explicarse を使った表現。
+explicarse: 「自分に説明する」「自分で納得する」というニュアンス。
+me lo: 再帰代名詞「me」（自分に）と目的語代名詞「lo」（それ、具体的には「なぜそうしたのか」）を組み合わせています。
+文脈: 「私はそれを説明できない」＝「なぜそうしたのか、自分自身にすら説明できない」という意味。
+直訳と自然な訳
+直訳: 「私自身、それを自分に説明することさえできない。」
+自然な訳: 「自分でもなぜそうしたのか分からない。」
+まとめ
+Ni yo misma: 強調（「私自身でさえ」）。
+me lo explico: 再帰動詞で「自分に説明する」。
+否定の強調によって、話し手の困惑や理解不能さを表現しています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16164,8 +16442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C108" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16177,27 +16455,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="37.5">
       <c r="A1" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5">
@@ -16205,31 +16483,31 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5">
       <c r="B5" s="1" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16237,15 +16515,15 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.5">
@@ -16253,18 +16531,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.5">
       <c r="B10" s="1" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -16272,13 +16550,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E11" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5">
@@ -16286,10 +16564,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -16297,7 +16575,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16305,7 +16583,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16313,34 +16591,34 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="409.5">
       <c r="B18" s="1" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="37.5">
@@ -16348,7 +16626,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="409.5">
@@ -16356,24 +16634,24 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="37.5">
       <c r="B21" s="1" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D21" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E21" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -16381,7 +16659,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="37.5">
@@ -16389,15 +16667,15 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="37.5">
       <c r="B24" s="1" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="37.5">
@@ -16405,23 +16683,26 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="409.5">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -16429,7 +16710,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -16437,7 +16718,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="37.5">
@@ -16445,7 +16726,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="37.5">
@@ -16453,13 +16734,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D31" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E31" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="37.5">
@@ -16467,5019 +16748,5037 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="37.5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="37.5">
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="37.5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="37.5">
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="37.5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="37.5">
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="37.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="37.5">
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="37.5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="409.5">
       <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
+        <v>346</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="37.5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="37.5">
       <c r="B41" s="1" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="C41" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="D41" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E41" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="37.5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="37.5">
       <c r="B42" s="1" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="37.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="37.5">
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="37.5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="37.5">
       <c r="B44" s="1" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="37.5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="37.5">
       <c r="B46" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="37.5">
+      <c r="B47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="37.5">
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="37.5">
+      <c r="B48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="37.5">
-      <c r="B48" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="1" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="37.5">
       <c r="B50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="37.5">
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D51" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E51" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="37.5">
       <c r="B52" s="1" t="s">
-        <v>33</v>
+        <v>1416</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="37.5">
       <c r="B53" s="1" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="37.5">
       <c r="B54" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="37.5">
       <c r="B58" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="37.5">
       <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="37.5">
       <c r="B61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D61" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E61" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="37.5">
       <c r="B62" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="37.5">
       <c r="B63" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="37.5">
       <c r="B64" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="37.5">
+      <c r="B66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="409.5">
+      <c r="B67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="37.5">
+      <c r="B68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="37.5">
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="37.5">
+      <c r="B71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" t="s">
+        <v>395</v>
+      </c>
+      <c r="E71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="37.5">
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="37.5">
+      <c r="B76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="37.5">
+      <c r="B77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="37.5">
+      <c r="B78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="56.25">
+      <c r="B79" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="37.5">
+      <c r="B80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="37.5">
+      <c r="B81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D81" t="s">
+        <v>397</v>
+      </c>
+      <c r="E81" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="37.5">
+      <c r="B82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="56.25">
+      <c r="B83" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="409.5">
+      <c r="B86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="37.5">
+      <c r="B88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="56.25">
+      <c r="B89" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" t="s">
+        <v>399</v>
+      </c>
+      <c r="E91" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="37.5">
+      <c r="B92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="37.5">
+      <c r="B94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="37.5">
+      <c r="B95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="37.5">
+      <c r="B96" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="37.5">
+      <c r="B97" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="37.5">
+      <c r="B98" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="37.5">
+      <c r="B100" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="37.5">
+      <c r="B101" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D101" t="s">
+        <v>401</v>
+      </c>
+      <c r="E101" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="56.25">
+      <c r="B102" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="37.5">
+      <c r="B103" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="37.5">
+      <c r="B104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="409.5">
+      <c r="B105" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="56.25">
+      <c r="B106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" ht="37.5">
+      <c r="B107" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="37.5">
+      <c r="B108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="37.5">
+      <c r="B109" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="37.5">
+      <c r="B110" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="37.5">
+      <c r="B112" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="37.5">
+      <c r="B113" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C116" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C117" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="37.5">
+      <c r="B118" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="409.5">
+      <c r="B119" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="37.5">
+      <c r="B120" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C121" t="s">
+        <v>274</v>
+      </c>
+      <c r="D121" t="s">
+        <v>405</v>
+      </c>
+      <c r="E121" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" ht="37.5">
+      <c r="B122" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="37.5">
+      <c r="B123" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="37.5">
-      <c r="B66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="37.5">
-      <c r="B67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="37.5">
-      <c r="B68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="37.5">
-      <c r="B70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="37.5">
-      <c r="B71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D71" t="s">
-        <v>404</v>
-      </c>
-      <c r="E71" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C72" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="37.5">
-      <c r="B73" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="37.5">
-      <c r="B76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="37.5">
-      <c r="B77" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="37.5">
-      <c r="B78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="37.5">
-      <c r="B79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="37.5">
-      <c r="B80" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="37.5">
-      <c r="B81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D81" t="s">
-        <v>406</v>
-      </c>
-      <c r="E81" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="37.5">
-      <c r="B82" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="56.25">
-      <c r="B83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="37.5">
-      <c r="B88" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="56.25">
-      <c r="B89" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" t="s">
-        <v>408</v>
-      </c>
-      <c r="E91" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="37.5">
-      <c r="B92" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="37.5">
-      <c r="B94" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" ht="37.5">
-      <c r="B95" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="37.5">
-      <c r="B96" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" ht="37.5">
-      <c r="B97" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="37.5">
-      <c r="B98" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" ht="37.5">
-      <c r="B100" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="37.5">
-      <c r="B101" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D101" t="s">
-        <v>410</v>
-      </c>
-      <c r="E101" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="56.25">
-      <c r="B102" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" ht="37.5">
-      <c r="B103" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="37.5">
-      <c r="B104" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="56.25">
-      <c r="B105" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="56.25">
-      <c r="B106" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="37.5">
-      <c r="B107" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="37.5">
-      <c r="B108" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="37.5">
-      <c r="B109" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="37.5">
-      <c r="B110" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C111" t="s">
-        <v>290</v>
-      </c>
-      <c r="D111" t="s">
-        <v>412</v>
-      </c>
-      <c r="E111" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" ht="37.5">
-      <c r="B112" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" ht="37.5">
-      <c r="B113" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="37.5">
+      <c r="B124" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="37.5">
+      <c r="B125" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C115" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C116" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C117" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="37.5">
-      <c r="B118" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" ht="37.5">
-      <c r="B119" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" ht="37.5">
-      <c r="B120" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C120" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C121" t="s">
-        <v>281</v>
-      </c>
-      <c r="D121" t="s">
-        <v>414</v>
-      </c>
-      <c r="E121" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" ht="37.5">
-      <c r="B122" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" ht="37.5">
-      <c r="B123" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" ht="37.5">
-      <c r="B124" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" ht="37.5">
-      <c r="B125" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" ht="37.5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" ht="37.5">
       <c r="B126" s="1" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" ht="37.5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="37.5">
       <c r="B127" s="1" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" ht="56.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="56.25">
       <c r="B128" s="1" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="37.5">
       <c r="B129" s="1" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="37.5">
       <c r="B130" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="37.5">
       <c r="B131" s="1" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D131" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E131" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="37.5">
       <c r="B132" s="1" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="37.5">
       <c r="B133" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="37.5">
       <c r="B134" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="37.5">
       <c r="B135" s="1" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="56.25">
       <c r="B136" s="1" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="1" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="37.5">
       <c r="B138" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="37.5">
       <c r="B139" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="37.5">
       <c r="B140" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="37.5">
       <c r="B141" s="1" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D141" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E141" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="37.5">
       <c r="B142" s="1" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="37.5">
       <c r="B143" s="1" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="C143" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="1" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="C144" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="37.5">
       <c r="B145" s="1" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="37.5">
       <c r="B146" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="56.25">
       <c r="B147" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="37.5">
       <c r="B148" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="37.5">
       <c r="B149" s="1" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="37.5">
       <c r="B150" s="1" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="37.5">
       <c r="B151" s="1" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D151" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E151" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="37.5">
       <c r="B152" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="56.25">
       <c r="B153" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="37.5">
       <c r="B154" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C154" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="37.5">
       <c r="B155" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C155" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="37.5">
       <c r="B156" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="1" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="C157" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="37.5">
       <c r="B158" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="37.5">
       <c r="B161" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="D161" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E161" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="1" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="C162" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="37.5">
       <c r="B163" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="37.5">
       <c r="B164" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="56.25">
       <c r="B166" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="37.5">
       <c r="B167" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="37.5">
       <c r="B168" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="37.5">
       <c r="B169" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="37.5">
       <c r="B170" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C171" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D171" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E171" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="1" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="C172" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="1" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="C173" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="37.5">
       <c r="B174" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="1" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="C175" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="37.5">
       <c r="B176" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C176" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="37.5">
       <c r="B177" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="37.5">
       <c r="B178" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="37.5">
       <c r="B179" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="37.5">
       <c r="B180" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C181" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D181" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E181" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="37.5">
       <c r="B182" s="1" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="C182" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="B183" s="1" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="C183" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="B184" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C184" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="1" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C186" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="B187" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C187" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="B188" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C188" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="37.5">
       <c r="B189" s="1" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="B190" s="1" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C190" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="37.5">
       <c r="B191" s="1" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D191" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="37.5">
       <c r="B192" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C192" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="37.5">
       <c r="B193" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C193" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="37.5">
       <c r="B194" s="1" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="C194" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C195" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C196" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C197" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="1" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="C198" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C199" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="56.25">
       <c r="B200" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="37.5">
       <c r="B201" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D201" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E201" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="37.5">
       <c r="B202" s="1" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="C202" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="1" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="C203" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C204" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="37.5">
       <c r="B205" s="1" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C205" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="37.5">
       <c r="B206" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C206" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="37.5">
       <c r="B207" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="37.5">
       <c r="B208" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C208" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C209" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="37.5">
       <c r="B210" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C210" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C211" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D211" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="E211" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C212" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C213" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="37.5">
       <c r="B214" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="37.5">
       <c r="B215" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="37.5">
       <c r="B216" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="1" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="37.5">
       <c r="B218" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="1" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="C221" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D221" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E221" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="37.5">
       <c r="B222" s="1" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="37.5">
       <c r="B223" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="37.5">
       <c r="B224" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C224" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="56.25">
       <c r="B225" s="1" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="37.5">
       <c r="B226" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="37.5">
       <c r="B227" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="1" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="37.5">
       <c r="B229" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="37.5">
       <c r="B230" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C231" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D231" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C232" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C233" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="37.5">
       <c r="B234" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C235" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="37.5">
       <c r="B236" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="37.5">
       <c r="B237" s="1" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="37.5">
       <c r="B238" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="37.5">
       <c r="B239" s="1" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="56.25">
       <c r="A241" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="D241" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E241" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="37.5">
       <c r="B243" s="1" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="37.5">
       <c r="B244" s="1" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="B245" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="37.5">
       <c r="B246" s="1" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="B247" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="37.5">
       <c r="B248" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="37.5">
       <c r="B249" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="37.5">
       <c r="B250" s="1" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="37.5">
       <c r="B251" s="1" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D251" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E251" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="37.5">
       <c r="B252" s="1" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="B253" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="37.5">
       <c r="B254" s="1" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="37.5">
       <c r="B255" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="37.5">
       <c r="B256" s="1" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="257" spans="2:5">
       <c r="B257" s="1" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="37.5">
       <c r="B258" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="37.5">
       <c r="B259" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="260" spans="2:5">
       <c r="B260" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="37.5">
       <c r="B261" s="1" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="C261" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D261" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E261" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="262" spans="2:5">
       <c r="B262" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C262" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="37.5">
       <c r="B263" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C263" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="37.5">
       <c r="B264" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C264" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="265" spans="2:5">
       <c r="B265" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C265" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="266" spans="2:5">
       <c r="B266" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C266" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="56.25">
       <c r="B267" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="37.5">
       <c r="B268" s="1" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="37.5">
       <c r="B269" s="1" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="37.5">
       <c r="B270" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="37.5">
       <c r="B271" s="1" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D271" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E271" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="37.5">
       <c r="B272" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="273" spans="2:5">
       <c r="B273" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="56.25">
       <c r="B274" s="1" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="37.5">
       <c r="B275" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="276" spans="2:5">
       <c r="B276" s="1" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="37.5">
       <c r="B277" s="1" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="37.5">
       <c r="B278" s="1" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="37.5">
       <c r="B279" s="1" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="37.5">
       <c r="B280" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="37.5">
       <c r="B281" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D281" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E281" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="37.5">
       <c r="B282" s="1" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="37.5">
       <c r="B283" s="1" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="284" spans="2:5">
       <c r="B284" s="1" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="37.5">
       <c r="B285" s="1" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="286" spans="2:5">
       <c r="B286" s="1" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="37.5">
       <c r="B287" s="1" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="37.5">
       <c r="B288" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="37.5">
       <c r="B289" s="1" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="37.5">
       <c r="B290" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="291" spans="2:5">
       <c r="B291" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D291" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E291" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="37.5">
       <c r="B292" s="1" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="37.5">
       <c r="B293" s="1" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="37.5">
       <c r="B294" s="1" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="37.5">
       <c r="B295" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="37.5">
       <c r="B296" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="37.5">
       <c r="B297" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="37.5">
       <c r="B298" s="1" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="299" spans="2:5">
       <c r="B299" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="37.5">
       <c r="B300" s="1" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="301" spans="2:5">
       <c r="B301" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D301" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="302" spans="2:5" ht="37.5">
       <c r="B302" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="37.5">
       <c r="B303" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="304" spans="2:5">
       <c r="B304" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="37.5">
       <c r="B305" s="1" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="37.5">
       <c r="B306" s="1" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="37.5">
       <c r="B307" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="37.5">
       <c r="B308" s="1" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="37.5">
       <c r="B309" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="37.5">
       <c r="B310" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="37.5">
       <c r="B311" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D311" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E311" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="312" spans="2:5">
       <c r="B312" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="313" spans="2:5">
       <c r="B313" s="1" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="37.5">
       <c r="B314" s="1" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="37.5">
       <c r="B315" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="316" spans="2:5">
       <c r="B316" s="1" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="317" spans="2:5">
       <c r="B317" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="37.5">
       <c r="B318" s="1" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="37.5">
       <c r="B319" s="1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="37.5">
       <c r="B320" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="37.5">
       <c r="B321" s="1" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D321" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E321" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="37.5">
       <c r="B322" s="1" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="37.5">
       <c r="B323" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="324" spans="2:5">
       <c r="B324" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="37.5">
       <c r="B325" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="37.5">
       <c r="B326" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="327" spans="2:5">
       <c r="B327" s="1" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="37.5">
       <c r="B328" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="37.5">
       <c r="B329" s="1" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="37.5">
       <c r="B330" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="37.5">
       <c r="B331" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D331" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E331" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="332" spans="2:5">
       <c r="B332" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="37.5">
       <c r="B333" s="1" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="334" spans="2:5">
       <c r="B334" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="37.5">
       <c r="B335" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="336" spans="2:5">
       <c r="B336" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="37.5">
       <c r="B337" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="37.5">
       <c r="B338" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="1" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="56.25">
       <c r="B340" s="1" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="37.5">
       <c r="B341" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D341" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="342" spans="2:5">
       <c r="B342" s="1" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="37.5">
       <c r="B343" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="344" spans="2:5">
       <c r="B344" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="345" spans="2:5">
       <c r="B345" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="37.5">
       <c r="B346" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="347" spans="2:5">
       <c r="B347" s="1" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="348" spans="2:5">
       <c r="B348" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="349" spans="2:5">
       <c r="B349" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="37.5">
       <c r="B350" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="1" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D351" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E351" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="37.5">
       <c r="B352" s="1" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="353" spans="2:5">
       <c r="B353" s="1" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="354" spans="2:5">
       <c r="B354" s="1" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="37.5">
       <c r="B355" s="1" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="356" spans="2:5">
       <c r="B356" s="1" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="37.5">
       <c r="B357" s="1" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="358" spans="2:5">
       <c r="B358" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="359" spans="2:5">
       <c r="B359" s="1" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="360" spans="2:5">
       <c r="B360" s="1" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="361" spans="2:5">
       <c r="B361" s="1" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D361" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E361" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="362" spans="2:5">
       <c r="B362" s="1" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="37.5">
       <c r="B363" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="364" spans="2:5">
       <c r="B364" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="37.5">
       <c r="B365" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="366" spans="2:5">
       <c r="B366" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="368" spans="2:5">
       <c r="B368" s="1" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="C368" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6">
+      <c r="B369" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" ht="37.5">
+      <c r="B370" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6">
+      <c r="B371" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D371" t="s">
+        <v>646</v>
+      </c>
+      <c r="E371" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6">
+      <c r="B372" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" ht="37.5">
+      <c r="B373" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" ht="37.5">
+      <c r="B374" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" ht="37.5">
+      <c r="B375" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6">
+      <c r="B376" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" ht="37.5">
+      <c r="B377" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="369" spans="2:5">
-      <c r="B369" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C369" s="1" t="s">
+      <c r="C377" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" ht="37.5">
+      <c r="B378" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="370" spans="2:5" ht="37.5">
-      <c r="B370" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C370" s="1" t="s">
+      <c r="C378" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" ht="56.25">
+      <c r="B379" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="371" spans="2:5">
-      <c r="B371" s="1" t="s">
+      <c r="C379" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6">
+      <c r="B380" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" ht="409.5">
+      <c r="B381" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C371" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="D371" t="s">
+      <c r="C381" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="E371" t="s">
+      <c r="D381" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="372" spans="2:5">
-      <c r="B372" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="373" spans="2:5" ht="37.5">
-      <c r="B373" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="374" spans="2:5" ht="37.5">
-      <c r="B374" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="375" spans="2:5" ht="37.5">
-      <c r="B375" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="376" spans="2:5">
-      <c r="B376" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="377" spans="2:5" ht="37.5">
-      <c r="B377" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C377" s="1" t="s">
+      <c r="E381" t="s">
+        <v>655</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" ht="37.5">
+      <c r="B382" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="378" spans="2:5" ht="37.5">
-      <c r="B378" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C378" s="1" t="s">
+    <row r="383" spans="2:6">
+      <c r="B383" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="56.25">
-      <c r="B379" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C379" s="1" t="s">
+    <row r="384" spans="2:6" ht="37.5">
+      <c r="B384" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>679</v>
-      </c>
-    </row>
-    <row r="380" spans="2:5">
-      <c r="B380" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5">
-      <c r="B381" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D381" t="s">
-        <v>663</v>
-      </c>
-      <c r="E381" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="382" spans="2:5" ht="37.5">
-      <c r="B382" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5">
-      <c r="B383" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="384" spans="2:5" ht="37.5">
-      <c r="B384" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="37.5">
       <c r="B385" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="37.5">
       <c r="B386" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="37.5">
       <c r="B387" s="1" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="388" spans="2:5">
       <c r="B388" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="37.5">
       <c r="B389" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="56.25">
       <c r="B390" s="1" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="391" spans="2:5">
       <c r="B391" s="1" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D391" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E391" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="37.5">
       <c r="B392" s="1" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="37.5">
       <c r="B393" s="1" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="37.5">
       <c r="B394" s="1" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="37.5">
       <c r="B395" s="1" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="398" spans="2:5">
       <c r="B398" s="1" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="37.5">
       <c r="B399" s="1" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="37.5">
       <c r="B400" s="1" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="37.5">
       <c r="B401" s="1" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D401" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="E401" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="37.5">
       <c r="B402" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="403" spans="2:5">
       <c r="B403" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="37.5">
       <c r="B404" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="37.5">
       <c r="B405" s="1" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="37.5">
       <c r="B406" s="1" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="37.5">
       <c r="B407" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="408" spans="2:5">
       <c r="B408" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="37.5">
       <c r="B409" s="1" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="37.5">
       <c r="B410" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="37.5">
       <c r="B411" s="1" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="D411" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="E411" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="412" spans="2:5">
       <c r="B412" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="37.5">
       <c r="B413" s="1" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="37.5">
       <c r="B414" s="1" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="415" spans="2:5">
       <c r="B415" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C415" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="37.5">
       <c r="B416" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C416" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="417" spans="2:5">
       <c r="B417" s="1" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="418" spans="2:5">
       <c r="B418" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="419" spans="2:5">
       <c r="B419" s="1" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="56.25">
       <c r="B420" s="1" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="37.5">
       <c r="B421" s="1" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D421" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="E421" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="37.5">
       <c r="B422" s="1" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="37.5">
       <c r="B423" s="1" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="56.25">
       <c r="B424" s="1" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="37.5">
       <c r="B425" s="1" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="37.5">
       <c r="B426" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="37.5">
       <c r="B427" s="1" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="37.5">
       <c r="B428" s="1" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="429" spans="2:5">
       <c r="B429" s="1" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="430" spans="2:5">
       <c r="B430" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="431" spans="2:5">
       <c r="B431" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C431" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="D431" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E431" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="37.5">
       <c r="B432" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="B433" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="37.5">
       <c r="B434" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="93.75">
       <c r="B435" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C435" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="F435" s="1" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="131.25">
       <c r="B436" s="1" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="37.5">
       <c r="B437" s="1" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="37.5">
       <c r="B438" s="1" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="37.5">
       <c r="B439" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="B440" s="1" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="37.5">
       <c r="A441" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="D441" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E441" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="37.5">
       <c r="B442" s="1" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="37.5">
       <c r="B443" s="1" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="37.5">
       <c r="B444" s="1" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="131.25">
       <c r="B445" s="1" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="37.5">
       <c r="B446" s="1" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="37.5">
       <c r="B447" s="1" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="37.5">
       <c r="B448" s="1" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="56.25">
       <c r="B449" s="1" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="37.5">
       <c r="B450" s="1" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="451" spans="2:5">
       <c r="B451" s="1" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D451" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E451" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="37.5">
       <c r="B452" s="1" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="37.5">
       <c r="B453" s="1" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="37.5">
       <c r="B454" s="1" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="37.5">
       <c r="B455" s="1" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="37.5">
       <c r="B456" s="1" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="37.5">
       <c r="B457" s="1" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="458" spans="2:5">
       <c r="B458" s="1" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="459" spans="2:5">
       <c r="B459" s="1" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="460" spans="2:5" ht="37.5">
       <c r="B460" s="1" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="461" spans="2:5">
       <c r="B461" s="1" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D461" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="E461" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="462" spans="2:5">
       <c r="B462" s="1" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="463" spans="2:5">
       <c r="B463" s="1" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
     </row>
     <row r="464" spans="2:5">
       <c r="B464" s="1" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="37.5">
       <c r="B465" s="1" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="466" spans="2:5">
       <c r="B466" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="467" spans="2:5">
       <c r="B467" s="1" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="37.5">
       <c r="B468" s="1" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="469" spans="2:5">
       <c r="B469" s="1" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
     </row>
     <row r="470" spans="2:5">
       <c r="B470" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="37.5">
       <c r="B471" s="1" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="D471" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="E471" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="472" spans="2:5" ht="37.5">
       <c r="B472" s="1" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="37.5">
       <c r="B473" s="1" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="37.5">
       <c r="B474" s="1" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="37.5">
       <c r="B475" s="1" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="37.5">
       <c r="B476" s="1" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="37.5">
       <c r="B477" s="1" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="478" spans="2:5">
       <c r="B478" s="1" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="37.5">
       <c r="B479" s="1" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="37.5">
       <c r="B480" s="1" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
     </row>
     <row r="481" spans="2:6" ht="37.5">
       <c r="B481" s="1" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="D481" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="E481" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="482" spans="2:6">
       <c r="B482" s="1" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="483" spans="2:6" ht="37.5">
       <c r="B483" s="1" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="484" spans="2:6" ht="75">
       <c r="B484" s="1" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="485" spans="2:6">
       <c r="B485" s="1" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="486" spans="2:6" ht="37.5">
       <c r="B486" s="1" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="487" spans="2:6" ht="37.5">
       <c r="B487" s="1" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="488" spans="2:6" ht="112.5">
       <c r="B488" s="1" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="489" spans="2:6" ht="225">
       <c r="B489" s="1" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="490" spans="2:6" ht="37.5">
       <c r="B490" s="1" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="491" spans="2:6" ht="37.5">
       <c r="B491" s="1" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D491" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="E491" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="492" spans="2:6">
       <c r="B492" s="1" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
     </row>
     <row r="493" spans="2:6" ht="37.5">
       <c r="B493" s="1" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
     </row>
     <row r="494" spans="2:6">
       <c r="B494" s="1" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="495" spans="2:6" ht="37.5">
       <c r="B495" s="1" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="496" spans="2:6" ht="37.5">
       <c r="B496" s="1" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="497" spans="2:6" ht="243.75">
       <c r="B497" s="1" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="498" spans="2:6" ht="37.5">
       <c r="B498" s="1" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="499" spans="2:6" ht="37.5">
       <c r="B499" s="1" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="500" spans="2:6" ht="37.5">
       <c r="B500" s="1" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="501" spans="2:6">
       <c r="B501" s="1" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="D501" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="E501" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="502" spans="2:6" ht="37.5">
       <c r="B502" s="1" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="503" spans="2:6">
       <c r="B503" s="1" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="504" spans="2:6">
       <c r="B504" s="1" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="505" spans="2:6" ht="37.5">
       <c r="B505" s="1" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="506" spans="2:6" ht="37.5">
       <c r="B506" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="507" spans="2:6">
       <c r="B507" s="1" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="508" spans="2:6" ht="37.5">
       <c r="B508" s="1" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="509" spans="2:6">
       <c r="B509" s="1" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="510" spans="2:6" ht="409.5">
       <c r="B510" s="1" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="511" spans="2:6">
       <c r="B511" s="1" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D511" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="E511" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="512" spans="2:6" ht="318.75">
       <c r="B512" s="1" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="513" spans="2:6" ht="409.5">
       <c r="B513" s="1" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" s="1" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="515" spans="2:6" ht="56.25">
       <c r="B515" s="1" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="516" spans="2:6" ht="37.5">
       <c r="B516" s="1" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" s="1" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="518" spans="2:6" ht="409.5">
       <c r="B518" s="1" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="519" spans="2:6" ht="409.5">
       <c r="B519" s="1" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="520" spans="2:6" ht="409.5">
       <c r="B520" s="1" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="521" spans="2:6">
       <c r="B521" s="1" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D521" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="E521" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="522" spans="2:6" ht="37.5">
       <c r="B522" s="1" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="523" spans="2:6">
       <c r="B523" s="1" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="524" spans="2:6">
       <c r="B524" s="1" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="525" spans="2:6">
       <c r="B525" s="1" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="526" spans="2:6">
       <c r="B526" s="1" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="527" spans="2:6">
       <c r="B527" s="1" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="528" spans="2:6" ht="356.25">
       <c r="B528" s="1" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="529" spans="2:6" ht="409.5">
       <c r="B529" s="1" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="530" spans="2:6" ht="409.5">
       <c r="B530" s="1" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="531" spans="2:6">
       <c r="B531" s="1" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="D531" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="E531" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
     <row r="532" spans="2:6" ht="409.5">
       <c r="B532" s="1" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="533" spans="2:6">
       <c r="B533" s="1" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
     </row>
     <row r="534" spans="2:6" ht="37.5">
       <c r="B534" s="1" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="535" spans="2:6" ht="37.5">
       <c r="B535" s="1" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="536" spans="2:6" ht="37.5">
       <c r="B536" s="1" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="537" spans="2:6" ht="37.5">
       <c r="B537" s="1" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="538" spans="2:6" ht="37.5">
       <c r="B538" s="1" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="539" spans="2:6" ht="37.5">
       <c r="B539" s="1" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="540" spans="2:6" ht="318.75">
       <c r="B540" s="1" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="541" spans="2:6" ht="37.5">
       <c r="B541" s="1" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="D541" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="E541" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="542" spans="2:6" ht="409.5">
       <c r="B542" s="1" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="543" spans="2:6">
       <c r="B543" s="1" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="544" spans="2:6" ht="37.5">
       <c r="B544" s="1" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="545" spans="2:6" ht="187.5">
       <c r="B545" s="1" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="546" spans="2:6" ht="409.5">
       <c r="B546" s="1" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="547" spans="2:6" ht="409.5">
       <c r="B547" s="1" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="548" spans="2:6" ht="409.5">
       <c r="B548" s="1" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="549" spans="2:6" ht="409.5">
       <c r="B549" s="1" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="550" spans="2:6" ht="409.5">
       <c r="B550" s="1" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="551" spans="2:6" ht="37.5">
       <c r="B551" s="1" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="D551" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="E551" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="552" spans="2:6" ht="37.5">
       <c r="B552" s="1" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
     </row>
     <row r="553" spans="2:6" ht="37.5">
       <c r="B553" s="1" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="554" spans="2:6" ht="409.5">
       <c r="B554" s="1" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="555" spans="2:6" ht="37.5">
       <c r="B555" s="1" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="556" spans="2:6" ht="37.5">
       <c r="B556" s="1" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="557" spans="2:6" ht="37.5">
       <c r="B557" s="1" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="558" spans="2:6" ht="409.5">
       <c r="B558" s="1" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="559" spans="2:6" ht="409.5">
       <c r="B559" s="1" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="560" spans="2:6" ht="409.5">
       <c r="B560" s="1" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="561" spans="2:6" ht="37.5">
       <c r="B561" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C561" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C561" s="1" t="s">
-        <v>1006</v>
-      </c>
       <c r="D561" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="E561" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="562" spans="2:6">
       <c r="B562" s="1" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
     </row>
     <row r="563" spans="2:6" ht="409.5">
       <c r="B563" s="1" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="564" spans="2:6" ht="37.5">
       <c r="B564" s="1" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="565" spans="2:6" ht="37.5">
       <c r="B565" s="1" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="566" spans="2:6" ht="37.5">
       <c r="B566" s="1" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="567" spans="2:6" ht="37.5">
       <c r="B567" s="1" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="568" spans="2:6" ht="37.5">
       <c r="B568" s="1" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="569" spans="2:6" ht="409.5">
       <c r="B569" s="1" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="570" spans="2:6" ht="409.5">
       <c r="B570" s="1" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="571" spans="2:6" ht="37.5">
       <c r="B571" s="1" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="D571" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="E571" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="572" spans="2:6" ht="37.5">
       <c r="B572" s="1" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="573" spans="2:6" ht="37.5">
       <c r="B573" s="1" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="574" spans="2:6" ht="37.5">
       <c r="B574" s="1" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="575" spans="2:6">
       <c r="B575" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="576" spans="2:6">
       <c r="B576" s="1" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="577" spans="2:6" ht="409.5">
       <c r="B577" s="1" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="578" spans="2:6">
       <c r="B578" s="1" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="579" spans="2:6" ht="37.5">
       <c r="B579" s="1" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="580" spans="2:6">
       <c r="B580" s="1" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="581" spans="2:6" ht="409.5">
       <c r="B581" s="1" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="D581" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="E581" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="582" spans="2:6" ht="131.25">
       <c r="B582" s="1" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="583" spans="2:6" ht="375">
       <c r="B583" s="1" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="584" spans="2:6" ht="300">
       <c r="B584" s="1" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="585" spans="2:6">
       <c r="B585" s="1" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="586" spans="2:6">
       <c r="B586" s="1" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="587" spans="2:6" ht="37.5">
       <c r="B587" s="1" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="588" spans="2:6" ht="75">
       <c r="B588" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C588" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C588" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="F588" s="1" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="589" spans="2:6" ht="409.5">
       <c r="B589" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C589" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C589" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="F589" s="1" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="590" spans="2:6" ht="262.5">
       <c r="B590" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C590" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C590" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="F590" s="1" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="591" spans="2:6" ht="37.5">
       <c r="B591" s="1" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="D591" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="E591" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="592" spans="2:6" ht="37.5">
       <c r="B592" s="1" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="593" spans="2:6" ht="37.5">
       <c r="B593" s="1" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="594" spans="2:6" ht="75">
       <c r="B594" s="1" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="595" spans="2:6" ht="168.75">
       <c r="B595" s="1" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="596" spans="2:6" ht="409.5">
       <c r="B596" s="1" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="597" spans="2:6" ht="37.5">
       <c r="B597" s="1" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="598" spans="2:6">
       <c r="B598" s="1" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="599" spans="2:6">
       <c r="B599" s="1" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="600" spans="2:6" ht="409.5">
       <c r="B600" s="1" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -21507,7 +21806,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21515,7 +21814,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -21523,7 +21822,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -21531,7 +21830,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -21539,7 +21838,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21547,7 +21846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21555,7 +21854,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21563,7 +21862,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21571,7 +21870,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -21579,7 +21878,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -21587,7 +21886,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21595,7 +21894,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -21603,7 +21902,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -21611,7 +21910,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -21619,7 +21918,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -21627,7 +21926,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -21635,7 +21934,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -21643,7 +21942,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -21651,7 +21950,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -21659,7 +21958,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -21667,7 +21966,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -21675,7 +21974,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -21683,7 +21982,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -21691,7 +21990,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -21699,10 +21998,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="C26" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -21710,7 +22009,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -21718,7 +22017,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -21726,7 +22025,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -21734,7 +22033,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -21742,7 +22041,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -21750,7 +22049,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -21758,7 +22057,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -21766,7 +22065,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -21774,7 +22073,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -21782,7 +22081,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -21790,7 +22089,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -21798,7 +22097,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -21806,7 +22105,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -21814,7 +22113,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -21822,7 +22121,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -21830,7 +22129,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -21838,7 +22137,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -21846,7 +22145,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -21854,7 +22153,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -21862,10 +22161,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="C46" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -21873,7 +22172,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -21881,7 +22180,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -21889,7 +22188,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -21897,7 +22196,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -21905,7 +22204,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -21913,7 +22212,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -21921,7 +22220,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -21929,7 +22228,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -21937,7 +22236,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -21945,7 +22244,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -21953,7 +22252,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -21961,7 +22260,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -21969,7 +22268,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -21977,7 +22276,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -21985,7 +22284,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE0E3E-EF51-497A-8A5B-DA32A498AE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1433AAD-B3E8-4710-A5D7-BB4BEC78051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="1500" windowWidth="23505" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="3240" windowWidth="28830" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1431">
   <si>
     <t>(女性に対して)「どちらのご出身ですか？」
 「私はスペイン人です」</t>
@@ -627,23 +627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「何時に職場をでるの？」
-「8時に出るよ」</t>
-    <rPh sb="1" eb="3">
-      <t>ナンジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「おいくつですか？」
 「47歳です」</t>
     <rPh sb="14" eb="15">
@@ -10758,32 +10741,6 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Marta、僕たちと一緒に飲みに来る？」(僕たちは男性)
-「うん、もちろん、行くわ」</t>
-    <rPh sb="7" eb="8">
-      <t>ボク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ボク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -16103,6 +16060,132 @@
 Ni yo misma: 強調（「私自身でさえ」）。
 me lo explico: 再帰動詞で「自分に説明する」。
 否定の強調によって、話し手の困惑や理解不能さを表現しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)「何時に職場をでるの？」
+「8時に出るよ」</t>
+    <rPh sb="5" eb="7">
+      <t>ナンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)「Marta、僕たちと一緒に飲みに来る？」(僕たちは男性)
+「うん、もちろん、行くわ」</t>
+    <rPh sb="11" eb="12">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿Le has comprado el regalo a Pablo?
+Sí ya se lo he comprado.
+の二文目は日本語では「うん、もう買ったよ」くらいに訳されますが
+日本語訳ではseもloも省略されるのが普通です。
+スペイン語で¿Le has comprado el regalo a Pablo?という質問に対して
+日本語と同じ感覚でSí ya he comprado.と答えたら不自然ですか？
+――――――――
+はい、「Sí, ya he comprado.」と答えるのはスペイン語では不自然です。
+理由は、スペイン語では一般的に代名詞を使って文脈を補うことが重要だからです。
+理由①：スペイン語では代名詞で文脈を明確にする
+スペイン語では「何を（lo）」と「誰に（le）」を表す代名詞を使うことで、
+発言の意味を具体的にし、相手に誤解を与えないようにします。
+特に質問で具体的な対象（regalo a Pablo）が挙げられている場合、
+答えの中でそれを省略するのは自然ではありません。
+例えば：
+Sí, ya he comprado.
+→ 「うん、もう買ったよ」とも取れますが、
+「何を？」や「誰のために？」がはっきりせず、やや不完全に聞こえます。
+対して：
+Sí, ya se lo he comprado.
+→ 「うん、もう彼のためにそれを買ったよ」と具体的で明確です。
+理由②：文脈依存の度合い
+スペイン語では日本語ほど文脈に依存して情報を省略する習慣がありません。
+そのため、代名詞で文脈を補うのが一般的です。
+特に会話では、話題が変わったりすると文脈が曖昧になる可能性があるため、
+代名詞を使うことで一貫性を保ちます。
+自然な答え方
+質問「¿Le has comprado el regalo a Pablo?」への答えとしては、以下のような表現が自然です：
+Sí, ya se lo he comprado.
+→ 最も完全で自然な答え。
+Sí, ya lo he comprado.
+→ やや省略されていますが、「Pabloへのもの」という文脈が明確なら問題ありません。
+Sí, ya he comprado el regalo.
+→ 少し繰り返し感がありますが、相手が特に明確さを求める場合には適切。
+結論
+日本語と異なり、スペイン語では「Sí, ya he comprado.」だけでは不十分で、
+少なくとも「lo」や「se lo」を使って具体性を持たせることが求められます。
+これは、スペイン語特有の代名詞の重要性に由来する文化的・言語的な違いです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+直訳: 「（誰かが）私の〜を抜いた」
+この文脈では、「歯を抜いた」という意味になります。
+4. 暗黙の主語
+スペイン語では、han（3人称複数形）の主語が明示されていないため、
+「誰が歯を抜いたのか」が明確ではありません。ただし、文脈から考えて歯医者であることは自明です。
+このように、行為者が明白な場合、わざわざ主語を述べないのが自然な表現です。
+あなた:
+特定しない誰かが奥歯を抜いたとして、それは歯医者だということは自明ですが、
+その場合はMe ha sacadoと単数にならないんですか？
+ChatGPT
+良い質問ですね！確かに、「歯を抜いたのは歯医者（単数）」であることが自明であれば、
+Me ha sacado（単数）が文法的にも論理的にも正しいように思えます。
+しかし、スペイン語ではこのような状況でもMe han sacado（複数）が使われる場合があります。その理由を解説します。
+1. 集団的な行為のニュアンス
+Me han sacado（複数形）が使われるのは、歯を抜くという行為が単独の歯医者だけでなく、
+その歯科医院のスタッフ全体の関与によると感じられる場合があるからです。
+実際に歯を抜いたのは1人の歯医者ですが、その前後で受付、助手、看護師などが関与していることが多いです。
+このような場合、行為を集団のものとして捉え、「han」が使われます。
+2. 文法的な柔軟性と慣用表現
+スペイン語では、行為者が特定されていない場合、
+動詞の単数形と複数形のどちらも使われることがあります。特に以下のような違いがあります：
+Me ha sacado: より具体的で、「1人が行った」という印象を強調。
+Me han sacado: 行為を抽象化して、「誰かたちが行った」という漠然としたニュアンス。
+このため、話し手が「歯科医院全体のプロセス」として捉えていれば、自然にhanを使うことが多いです。
+3. 地域や話し手の習慣
+スペイン語圏では、単数形と複数形の選択が地域や話し手の習慣による影響も受けます。例えば：
+スペインでは、日常会話で複数形（han）を使う傾向が強いです。
+ラテンアメリカでは、単数形（ha）がよりよく使われる場合もあります。
+4. どちらも文法的に正しい
+実際には、Me ha sacadoとMe han sacadoのどちらも文法的に正しいです。
+選択は話し手がどの程度行為者を具体化したいか、または行為を集団的に捉えるかに依存します。
+結論
+質問のような状況で、歯医者が1人だけ関与した場合でも、
+スペイン語ではMe han sacadoが使われることがよくあります。
+これは行為を「歯科医院全体のプロセス」として捉えたり、
+話し手が特に行為者を特定しない形で伝えたりする場合です。
+一方で、行為を「1人の歯医者」に焦点を当てたい場合は、
+Me ha sacadoを使ってもまったく問題ありません。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16442,8 +16525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C108" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="B132" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16455,27 +16538,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="37.5">
       <c r="A1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" t="s">
         <v>384</v>
-      </c>
-      <c r="E1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5">
@@ -16483,31 +16566,31 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5">
       <c r="B5" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16515,15 +16598,15 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.5">
@@ -16531,18 +16614,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.5">
       <c r="B10" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -16550,13 +16633,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" t="s">
         <v>386</v>
-      </c>
-      <c r="E11" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5">
@@ -16564,10 +16647,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -16575,7 +16658,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16583,7 +16666,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16591,34 +16674,34 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="409.5">
       <c r="B18" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="37.5">
@@ -16626,7 +16709,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="409.5">
@@ -16634,24 +16717,24 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="37.5">
       <c r="B21" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -16659,7 +16742,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="37.5">
@@ -16667,15 +16750,15 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="37.5">
       <c r="B24" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="37.5">
@@ -16683,15 +16766,15 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="409.5">
@@ -16699,10 +16782,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -16710,7 +16793,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -16718,7 +16801,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="37.5">
@@ -16726,7 +16809,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="37.5">
@@ -16734,13 +16817,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E31" t="s">
         <v>389</v>
-      </c>
-      <c r="E31" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="37.5">
@@ -16748,7 +16831,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="37.5">
@@ -16756,7 +16839,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -16764,7 +16847,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -16772,7 +16855,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="37.5">
@@ -16780,7 +16863,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="37.5">
@@ -16788,7 +16871,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="37.5">
@@ -16796,7 +16879,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="409.5">
@@ -16804,40 +16887,40 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="37.5">
       <c r="B41" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C41" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D41" t="s">
+        <v>390</v>
+      </c>
+      <c r="E41" t="s">
         <v>391</v>
-      </c>
-      <c r="E41" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="37.5">
       <c r="B42" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="37.5">
@@ -16845,15 +16928,15 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="37.5">
       <c r="B44" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -16861,15 +16944,15 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="37.5">
       <c r="B46" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="37.5">
@@ -16877,7 +16960,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="37.5">
@@ -16885,15 +16968,15 @@
         <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="37.5">
@@ -16901,7 +16984,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="37.5">
@@ -16909,29 +16992,29 @@
         <v>31</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="37.5">
       <c r="B52" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="37.5">
       <c r="B53" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="37.5">
@@ -16939,7 +17022,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -16947,15 +17030,15 @@
         <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -16963,7 +17046,7 @@
         <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="37.5">
@@ -16971,7 +17054,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="37.5">
@@ -16979,4806 +17062,4812 @@
         <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="37.5">
       <c r="B61" s="1" t="s">
-        <v>37</v>
+        <v>1427</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="37.5">
       <c r="B62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="37.5">
       <c r="B63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="56.25">
+      <c r="B64" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="37.5">
-      <c r="B64" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="37.5">
       <c r="B66" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="409.5">
       <c r="B67" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="37.5">
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="37.5">
       <c r="B70" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="37.5">
       <c r="B71" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D71" t="s">
+        <v>394</v>
+      </c>
+      <c r="E71" t="s">
         <v>395</v>
-      </c>
-      <c r="E71" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="37.5">
       <c r="B73" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="37.5">
       <c r="B76" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="37.5">
       <c r="B77" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="37.5">
       <c r="B78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="56.25">
       <c r="B79" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="37.5">
       <c r="B80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="37.5">
       <c r="B81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D81" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" t="s">
         <v>397</v>
-      </c>
-      <c r="E81" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="37.5">
       <c r="B82" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="56.25">
       <c r="B83" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="409.5">
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="37.5">
       <c r="B88" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="56.25">
       <c r="B89" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
+        <v>398</v>
+      </c>
+      <c r="E91" t="s">
         <v>399</v>
-      </c>
-      <c r="E91" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="37.5">
       <c r="B92" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="37.5">
       <c r="B94" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="37.5">
       <c r="B95" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="37.5">
       <c r="B96" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="37.5">
       <c r="B97" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="37.5">
       <c r="B98" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="37.5">
       <c r="B100" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="37.5">
       <c r="B101" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" t="s">
+        <v>400</v>
+      </c>
+      <c r="E101" t="s">
         <v>401</v>
-      </c>
-      <c r="E101" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="56.25">
       <c r="B102" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="37.5">
       <c r="B103" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="37.5">
       <c r="B104" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="409.5">
       <c r="B105" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="56.25">
       <c r="B106" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="37.5">
       <c r="B107" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="37.5">
       <c r="B108" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="37.5">
       <c r="B109" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="37.5">
       <c r="B110" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D111" t="s">
+        <v>402</v>
+      </c>
+      <c r="E111" t="s">
         <v>403</v>
-      </c>
-      <c r="E111" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="37.5">
       <c r="B112" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="37.5">
       <c r="B113" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="37.5">
       <c r="B118" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="409.5">
       <c r="B119" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="37.5">
       <c r="B120" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C121" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D121" t="s">
+        <v>404</v>
+      </c>
+      <c r="E121" t="s">
         <v>405</v>
-      </c>
-      <c r="E121" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="37.5">
       <c r="B122" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="37.5">
       <c r="B123" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="37.5">
       <c r="B124" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="2:6" ht="37.5">
       <c r="B125" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="2:6" ht="37.5">
       <c r="B126" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="2:6" ht="37.5">
       <c r="B127" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="2:6" ht="56.25">
       <c r="B128" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="37.5">
+      <c r="B129" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="37.5">
+      <c r="B130" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="37.5">
+      <c r="B131" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" ht="37.5">
-      <c r="B129" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" t="s">
+        <v>406</v>
+      </c>
+      <c r="E131" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" ht="409.5">
+      <c r="B132" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="37.5">
+      <c r="B133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="37.5">
+      <c r="B134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="37.5">
+      <c r="B135" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="56.25">
+      <c r="B136" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" ht="409.5">
+      <c r="B138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="37.5">
+      <c r="B139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="37.5">
+      <c r="B140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="37.5">
+      <c r="B141" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D141" t="s">
+        <v>408</v>
+      </c>
+      <c r="E141" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="37.5">
+      <c r="B142" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" ht="37.5">
-      <c r="B130" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" ht="37.5">
-      <c r="B131" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D131" t="s">
-        <v>407</v>
-      </c>
-      <c r="E131" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" ht="37.5">
-      <c r="B132" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" ht="37.5">
-      <c r="B133" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" ht="37.5">
-      <c r="B134" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" ht="37.5">
-      <c r="B135" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" ht="56.25">
-      <c r="B136" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" ht="37.5">
+      <c r="B143" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" ht="37.5">
-      <c r="B138" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" ht="37.5">
-      <c r="B139" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" ht="37.5">
-      <c r="B140" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" ht="37.5">
-      <c r="B141" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D141" t="s">
-        <v>409</v>
-      </c>
-      <c r="E141" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" ht="37.5">
-      <c r="B142" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="C143" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="37.5">
-      <c r="B143" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C143" t="s">
+    <row r="144" spans="2:6">
+      <c r="B144" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C144" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C144" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="37.5">
       <c r="B145" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="37.5">
       <c r="B146" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="56.25">
       <c r="B147" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="37.5">
       <c r="B148" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="37.5">
       <c r="B149" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="37.5">
       <c r="B150" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="37.5">
       <c r="B151" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D151" t="s">
+        <v>410</v>
+      </c>
+      <c r="E151" t="s">
         <v>411</v>
-      </c>
-      <c r="E151" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="37.5">
       <c r="B152" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="56.25">
       <c r="B153" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="37.5">
       <c r="B154" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="37.5">
       <c r="B155" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="37.5">
       <c r="B156" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="37.5">
       <c r="B158" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C159" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C160" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="37.5">
       <c r="B161" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D161" t="s">
+        <v>412</v>
+      </c>
+      <c r="E161" t="s">
         <v>413</v>
-      </c>
-      <c r="E161" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C162" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="37.5">
       <c r="B163" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="37.5">
       <c r="B164" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="56.25">
       <c r="B166" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="37.5">
       <c r="B167" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="37.5">
       <c r="B168" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="37.5">
       <c r="B169" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="37.5">
       <c r="B170" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D171" t="s">
+        <v>414</v>
+      </c>
+      <c r="E171" t="s">
         <v>415</v>
-      </c>
-      <c r="E171" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="37.5">
       <c r="B174" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="37.5">
       <c r="B176" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="37.5">
       <c r="B177" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="37.5">
       <c r="B178" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="37.5">
       <c r="B179" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="37.5">
       <c r="B180" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C181" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D181" t="s">
+        <v>416</v>
+      </c>
+      <c r="E181" t="s">
         <v>417</v>
-      </c>
-      <c r="E181" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="37.5">
       <c r="B182" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C182" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="B183" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C183" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="B184" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C184" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C185" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C186" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="B187" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C187" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="B188" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C188" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="37.5">
       <c r="B189" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="B190" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C190" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="37.5">
       <c r="B191" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D191" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="37.5">
       <c r="B192" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C192" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="37.5">
       <c r="B193" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C193" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="37.5">
       <c r="B194" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C194" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C195" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C197" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C198" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C199" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="56.25">
       <c r="B200" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="37.5">
       <c r="B201" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D201" t="s">
+        <v>418</v>
+      </c>
+      <c r="E201" t="s">
         <v>419</v>
-      </c>
-      <c r="E201" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="37.5">
       <c r="B202" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="37.5">
       <c r="B205" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C205" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="37.5">
       <c r="B206" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="37.5">
       <c r="B207" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="37.5">
       <c r="B208" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="37.5">
       <c r="B210" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C211" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D211" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E211" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C212" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C213" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="37.5">
       <c r="B214" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="37.5">
       <c r="B215" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="37.5">
       <c r="B216" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="37.5">
       <c r="B218" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C221" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D221" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E221" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="37.5">
       <c r="B222" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="37.5">
       <c r="B223" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="37.5">
       <c r="B224" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C224" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="56.25">
       <c r="B225" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="37.5">
       <c r="B226" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="37.5">
       <c r="B227" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="37.5">
       <c r="B229" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="37.5">
       <c r="B230" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C231" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D231" t="s">
+        <v>422</v>
+      </c>
+      <c r="E231" t="s">
         <v>423</v>
-      </c>
-      <c r="E231" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C232" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C233" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="37.5">
       <c r="B234" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C235" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="37.5">
       <c r="B236" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="37.5">
       <c r="B237" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="37.5">
       <c r="B238" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="37.5">
       <c r="B239" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="56.25">
       <c r="A241" t="s">
+        <v>425</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D241" t="s">
         <v>426</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>427</v>
-      </c>
-      <c r="E241" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="37.5">
       <c r="B243" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="37.5">
       <c r="B244" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="B245" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="37.5">
       <c r="B246" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="B247" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="37.5">
       <c r="B248" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="37.5">
       <c r="B249" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="37.5">
       <c r="B250" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="37.5">
       <c r="B251" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D251" t="s">
+        <v>433</v>
+      </c>
+      <c r="E251" t="s">
         <v>434</v>
-      </c>
-      <c r="E251" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="37.5">
       <c r="B252" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="B253" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="37.5">
       <c r="B254" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="37.5">
       <c r="B255" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="37.5">
       <c r="B256" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="257" spans="2:5">
       <c r="B257" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="37.5">
       <c r="B258" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="37.5">
       <c r="B259" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="260" spans="2:5">
       <c r="B260" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="37.5">
       <c r="B261" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C261" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D261" t="s">
+        <v>440</v>
+      </c>
+      <c r="E261" t="s">
         <v>441</v>
-      </c>
-      <c r="E261" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="262" spans="2:5">
       <c r="B262" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C262" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="37.5">
       <c r="B263" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C263" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="37.5">
       <c r="B264" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C264" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="265" spans="2:5">
       <c r="B265" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C265" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="266" spans="2:5">
       <c r="B266" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C266" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="56.25">
       <c r="B267" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="37.5">
       <c r="B268" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="37.5">
       <c r="B269" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="37.5">
       <c r="B270" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="37.5">
       <c r="B271" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D271" t="s">
+        <v>458</v>
+      </c>
+      <c r="E271" t="s">
         <v>459</v>
-      </c>
-      <c r="E271" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="37.5">
       <c r="B272" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="273" spans="2:5">
       <c r="B273" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="56.25">
       <c r="B274" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="37.5">
       <c r="B275" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="276" spans="2:5">
       <c r="B276" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="37.5">
       <c r="B277" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="37.5">
       <c r="B278" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="37.5">
       <c r="B279" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="37.5">
       <c r="B280" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="37.5">
       <c r="B281" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D281" t="s">
+        <v>468</v>
+      </c>
+      <c r="E281" t="s">
         <v>469</v>
-      </c>
-      <c r="E281" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="37.5">
       <c r="B282" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="37.5">
       <c r="B283" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="284" spans="2:5">
       <c r="B284" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="37.5">
       <c r="B285" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="286" spans="2:5">
       <c r="B286" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="37.5">
       <c r="B287" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="37.5">
       <c r="B288" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="37.5">
       <c r="B289" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="37.5">
       <c r="B290" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="291" spans="2:5">
       <c r="B291" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D291" t="s">
+        <v>488</v>
+      </c>
+      <c r="E291" t="s">
         <v>489</v>
-      </c>
-      <c r="E291" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="37.5">
       <c r="B292" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="37.5">
       <c r="B293" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="37.5">
       <c r="B294" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="37.5">
       <c r="B295" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="37.5">
       <c r="B296" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="37.5">
       <c r="B297" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="37.5">
       <c r="B298" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="299" spans="2:5">
       <c r="B299" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="37.5">
       <c r="B300" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="301" spans="2:5">
       <c r="B301" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D301" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="302" spans="2:5" ht="37.5">
       <c r="B302" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="37.5">
       <c r="B303" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="304" spans="2:5">
       <c r="B304" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="37.5">
       <c r="B305" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="37.5">
       <c r="B306" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="37.5">
       <c r="B307" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="37.5">
       <c r="B308" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="37.5">
       <c r="B309" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="37.5">
       <c r="B310" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="37.5">
       <c r="B311" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D311" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E311" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="312" spans="2:5">
       <c r="B312" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="313" spans="2:5">
       <c r="B313" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="37.5">
       <c r="B314" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="37.5">
       <c r="B315" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="316" spans="2:5">
       <c r="B316" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="317" spans="2:5">
       <c r="B317" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="37.5">
       <c r="B318" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="37.5">
       <c r="B319" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="37.5">
       <c r="B320" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="37.5">
       <c r="B321" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D321" t="s">
+        <v>529</v>
+      </c>
+      <c r="E321" t="s">
         <v>530</v>
-      </c>
-      <c r="E321" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="37.5">
       <c r="B322" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="37.5">
       <c r="B323" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="324" spans="2:5">
       <c r="B324" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="37.5">
       <c r="B325" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="37.5">
       <c r="B326" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="327" spans="2:5">
       <c r="B327" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="37.5">
       <c r="B328" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="37.5">
       <c r="B329" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="37.5">
       <c r="B330" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="37.5">
       <c r="B331" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D331" t="s">
+        <v>546</v>
+      </c>
+      <c r="E331" t="s">
         <v>547</v>
-      </c>
-      <c r="E331" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="332" spans="2:5">
       <c r="B332" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="37.5">
       <c r="B333" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="334" spans="2:5">
       <c r="B334" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="37.5">
       <c r="B335" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="336" spans="2:5">
       <c r="B336" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="37.5">
       <c r="B337" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="37.5">
       <c r="B338" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="56.25">
       <c r="B340" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="37.5">
       <c r="B341" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D341" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="342" spans="2:5">
       <c r="B342" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="37.5">
       <c r="B343" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="344" spans="2:5">
       <c r="B344" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="345" spans="2:5">
       <c r="B345" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="37.5">
       <c r="B346" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="347" spans="2:5">
       <c r="B347" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="348" spans="2:5">
       <c r="B348" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="349" spans="2:5">
       <c r="B349" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="37.5">
       <c r="B350" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D351" t="s">
         <v>609</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D351" t="s">
+      <c r="E351" t="s">
         <v>610</v>
-      </c>
-      <c r="E351" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="37.5">
       <c r="B352" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="353" spans="2:5">
       <c r="B353" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="354" spans="2:5">
       <c r="B354" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="37.5">
       <c r="B355" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="356" spans="2:5">
       <c r="B356" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="37.5">
       <c r="B357" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="358" spans="2:5">
       <c r="B358" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="359" spans="2:5">
       <c r="B359" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="360" spans="2:5">
       <c r="B360" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="361" spans="2:5">
       <c r="B361" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D361" t="s">
+        <v>617</v>
+      </c>
+      <c r="E361" t="s">
         <v>618</v>
-      </c>
-      <c r="E361" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="362" spans="2:5">
       <c r="B362" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="37.5">
       <c r="B363" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="364" spans="2:5">
       <c r="B364" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="37.5">
       <c r="B365" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="366" spans="2:5">
       <c r="B366" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="368" spans="2:5">
       <c r="B368" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="369" spans="2:6">
       <c r="B369" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="370" spans="2:6" ht="37.5">
       <c r="B370" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="371" spans="2:6">
       <c r="B371" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D371" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E371" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="372" spans="2:6">
       <c r="B372" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="373" spans="2:6" ht="37.5">
       <c r="B373" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="374" spans="2:6" ht="37.5">
       <c r="B374" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="375" spans="2:6" ht="37.5">
       <c r="B375" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="376" spans="2:6">
       <c r="B376" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="377" spans="2:6" ht="37.5">
       <c r="B377" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="378" spans="2:6" ht="37.5">
       <c r="B378" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="379" spans="2:6" ht="56.25">
       <c r="B379" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="380" spans="2:6">
       <c r="B380" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="381" spans="2:6" ht="409.5">
       <c r="B381" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D381" t="s">
+        <v>653</v>
+      </c>
+      <c r="E381" t="s">
         <v>654</v>
       </c>
-      <c r="E381" t="s">
-        <v>655</v>
-      </c>
       <c r="F381" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="382" spans="2:6" ht="37.5">
       <c r="B382" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="383" spans="2:6">
       <c r="B383" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="384" spans="2:6" ht="37.5">
       <c r="B384" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="37.5">
       <c r="B385" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="37.5">
       <c r="B386" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="37.5">
       <c r="B387" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="388" spans="2:5">
       <c r="B388" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="37.5">
       <c r="B389" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="56.25">
       <c r="B390" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="391" spans="2:5">
       <c r="B391" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D391" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E391" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="37.5">
       <c r="B392" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="37.5">
       <c r="B393" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="37.5">
       <c r="B394" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="37.5">
       <c r="B395" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="398" spans="2:5">
       <c r="B398" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="37.5">
       <c r="B399" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="37.5">
       <c r="B400" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="37.5">
       <c r="B401" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D401" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E401" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="37.5">
       <c r="B402" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="403" spans="2:5">
       <c r="B403" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="37.5">
       <c r="B404" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="37.5">
       <c r="B405" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="37.5">
       <c r="B406" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="37.5">
       <c r="B407" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="408" spans="2:5">
       <c r="B408" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="37.5">
       <c r="B409" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="37.5">
       <c r="B410" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="37.5">
       <c r="B411" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D411" t="s">
+        <v>701</v>
+      </c>
+      <c r="E411" t="s">
         <v>702</v>
-      </c>
-      <c r="E411" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="412" spans="2:5">
       <c r="B412" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="37.5">
       <c r="B413" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="37.5">
       <c r="B414" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="415" spans="2:5">
       <c r="B415" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="37.5">
       <c r="B416" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="417" spans="2:5">
       <c r="B417" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="418" spans="2:5">
       <c r="B418" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="419" spans="2:5">
       <c r="B419" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="56.25">
       <c r="B420" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="37.5">
       <c r="B421" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D421" t="s">
+        <v>719</v>
+      </c>
+      <c r="E421" t="s">
         <v>720</v>
-      </c>
-      <c r="E421" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="37.5">
       <c r="B422" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="37.5">
       <c r="B423" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="56.25">
       <c r="B424" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="37.5">
       <c r="B425" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="37.5">
       <c r="B426" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="37.5">
       <c r="B427" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="37.5">
       <c r="B428" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="429" spans="2:5">
       <c r="B429" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="430" spans="2:5">
       <c r="B430" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="431" spans="2:5">
       <c r="B431" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D431" t="s">
+        <v>735</v>
+      </c>
+      <c r="E431" t="s">
         <v>736</v>
-      </c>
-      <c r="E431" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="37.5">
       <c r="B432" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="B433" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="37.5">
       <c r="B434" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="93.75">
       <c r="B435" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="131.25">
       <c r="B436" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="37.5">
       <c r="B437" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="37.5">
       <c r="B438" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="37.5">
       <c r="B439" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="B440" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="37.5">
       <c r="A441" t="s">
+        <v>763</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D441" t="s">
         <v>764</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D441" t="s">
+      <c r="E441" t="s">
         <v>765</v>
-      </c>
-      <c r="E441" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="37.5">
       <c r="B442" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="37.5">
       <c r="B443" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="37.5">
       <c r="B444" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="131.25">
       <c r="B445" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="37.5">
       <c r="B446" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="37.5">
       <c r="B447" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="37.5">
       <c r="B448" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="56.25">
       <c r="B449" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="37.5">
       <c r="B450" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="451" spans="2:5">
       <c r="B451" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D451" t="s">
+        <v>770</v>
+      </c>
+      <c r="E451" t="s">
         <v>771</v>
-      </c>
-      <c r="E451" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="37.5">
       <c r="B452" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="37.5">
       <c r="B453" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="37.5">
       <c r="B454" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="37.5">
       <c r="B455" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="37.5">
       <c r="B456" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="37.5">
       <c r="B457" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="458" spans="2:5">
       <c r="B458" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="459" spans="2:5">
       <c r="B459" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="460" spans="2:5" ht="37.5">
       <c r="B460" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="461" spans="2:5">
       <c r="B461" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D461" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E461" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="462" spans="2:5">
       <c r="B462" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="463" spans="2:5">
       <c r="B463" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="464" spans="2:5">
       <c r="B464" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="37.5">
       <c r="B465" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="466" spans="2:5">
       <c r="B466" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="467" spans="2:5">
       <c r="B467" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="37.5">
       <c r="B468" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="469" spans="2:5">
       <c r="B469" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="470" spans="2:5">
       <c r="B470" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="37.5">
       <c r="B471" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D471" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E471" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="472" spans="2:5" ht="37.5">
       <c r="B472" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="37.5">
       <c r="B473" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="37.5">
       <c r="B474" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="37.5">
       <c r="B475" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="37.5">
       <c r="B476" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="37.5">
       <c r="B477" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="478" spans="2:5">
       <c r="B478" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="37.5">
       <c r="B479" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="37.5">
       <c r="B480" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="481" spans="2:6" ht="37.5">
       <c r="B481" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D481" t="s">
+        <v>833</v>
+      </c>
+      <c r="E481" t="s">
         <v>834</v>
-      </c>
-      <c r="E481" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="482" spans="2:6">
       <c r="B482" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="483" spans="2:6" ht="37.5">
       <c r="B483" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="484" spans="2:6" ht="75">
       <c r="B484" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="485" spans="2:6">
       <c r="B485" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="486" spans="2:6" ht="37.5">
       <c r="B486" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="487" spans="2:6" ht="37.5">
       <c r="B487" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="488" spans="2:6" ht="112.5">
       <c r="B488" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="489" spans="2:6" ht="225">
       <c r="B489" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="490" spans="2:6" ht="37.5">
       <c r="B490" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="491" spans="2:6" ht="37.5">
       <c r="B491" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D491" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E491" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="492" spans="2:6">
       <c r="B492" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="493" spans="2:6" ht="37.5">
       <c r="B493" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="494" spans="2:6">
       <c r="B494" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="495" spans="2:6" ht="37.5">
       <c r="B495" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="496" spans="2:6" ht="37.5">
       <c r="B496" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="497" spans="2:6" ht="243.75">
       <c r="B497" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="498" spans="2:6" ht="37.5">
       <c r="B498" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="499" spans="2:6" ht="37.5">
       <c r="B499" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="500" spans="2:6" ht="37.5">
       <c r="B500" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="501" spans="2:6">
       <c r="B501" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D501" t="s">
+        <v>863</v>
+      </c>
+      <c r="E501" t="s">
         <v>864</v>
-      </c>
-      <c r="E501" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="502" spans="2:6" ht="37.5">
       <c r="B502" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="503" spans="2:6">
       <c r="B503" s="1" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="504" spans="2:6">
       <c r="B504" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="505" spans="2:6" ht="37.5">
       <c r="B505" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="506" spans="2:6" ht="37.5">
       <c r="B506" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="507" spans="2:6">
       <c r="B507" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="508" spans="2:6" ht="37.5">
       <c r="B508" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="509" spans="2:6">
       <c r="B509" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="510" spans="2:6" ht="409.5">
       <c r="B510" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="511" spans="2:6">
       <c r="B511" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D511" t="s">
+        <v>874</v>
+      </c>
+      <c r="E511" t="s">
         <v>875</v>
-      </c>
-      <c r="E511" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="512" spans="2:6" ht="318.75">
       <c r="B512" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="513" spans="2:6" ht="409.5">
       <c r="B513" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="515" spans="2:6" ht="56.25">
       <c r="B515" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="516" spans="2:6" ht="37.5">
       <c r="B516" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="518" spans="2:6" ht="409.5">
       <c r="B518" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="519" spans="2:6" ht="409.5">
       <c r="B519" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="520" spans="2:6" ht="409.5">
       <c r="B520" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="521" spans="2:6">
       <c r="B521" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D521" t="s">
+        <v>883</v>
+      </c>
+      <c r="E521" t="s">
         <v>884</v>
-      </c>
-      <c r="E521" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="522" spans="2:6" ht="37.5">
       <c r="B522" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="523" spans="2:6">
       <c r="B523" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="524" spans="2:6">
       <c r="B524" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="525" spans="2:6">
       <c r="B525" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="526" spans="2:6">
       <c r="B526" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="527" spans="2:6">
       <c r="B527" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="528" spans="2:6" ht="356.25">
       <c r="B528" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="529" spans="2:6" ht="409.5">
       <c r="B529" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="530" spans="2:6" ht="409.5">
       <c r="B530" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="531" spans="2:6">
       <c r="B531" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D531" t="s">
+        <v>894</v>
+      </c>
+      <c r="E531" t="s">
         <v>895</v>
-      </c>
-      <c r="E531" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="532" spans="2:6" ht="409.5">
       <c r="B532" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="533" spans="2:6">
       <c r="B533" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="534" spans="2:6" ht="37.5">
       <c r="B534" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="535" spans="2:6" ht="37.5">
       <c r="B535" s="1" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="536" spans="2:6" ht="37.5">
       <c r="B536" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="537" spans="2:6" ht="37.5">
       <c r="B537" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="538" spans="2:6" ht="37.5">
       <c r="B538" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="539" spans="2:6" ht="37.5">
       <c r="B539" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="540" spans="2:6" ht="318.75">
       <c r="B540" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="541" spans="2:6" ht="37.5">
       <c r="B541" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D541" t="s">
+        <v>900</v>
+      </c>
+      <c r="E541" t="s">
         <v>901</v>
-      </c>
-      <c r="E541" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="542" spans="2:6" ht="409.5">
       <c r="B542" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="543" spans="2:6">
       <c r="B543" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="544" spans="2:6" ht="37.5">
       <c r="B544" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="545" spans="2:6" ht="187.5">
       <c r="B545" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="546" spans="2:6" ht="409.5">
       <c r="B546" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="547" spans="2:6" ht="409.5">
       <c r="B547" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="548" spans="2:6" ht="409.5">
       <c r="B548" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="549" spans="2:6" ht="409.5">
       <c r="B549" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="550" spans="2:6" ht="409.5">
       <c r="B550" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="551" spans="2:6" ht="37.5">
       <c r="B551" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D551" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E551" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="552" spans="2:6" ht="37.5">
       <c r="B552" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="553" spans="2:6" ht="37.5">
       <c r="B553" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="554" spans="2:6" ht="409.5">
       <c r="B554" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="555" spans="2:6" ht="37.5">
       <c r="B555" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="556" spans="2:6" ht="37.5">
       <c r="B556" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="557" spans="2:6" ht="37.5">
       <c r="B557" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="558" spans="2:6" ht="409.5">
       <c r="B558" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="559" spans="2:6" ht="409.5">
       <c r="B559" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="560" spans="2:6" ht="409.5">
       <c r="B560" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="561" spans="2:6" ht="37.5">
       <c r="B561" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D561" t="s">
+        <v>985</v>
+      </c>
+      <c r="E561" t="s">
         <v>986</v>
-      </c>
-      <c r="E561" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="562" spans="2:6">
       <c r="B562" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="563" spans="2:6" ht="409.5">
       <c r="B563" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="564" spans="2:6" ht="37.5">
       <c r="B564" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="565" spans="2:6" ht="37.5">
       <c r="B565" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="566" spans="2:6" ht="37.5">
       <c r="B566" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="567" spans="2:6" ht="37.5">
       <c r="B567" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="568" spans="2:6" ht="37.5">
       <c r="B568" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="569" spans="2:6" ht="409.5">
       <c r="B569" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="570" spans="2:6" ht="409.5">
       <c r="B570" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="571" spans="2:6" ht="37.5">
       <c r="B571" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D571" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E571" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="572" spans="2:6" ht="37.5">
       <c r="B572" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="573" spans="2:6" ht="37.5">
       <c r="B573" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="574" spans="2:6" ht="37.5">
       <c r="B574" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="575" spans="2:6">
       <c r="B575" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="576" spans="2:6">
       <c r="B576" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="577" spans="2:6" ht="409.5">
       <c r="B577" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="578" spans="2:6">
       <c r="B578" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="579" spans="2:6" ht="37.5">
       <c r="B579" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="580" spans="2:6">
       <c r="B580" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="581" spans="2:6" ht="409.5">
       <c r="B581" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D581" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E581" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="582" spans="2:6" ht="131.25">
       <c r="B582" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="583" spans="2:6" ht="375">
       <c r="B583" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="584" spans="2:6" ht="300">
       <c r="B584" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="585" spans="2:6">
       <c r="B585" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="586" spans="2:6">
       <c r="B586" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="587" spans="2:6" ht="37.5">
       <c r="B587" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="588" spans="2:6" ht="75">
       <c r="B588" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="589" spans="2:6" ht="409.5">
       <c r="B589" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="590" spans="2:6" ht="262.5">
       <c r="B590" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="591" spans="2:6" ht="37.5">
       <c r="B591" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D591" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E591" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="592" spans="2:6" ht="37.5">
       <c r="B592" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="593" spans="2:6" ht="37.5">
       <c r="B593" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="594" spans="2:6" ht="75">
       <c r="B594" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="595" spans="2:6" ht="168.75">
       <c r="B595" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="596" spans="2:6" ht="409.5">
       <c r="B596" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="597" spans="2:6" ht="37.5">
       <c r="B597" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="598" spans="2:6">
       <c r="B598" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="599" spans="2:6">
       <c r="B599" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="600" spans="2:6" ht="409.5">
       <c r="B600" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -21806,7 +21895,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21814,7 +21903,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -21822,7 +21911,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -21830,7 +21919,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -21838,7 +21927,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21846,7 +21935,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21854,7 +21943,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21862,7 +21951,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21870,7 +21959,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -21878,7 +21967,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -21886,7 +21975,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21894,7 +21983,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -21902,7 +21991,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -21910,7 +21999,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -21918,7 +22007,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -21926,7 +22015,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -21934,7 +22023,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -21942,7 +22031,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -21950,7 +22039,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -21958,7 +22047,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -21966,7 +22055,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -21974,7 +22063,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -21982,7 +22071,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -21990,7 +22079,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -21998,10 +22087,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -22009,7 +22098,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -22017,7 +22106,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -22025,7 +22114,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -22033,7 +22122,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -22041,7 +22130,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -22049,7 +22138,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -22057,7 +22146,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -22065,7 +22154,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22073,7 +22162,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -22081,7 +22170,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -22089,7 +22178,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -22097,7 +22186,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -22105,7 +22194,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -22113,7 +22202,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -22121,7 +22210,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -22129,7 +22218,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -22137,7 +22226,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -22145,7 +22234,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -22153,7 +22242,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -22161,10 +22250,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C46" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -22172,7 +22261,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -22180,7 +22269,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22188,7 +22277,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -22196,7 +22285,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22204,7 +22293,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -22212,7 +22301,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22220,7 +22309,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -22228,7 +22317,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -22236,7 +22325,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22244,7 +22333,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -22252,7 +22341,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -22260,7 +22349,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -22268,7 +22357,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22276,7 +22365,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -22284,7 +22373,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1433AAD-B3E8-4710-A5D7-BB4BEC78051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED3A8A-BA43-44F8-9E98-F92752CDB968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="3240" windowWidth="28830" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="1470" windowWidth="28830" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1432">
   <si>
     <t>(女性に対して)「どちらのご出身ですか？」
 「私はスペイン人です」</t>
@@ -1493,20 +1493,6 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「どうかした？」
-「奥歯を抜いてまだ痛むのよ」</t>
-    <rPh sb="10" eb="12">
-      <t>オクバ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -14748,6 +14734,1284 @@
     <rPh sb="43" eb="44">
       <t>ミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">━～・se
+[再]
+1 留まる，固定する．
+El armario se ha fijado en la pared de la derecha.｜タンスは右側の壁に収まった．
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en... …に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 気づく；注意する．
+¡Fíjese en lo que le digo!｜私があなたに言うことを注意して聞いてください．</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td&gt;Me hicieron escribir&lt;/td&gt;
+			&lt;td&gt;書かされた&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;un informe de diez páginas&lt;/td&gt;
+			&lt;td&gt;10枚の報告書を&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;en una hora&lt;/td&gt;
+			&lt;td&gt;1時間で&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt;El médico le mandó&lt;/th&gt;
+      &lt;td&gt;医者は指示した&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;hacer una radiografía&lt;/th&gt;
+      &lt;td&gt;レントゲンを撮ることを&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;de la rodilla derecha.&lt;/th&gt;
+      &lt;td&gt;右ひざの&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;/tbody&gt;
+  &lt;/table&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7 〈太陽・月などが〉沈む，地平線の下に隠れる．
+Tenemos que darnos prisa；pronto se pondrá el sol.｜急がないと．すぐに日が沈むからね．
+darse prisa : 急ぐ</t>
+    <rPh sb="108" eb="109">
+      <t>イソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文の "los vecinos los oyeron discutiendo" の部分は、文法的に重要な構成要素を含んでいます。
+それぞれの要素を詳しく解説します。
+1. 主語と直接目的語
+主語: los vecinos
+「隣人たち」という文の主語です。行為（聞く）を行う主体を示します。
+直接目的語: los
+ここでは、「彼らを」という意味で、議論している人々
+（たとえば、隣人たちが聞いた誰か特定のカップルやグループ）を指しています。
+2. 動詞の構造: "oyeron"
+動詞 oír（聞く）の 点過去形 で、「聞いた」という意味を表します。
+文全体が過去の出来事について述べているため、点過去形が使われています。
+3. 動詞 + 現在分詞 (oyeron discutiendo)
+oyeron（聞いた）+ discutiendo（議論している）
+これは 感覚動詞 + 現在分詞 の構造で、感覚動詞（見る・聞くなど）が、
+続く動作を表す現在分詞と組み合わさることで「〜しているのを見る/聞く」というニュアンスを作ります。
+los oyeron discutiendo は、「彼らが議論しているのを聞いた」という意味になります。
+ポイント:
+discutiendo は 現在分詞 で、「議論している」という進行中の動作を強調します。
+この構造は、聞こえた内容や状況をより具体的に説明する役割を果たします。
+4. 全体の意味
+los vecinos los oyeron discutiendo:
+「隣人たちは、彼らが議論しているのを聞いた」
+隣人が具体的に「議論している様子や音」を感覚として捉えたことを表しています。
+文法上のポイント
+感覚動詞 + 現在分詞の一般的な使い方
+感覚動詞（ver, oír, sentir など）の後に現在分詞を使うことで、行為が進行中であることを示します。
+この構造は、ある出来事を直接目撃したり、体験したりしたことを描写するのに適しています。
+例文:
+La vimos llorando en el parque.
+（私たちは彼女が公園で泣いているのを見た。）
+→ 「泣いている」という進行中の行為を強調。
+Oímos a los niños jugando en el jardín.
+（私たちは子供たちが庭で遊んでいるのを聞いた。）
+→ 「遊んでいる」という行為を耳で感覚的に捉えた。
+対比: 他の構造との違い
+感覚動詞 + 不定詞:
+Los vecinos los oyeron discutir.
+（隣人たちは彼らが議論するのを聞いた。）
+不定詞 discutir を使う場合、議論全体を捉えたことを表し、
+「議論の瞬間」というよりは全体的な出来事を述べるニュアンスになります。
+現在分詞のニュアンス:
+一方、discutiendo は「議論している最中」を強調しており、臨場感やその瞬間性を表します。
+結論
+"los vecinos los oyeron discutiendo" では、
+隣人たちが「彼らが議論している瞬間や音」を直接聞いたことを臨場感をもって描写しています。
+現在分詞は進行中の行為を強調し、この種の文脈ではとても自然な表現です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Entonces sentí su mano apretando la mía y me sentí muy seguro.
+のsentí su mano apretando la míaについて
+apretando la míaがsu manoを修飾していると考えて
+「私の手を握っている彼女の手」と訳して、自然な訳は
+「彼女の手が僕の手を握っているのを感じた」と解釈して合っていますか？
+→合っている
+類似の例文
+Sentí la brisa acariciando mi cara.
+（そよ風が私の顔を撫でているのを感じた。）
+Noté su mirada observándome.
+（彼の視線が私を見つめているのに気づいた。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿Me hace el favor de...?
+→ 「～していただけますか？」という丁寧な依頼を表す定型表現。
+直訳すると「私にそのお願いをしてくれますか？」という意味になります。
+このフレーズは、日常会話やフォーマルな場面で「直接的な命令」を避けつつお願いする際に用いられます。例えば：
+直接的な依頼：
+"Rellene este formulario, por favor."（このフォームを記入してください）
+→ これでも失礼ではありませんが、やや命令的な印象を与えることがあります。
+丁寧な依頼：
+"¿Me hace el favor de rellenar este formulario?"
+→ 間接的かつ控えめな表現で、相手に対する敬意を感じさせます。
+ 他の類似表現
+このフレーズは、他の丁寧な依頼表現とも置き換え可能です：
+¿Podría rellenar este formulario, por favor?
+（このフォームを記入していただけますか？）
+¿Sería tan amable de rellenar este formulario?
+（このフォームを記入していただけませんか？）
+¿Me haría el favor de rellenar este formulario?
+（さらに丁寧で仮定法を使った表現）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comentóした時点で未来のことを言っているから
+時制の一致で過去未来形を使う
+comentó → hablaría</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toledoまでの往復切符を1枚欲しいんですが</t>
+    <rPh sb="9" eb="11">
+      <t>オウフク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キップ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カーテンを開けてもらえる？」
+「いいよ」CQN</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hacer + infinitivo
+12 〘使役〙
+(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＋不定詞…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> させる．
+Carmen me hizo llorar.｜カルメンに泣かされた．
+----------------------
+"No te preocupes" について解説すると、これは 否定命令 であり、
+接続法現在 を使用した表現です。以下で文法的なポイントを詳しく説明します。
+1. 文全体の構造
+No te preocupes
+→ 「心配しないで」という意味の否定命令文です。
+No: 否定を表します。
+te: 再帰代名詞（主語「君」に対応）。
+preocupes: 動詞 preocuparse の 接続法現在形（tú の形）。
+2. 動詞 preocuparse について
+Preocuparse は再帰動詞で、「心配する」という意味です。
+再帰代名詞（me, te, se など）を伴って使います。
+例
+Me preocupo por ti. （私は君のことを心配している）
+¿Te preocupas demasiado? （君は心配しすぎているの？）
+3. 否定命令に接続法が使われる理由
+スペイン語では、命令法 と 接続法 は密接に関連しています。具体的には：
+a. 肯定命令
+肯定命令では、通常 命令法 を使用します。
+例: Preocúpate.（心配しなさい）
+b. 否定命令
+否定命令では、常に 接続法現在 を使います。
+例: No te preocupes.（心配しないで）
+4. 文法的ルールまとめ
+肯定命令
+Preocuparse の命令法 (tú の形)：Preocúpate
+→ 再帰代名詞を動詞の語尾に付ける。
+否定命令
+Preocuparse の接続法現在 (tú の形)：No te preocupes
+→ 再帰代名詞を動詞の前に置く。
+5. 応用例
+否定命令を使った例：
+No te preocupes por mí.
+（私のことを心配しないで）
+No te levantes todavía.
+（まだ起きないで）
+肯定命令を使った例：
+Preocúpate más por tus estudios.
+（もっと勉強のことを心配しなさい）
+Levántate temprano mañana.
+（明日は早く起きなさい）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vi a un excompañero de trabajo la semana pasada
+先週、元同僚に会った、ら
+me dijo que había tenido un accidente hacía un mes.
+私に言った、事故にあったと、そのさらに1か月前
+私に言ったのは過去で
+事故にあったのは、私に言った時点ではもう終わってた話
+そんで、さらに1か月前のことだからhacía un mes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医者(女性)(D)は息子に強い痛みのときにだけ錠剤を飲むようにと言いました</t>
+    <rPh sb="0" eb="2">
+      <t>イシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムスコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウザイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文の "nunca llegaba tarde a casa"（決して家に遅く帰らなかった）は、
+過去の習慣や繰り返される行動を表現するために 線過去（imperfecto） が使われています。以下に詳しく解説します。
+1. 文全体の構造
+Cristina siempre decía que...
+→ 「クリスティーナはいつもこう言っていた」という発言の導入部分。
+cuando trabajaba en Londres...
+→ 過去のある期間（ロンドンで働いていた時）を示す補足情報。
+nunca llegaba tarde a casa.
+→ 過去のその期間中に繰り返し行われていた行動（遅刻せずに家に帰ったこと）を説明。
+2. 線過去（imperfecto）の選択
+"llegaba"（線過去） は、過去の習慣的または繰り返しの動作を表すために使われます。
+この場合、「ロンドンで働いていた間、彼女が家に遅く帰ることは一度もなかった」 という意味を伝えています。
+線過去の特徴:
+動作が過去の一定期間にわたって繰り返されたことを示す。
+状態や背景情報を提供する。
+3. 時制の一致
+この文は間接話法（estilo indirecto）の形式です。
+"decía"（線過去） が主節で使われているため、従属節の時制も 線過去（trabajaba, llegaba） に一致しています。
+発話の内容が過去に行われた繰り返しの行動であるため、"llegaba"（線過去） が選ばれています。
+4. 過去の点過去（pretérito perfecto simple）との違い
+"nunca llegó tarde a casa"（彼女は一度も遅く帰らなかった）を使うと、過去のある一瞬の出来事として強調されます。
+例:
+"Cristina siempre decía que cuando trabajó en Londres nunca llegó tarde a casa."
+→ この場合、ロンドンで働いていた期間が短く、単一の完結した事実として話しているニュアンス。
+しかし、元の文は「習慣」を伝えたいので 線過去 が自然です。
+5. "nunca" の役割
+"nunca" は否定副詞で、「一度も～ない」「決して～ない」という強い否定を表します。
+この文では、「ロンドンで働いていた間に一度も遅れなかった」という強い否定を表現しています。
+まとめ
+文全体の意味は次のように解釈できます：
+クリスティーナは「ロンドンで働いていた時は、決して家に遅く帰ることはなかった」といつも言っていた。
+この文では、過去の習慣や状態を表すために線過去 "llegaba" が適切に使われています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文の構造
+文を分解すると次のようになります：
+El próximo viernes
+→ 「次の金曜日」 を意味する時間の表現（主語ではありません）。
+está prevista
+→ 動詞 estar ＋ 形容詞の prevista の組み合わせ。
+「予定されている」という状態を表す構造です。ここでは 「estar + 過去分詞 (prevista)」 が用いられています。
+prevista は動詞 prever（予測する、予定する） の過去分詞形が形容詞化したものです。
+性・数は主語 「una huelga」（女性単数）に一致しています。
+una huelga de profesores
+→ 主語です。「教師のストライキ」 を意味します。
+文の全体的な文法
+「estar + 過去分詞」
+この表現は、「状態」や「結果」を表すために使われます。ここでは「ストライキが予定されている（状態）」を表現しています。
+ser + 過去分詞 を使った場合は、受動態になり「ストライキが予定された（行為）」というニュアンスになります。
+estar + 過去分詞 の場合は、「ストライキが予定されている」という結果的な状態を強調します。
+直訳と自然な訳
+直訳:
+「次の金曜日には、教師のストライキが予定されている。」
+自然な訳:
+「次の金曜日に教師のストライキが行われる予定です。」
+補足
+「prevista」について
+「prevista」は 過去分詞形が形容詞として使われている ケースです。以下の例を比較すると理解が深まります：
+Está prevista una huelga.
+→ 「ストライキが予定されている」（状態）。
+La huelga fue prevista por los profesores.
+→ 「ストライキは教師たちによって予定された」（行為の受動態）。
+この違いにより、文のニュアンスが変わります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「una relaciónはla relaciónではない理由は何ですか？」
+1. 「una relación」ではなく「la relación」ではない理由
+文中で 「una relación」 が使われているのは、
+ここで言う「関係」が まだ具体的に特定されていない一般的な概念 だからです。
+具体的な違い：
+「una relación」
+意味: 「ある種の関係」や「何らかの関係」という、特定されていない一般的な意味を表します。
+この文では、「国と国との関係をより近いものにしたい」という一般的な関係を指しています。
+文脈上、読者や聞き手はどの関係かを特定していないので、不定冠詞の una が適切です。
+例:
+Quiero una relación más cercana con mi hermano.
+（兄弟ともっと近い関係を築きたい。）
+「la relación」
+意味: 「その関係」や、話し手と聞き手の間で特定されている具体的な関係を指します。
+すでに文脈で明確になっている場合や特定の関係を指す場合 に使用されます。
+例:
+La relación con mi hermano ha mejorado mucho.
+（兄弟との関係が大いに改善した。）
+具体的な文脈の説明:
+この文では「una relación」
+文脈上、この関係は 「具体的な国同士の関係」をすでに特定しているわけではなく、
+単に「より親密な関係」という概念を示している ため、不定冠詞 una が使われています。
+対照的な例:
+もし文脈上、その関係がすでに特定されている場合、
+例えば前の文で「国同士の関係」について具体的に話しているときは、次のように la が使われるかもしれません。
+Ya tenemos muchos acuerdos con el país vecino, pero queremos fortalecer la relación existente.
+（すでに隣国と多くの協定があるが、既存の関係を強化したい。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文で 「expliques」 に接続法が使われている理由は、
+動詞 「venir」 の目的を表す 「a que + 接続法」 の構造が使用されているためです。
+文法的なポイント
+「a que」+ 接続法
+「a que」 は目的を表し、「〜するために」というニュアンスを持つ表現です。
+この場合、「expliques」 は話し手が相手に期待している行動（説明すること）を表しており、接続法が使われます。
+接続法は話し手の意図や願望、目的を表現する際に用いられるのが特徴です。
+文の全体的な意味
+「He venido hasta aquí a que me expliques tú mismo lo que está pasando.」
+→ 「私はここまで来ました、あなた自身に何が起こっているのか説明してもらうために。」
+「説明してもらうこと」が目的であり、話し手が相手に対して何らかの行動を求めているため、接続法が適切です。
+「indicativo（直接法）」との違い
+「a que」 を使った場合には接続法が必要であり、直接法は使いません。
+一方で、目的ではなく単なる事実を述べる場合は直接法が使われます。
+例えば：
+「Vine aquí porque me explicaste lo que pasó.」
+→ 「あなたが何が起こったのかを説明してくれたので、ここに来た。」
+（事実に基づいて述べているため、直接法が使われています。）
+「a que + 接続法」 は、目的や意図を表現する文脈で非常によく使われる構造なので覚えておくと便利です！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tomaraは命令法ではなくmi hijo自身が飲むということでse tomaraですか？
+はい、その通りです！この文で "se tomara" が使われているのは、
+息子自身が薬を飲むという行為を指しており、命令法ではなく 接続法過去 で表現されています。以下に詳しく解説します。
+1. 命令法と接続法の違い
+命令法 (imperativo)
+命令法は、話し手が直接「命令」や「指示」を与える場合に使います。
+たとえば、直接「薬を飲みなさい」と言う場合：
+Tómate la pastilla（飲みなさい、命令）。
+接続法 (subjuntivo)
+接続法は、間接的な指示や依頼、希望、可能性などを表現する場合に使います。
+この文では "la doctora"（医者） が息子に対して薬を飲む条件を指示しており、
+それが間接的に述べられているため、接続法が用いられています。
+文の形は：
+La doctora le dijo a mi hijo que solo se tomara la pastilla en caso de dolor muy fuerte.
+→ 医者は息子に「非常に強い痛みがある場合にだけ薬を飲むように」と言いました。
+ここで se tomara が使われる理由は、息子自身が薬を飲む（自分に行為を向ける）ことを表現しているためです。
+2. 再帰動詞 tomarse の役割
+"Se tomara" では、se は再帰代名詞で、行為が主語自身（息子）に向かうことを示します。
+再帰動詞が使われると、薬を飲む行為が息子自身のためであることが強調されます。
+例:
+Tomara la pastilla → 「薬を飲む」
+→ 一般的な行為を示すだけ。
+Se tomara la pastilla → 「自分のために薬を飲む」
+→ 行為が息子自身に向けられることを強調。
+3. 医者が命令形を使わなかった理由
+医者が息子に直接命令する場合は命令法（imperativo）が使えますが、
+ここでは母親が間接的に医者の言葉を引用している形です。
+そのため、命令法ではなく、過去の事実を伝える 接続法過去 が使われています。
+もし直接命令なら：
+La doctora le dijo: "Tómate la pastilla en caso de dolor muy fuerte".
+（医者は「痛みが強い場合は薬を飲みなさい」と言いました。）
+しかし、文では間接的に伝えているので：
+La doctora le dijo a mi hijo que se tomara la pastilla...
+（医者は息子に痛みが強い場合に薬を飲むようにと言いました。）
+4. 主語が変わる場合の例
+主語が異なれば、再帰代名詞も変わります。
+La doctora me dijo que me tomara la pastilla.
+（医者は私に薬を飲むように言いました。）
+La doctora les dijo que se tomaran la pastilla.
+（医者は彼らに薬を飲むように言いました。）
+まとめ
+この文で "se tomara" を使う理由は：
+息子自身が薬を飲む行為を指しているため、再帰代名詞 "se" が必要。
+医者の言葉を間接的に伝えており、接続法過去形 "tomara" を使うのが適切。
+命令形ではなく、条件付きで間接的に指示を表しているから。
+したがって、文法的にも意味的にも完全に正しい表現です！
+-----------------
+una pastillaではなくla pastillaである理由と
+dolorに冠詞がつかない理由を教えてください
+1. la pastilla について
+文中で la pastilla という定冠詞が使われている理由は、
+話し手や聞き手にとってどの薬のことを指しているかが明確だからです。
+例えば、この場合「医者が特定の薬を指示した」状況が考えられるため、
+特定の薬（≒その薬）を指す 定冠詞 la が使われています。
+もし una pastilla が使われた場合、それは「ある薬（不特定の1つ）」というニュアンスになり、
+この文脈では適切ではありません。
+2. dolor に冠詞がつかない理由
+冠詞がつかない名詞のパターン の1つに、抽象的な概念や性質を表す場合があります。
+この場合、dolor（痛み）は一般的な「痛み」という抽象的な概念として扱われています。
+冠詞をつけた場合（例: el dolor や un dolor）は、次のようなニュアンスの違いが生じます：
+el dolor: 特定の痛み（例: 以前に言及した痛みや、ある人の特定の痛み）。
+un dolor: 不特定の痛み、ある種類の痛み（例: 「ある痛みがある」）。
+この文脈では、冠詞を省略することで「強い痛み」という一般的な状況を指しています。
+まとめ
+la pastilla は「特定の薬」を指すために定冠詞を使っています。
+dolor には冠詞をつけず、「痛み」という抽象的・一般的な概念として扱っています。
+文脈とニュアンスのバランスを考慮した表現です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vi a un excompañero de trabajo la semana pasada y (me) dijo que había tenido un accidente hacía un mes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文は、サッカーやスポーツのチームを話題にする際によく使われるスペイン語の表現を含んでいます。
+それぞれの文を分解して解説します。
+1. ¿De qué equipo sois?
+構造と文法ポイント
+¿De qué equipo...?
+「どのチームの？」を意味します。
+¿De qué...? は「何の〜？」や「どの〜？」を尋ねる表現です。
+equipo は「チーム」や「団体」という意味の名詞です。
+sois
+動詞 ser の2人称複数形（vosotros形）現在形です。
+「あなたたちは〜に属していますか？」というニュアンスを持っています。
+スペインでは vosotros が使われますが、
+ラテンアメリカでは ustedes を用いて ¿De qué equipo son? となるのが一般的です。
+全体の意味
+「君たちはどのチームのファンですか？」
+スペインでは、スポーツチームの応援や支持するチームを聞く際にこの表現が使われます。
+2. Somos del Atlético.
+構造と文法ポイント
+Somos
+動詞 ser の1人称複数形（nosotros形）現在形で、「私たちは〜である」を表します。
+del Atlético
+del は de + el の縮約形で、「〜の」を意味します。
+Atlético は、マドリードのサッカーチーム「アトレティコ・マドリード」を指します。
+省略形として el Atlético や Atlético de Madrid と呼ばれることがあります。
+全体の意味
+「私たちはアトレティコのファンです。」
+文法的な注意点
+属するものを表す前置詞 "de"
+¿De qué equipo...? や Somos del Atlético. のように、
+「どのチームに属しているか／どのチームの一員か」を聞く際に de を用います。
+vosotros と nosotros の一致
+質問が sois（2人称複数）で行われているため、答えも somos（1人称複数）で返しています。
+全体の意味
+¿De qué equipo sois?
+「君たちはどのチームのファンですか？」
+Somos del Atlético.
+「私たちはアトレティコのファンです。」
+この文は、スペイン語でスポーツの話題を始める際の典型的な表現と言えます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店員がお客様に「何をお望みですか？」や「何かお探しですか？」
+と尋ねる際に使える他のよく使われるフレーズは次の通りです：
+¿En qué puedo ayudarle?
+「何かお手伝いできますか？」
+¿Qué está buscando?
+「何をお探しですか？」
+¿Le puedo ayudar en algo?
+「何かお手伝いしましょうか？」
+¿Necesita algo?
+「何か必要ですか？」
+¿Quiere ver algo en particular?
+「何か特定のものをご覧になりたいですか？」
+¿Hay algo que le interese?
+「何か興味のあるものはありますか？」
+これらの表現は状況や話し手の丁寧さの度合いに応じて使い分けることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「何がご入用ですか？(D)」
+「赤いTシャツが欲しいんです」</t>
+    <rPh sb="1" eb="2">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イリヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文の 「Le」 は、スペイン語の代名詞の一種で、
+間接目的語 を表します。以下に詳しく説明します。
+1. 「Le」の役割
+Le は、「誰に」 を指す間接目的語の代名詞です。
+この文では、質問をされる相手（敬意を込めて「あなた」を指す）を指しています。
+例：
+¿Le puedo hacer unas preguntas, por favor?
+→ 「あなたにいくつか質問をしてもよろしいですか？」
+英語では "Can I ask you some questions, please?" にあたります。
+2. 文構造の分解
+hacer unas preguntas = 「いくつか質問をする」
+a usted = 「あなたに」
+（ただし、a usted は le によって代用されています）
+完全な文にすると： ¿Puedo hacer unas preguntas a usted, por favor? 
+→ これが 「Le」 を使って簡略化されました。
+3. 文法的ポイント
+Le は丁寧な敬称「usted」に対応しています。
+一方、親しい間柄で話す場合には「te」（二人称単数・親しい形）を使います。
+例: ¿Te puedo hacer unas preguntas? （「君に質問してもいい？」）
+4. 類似の表現
+以下も同じ意味で使われますが、文脈によって丁寧さや形式さが異なります：
+¿Le puedo preguntar algo?
+（「少し質問してもよろしいですか？」）
+¿Me permite hacerle unas preguntas?
+（「質問させていただけますか？」）
+¿Podría hacerle unas preguntas?
+（「いくつか質問してもよろしいでしょうか？」）
+¿Te puedo preguntar algo?
+（親しい相手への「質問していい？」）
+「Le」 を用いた表現は、敬意や形式さを示すスペイン語の重要なポイントの一つです。
+-----------------
+つまり、Leがなくても文法的には誤りではないということですか？
+はい、正しいです。スペイン語では 「¿Puedo hacer unas preguntas, por favor?」
+ と言っても文法的に正しく、相手にも通じます。
+ ただし、「Le」 を使うことで次のようなニュアンスや効果が加わります：
+＜敬意を表す＞
+「Le」は相手に対する敬称の間接目的語で、
+「あなたに質問をしてもよろしいですか？」という丁寧さを明確にします。
+丁寧な会話の場では、これが一般的です。
+＜個人を対象とすることの明示＞
+「Le」を入れることで、特定の人（この場合は聞いている相手）が質問の対象であることを明確にします。
+「Le」を省略した場合のニュアンス
+省略しても意味は伝わりますが、少しカジュアルまたは直接的な印象を与えます。
+フォーマルな場面では、「Le」を使ったほうが良いでしょう。
+例えば：
+¿Puedo hacer unas preguntas? （カジュアルまたは一般的）
+¿Le puedo hacer unas preguntas? （丁寧、フォーマル）
+状況に応じて使い分けるのがポイントです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Me gusta la música.
+はla músicaで
+Me gusta escuchar música.
+のmúsicaにlaがつかないのは何故ですか？
+以下の文で冠詞の有無の違いがある理由は、
+文中の「música」が名詞として具体的に指されているか、
+一般的な意味で使われているかによります。
+1. Me gusta la música.
+冠詞「la」あり:
+「la música」は特定または一般的な音楽全般を指します。
+この文では「音楽そのものが好き」という意味で、
+音楽というジャンル全体を一つの対象として扱っています。
+例: 音楽という芸術全体への愛好心を示す場合に使われます。
+2. Me gusta escuchar música.
+冠詞「la」なし:
+この場合、「música」は不特定の音楽を指し、
+「音楽を聞くこと」という行為を強調しています。
+具体的な音楽の種類やジャンルに言及していないため、冠詞が必要ありません。
+例: 音楽そのものではなく、聞く行為を楽しむことを表現しています。
+違いを整理すると:
+冠詞「la」があると、「音楽」というジャンル全体や特定の音楽に焦点が当たります。
+例: La música clásica es relajante. （クラシック音楽はリラックスできる。）
+冠詞「la」がないと、より抽象的に「音楽を聞く」という行為や不特定の音楽を指します。
+例: Escuchar música me relaja. （音楽を聞くことが私をリラックスさせる。）
+これらの使い分けは、
+スペイン語の「具体的なものに冠詞を付ける」という基本的なルールに従っています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[¿Está soltero Álex?^¿Álex está soltero?]
+No, está casado.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+価格は流動的なので、sonではなくestánが適しているように思うのですが
+良い指摘ですね！「Las frutas son muy baratas en esta tienda.」において、
+なぜ「son」が使われているのか疑問に感じるのは自然なことです。
+以下に、「ser」と「estar」の違いをこの文脈で解説します：
+1. SerとEstarの基本的な違い
+Ser: 本質的、恒常的、または普遍的な性質を表します。
+Estar: 状態や一時的な特徴、ある特定の状況に限られる性質を表します。
+2. この文脈での解釈
+「son」の場合
+「この店では果物が常に安い」という意味になります。
+→ この店で果物が安いことが、その店の特徴（本質的な特性）として語られている。
+「están」の場合
+「果物が今だけ一時的に安い」または「この店の果物が特定の状況で安い」というニュアンスになります。
+→ 例えば、セールや特定の日に限って安い場合に適しています。
+実際の使い分け
+「son」: 一般的・恒常的な事実を表現。
+Las frutas son muy baratas en esta tienda.
+→ この店の果物はいつも安い、という恒常的な事実。
+「están」: 一時的・限定的な状態を表現。
+Las frutas están muy baratas en esta tienda hoy.
+→ 今日この店で果物が安い、という一時的な状況。
+結論
+教科書の文では「この店で果物がいつも安い」という一般的な特徴を述べているため、
+「son」が適切です。しかし、状況によって「están」を使うことも十分あり得ます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>casaに冠詞がつかず、cocinaに冠詞がつく理由はなんですか？
+----
+以下にそれぞれの名詞に冠詞がつくかつかないかの理由を説明します。
+1. 「¿Hay alguien en casa?」の casa に冠詞がつかない理由
+スペイン語では、casa が「自分の家」や「誰かが住んでいる家」を指す場合、冠詞を省略するのが一般的です。
+	例:
+	Estoy en casa.（私は家にいる）
+	Vamos a casa.（私たちは家に行く）
+	冠詞を付ける場合 (la casa) は、
+	具体的な家を指し示す場合や「一般的な建物」としての家を意味します。
+	例:
+	Estamos pintando la casa.（私たちは家を塗装しています）
+	La casa de Pedro es muy grande.（ペドロの家はとても大きいです）
+この例文では、casa が「自分の家」を示すため冠詞は不要です。
+2. 「Estoy en la cocina.」の la cocina に冠詞がつく理由
+cocina は「キッチン」という特定の場所を示しており、
+文脈上「家の中にあるキッチン」として具体的な空間を指しています。
+そのため、冠詞 (la) を付ける必要があります。
+例:
+Estoy en la cocina.（私はキッチンにいます）
+Voy a la cocina a preparar algo.（キッチンに行って何か作ります）
+冠詞を付けない cocina は、抽象的または一般的な概念として「料理」や「キッチン全般」を指す場合に限られます。
+例:
+La cocina española es deliciosa.（スペイン料理は美味しい）
+Cocina es mi pasión.（料理は私の情熱です）
+まとめ
+casa に冠詞がない理由: 「自分の家」という文脈では冠詞を省略するのが一般的。
+cocina に冠詞がある理由: 特定の場所（ここでは家のキッチン）を指しているため、冠詞が必要。
+このルールは他の類似の場所にも適用されます
+（例: Estoy en clase.（授業中です）, Estoy en la escuela.（学校にいます））。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(男性について)「あの人(C)は誰ですか？」
+「私たちの仕事仲間です」</t>
+    <rPh sb="1" eb="3">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)「どこに住んでるの？」
+「ルナ通り８番地に住んでます」</t>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「por si」 は「〜の場合に備えて」「〜かもしれないので」というニュアンスで使われる表現です。
+主に仮定や可能性を示すために用いられ、
+主節と副詞句をつなぐ役割を果たします。以下に詳しく説明します：
+1. por si + 直説法
+この構文は、「現実的な可能性」を表す場合に使われます。
+ニュアンス: 「〜の場合に備えて」または「〜かもしれないから」
+例文:
+Llévate un paraguas por si llueve.
+（雨が降るといけないから傘を持って行ってね。）
+→ 雨が降る可能性が十分あると話者が考えている。
+Apunta mi número por si necesitas algo.
+（何か必要なことがあったらいけないから、私の番号をメモして。）
+2. por si + 接続法
+この構文は、「可能性が低い」「仮定的な状況」を表す場合に使われます。
+可能性が現実的でない場合や話者がそれを低いと見なしている場合に用いられます。
+ニュアンス: 「〜だった場合に備えて」
+例文:
+Voy a preparar más comida por si viniera alguien más.
+（誰か他の人が来るかもしれないから、もう少し料理を用意しておく。）
+→ 来る可能性はあるが、それほど高くない。
+Por si fuera necesario, traigo algunos documentos adicionales.
+（必要になるかもしれないから、追加の書類を持ってきた。）
+→ 必要になる可能性は低いが、万が一に備えて。
+3. 直説法と接続法の選択ポイント
+- 直説法を選ぶ場合
+現実的な可能性を表現したいとき。話者がその出来事が起こる可能性を十分に信じている場合。
+- 接続法を選ぶ場合
+仮定や可能性が低いと考えられる場合。または話者がその出来事を単なる仮定として扱っている場合。
+4. 表現の応用例
+Por si acaso（念のため、万が一の場合に備えて）:
+Voy a llevar un abrigo por si acaso hace frío.
+（念のため、寒いかもしれないからコートを持って行く。）
+Por si las moscas（口語表現: 念のため、用心して）:
+Llévate un cargador portátil por si las moscas.
+（念のため、携帯用充電器を持って行って。）
+注意点
+「por si」の後に来る動詞の形は、話者がその可能性をどの程度現実的と考えているかによって変わります。
+口語表現では、現実的な可能性が低い場合でも直説法を使うことがありますが、正式な文脈では接続法が適切です。
+まとめ
+現実的な可能性 → 直説法
+仮定的な可能性 → 接続法
+「por si」は「念のため」「場合に備えて」と覚え、
+使い分けの際に話者の視点や状況の確実性を考慮すると自然に使えます！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続法現在と接続法過去は、それぞれ異なる時間軸や文脈で使われますが、
+そのニュアンスには微妙な違いもあります。以下に両者の違いを整理します。
+1. 時間軸の違い
+接続法現在
+現在または未来に関連した状況や事柄について使われます。
+例:
+Espero que vengas a la fiesta.
+（君がパーティーに来ることを願っています。）
+→ 未来に起こることへの期待。
+Me alegra que estés aquí.
+（君がここにいるのが嬉しい。）
+→ 現在の状況に関する感情。
+接続法過去
+過去に関連した状況や事柄について使われます。
+例:
+Esperaba que vinieras a la fiesta.
+（君がパーティーに来ることを期待していました。）
+→ 過去に期待していたが、結果は明示されていない。
+Me alegró que estuvieras aquí.
+（君がここにいてくれて嬉しかった。）
+→ 過去の出来事に対する感情。
+2. 文法的文脈の違い
+接続法現在
+主節が現在形または未来形の場合に使われる。
+例:
+Es importante que sepas la verdad.
+（君が真実を知ることが大切です。）
+→ 主節が現在形（Es importante）。
+接続法過去
+主節が過去形や条件法の場合に使われる。
+例:
+Era importante que supieras la verdad.
+（君が真実を知ることが大切でした。）
+→ 主節が過去形（Era importante）。
+3. ニュアンスや意味の違い
+接続法現在は、話者の現在の感情、希望、疑念、または未来の可能性を強調します。
+例:
+Dudo que sea cierto.
+（それが本当かどうか疑わしい。）
+→ 今、疑念を感じている。
+接続法過去は、過去の希望や感情、または現実的でない仮定や条件を表します。
+例:
+Dudaba que fuera cierto.
+（それが本当かどうか疑っていました。）
+→ 過去の疑念。
+Si tuviera dinero, iría de viaje.
+（もしお金があれば、旅行に行くのに。）
+→ 現実とは異なる仮定。
+4. 例文比較でのニュアンスの違い
+接続法現在:
+Ojalá llueva mañana.
+（明日雨が降るといいな。）
+→ 未来に対する期待。
+接続法過去:
+Ojalá lloviera mañana.
+（明日雨が降ればいいのに。）
+→ 実現の可能性が低い、または現実的でない願望。
+まとめ
+接続法現在は「現在」や「未来」の希望や感情を表す。
+接続法過去は「過去」や「仮定」の状況、または実現困難な願望や仮想のシナリオを表す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「あなた方はこの日曜日何をされる予定(考え)ですか？」
+「うーん、特に何も」</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニチヨウビ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ここの名物料理を何か私たちにお勧めしていただけますか？」
+「はい、もちろんです」(CN)</t>
+    <rPh sb="4" eb="6">
+      <t>メイブツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Se me está acabando la batería
+この表現は、バッテリーが減ってきている（切れかかっている）状況を表す自然なスペイン語表現です。
+文法的に分解すると以下のようになります：
+1. Se me está acabando
+Se: 再帰動詞 acabarse を使った形式で、「（何かが）終わる」「尽きる」「なくなる」といった意味を持ちます。
+この場合は「なくなりつつある」という進行形です。
+me: 間接目的語代名詞で、「私にとって」「私に関係する」というニュアンスを加えています。
+つまり「私のバッテリーが減ってきている」となります。
+está acabando: 動詞の進行形 (estar + 現在分詞) を使って、
+「今まさにバッテリーが減少している途中」という動作の進行を表現しています。
+2. la batería
+ここでは特定の「（携帯電話の）バッテリー」を指すので、定冠詞 la が使われています。
+文の直訳とニュアンス
+直訳: 「私のところでバッテリーがなくなりつつある。」
+自然な訳: 「バッテリーが切れかかっている。」
+文法的ポイント
+再帰動詞: 動作が自発的に起きていることを表現します。
+この場合、バッテリーが自ら消耗していくイメージです。
+間接目的語: 話し手との関係を示しており、「その動作が話し手に影響を与える」ことを伝えます。
+他の例文
+同じ構造を持つ表現をいくつか挙げます：
+Se me rompieron las gafas.
+（私の眼鏡が壊れてしまった。）
+Se le cayó el café.
+（彼／彼女がコーヒーを落としてしまった。）
+Se nos acabó el tiempo.
+（私たちの時間がなくなった。）
+これらの表現では、再帰動詞と間接目的語の組み合わせによって、
+話し手や主語に何らかの影響が及ぶことを自然に伝えています。
+----------
+Se me 三人称 系の文は文法を使って、「私にとって～された＝私の責任ではない(故意ではない)」と説明はできるけど
+結局のところ、この構文が使われている文をみて
+「自発的なことではないですよ」という気持ちが出てくるまで、何度も何度もこの構文に浸る必要がある。
+その気持ちが出てくる道のりを考えてみる。
+まず、単語と他の文法が無意識に理解できていないといけない
+Se me está acabandoを例にとると
+・もちろんacabarを知っている
+・se me とかse lo とか間接目的語と直接目的語がならんでるやつはいっぱい出てくるから、それに慣れる・
+・進行形、estar + gerundioを理解している。
+ここまで理解できていると、Se me está acabandoは、
+自分と関係なく勝手に、バッテリが切れかけてる！っていう気持ちが出てくる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)「テニスしません？」
+「いや、肩をけがしていてできないんです」</t>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)この交通系ICカード(複数)でほとんど全国を移動できるんですよ</t>
+    <rPh sb="6" eb="8">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンコク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>de: 前置詞。「～について」という意味です。
+el: 定冠詞。「新しい上司」を特定するために使われます。
+nuevo jefe: 名詞句。「新しい上司」の意味です。
+文法的ポイント
+疑問詞 + 直説法現在形
+スペイン語では疑問文を作る際、疑問詞（qué など）を文頭に置き、その後に通常の文の語順で述べます。
+この文では piensan（考える）という具体的な動作を聞いています。
+de + el = del
+前置詞 de（～について）と定冠詞 el が続く場合、del という短縮形になります。
+定冠詞 el の使用
+nuevo jefe（新しい上司）は話し手と聞き手の間で具体的に誰のことを指しているかが明確であるため、定冠詞 el が使われています。
+可能なバリエーション
+¿Qué opinan ustedes del nuevo jefe?
+opinan（意見を持つ）を使った表現。
+「新しい上司についてどう思いますか？」の別の言い方。
+¿Qué les parece el nuevo jefe?
+parece（～のように思える）を使った表現。
+「新しい上司についてどのように思いますか？」というニュアンス。
+まとめ
+この文では、**「新しい上司についてどう思いますか？」**という質問を聞いています。
+丁寧でフォーマルな表現であり、どのような意見を持っているかを尋ねる際に使われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿Dónde viven (ustedes)?
+Vivimos en las afueras de Tokio.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(あなた方に対して)「どこに住んでらっしゃるんですか？」
+「東京の郊外(複数)に住んでいます」</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウガイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿Qué piensan (ustedes) del nuevo jefe?
+Nos parece muy competente.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文は、強調や否定を表現するために効果的に構造が組み立てられています。
+それぞれの要素について解説します。
+1. Ni
+意味: 「～でさえも～ない」「まったく～ない」といった否定を強調する副詞。
+文脈: この場合、「自分自身でさえ説明できない」というニュアンスを表現しています。
+例:
+Ni tú lo sabes.（君でさえ知らない。）
+Ni siquiera lo intentó.（試しさえもしなかった。）
+2. Yo misma
+意味: 「私自身」という強調表現。
+"misma" は再帰代名詞の強調として使われます。
+文の主語「yo」を修飾し、「私自身でさえも」とさらに強調します。
+文脈: 「自分でさえも理解できない」という意味を強調しています。
+例:
+Yo misma lo haré.（私自身がそれをやる。）
+Tú mismo deberías comprobarlo.（君自身で確認すべきだよ。）
+3. Me lo explico
+構造: 再帰動詞 explicarse を使った表現。
+explicarse: 「自分に説明する」「自分で納得する」というニュアンス。
+me lo: 再帰代名詞「me」（自分に）と目的語代名詞「lo」（それ、具体的には「なぜそうしたのか」）を組み合わせています。
+文脈: 「私はそれを説明できない」＝「なぜそうしたのか、自分自身にすら説明できない」という意味。
+直訳と自然な訳
+直訳: 「私自身、それを自分に説明することさえできない。」
+自然な訳: 「自分でもなぜそうしたのか分からない。」
+まとめ
+Ni yo misma: 強調（「私自身でさえ」）。
+me lo explico: 再帰動詞で「自分に説明する」。
+否定の強調によって、話し手の困惑や理解不能さを表現しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)「何時に職場をでるの？」
+「8時に出るよ」</t>
+    <rPh sb="5" eb="7">
+      <t>ナンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(tú)「Marta、僕たちと一緒に飲みに来る？」(僕たちは男性)
+「うん、もちろん、行くわ」</t>
+    <rPh sb="11" eb="12">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿Le has comprado el regalo a Pablo?
+Sí ya se lo he comprado.
+の二文目は日本語では「うん、もう買ったよ」くらいに訳されますが
+日本語訳ではseもloも省略されるのが普通です。
+スペイン語で¿Le has comprado el regalo a Pablo?という質問に対して
+日本語と同じ感覚でSí ya he comprado.と答えたら不自然ですか？
+――――――――
+はい、「Sí, ya he comprado.」と答えるのはスペイン語では不自然です。
+理由は、スペイン語では一般的に代名詞を使って文脈を補うことが重要だからです。
+理由①：スペイン語では代名詞で文脈を明確にする
+スペイン語では「何を（lo）」と「誰に（le）」を表す代名詞を使うことで、
+発言の意味を具体的にし、相手に誤解を与えないようにします。
+特に質問で具体的な対象（regalo a Pablo）が挙げられている場合、
+答えの中でそれを省略するのは自然ではありません。
+例えば：
+Sí, ya he comprado.
+→ 「うん、もう買ったよ」とも取れますが、
+「何を？」や「誰のために？」がはっきりせず、やや不完全に聞こえます。
+対して：
+Sí, ya se lo he comprado.
+→ 「うん、もう彼のためにそれを買ったよ」と具体的で明確です。
+理由②：文脈依存の度合い
+スペイン語では日本語ほど文脈に依存して情報を省略する習慣がありません。
+そのため、代名詞で文脈を補うのが一般的です。
+特に会話では、話題が変わったりすると文脈が曖昧になる可能性があるため、
+代名詞を使うことで一貫性を保ちます。
+自然な答え方
+質問「¿Le has comprado el regalo a Pablo?」への答えとしては、以下のような表現が自然です：
+Sí, ya se lo he comprado.
+→ 最も完全で自然な答え。
+Sí, ya lo he comprado.
+→ やや省略されていますが、「Pabloへのもの」という文脈が明確なら問題ありません。
+Sí, ya he comprado el regalo.
+→ 少し繰り返し感がありますが、相手が特に明確さを求める場合には適切。
+結論
+日本語と異なり、スペイン語では「Sí, ya he comprado.」だけでは不十分で、
+少なくとも「lo」や「se lo」を使って具体性を持たせることが求められます。
+これは、スペイン語特有の代名詞の重要性に由来する文化的・言語的な違いです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+直訳: 「（誰かが）私の〜を抜いた」
+この文脈では、「歯を抜いた」という意味になります。
+4. 暗黙の主語
+スペイン語では、han（3人称複数形）の主語が明示されていないため、
+「誰が歯を抜いたのか」が明確ではありません。ただし、文脈から考えて歯医者であることは自明です。
+このように、行為者が明白な場合、わざわざ主語を述べないのが自然な表現です。
+あなた:
+特定しない誰かが奥歯を抜いたとして、それは歯医者だということは自明ですが、
+その場合はMe ha sacadoと単数にならないんですか？
+ChatGPT
+良い質問ですね！確かに、「歯を抜いたのは歯医者（単数）」であることが自明であれば、
+Me ha sacado（単数）が文法的にも論理的にも正しいように思えます。
+しかし、スペイン語ではこのような状況でもMe han sacado（複数）が使われる場合があります。その理由を解説します。
+1. 集団的な行為のニュアンス
+Me han sacado（複数形）が使われるのは、歯を抜くという行為が単独の歯医者だけでなく、
+その歯科医院のスタッフ全体の関与によると感じられる場合があるからです。
+実際に歯を抜いたのは1人の歯医者ですが、その前後で受付、助手、看護師などが関与していることが多いです。
+このような場合、行為を集団のものとして捉え、「han」が使われます。
+2. 文法的な柔軟性と慣用表現
+スペイン語では、行為者が特定されていない場合、
+動詞の単数形と複数形のどちらも使われることがあります。特に以下のような違いがあります：
+Me ha sacado: より具体的で、「1人が行った」という印象を強調。
+Me han sacado: 行為を抽象化して、「誰かたちが行った」という漠然としたニュアンス。
+このため、話し手が「歯科医院全体のプロセス」として捉えていれば、自然にhanを使うことが多いです。
+3. 地域や話し手の習慣
+スペイン語圏では、単数形と複数形の選択が地域や話し手の習慣による影響も受けます。例えば：
+スペインでは、日常会話で複数形（han）を使う傾向が強いです。
+ラテンアメリカでは、単数形（ha）がよりよく使われる場合もあります。
+4. どちらも文法的に正しい
+実際には、Me ha sacadoとMe han sacadoのどちらも文法的に正しいです。
+選択は話し手がどの程度行為者を具体化したいか、または行為を集団的に捉えるかに依存します。
+結論
+質問のような状況で、歯医者が1人だけ関与した場合でも、
+スペイン語ではMe han sacadoが使われることがよくあります。
+これは行為を「歯科医院全体のプロセス」として捉えたり、
+話し手が特に行為者を特定しない形で伝えたりする場合です。
+一方で、行為を「1人の歯医者」に焦点を当てたい場合は、
+Me ha sacadoを使ってもまったく問題ありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「どうかした？」(tpa)
+「奥歯を抜いてまだ痛むのよ」</t>
+    <rPh sb="15" eb="17">
+      <t>オクバ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文中のnosとlasは、それぞれ次のような役割を果たしています：
+1. nos: 「私たちに」
+これは間接目的語代名詞で、雨が「誰に影響を与えたのか」を示しています。
+つまり、「雨が私たち（nos）の体験を台無しにした」というニュアンスです。
+2. las: 「それら（vacaciones）」を指す
+これは直接目的語代名詞で、具体的に「何が台無しになったのか」を指します。
+文脈から「las vacaciones（休暇）」を代名詞で受けていると分かります。
+文全体の解釈
+Estuvimos de vacaciones en la playa, pero la lluvia nos las estropeó.
+→「私たちはビーチで休暇を過ごしていたが、雨が私たちの休暇を台無しにしてしまった。」
+詳細な構造
+動詞 estropear（台無しにする） を分解してみると：
+誰に影響を与えたのか？ → nos（私たちに）
+何が台無しになったのか？ → las（休暇を）
+**「雨」**が主語で、「私たち（nos）」と「休暇（las）」にそれぞれ影響を与えることを表しています。
+代名詞を省略した場合
+La lluvia estropeó las vacaciones.
+→「雨が休暇を台無しにした。」
+この文でも意味は伝わりますが、「私たちに影響があった」というニュアンスが消えます。
+スペイン語では、話し手や聞き手に直接関係のある情報を代名詞で補足することが一般的です。
+これにより、文がより個人的で感情を含むものになります。
+まとめ
+nos: 「私たちに」
+las: 「それら（休暇を）」
+スペイン語では、こうした代名詞を使うことで「誰にどんな影響があったか」を明確にし、
+より豊かなニュアンスを表現します。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -14951,1241 +16215,6 @@
 結論
 動作や量 を強調したい場合は por mucho que を使います。
 性質や様子 を強調したい場合は por muy + 形容詞/副詞 を使います。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">━～・se
-[再]
-1 留まる，固定する．
-El armario se ha fijado en la pared de la derecha.｜タンスは右側の壁に収まった．
-2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⸨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en... …に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⸩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 気づく；注意する．
-¡Fíjese en lo que le digo!｜私があなたに言うことを注意して聞いてください．</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;table&gt;
-	&lt;tbody&gt;
-		&lt;tr&gt;
-			&lt;td&gt;Me hicieron escribir&lt;/td&gt;
-			&lt;td&gt;書かされた&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td&gt;un informe de diez páginas&lt;/td&gt;
-			&lt;td&gt;10枚の報告書を&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td&gt;en una hora&lt;/td&gt;
-			&lt;td&gt;1時間で&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/tbody&gt;
-&lt;/table&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;table&gt;
-  &lt;tbody&gt;
-    &lt;tr&gt;
-      &lt;th&gt;El médico le mandó&lt;/th&gt;
-      &lt;td&gt;医者は指示した&lt;/td&gt;
-      &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;th&gt;hacer una radiografía&lt;/th&gt;
-      &lt;td&gt;レントゲンを撮ることを&lt;/td&gt;
-      &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;th&gt;de la rodilla derecha.&lt;/th&gt;
-      &lt;td&gt;右ひざの&lt;/td&gt;
-      &lt;/tr&gt;
-    &lt;/tbody&gt;
-  &lt;/table&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7 〈太陽・月などが〉沈む，地平線の下に隠れる．
-Tenemos que darnos prisa；pronto se pondrá el sol.｜急がないと．すぐに日が沈むからね．
-darse prisa : 急ぐ</t>
-    <rPh sb="108" eb="109">
-      <t>イソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この文の "los vecinos los oyeron discutiendo" の部分は、文法的に重要な構成要素を含んでいます。
-それぞれの要素を詳しく解説します。
-1. 主語と直接目的語
-主語: los vecinos
-「隣人たち」という文の主語です。行為（聞く）を行う主体を示します。
-直接目的語: los
-ここでは、「彼らを」という意味で、議論している人々
-（たとえば、隣人たちが聞いた誰か特定のカップルやグループ）を指しています。
-2. 動詞の構造: "oyeron"
-動詞 oír（聞く）の 点過去形 で、「聞いた」という意味を表します。
-文全体が過去の出来事について述べているため、点過去形が使われています。
-3. 動詞 + 現在分詞 (oyeron discutiendo)
-oyeron（聞いた）+ discutiendo（議論している）
-これは 感覚動詞 + 現在分詞 の構造で、感覚動詞（見る・聞くなど）が、
-続く動作を表す現在分詞と組み合わさることで「〜しているのを見る/聞く」というニュアンスを作ります。
-los oyeron discutiendo は、「彼らが議論しているのを聞いた」という意味になります。
-ポイント:
-discutiendo は 現在分詞 で、「議論している」という進行中の動作を強調します。
-この構造は、聞こえた内容や状況をより具体的に説明する役割を果たします。
-4. 全体の意味
-los vecinos los oyeron discutiendo:
-「隣人たちは、彼らが議論しているのを聞いた」
-隣人が具体的に「議論している様子や音」を感覚として捉えたことを表しています。
-文法上のポイント
-感覚動詞 + 現在分詞の一般的な使い方
-感覚動詞（ver, oír, sentir など）の後に現在分詞を使うことで、行為が進行中であることを示します。
-この構造は、ある出来事を直接目撃したり、体験したりしたことを描写するのに適しています。
-例文:
-La vimos llorando en el parque.
-（私たちは彼女が公園で泣いているのを見た。）
-→ 「泣いている」という進行中の行為を強調。
-Oímos a los niños jugando en el jardín.
-（私たちは子供たちが庭で遊んでいるのを聞いた。）
-→ 「遊んでいる」という行為を耳で感覚的に捉えた。
-対比: 他の構造との違い
-感覚動詞 + 不定詞:
-Los vecinos los oyeron discutir.
-（隣人たちは彼らが議論するのを聞いた。）
-不定詞 discutir を使う場合、議論全体を捉えたことを表し、
-「議論の瞬間」というよりは全体的な出来事を述べるニュアンスになります。
-現在分詞のニュアンス:
-一方、discutiendo は「議論している最中」を強調しており、臨場感やその瞬間性を表します。
-結論
-"los vecinos los oyeron discutiendo" では、
-隣人たちが「彼らが議論している瞬間や音」を直接聞いたことを臨場感をもって描写しています。
-現在分詞は進行中の行為を強調し、この種の文脈ではとても自然な表現です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Entonces sentí su mano apretando la mía y me sentí muy seguro.
-のsentí su mano apretando la míaについて
-apretando la míaがsu manoを修飾していると考えて
-「私の手を握っている彼女の手」と訳して、自然な訳は
-「彼女の手が僕の手を握っているのを感じた」と解釈して合っていますか？
-→合っている
-類似の例文
-Sentí la brisa acariciando mi cara.
-（そよ風が私の顔を撫でているのを感じた。）
-Noté su mirada observándome.
-（彼の視線が私を見つめているのに気づいた。）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>¿Me hace el favor de...?
-→ 「～していただけますか？」という丁寧な依頼を表す定型表現。
-直訳すると「私にそのお願いをしてくれますか？」という意味になります。
-このフレーズは、日常会話やフォーマルな場面で「直接的な命令」を避けつつお願いする際に用いられます。例えば：
-直接的な依頼：
-"Rellene este formulario, por favor."（このフォームを記入してください）
-→ これでも失礼ではありませんが、やや命令的な印象を与えることがあります。
-丁寧な依頼：
-"¿Me hace el favor de rellenar este formulario?"
-→ 間接的かつ控えめな表現で、相手に対する敬意を感じさせます。
- 他の類似表現
-このフレーズは、他の丁寧な依頼表現とも置き換え可能です：
-¿Podría rellenar este formulario, por favor?
-（このフォームを記入していただけますか？）
-¿Sería tan amable de rellenar este formulario?
-（このフォームを記入していただけませんか？）
-¿Me haría el favor de rellenar este formulario?
-（さらに丁寧で仮定法を使った表現）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comentóした時点で未来のことを言っているから
-時制の一致で過去未来形を使う
-comentó → hablaría</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Toledoまでの往復切符を1枚欲しいんですが</t>
-    <rPh sb="9" eb="11">
-      <t>オウフク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キップ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カーテンを開けてもらえる？」
-「いいよ」CQN</t>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">hacer + infinitivo
-12 〘使役〙
-(1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⸨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>＋不定詞…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⸩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> させる．
-Carmen me hizo llorar.｜カルメンに泣かされた．
-----------------------
-"No te preocupes" について解説すると、これは 否定命令 であり、
-接続法現在 を使用した表現です。以下で文法的なポイントを詳しく説明します。
-1. 文全体の構造
-No te preocupes
-→ 「心配しないで」という意味の否定命令文です。
-No: 否定を表します。
-te: 再帰代名詞（主語「君」に対応）。
-preocupes: 動詞 preocuparse の 接続法現在形（tú の形）。
-2. 動詞 preocuparse について
-Preocuparse は再帰動詞で、「心配する」という意味です。
-再帰代名詞（me, te, se など）を伴って使います。
-例
-Me preocupo por ti. （私は君のことを心配している）
-¿Te preocupas demasiado? （君は心配しすぎているの？）
-3. 否定命令に接続法が使われる理由
-スペイン語では、命令法 と 接続法 は密接に関連しています。具体的には：
-a. 肯定命令
-肯定命令では、通常 命令法 を使用します。
-例: Preocúpate.（心配しなさい）
-b. 否定命令
-否定命令では、常に 接続法現在 を使います。
-例: No te preocupes.（心配しないで）
-4. 文法的ルールまとめ
-肯定命令
-Preocuparse の命令法 (tú の形)：Preocúpate
-→ 再帰代名詞を動詞の語尾に付ける。
-否定命令
-Preocuparse の接続法現在 (tú の形)：No te preocupes
-→ 再帰代名詞を動詞の前に置く。
-5. 応用例
-否定命令を使った例：
-No te preocupes por mí.
-（私のことを心配しないで）
-No te levantes todavía.
-（まだ起きないで）
-肯定命令を使った例：
-Preocúpate más por tus estudios.
-（もっと勉強のことを心配しなさい）
-Levántate temprano mañana.
-（明日は早く起きなさい）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vi a un excompañero de trabajo la semana pasada
-先週、元同僚に会った、ら
-me dijo que había tenido un accidente hacía un mes.
-私に言った、事故にあったと、そのさらに1か月前
-私に言ったのは過去で
-事故にあったのは、私に言った時点ではもう終わってた話
-そんで、さらに1か月前のことだからhacía un mes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医者(女性)(D)は息子に強い痛みのときにだけ錠剤を飲むようにと言いました</t>
-    <rPh sb="0" eb="2">
-      <t>イシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ムスコ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウザイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この文の "nunca llegaba tarde a casa"（決して家に遅く帰らなかった）は、
-過去の習慣や繰り返される行動を表現するために 線過去（imperfecto） が使われています。以下に詳しく解説します。
-1. 文全体の構造
-Cristina siempre decía que...
-→ 「クリスティーナはいつもこう言っていた」という発言の導入部分。
-cuando trabajaba en Londres...
-→ 過去のある期間（ロンドンで働いていた時）を示す補足情報。
-nunca llegaba tarde a casa.
-→ 過去のその期間中に繰り返し行われていた行動（遅刻せずに家に帰ったこと）を説明。
-2. 線過去（imperfecto）の選択
-"llegaba"（線過去） は、過去の習慣的または繰り返しの動作を表すために使われます。
-この場合、「ロンドンで働いていた間、彼女が家に遅く帰ることは一度もなかった」 という意味を伝えています。
-線過去の特徴:
-動作が過去の一定期間にわたって繰り返されたことを示す。
-状態や背景情報を提供する。
-3. 時制の一致
-この文は間接話法（estilo indirecto）の形式です。
-"decía"（線過去） が主節で使われているため、従属節の時制も 線過去（trabajaba, llegaba） に一致しています。
-発話の内容が過去に行われた繰り返しの行動であるため、"llegaba"（線過去） が選ばれています。
-4. 過去の点過去（pretérito perfecto simple）との違い
-"nunca llegó tarde a casa"（彼女は一度も遅く帰らなかった）を使うと、過去のある一瞬の出来事として強調されます。
-例:
-"Cristina siempre decía que cuando trabajó en Londres nunca llegó tarde a casa."
-→ この場合、ロンドンで働いていた期間が短く、単一の完結した事実として話しているニュアンス。
-しかし、元の文は「習慣」を伝えたいので 線過去 が自然です。
-5. "nunca" の役割
-"nunca" は否定副詞で、「一度も～ない」「決して～ない」という強い否定を表します。
-この文では、「ロンドンで働いていた間に一度も遅れなかった」という強い否定を表現しています。
-まとめ
-文全体の意味は次のように解釈できます：
-クリスティーナは「ロンドンで働いていた時は、決して家に遅く帰ることはなかった」といつも言っていた。
-この文では、過去の習慣や状態を表すために線過去 "llegaba" が適切に使われています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文の構造
-文を分解すると次のようになります：
-El próximo viernes
-→ 「次の金曜日」 を意味する時間の表現（主語ではありません）。
-está prevista
-→ 動詞 estar ＋ 形容詞の prevista の組み合わせ。
-「予定されている」という状態を表す構造です。ここでは 「estar + 過去分詞 (prevista)」 が用いられています。
-prevista は動詞 prever（予測する、予定する） の過去分詞形が形容詞化したものです。
-性・数は主語 「una huelga」（女性単数）に一致しています。
-una huelga de profesores
-→ 主語です。「教師のストライキ」 を意味します。
-文の全体的な文法
-「estar + 過去分詞」
-この表現は、「状態」や「結果」を表すために使われます。ここでは「ストライキが予定されている（状態）」を表現しています。
-ser + 過去分詞 を使った場合は、受動態になり「ストライキが予定された（行為）」というニュアンスになります。
-estar + 過去分詞 の場合は、「ストライキが予定されている」という結果的な状態を強調します。
-直訳と自然な訳
-直訳:
-「次の金曜日には、教師のストライキが予定されている。」
-自然な訳:
-「次の金曜日に教師のストライキが行われる予定です。」
-補足
-「prevista」について
-「prevista」は 過去分詞形が形容詞として使われている ケースです。以下の例を比較すると理解が深まります：
-Está prevista una huelga.
-→ 「ストライキが予定されている」（状態）。
-La huelga fue prevista por los profesores.
-→ 「ストライキは教師たちによって予定された」（行為の受動態）。
-この違いにより、文のニュアンスが変わります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「una relaciónはla relaciónではない理由は何ですか？」
-1. 「una relación」ではなく「la relación」ではない理由
-文中で 「una relación」 が使われているのは、
-ここで言う「関係」が まだ具体的に特定されていない一般的な概念 だからです。
-具体的な違い：
-「una relación」
-意味: 「ある種の関係」や「何らかの関係」という、特定されていない一般的な意味を表します。
-この文では、「国と国との関係をより近いものにしたい」という一般的な関係を指しています。
-文脈上、読者や聞き手はどの関係かを特定していないので、不定冠詞の una が適切です。
-例:
-Quiero una relación más cercana con mi hermano.
-（兄弟ともっと近い関係を築きたい。）
-「la relación」
-意味: 「その関係」や、話し手と聞き手の間で特定されている具体的な関係を指します。
-すでに文脈で明確になっている場合や特定の関係を指す場合 に使用されます。
-例:
-La relación con mi hermano ha mejorado mucho.
-（兄弟との関係が大いに改善した。）
-具体的な文脈の説明:
-この文では「una relación」
-文脈上、この関係は 「具体的な国同士の関係」をすでに特定しているわけではなく、
-単に「より親密な関係」という概念を示している ため、不定冠詞 una が使われています。
-対照的な例:
-もし文脈上、その関係がすでに特定されている場合、
-例えば前の文で「国同士の関係」について具体的に話しているときは、次のように la が使われるかもしれません。
-Ya tenemos muchos acuerdos con el país vecino, pero queremos fortalecer la relación existente.
-（すでに隣国と多くの協定があるが、既存の関係を強化したい。）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この文で 「expliques」 に接続法が使われている理由は、
-動詞 「venir」 の目的を表す 「a que + 接続法」 の構造が使用されているためです。
-文法的なポイント
-「a que」+ 接続法
-「a que」 は目的を表し、「〜するために」というニュアンスを持つ表現です。
-この場合、「expliques」 は話し手が相手に期待している行動（説明すること）を表しており、接続法が使われます。
-接続法は話し手の意図や願望、目的を表現する際に用いられるのが特徴です。
-文の全体的な意味
-「He venido hasta aquí a que me expliques tú mismo lo que está pasando.」
-→ 「私はここまで来ました、あなた自身に何が起こっているのか説明してもらうために。」
-「説明してもらうこと」が目的であり、話し手が相手に対して何らかの行動を求めているため、接続法が適切です。
-「indicativo（直接法）」との違い
-「a que」 を使った場合には接続法が必要であり、直接法は使いません。
-一方で、目的ではなく単なる事実を述べる場合は直接法が使われます。
-例えば：
-「Vine aquí porque me explicaste lo que pasó.」
-→ 「あなたが何が起こったのかを説明してくれたので、ここに来た。」
-（事実に基づいて述べているため、直接法が使われています。）
-「a que + 接続法」 は、目的や意図を表現する文脈で非常によく使われる構造なので覚えておくと便利です！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tomaraは命令法ではなくmi hijo自身が飲むということでse tomaraですか？
-はい、その通りです！この文で "se tomara" が使われているのは、
-息子自身が薬を飲むという行為を指しており、命令法ではなく 接続法過去 で表現されています。以下に詳しく解説します。
-1. 命令法と接続法の違い
-命令法 (imperativo)
-命令法は、話し手が直接「命令」や「指示」を与える場合に使います。
-たとえば、直接「薬を飲みなさい」と言う場合：
-Tómate la pastilla（飲みなさい、命令）。
-接続法 (subjuntivo)
-接続法は、間接的な指示や依頼、希望、可能性などを表現する場合に使います。
-この文では "la doctora"（医者） が息子に対して薬を飲む条件を指示しており、
-それが間接的に述べられているため、接続法が用いられています。
-文の形は：
-La doctora le dijo a mi hijo que solo se tomara la pastilla en caso de dolor muy fuerte.
-→ 医者は息子に「非常に強い痛みがある場合にだけ薬を飲むように」と言いました。
-ここで se tomara が使われる理由は、息子自身が薬を飲む（自分に行為を向ける）ことを表現しているためです。
-2. 再帰動詞 tomarse の役割
-"Se tomara" では、se は再帰代名詞で、行為が主語自身（息子）に向かうことを示します。
-再帰動詞が使われると、薬を飲む行為が息子自身のためであることが強調されます。
-例:
-Tomara la pastilla → 「薬を飲む」
-→ 一般的な行為を示すだけ。
-Se tomara la pastilla → 「自分のために薬を飲む」
-→ 行為が息子自身に向けられることを強調。
-3. 医者が命令形を使わなかった理由
-医者が息子に直接命令する場合は命令法（imperativo）が使えますが、
-ここでは母親が間接的に医者の言葉を引用している形です。
-そのため、命令法ではなく、過去の事実を伝える 接続法過去 が使われています。
-もし直接命令なら：
-La doctora le dijo: "Tómate la pastilla en caso de dolor muy fuerte".
-（医者は「痛みが強い場合は薬を飲みなさい」と言いました。）
-しかし、文では間接的に伝えているので：
-La doctora le dijo a mi hijo que se tomara la pastilla...
-（医者は息子に痛みが強い場合に薬を飲むようにと言いました。）
-4. 主語が変わる場合の例
-主語が異なれば、再帰代名詞も変わります。
-La doctora me dijo que me tomara la pastilla.
-（医者は私に薬を飲むように言いました。）
-La doctora les dijo que se tomaran la pastilla.
-（医者は彼らに薬を飲むように言いました。）
-まとめ
-この文で "se tomara" を使う理由は：
-息子自身が薬を飲む行為を指しているため、再帰代名詞 "se" が必要。
-医者の言葉を間接的に伝えており、接続法過去形 "tomara" を使うのが適切。
-命令形ではなく、条件付きで間接的に指示を表しているから。
-したがって、文法的にも意味的にも完全に正しい表現です！
------------------
-una pastillaではなくla pastillaである理由と
-dolorに冠詞がつかない理由を教えてください
-1. la pastilla について
-文中で la pastilla という定冠詞が使われている理由は、
-話し手や聞き手にとってどの薬のことを指しているかが明確だからです。
-例えば、この場合「医者が特定の薬を指示した」状況が考えられるため、
-特定の薬（≒その薬）を指す 定冠詞 la が使われています。
-もし una pastilla が使われた場合、それは「ある薬（不特定の1つ）」というニュアンスになり、
-この文脈では適切ではありません。
-2. dolor に冠詞がつかない理由
-冠詞がつかない名詞のパターン の1つに、抽象的な概念や性質を表す場合があります。
-この場合、dolor（痛み）は一般的な「痛み」という抽象的な概念として扱われています。
-冠詞をつけた場合（例: el dolor や un dolor）は、次のようなニュアンスの違いが生じます：
-el dolor: 特定の痛み（例: 以前に言及した痛みや、ある人の特定の痛み）。
-un dolor: 不特定の痛み、ある種類の痛み（例: 「ある痛みがある」）。
-この文脈では、冠詞を省略することで「強い痛み」という一般的な状況を指しています。
-まとめ
-la pastilla は「特定の薬」を指すために定冠詞を使っています。
-dolor には冠詞をつけず、「痛み」という抽象的・一般的な概念として扱っています。
-文脈とニュアンスのバランスを考慮した表現です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vi a un excompañero de trabajo la semana pasada y (me) dijo que había tenido un accidente hacía un mes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この文は、サッカーやスポーツのチームを話題にする際によく使われるスペイン語の表現を含んでいます。
-それぞれの文を分解して解説します。
-1. ¿De qué equipo sois?
-構造と文法ポイント
-¿De qué equipo...?
-「どのチームの？」を意味します。
-¿De qué...? は「何の〜？」や「どの〜？」を尋ねる表現です。
-equipo は「チーム」や「団体」という意味の名詞です。
-sois
-動詞 ser の2人称複数形（vosotros形）現在形です。
-「あなたたちは〜に属していますか？」というニュアンスを持っています。
-スペインでは vosotros が使われますが、
-ラテンアメリカでは ustedes を用いて ¿De qué equipo son? となるのが一般的です。
-全体の意味
-「君たちはどのチームのファンですか？」
-スペインでは、スポーツチームの応援や支持するチームを聞く際にこの表現が使われます。
-2. Somos del Atlético.
-構造と文法ポイント
-Somos
-動詞 ser の1人称複数形（nosotros形）現在形で、「私たちは〜である」を表します。
-del Atlético
-del は de + el の縮約形で、「〜の」を意味します。
-Atlético は、マドリードのサッカーチーム「アトレティコ・マドリード」を指します。
-省略形として el Atlético や Atlético de Madrid と呼ばれることがあります。
-全体の意味
-「私たちはアトレティコのファンです。」
-文法的な注意点
-属するものを表す前置詞 "de"
-¿De qué equipo...? や Somos del Atlético. のように、
-「どのチームに属しているか／どのチームの一員か」を聞く際に de を用います。
-vosotros と nosotros の一致
-質問が sois（2人称複数）で行われているため、答えも somos（1人称複数）で返しています。
-全体の意味
-¿De qué equipo sois?
-「君たちはどのチームのファンですか？」
-Somos del Atlético.
-「私たちはアトレティコのファンです。」
-この文は、スペイン語でスポーツの話題を始める際の典型的な表現と言えます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>店員がお客様に「何をお望みですか？」や「何かお探しですか？」
-と尋ねる際に使える他のよく使われるフレーズは次の通りです：
-¿En qué puedo ayudarle?
-「何かお手伝いできますか？」
-¿Qué está buscando?
-「何をお探しですか？」
-¿Le puedo ayudar en algo?
-「何かお手伝いしましょうか？」
-¿Necesita algo?
-「何か必要ですか？」
-¿Quiere ver algo en particular?
-「何か特定のものをご覧になりたいですか？」
-¿Hay algo que le interese?
-「何か興味のあるものはありますか？」
-これらの表現は状況や話し手の丁寧さの度合いに応じて使い分けることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「何がご入用ですか？(D)」
-「赤いTシャツが欲しいんです」</t>
-    <rPh sb="1" eb="2">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イリヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この文の 「Le」 は、スペイン語の代名詞の一種で、
-間接目的語 を表します。以下に詳しく説明します。
-1. 「Le」の役割
-Le は、「誰に」 を指す間接目的語の代名詞です。
-この文では、質問をされる相手（敬意を込めて「あなた」を指す）を指しています。
-例：
-¿Le puedo hacer unas preguntas, por favor?
-→ 「あなたにいくつか質問をしてもよろしいですか？」
-英語では "Can I ask you some questions, please?" にあたります。
-2. 文構造の分解
-hacer unas preguntas = 「いくつか質問をする」
-a usted = 「あなたに」
-（ただし、a usted は le によって代用されています）
-完全な文にすると： ¿Puedo hacer unas preguntas a usted, por favor? 
-→ これが 「Le」 を使って簡略化されました。
-3. 文法的ポイント
-Le は丁寧な敬称「usted」に対応しています。
-一方、親しい間柄で話す場合には「te」（二人称単数・親しい形）を使います。
-例: ¿Te puedo hacer unas preguntas? （「君に質問してもいい？」）
-4. 類似の表現
-以下も同じ意味で使われますが、文脈によって丁寧さや形式さが異なります：
-¿Le puedo preguntar algo?
-（「少し質問してもよろしいですか？」）
-¿Me permite hacerle unas preguntas?
-（「質問させていただけますか？」）
-¿Podría hacerle unas preguntas?
-（「いくつか質問してもよろしいでしょうか？」）
-¿Te puedo preguntar algo?
-（親しい相手への「質問していい？」）
-「Le」 を用いた表現は、敬意や形式さを示すスペイン語の重要なポイントの一つです。
------------------
-つまり、Leがなくても文法的には誤りではないということですか？
-はい、正しいです。スペイン語では 「¿Puedo hacer unas preguntas, por favor?」
- と言っても文法的に正しく、相手にも通じます。
- ただし、「Le」 を使うことで次のようなニュアンスや効果が加わります：
-＜敬意を表す＞
-「Le」は相手に対する敬称の間接目的語で、
-「あなたに質問をしてもよろしいですか？」という丁寧さを明確にします。
-丁寧な会話の場では、これが一般的です。
-＜個人を対象とすることの明示＞
-「Le」を入れることで、特定の人（この場合は聞いている相手）が質問の対象であることを明確にします。
-「Le」を省略した場合のニュアンス
-省略しても意味は伝わりますが、少しカジュアルまたは直接的な印象を与えます。
-フォーマルな場面では、「Le」を使ったほうが良いでしょう。
-例えば：
-¿Puedo hacer unas preguntas? （カジュアルまたは一般的）
-¿Le puedo hacer unas preguntas? （丁寧、フォーマル）
-状況に応じて使い分けるのがポイントです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Me gusta la música.
-はla músicaで
-Me gusta escuchar música.
-のmúsicaにlaがつかないのは何故ですか？
-以下の文で冠詞の有無の違いがある理由は、
-文中の「música」が名詞として具体的に指されているか、
-一般的な意味で使われているかによります。
-1. Me gusta la música.
-冠詞「la」あり:
-「la música」は特定または一般的な音楽全般を指します。
-この文では「音楽そのものが好き」という意味で、
-音楽というジャンル全体を一つの対象として扱っています。
-例: 音楽という芸術全体への愛好心を示す場合に使われます。
-2. Me gusta escuchar música.
-冠詞「la」なし:
-この場合、「música」は不特定の音楽を指し、
-「音楽を聞くこと」という行為を強調しています。
-具体的な音楽の種類やジャンルに言及していないため、冠詞が必要ありません。
-例: 音楽そのものではなく、聞く行為を楽しむことを表現しています。
-違いを整理すると:
-冠詞「la」があると、「音楽」というジャンル全体や特定の音楽に焦点が当たります。
-例: La música clásica es relajante. （クラシック音楽はリラックスできる。）
-冠詞「la」がないと、より抽象的に「音楽を聞く」という行為や不特定の音楽を指します。
-例: Escuchar música me relaja. （音楽を聞くことが私をリラックスさせる。）
-これらの使い分けは、
-スペイン語の「具体的なものに冠詞を付ける」という基本的なルールに従っています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[¿Está soltero Álex?^¿Álex está soltero?]
-No, está casado.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-価格は流動的なので、sonではなくestánが適しているように思うのですが
-良い指摘ですね！「Las frutas son muy baratas en esta tienda.」において、
-なぜ「son」が使われているのか疑問に感じるのは自然なことです。
-以下に、「ser」と「estar」の違いをこの文脈で解説します：
-1. SerとEstarの基本的な違い
-Ser: 本質的、恒常的、または普遍的な性質を表します。
-Estar: 状態や一時的な特徴、ある特定の状況に限られる性質を表します。
-2. この文脈での解釈
-「son」の場合
-「この店では果物が常に安い」という意味になります。
-→ この店で果物が安いことが、その店の特徴（本質的な特性）として語られている。
-「están」の場合
-「果物が今だけ一時的に安い」または「この店の果物が特定の状況で安い」というニュアンスになります。
-→ 例えば、セールや特定の日に限って安い場合に適しています。
-実際の使い分け
-「son」: 一般的・恒常的な事実を表現。
-Las frutas son muy baratas en esta tienda.
-→ この店の果物はいつも安い、という恒常的な事実。
-「están」: 一時的・限定的な状態を表現。
-Las frutas están muy baratas en esta tienda hoy.
-→ 今日この店で果物が安い、という一時的な状況。
-結論
-教科書の文では「この店で果物がいつも安い」という一般的な特徴を述べているため、
-「son」が適切です。しかし、状況によって「están」を使うことも十分あり得ます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>casaに冠詞がつかず、cocinaに冠詞がつく理由はなんですか？
-----
-以下にそれぞれの名詞に冠詞がつくかつかないかの理由を説明します。
-1. 「¿Hay alguien en casa?」の casa に冠詞がつかない理由
-スペイン語では、casa が「自分の家」や「誰かが住んでいる家」を指す場合、冠詞を省略するのが一般的です。
-	例:
-	Estoy en casa.（私は家にいる）
-	Vamos a casa.（私たちは家に行く）
-	冠詞を付ける場合 (la casa) は、
-	具体的な家を指し示す場合や「一般的な建物」としての家を意味します。
-	例:
-	Estamos pintando la casa.（私たちは家を塗装しています）
-	La casa de Pedro es muy grande.（ペドロの家はとても大きいです）
-この例文では、casa が「自分の家」を示すため冠詞は不要です。
-2. 「Estoy en la cocina.」の la cocina に冠詞がつく理由
-cocina は「キッチン」という特定の場所を示しており、
-文脈上「家の中にあるキッチン」として具体的な空間を指しています。
-そのため、冠詞 (la) を付ける必要があります。
-例:
-Estoy en la cocina.（私はキッチンにいます）
-Voy a la cocina a preparar algo.（キッチンに行って何か作ります）
-冠詞を付けない cocina は、抽象的または一般的な概念として「料理」や「キッチン全般」を指す場合に限られます。
-例:
-La cocina española es deliciosa.（スペイン料理は美味しい）
-Cocina es mi pasión.（料理は私の情熱です）
-まとめ
-casa に冠詞がない理由: 「自分の家」という文脈では冠詞を省略するのが一般的。
-cocina に冠詞がある理由: 特定の場所（ここでは家のキッチン）を指しているため、冠詞が必要。
-このルールは他の類似の場所にも適用されます
-（例: Estoy en clase.（授業中です）, Estoy en la escuela.（学校にいます））。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(男性について)「あの人(C)は誰ですか？」
-「私たちの仕事仲間です」</t>
-    <rPh sb="1" eb="3">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ナカマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(tú)「どこに住んでるの？」
-「ルナ通り８番地に住んでます」</t>
-    <rPh sb="8" eb="9">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「por si」 は「〜の場合に備えて」「〜かもしれないので」というニュアンスで使われる表現です。
-主に仮定や可能性を示すために用いられ、
-主節と副詞句をつなぐ役割を果たします。以下に詳しく説明します：
-1. por si + 直説法
-この構文は、「現実的な可能性」を表す場合に使われます。
-ニュアンス: 「〜の場合に備えて」または「〜かもしれないから」
-例文:
-Llévate un paraguas por si llueve.
-（雨が降るといけないから傘を持って行ってね。）
-→ 雨が降る可能性が十分あると話者が考えている。
-Apunta mi número por si necesitas algo.
-（何か必要なことがあったらいけないから、私の番号をメモして。）
-2. por si + 接続法
-この構文は、「可能性が低い」「仮定的な状況」を表す場合に使われます。
-可能性が現実的でない場合や話者がそれを低いと見なしている場合に用いられます。
-ニュアンス: 「〜だった場合に備えて」
-例文:
-Voy a preparar más comida por si viniera alguien más.
-（誰か他の人が来るかもしれないから、もう少し料理を用意しておく。）
-→ 来る可能性はあるが、それほど高くない。
-Por si fuera necesario, traigo algunos documentos adicionales.
-（必要になるかもしれないから、追加の書類を持ってきた。）
-→ 必要になる可能性は低いが、万が一に備えて。
-3. 直説法と接続法の選択ポイント
-- 直説法を選ぶ場合
-現実的な可能性を表現したいとき。話者がその出来事が起こる可能性を十分に信じている場合。
-- 接続法を選ぶ場合
-仮定や可能性が低いと考えられる場合。または話者がその出来事を単なる仮定として扱っている場合。
-4. 表現の応用例
-Por si acaso（念のため、万が一の場合に備えて）:
-Voy a llevar un abrigo por si acaso hace frío.
-（念のため、寒いかもしれないからコートを持って行く。）
-Por si las moscas（口語表現: 念のため、用心して）:
-Llévate un cargador portátil por si las moscas.
-（念のため、携帯用充電器を持って行って。）
-注意点
-「por si」の後に来る動詞の形は、話者がその可能性をどの程度現実的と考えているかによって変わります。
-口語表現では、現実的な可能性が低い場合でも直説法を使うことがありますが、正式な文脈では接続法が適切です。
-まとめ
-現実的な可能性 → 直説法
-仮定的な可能性 → 接続法
-「por si」は「念のため」「場合に備えて」と覚え、
-使い分けの際に話者の視点や状況の確実性を考慮すると自然に使えます！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>接続法現在と接続法過去は、それぞれ異なる時間軸や文脈で使われますが、
-そのニュアンスには微妙な違いもあります。以下に両者の違いを整理します。
-1. 時間軸の違い
-接続法現在
-現在または未来に関連した状況や事柄について使われます。
-例:
-Espero que vengas a la fiesta.
-（君がパーティーに来ることを願っています。）
-→ 未来に起こることへの期待。
-Me alegra que estés aquí.
-（君がここにいるのが嬉しい。）
-→ 現在の状況に関する感情。
-接続法過去
-過去に関連した状況や事柄について使われます。
-例:
-Esperaba que vinieras a la fiesta.
-（君がパーティーに来ることを期待していました。）
-→ 過去に期待していたが、結果は明示されていない。
-Me alegró que estuvieras aquí.
-（君がここにいてくれて嬉しかった。）
-→ 過去の出来事に対する感情。
-2. 文法的文脈の違い
-接続法現在
-主節が現在形または未来形の場合に使われる。
-例:
-Es importante que sepas la verdad.
-（君が真実を知ることが大切です。）
-→ 主節が現在形（Es importante）。
-接続法過去
-主節が過去形や条件法の場合に使われる。
-例:
-Era importante que supieras la verdad.
-（君が真実を知ることが大切でした。）
-→ 主節が過去形（Era importante）。
-3. ニュアンスや意味の違い
-接続法現在は、話者の現在の感情、希望、疑念、または未来の可能性を強調します。
-例:
-Dudo que sea cierto.
-（それが本当かどうか疑わしい。）
-→ 今、疑念を感じている。
-接続法過去は、過去の希望や感情、または現実的でない仮定や条件を表します。
-例:
-Dudaba que fuera cierto.
-（それが本当かどうか疑っていました。）
-→ 過去の疑念。
-Si tuviera dinero, iría de viaje.
-（もしお金があれば、旅行に行くのに。）
-→ 現実とは異なる仮定。
-4. 例文比較でのニュアンスの違い
-接続法現在:
-Ojalá llueva mañana.
-（明日雨が降るといいな。）
-→ 未来に対する期待。
-接続法過去:
-Ojalá lloviera mañana.
-（明日雨が降ればいいのに。）
-→ 実現の可能性が低い、または現実的でない願望。
-まとめ
-接続法現在は「現在」や「未来」の希望や感情を表す。
-接続法過去は「過去」や「仮定」の状況、または実現困難な願望や仮想のシナリオを表す。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「あなた方はこの日曜日何をされる予定(考え)ですか？」
-「うーん、特に何も」</t>
-    <rPh sb="4" eb="5">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ニチヨウビ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ここの名物料理を何か私たちにお勧めしていただけますか？」
-「はい、もちろんです」(CN)</t>
-    <rPh sb="4" eb="6">
-      <t>メイブツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Se me está acabando la batería
-この表現は、バッテリーが減ってきている（切れかかっている）状況を表す自然なスペイン語表現です。
-文法的に分解すると以下のようになります：
-1. Se me está acabando
-Se: 再帰動詞 acabarse を使った形式で、「（何かが）終わる」「尽きる」「なくなる」といった意味を持ちます。
-この場合は「なくなりつつある」という進行形です。
-me: 間接目的語代名詞で、「私にとって」「私に関係する」というニュアンスを加えています。
-つまり「私のバッテリーが減ってきている」となります。
-está acabando: 動詞の進行形 (estar + 現在分詞) を使って、
-「今まさにバッテリーが減少している途中」という動作の進行を表現しています。
-2. la batería
-ここでは特定の「（携帯電話の）バッテリー」を指すので、定冠詞 la が使われています。
-文の直訳とニュアンス
-直訳: 「私のところでバッテリーがなくなりつつある。」
-自然な訳: 「バッテリーが切れかかっている。」
-文法的ポイント
-再帰動詞: 動作が自発的に起きていることを表現します。
-この場合、バッテリーが自ら消耗していくイメージです。
-間接目的語: 話し手との関係を示しており、「その動作が話し手に影響を与える」ことを伝えます。
-他の例文
-同じ構造を持つ表現をいくつか挙げます：
-Se me rompieron las gafas.
-（私の眼鏡が壊れてしまった。）
-Se le cayó el café.
-（彼／彼女がコーヒーを落としてしまった。）
-Se nos acabó el tiempo.
-（私たちの時間がなくなった。）
-これらの表現では、再帰動詞と間接目的語の組み合わせによって、
-話し手や主語に何らかの影響が及ぶことを自然に伝えています。
-----------
-Se me 三人称 系の文は文法を使って、「私にとって～された＝私の責任ではない(故意ではない)」と説明はできるけど
-結局のところ、この構文が使われている文をみて
-「自発的なことではないですよ」という気持ちが出てくるまで、何度も何度もこの構文に浸る必要がある。
-その気持ちが出てくる道のりを考えてみる。
-まず、単語と他の文法が無意識に理解できていないといけない
-Se me está acabandoを例にとると
-・もちろんacabarを知っている
-・se me とかse lo とか間接目的語と直接目的語がならんでるやつはいっぱい出てくるから、それに慣れる・
-・進行形、estar + gerundioを理解している。
-ここまで理解できていると、Se me está acabandoは、
-自分と関係なく勝手に、バッテリが切れかけてる！っていう気持ちが出てくる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(tú)「テニスしません？」
-「いや、肩をけがしていてできないんです」</t>
-    <rPh sb="19" eb="20">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(tú)この交通系ICカード(複数)でほとんど全国を移動できるんですよ</t>
-    <rPh sb="6" eb="8">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゼンコク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>de: 前置詞。「～について」という意味です。
-el: 定冠詞。「新しい上司」を特定するために使われます。
-nuevo jefe: 名詞句。「新しい上司」の意味です。
-文法的ポイント
-疑問詞 + 直説法現在形
-スペイン語では疑問文を作る際、疑問詞（qué など）を文頭に置き、その後に通常の文の語順で述べます。
-この文では piensan（考える）という具体的な動作を聞いています。
-de + el = del
-前置詞 de（～について）と定冠詞 el が続く場合、del という短縮形になります。
-定冠詞 el の使用
-nuevo jefe（新しい上司）は話し手と聞き手の間で具体的に誰のことを指しているかが明確であるため、定冠詞 el が使われています。
-可能なバリエーション
-¿Qué opinan ustedes del nuevo jefe?
-opinan（意見を持つ）を使った表現。
-「新しい上司についてどう思いますか？」の別の言い方。
-¿Qué les parece el nuevo jefe?
-parece（～のように思える）を使った表現。
-「新しい上司についてどのように思いますか？」というニュアンス。
-まとめ
-この文では、**「新しい上司についてどう思いますか？」**という質問を聞いています。
-丁寧でフォーマルな表現であり、どのような意見を持っているかを尋ねる際に使われます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>¿Dónde viven (ustedes)?
-Vivimos en las afueras de Tokio.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(あなた方に対して)「どこに住んでらっしゃるんですか？」
-「東京の郊外(複数)に住んでいます」</t>
-    <rPh sb="4" eb="5">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウガイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>¿Qué piensan (ustedes) del nuevo jefe?
-Nos parece muy competente.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この文は、強調や否定を表現するために効果的に構造が組み立てられています。
-それぞれの要素について解説します。
-1. Ni
-意味: 「～でさえも～ない」「まったく～ない」といった否定を強調する副詞。
-文脈: この場合、「自分自身でさえ説明できない」というニュアンスを表現しています。
-例:
-Ni tú lo sabes.（君でさえ知らない。）
-Ni siquiera lo intentó.（試しさえもしなかった。）
-2. Yo misma
-意味: 「私自身」という強調表現。
-"misma" は再帰代名詞の強調として使われます。
-文の主語「yo」を修飾し、「私自身でさえも」とさらに強調します。
-文脈: 「自分でさえも理解できない」という意味を強調しています。
-例:
-Yo misma lo haré.（私自身がそれをやる。）
-Tú mismo deberías comprobarlo.（君自身で確認すべきだよ。）
-3. Me lo explico
-構造: 再帰動詞 explicarse を使った表現。
-explicarse: 「自分に説明する」「自分で納得する」というニュアンス。
-me lo: 再帰代名詞「me」（自分に）と目的語代名詞「lo」（それ、具体的には「なぜそうしたのか」）を組み合わせています。
-文脈: 「私はそれを説明できない」＝「なぜそうしたのか、自分自身にすら説明できない」という意味。
-直訳と自然な訳
-直訳: 「私自身、それを自分に説明することさえできない。」
-自然な訳: 「自分でもなぜそうしたのか分からない。」
-まとめ
-Ni yo misma: 強調（「私自身でさえ」）。
-me lo explico: 再帰動詞で「自分に説明する」。
-否定の強調によって、話し手の困惑や理解不能さを表現しています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(tú)「何時に職場をでるの？」
-「8時に出るよ」</t>
-    <rPh sb="5" eb="7">
-      <t>ナンジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(tú)「Marta、僕たちと一緒に飲みに来る？」(僕たちは男性)
-「うん、もちろん、行くわ」</t>
-    <rPh sb="11" eb="12">
-      <t>ボク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ボク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>¿Le has comprado el regalo a Pablo?
-Sí ya se lo he comprado.
-の二文目は日本語では「うん、もう買ったよ」くらいに訳されますが
-日本語訳ではseもloも省略されるのが普通です。
-スペイン語で¿Le has comprado el regalo a Pablo?という質問に対して
-日本語と同じ感覚でSí ya he comprado.と答えたら不自然ですか？
-――――――――
-はい、「Sí, ya he comprado.」と答えるのはスペイン語では不自然です。
-理由は、スペイン語では一般的に代名詞を使って文脈を補うことが重要だからです。
-理由①：スペイン語では代名詞で文脈を明確にする
-スペイン語では「何を（lo）」と「誰に（le）」を表す代名詞を使うことで、
-発言の意味を具体的にし、相手に誤解を与えないようにします。
-特に質問で具体的な対象（regalo a Pablo）が挙げられている場合、
-答えの中でそれを省略するのは自然ではありません。
-例えば：
-Sí, ya he comprado.
-→ 「うん、もう買ったよ」とも取れますが、
-「何を？」や「誰のために？」がはっきりせず、やや不完全に聞こえます。
-対して：
-Sí, ya se lo he comprado.
-→ 「うん、もう彼のためにそれを買ったよ」と具体的で明確です。
-理由②：文脈依存の度合い
-スペイン語では日本語ほど文脈に依存して情報を省略する習慣がありません。
-そのため、代名詞で文脈を補うのが一般的です。
-特に会話では、話題が変わったりすると文脈が曖昧になる可能性があるため、
-代名詞を使うことで一貫性を保ちます。
-自然な答え方
-質問「¿Le has comprado el regalo a Pablo?」への答えとしては、以下のような表現が自然です：
-Sí, ya se lo he comprado.
-→ 最も完全で自然な答え。
-Sí, ya lo he comprado.
-→ やや省略されていますが、「Pabloへのもの」という文脈が明確なら問題ありません。
-Sí, ya he comprado el regalo.
-→ 少し繰り返し感がありますが、相手が特に明確さを求める場合には適切。
-結論
-日本語と異なり、スペイン語では「Sí, ya he comprado.」だけでは不十分で、
-少なくとも「lo」や「se lo」を使って具体性を持たせることが求められます。
-これは、スペイン語特有の代名詞の重要性に由来する文化的・言語的な違いです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-直訳: 「（誰かが）私の〜を抜いた」
-この文脈では、「歯を抜いた」という意味になります。
-4. 暗黙の主語
-スペイン語では、han（3人称複数形）の主語が明示されていないため、
-「誰が歯を抜いたのか」が明確ではありません。ただし、文脈から考えて歯医者であることは自明です。
-このように、行為者が明白な場合、わざわざ主語を述べないのが自然な表現です。
-あなた:
-特定しない誰かが奥歯を抜いたとして、それは歯医者だということは自明ですが、
-その場合はMe ha sacadoと単数にならないんですか？
-ChatGPT
-良い質問ですね！確かに、「歯を抜いたのは歯医者（単数）」であることが自明であれば、
-Me ha sacado（単数）が文法的にも論理的にも正しいように思えます。
-しかし、スペイン語ではこのような状況でもMe han sacado（複数）が使われる場合があります。その理由を解説します。
-1. 集団的な行為のニュアンス
-Me han sacado（複数形）が使われるのは、歯を抜くという行為が単独の歯医者だけでなく、
-その歯科医院のスタッフ全体の関与によると感じられる場合があるからです。
-実際に歯を抜いたのは1人の歯医者ですが、その前後で受付、助手、看護師などが関与していることが多いです。
-このような場合、行為を集団のものとして捉え、「han」が使われます。
-2. 文法的な柔軟性と慣用表現
-スペイン語では、行為者が特定されていない場合、
-動詞の単数形と複数形のどちらも使われることがあります。特に以下のような違いがあります：
-Me ha sacado: より具体的で、「1人が行った」という印象を強調。
-Me han sacado: 行為を抽象化して、「誰かたちが行った」という漠然としたニュアンス。
-このため、話し手が「歯科医院全体のプロセス」として捉えていれば、自然にhanを使うことが多いです。
-3. 地域や話し手の習慣
-スペイン語圏では、単数形と複数形の選択が地域や話し手の習慣による影響も受けます。例えば：
-スペインでは、日常会話で複数形（han）を使う傾向が強いです。
-ラテンアメリカでは、単数形（ha）がよりよく使われる場合もあります。
-4. どちらも文法的に正しい
-実際には、Me ha sacadoとMe han sacadoのどちらも文法的に正しいです。
-選択は話し手がどの程度行為者を具体化したいか、または行為を集団的に捉えるかに依存します。
-結論
-質問のような状況で、歯医者が1人だけ関与した場合でも、
-スペイン語ではMe han sacadoが使われることがよくあります。
-これは行為を「歯科医院全体のプロセス」として捉えたり、
-話し手が特に行為者を特定しない形で伝えたりする場合です。
-一方で、行為を「1人の歯医者」に焦点を当てたい場合は、
-Me ha sacadoを使ってもまったく問題ありません。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16525,8 +16554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B132" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="B547" workbookViewId="0">
+      <selection activeCell="F547" sqref="F547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16538,27 +16567,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="37.5">
       <c r="A1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" t="s">
         <v>383</v>
-      </c>
-      <c r="E1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5">
@@ -16566,31 +16595,31 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5">
       <c r="B5" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16598,15 +16627,15 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.5">
@@ -16614,18 +16643,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.5">
       <c r="B10" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -16633,13 +16662,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" t="s">
         <v>385</v>
-      </c>
-      <c r="E11" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5">
@@ -16647,10 +16676,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -16658,7 +16687,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16666,7 +16695,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16674,34 +16703,34 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="409.5">
       <c r="B18" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="37.5">
@@ -16709,7 +16738,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="409.5">
@@ -16717,24 +16746,24 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="37.5">
       <c r="B21" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -16742,7 +16771,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="37.5">
@@ -16750,15 +16779,15 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="37.5">
       <c r="B24" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="37.5">
@@ -16766,15 +16795,15 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="409.5">
@@ -16782,10 +16811,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -16793,7 +16822,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -16801,7 +16830,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="37.5">
@@ -16809,7 +16838,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="37.5">
@@ -16817,13 +16846,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" t="s">
         <v>388</v>
-      </c>
-      <c r="E31" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="37.5">
@@ -16831,7 +16860,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="37.5">
@@ -16839,7 +16868,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -16847,7 +16876,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -16855,7 +16884,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="37.5">
@@ -16863,7 +16892,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="37.5">
@@ -16871,7 +16900,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="37.5">
@@ -16879,7 +16908,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="409.5">
@@ -16887,40 +16916,40 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="37.5">
       <c r="B41" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C41" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D41" t="s">
+        <v>389</v>
+      </c>
+      <c r="E41" t="s">
         <v>390</v>
-      </c>
-      <c r="E41" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="37.5">
       <c r="B42" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="37.5">
@@ -16928,15 +16957,15 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="37.5">
       <c r="B44" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -16944,15 +16973,15 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="37.5">
       <c r="B46" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="37.5">
@@ -16960,7 +16989,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="37.5">
@@ -16968,15 +16997,15 @@
         <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="37.5">
@@ -16984,7 +17013,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="37.5">
@@ -16992,29 +17021,29 @@
         <v>31</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="37.5">
       <c r="B52" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="37.5">
       <c r="B53" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="37.5">
@@ -17022,7 +17051,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -17030,15 +17059,15 @@
         <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -17046,7 +17075,7 @@
         <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="37.5">
@@ -17054,7 +17083,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="37.5">
@@ -17062,29 +17091,29 @@
         <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="37.5">
       <c r="B61" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="37.5">
@@ -17092,7 +17121,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="37.5">
@@ -17100,15 +17129,15 @@
         <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="56.25">
       <c r="B64" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -17116,7 +17145,7 @@
         <v>39</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="37.5">
@@ -17124,7 +17153,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="409.5">
@@ -17132,10 +17161,10 @@
         <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="37.5">
@@ -17143,7 +17172,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="2:6">
@@ -17151,7 +17180,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="37.5">
@@ -17159,7 +17188,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="37.5">
@@ -17167,21 +17196,21 @@
         <v>45</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D71" t="s">
+        <v>393</v>
+      </c>
+      <c r="E71" t="s">
         <v>394</v>
-      </c>
-      <c r="E71" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="37.5">
@@ -17189,7 +17218,7 @@
         <v>46</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -17197,7 +17226,7 @@
         <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="2:6">
@@ -17205,7 +17234,7 @@
         <v>48</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="37.5">
@@ -17213,7 +17242,7 @@
         <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="37.5">
@@ -17221,7 +17250,7 @@
         <v>50</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="37.5">
@@ -17229,15 +17258,15 @@
         <v>51</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="56.25">
       <c r="B79" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="37.5">
@@ -17245,7 +17274,7 @@
         <v>52</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="37.5">
@@ -17253,13 +17282,13 @@
         <v>53</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D81" t="s">
+        <v>395</v>
+      </c>
+      <c r="E81" t="s">
         <v>396</v>
-      </c>
-      <c r="E81" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="37.5">
@@ -17272,7 +17301,7 @@
     </row>
     <row r="83" spans="2:6" ht="56.25">
       <c r="B83" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>81</v>
@@ -17302,7 +17331,7 @@
         <v>69</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -17323,7 +17352,7 @@
     </row>
     <row r="89" spans="2:6" ht="56.25">
       <c r="B89" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>72</v>
@@ -17345,10 +17374,10 @@
         <v>74</v>
       </c>
       <c r="D91" t="s">
+        <v>397</v>
+      </c>
+      <c r="E91" t="s">
         <v>398</v>
-      </c>
-      <c r="E91" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="37.5">
@@ -17361,10 +17390,10 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="37.5">
@@ -17380,12 +17409,12 @@
         <v>64</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="37.5">
       <c r="B96" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>77</v>
@@ -17393,7 +17422,7 @@
     </row>
     <row r="97" spans="2:6" ht="37.5">
       <c r="B97" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>78</v>
@@ -17401,10 +17430,10 @@
     </row>
     <row r="98" spans="2:6" ht="37.5">
       <c r="B98" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -17417,7 +17446,7 @@
     </row>
     <row r="100" spans="2:6" ht="37.5">
       <c r="B100" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>80</v>
@@ -17425,24 +17454,24 @@
     </row>
     <row r="101" spans="2:6" ht="37.5">
       <c r="B101" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D101" t="s">
+        <v>399</v>
+      </c>
+      <c r="E101" t="s">
         <v>400</v>
-      </c>
-      <c r="E101" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="56.25">
       <c r="B102" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="37.5">
@@ -17450,7 +17479,7 @@
         <v>82</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="37.5">
@@ -17458,7 +17487,7 @@
         <v>83</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="409.5">
@@ -17466,10 +17495,10 @@
         <v>84</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="56.25">
@@ -17477,15 +17506,15 @@
         <v>85</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="37.5">
       <c r="B107" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="37.5">
@@ -17493,15 +17522,15 @@
         <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="37.5">
       <c r="B109" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="37.5">
@@ -17509,7 +17538,7 @@
         <v>87</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="2:6">
@@ -17517,13 +17546,13 @@
         <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D111" t="s">
+        <v>401</v>
+      </c>
+      <c r="E111" t="s">
         <v>402</v>
-      </c>
-      <c r="E111" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="37.5">
@@ -17531,7 +17560,7 @@
         <v>89</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="37.5">
@@ -17539,7 +17568,7 @@
         <v>90</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="2:6">
@@ -17547,7 +17576,7 @@
         <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="2:6">
@@ -17555,15 +17584,15 @@
         <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="2:6">
@@ -17571,15 +17600,15 @@
         <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="37.5">
       <c r="B118" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="409.5">
@@ -17587,10 +17616,10 @@
         <v>94</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="37.5">
@@ -17598,21 +17627,21 @@
         <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D121" t="s">
+        <v>403</v>
+      </c>
+      <c r="E121" t="s">
         <v>404</v>
-      </c>
-      <c r="E121" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="37.5">
@@ -17620,23 +17649,23 @@
         <v>96</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="37.5">
       <c r="B123" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="37.5">
       <c r="B124" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="2:6" ht="37.5">
@@ -17644,39 +17673,39 @@
         <v>97</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="2:6" ht="37.5">
       <c r="B126" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="2:6" ht="37.5">
       <c r="B127" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="2:6" ht="56.25">
       <c r="B128" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="37.5">
       <c r="B129" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="2:6" ht="37.5">
@@ -17684,32 +17713,32 @@
         <v>98</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="2:6" ht="37.5">
       <c r="B131" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D131" t="s">
+        <v>405</v>
+      </c>
+      <c r="E131" t="s">
         <v>406</v>
-      </c>
-      <c r="E131" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="409.5">
       <c r="B132" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="37.5">
@@ -17717,7 +17746,7 @@
         <v>99</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="37.5">
@@ -17725,4149 +17754,4152 @@
         <v>100</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="37.5">
       <c r="B135" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="56.25">
       <c r="B136" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="138" spans="2:6" ht="409.5">
       <c r="B138" s="1" t="s">
-        <v>101</v>
+        <v>1428</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="37.5">
       <c r="B139" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="37.5">
       <c r="B140" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="37.5">
       <c r="B141" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D141" t="s">
+        <v>407</v>
+      </c>
+      <c r="E141" t="s">
         <v>408</v>
-      </c>
-      <c r="E141" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="37.5">
       <c r="B142" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="2:6" ht="37.5">
       <c r="B143" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C143" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C144" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="37.5">
+      <c r="B145" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="37.5">
-      <c r="B145" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C145" s="1" t="s">
+    <row r="146" spans="2:6" ht="37.5">
+      <c r="B146" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="37.5">
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="2:6" ht="56.25">
+      <c r="B147" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="56.25">
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="2:6" ht="409.5">
+      <c r="B148" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="37.5">
+      <c r="B149" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="37.5">
-      <c r="B148" s="1" t="s">
+    <row r="150" spans="2:6" ht="37.5">
+      <c r="B150" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="37.5">
+      <c r="B151" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D151" t="s">
+        <v>409</v>
+      </c>
+      <c r="E151" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="37.5">
+      <c r="B152" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" ht="37.5">
-      <c r="B149" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" ht="37.5">
-      <c r="B150" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" ht="37.5">
-      <c r="B151" s="1" t="s">
+      <c r="C152" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" ht="56.25">
+      <c r="B153" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="37.5">
+      <c r="B154" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C154" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="37.5">
+      <c r="B155" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C155" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="37.5">
+      <c r="B156" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D151" t="s">
-        <v>410</v>
-      </c>
-      <c r="E151" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" ht="37.5">
-      <c r="B152" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" ht="56.25">
-      <c r="B153" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" ht="37.5">
-      <c r="B154" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C154" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" ht="37.5">
-      <c r="B155" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C155" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" ht="37.5">
-      <c r="B156" s="1" t="s">
+      <c r="C157" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="37.5">
+      <c r="B158" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="37.5">
-      <c r="B158" s="1" t="s">
+    <row r="159" spans="2:6">
+      <c r="B159" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="1" t="s">
+    <row r="160" spans="2:6">
+      <c r="B160" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C160" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="37.5">
       <c r="B161" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D161" t="s">
+        <v>411</v>
+      </c>
+      <c r="E161" t="s">
         <v>412</v>
-      </c>
-      <c r="E161" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="37.5">
       <c r="B163" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="37.5">
       <c r="B164" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="56.25">
       <c r="B166" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="37.5">
       <c r="B167" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="37.5">
       <c r="B168" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="37.5">
       <c r="B169" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="37.5">
       <c r="B170" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C171" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D171" t="s">
+        <v>413</v>
+      </c>
+      <c r="E171" t="s">
         <v>414</v>
-      </c>
-      <c r="E171" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C172" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C173" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="37.5">
       <c r="B174" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="37.5">
       <c r="B176" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C176" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="37.5">
       <c r="B177" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="37.5">
       <c r="B178" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="37.5">
       <c r="B179" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="37.5">
       <c r="B180" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D181" t="s">
+        <v>415</v>
+      </c>
+      <c r="E181" t="s">
         <v>416</v>
-      </c>
-      <c r="E181" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="37.5">
       <c r="B182" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C182" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="B183" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="B184" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C184" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C185" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C186" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="B187" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C187" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="B188" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C188" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="37.5">
       <c r="B189" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="B190" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="37.5">
       <c r="B191" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D191" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="37.5">
       <c r="B192" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C192" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="37.5">
       <c r="B193" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="37.5">
       <c r="B194" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C195" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C198" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C199" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="56.25">
       <c r="B200" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="37.5">
       <c r="B201" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D201" t="s">
+        <v>417</v>
+      </c>
+      <c r="E201" t="s">
         <v>418</v>
-      </c>
-      <c r="E201" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="37.5">
       <c r="B202" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="37.5">
       <c r="B205" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C205" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="37.5">
       <c r="B206" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C206" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="37.5">
       <c r="B207" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="37.5">
       <c r="B208" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C208" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="37.5">
       <c r="B210" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C210" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C211" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D211" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E211" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C212" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C213" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="37.5">
       <c r="B214" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="37.5">
       <c r="B215" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="37.5">
       <c r="B216" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="37.5">
       <c r="B218" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C221" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D221" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E221" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="37.5">
       <c r="B222" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="37.5">
       <c r="B223" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="37.5">
       <c r="B224" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C224" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="56.25">
       <c r="B225" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="37.5">
       <c r="B226" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="37.5">
       <c r="B227" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="37.5">
       <c r="B229" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="37.5">
       <c r="B230" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C231" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D231" t="s">
+        <v>421</v>
+      </c>
+      <c r="E231" t="s">
         <v>422</v>
-      </c>
-      <c r="E231" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C232" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C233" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="37.5">
       <c r="B234" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C235" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="37.5">
       <c r="B236" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="37.5">
       <c r="B237" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="37.5">
       <c r="B238" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="37.5">
       <c r="B239" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="56.25">
       <c r="A241" t="s">
+        <v>424</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D241" t="s">
         <v>425</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>426</v>
-      </c>
-      <c r="E241" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="37.5">
       <c r="B243" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="37.5">
       <c r="B244" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="B245" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="37.5">
       <c r="B246" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="B247" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="37.5">
       <c r="B248" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="37.5">
       <c r="B249" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="37.5">
       <c r="B250" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="37.5">
       <c r="B251" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D251" t="s">
+        <v>432</v>
+      </c>
+      <c r="E251" t="s">
         <v>433</v>
-      </c>
-      <c r="E251" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="37.5">
       <c r="B252" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="B253" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="37.5">
       <c r="B254" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="37.5">
       <c r="B255" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="37.5">
       <c r="B256" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="257" spans="2:5">
       <c r="B257" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="37.5">
       <c r="B258" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="37.5">
       <c r="B259" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="260" spans="2:5">
       <c r="B260" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="37.5">
       <c r="B261" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C261" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D261" t="s">
+        <v>439</v>
+      </c>
+      <c r="E261" t="s">
         <v>440</v>
-      </c>
-      <c r="E261" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="262" spans="2:5">
       <c r="B262" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C262" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="37.5">
       <c r="B263" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C263" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="37.5">
       <c r="B264" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C264" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="265" spans="2:5">
       <c r="B265" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C265" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="266" spans="2:5">
       <c r="B266" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C266" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="56.25">
       <c r="B267" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="37.5">
       <c r="B268" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="37.5">
       <c r="B269" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="37.5">
       <c r="B270" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="37.5">
       <c r="B271" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D271" t="s">
+        <v>457</v>
+      </c>
+      <c r="E271" t="s">
         <v>458</v>
-      </c>
-      <c r="E271" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="37.5">
       <c r="B272" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="273" spans="2:5">
       <c r="B273" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="56.25">
       <c r="B274" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="37.5">
       <c r="B275" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="276" spans="2:5">
       <c r="B276" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="37.5">
       <c r="B277" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="37.5">
       <c r="B278" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="37.5">
       <c r="B279" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="37.5">
       <c r="B280" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="37.5">
       <c r="B281" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D281" t="s">
+        <v>467</v>
+      </c>
+      <c r="E281" t="s">
         <v>468</v>
-      </c>
-      <c r="E281" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="37.5">
       <c r="B282" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="37.5">
       <c r="B283" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="284" spans="2:5">
       <c r="B284" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="37.5">
       <c r="B285" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="286" spans="2:5">
       <c r="B286" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="37.5">
       <c r="B287" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="37.5">
       <c r="B288" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="37.5">
       <c r="B289" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="37.5">
       <c r="B290" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="291" spans="2:5">
       <c r="B291" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D291" t="s">
+        <v>487</v>
+      </c>
+      <c r="E291" t="s">
         <v>488</v>
-      </c>
-      <c r="E291" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="37.5">
       <c r="B292" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="37.5">
       <c r="B293" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="37.5">
       <c r="B294" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="37.5">
       <c r="B295" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="37.5">
       <c r="B296" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="37.5">
       <c r="B297" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="37.5">
       <c r="B298" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="299" spans="2:5">
       <c r="B299" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="37.5">
       <c r="B300" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="301" spans="2:5">
       <c r="B301" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D301" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="302" spans="2:5" ht="37.5">
       <c r="B302" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="37.5">
       <c r="B303" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="304" spans="2:5">
       <c r="B304" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="37.5">
       <c r="B305" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="37.5">
       <c r="B306" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="37.5">
       <c r="B307" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="37.5">
       <c r="B308" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="37.5">
       <c r="B309" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="37.5">
       <c r="B310" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="37.5">
       <c r="B311" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D311" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E311" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="312" spans="2:5">
       <c r="B312" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="313" spans="2:5">
       <c r="B313" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="37.5">
       <c r="B314" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="37.5">
       <c r="B315" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="316" spans="2:5">
       <c r="B316" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="317" spans="2:5">
       <c r="B317" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="37.5">
       <c r="B318" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="37.5">
       <c r="B319" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="37.5">
       <c r="B320" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="37.5">
       <c r="B321" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D321" t="s">
+        <v>528</v>
+      </c>
+      <c r="E321" t="s">
         <v>529</v>
-      </c>
-      <c r="E321" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="37.5">
       <c r="B322" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="37.5">
       <c r="B323" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="324" spans="2:5">
       <c r="B324" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="37.5">
       <c r="B325" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="37.5">
       <c r="B326" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="327" spans="2:5">
       <c r="B327" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="37.5">
       <c r="B328" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="37.5">
       <c r="B329" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="37.5">
       <c r="B330" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="37.5">
       <c r="B331" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D331" t="s">
+        <v>545</v>
+      </c>
+      <c r="E331" t="s">
         <v>546</v>
-      </c>
-      <c r="E331" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="332" spans="2:5">
       <c r="B332" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="37.5">
       <c r="B333" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="334" spans="2:5">
       <c r="B334" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="37.5">
       <c r="B335" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="336" spans="2:5">
       <c r="B336" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="37.5">
       <c r="B337" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="37.5">
       <c r="B338" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="56.25">
       <c r="B340" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="37.5">
       <c r="B341" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D341" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="342" spans="2:5">
       <c r="B342" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="37.5">
       <c r="B343" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="344" spans="2:5">
       <c r="B344" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="345" spans="2:5">
       <c r="B345" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="37.5">
       <c r="B346" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="347" spans="2:5">
       <c r="B347" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="348" spans="2:5">
       <c r="B348" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="349" spans="2:5">
       <c r="B349" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="37.5">
       <c r="B350" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D351" t="s">
         <v>608</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D351" t="s">
+      <c r="E351" t="s">
         <v>609</v>
-      </c>
-      <c r="E351" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="37.5">
       <c r="B352" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="353" spans="2:5">
       <c r="B353" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="354" spans="2:5">
       <c r="B354" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="37.5">
       <c r="B355" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="356" spans="2:5">
       <c r="B356" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="37.5">
       <c r="B357" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="358" spans="2:5">
       <c r="B358" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="359" spans="2:5">
       <c r="B359" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="360" spans="2:5">
       <c r="B360" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="361" spans="2:5">
       <c r="B361" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D361" t="s">
+        <v>616</v>
+      </c>
+      <c r="E361" t="s">
         <v>617</v>
-      </c>
-      <c r="E361" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="362" spans="2:5">
       <c r="B362" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="37.5">
       <c r="B363" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="364" spans="2:5">
       <c r="B364" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="37.5">
       <c r="B365" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="366" spans="2:5">
       <c r="B366" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="368" spans="2:5">
       <c r="B368" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="369" spans="2:6">
       <c r="B369" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="370" spans="2:6" ht="37.5">
       <c r="B370" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="371" spans="2:6">
       <c r="B371" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D371" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E371" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="372" spans="2:6">
       <c r="B372" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="373" spans="2:6" ht="37.5">
       <c r="B373" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="374" spans="2:6" ht="37.5">
       <c r="B374" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="375" spans="2:6" ht="37.5">
       <c r="B375" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="376" spans="2:6">
       <c r="B376" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="377" spans="2:6" ht="37.5">
       <c r="B377" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="378" spans="2:6" ht="37.5">
       <c r="B378" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="379" spans="2:6" ht="56.25">
       <c r="B379" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="380" spans="2:6">
       <c r="B380" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="381" spans="2:6" ht="409.5">
       <c r="B381" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D381" t="s">
+        <v>652</v>
+      </c>
+      <c r="E381" t="s">
         <v>653</v>
       </c>
-      <c r="E381" t="s">
-        <v>654</v>
-      </c>
       <c r="F381" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="382" spans="2:6" ht="37.5">
       <c r="B382" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="383" spans="2:6">
       <c r="B383" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="384" spans="2:6" ht="37.5">
       <c r="B384" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="37.5">
       <c r="B385" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="37.5">
       <c r="B386" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="37.5">
       <c r="B387" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="388" spans="2:5">
       <c r="B388" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="37.5">
       <c r="B389" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="56.25">
       <c r="B390" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="391" spans="2:5">
       <c r="B391" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D391" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E391" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="37.5">
       <c r="B392" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="37.5">
       <c r="B393" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="37.5">
       <c r="B394" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="37.5">
       <c r="B395" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="398" spans="2:5">
       <c r="B398" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="37.5">
       <c r="B399" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="37.5">
       <c r="B400" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="37.5">
       <c r="B401" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D401" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E401" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="37.5">
       <c r="B402" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="403" spans="2:5">
       <c r="B403" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="37.5">
       <c r="B404" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="37.5">
       <c r="B405" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="37.5">
       <c r="B406" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="37.5">
       <c r="B407" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="408" spans="2:5">
       <c r="B408" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="37.5">
       <c r="B409" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="37.5">
       <c r="B410" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="37.5">
       <c r="B411" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D411" t="s">
+        <v>700</v>
+      </c>
+      <c r="E411" t="s">
         <v>701</v>
-      </c>
-      <c r="E411" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="412" spans="2:5">
       <c r="B412" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="37.5">
       <c r="B413" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="37.5">
       <c r="B414" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="415" spans="2:5">
       <c r="B415" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="37.5">
       <c r="B416" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="417" spans="2:5">
       <c r="B417" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="418" spans="2:5">
       <c r="B418" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="419" spans="2:5">
       <c r="B419" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="56.25">
       <c r="B420" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="37.5">
       <c r="B421" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D421" t="s">
+        <v>718</v>
+      </c>
+      <c r="E421" t="s">
         <v>719</v>
-      </c>
-      <c r="E421" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="37.5">
       <c r="B422" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="37.5">
       <c r="B423" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="56.25">
       <c r="B424" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="37.5">
       <c r="B425" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="37.5">
       <c r="B426" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="37.5">
       <c r="B427" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="37.5">
       <c r="B428" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="429" spans="2:5">
       <c r="B429" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="430" spans="2:5">
       <c r="B430" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="431" spans="2:5">
       <c r="B431" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D431" t="s">
+        <v>734</v>
+      </c>
+      <c r="E431" t="s">
         <v>735</v>
-      </c>
-      <c r="E431" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="37.5">
       <c r="B432" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="B433" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="37.5">
       <c r="B434" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="93.75">
       <c r="B435" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="131.25">
       <c r="B436" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="37.5">
       <c r="B437" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="37.5">
       <c r="B438" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="37.5">
       <c r="B439" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="B440" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="37.5">
       <c r="A441" t="s">
+        <v>762</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D441" t="s">
         <v>763</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D441" t="s">
+      <c r="E441" t="s">
         <v>764</v>
-      </c>
-      <c r="E441" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="37.5">
       <c r="B442" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="37.5">
       <c r="B443" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="37.5">
       <c r="B444" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="131.25">
       <c r="B445" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="37.5">
       <c r="B446" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="37.5">
       <c r="B447" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="37.5">
       <c r="B448" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="56.25">
       <c r="B449" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="37.5">
       <c r="B450" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="451" spans="2:5">
       <c r="B451" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D451" t="s">
+        <v>769</v>
+      </c>
+      <c r="E451" t="s">
         <v>770</v>
-      </c>
-      <c r="E451" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="37.5">
       <c r="B452" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="37.5">
       <c r="B453" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="37.5">
       <c r="B454" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="37.5">
       <c r="B455" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="37.5">
       <c r="B456" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="37.5">
       <c r="B457" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="458" spans="2:5">
       <c r="B458" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="459" spans="2:5">
       <c r="B459" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="460" spans="2:5" ht="37.5">
       <c r="B460" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="461" spans="2:5">
       <c r="B461" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D461" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E461" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="462" spans="2:5">
       <c r="B462" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="463" spans="2:5">
       <c r="B463" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="464" spans="2:5">
       <c r="B464" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="37.5">
       <c r="B465" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="466" spans="2:5">
       <c r="B466" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="467" spans="2:5">
       <c r="B467" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="37.5">
       <c r="B468" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="469" spans="2:5">
       <c r="B469" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="470" spans="2:5">
       <c r="B470" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="37.5">
       <c r="B471" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D471" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E471" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="472" spans="2:5" ht="37.5">
       <c r="B472" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="37.5">
       <c r="B473" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="37.5">
       <c r="B474" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="37.5">
       <c r="B475" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="37.5">
       <c r="B476" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="37.5">
       <c r="B477" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="478" spans="2:5">
       <c r="B478" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="37.5">
       <c r="B479" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="37.5">
       <c r="B480" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="481" spans="2:6" ht="37.5">
       <c r="B481" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D481" t="s">
+        <v>832</v>
+      </c>
+      <c r="E481" t="s">
         <v>833</v>
-      </c>
-      <c r="E481" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="482" spans="2:6">
       <c r="B482" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="483" spans="2:6" ht="37.5">
       <c r="B483" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="484" spans="2:6" ht="75">
       <c r="B484" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="485" spans="2:6">
       <c r="B485" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="486" spans="2:6" ht="37.5">
       <c r="B486" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="487" spans="2:6" ht="37.5">
       <c r="B487" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="488" spans="2:6" ht="112.5">
       <c r="B488" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="489" spans="2:6" ht="225">
       <c r="B489" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="490" spans="2:6" ht="37.5">
       <c r="B490" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="491" spans="2:6" ht="37.5">
       <c r="B491" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D491" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E491" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="492" spans="2:6">
       <c r="B492" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="493" spans="2:6" ht="37.5">
       <c r="B493" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="494" spans="2:6">
       <c r="B494" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="495" spans="2:6" ht="37.5">
       <c r="B495" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="496" spans="2:6" ht="37.5">
       <c r="B496" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="497" spans="2:6" ht="243.75">
       <c r="B497" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="498" spans="2:6" ht="37.5">
       <c r="B498" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="499" spans="2:6" ht="37.5">
       <c r="B499" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="500" spans="2:6" ht="37.5">
       <c r="B500" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="501" spans="2:6">
       <c r="B501" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D501" t="s">
+        <v>862</v>
+      </c>
+      <c r="E501" t="s">
         <v>863</v>
-      </c>
-      <c r="E501" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="502" spans="2:6" ht="37.5">
       <c r="B502" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="503" spans="2:6">
       <c r="B503" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="504" spans="2:6">
       <c r="B504" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="505" spans="2:6" ht="37.5">
       <c r="B505" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="506" spans="2:6" ht="37.5">
       <c r="B506" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="507" spans="2:6">
       <c r="B507" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="508" spans="2:6" ht="37.5">
       <c r="B508" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="509" spans="2:6">
       <c r="B509" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="510" spans="2:6" ht="409.5">
       <c r="B510" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="511" spans="2:6">
       <c r="B511" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D511" t="s">
+        <v>873</v>
+      </c>
+      <c r="E511" t="s">
         <v>874</v>
-      </c>
-      <c r="E511" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="512" spans="2:6" ht="318.75">
       <c r="B512" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="513" spans="2:6" ht="409.5">
       <c r="B513" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="515" spans="2:6" ht="56.25">
       <c r="B515" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="516" spans="2:6" ht="37.5">
       <c r="B516" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="518" spans="2:6" ht="409.5">
       <c r="B518" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="519" spans="2:6" ht="409.5">
       <c r="B519" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="520" spans="2:6" ht="409.5">
       <c r="B520" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="521" spans="2:6">
       <c r="B521" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D521" t="s">
+        <v>882</v>
+      </c>
+      <c r="E521" t="s">
         <v>883</v>
-      </c>
-      <c r="E521" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="522" spans="2:6" ht="37.5">
       <c r="B522" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="523" spans="2:6">
       <c r="B523" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="524" spans="2:6">
       <c r="B524" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="525" spans="2:6">
       <c r="B525" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="526" spans="2:6">
       <c r="B526" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="527" spans="2:6">
       <c r="B527" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="528" spans="2:6" ht="356.25">
       <c r="B528" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="529" spans="2:6" ht="409.5">
       <c r="B529" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="530" spans="2:6" ht="409.5">
       <c r="B530" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="531" spans="2:6">
       <c r="B531" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D531" t="s">
+        <v>893</v>
+      </c>
+      <c r="E531" t="s">
         <v>894</v>
-      </c>
-      <c r="E531" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="532" spans="2:6" ht="409.5">
       <c r="B532" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="533" spans="2:6">
       <c r="B533" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="534" spans="2:6" ht="37.5">
       <c r="B534" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="535" spans="2:6" ht="37.5">
       <c r="B535" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="536" spans="2:6" ht="37.5">
       <c r="B536" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="537" spans="2:6" ht="37.5">
       <c r="B537" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="538" spans="2:6" ht="37.5">
       <c r="B538" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="539" spans="2:6" ht="37.5">
       <c r="B539" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="540" spans="2:6" ht="318.75">
       <c r="B540" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="541" spans="2:6" ht="37.5">
       <c r="B541" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D541" t="s">
+        <v>899</v>
+      </c>
+      <c r="E541" t="s">
         <v>900</v>
-      </c>
-      <c r="E541" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="542" spans="2:6" ht="409.5">
       <c r="B542" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="543" spans="2:6">
       <c r="B543" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="544" spans="2:6" ht="37.5">
       <c r="B544" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="545" spans="2:6" ht="187.5">
       <c r="B545" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="546" spans="2:6" ht="409.5">
       <c r="B546" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="547" spans="2:6" ht="409.5">
       <c r="B547" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1385</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="548" spans="2:6" ht="409.5">
       <c r="B548" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="549" spans="2:6" ht="409.5">
       <c r="B549" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="550" spans="2:6" ht="409.5">
       <c r="B550" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="551" spans="2:6" ht="37.5">
       <c r="B551" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D551" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E551" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="552" spans="2:6" ht="37.5">
       <c r="B552" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="553" spans="2:6" ht="37.5">
       <c r="B553" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="554" spans="2:6" ht="409.5">
       <c r="B554" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="555" spans="2:6" ht="37.5">
       <c r="B555" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="556" spans="2:6" ht="37.5">
       <c r="B556" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="557" spans="2:6" ht="37.5">
       <c r="B557" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="558" spans="2:6" ht="409.5">
       <c r="B558" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="559" spans="2:6" ht="409.5">
       <c r="B559" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="560" spans="2:6" ht="409.5">
       <c r="B560" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="561" spans="2:6" ht="37.5">
       <c r="B561" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D561" t="s">
+        <v>984</v>
+      </c>
+      <c r="E561" t="s">
         <v>985</v>
-      </c>
-      <c r="E561" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="562" spans="2:6">
       <c r="B562" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="563" spans="2:6" ht="409.5">
       <c r="B563" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1384</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="564" spans="2:6" ht="37.5">
       <c r="B564" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="565" spans="2:6" ht="37.5">
       <c r="B565" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="566" spans="2:6" ht="37.5">
       <c r="B566" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="567" spans="2:6" ht="37.5">
       <c r="B567" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="568" spans="2:6" ht="37.5">
       <c r="B568" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="569" spans="2:6" ht="409.5">
       <c r="B569" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="570" spans="2:6" ht="409.5">
       <c r="B570" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="571" spans="2:6" ht="37.5">
       <c r="B571" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D571" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E571" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="572" spans="2:6" ht="37.5">
       <c r="B572" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="573" spans="2:6" ht="37.5">
       <c r="B573" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="574" spans="2:6" ht="37.5">
       <c r="B574" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="575" spans="2:6">
       <c r="B575" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="576" spans="2:6">
       <c r="B576" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="577" spans="2:6" ht="409.5">
       <c r="B577" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="578" spans="2:6">
       <c r="B578" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="579" spans="2:6" ht="37.5">
       <c r="B579" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="580" spans="2:6">
       <c r="B580" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="581" spans="2:6" ht="409.5">
       <c r="B581" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D581" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E581" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="582" spans="2:6" ht="131.25">
       <c r="B582" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="583" spans="2:6" ht="375">
       <c r="B583" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="584" spans="2:6" ht="300">
       <c r="B584" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="585" spans="2:6">
       <c r="B585" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="586" spans="2:6">
       <c r="B586" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="587" spans="2:6" ht="37.5">
       <c r="B587" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="588" spans="2:6" ht="75">
       <c r="B588" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="589" spans="2:6" ht="409.5">
       <c r="B589" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="590" spans="2:6" ht="262.5">
       <c r="B590" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="591" spans="2:6" ht="37.5">
       <c r="B591" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D591" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E591" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="592" spans="2:6" ht="37.5">
       <c r="B592" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="593" spans="2:6" ht="37.5">
       <c r="B593" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="594" spans="2:6" ht="75">
       <c r="B594" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="595" spans="2:6" ht="168.75">
       <c r="B595" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="596" spans="2:6" ht="409.5">
       <c r="B596" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="597" spans="2:6" ht="37.5">
       <c r="B597" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="598" spans="2:6">
       <c r="B598" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="599" spans="2:6">
       <c r="B599" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="600" spans="2:6" ht="409.5">
       <c r="B600" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -21895,7 +21927,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21903,7 +21935,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -21911,7 +21943,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -21919,7 +21951,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -21927,7 +21959,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21935,7 +21967,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21943,7 +21975,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21951,7 +21983,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21959,7 +21991,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -21967,7 +21999,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -21975,7 +22007,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -21983,7 +22015,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -21991,7 +22023,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -21999,7 +22031,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -22007,7 +22039,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -22015,7 +22047,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -22023,7 +22055,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -22031,7 +22063,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -22039,7 +22071,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -22047,7 +22079,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -22055,7 +22087,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -22063,7 +22095,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -22071,7 +22103,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -22079,7 +22111,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -22087,10 +22119,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C26" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -22098,7 +22130,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -22106,7 +22138,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -22114,7 +22146,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -22122,7 +22154,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -22130,7 +22162,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -22138,7 +22170,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -22146,7 +22178,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -22154,7 +22186,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22162,7 +22194,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -22170,7 +22202,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -22178,7 +22210,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -22186,7 +22218,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -22194,7 +22226,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -22202,7 +22234,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -22210,7 +22242,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -22218,7 +22250,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -22226,7 +22258,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -22234,7 +22266,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -22242,7 +22274,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -22250,10 +22282,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -22261,7 +22293,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -22269,7 +22301,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22277,7 +22309,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -22285,7 +22317,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22293,7 +22325,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -22301,7 +22333,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22309,7 +22341,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -22317,7 +22349,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -22325,7 +22357,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22333,7 +22365,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -22341,7 +22373,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -22349,7 +22381,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -22357,7 +22389,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22365,7 +22397,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -22373,7 +22405,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED3A8A-BA43-44F8-9E98-F92752CDB968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E6228C-0CC8-4BF1-8982-05F4307CFF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1470" windowWidth="28830" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33165" yWindow="2760" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="1445">
   <si>
     <t>(女性に対して)「どちらのご出身ですか？」
 「私はスペイン人です」</t>
@@ -1817,17 +1817,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「どうしたの？」
-「喉がすごく痛いんだ」</t>
-    <rPh sb="10" eb="11">
-      <t>ノド</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(私たちについて)旅行は安くついて、ドルがたくさん余った</t>
     <rPh sb="1" eb="2">
       <t>ワタシ</t>
@@ -3066,10 +3055,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Te lo digo solo a ti porque de ti me fío.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>¿Es interesante esa novela?
 Sí, ¿te la dejo?</t>
     <phoneticPr fontId="1"/>
@@ -3112,11 +3097,6 @@
   </si>
   <si>
     <t>Estuvimos de vacaciones en la playa, pero la lluvia nos las estropeó.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>¿No le va a escribir a su padre?
-Sí, le mando ahora un mensaje.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -16215,6 +16195,729 @@
 結論
 動作や量 を強調したい場合は por mucho que を使います。
 性質や様子 を強調したい場合は por muy + 形容詞/副詞 を使います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿No le va a escribir a su padre?
+Sí, le mando ahora un mensaje.
+はle mando un mensaje ahora.と言ってもいいですか？
+スペイン語の語順は比較的自由ですか？
+---------------
+はい、**「le mando un mensaje ahora」**と言ってもまったく問題ありません！
+スペイン語の語順は比較的自由で、意味を保ちながら語順を変えることができます。
+ただし、語順の変化によってニュアンスや強調の違いが生じることがあります。以下に詳しく説明します。
+1. 語順の違いと強調のポイント:
+Le mando ahora un mensaje.
+「今」という部分（ahora）を強調したい場合によく使われる語順。
+意味: 「今」送ることを伝えるニュアンスが強い。
+Le mando un mensaje ahora.
+標準的で、バランスの取れた語順。強調点が特にない平叙的な表現。
+意味: 単に「メッセージを送る」という行為を淡々と伝える。
+2. スペイン語の語順の自由度:
+スペイン語の語順は日本語ほど自由ではありませんが、英語よりは柔軟です。
+動詞や目的語、副詞の位置を入れ替えても意味が通じる場合が多いです。ただし、以下のポイントに注意してください：
+主語 + 動詞 + 目的語（標準語順）:
+標準的で、最も一般的な語順。
+例: Yo escribo una carta. （私は手紙を書きます。）
+目的語を強調する場合:
+目的語を前に出すことができます。この場合は代名詞の繰り返しが必要です。
+例: Un mensaje le mando ahora. （メッセージを今送ります。※メッセージを強調）
+副詞や時間表現の位置:
+副詞や時間表現（今回の例ではahora）は、文の頭や最後に移動することができます。
+例:
+Ahora le mando un mensaje. （今、メッセージを送ります。）
+Le mando un mensaje ahora. （メッセージを送るのは「今」です。）
+3. 強調や文脈による違い:
+語順を変えることで強調の仕方や文脈に応じたニュアンスが変わります。
+文の最初に来る要素は、通常強調されます。
+Ahora le mando un mensaje. → 「今」を特に強調。
+Un mensaje le mando ahora. → 「メッセージ」を特に強調。
+副詞が後ろに置かれると、自然でスムーズな語り口になることが多い。
+Le mando un mensaje ahora. → 平易な言い方。
+4. まとめ:
+**「Le mando ahora un mensaje」も「Le mando un mensaje ahora」**も正しい文です。
+文脈や強調したい要素によって語順を変えることが可能です。
+初心者の場合、標準的な語順（主語 + 動詞 + 目的語 + 時間表現）を使うと安心です。
+スペイン語では、特定のニュアンスを伝えたい場合を除き、語順をあまり心配せずに話しても大丈夫です！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿No le va a escribir a su padre?
+Sí, le mando [ahora un mensaje^un mensaje ahora].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Tú sí que podrás」 は、スペイン語で非常に強調された励ましの表現です。それぞれの要素を分解して解説します。
+1. Tú
+主語「あなた」を明示しています。
+一般的にはスペイン語では主語代名詞は省略されることが多いですが、
+ここでは特に**「あなた」**を強調するために使われています。
+2. sí que
+sí: 肯定を強調する「本当に」「確かに」という意味。
+que: 追加の強調や感情を込めるために使われる語で、
+文法的な役割として「本当にそうだよ！」というニュアンスを補強します。
+sí queはセットで使われ、「確かに～だ」「間違いなく～できる」というような断定的なトーンを作り出します。
+3. podrás
+動詞「poder（できる）」の未来形（2人称単数形）。 →「あなたはできるでしょう」という意味。
+未来形が使われているのは、「これから先にその行動が可能になる」という確信を表すためです。
+未来形には「予測」や「可能性」を表すニュアンスもありますが、
+ここでは**「あなたならきっとやり遂げられる」**という自信を伝えています。
+全体のニュアンス
+「Tú sí que podrás」は、話し手が聞き手に対して「あなたは間違いなくできるよ！」という確信と励ましを強調している表現です。
+日本語に訳すと：
+「君なら絶対できる！」
+「君は本当にやれるさ！」
+文脈での役割
+前の文「Esto es demasiado trabajo para mí.（これは私にはあまりに大変すぎる仕事だ）」に対する返答として、
+**「あなたは私とは違ってできるよ」**という対比を込めています。
+「Sí que」の強調表現を使うことで、聞き手に対する信頼感やモチベーションの向上を伝えています。
+まとめ
+「Tú sí que podrás」 は、特に「相手を励まし、その可能性を信じている」場面で用いられる表現です。
+このフレーズは強調が含まれるため、単なる「Podrás」よりも感情的で力強いメッセージになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Ahora no será nada igual sin ti」 について、分かりにくい部分を詳しく解説します。
+1. no será
+動詞 ser（～である） の未来形（3人称単数形）。
+→「（それは）～ではないだろう」と訳せます。
+未来形 será を否定形にしているので、
+「これから先、～でないだろう」という予測や確信を表します。
+2. nada igual
+nada: 「何も～ない」という否定の意味を強調する語。
+igual: 「同じ」「等しい」という意味の形容詞。
+この2語を組み合わせた nada igual は、「何も同じではない」というニュアンスを持ち、
+これまでの状況が一変することを強調しています。
+3. sin ti
+sin: 「～なしで」という前置詞。
+ti: 「君」「あなた」という意味の強調された形。
+sin ti は「君なしで」「君がいない状態で」を意味し、
+主語（この場合は状況や環境）が君の不在によって変化することを表しています。
+文全体の解釈
+「Ahora no será nada igual sin ti.」 →「これからは、君なしでは何も同じにはならないだろう。」
+**「君がいないことで、これまでのような環境や雰囲気が完全に変わってしまう」**という感情的な意味を含んでいます。
+文脈での役割
+このフレーズは、別れや惜別の場面でよく使われる感情的な表現です。
+例えば、この文脈では「一緒に働けたことが素晴らしかったけど、
+君がいなくなることで職場の雰囲気や日常が大きく変わるだろう」という気持ちを伝えています。
+似た表現との比較
+No será igual sin ti.
+「君なしでは同じではないだろう。」
+シンプルですが、意味は同じです。
+Todo cambiará sin ti.
+「君なしではすべてが変わるだろう。」
+「nada igual」 の代わりに、具体的に「すべて（todo）」を使った表現です。
+日本語的なニュアンス
+日本語に自然に訳すと：
+「君がいなくなると、もう何もかも同じにはいかない。」
+「君なしでは、これまで通りにはいかないだろう。」
+相手の不在による心の穴や変化を強調している表現です。
+まとめ
+「Ahora no será nada igual sin ti」 は、相手がいなくなることで日常や雰囲気が大きく変わり、
+これまでのようにはならないだろうという気持ちを未来形で伝えたフレーズです。
+惜別の気持ちを込めて、相手の存在がどれほど重要だったかを示しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3 contar + con... …を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) 当てにする；考慮する．
+Contaba con su ayuda.｜私は彼［彼女］（ら）の助けを当てにしていた．
+Cuenta conmigo para la comida.｜昼食には私の分も入れておいてね．
+(2) 備えている．
+Tu propuesta cuenta con muchas ventajas.｜君の提案は多くの利点を持っている．</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Te lo digo solo a ti porque de ti me fío.」 は、
+親しい間柄や信頼関係を示す場面で使われる表現です。それぞれの部分を分解して解説します。
+1. Te lo digo
+Te: 「君に」という意味の間接目的語代名詞。ここでは「誰に言うのか」を示します。
+lo: 「それ」を指す直接目的語代名詞。具体的には「伝える内容（＝何を言うか）」を指します。
+digo: 動詞 decir（言う） の現在形（1人称単数形）。「私は言う」という意味。
+→ 「君にそれを言う」 という意味になります。
+2. solo a ti
+solo: 「ただ～だけ」という強調を表す副詞。
+a ti: 「君に」をさらに強調する表現。
+代名詞 te を補足して、**「他の誰でもなく君にだけ」**というニュアンスを強調しています。
+→ 「君にだけ言う」 という意味です。
+3. porque
+接続詞「なぜなら～だから」。理由を説明するために使われます。
+→ 「なぜなら」という意味で、次の理由を導きます。
+4. de ti me fío
+de ti: 「君のことを」という意味の前置詞句。信頼の対象を明示しています。
+me fío: 動詞 fiarse（信頼する） の現在形（1人称単数形）。「私は信頼する」という意味。
+→ 「君のことを信頼している」 という意味になります。
+文全体の解釈
+「Te lo digo solo a ti porque de ti me fío.」
+→ 「君だけにそれを言うよ。なぜなら、君のことを信頼しているからだ。」
+文脈とニュアンス
+信頼を強調
+この文では、話し手が「君」を特別な信頼の対象として見ていることを伝えています。
+ほかの人には伝えず、あえて「君にだけ」伝える理由を説明しています。
+親密な関係を示す
+このような言い方は、友人、恋人、または親しい仲間同士の間で使われることが多く、
+相手との信頼関係を強調する場面で用いられます。
+似た表現との比較
+Te lo digo porque me fío de ti.
+「君にそれを言うよ。君を信頼しているからだ。」
+「solo a ti」 が省略されているので、「君だけ」というニュアンスが薄れます。
+Solo a ti te lo cuento porque confío en ti.
+「君にだけそれを話すよ。君を信じているから。」
+contar（話す）を使うことで、さらに親密なトーンになります。
+まとめ
+「Te lo digo solo a ti porque de ti me fío.」 は、相手への深い信頼を示しつつ、
+特別な情報を伝える場面で使われる感情のこもった表現です。
+「君にだけ言う」という強調が、相手の存在の重要性を際立たせています。
+あなた:
+me fío de tiが語順として自然に感じますが、強調の意味でこの前置詞句を前にだしていいのですか？
+ChatGPT
+はい、その通りです！スペイン語では、語順を変えることで特定の部分を強調することができます。
+「de ti me fío」 のように前置詞句 「de ti」 を前に出すのは、相手への信頼を特に強調したい場合に使われる表現方法です。
+1. 語順の自然さと基本形
+通常の語順は 「Me fío de ti」 です。
+主語や動詞が前に来るので、もっとも一般的で自然な言い方。
+「私は君を信頼している」という事実を単純に伝えます。
+2. 「de ti」を前に出す理由
+スペイン語では、文中の特定の要素を強調したい場合、その部分を前に移動させることができます。
+「de ti me fío」
+→ 「（他の誰でもなく）君を信頼している」というニュアンスが強まります。
+前置詞句を文頭に置くことで、「信頼の対象である君」を特に目立たせています。
+これは、次のような場面でよく使われます：
+比較や対比を強調したいとき。 例: De ellos no me fío, pero de ti sí.
+（彼らのことは信頼しないが、君のことは信頼するよ。）
+感情を込めて特別な意味を与えたいとき。 例: De ti me fío como de nadie más.
+（君を他の誰よりも信頼しているよ。）
+3. 文法的な正しさ
+前置詞句を前に出すことは文法的に完全に正しいです。
+このような構造の変化は、スペイン語では強調表現として日常的に使われます。
+4. 日本語との違い
+日本語では語順を変えることで強調を示すことは少ないですが、
+アクセントや助詞でニュアンスを調整します。
+一方、スペイン語では語順の柔軟性を使って強調を伝えることが一般的です。
+まとめ
+「Me fío de ti」 が基本的な語順である一方、
+「De ti me fío」 は相手への信頼を特に際立たせるための強調表現です。
+文法的に正しいだけでなく、感情豊かに意図を伝える効果的な方法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Te lo digo solo (a ti) porque [de ti me fío^me fío de ti].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">convenir
+[45][自]
+1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a＋人〈人〉にとって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 適当である；ふさわしい．
+Esta actitud no conviene a una muchacha tan educada como tú.
+この態度は君のようにしつけのよい女性にはふさわしくない．
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a＋人〈人〉にとって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＋不定詞／＋que＋接続法…するのは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 都合がいい，適当である．
+¿No te conviene ir con ellos?｜彼らと一緒に行くのは君には都合が悪いかね．
+No nos conviene que ellos lo sepan.｜彼らがそれを知っていると都合が悪い．
+▲用例中 te, nos が a＋人に相当．
+3 〘複数主語で〙 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en... …で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 一致する，合意する．
+Hemos convenido en salir fuera.｜私たちは外出することになった．
+━[他] …について合意する，取り決める．
+━～・se
+[再] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en... …で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 合意する．</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「どうしたの？」(qtp)
+「喉がすごく痛いんだ」</t>
+    <rPh sb="15" eb="16">
+      <t>ノド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt;単語&lt;/th&gt;
+      &lt;th&gt;感覚の種類&lt;/th&gt;
+      &lt;th&gt;例&lt;/th&gt;
+      &lt;/tr&gt;
+    &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt;dolor&lt;/th&gt;
+      &lt;td&gt;一般的な痛み&lt;/td&gt;
+      &lt;td&gt;Me duele la cabeza.（頭が痛い。）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;picar&lt;/th&gt;
+      &lt;td&gt;かゆみ、ヒリヒリ感&lt;/td&gt;
+      &lt;td&gt;Me pica el brazo.（腕がかゆい。）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;ardor&lt;/th&gt;
+      &lt;td&gt;焼けるような痛み&lt;/td&gt;
+      &lt;td&gt;Tengo ardor en los ojos.（目がヒリヒリする。）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;punzada&lt;/th&gt;
+      &lt;td&gt;刺すような痛み&lt;/td&gt;
+      &lt;td&gt;Sentí una punzada en el pecho.（胸に刺す痛みを感じた。）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;molestia&lt;/th&gt;
+      &lt;td&gt;軽い不快感、違和感&lt;/td&gt;
+      &lt;td&gt;Siento una molestia en la espalda.（背中に違和感がある。）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;/tbody&gt;
+  &lt;/table&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この文 「El viaje nos salió barato y nos sobraron muchos dólares.」 では、
+nos salió と nos sobraron が、主語（El viaje, muchos dólares）と間接目的語（nos）の関係を示す構造になっています。
+それぞれを詳しく解説します。
+1. nos salió barato
+a) salió の基本構造
+動詞 salir の過去形（点過去・3人称単数形）。
+salir の基本的な意味は「出る」ですが、
+この文脈では「（ある条件で）～になる」「費用が～する」という意味で使われています。
+例: Me salió caro.（それは高くついた。）
+b) nos の役割
+nos は「私たちに」という間接目的語代名詞で、
+salir の結果が「私たち」に影響を及ぼすことを示します。
+例: El viaje nos salió barato.
+→「私たちにとって、その旅行は安く済んだ。」
+c) 文全体の解釈
+El viaje が主語で、「旅行がどういう条件だったか」を表し、
+「私たちにとって安い結果になった」というニュアンスを伝えています。
+2. nos sobraron muchos dólares
+a) sobraron の基本構造
+動詞 sobrar の過去形（点過去・3人称複数形）。
+sobrar は「余る」「残る」という意味の動詞で、何かが使い切られずに余る状況を表します。
+例: Nos sobra comida.（私たちには食べ物が余っている。）
+b) nos の役割
+こちらも「私たちに」という間接目的語代名詞で、sobrar の結果が「私たち」に影響していることを示します。
+例: Nos sobraron muchos dólares.
+→「私たちには多くのドルが余った。」
+c) 文全体の解釈
+muchos dólares が主語で、「旅行の後でお金が余った」という結果を「私たち」に関連付けて述べています。
+3. 文全体の解釈
+「El viaje nos salió barato y nos sobraron muchos dólares.」 
+→ 「その旅行は私たちにとって安く済み、たくさんのドルが余った。」
+ポイント
+nos salió: 旅行の費用が私たちにとってどうだったか（安かった）。
+nos sobraron: 旅行の後に残ったドルが私たちにとってどれくらいだったか（たくさん余った）。
+4. 類似表現との比較
+El viaje fue barato y sobraron muchos dólares.
+「その旅行は安く、多くのドルが余った。」
+→ nos が省略されているので、私たちへの影響が薄れる。
+El viaje nos resultó barato y nos sobraron dólares.
+resultó を使うことで、「結果として安かった」というニュアンスをさらに強調。
+まとめ
+nos salió と nos sobraron は、主語（旅行・ドル）の結果が「私たちに」どう影響したかを
+間接目的語代名詞 nos を使って表現しています。
+スペイン語では、このように nos を加えることで、
+話し手や対象の立場を明確に示し、文に具体性や親近感を持たせることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+とにかく「¿Cuánto te costó?」は頻繁に使われる表現でそのまま覚えて使ったらいい
+日本語と対比してはいけないやつ
+「¿Cuánto te costó?」 は、「それはいくらしたの？」という意味の質問で、
+日常的によく使われる表現です。この文について詳しく解説します。
+1. 動詞 costar（かかる、費用がする）
+costar は「（お金や労力が）かかる」を意味する動詞です。
+例: El coche cuesta mucho.（その車は高い。）
+ここでは過去形（点過去）が使われています。
+a) costó の活用
+動詞 costar の点過去形（3人称単数形）で、「過去にその物の値段がいくらだったか」を表しています。
+costó: 「それが費用としてかかった」という意味。
+2. 間接目的語代名詞 te
+te は「君に」という意味の間接目的語代名詞です。
+costar では、費用が「誰にかかったのか」を示すために間接目的語代名詞を使います。
+例: ¿Cuánto te costó el coche?
+→「その車は君にいくらかかったの？」
+→ 購入者である「君」にとっての費用を尋ねる表現です。
+3. 疑問詞 cuánto
+cuánto は「どれくらい（の量）」を尋ねる疑問詞で、ここでは「値段」を尋ねる文脈で使われています。
+cuánto の後には直接目的語が省略されている形。
+完全な文は次のようになります：
+¿Cuánto te costó (el coche)?
+「その車は君にいくらかかったの？」
+※「el coche」は文脈上明らかなので、省略されています。
+4. 文全体の解釈
+¿Cuánto te costó?
+→ 「君にとって、それはいくらかかったの？」
+→ 購入者が支払った金額を尋ねるための直接的かつ自然な表現です。
+5. 類似表現との比較
+¿Cuánto cuesta?
+現在形を使った表現で、「それはいくらしますか？」という意味。
+まだ購入していない場合や商品の値段を尋ねるときに使います。
+¿Cuánto pagaste?
+「君はいくら払ったの？」
+→ costar よりも直接的に支払いそのものに焦点を当てています。
+¿Cuánto fue?
+「いくらでしたか？」
+→ カジュアルな表現で、具体的な文脈が必要です。
+6. 文脈とニュアンス
+¿Cuánto te costó? は、相手が購入した物の値段を尋ねるフレーズで、
+丁寧さやカジュアルさの程度によって文脈に応じた使い方が求められます。
+特に親しい間柄では普通に使われますが、知らない人に対しては失礼に感じられる場合もあります。
+まとめ
+「¿Cuánto te costó?」 は、相手が購入した物の費用を尋ねるフレーズで、
+「費用が誰にかかったか」を間接目的語代名詞 te で明示しています。
+この表現は、スペイン語の日常会話で非常に頻繁に使われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>¿Le apetece un café?｜コーヒーを召し上がりますか．
+Si te apetece, escríbeme.｜もしよかったら私に手紙を書いてください．
+Ahora no me apetece comer nada.｜今は何も食べたくない．
+¿No te apetece que descansemos un rato?｜ちょっと休みたいと思わない．
+Una buena música siempre apetece.｜いい音楽はいつでも聴きたいものだ．
+━[他] 欲しがる，望む，求める．
+Lo único que apetecen es el dinero.｜彼らが欲しいのはお金だけだ．</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>me ayuda: 「それが私を助ける」
+→ 主語（具体的には「シャワーを浴びること」）が、話し手（私）が何かをするのを助ける。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ponerse + a + infinitivo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>始める，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸨…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⸩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取りかかる．
+Ahora mismo ponte a preparar los papeles.｜今すぐ書類の用意を始めなさい．</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「¿Nos hacemos un selfie?」 は日常会話でよく使われる表現で、
+ここでは再帰動詞 hacerse の使い方がポイントになります。この文を分解して解説します。
+1. 動詞 hacerse（～になる、作る、行う）
+hacerse は再帰動詞で、文脈によって様々な意味を持ちます。
+hacerse algo で「自分たちのために何かをする」「何かを作る」という意味になります。
+ここでは「自分たちでセルフィーを撮る」という行為を指しています。
+2. 構造の解説
+a) Nos hacemos
+nos: 再帰代名詞の「私たち自身を／に」という意味。
+hacemos: 動詞 hacer の現在形（1人称複数形、「私たちがする」）。
+再帰的に使うことで、「私たちのために、私たちで～をする」というニュアンスを加えています。
+b) un selfie
+selfie は「セルフィー（自撮り）」を意味する英語由来の名詞で、スペイン語でもそのまま使われています。
+c) 全体の解釈
+¿Nos hacemos un selfie?
+→ 直訳: 「私たちでセルフィーを撮る？」 → 意味: 「セルフィーを撮らない？」「一緒に自撮りしようよ？」
+3. 表現のニュアンス
+nos を使うことで、「私たち自身で行う」という意識を強調します。
+例: ¿Nos hacemos una foto?（私たちで写真を撮る？）も同じニュアンス。
+この表現には親しみや協力の感覚が含まれます。
+4. 返答の Venga
+Venga は、「さあ」「いいよ」というニュアンスの間投詞で、カジュアルな同意や促しを表します。
+¿Nos hacemos un selfie?
+→ Venga.
+→ 「セルフィーを撮らない？」
+「いいよ、撮ろう！」
+5. 関連表現との比較
+¿Nos sacamos un selfie?
+sacar（撮る）を使った表現で、同じ意味になります。地域によっては sacar の方が一般的です。
+¿Hacemos un selfie?
+再帰的なニュアンスがなくなり、「一緒にセルフィーを撮る？」という意味。少し客観的な響きになります。
+6. まとめ
+¿Nos hacemos un selfie? は、「一緒にセルフィーを撮ろう」というカジュアルな誘いの表現。
+hacerse を再帰的に使うことで、「自分たちで」という共同作業や親しみのニュアンスが強調されています。
+返答の Venga で、その提案に軽く同意する自然な流れが作られています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16554,8 +17257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B547" workbookViewId="0">
-      <selection activeCell="F547" sqref="F547"/>
+    <sheetView tabSelected="1" topLeftCell="D174" workbookViewId="0">
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16567,27 +17270,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="37.5">
       <c r="A1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5">
@@ -16595,31 +17298,31 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5">
       <c r="B5" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16627,15 +17330,15 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.5">
@@ -16643,18 +17346,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.5">
       <c r="B10" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -16662,13 +17365,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5">
@@ -16676,10 +17379,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -16687,7 +17390,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -16695,7 +17398,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -16703,34 +17406,34 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="409.5">
       <c r="B18" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="37.5">
@@ -16738,7 +17441,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="409.5">
@@ -16746,24 +17449,24 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="37.5">
       <c r="B21" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -16771,7 +17474,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="37.5">
@@ -16779,15 +17482,15 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="37.5">
       <c r="B24" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="37.5">
@@ -16795,15 +17498,15 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="409.5">
@@ -16811,10 +17514,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -16822,7 +17525,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -16830,7 +17533,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="37.5">
@@ -16838,7 +17541,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="37.5">
@@ -16846,13 +17549,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D31" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E31" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="37.5">
@@ -16860,7 +17563,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="37.5">
@@ -16868,7 +17571,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -16876,7 +17579,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -16884,7 +17587,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="37.5">
@@ -16892,7 +17595,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="37.5">
@@ -16900,7 +17603,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="37.5">
@@ -16908,7 +17611,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="409.5">
@@ -16916,40 +17619,40 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="37.5">
       <c r="B41" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C41" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D41" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E41" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="37.5">
       <c r="B42" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="37.5">
@@ -16957,15 +17660,15 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="37.5">
       <c r="B44" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -16973,15 +17676,15 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="37.5">
       <c r="B46" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="37.5">
@@ -16989,7 +17692,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="37.5">
@@ -16997,15 +17700,15 @@
         <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="37.5">
@@ -17013,7 +17716,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="37.5">
@@ -17021,29 +17724,29 @@
         <v>31</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E51" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="37.5">
       <c r="B52" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="37.5">
       <c r="B53" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="37.5">
@@ -17051,7 +17754,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -17059,15 +17762,15 @@
         <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -17075,7 +17778,7 @@
         <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="37.5">
@@ -17083,7 +17786,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="37.5">
@@ -17091,29 +17794,29 @@
         <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="37.5">
       <c r="B61" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" t="s">
+        <v>389</v>
+      </c>
+      <c r="E61" t="s">
         <v>308</v>
-      </c>
-      <c r="D61" t="s">
-        <v>392</v>
-      </c>
-      <c r="E61" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="37.5">
@@ -17121,7 +17824,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="37.5">
@@ -17129,15 +17832,15 @@
         <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="56.25">
       <c r="B64" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -17145,7 +17848,7 @@
         <v>39</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="37.5">
@@ -17153,7 +17856,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="409.5">
@@ -17161,10 +17864,10 @@
         <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="37.5">
@@ -17172,7 +17875,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="2:6">
@@ -17180,7 +17883,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="37.5">
@@ -17188,7 +17891,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="37.5">
@@ -17196,21 +17899,21 @@
         <v>45</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E71" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C72" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="37.5">
@@ -17218,7 +17921,7 @@
         <v>46</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -17226,7 +17929,7 @@
         <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="2:6">
@@ -17234,7 +17937,7 @@
         <v>48</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="37.5">
@@ -17242,7 +17945,7 @@
         <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="37.5">
@@ -17250,7 +17953,7 @@
         <v>50</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="37.5">
@@ -17258,15 +17961,15 @@
         <v>51</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="56.25">
       <c r="B79" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="37.5">
@@ -17274,7 +17977,7 @@
         <v>52</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="37.5">
@@ -17282,13 +17985,13 @@
         <v>53</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E81" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="37.5">
@@ -17301,7 +18004,7 @@
     </row>
     <row r="83" spans="2:6" ht="56.25">
       <c r="B83" s="1" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>81</v>
@@ -17331,7 +18034,7 @@
         <v>69</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -17352,7 +18055,7 @@
     </row>
     <row r="89" spans="2:6" ht="56.25">
       <c r="B89" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>72</v>
@@ -17374,10 +18077,10 @@
         <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E91" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="37.5">
@@ -17390,10 +18093,10 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="37.5">
@@ -17409,12 +18112,12 @@
         <v>64</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="37.5">
       <c r="B96" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>77</v>
@@ -17422,7 +18125,7 @@
     </row>
     <row r="97" spans="2:6" ht="37.5">
       <c r="B97" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>78</v>
@@ -17430,10 +18133,10 @@
     </row>
     <row r="98" spans="2:6" ht="37.5">
       <c r="B98" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -17446,7 +18149,7 @@
     </row>
     <row r="100" spans="2:6" ht="37.5">
       <c r="B100" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>80</v>
@@ -17454,24 +18157,24 @@
     </row>
     <row r="101" spans="2:6" ht="37.5">
       <c r="B101" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D101" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E101" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="56.25">
       <c r="B102" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="37.5">
@@ -17479,7 +18182,7 @@
         <v>82</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="37.5">
@@ -17487,7 +18190,7 @@
         <v>83</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="409.5">
@@ -17495,10 +18198,10 @@
         <v>84</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="56.25">
@@ -17506,15 +18209,15 @@
         <v>85</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="37.5">
       <c r="B107" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="37.5">
@@ -17522,15 +18225,15 @@
         <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="37.5">
       <c r="B109" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="37.5">
@@ -17538,7 +18241,7 @@
         <v>87</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="2:6">
@@ -17546,13 +18249,13 @@
         <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D111" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E111" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="37.5">
@@ -17560,7 +18263,7 @@
         <v>89</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="37.5">
@@ -17568,7 +18271,7 @@
         <v>90</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="2:6">
@@ -17576,7 +18279,7 @@
         <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="2:6">
@@ -17584,15 +18287,15 @@
         <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C116" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="2:6">
@@ -17600,15 +18303,15 @@
         <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="37.5">
       <c r="B118" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="409.5">
@@ -17616,10 +18319,10 @@
         <v>94</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="37.5">
@@ -17627,21 +18330,21 @@
         <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C121" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D121" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E121" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="37.5">
@@ -17649,23 +18352,23 @@
         <v>96</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="37.5">
       <c r="B123" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="37.5">
       <c r="B124" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="2:6" ht="37.5">
@@ -17673,39 +18376,39 @@
         <v>97</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="2:6" ht="37.5">
       <c r="B126" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="2:6" ht="37.5">
       <c r="B127" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="2:6" ht="56.25">
       <c r="B128" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="37.5">
       <c r="B129" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="2:6" ht="37.5">
@@ -17713,32 +18416,35 @@
         <v>98</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" ht="37.5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="409.5">
       <c r="B131" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>263</v>
+        <v>1430</v>
       </c>
       <c r="D131" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E131" t="s">
-        <v>406</v>
+        <v>403</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="409.5">
       <c r="B132" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="37.5">
@@ -17746,7 +18452,7 @@
         <v>99</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="37.5">
@@ -17754,42 +18460,42 @@
         <v>100</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="37.5">
       <c r="B135" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="56.25">
       <c r="B136" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="138" spans="2:6" ht="409.5">
       <c r="B138" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="37.5">
@@ -17797,7 +18503,7 @@
         <v>101</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="37.5">
@@ -17805,53 +18511,53 @@
         <v>102</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="37.5">
       <c r="B141" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D141" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E141" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="37.5">
       <c r="B142" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="2:6" ht="37.5">
       <c r="B143" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C143" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C144" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="2:6" ht="37.5">
       <c r="B145" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="37.5">
@@ -17859,7 +18565,7 @@
         <v>103</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="2:6" ht="56.25">
@@ -17867,7 +18573,7 @@
         <v>104</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="2:6" ht="409.5">
@@ -17875,48 +18581,51 @@
         <v>105</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="149" spans="2:6" ht="37.5">
       <c r="B149" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="150" spans="2:6" ht="37.5">
       <c r="B150" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="2:6" ht="37.5">
       <c r="B151" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D151" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E151" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" ht="37.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="409.5">
       <c r="B152" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="153" spans="2:6" ht="56.25">
@@ -17924,15 +18633,18 @@
         <v>107</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" ht="37.5">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="409.5">
       <c r="B154" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C154" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="155" spans="2:6" ht="37.5">
@@ -17940,7 +18652,7 @@
         <v>109</v>
       </c>
       <c r="C155" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="2:6" ht="37.5">
@@ -17948,23 +18660,26 @@
         <v>110</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" ht="37.5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="206.25">
       <c r="B158" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C158" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="159" spans="2:6">
@@ -17972,3934 +18687,3961 @@
         <v>112</v>
       </c>
       <c r="C159" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="409.5">
       <c r="B160" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C160" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" ht="37.5">
+        <v>1435</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="37.5">
       <c r="B161" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="D161" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E161" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
       <c r="B162" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C162" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" ht="37.5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="37.5">
       <c r="B163" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" ht="37.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="37.5">
       <c r="B164" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="409.5">
       <c r="B165" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" ht="56.25">
+        <v>237</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="56.25">
       <c r="B166" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="409.5">
+      <c r="B167" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="167" spans="2:5" ht="37.5">
-      <c r="B167" s="1" t="s">
+      <c r="F167" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="409.5">
+      <c r="B168" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="168" spans="2:5" ht="37.5">
-      <c r="B168" s="1" t="s">
+      <c r="F168" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="409.5">
+      <c r="B169" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="169" spans="2:5" ht="37.5">
-      <c r="B169" s="1" t="s">
+      <c r="F169" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="243.75">
+      <c r="B170" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="170" spans="2:5" ht="37.5">
-      <c r="B170" s="1" t="s">
+      <c r="F170" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5">
-      <c r="B171" s="1" t="s">
+      <c r="C171" t="s">
+        <v>225</v>
+      </c>
+      <c r="D171" t="s">
+        <v>410</v>
+      </c>
+      <c r="E171" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C172" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C173" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="37.5">
+      <c r="B174" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C171" t="s">
-        <v>226</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="C174" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C175" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" ht="37.5">
+      <c r="B176" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C176" t="s">
+        <v>230</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="409.5">
+      <c r="B177" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" ht="37.5">
+      <c r="B178" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" ht="75">
+      <c r="B179" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" ht="37.5">
+      <c r="B180" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C181" t="s">
+        <v>215</v>
+      </c>
+      <c r="D181" t="s">
+        <v>412</v>
+      </c>
+      <c r="E181" t="s">
         <v>413</v>
       </c>
-      <c r="E171" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5">
-      <c r="B172" s="1" t="s">
+    </row>
+    <row r="182" spans="2:6" ht="37.5">
+      <c r="B182" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C172" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5">
-      <c r="B173" s="1" t="s">
+      <c r="C182" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C183" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C184" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="C173" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" ht="37.5">
-      <c r="B174" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5">
-      <c r="B175" s="1" t="s">
+      <c r="C185" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C186" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C187" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="37.5">
+      <c r="B189" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="C175" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" ht="37.5">
-      <c r="B176" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C176" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" ht="37.5">
-      <c r="B177" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" ht="37.5">
-      <c r="B178" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" ht="37.5">
-      <c r="B179" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" ht="37.5">
-      <c r="B180" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C181" t="s">
-        <v>216</v>
-      </c>
-      <c r="D181" t="s">
-        <v>415</v>
-      </c>
-      <c r="E181" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" ht="37.5">
-      <c r="B182" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C182" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5">
-      <c r="B183" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C183" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5">
-      <c r="B184" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C184" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5">
-      <c r="B185" s="1" t="s">
+      <c r="C190" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="37.5">
+      <c r="B191" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C185" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5">
-      <c r="B186" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C186" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5">
-      <c r="B187" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C187" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5">
-      <c r="B188" s="1" t="s">
+      <c r="C191" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D191" t="s">
         <v>134</v>
       </c>
-      <c r="C188" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" ht="37.5">
-      <c r="B189" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5">
-      <c r="B190" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C190" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" ht="37.5">
-      <c r="B191" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C191" s="1" t="s">
+    </row>
+    <row r="192" spans="2:6" ht="37.5">
+      <c r="B192" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C192" t="s">
         <v>207</v>
-      </c>
-      <c r="D191" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" ht="37.5">
-      <c r="B192" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C192" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="37.5">
       <c r="B193" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C193" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="37.5">
       <c r="B194" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C194" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C195" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C196" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C197" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C198" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C199" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="56.25">
       <c r="B200" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="37.5">
       <c r="B201" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D201" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E201" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="37.5">
       <c r="B202" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C203" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="37.5">
       <c r="B205" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C205" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="37.5">
       <c r="B206" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="37.5">
       <c r="B207" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="37.5">
       <c r="B208" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C208" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C209" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="37.5">
       <c r="B210" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C211" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D211" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C212" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C213" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="37.5">
       <c r="B214" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="37.5">
       <c r="B215" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="37.5">
       <c r="B216" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="37.5">
       <c r="B218" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="219" spans="2:5">
       <c r="B219" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C221" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D221" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E221" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="37.5">
       <c r="B222" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="37.5">
       <c r="B223" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="37.5">
       <c r="B224" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C224" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="56.25">
       <c r="B225" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="37.5">
       <c r="B226" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="37.5">
       <c r="B227" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="37.5">
       <c r="B229" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="37.5">
       <c r="B230" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C231" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D231" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E231" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C232" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C233" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="37.5">
       <c r="B234" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C235" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="37.5">
       <c r="B236" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="37.5">
       <c r="B237" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="37.5">
       <c r="B238" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="37.5">
       <c r="B239" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="56.25">
       <c r="A241" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D241" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E241" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="37.5">
       <c r="B243" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="37.5">
       <c r="B244" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="B245" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="37.5">
       <c r="B246" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="B247" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="37.5">
       <c r="B248" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="37.5">
       <c r="B249" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="37.5">
       <c r="B250" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="37.5">
       <c r="B251" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D251" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E251" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="37.5">
       <c r="B252" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="B253" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="37.5">
       <c r="B254" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="37.5">
       <c r="B255" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="37.5">
       <c r="B256" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="257" spans="2:5">
       <c r="B257" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="258" spans="2:5" ht="37.5">
       <c r="B258" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="259" spans="2:5" ht="37.5">
       <c r="B259" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="260" spans="2:5">
       <c r="B260" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="261" spans="2:5" ht="37.5">
       <c r="B261" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C261" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D261" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E261" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="262" spans="2:5">
       <c r="B262" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C262" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="263" spans="2:5" ht="37.5">
       <c r="B263" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C263" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="264" spans="2:5" ht="37.5">
       <c r="B264" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C264" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="265" spans="2:5">
       <c r="B265" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C265" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="266" spans="2:5">
       <c r="B266" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C266" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="267" spans="2:5" ht="56.25">
       <c r="B267" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="268" spans="2:5" ht="37.5">
       <c r="B268" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="269" spans="2:5" ht="37.5">
       <c r="B269" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="270" spans="2:5" ht="37.5">
       <c r="B270" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="271" spans="2:5" ht="37.5">
       <c r="B271" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D271" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E271" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="272" spans="2:5" ht="37.5">
       <c r="B272" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="273" spans="2:5">
       <c r="B273" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="274" spans="2:5" ht="56.25">
       <c r="B274" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="275" spans="2:5" ht="37.5">
       <c r="B275" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="276" spans="2:5">
       <c r="B276" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="277" spans="2:5" ht="37.5">
       <c r="B277" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="278" spans="2:5" ht="37.5">
       <c r="B278" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="279" spans="2:5" ht="37.5">
       <c r="B279" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="280" spans="2:5" ht="37.5">
       <c r="B280" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="37.5">
       <c r="B281" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D281" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E281" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="282" spans="2:5" ht="37.5">
       <c r="B282" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="2:5" ht="37.5">
       <c r="B283" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="284" spans="2:5">
       <c r="B284" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="285" spans="2:5" ht="37.5">
       <c r="B285" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="286" spans="2:5">
       <c r="B286" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="37.5">
       <c r="B287" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="288" spans="2:5" ht="37.5">
       <c r="B288" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="37.5">
       <c r="B289" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="37.5">
       <c r="B290" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="291" spans="2:5">
       <c r="B291" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D291" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E291" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="37.5">
       <c r="B292" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="37.5">
       <c r="B293" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="37.5">
       <c r="B294" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="2:5" ht="37.5">
       <c r="B295" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="37.5">
       <c r="B296" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="37.5">
       <c r="B297" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="37.5">
       <c r="B298" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="299" spans="2:5">
       <c r="B299" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="37.5">
       <c r="B300" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="301" spans="2:5">
       <c r="B301" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D301" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="302" spans="2:5" ht="37.5">
       <c r="B302" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="303" spans="2:5" ht="37.5">
       <c r="B303" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="304" spans="2:5">
       <c r="B304" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="305" spans="2:5" ht="37.5">
       <c r="B305" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="306" spans="2:5" ht="37.5">
       <c r="B306" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="307" spans="2:5" ht="37.5">
       <c r="B307" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="308" spans="2:5" ht="37.5">
       <c r="B308" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="2:5" ht="37.5">
       <c r="B309" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="310" spans="2:5" ht="37.5">
       <c r="B310" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="311" spans="2:5" ht="37.5">
       <c r="B311" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D311" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E311" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="312" spans="2:5">
       <c r="B312" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="313" spans="2:5">
       <c r="B313" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="314" spans="2:5" ht="37.5">
       <c r="B314" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="315" spans="2:5" ht="37.5">
       <c r="B315" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="316" spans="2:5">
       <c r="B316" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="317" spans="2:5">
       <c r="B317" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="318" spans="2:5" ht="37.5">
       <c r="B318" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="319" spans="2:5" ht="37.5">
       <c r="B319" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="320" spans="2:5" ht="37.5">
       <c r="B320" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="37.5">
       <c r="B321" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D321" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E321" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="37.5">
       <c r="B322" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="37.5">
       <c r="B323" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="324" spans="2:5">
       <c r="B324" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="37.5">
       <c r="B325" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="37.5">
       <c r="B326" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="327" spans="2:5">
       <c r="B327" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="37.5">
       <c r="B328" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="37.5">
       <c r="B329" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="37.5">
       <c r="B330" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="37.5">
       <c r="B331" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D331" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E331" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="332" spans="2:5">
       <c r="B332" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="37.5">
       <c r="B333" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="2:5">
       <c r="B334" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="37.5">
       <c r="B335" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="336" spans="2:5">
       <c r="B336" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="37.5">
       <c r="B337" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="37.5">
       <c r="B338" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="56.25">
       <c r="B340" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="37.5">
       <c r="B341" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D341" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="342" spans="2:5">
       <c r="B342" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="37.5">
       <c r="B343" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="344" spans="2:5">
       <c r="B344" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="345" spans="2:5">
       <c r="B345" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="37.5">
       <c r="B346" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="347" spans="2:5">
       <c r="B347" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="348" spans="2:5">
       <c r="B348" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="349" spans="2:5">
       <c r="B349" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="37.5">
       <c r="B350" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D351" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E351" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="37.5">
       <c r="B352" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="353" spans="2:5">
       <c r="B353" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="354" spans="2:5">
       <c r="B354" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="37.5">
       <c r="B355" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="356" spans="2:5">
       <c r="B356" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="37.5">
       <c r="B357" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="358" spans="2:5">
       <c r="B358" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="359" spans="2:5">
       <c r="B359" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="360" spans="2:5">
       <c r="B360" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="361" spans="2:5">
       <c r="B361" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D361" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E361" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="362" spans="2:5">
       <c r="B362" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="37.5">
       <c r="B363" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="364" spans="2:5">
       <c r="B364" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="37.5">
       <c r="B365" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="366" spans="2:5">
       <c r="B366" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="368" spans="2:5">
       <c r="B368" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="369" spans="2:6">
       <c r="B369" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="370" spans="2:6" ht="37.5">
       <c r="B370" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="371" spans="2:6">
       <c r="B371" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D371" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E371" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="372" spans="2:6">
       <c r="B372" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="373" spans="2:6" ht="37.5">
       <c r="B373" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="374" spans="2:6" ht="37.5">
       <c r="B374" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="375" spans="2:6" ht="37.5">
       <c r="B375" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="376" spans="2:6">
       <c r="B376" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="377" spans="2:6" ht="37.5">
       <c r="B377" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="378" spans="2:6" ht="37.5">
       <c r="B378" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="379" spans="2:6" ht="56.25">
       <c r="B379" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="380" spans="2:6">
       <c r="B380" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="381" spans="2:6" ht="409.5">
       <c r="B381" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D381" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E381" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="382" spans="2:6" ht="37.5">
       <c r="B382" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="383" spans="2:6">
       <c r="B383" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="384" spans="2:6" ht="37.5">
       <c r="B384" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="37.5">
       <c r="B385" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="37.5">
       <c r="B386" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="37.5">
       <c r="B387" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="388" spans="2:5">
       <c r="B388" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="37.5">
       <c r="B389" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="56.25">
       <c r="B390" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="391" spans="2:5">
       <c r="B391" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D391" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E391" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="37.5">
       <c r="B392" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="37.5">
       <c r="B393" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="37.5">
       <c r="B394" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="37.5">
       <c r="B395" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="398" spans="2:5">
       <c r="B398" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="37.5">
       <c r="B399" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="37.5">
       <c r="B400" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="37.5">
       <c r="B401" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D401" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E401" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="37.5">
       <c r="B402" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="403" spans="2:5">
       <c r="B403" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="37.5">
       <c r="B404" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="37.5">
       <c r="B405" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="37.5">
       <c r="B406" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="37.5">
       <c r="B407" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="408" spans="2:5">
       <c r="B408" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="37.5">
       <c r="B409" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="37.5">
       <c r="B410" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="37.5">
       <c r="B411" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D411" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E411" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="412" spans="2:5">
       <c r="B412" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="37.5">
       <c r="B413" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="37.5">
       <c r="B414" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="415" spans="2:5">
       <c r="B415" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="37.5">
       <c r="B416" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="417" spans="2:5">
       <c r="B417" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="418" spans="2:5">
       <c r="B418" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="419" spans="2:5">
       <c r="B419" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="56.25">
       <c r="B420" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="37.5">
       <c r="B421" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D421" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E421" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="37.5">
       <c r="B422" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="37.5">
       <c r="B423" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="56.25">
       <c r="B424" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="37.5">
       <c r="B425" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="37.5">
       <c r="B426" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="37.5">
       <c r="B427" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="37.5">
       <c r="B428" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="429" spans="2:5">
       <c r="B429" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="430" spans="2:5">
       <c r="B430" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="431" spans="2:5">
       <c r="B431" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D431" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E431" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="37.5">
       <c r="B432" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="B433" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="37.5">
       <c r="B434" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="93.75">
       <c r="B435" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="131.25">
       <c r="B436" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="37.5">
       <c r="B437" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="37.5">
       <c r="B438" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="37.5">
       <c r="B439" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="B440" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="37.5">
       <c r="A441" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D441" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E441" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="37.5">
       <c r="B442" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="37.5">
       <c r="B443" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="37.5">
       <c r="B444" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="131.25">
       <c r="B445" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="37.5">
       <c r="B446" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="37.5">
       <c r="B447" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="37.5">
       <c r="B448" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="56.25">
       <c r="B449" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="37.5">
       <c r="B450" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="451" spans="2:5">
       <c r="B451" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D451" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E451" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="37.5">
       <c r="B452" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="37.5">
       <c r="B453" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="37.5">
       <c r="B454" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="37.5">
       <c r="B455" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="37.5">
       <c r="B456" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="37.5">
       <c r="B457" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="458" spans="2:5">
       <c r="B458" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="459" spans="2:5">
       <c r="B459" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="460" spans="2:5" ht="37.5">
       <c r="B460" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="461" spans="2:5">
       <c r="B461" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D461" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E461" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="462" spans="2:5">
       <c r="B462" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="463" spans="2:5">
       <c r="B463" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="464" spans="2:5">
       <c r="B464" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="37.5">
       <c r="B465" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="466" spans="2:5">
       <c r="B466" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="467" spans="2:5">
       <c r="B467" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="37.5">
       <c r="B468" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="469" spans="2:5">
       <c r="B469" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="470" spans="2:5">
       <c r="B470" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="37.5">
       <c r="B471" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D471" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E471" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="472" spans="2:5" ht="37.5">
       <c r="B472" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="37.5">
       <c r="B473" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="37.5">
       <c r="B474" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="37.5">
       <c r="B475" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="37.5">
       <c r="B476" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="37.5">
       <c r="B477" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="478" spans="2:5">
       <c r="B478" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="37.5">
       <c r="B479" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="37.5">
       <c r="B480" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="481" spans="2:6" ht="37.5">
       <c r="B481" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D481" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E481" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="482" spans="2:6">
       <c r="B482" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="483" spans="2:6" ht="37.5">
       <c r="B483" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="484" spans="2:6" ht="75">
       <c r="B484" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="485" spans="2:6">
       <c r="B485" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="486" spans="2:6" ht="37.5">
       <c r="B486" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="487" spans="2:6" ht="37.5">
       <c r="B487" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="488" spans="2:6" ht="112.5">
       <c r="B488" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="489" spans="2:6" ht="225">
       <c r="B489" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="490" spans="2:6" ht="37.5">
       <c r="B490" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="491" spans="2:6" ht="37.5">
       <c r="B491" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D491" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E491" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="492" spans="2:6">
       <c r="B492" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="493" spans="2:6" ht="37.5">
       <c r="B493" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="494" spans="2:6">
       <c r="B494" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="495" spans="2:6" ht="37.5">
       <c r="B495" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="496" spans="2:6" ht="37.5">
       <c r="B496" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="497" spans="2:6" ht="243.75">
       <c r="B497" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="498" spans="2:6" ht="37.5">
       <c r="B498" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="499" spans="2:6" ht="37.5">
       <c r="B499" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="500" spans="2:6" ht="37.5">
       <c r="B500" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="501" spans="2:6">
       <c r="B501" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D501" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E501" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="502" spans="2:6" ht="37.5">
       <c r="B502" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="503" spans="2:6">
       <c r="B503" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="504" spans="2:6">
       <c r="B504" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="505" spans="2:6" ht="37.5">
       <c r="B505" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="506" spans="2:6" ht="37.5">
       <c r="B506" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="507" spans="2:6">
       <c r="B507" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="508" spans="2:6" ht="37.5">
       <c r="B508" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="509" spans="2:6">
       <c r="B509" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="510" spans="2:6" ht="409.5">
       <c r="B510" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="511" spans="2:6">
       <c r="B511" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D511" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E511" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="512" spans="2:6" ht="318.75">
       <c r="B512" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="513" spans="2:6" ht="409.5">
       <c r="B513" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="515" spans="2:6" ht="56.25">
       <c r="B515" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="516" spans="2:6" ht="37.5">
       <c r="B516" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="518" spans="2:6" ht="409.5">
       <c r="B518" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="519" spans="2:6" ht="409.5">
       <c r="B519" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="520" spans="2:6" ht="409.5">
       <c r="B520" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="521" spans="2:6">
       <c r="B521" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D521" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E521" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="522" spans="2:6" ht="37.5">
       <c r="B522" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="523" spans="2:6">
       <c r="B523" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="524" spans="2:6">
       <c r="B524" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="525" spans="2:6">
       <c r="B525" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="526" spans="2:6">
       <c r="B526" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="527" spans="2:6">
       <c r="B527" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="528" spans="2:6" ht="356.25">
       <c r="B528" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="529" spans="2:6" ht="409.5">
       <c r="B529" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="530" spans="2:6" ht="409.5">
       <c r="B530" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="531" spans="2:6">
       <c r="B531" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D531" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E531" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="532" spans="2:6" ht="409.5">
       <c r="B532" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="533" spans="2:6">
       <c r="B533" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="534" spans="2:6" ht="37.5">
       <c r="B534" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="535" spans="2:6" ht="37.5">
       <c r="B535" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="536" spans="2:6" ht="37.5">
       <c r="B536" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="537" spans="2:6" ht="37.5">
       <c r="B537" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="538" spans="2:6" ht="37.5">
       <c r="B538" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="539" spans="2:6" ht="37.5">
       <c r="B539" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="540" spans="2:6" ht="318.75">
       <c r="B540" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="541" spans="2:6" ht="37.5">
       <c r="B541" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D541" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E541" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="542" spans="2:6" ht="409.5">
       <c r="B542" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="543" spans="2:6">
       <c r="B543" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="544" spans="2:6" ht="37.5">
       <c r="B544" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="545" spans="2:6" ht="187.5">
       <c r="B545" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="546" spans="2:6" ht="409.5">
       <c r="B546" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="547" spans="2:6" ht="409.5">
       <c r="B547" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="548" spans="2:6" ht="409.5">
       <c r="B548" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="549" spans="2:6" ht="409.5">
       <c r="B549" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="550" spans="2:6" ht="409.5">
       <c r="B550" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="551" spans="2:6" ht="37.5">
       <c r="B551" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D551" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E551" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="552" spans="2:6" ht="37.5">
       <c r="B552" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="553" spans="2:6" ht="37.5">
       <c r="B553" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="554" spans="2:6" ht="409.5">
       <c r="B554" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="555" spans="2:6" ht="37.5">
       <c r="B555" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="556" spans="2:6" ht="37.5">
       <c r="B556" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="557" spans="2:6" ht="37.5">
       <c r="B557" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="558" spans="2:6" ht="409.5">
       <c r="B558" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="559" spans="2:6" ht="409.5">
       <c r="B559" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="560" spans="2:6" ht="409.5">
       <c r="B560" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="561" spans="2:6" ht="37.5">
       <c r="B561" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D561" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E561" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="562" spans="2:6">
       <c r="B562" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="563" spans="2:6" ht="409.5">
       <c r="B563" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="564" spans="2:6" ht="37.5">
       <c r="B564" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="565" spans="2:6" ht="37.5">
       <c r="B565" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="566" spans="2:6" ht="37.5">
       <c r="B566" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="567" spans="2:6" ht="37.5">
       <c r="B567" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="568" spans="2:6" ht="37.5">
       <c r="B568" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="569" spans="2:6" ht="409.5">
       <c r="B569" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="570" spans="2:6" ht="409.5">
       <c r="B570" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="571" spans="2:6" ht="37.5">
       <c r="B571" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D571" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E571" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="572" spans="2:6" ht="37.5">
       <c r="B572" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="573" spans="2:6" ht="37.5">
       <c r="B573" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="574" spans="2:6" ht="37.5">
       <c r="B574" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="575" spans="2:6">
       <c r="B575" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="576" spans="2:6">
       <c r="B576" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="577" spans="2:6" ht="409.5">
       <c r="B577" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="578" spans="2:6">
       <c r="B578" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="579" spans="2:6" ht="37.5">
       <c r="B579" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="580" spans="2:6">
       <c r="B580" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="581" spans="2:6" ht="409.5">
       <c r="B581" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D581" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E581" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="582" spans="2:6" ht="131.25">
       <c r="B582" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="583" spans="2:6" ht="375">
       <c r="B583" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="584" spans="2:6" ht="300">
       <c r="B584" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="585" spans="2:6">
       <c r="B585" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="586" spans="2:6">
       <c r="B586" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="587" spans="2:6" ht="37.5">
       <c r="B587" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="588" spans="2:6" ht="75">
       <c r="B588" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="589" spans="2:6" ht="409.5">
       <c r="B589" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="590" spans="2:6" ht="262.5">
       <c r="B590" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="591" spans="2:6" ht="37.5">
       <c r="B591" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D591" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E591" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="592" spans="2:6" ht="37.5">
       <c r="B592" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="593" spans="2:6" ht="37.5">
       <c r="B593" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="594" spans="2:6" ht="75">
       <c r="B594" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="595" spans="2:6" ht="168.75">
       <c r="B595" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="596" spans="2:6" ht="409.5">
       <c r="B596" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="597" spans="2:6" ht="37.5">
       <c r="B597" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="598" spans="2:6">
       <c r="B598" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="599" spans="2:6">
       <c r="B599" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="600" spans="2:6" ht="409.5">
       <c r="B600" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
   </sheetData>
@@ -21927,7 +22669,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -21935,7 +22677,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -21943,7 +22685,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -21951,7 +22693,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -21959,7 +22701,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -21967,7 +22709,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -21975,7 +22717,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -21983,7 +22725,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -21991,7 +22733,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -21999,7 +22741,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -22007,7 +22749,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -22015,7 +22757,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -22023,7 +22765,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -22031,7 +22773,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -22039,7 +22781,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -22047,7 +22789,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -22055,7 +22797,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -22063,7 +22805,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -22071,7 +22813,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -22079,7 +22821,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -22087,7 +22829,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -22095,7 +22837,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -22103,7 +22845,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -22111,7 +22853,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -22119,10 +22861,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C26" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -22130,7 +22872,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -22138,7 +22880,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -22146,7 +22888,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -22154,7 +22896,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -22162,7 +22904,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -22170,7 +22912,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -22178,7 +22920,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -22186,7 +22928,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22194,7 +22936,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -22202,7 +22944,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -22210,7 +22952,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -22218,7 +22960,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -22226,7 +22968,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -22234,7 +22976,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -22242,7 +22984,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -22250,7 +22992,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -22258,7 +23000,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -22266,7 +23008,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -22274,7 +23016,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -22282,10 +23024,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C46" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -22293,7 +23035,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -22301,7 +23043,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -22309,7 +23051,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -22317,7 +23059,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -22325,7 +23067,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -22333,7 +23075,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -22341,7 +23083,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -22349,7 +23091,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -22357,7 +23099,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -22365,7 +23107,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -22373,7 +23115,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -22381,7 +23123,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -22389,7 +23131,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -22397,7 +23139,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -22405,7 +23147,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1395">
   <si>
     <t xml:space="preserve">es</t>
   </si>
@@ -2641,22 +2641,65 @@
     <t xml:space="preserve">関係詞：donde,quien,el/la/los/las/lo + cual,cuyo</t>
   </si>
   <si>
+    <t xml:space="preserve">Es la nueva tesorera.
+→ 「彼女は新しい会計係です。」
+Te hablé de ella.
+→ 「私は彼女についてあなたに話しました。」
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">(私たち)フライトをキャンセルしなければいけません。したがいまして、チケット代金を払い戻しいたします</t>
   </si>
   <si>
     <t xml:space="preserve">Tendremos que suspender el vuelo, por lo cual les devolveremos el importe del billete.</t>
   </si>
   <si>
+    <t xml:space="preserve">彼は時間通りに来なかったため、私たちは先に出発しました。
+No llegó a tiempo, por lo cual salimos antes.
+この道が閉鎖されているので、別の道を探さなければなりません。
+Este camino está cerrado, por lo cual tenemos que buscar otro.
+彼女は非常に努力家です。そのため、全員から尊敬されています。
+Es muy trabajadora, por lo cual todos la respetan.
+天候が悪化してきた。それによって、イベントはキャンセルされました。
+El clima empeoró, por lo cual el evento fue cancelado.</t>
+  </si>
+  <si>
     <t xml:space="preserve">コスタリカはその平和主義政策に私が感銘を受ける国です</t>
   </si>
   <si>
     <t xml:space="preserve">Costa Rica es un país cuya política pacifista me admira.</t>
   </si>
   <si>
+    <t xml:space="preserve">5. 類似構造の例
+このような cuyo を使った表現は、所有関係を表現するのに便利です。いくつか例を挙げます：
+a) España es un país cuyos vinos son famosos.
+→ 「スペインは、そのワインが有名な国です。」
+（cuyos は vinos（男性複数名詞）に一致。）
+b) Conocí a una mujer cuyo hijo estudia medicina.
+→ 「私は息子が医学を勉強している女性に会いました。」
+（cuyo は hijo（男性単数名詞）に一致。）
+c) Leí un libro cuyas historias me fascinaron.
+→ 「私はその物語に感動した本を読みました。」
+（cuyas は historias（女性複数名詞）に一致。）
+6. 文法ポイントのまとめ
+cuyo, cuya, cuyos, cuyas は先行詞の性と数ではなく、後続する名詞の性と数に一致。
+日本語では所有を表す「～の」や「その～」として訳される。
+英語では "whose" に相当するが、文法構造がスペイン語独特なので慣れる必要があります。</t>
+  </si>
+  <si>
     <t xml:space="preserve">そのプログラムの責任者はMercheで、資金についても担当しています</t>
   </si>
   <si>
     <t xml:space="preserve">La responsable del programa es Merche, quien se encarga también de la financiación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">━～・se
+[再]
+1 ⸨de＋名詞…を⸩ 引き受ける，自分の責任下におく；⸨de＋不定詞／(de) que＋接続法…することを⸩ 引き受ける．
+encargarse de un niño｜子供の面倒を見る．
+encargarse de la venta｜販売を担当する．
+Ya me encargaré yo de conseguir el billete.｜私が切符を手配しましょう．
+</t>
   </si>
   <si>
     <t xml:space="preserve">それは娘が勉強している学校です</t>
@@ -6986,7 +7029,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7016,6 +7059,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -7062,7 +7112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7072,6 +7122,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7270,8 +7324,8 @@
   </sheetPr>
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D191" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F191" activeCellId="0" sqref="F191"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F196" activeCellId="0" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9014,7 +9068,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="2" t="s">
         <v>448</v>
       </c>
@@ -9024,3655 +9078,3667 @@
       <c r="D191" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F191" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="230" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>456</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="2" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="2" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="2" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="2" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="2" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="2" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="2" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="2" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="2" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="2" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="2" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="2" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="2" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="2" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="2" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="2" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="2" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="2" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="2" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="2" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="2" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="2" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="2" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="2" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="2" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="1033" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="2" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="2" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="2" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="2" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="2" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="2" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="2" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="2" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="2" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="2" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="2" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="2" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="2" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="2" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="2" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="2" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="2" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="2" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="2" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="2" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="2" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="2" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="2" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="2" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="2" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="2" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="2" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="2" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="2" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="2" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="2" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="2" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="2" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="2" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="2" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="2" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="2" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="2" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="2" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="2" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="2" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="2" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="2" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="2" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="2" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="2" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="86" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="2" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="2" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="2" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="2" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B440" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="2" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="2" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="2" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="2" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="2" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="2" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="2" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="2" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="2" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B452" s="2" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="2" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="2" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="2" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="2" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="2" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="2" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="2" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="2" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="2" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="2" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="2" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="2" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="2" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="2" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="2" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="2" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="2" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="2" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="2" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="2" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="2" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="2" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="2" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="2" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="2" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="2" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="2" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="2" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="2" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="74" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="146" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="2" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="2" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="2" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="2" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="2" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="2" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="2" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="2" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="158" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="2" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="2" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="2" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="2" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="2" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="2" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B503" s="2" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B504" s="2" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B505" s="2" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B506" s="2" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B507" s="2" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B508" s="2" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B509" s="2" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="349.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B510" s="2" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B511" s="2" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="206" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B512" s="2" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="337.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B513" s="2" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="2" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B515" s="2" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B516" s="2" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="2" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="349.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B518" s="2" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="385.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B519" s="2" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="469.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B520" s="2" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B521" s="2" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B522" s="2" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="2" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B524" s="2" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B525" s="2" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B526" s="2" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B527" s="2" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="230" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B528" s="2" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="302" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B529" s="2" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="493.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B530" s="2" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B531" s="2" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="517.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B532" s="2" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B533" s="2" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B534" s="2" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="2" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="2" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B537" s="2" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="2" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="2" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="206" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="2" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B541" s="2" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="649.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B542" s="2" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B543" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B544" s="2" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B545" s="2" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="433.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B546" s="2" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="1477" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B547" s="2" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="685.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B548" s="2" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="601.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B549" s="2" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="529.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B550" s="2" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B551" s="2" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B552" s="2" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B553" s="2" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="553.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B554" s="2" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="2" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B556" s="2" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B557" s="2" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="481.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B558" s="2" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="553.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="2" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="613.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="2" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B561" s="2" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="2" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="1453" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="2" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B564" s="2" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B565" s="2" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B566" s="2" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B567" s="2" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B568" s="2" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="445.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B569" s="2" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="325.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B570" s="2" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B571" s="2" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B572" s="2" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B573" s="2" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B574" s="2" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B575" s="2" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B576" s="2" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="325.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B577" s="2" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B578" s="2" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="2" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B580" s="2" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="796.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B581" s="2" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="89" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B582" s="2" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="242" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="2" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="194" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B584" s="2" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B585" s="2" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B586" s="2" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B587" s="2" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B588" s="2" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="709.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B589" s="2" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="170" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B590" s="2" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B591" s="2" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B592" s="2" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B593" s="2" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B594" s="2" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B595" s="2" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="1117" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="2" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="2" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B598" s="2" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B599" s="2" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="565.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B600" s="2" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
     </row>
   </sheetData>
@@ -12699,12 +12765,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.38"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -12712,7 +12778,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -12720,7 +12786,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -12728,7 +12794,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -12736,7 +12802,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -12744,7 +12810,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -12752,7 +12818,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -12760,7 +12826,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -12768,7 +12834,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -12776,7 +12842,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -12784,7 +12850,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -12792,7 +12858,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -12800,7 +12866,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -12808,7 +12874,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -12816,7 +12882,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -12824,7 +12890,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -12832,7 +12898,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -12840,7 +12906,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -12848,7 +12914,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -12856,7 +12922,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -12864,329 +12930,329 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="4" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="4" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="4" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="4" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="4" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="4" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="4" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="4" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="4" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="4" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="4" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="4" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="4" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="4" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="4" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="4" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="4" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="4" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
     </row>
   </sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1407">
   <si>
     <t xml:space="preserve">es</t>
   </si>
@@ -2714,22 +2714,96 @@
     <t xml:space="preserve">En la esquina había una farmacia, detrás de la cual estaba nuestra casa.</t>
   </si>
   <si>
+    <t xml:space="preserve">detrás de la cual はフォーマルで書き言葉的な響きがあります。
+カジュアルな場面では、次のような形でも同じ意味を伝えられます：
+...detrás de la que estaba nuestra casa.
+...detrás de una farmacia, donde estaba nuestra casa.
+Este es el parque en el que jugábamos.
+→ 「これが私たちが遊んだ公園です。」
+Ese es el lugar desde el cual puedes ver la playa.
+→ 「それがビーチを見渡せる場所です。」
+había → 「薬局が（そこに）存在していた」という情報を新しく伝える。
+estaba → 「私たちの家が薬局の後ろに位置していた」と位置を具体的に説明している。
+farmacia と casa は別の役割を果たしているため、動詞を揃えると不自然になります：
+× En la esquina estaba una farmacia, detrás de la cual estaba nuestra casa.
+→ 両方で estaba を使うと、薬局が特定されているかのような印象を与え、文脈的に不自然。
+× En la esquina había una farmacia, detrás de la cual había nuestra casa.
+→ 両方で había を使うと、家がまだ特定されていない情報であるかのように伝わり、ニュアンスがずれる。
+cual は必ず前置詞と一緒に使われます。前置詞 + cual で構成されるため、
+donde や cuando のように単独では使えません。
+a) 場所や位置に関する場合
+La casa en la cual vivo es muy antigua.
+→ 「私が住んでいる家はとても古いです。」
+en la cual = 「その中で（家の中で）」という意味。
+en の前置詞があるため cual を使います。
+b) 原因や理由に関する場合
+La razón por la cual decidimos mudarnos fue el trabajo.
+→ 「私たちが引っ越すことを決めた理由は仕事でした。」
+por la cual = 「それが理由で」
+前置詞 por があるので cual を使っています。
+c) 手段や方法に関する場合
+El modo en el cual lo hicimos fue muy eficiente.
+→ 「私たちがそれを行った方法は非常に効率的でした。」
+en el cual = 「その方法で」
+手段や方法を示す modo に一致する形で el cual が使われています。
+d) 複数の対象に関する場合
+Los libros sobre los cuales hablamos ayer son interesantes.
+→ 「私たちが昨日話した本は面白いです。」
+sobre los cuales = 「それらについて」
+libros（男性・複数）に一致する形で los cuales が使われています。
+cual（および変化形）は、前置詞と一緒に使うフォーマルな関係代名詞 です。
+donde や cuando のように場面や時を直接表すのではなく、
+前置詞と組み合わせて特定の名詞（性・数に一致）を指します。
+donde, cuando → 簡潔で日常的
+cual → 正確でフォーマル
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">これが空気が漏れている穴だ</t>
   </si>
   <si>
     <t xml:space="preserve">Este es el agujero por donde se escapa el aire.</t>
   </si>
   <si>
+    <t xml:space="preserve">Este es el agujero → 「これがその穴です」
+por donde → 「その穴を通って」
+se escapa el aire → 「漏れてる。空気が」</t>
+  </si>
+  <si>
     <t xml:space="preserve">家族みんなの中で、José Maríaが一番私に似ています</t>
   </si>
   <si>
     <t xml:space="preserve">De toda la familia, José María es quien más se parece a mí.</t>
   </si>
   <si>
+    <t xml:space="preserve">a) 先行詞の省略
+quien は通常、la persona（その人）などの先行詞を指しますが、この文では省略されています。
+実際には以下のような意味になります：
+José María es [la persona] quien más se parece a mí.
+「ホセ・マリアは[最も私に似ている人]です。」
+b) フォーマルさ
+quien は関係代名詞 que と同様に使える場合もありますが、
+特に「人」に限定する場合に使われ、que よりフォーマルなニュアンスがあります。
+c) quien más se parece a mí
+quien → 「～する人」
+más → 比較級を強調する単語で、「最も」「より～」の意味。
+se parece → 動詞 parecerse（～に似ている）の三人称単数形。再帰動詞として使われています。
+a mí → 「私に（似ている）」という対象を示す表現。
+→ quien más se parece a mí 全体で「最も私に似ている人」という意味になります。</t>
+  </si>
+  <si>
     <t xml:space="preserve">経済力があった人たちは国から出ていきました</t>
   </si>
   <si>
     <t xml:space="preserve">Quienes tenían recursos económicos se fueron del país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">疑問文と関係詞の文を交互に音声で聞く練習をすると、
+イントネーションや文構造の違いが徐々にわかるようになります。例えば：
+¿Quiénes están en casa? → 疑問文
+Quienes están en casa son mis amigos. → 関係詞文
+¿Quién vino ayer? → 疑問文
+Quien vino ayer fue mi hermano. → 関係詞文</t>
   </si>
   <si>
     <t xml:space="preserve">「昨夜はどうだった？」
@@ -2740,6 +2814,15 @@
 Muy bien. Donde estuvimos la música era buenísima.</t>
   </si>
   <si>
+    <t xml:space="preserve">このような donde + 動詞 の形は、
+話し手が特定の場所を背景として述べたいときによく使われます。
+Donde comimos ayer, la comida era deliciosa.
+→ 「昨日食べた場所では、料理がとても美味しかった。」
+Donde vivimos ahora, hay mucha tranquilidad.
+→ 「今住んでいる場所では、とても静かだ。」
+このパターンを覚えておくと、状況や場所を説明するのに役立ちます！</t>
+  </si>
+  <si>
     <t xml:space="preserve">「ビールの方が好き？あるいはワイン？」
 「実のところ、ワインよりビールをよく飲みます」</t>
   </si>
@@ -2760,6 +2843,49 @@
     <t xml:space="preserve">Antonio cocina mejor que yo en general, pero este plato me sale mejor a mí que a él.</t>
   </si>
   <si>
+    <t xml:space="preserve">1. 文全体の意味
+「アントニオは全般的には私より料理が上手だけど、この料理に関しては私の方が彼より上手くできる。」
+2. me sale mejor の構造
+a) 動詞 salir の使い方
+salir は基本的に「出る」「出発する」などの意味を持つ動詞ですが、
+この場合は「うまくいく」「仕上がる」というニュアンスで使われています。
+me sale mejor の直訳は「（この料理が）私にとってより良く仕上がる」となります。
+b) me の役割
+me は間接目的語で、「私に」という意味。
+「その料理が私の手によって良い結果になる」というニュアンスを表しています。
+3. a mí の役割
+a mí は me を補強する形で、「私」を強調しています。
+直訳すると「私の方が」という意味になり、比較の際に使われます。
+例：
+Me sale mejor. → 「私の方がうまくできる。」
+Me sale mejor a mí. → 「（他の人ではなく）私の方がうまくできる。」
+4. que a él の役割
+que a él は「彼よりも」という比較を表しています。
+a él も間接目的語の強調形で、「彼」を指しています。
+5. 文法的ポイントまとめ
+a) 強調のための a mí と a él
+スペイン語では、間接目的語代名詞（me, te, le, nos など）が文中にすでに含まれていても、
+強調や対比を表現するために a mí, a él, a nosotros のように明示的な形を加えることがあります。
+b) salir mejor のニュアンス
+「出来が良い」「うまくいく」という評価を表すときに salir mejor を使います。
+比較を伴う場合、主語が異なることで誰の方がうまくできるかを示せます。
+6. 自然な日本語訳のバリエーション
+「この料理に関しては、私の方が彼より上手く作れる。」
+「この料理は、私が作る方が彼より出来が良い。」
+7. 応用例
+以下のように salir を使った比較表現は日常的に使えます：
+Este pastel me sale mejor que a mi hermana.
+→ 「このケーキは私の方が妹より上手く作れる。」
+A ellos les sale más barato viajar en tren que en avión.
+→ 「彼らにとっては電車で旅行する方が飛行機より安上がりだ。」
+A nosotros nos sale bien todo cuando trabajamos en equipo.
+→ 「私たちはチームで働くと、何でもうまくいく。」
+8. 結論
+me sale mejor a mí que a él は、強調や比較のニュアンスをしっかり持った表現です。
+「結果が良い」というニュアンスで salir を使うこの構文は、
+話し手の感覚や評価を伝えるのにとても便利な表現ですよ！</t>
+  </si>
+  <si>
     <t xml:space="preserve">甥のRubénは姪のBelénより2歳年上です</t>
   </si>
   <si>
@@ -2772,16 +2898,126 @@
     <t xml:space="preserve">La cuestión económica es de mayor prioridad que los demás problemas.</t>
   </si>
   <si>
+    <t xml:space="preserve">5. 直訳と自然な日本語訳の違い
+直訳: 「経済的な問題は、より高い優先度のものである。」
+自然な訳: 「経済的な問題は他の問題よりも優先度が高い。」
+6. 応用ポイント
+この de の使い方は、対象の特徴や属性を強調したいときに便利です。
+例文：
+Es un tema de suma importancia.
+→ 非常に重要な話題だ。
+（直訳：非常に重要性を持つ話題）
+Una persona de gran inteligencia.
+→ 非常に知的な人。
+（直訳：大きな知性を持つ人）
+El debate es de interés nacional.
+→ その議論は国全体の関心事だ。
+（直訳：国の興味に関する議論）
+結論
+de は「～の」「～を持つ」という属性や特徴を示す前置詞として使われています。
+de mayor prioridad のような表現は、高度なニュアンスを持つスペイン語らしい構文で、
+頻繁に使われるため覚えておくと便利です！
+ワイの補足：
+es de で、ん？ってなったけど de はesにくっついてるわけではなくて
+de mayor prioridadのほうだったのね、
+名詞句にdeがつくことで、所属してるみたいな感じが出る
+より優先度の高いもの</t>
+  </si>
+  <si>
     <t xml:space="preserve">私(女性)はオフィスで一番の新入りで、Víctorは一番長くいる人です</t>
   </si>
   <si>
     <t xml:space="preserve">Yo soy la más nueva de la oficina y Víctor es el que lleva más años.</t>
   </si>
   <si>
+    <t xml:space="preserve">1. 文全体の意味
+「私はオフィスで一番新しく、ビクトルは一番勤続年数が長い人です。」
+2. el que lleva más años の文法構造
+a) el que の役割
+el que は「～する人」「～するもの」という意味を表します。
+文法的には 関係代名詞 を含む構造で、Víctor を説明しています。
+直訳：「最も多くの年数を過ごしている（人）」
+el は「人」を指しており、性別や数によって la que, los que, las que に変化します。
+b) lleva más años の解釈
+llevar años は「（特定の状況や場所で）年数を過ごす」という意味です。
+例：Lleva cinco años trabajando aquí. → 「彼はここで5年働いている。」
+この文では más（より多い）が加わっているので、
+「最も多くの年数を過ごしている」というニュアンスになります。
+3. el que lleva más años を分解して訳すと
+el que
+→ 「～する人」
+lleva
+→ 「（彼が）過ごしている」
+más años
+→ 「より多くの年数」
+全体で 「最も長く勤続している人」 という意味になります。
+4. 対応する日本語の言い方
+日本語では、関係代名詞をそのまま訳すのではなく、説明的な表現で訳すのが自然です。
+直訳: 「より多くの年数を過ごしている人」
+自然な訳: 「一番勤続年数が長い人」
+5. 応用例
+el que/la que/los que/las que の形は非常に汎用的で、さまざまな場面で使われます。
+人を指す場合
+Soy la que siempre llega tarde.
+→ 私はいつも遅刻する人です。
+Ellos son los que viven en esa casa.
+→ 彼らがあの家に住んでいる人たちです。
+物を指す場合
+Esta es la silla en la que me siento siempre.
+→ これが私がいつも座る椅子です。
+Esos son los libros que compré ayer.
+→ これらは私が昨日買った本です。
+6. 結論
+el que lleva más años は「最も長く勤続している人」を表す便利な構文です。
+このような el que/la que/los que/las que の形は、
+特定の人や物を説明したり強調する際に頻繁に使われるため、
+日常会話や文章で活用できるように覚えておくと良いでしょう！</t>
+  </si>
+  <si>
     <t xml:space="preserve">この計画は、もう一つのほど利益は出ないけれども、より確実です</t>
   </si>
   <si>
     <t xml:space="preserve">Este plan no es tan rentable como el otro, pero es más seguro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 文全体の意味
+「このプランはもう一つのプランほど収益性は高くありませんが、より安全です。」
+2. 文法構造
+a) no es tan rentable como el otro
+no es tan... como...
+「～ほど...ではない」という比較表現。
+tan... como... は形容詞や副詞を用いて、同程度の比較を行う際に使います。
+ここでは rentable（収益性が高い） が形容詞として使われています。
+例: Esta casa no es tan grande como la otra.
+→ この家はもう一つの家ほど大きくありません。
+rentable
+「利益が出る」「収益性が高い」という意味の形容詞。
+文脈に応じて「効率的」「価値がある」などのニュアンスでも使えます。
+más + 形容詞 で「より～」という意味の比較表現。
+seguro は「安全な」という意味の形容詞。
+ここでは「このプランの方が（もう一方のプランより）安全性が高い」というニュアンスを表しています。
+3. 訳し方と解釈
+この文を日本語にすると以下のように訳せます：
+「このプランはもう一方のプランほど収益性は高くありませんが、より安全です。」
+ポイント
+tan... como... の表現が収益性を比較しており、具体的な点で劣っていることを示す。
+más seguro で「安全性が高い」という別の利点を強調し、対比構造を形成。
+4. 応用例
+同じ構文を使った例
+Esta opción no es tan barata como la otra, pero es más rápida.
+→ この選択肢はもう一方ほど安くはありませんが、より速いです。
+Este coche no es tan moderno como aquel, pero es más fiable.
+→ この車はあれほどモダンではありませんが、より信頼性があります。
+比較の異なる表現
+Es más caro que el otro, pero también más eficiente.
+→ これはもう一つより高いですが、より効率的です。
+No es tan difícil como parece.
+→ それは見た目ほど難しくありません。
+5. 結論
+この文は tan... como... と más + 形容詞 を組み合わせた比較表現を使い、
+プラン同士を2つの基準（収益性と安全性）で比較しています。
+このような構造は日常的によく使われるため、
+さまざまな形容詞で応用できるようになると便利です！</t>
   </si>
   <si>
     <t xml:space="preserve">「講演どうだった？」
@@ -2792,12 +3028,108 @@
 Ha sido más interesante de lo que pensaba.</t>
   </si>
   <si>
+    <t xml:space="preserve">2. de lo que の文法的な役割
+a) 比較表現の一部
+más interesante de lo que pensaba は、
+「私が思っていたよりも面白い」という比較を表しています。
+de lo que は、「～よりも」という比較を導くためのフレーズで、
+後に続く節（pensaba）と比較対象をつなぐ役割を果たします。
+b) lo の役割
+lo は中性形で、特定の名詞を指しているわけではなく、「物事」や「状況」などの抽象的な概念を指します。
+ここでは「自分が思っていたこと」を抽象的に指しています。
+c) pensaba の役割
+動詞 pensaba（思っていた）は、話し手の過去の考えや予想を表します。
+de lo que pensaba →「自分が思っていたことよりも」という意味になります。
+3. 解釈のポイント
+más interesante
+→ 基準を超える「より面白い」という意味。
+de lo que pensaba
+→ 「私が思っていた基準」を示す。
+直訳すれば、「私が思っていた基準よりも面白かった」 ということになります。
+4. 類似表現
+de lo que を使った他の例：
+a) 形容詞と組み合わせる場合
+El problema es más complicado de lo que imaginábamos.
+→ 問題は私たちが想像していたよりも複雑です。
+Es más alto de lo que parece.
+→ 彼は見た目よりも背が高いです。
+b) 副詞と組み合わせる場合
+Llegaron más temprano de lo que esperábamos.
+→ 彼らは私たちが予想していたより早く到着しました。
+El examen fue más fácil de lo que pensábamos.
+→ 試験は私たちが思っていたより簡単でした。
+5. de lo que を使わない比較表現との違い
+単純な比較では que のみを使いますが、de lo que は 節（動詞を含む構造） を導く際に使います。
+a) que を使った場合
+Es más interesante que este libro.
+→ この本より面白い。
+b) de lo que を使った場合
+Es más interesante de lo que pensaba.
+→ 私が思っていたより面白い。
+6. 応用例
+de lo que を覚えておくと、比較表現をより柔軟に使えるようになります：
+Gasté más dinero de lo que esperaba.
+→ 私が予想していたよりお金を使いました。
+Hace más calor de lo que suele hacer en esta época.
+→ この時期にしては普段より暑いです。
+El concierto fue mejor de lo que imaginaba.
+→ コンサートは想像していたより良かったです。
+7. 結論
+"de lo que" は「～よりも」という比較を導くために使われ、
+特に動詞を含む節（考えや予想など）を基準として比較するときに使われます。
+形容詞や副詞の比較表現とセットで頻繁に使われるため、
+実際の会話や文章で多用される便利な構文です！</t>
+  </si>
+  <si>
     <t xml:space="preserve">この部屋はほかの部屋よりも狭いですが、ずっと日当たりがいいです</t>
   </si>
   <si>
     <t xml:space="preserve">En esta habitación hay menos espacio pero mucha más luz que en las otras.</t>
   </si>
   <si>
+    <t xml:space="preserve">1. 文全体の意味
+「この部屋には他の部屋ほど広さはありませんが、ずっと明るいです。」
+2. 文法構造の解説
+menos espacio
+menos は「より少ない」という意味の比較級。
+espacio は「空間、スペース」という意味の名詞。
+全体で「より少ない空間がある」という意味になります。
+b) pero mucha más luz
+pero
+対比を表す接続詞で「しかし、けれども」という意味です。
+mucha más luz
+mucha は「たくさんの」という意味の形容詞。
+más は「より多い」という意味の比較級。
+luz は「光」という意味の女性名詞。
+全体で「より多くの光がある」という意味になります。
+c) que en las otras
+que
+比較対象を示す接続詞で、「～よりも」を表します。
+en las otras
+en は場所を示す前置詞で、「～に／で」という意味です。
+las otras は「他の（部屋）」を指します。前に habitación が出ているため、
+ここでは las otras habitaciones と省略されています。
+3. 解釈のポイント
+menos espacio と mucha más luz の対比が重要です。
+空間が狭い（マイナスの要素）ことと、光が多い（プラスの要素）ことを比較しています。
+que en las otras は、「他の部屋と比べて」という意味で、比較対象を具体的に示しています。
+4. 同じ構文を使った例文
+En esta calle hay menos tráfico pero más ruido que en la otra.
+→ この通りはもう一つの通りより交通量は少ないですが、騒音が多いです。
+Este coche es menos caro pero mucho más rápido que los demás.
+→ この車は他の車より値段は安いですが、ずっと速いです。
+En mi ciudad hay menos parques pero más lugares históricos que en otras ciudades.
+→ 私の街には他の街より公園は少ないですが、歴史的な場所が多いです。
+5. 文のニュアンス
+menos espacio → この部屋が狭いというマイナス面を軽く述べています。
+mucha más luz → 明るさというポジティブな要素で部屋を評価しています。
+全体として、空間は狭いけれども、明るいという利点を際立たせるバランスの取れた説明です。
+6. 結論
+この文は、比較級（menos, más）を用いて特徴を対比させる典型的な例です。
+比較対象（他の部屋）を具体的に示しつつ、それぞれの部屋の利点と欠点をバランスよく述べています。
+この構造を理解すると、日常会話や説明で役立つ多くの表現を作れるようになります！</t>
+  </si>
+  <si>
     <t xml:space="preserve">日本は世界で最も長寿の国の一つです</t>
   </si>
   <si>
@@ -2808,6 +3140,45 @@
   </si>
   <si>
     <t xml:space="preserve">En esa ciudad siempre hay tantos turistas extranjeros como nacionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c) tantos turistas extranjeros como nacionales
+tantos
+「同じくらいの数の」という意味の数量を示す比較表現。
+性数一致により、複数形（tantos）になっています（turistas に一致）。
+turistas extranjeros
+turistas は「観光客」を意味する名詞。男女両方を指せる複数形。
+extranjeros は「外国の」という意味の形容詞で、turistas と性数一致しています。
+全体で「外国人観光客」という意味。
+como nacionales
+como は「～と同じくらい」という意味の比較を表す接続詞。
+nacionales は「国内の」を意味する形容詞（名詞 turistas を省略している）。
+全体で「国内観光客と同じくらい」という意味になります。
+3. 比較表現のポイント
+この文では "tantos... como..." という数量の比較表現が使われています。
+a) tantos... como... の仕組み
+tantos turistas extranjeros como nacionales
+→ 「外国人観光客と同じくらい国内観光客がいる」という数量の一致を表しています。
+b) 類似表現
+Hay tantas personas aquí como en la otra sala.
+→ ここにはもう一つの部屋と同じくらいの人数がいます。
+Veo tantos problemas en este proyecto como en el anterior.
+→ このプロジェクトには前のプロジェクトと同じくらいの問題が見えます。
+4. 同じ構造を持つ例文
+En esta playa hay tantas sombrillas como toallas.
+→ このビーチにはパラソルと同じくらいタオルがあります。
+Siempre recibimos tantos mensajes por correo como por WhatsApp.
+→ 私たちはいつもメールと同じくらいWhatsAppでメッセージを受け取ります。
+En este mercado hay tantos productos frescos como en el supermercado.
+→ この市場にはスーパーと同じくらい新鮮な商品があります。
+5. 文のニュアンス
+この文は、外国人観光客と国内観光客の割合が均等であることを強調しています。
+対等な比較を示すことで、街が多様な観光客を惹きつけていることが暗に表現されています。
+6. 結論
+"tantos... como..." は数量や程度の一致を表現する際に便利な構造です。
+この文では「外国人観光客と国内観光客が同じくらい多い」という事実を表し、
+観光地の特徴を簡潔に伝えています。比較の仕組みを理解すると、
+同じ形式をさまざまな場面で応用できます！</t>
   </si>
   <si>
     <t xml:space="preserve">この辺を通る車はほとんどないんです</t>
@@ -7324,8 +7695,8 @@
   </sheetPr>
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F196" activeCellId="0" sqref="F196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A209" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F212" activeCellId="0" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9123,3622 +9494,3658 @@
         <v>462</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="781.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="2" t="s">
         <v>463</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F196" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>467</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="194" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>470</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="86" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>473</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="673.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="373.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>488</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="709.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>491</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="637.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>494</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="901.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="2" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>497</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="709.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="2" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="613.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="2" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>494</v>
+        <v>505</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="2" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="2" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="2" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="2" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="2" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="2" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="2" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="2" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="2" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="2" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="2" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="2" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="2" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="2" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="2" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="2" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="2" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="2" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="2" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="2" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="2" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="2" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="2" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="2" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="2" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="2" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="2" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="2" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="2" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="2" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="2" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="2" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="2" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="2" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="2" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="2" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="2" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="2" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="2" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="2" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="2" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="2" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="2" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="2" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="2" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="2" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="2" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="2" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="2" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="2" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="2" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="2" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="2" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="2" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="2" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="2" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="2" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="2" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="2" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="2" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="2" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="2" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="2" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="2" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="2" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="2" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="2" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="2" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="2" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="2" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="2" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="2" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="2" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="2" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="2" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="2" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="2" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="2" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="2" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="2" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="2" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="2" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="2" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="2" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="2" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="2" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="2" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="2" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="2" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="2" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="2" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="2" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="2" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="2" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="2" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="2" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="2" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="2" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="2" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="2" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="2" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="2" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="2" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="2" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="2" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="2" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="2" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="2" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="2" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="2" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="2" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="2" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="2" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="2" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="2" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="2" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="2" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="2" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="2" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="2" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="1033" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="2" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="2" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="2" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="2" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="2" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="2" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="2" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="2" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="2" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="2" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="2" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="2" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="2" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="2" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="2" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="2" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="2" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="2" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="2" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="2" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="2" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="2" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="2" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="2" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="2" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="2" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="2" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="2" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="2" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="2" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="2" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="2" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="2" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="2" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="2" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="2" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="2" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="2" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="2" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="2" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="2" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="2" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="2" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="2" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="2" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="2" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="2" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="2" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="2" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="2" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="2" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="2" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="2" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="2" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="2" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="86" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="2" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="2" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="2" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="2" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B440" s="2" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="2" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="2" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="2" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="2" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="2" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="2" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="2" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="2" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="2" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="2" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B452" s="2" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="2" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="2" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="2" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="2" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="2" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="2" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="2" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="2" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="2" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="2" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="2" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="2" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="2" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="2" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="2" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="2" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="2" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="2" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="2" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="2" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="2" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="2" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="2" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="2" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="2" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="2" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="2" t="s">
-        <v>1084</v>
+        <v>1096</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="2" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="2" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="2" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="2" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1095</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="2" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="2" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="2" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="2" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="74" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="2" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="146" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="2" t="s">
-        <v>1108</v>
+        <v>1120</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>1110</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="2" t="s">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="2" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1114</v>
+        <v>1126</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1115</v>
+        <v>1127</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="2" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="2" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="2" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="2" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="2" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="158" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="2" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="2" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="2" t="s">
-        <v>1132</v>
+        <v>1144</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1133</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="2" t="s">
-        <v>1134</v>
+        <v>1146</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1135</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="2" t="s">
-        <v>1136</v>
+        <v>1148</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1137</v>
+        <v>1149</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1139</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="2" t="s">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B503" s="2" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1143</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B504" s="2" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1145</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B505" s="2" t="s">
-        <v>1146</v>
+        <v>1158</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1147</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B506" s="2" t="s">
-        <v>1148</v>
+        <v>1160</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1149</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B507" s="2" t="s">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1151</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B508" s="2" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B509" s="2" t="s">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1155</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="349.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B510" s="2" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1157</v>
+        <v>1169</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>1158</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B511" s="2" t="s">
-        <v>1159</v>
+        <v>1171</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1161</v>
+        <v>1173</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1162</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="206" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B512" s="2" t="s">
-        <v>1163</v>
+        <v>1175</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1162</v>
+        <v>1174</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="337.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B513" s="2" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="2" t="s">
-        <v>1168</v>
+        <v>1180</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B515" s="2" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B516" s="2" t="s">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1173</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="2" t="s">
-        <v>1174</v>
+        <v>1186</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1175</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="349.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B518" s="2" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1177</v>
+        <v>1189</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>1178</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="385.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B519" s="2" t="s">
-        <v>1179</v>
+        <v>1191</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1180</v>
+        <v>1192</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>1181</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="469.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B520" s="2" t="s">
-        <v>1182</v>
+        <v>1194</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1183</v>
+        <v>1195</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>1184</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B521" s="2" t="s">
-        <v>1185</v>
+        <v>1197</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B522" s="2" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="2" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B524" s="2" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B525" s="2" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B526" s="2" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B527" s="2" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="230" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B528" s="2" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="302" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B529" s="2" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1205</v>
+        <v>1217</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="493.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B530" s="2" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B531" s="2" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="517.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B532" s="2" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B533" s="2" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B534" s="2" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1220</v>
+        <v>1232</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>1221</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="2" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="2" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B537" s="2" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="2" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="2" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="206" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="2" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B541" s="2" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="649.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B542" s="2" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B543" s="2" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B544" s="2" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B545" s="2" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="433.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B546" s="2" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="1477" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B547" s="2" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="685.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B548" s="2" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="601.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B549" s="2" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="529.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B550" s="2" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B551" s="2" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B552" s="2" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B553" s="2" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="553.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B554" s="2" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="2" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B556" s="2" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1277</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B557" s="2" t="s">
-        <v>1278</v>
+        <v>1290</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="481.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B558" s="2" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>1282</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="553.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="2" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="613.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="2" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B561" s="2" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="2" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="1453" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="2" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B564" s="2" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B565" s="2" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B566" s="2" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B567" s="2" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B568" s="2" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="445.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B569" s="2" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="325.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B570" s="2" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B571" s="2" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B572" s="2" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B573" s="2" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B574" s="2" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B575" s="2" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B576" s="2" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="325.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B577" s="2" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B578" s="2" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="2" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B580" s="2" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="796.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B581" s="2" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="89" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B582" s="2" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="242" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="2" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="194" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B584" s="2" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B585" s="2" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B586" s="2" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B587" s="2" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1356</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B588" s="2" t="s">
-        <v>1357</v>
+        <v>1369</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1358</v>
+        <v>1370</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="709.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B589" s="2" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="170" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B590" s="2" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B591" s="2" t="s">
-        <v>1366</v>
+        <v>1378</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1367</v>
+        <v>1379</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B592" s="2" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B593" s="2" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B594" s="2" t="s">
-        <v>1374</v>
+        <v>1386</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1376</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="110" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B595" s="2" t="s">
-        <v>1377</v>
+        <v>1389</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="1117" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="2" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="2" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B598" s="2" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B599" s="2" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="565.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B600" s="2" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
     </row>
   </sheetData>
@@ -12759,7 +13166,7 @@
   </sheetPr>
   <dimension ref="A2:C61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -12934,7 +13341,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12942,7 +13349,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12950,7 +13357,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12958,7 +13365,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12966,10 +13373,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12977,7 +13384,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12985,7 +13392,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12993,7 +13400,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13001,7 +13408,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13009,7 +13416,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13017,7 +13424,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13025,7 +13432,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13033,7 +13440,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13041,7 +13448,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13049,7 +13456,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13057,7 +13464,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13065,7 +13472,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13073,7 +13480,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13081,7 +13488,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13089,7 +13496,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13097,7 +13504,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13105,7 +13512,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13113,7 +13520,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13121,7 +13528,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13129,10 +13536,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13140,7 +13547,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13148,7 +13555,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13156,7 +13563,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13164,7 +13571,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13172,7 +13579,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1115</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13180,7 +13587,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1138</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13188,7 +13595,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1161</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13196,7 +13603,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13204,7 +13611,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13212,7 +13619,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13220,7 +13627,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13228,7 +13635,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13236,7 +13643,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13244,7 +13651,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13252,7 +13659,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37DC5E3-4B10-41BC-83EE-5C61E324AFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7548E6D8-7BFE-4483-944C-893ACBF88514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1420">
   <si>
     <t>es</t>
   </si>
@@ -7722,6 +7733,305 @@
   </si>
   <si>
     <t>[El^Ese] pueblo está a cien kilómetros de aquí.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>La semana pasada hubo dos terremotos bastante fuertes.
+¿Pasasteis miedo?
+このPasasteisの意味は何でしょうか？
+文脈から察するに、怖かったかどうか尋ねてるのだとおもうのですが
+pasarは、「通る」とか「過ごす」という意味で覚えているので、どうも意味が合いません。
+―――
+1. Pasar miedo の意味
+Pasar miedo は、「恐怖を経験する」「怖い思いをする」という意味です。
+Pasar（過ごす、通る）という動詞を 感情（この場合は miedo = 恐怖）と一緒に使うことで、
+「その感情を経験する」ことを表します。
+例:
+Pasar hambre.（空腹を経験する、飢える）
+Pasar vergüenza.（恥をかく、恥ずかしい思いをする）
+Pasar frío.（寒い思いをする）
+Pasar miedo も同じ構造で、「怖い思いをする」という意味になります。
+2. 文脈での解釈
+質問 "¿Pasasteis miedo?" は「怖い思いをしましたか？」という意味になります。
+Pasasteis は動詞 pasar の 二人称複数形（vosotros/as の過去形） です。
+つまり、「あなたたち（複数）が恐怖を経験しましたか？」と尋ねています。
+直訳:
+"¿Pasasteis miedo?"
+→ 「あなたたちは恐怖を過ごしましたか？」
+意味:
+→ 「怖かったですか？」
+3. Pasar の広い意味
+Pasar には、「通る」や「過ごす」以外にも「経験する」「何かを感じる」というニュアンスが含まれます。
+特に感情や状態を表す名詞と組み合わせると、この意味が強調されます。
+例文:
+He pasado un mal rato.
+（嫌な時間を過ごしました／嫌な思いをしました。）
+Pasaron muchas dificultades.
+（彼らは多くの困難を経験しました。）
+Pasamos mucho calor en el viaje.
+（旅行中にとても暑い思いをしました。）
+4. 他の類似表現
+同じ「怖い思いをする」という意味の他の表現：
+Tener miedo（恐怖を感じる）
+例: ¿Tuvisteis miedo?（あなたたちは怖かったですか？）
+Sentir miedo（恐怖を感じる）
+例: ¿Sentiste miedo?（あなたは怖かったですか？）
+ただし、日常会話では pasar miedo が自然でよく使われます。
+5. まとめ
+Pasasteis miedo? は「怖い思いをしましたか？」という意味です。
+Pasar は「通る」や「過ごす」だけでなく、「感情や状態を経験する」 という意味でも使われます。
+Pasar miedo のような表現は、スペイン語で非常に一般的で日常的です。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西暦のスペイン語の読み方は、日本語と同様に数字をそのまま読む形式ですが、
+スペイン語の数字のルールを覚えておくと簡単に理解できます。
+1. 例文の西暦：1956
+1956 はスペイン語で mil novecientos cincuenta y seis と読みます。
+読み方を分解すると：
+mil（1,000）
+novecientos（900）
+cincuenta（50）
+y seis（6）
+2. 他の西暦の例
+2023 → dos mil veintitrés
+1980 → mil novecientos ochenta
+1776 → mil setecientos setenta y seis
+1492 → mil cuatrocientos noventa y dos
+2025 → dos mil veinticinco
+3. ポイント
+千単位（1,000以上）
+1,000 は mil で表します。
+2,000 やそれ以上は、dos mil, tres mil のように mil の前に数字を置きます。
+百単位（100以上）
+cien（100）は、200以上になると複数形になり、doscientos, trescientos, cuatrocientos などを使います。
+900 までこのルールが適用されます。
+10～99の数字
+21～29は veintiuno, veintidós のように続けて書きます。
+それ以外は、treinta y uno, cuarenta y dos のように y を使って接続します。
+年の区切り方
+スペイン語では英語のように「19-56」のように2桁ずつ区切って読むことはせず、
+1,000単位から順番に読み上げるのが基本です。
+4. まとめ
+1956 → mil novecientos cincuenta y seis
+2023 → dos mil veintitrés</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Me dolía tanto la cabeza que no podía concentrarme en el trabajo.
+これはtantoとqueを使ったよくある構文ですか？
+―――
+はい、この文の "tanto... que" は非常によく使われる構文で、
+「あまりにも～なので～」や「～すぎて～」という意味を表します。
+この構文は感情や状態、結果を強調する際に日常会話や文章で頻繁に登場します。
+1. 文の構造
+文を分解すると以下のようになります：
+Me dolía tanto la cabeza
+→ 「私は頭があまりにも痛かった」
+tanto は「とても」「たくさん」という意味で、ここでは dolía（痛む）の程度を強調しています。
+que no podía concentrarme en el trabajo
+→ 「その結果、仕事に集中することができなかった」
+que は「結果」を導く接続詞として使われています。
+全体の意味： 「頭がとても痛かったので、仕事に集中することができなかった。」
+2. よくある "tanto... que" の使い方
+この構文は、主に程度や強さを表現して、結果を述べるときに使います。以下にいくつかの例を挙げます：
+例文：
+Llovió tanto que el río se desbordó.
+→ あまりにも雨が降ったので、川が氾濫した。
+Comió tanto que le dolía el estómago.
+→ 食べすぎてお腹が痛くなった。
+Trabajé tanto que terminé agotado.
+→ あまりにも働いたので、へとへとになった。
+Se rieron tanto que terminaron llorando.
+→ あまりにも笑いすぎて、泣いてしまった。
+3. 同様の構文との違い
+「tanto... que」は程度を強調する構文ですが、他にも似た表現があります：
+Tan... que
+形容詞や副詞を修飾する場合に使います。
+例: Era tan alto que no cabía en la habitación.
+（彼はとても背が高かったので、部屋に収まりきらなかった。）
+Tal... que
+名詞を強調する場合に使います。
+例: Fue tal su sorpresa que no pudo decir nada.
+（彼の驚きはあまりに大きく、何も言えなかった。）
+Tanto/a/os/as + 名詞 + que
+名詞の量を強調する場合に使います。
+例: Había tanta gente que no podíamos movernos.
+（人が多すぎて、身動きが取れなかった。）
+4. まとめ
+"Tanto... que" は頻出の構文で、強調と結果を伝えるときに非常に便利です。
+今回の例文では、「頭があまりにも痛かったので、集中できなかった」という結果を強調しています。
+似た構文も覚えておくと、より多彩な表現が可能になります！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+この文 "Cuando estábamos junto a él, el tiempo se nos pasaba sin darnos cuenta." は、
+「彼のそばにいるとき、時間が知らないうちに過ぎてしまった」という意味です。
+ここでは特に "se nos pasaba" の部分に焦点を当てて解説します。
+1. 文全体の構造
+文を分解すると以下のようになります：
+Cuando estábamos junto a él
+→ 「私たちが彼のそばにいたとき」
+過去の継続的な状況を表す estábamos（不完全過去形）を使用しています。
+el tiempo se nos pasaba
+→ 「時間が私たちにとって過ぎていった」
+se nos pasaba は「（時間が）過ぎていく」という表現ですが、
+「私たちに気づかれないうちに」というニュアンスを持たせています。
+sin darnos cuenta
+→ 「私たちが気づかないうちに」
+sin（～せずに）＋ 再帰動詞の現在分詞 darnos cuenta（気づく）で「知らない間に」を表します。
+2. "se nos pasaba" の詳細な解説
+(1) 動詞の基本形：pasarse
+pasarse は再帰動詞で、「（時間が）過ぎる」「通り過ぎる」という意味を持ちます。
+El tiempo se pasa. → 「時間が過ぎる」
+この文では pasarse の不完全過去形 se pasaba を使っており、
+「時間が（継続的に）過ぎていた」という意味を表しています。
+(2) "nos" の役割
+nos は nosotros/as（私たち）を指す間接目的語で、
+「私たちにとって」というニュアンスを付加しています。
+例：El tiempo nos pasaba. → 「時間が私たちにとって過ぎていた」
+(3) "se" の役割
+se はここで pasarse を再帰動詞として使うための再帰代名詞です。
+再帰動詞として使うことで、
+「時間が自然に、あるいは気づかれないうちに過ぎていく」というニュアンスを持たせています。
+(4) 全体のニュアンス
+se nos pasaba は「時間が私たちにとって、
+知らない間に自然に過ぎていった」という感覚を表現しています。
+nos が加わることで、話し手たち（私たち）がその時間の経過に影響を受けている、
+またはそれを主体的に感じていることを強調しています。
+3. 類似表現
+同じ構造やニュアンスを持つ表現をいくつか挙げます：
+Se me pasó la hora.
+→ 「時間が過ぎてしまった」（気づかないうちに）
+Cuando estábamos juntos, los días se nos hacían muy cortos.
+→ 「一緒にいるときは、日がとても短く感じられた」
+El tren se me fue mientras hablaba por teléfono.
+→ 「電話中に列車が行ってしまった」
+Se nos acabó el pan.
+→ 「パンがなくなってしまった」（私たちに気づかれないうちに）
+4. まとめ
+"se nos pasaba" は再帰動詞 pasarse を用い、間接目的語 nos を加えることで、
+「時間が私たちにとって自然に過ぎ去った」というニュアンスを表しています。
+このような表現は、物事が気づかれないうちに進んでいく、
+あるいは影響を受ける感覚を伝えるときに頻繁に使われます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nos dijeron que había que reservar con antelación.
+この文の従属節でhabíaとなっているのはdijeronが過去形だからでしょうか？
+和訳は「前もって予約しないといけないと私たちは言われました」となりますが
+「前もって予約しないといけなかったと私たちは言われました」だとスペイン語訳はどう変わりますか？
+―――
+文 "Nos dijeron que había que reservar con antelación." の従属節 "había" が過去形になっている理由と、
+別の和訳に対応する場合の違いを解説します。
+1. 原文の構造
+"Nos dijeron"
+→ 主節：「私たちは言われました」。dijeron は動詞 decir の点過去形（具体的な過去の出来事を表します）。
+"que había que reservar con antelación"
+→ 従属節：「前もって予約する必要がある」。había は動詞 haber の不完全過去形（過去の状況や状態の描写）。
+和訳: 「前もって予約しないといけないと私たちは言われました」
+ここで había が使われる理由は、dijeron が過去形だからです。間接話法（estilo indirecto）では、
+主節が過去形の場合、従属節の時制が主節に従います。
+2. 和訳を変えた場合
+「前もって予約しないといけなかったと私たちは言われました」 に対応するスペイン語は以下のように変わります：
+"Nos dijeron que había habido que reservar con antelación."
+変更点:
+"había" → "había habido"
+había は「（その時点で）予約する必要があった」という過去の継続的な状況を描写している。
+一方、había habido は「（過去のある時点で）予約する必要があった」という完了した状況を描写します。
+和訳: 「前もって予約しないといけなかったと私たちは言われました」
+3. 時制の違いによるニュアンスの違い
+"Nos dijeron que había que reservar con antelación."
+「その時点で予約が必要であった」という、過去の習慣や状況を説明する。
+状況がその場で必要だったのか、現在も継続しているのか曖昧なまま。
+"Nos dijeron que había habido que reservar con antelación."
+「その時点以前に予約が必要だったが、もうその状況は完了している」というニュアンスを強調する。
+4. 間接話法のルール
+スペイン語では、主節の時制に応じて従属節の時制が変化します。主な対応を以下にまとめます：
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt;主節の時制&lt;/th&gt;
+      &lt;th&gt;従属節の元の時制&lt;/th&gt;
+      &lt;th&gt;従属節の変化後の時制&lt;/th&gt;
+      &lt;th&gt;例&lt;/th&gt;
+      &lt;/tr&gt;
+    &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt;現在形&lt;/th&gt;
+      &lt;td&gt;現在形&lt;/td&gt;
+      &lt;td&gt;現在形&lt;/td&gt;
+      &lt;td&gt;Dice que hay que reservar.&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;過去形&lt;/th&gt;
+      &lt;td&gt;現在形&lt;/td&gt;
+      &lt;td&gt;不完全過去形&lt;/td&gt;
+      &lt;td&gt;Dijo que había que reservar.&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;過去形&lt;/th&gt;
+      &lt;td&gt;現在完了形&lt;/td&gt;
+      &lt;td&gt;過去完了形&lt;/td&gt;
+      &lt;td&gt;Dijo que había habido que reservar.&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+5. まとめ
+原文では、había を使うことで「その時点で予約が必要だった」と描写しています。
+「予約が必要だった（完了した状況）」というニュアンスを伝えたい場合は、había habido を使います。
+時制の変化に敏感なスペイン語の間接話法では、主節の時制が従属節にも影響することを覚えておきましょう。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 文中の "se oyó" の解釈
+この文での "se oyó" は、「聞こえた」という意味で使われています。
+この "se" は 受け身構文 または 非人称構文 を表します。
+受け身構文:
+行為の主体（誰が聞いたか）が明示されていない場合、se を使って受け身表現を作ります。
+例: "Se oyó un grito." → 「叫び声が聞こえた」（叫び声が自然に耳に届いた）
+非人称構文:
+動作の主体を特定せず、事象そのものを強調する場合に使われます。
+例: "Se vive bien aquí." → 「ここでは快適に暮らせる」
+この場合、"se oyó" は「誰かが聞いた」のではなく、「叫び声が自然に聞こえた」ことを表しています。
+2. 辞書にある "oir" と "oirse" の違い
+A. "oir"（再帰なし）
+単純に「聞く」「音が耳に入る」という意味です。
+主語が「音」を感知する行為を表します。
+例:
+"Oigo música desde mi habitación."
+（部屋から音楽が聞こえる）
+"¿Has oído ese ruido?"
+（その音を聞いた？）
+B. "oirse"（再帰形）
+音が「自然に聞こえる」ことや「反響する」「周囲に広がる」ことを表します。
+主に音そのものを強調したいときに使われます。
+受動的なニュアンスを持ちます。
+例:
+"Se oye música en la calle."
+（通りで音楽が聞こえる）
+"No se oyó nada después del disparo."
+（銃声の後は何も聞こえなかった）
+まとめ: oir と oirse の使い分け
+"oir" は主体が能動的に聞く場合に使います。
+"oirse" は音が自然に耳に届く状況を表す受動的な表現に使います。
+3. 文の構造とニュアンス
+"Eran las tres de la madrugada cuando se oyó un grito en la casa de al lado."
+"se oyó" を使うことで、叫び声が自然に聞こえてきた
+（誰が聞いたかに焦点を当てない）ことを表現しています。
+もし "oyó" を使って "Alguien oyó un grito..." とした場合、
+「誰かが聞いた」という行為が主語になり、意味が変わります。
+4. 補足: 似たような再帰動詞の例
+スペイン語では、再帰形を使って「自然に起きる」「主体が不明な現象」を表現する動詞が多いです。
+ 例:
+"ver"（見る） → "verse"（見える）
+例: "Se ven las montañas desde aquí."（ここから山が見える）
+"entender"（理解する） → "entenderse"（理解される）
+例: "No se entiende bien el mensaje."（メッセージがよく理解されない）
+"oirse" もこのパターンに該当します。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7984,8 +8294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="18.75"/>
@@ -10224,7 +10534,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="56.25">
+    <row r="241" spans="1:6" ht="56.25">
       <c r="A241" t="s">
         <v>570</v>
       </c>
@@ -10241,7 +10551,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:6">
       <c r="B242" s="1" t="s">
         <v>575</v>
       </c>
@@ -10249,7 +10559,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="37.5">
+    <row r="243" spans="1:6" ht="37.5">
       <c r="B243" s="1" t="s">
         <v>577</v>
       </c>
@@ -10257,7 +10567,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="37.5">
+    <row r="244" spans="1:6" ht="37.5">
       <c r="B244" s="1" t="s">
         <v>579</v>
       </c>
@@ -10265,7 +10575,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:6">
       <c r="B245" s="1" t="s">
         <v>581</v>
       </c>
@@ -10273,7 +10583,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="37.5">
+    <row r="246" spans="1:6" ht="37.5">
       <c r="B246" s="1" t="s">
         <v>583</v>
       </c>
@@ -10281,7 +10591,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:6">
       <c r="B247" s="1" t="s">
         <v>585</v>
       </c>
@@ -10289,7 +10599,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="37.5">
+    <row r="248" spans="1:6" ht="37.5">
       <c r="B248" s="1" t="s">
         <v>587</v>
       </c>
@@ -10297,7 +10607,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="37.5">
+    <row r="249" spans="1:6" ht="37.5">
       <c r="B249" s="1" t="s">
         <v>589</v>
       </c>
@@ -10305,7 +10615,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="37.5">
+    <row r="250" spans="1:6" ht="37.5">
       <c r="B250" s="1" t="s">
         <v>591</v>
       </c>
@@ -10313,7 +10623,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="37.5">
+    <row r="251" spans="1:6" ht="37.5">
       <c r="B251" s="1" t="s">
         <v>593</v>
       </c>
@@ -10327,7 +10637,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="37.5">
+    <row r="252" spans="1:6" ht="37.5">
       <c r="B252" s="1" t="s">
         <v>597</v>
       </c>
@@ -10335,7 +10645,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:6">
       <c r="B253" s="1" t="s">
         <v>599</v>
       </c>
@@ -10343,7 +10653,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="37.5">
+    <row r="254" spans="1:6" ht="37.5">
       <c r="B254" s="1" t="s">
         <v>601</v>
       </c>
@@ -10351,15 +10661,18 @@
         <v>602</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="37.5">
+    <row r="255" spans="1:6" ht="409.5">
       <c r="B255" s="1" t="s">
         <v>603</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="37.5">
+      <c r="F255" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="37.5">
       <c r="B256" s="1" t="s">
         <v>605</v>
       </c>
@@ -10367,7 +10680,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="257" spans="2:5">
+    <row r="257" spans="2:6">
       <c r="B257" s="1" t="s">
         <v>607</v>
       </c>
@@ -10375,7 +10688,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="37.5">
+    <row r="258" spans="2:6" ht="37.5">
       <c r="B258" s="1" t="s">
         <v>609</v>
       </c>
@@ -10383,15 +10696,18 @@
         <v>610</v>
       </c>
     </row>
-    <row r="259" spans="2:5" ht="37.5">
+    <row r="259" spans="2:6" ht="409.5">
       <c r="B259" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="260" spans="2:5">
+      <c r="F259" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6">
       <c r="B260" s="1" t="s">
         <v>613</v>
       </c>
@@ -10399,7 +10715,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="37.5">
+    <row r="261" spans="2:6" ht="37.5">
       <c r="B261" s="1" t="s">
         <v>615</v>
       </c>
@@ -10413,7 +10729,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="262" spans="2:5">
+    <row r="262" spans="2:6">
       <c r="B262" s="1" t="s">
         <v>619</v>
       </c>
@@ -10421,23 +10737,29 @@
         <v>620</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="37.5">
+    <row r="263" spans="2:6" ht="409.5">
       <c r="B263" s="1" t="s">
         <v>621</v>
       </c>
       <c r="C263" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="264" spans="2:5" ht="37.5">
+      <c r="F263" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" ht="409.5">
       <c r="B264" s="1" t="s">
         <v>623</v>
       </c>
       <c r="C264" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="265" spans="2:5">
+      <c r="F264" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6">
       <c r="B265" s="1" t="s">
         <v>625</v>
       </c>
@@ -10445,7 +10767,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="266" spans="2:5">
+    <row r="266" spans="2:6">
       <c r="B266" s="1" t="s">
         <v>627</v>
       </c>
@@ -10453,7 +10775,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="267" spans="2:5" ht="56.25">
+    <row r="267" spans="2:6" ht="56.25">
       <c r="B267" s="1" t="s">
         <v>628</v>
       </c>
@@ -10461,7 +10783,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="268" spans="2:5" ht="37.5">
+    <row r="268" spans="2:6" ht="37.5">
       <c r="B268" s="1" t="s">
         <v>630</v>
       </c>
@@ -10469,7 +10791,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="269" spans="2:5" ht="37.5">
+    <row r="269" spans="2:6" ht="37.5">
       <c r="B269" s="1" t="s">
         <v>632</v>
       </c>
@@ -10477,7 +10799,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="270" spans="2:5" ht="37.5">
+    <row r="270" spans="2:6" ht="37.5">
       <c r="B270" s="1" t="s">
         <v>634</v>
       </c>
@@ -10485,7 +10807,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="271" spans="2:5" ht="37.5">
+    <row r="271" spans="2:6" ht="37.5">
       <c r="B271" s="1" t="s">
         <v>636</v>
       </c>
@@ -10499,7 +10821,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="272" spans="2:5" ht="37.5">
+    <row r="272" spans="2:6" ht="37.5">
       <c r="B272" s="1" t="s">
         <v>640</v>
       </c>
@@ -10507,15 +10829,18 @@
         <v>641</v>
       </c>
     </row>
-    <row r="273" spans="2:5">
+    <row r="273" spans="2:6" ht="409.5">
       <c r="B273" s="1" t="s">
         <v>642</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="274" spans="2:5" ht="56.25">
+      <c r="F273" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" ht="56.25">
       <c r="B274" s="1" t="s">
         <v>644</v>
       </c>
@@ -10523,15 +10848,18 @@
         <v>645</v>
       </c>
     </row>
-    <row r="275" spans="2:5" ht="37.5">
+    <row r="275" spans="2:6" ht="409.5">
       <c r="B275" s="1" t="s">
         <v>646</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="276" spans="2:5">
+      <c r="F275" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6">
       <c r="B276" s="1" t="s">
         <v>648</v>
       </c>
@@ -10539,7 +10867,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="37.5">
+    <row r="277" spans="2:6" ht="37.5">
       <c r="B277" s="1" t="s">
         <v>650</v>
       </c>
@@ -10547,7 +10875,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="37.5">
+    <row r="278" spans="2:6" ht="37.5">
       <c r="B278" s="1" t="s">
         <v>652</v>
       </c>
@@ -10555,7 +10883,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="279" spans="2:5" ht="37.5">
+    <row r="279" spans="2:6" ht="37.5">
       <c r="B279" s="1" t="s">
         <v>654</v>
       </c>
@@ -10563,7 +10891,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="37.5">
+    <row r="280" spans="2:6" ht="37.5">
       <c r="B280" s="1" t="s">
         <v>656</v>
       </c>
@@ -10571,7 +10899,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="37.5">
+    <row r="281" spans="2:6" ht="37.5">
       <c r="B281" s="1" t="s">
         <v>658</v>
       </c>
@@ -10585,7 +10913,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="282" spans="2:5" ht="37.5">
+    <row r="282" spans="2:6" ht="37.5">
       <c r="B282" s="1" t="s">
         <v>662</v>
       </c>
@@ -10593,7 +10921,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="37.5">
+    <row r="283" spans="2:6" ht="37.5">
       <c r="B283" s="1" t="s">
         <v>664</v>
       </c>
@@ -10601,7 +10929,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="284" spans="2:5">
+    <row r="284" spans="2:6">
       <c r="B284" s="1" t="s">
         <v>666</v>
       </c>
@@ -10609,7 +10937,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="37.5">
+    <row r="285" spans="2:6" ht="37.5">
       <c r="B285" s="1" t="s">
         <v>668</v>
       </c>
@@ -10617,7 +10945,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="286" spans="2:5">
+    <row r="286" spans="2:6">
       <c r="B286" s="1" t="s">
         <v>670</v>
       </c>
@@ -10625,7 +10953,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="37.5">
+    <row r="287" spans="2:6" ht="37.5">
       <c r="B287" s="1" t="s">
         <v>672</v>
       </c>
@@ -10633,7 +10961,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="288" spans="2:5" ht="37.5">
+    <row r="288" spans="2:6" ht="37.5">
       <c r="B288" s="1" t="s">
         <v>674</v>
       </c>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7548E6D8-7BFE-4483-944C-893ACBF88514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD88CEF-1377-4E92-9202-825FDAD4F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1435">
   <si>
     <t>es</t>
   </si>
@@ -3920,10 +3920,6 @@
   <si>
     <t>Iván nos prometió que no cometería el mismo error.
 ¿Quién creería en él?</t>
-  </si>
-  <si>
-    <t>「一回りしに出るのはどう？」
-「家にいる方がいいな」</t>
   </si>
   <si>
     <t>¿Te apetece salir a dar una vuelta?
@@ -8032,6 +8028,592 @@
 "entender"（理解する） → "entenderse"（理解される）
 例: "No se entiende bien el mensaje."（メッセージがよく理解されない）
 "oirse" もこのパターンに該当します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Cuando llegamos al restaurante, ya lo habían cerrado." の "habían cerrado" が三人称複数になっている理由は、
+文脈上、レストランを閉めた人々（例えば店員や管理者など）が複数いることが想定されているからです。
+詳しい解説
+1. 「閉めた人々」は文中に明示されていない
+この文では、「誰が閉めたのか」を特に明示していません。
+しかし、スペイン語ではレストランのような場所を閉める行為は、
+通常、複数の人（店員、スタッフ、管理者など）が関与していると考えられるため、
+動詞が三人称複数形になります。
+2. 省略された主語
+スペイン語では、文脈上の主語が明白な場合、主語を明示しなくても動詞の活用でその意味を表せます。
+この場合、"habían cerrado" の主語は、明示されていない店員や管理者（ellos/ellas に相当）を指しています。
+3. 動詞の活用と主語の一致
+動詞 "cerrar" の過去完了形 "habían cerrado" は、三人称複数の主語に対応しています。
+Yo había cerrado → 私が閉めた
+Nosotros habíamos cerrado → 私たちが閉めた
+Ellos habían cerrado → 彼らが閉めた
+この文では、レストランを閉めた複数の人物を示唆しているため、"habían cerrado" という形になります。
+もし単数形を使った場合はどうなるか
+もし文が "ya lo había cerrado" （三人称単数）だった場合、主語は él/ella に相当する単数の人物を指します。
+この場合、「特定の1人」が閉めたことを強調します。
+例: 「店長が閉めた」「特定の一人のスタッフが閉めた」という意味になります。
+和訳のニュアンス
+三人称複数形（habían cerrado）:
+「私たちがレストランに着いたときには、すでに彼らが閉めていた」
+（具体的に誰かは述べていないが、複数の人が閉めたと考えられる）
+三人称単数形（había cerrado）:
+「私たちがレストランに着いたときには、すでに彼が（または彼女が）閉めていた」
+（特定の1人が閉めたと想定）
+結論
+文脈上、レストランを閉めたのは複数の人物（店員や管理者など）であると暗示しているため、
+動詞が 三人称複数形の habían cerrado になっています。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"Estoy preocupada por lo de Paco" の "por lo de Paco" は、
+「Paco のこと」 または 「Paco に関すること」 という意味です。以下で詳しく解説します。
+1. "lo de" の基本的な意味
+"lo de" はスペイン語の口語表現で、「～に関すること」「～の件」という意味を持ちます。
+より具体的には、人や物に関する出来事や状況 を指します。
+例: Lo de ayer fue increíble.
+（昨日のことはすごかったね。）
+例: No sé nada de lo de la reunión.
+（その会議のことは何も知らない。）
+この表現は、具体的な内容を詳しく言わなくても文脈で補える場合に使われることが多いです。
+2. "por lo de Paco" の解釈
+この文では、話者が Paco に関連する何か心配な状況 を指しています。
+具体的に何が起こったのかは文脈によりますが、
+「Paco に関する件（例えば健康問題やトラブル）」が話者の心配の対象です。
+3. 他の例文
+Estoy enfadado por lo de ayer.
+（昨日のことについて怒っている。）
+¿Qué sabes de lo de Marta?
+（マルタの件について何か知ってる？）
+Gracias por lo de antes.
+（さっきの件についてありがとう。）
+4. 直訳ではない表現のため、柔軟な理解が必要
+この表現は日本語に直訳するのが難しいことがあります。
+「Paco に関すること」「Paco の件」と訳すのが一般的ですが、
+文脈に応じて、「Paco の状況」「Paco のことについて心配」など、柔軟に解釈する必要があります。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"Me gustaría tomarme dos semanas de vacaciones en septiembre." 
+の "tomarme" は、再帰動詞の形になっており、
+ここで使われている理由には以下のようなニュアンスや使い方が含まれています。
+1. 再帰形の役割
+"tomar" は「取る」「摂る」という意味の基本動詞ですが、
+再帰形 "tomarse" を使うことで、「自分のために休暇を取る」というニュアンスを加えています。
+再帰形を使うと、動作が自分自身に向けられていることを強調します。
+この場合、「自分のために休暇を取る」という個人的な意図や行動を示します。
+"tomar" → 単に「取る」という行為に注目する。
+"tomarse" → 「自分のために意図的に休暇を取る」というニュアンスが加わる。
+2. 文のニュアンスの違い
+再帰形なし（tomar）
+Me gustaría tomar dos semanas de vacaciones en septiembre.
+（9月に2週間の休暇を取りたいと思っています。）
+→ 動作にフォーカスしたフラットな表現。
+再帰形あり（tomarme）
+Me gustaría tomarme dos semanas de vacaciones en septiembre.
+（9月に自分のために2週間の休暇を取りたいと思っています。）
+→ 「自分にとっての休暇」という個人的な意味合いが含まれ、より自然で口語的。
+3. 再帰形がよく使われる動詞の例
+スペイン語では、再帰形を使うことで、動作が自分自身に関わることを強調する場合がよくあります。
+他の動詞でも同様のニュアンスが現れます。
+comer → comerse
+Me comí un helado. （私はアイスを食べた。）
+→ 「全部食べ切った」や「楽しんで食べた」というニュアンス。
+beber → beberse
+Me bebí un vaso de agua. （私はコップ一杯の水を飲んだ。）
+→ 動作が「自分に向けられた」ことを強調。
+ir → irse
+Me voy a casa. （私は家に帰ります。）
+→ 単に「行く」のではなく、「自分のために離れる」という意味合いがある。
+4. 和訳
+"Me gustaría tomarme dos semanas de vacaciones en septiembre."
+→ 「9月に自分のために2週間の休暇を取りたいと思います。」
+（「自分用に」というニュアンスを含む。）
+結論
+"tomarme" の再帰形を使うことで、
+「休暇を取る」という動作が話者自身に直接関係すること
+（自分のために取る、楽しむ意図があるなど）を強調しています。
+この形はスペイン語の自然な表現の一部です。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"Ya me contarás cómo te ha ido" の "cómo te ha ido" は、
+「（そのディナーが）どうだったかを教えてね」という意味を持つ表現です。この部分を詳しく解説します。
+1. 文全体の構造
+Ya me contarás
+「また教えてね」「そのうち話してね」という意味。
+"contar" は「話す」「伝える」の意味を持つ動詞で、
+未来形 "contarás" は「これから話す」というニュアンスを表します。
+cómo te ha ido
+"cómo" は「どのように」「どう」という疑問詞。
+"te ha ido" は "ir"（行く、進む） の現在完了形を使った表現で、
+「うまくいったか」「進み具合はどうだったか」を指します。
+2. "cómo te ha ido" の分解
+(a) "cómo"
+疑問詞として「どのように」「どうして」「どんなふうに」を意味します。
+ここでは「どのように進んだか」を尋ねるニュアンス。
+(b) "te ha ido"
+"ir" + 再帰代名詞 "te"
+"ir" は通常「行く」の意味ですが、再帰的に使われると「物事がどう進んだか」を指します。
+"te" は「あなたにとって」を示す代名詞。
+直訳すると「あなたにとってどう進んだか」という意味。
+現在完了形 "ha ido"
+現在完了形は「過去の出来事が現在に影響を与えている」ことを表します。
+ここでは「（今夜のディナーが）どうだったか」というニュアンスを伝えています。
+3. 意味のニュアンス
+日本語では、文脈に応じて「どうだった？」「どう進んだ？」「うまくいった？」と訳されます。
+"cómo te ha ido" はスペイン語でとてもよく使われるフレーズで、
+仕事、イベント、試験など、さまざまな場面で「どんな結果だったか」を尋ねる際に使います。
+4. 他の例文
+¿Cómo te ha ido en la entrevista?
+（面接はどうだった？）
+¿Cómo os ha ido el viaje?
+（旅行はどうだった？）
+Espero que te haya ido bien.
+（うまくいっているといいね。）
+5. 和訳
+"Ya me contarás cómo te ha ido."
+→ 「またどうだったか教えてね。」
+結論
+"cómo te ha ido" は、「どうだったか」「どんな結果だったか」を尋ねる現在完了形を使った表現です。
+この場合、話者は「ディナーの結果や感想を後で教えてほしい」と言っており、非常に自然で日常的な言い回しです。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+¿Tendré el coche arreglado en una semana?
+この文は自然な日本語訳としては「1週間で車は修理できているでしょうか？」となるでしょう。
+直訳すると「1週間で私は修理された車を持っているでしょうか？」になりますが
+この文は大変不自然で、自然な日本語との差が比較的大きいです。
+したがって、「1週間で車は修理できているでしょうか？」とスペイン語で言いたいときに
+¿Se reparará el coche en una semana?とは言えても
+¿Tendré el coche arreglado en una semana?という表現は日本語母語話者としては、この表現は出てきようがありません。
+―――
+ご指摘の通り、スペイン語の ¿Tendré el coche arreglado en una semana? と
+日本語の「1週間で車は修理できているでしょうか？」の間には表現の構造や発想の違いがあります。
+この違いを理解すると、なぜスペイン語でこのように表現されるのかが明確になります。
+1. スペイン語の構造
+¿Tendré el coche arreglado en una semana?
+Tendré（未来形）: 「私は持つでしょう」という意味。
+el coche arreglado: 「修理された車」という状態を表す表現。
+ここでは "tener" を使い、「修理済みの状態で車を持つ」ことを指しています。
+en una semana: 「1週間で」という期間を表すフレーズ。
+直訳
+「1週間で、私は修理済みの車を持つでしょうか？」
+2. 自然なスペイン語としての表現
+スペイン語では、「結果としての状態」を強調するために 
+"tener + 目的語 + 状態（形容詞/分詞など）" の構造がよく使われます。
+この文脈では、話者が「修理が完了して車が手元にある状態」を尋ねているので、
+"Tendré el coche arreglado" という形が自然な表現になります。
+3. 日本語との違い
+日本語では、「修理される」という動作そのものを意識する表現
+（"修理できる" や "修理される"）が自然です。たとえば:
+「車は1週間で修理されますか？」
+「1週間後に車の修理は終わりますか？」
+一方、スペイン語では "tener" を用いて「修理済みの車を持っている状態」という結果を
+尋ねるのが一般的です。このため、両言語の発想に差が出るのです。
+4. なぜ¿Se reparará el coche en una semana? も可能なのか
+¿Se reparará el coche en una semana?
+この文は「車が1週間で修理されるかどうか」を直接的に尋ねています。
+"修理される動作" に焦点が当たっているため、動作主（修理を行う人）の存在は曖昧になります。
+一方、¿Tendré el coche arreglado en una semana? では
+「修理された車を自分が持つ状態」への焦点が強調されるため、
+より結果を重視するニュアンスを伝えられます。
+5. 結論と学び
+¿Tendré el coche arreglado en una semana? は、
+スペイン語話者の間で非常に自然な表現であり、
+結果（修理された車が手元にあること）を意識しています。
+日本語母語話者にとって、この表現は直訳すると不自然に感じますが、
+スペイン語では日常的な発想であることを理解すると納得しやすくなります。
+状態や結果を強調するスペイン語の "tener + 目的語 + 過去分詞" の構造に慣れることで、
+自然にこのような表現が使えるようになります。
+例文:
+¿Tendrás todo preparado para la reunión?
+（会議の準備は全てできていますか？）
+Tendremos la casa pintada para el fin de semana.
+（週末までに家はペンキ塗りが完了しています。）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+unosがつくと「50くらい」って幅を持たせた意味になるんですか？
+―――
+はい、その通りです！ スペイン語の "unos" は「およそ」「〜くらい」といった
+幅を持たせた意味を表現するために使われます。
+この場合、"tendrá unos 50" は「フェルナンドは50歳くらいだろう」と推測しているニュアンスになります。
+詳しい解説
+"unos" の役割
+数字の前に "unos" を付けることで、その数字が完全に正確であるとは限らないことを示します。
+日本語では「およそ」「だいたい」「〜くらい」などに対応します。
+例文:
+Hay unos 30 estudiantes en la clase.
+（クラスには30人くらいの生徒がいます。）
+Me costó unos 20 euros.
+（だいたい20ユーロかかりました。）
+推測を伴う場合
+"Tendrá unos 50." のように未来形を使うと、単なる推測を表します。
+"unos" を加えることで、その推測にさらに幅を持たせるニュアンスを強調しています。
+例文:
+¿Cuánto pesará esa caja? Tendrá unos 10 kilos.
+（その箱の重さはどれくらいだろう？10キロくらいあるんじゃないかな。）
+¿Cuántas personas habrá en la fiesta? Habrá unas 50.
+（パーティーには何人くらいいるかな？50人くらいかな。）
+具体的な数値ではなく、感覚的な幅
+"unos" は正確な数ではないことをあえて示すため、
+相手に「大体これくらい」という印象を伝えたいときに便利です。
+関連表現
+aproximadamente: 「およそ」「約」
+よりフォーマルな表現です。例: Tiene aproximadamente 50 años.
+más o menos: 「だいたい」「〜くらい」
+カジュアルなニュアンスで使われます。例: Tendrá 50 años más o menos.
+casi: 「ほぼ」
+具体的な数値に近いが少し足りない場合に使います。例: Tiene casi 50 años.
+まとめ
+"unos" を使うと、正確ではないけれど幅を持たせた推測を表現できます。
+この柔軟さがスペイン語の表現に豊かさを加えていますね！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この文で "sabríamos"（過去未来形、条件法）が使われている理由は、
+仮定的な状況を表現しているためです。
+具体的には、**「もしあなたがいなければ、
+私たちはどこから始めたらいいかわからないだろう」**という仮定の状況を想定しているからです。
+文全体の解説
+"Sin usted"
+「あなたがいなければ」という仮定的な条件を提示しています。
+"sin"（〜がいない、〜がない）という表現は、仮定や非現実的な状況を作り出すのによく使われます。
+"no sabríamos"
+「わからないだろう」という意味で、**条件法（過去未来形）**を用いています。条件法は、
+非現実的な状況や仮定、丁寧な表現をするときに使われます。
+ここでは、「もしあなたがいなければ」という仮定が現実ではないので、条件法が適切です。
+"por dónde empezar"
+「どこから始めたらいいのか」という疑問詞 "por dónde" を含む不定詞表現です。
+直訳すると「どの方向から始めるべきかわからない」というニュアンスになります。
+条件法（過去未来形）が使われる理由
+1. 仮定的な状況を表す
+条件法は、現実とは異なる仮定や想像の世界を表現するのに使います。
+この文では、「あなたがいない」という現実ではない状況を想定しています。
+例:
+Sin ti, no podría hacer esto.
+（君がいなければ、これはできないだろう。）
+Si yo fuera rico, viajaría por todo el mundo.
+（もし私が金持ちなら、世界中を旅行するだろう。）
+2. 丁寧な表現
+条件法は、話し手が控えめで礼儀正しいニュアンスを出したいときにも使われます。
+この場合、"sabríamos" を使うことで、話し手が自分たちの無力さを控えめに表現しています。
+もし現在形で言ったらどうなる？
+もし "no sabemos por dónde empezar"（現在形）と言った場合、意味が変わります。
+この場合、「現時点でどこから始めたらいいかわからない」という現実的な状況を表します。
+一方で "sabríamos" を使うことで、仮定の状況（あなたがいなければ、という想像の話）を強調しています。
+まとめ
+"Sin usted, no sabríamos por dónde empezar." は、
+仮定的な状況を表すために条件法（過去未来形）が使われています。
+この形により、「あなたがいなければ、私たちはどうしていいかわからないだろう」
+という想像上の状況を礼儀正しく表現しています。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この文で "Sería Laura" と未来過去形（条件法）が使われている理由は、
+話し手が推測や可能性について話しているからです。
+条件法には「丁寧さ」や「仮定」を表すだけでなく、「推測」や「憶測」を表す機能もあります。
+文の解説
+¿Quién dejó la luz encendida?
+「誰が電気をつけっぱなしにしたの？」
+これは、過去の出来事について原因や責任者を尋ねる質問です。
+Sería Laura.
+「（おそらく）ラウラだろう。」
+ここで条件法（未来過去形）の "sería" を使うことで、話し手が 推測している ことを表現しています。
+条件法（未来過去形）の推測の用法
+条件法には、次のように「過去の状況や出来事についての推測」を表す用法があります。
+例:
+Estarían en casa cuando llamaste.
+（君が電話したとき、たぶん家にいただろう。）
+Habría unas 50 personas en la fiesta.
+（パーティーにはたぶん50人くらいいただろう。）
+¿Quién tocó la puerta? Sería el cartero.
+（誰がドアをノックしたんだ？ たぶん郵便配達員だろう。）
+今回の文の背景
+Sería Laura では、ラウラが電気をつけっぱなしにした可能性が高いと考えているけれど、断定はしていない状況です。
+話し手は、確実ではないが最も妥当だと思う推測を述べています。
+他の時制との違い
+"Fue Laura."（ラウラだった。）
+→ 断定的。ラウラがつけっぱなしにしたことが確実。
+"Es Laura."（ラウラだ。）
+→ 現在の話として断定的に述べる。
+"Sería Laura."（ラウラだろう。）
+→ 過去の出来事に対する可能性や推測を示し、断定は避けている。
+まとめ
+"Sería Laura" で条件法を使うことで、話し手が「確信はないが、ラウラがつけっぱなしにしたのだろう」
+と可能性を推測しているニュアンスを表しています。
+条件法は、過去の推測を丁寧に述べるために適しており、日常会話でよく使われる表現です。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この文で "creería" と未来過去形（条件法）が使われている理由は、
+話し手が 疑念や反語的なニュアンス を込めているからです。
+条件法には、推測や仮定だけでなく、「可能性の低さ」や「皮肉」を表現する役割もあります。
+文の解説
+Iván nos prometió que no cometería el mismo error.
+「イバンは同じミスを繰り返さないと私たちに約束した。」
+過去の出来事に基づく内容で、「no cometería」は、
+イバンが未来において同じミスをしないという約束を条件法で表しています。
+¿Quién creería en él?
+「誰が彼を信じるだろうか？」
+条件法の "creería" が使われていることで、話し手は「誰も信じない」という
+強い疑念や反語的なニュアンスを表しています。
+条件法の用法：疑念や反語表現
+条件法は、次のように疑念や反語的な表現に使われることがあります。
+例:
+¿Quién haría algo así?
+（誰がそんなことをするだろうか？ → そんなことをする人なんていない。）
+¿Cómo lo sabrías tú?
+（君がどうやってそれを知るというの？ → 知るわけがない。）
+¿Qué dirían de nosotros?
+（私たちについて何を言うだろうか？ → 何か悪いことを言うに違いない。）
+今回の文におけるcreeríaのニュアンス
+¿Quién creería en él? では、
+話し手が「イバンが約束を守るとは誰も信じない」という心情を反語的に表現しています。
+特に、イバンが過去に信頼を裏切ったことがある、または信じる根拠がないことを暗に伝えています。
+他の時制との違い
+¿Quién cree en él?（誰が彼を信じる？）
+→ 現在の事実として、誰が彼を信じているのかを尋ねる。
+¿Quién creyó en él?（誰が彼を信じた？）
+→ 過去に、誰が彼を信じたのかを尋ねる。
+¿Quién creería en él?（誰が彼を信じるだろうか？）
+→ 「誰も信じない」という疑念や反語的ニュアンスを表現。
+まとめ
+¿Quién creería en él? で条件法が使われているのは、
+「彼を信じる人なんていないだろう」といった強い疑念や皮肉を表現するためです。
+条件法を使うことで、反語的な問いかけが自然に聞こえ、文全体のニュアンスがより強調されます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(tú)「一回りしに出るのはどう？」
+「家にいる方がいいな」</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この文で "habrán acostado"（未来完了形）が使われているのは、
+現在の時点での 推測 を表現するためです。
+未来完了形は、「話している時点ではまだ確認していないが、おそらくそうなっているだろう」と考える場合に使われます。
+文の解説
+Son las 11.
+現在の時刻を述べています（「11時だ」）。
+Mis hijos ya se habrán acostado.
+「私の子どもたちはもう寝てしまっているだろう。」
+話し手は子どもたちがすでに寝ていると考えていますが、直接確認しているわけではなく、推測している 状態です。
+未来完了形の用法：現在の推測
+未来完了形（futuro compuesto）は通常、以下のような状況で使われます：
+未来のある時点までに完了する出来事
+Ejemplo:
+Para el próximo lunes, ya habré terminado el proyecto.
+（来週の月曜日までには、そのプロジェクトを終えているだろう。）
+現在の出来事や状態に対する推測
+Ejemplo:
+Son las 11. Mis hijos ya se habrán acostado.
+（11時だ。子どもたちはもう寝てしまっているだろう。）
+→ ここでは「現在」の状況に対して、確認せずに推測を述べています。
+具体例との比較
+未来完了形 vs 他の時制
+Mis hijos ya se han acostado.
+現在完了形（pretérito perfecto）:「子どもたちはもう寝た（事実としてそうだとわかっている）。」
+違い: 確信があり、実際に確認済みの場合に使います。
+Mis hijos ya se habrán acostado.
+未来完了形（futuro compuesto）:「子どもたちはもう寝ているだろう（確認はしていないがそう推測している）。」
+違い: 推測や予測を述べています。
+他の推測の例
+以下のように、未来完了形は現在の状況を推測する際によく使われます：
+¿Dónde estará María?
+→ Estará en casa.
+（マリアはどこだろう？ → 家にいるだろう。）
+¿Por qué no ha llegado Juan?
+→ Habrá tenido algún problema con el coche.
+（なぜフアンはまだ来ていないのだろう？ → 車のトラブルがあったのだろう。）
+¿Quién habrá llamado por teléfono?
+（誰が電話をかけてきたのだろう？）
+→ Habrá sido Luis.
+（ルイスだったのだろう。）
+まとめ
+"Mis hijos ya se habrán acostado" のように未来完了形を使うことで、
+「すでに起きたと推測される出来事」を表現できます。この用法は特に、
+直接確認せずに現状を想像する際に便利です。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>未来の完了している事柄について述べている。一番わかりやすい使われ方</t>
+    <rPh sb="0" eb="2">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コトガラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この文で "habrán dicho"（未来完了形）が使われているのは、
+現在の時点における 推測 を表現するためです。
+話し手は、カルメンがとても嬉しそうな理由を知らないため、
+「彼女に何を言われたのだろうか」と想像・推測しています。
+文の解説
+Mira a Carmen. Está tan contenta.
+「カルメンを見て。彼女、とても嬉しそうね。」
+ここでカルメンの感情についての観察を述べています。
+¿Qué le habrán dicho?
+「彼女に何を言ったのだろう？」
+話し手は、カルメンが嬉しそうにしている原因
+（他人から何を言われたか）を確認していませんが、そうである理由を 推測 しています。
+未来完了形（habrán dicho） を使うことで、
+「今の状況（彼女の嬉しさ）を説明するための過去の出来事」についての推測を表しています。
+未来完了形の推測
+未来完了形（futuro compuesto）は、以下のような状況で使われます：
+未来のある時点までに完了する出来事を予測する
+Ejemplo:
+Para mañana habrán terminado las reparaciones.
+（明日までには修理が終わっているだろう。）
+現在の状況の原因となった過去の出来事を推測する
+この用法が今回の例に該当します。
+Ejemplo:
+¿Qué le habrán dicho?
+（彼女に何を言われたのだろうか？）
+Habrá llegado tarde.
+（彼は遅れて到着したのだろう。）
+文脈での意味
+この場合、話し手は「カルメンがとても嬉しそうにしている」という現状を観察して、
+その感情を引き起こした出来事（過去に誰かが言ったこと）を推測しています。
+未来完了 vs 他の時制との比較
+以下のような違いがあります：
+¿Qué le han dicho?
+現在完了形（pretérito perfecto）
+「彼女に何を言われたの？」（事実を尋ねる。答えを知りたいとき。）
+¿Qué le habrán dicho?
+未来完了形（futuro compuesto）
+「彼女に何を言われたのだろう？」（直接確認していない出来事についての推測。）
+他の例
+¿Por qué está tan cansado Juan?
+→ Habrá trabajado mucho.
+（フアンはどうしてそんなに疲れているのだろう？ → きっとたくさん働いたのだろう。）
+¿Por qué está llorando Marta?
+→ Le habrán dado una mala noticia.
+（マルタはどうして泣いているのだろう？ → きっと悪い知らせを受けたのだろう。）
+まとめ
+"¿Qué le habrán dicho?" では、「カルメンの嬉しさの原因」を推測するために未来完了形を使用しています。
+この形は、話し手が現在の状況を見て、その背後にある未確認の出来事について想像する際に非常に一般的です。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この文で "habrías preparado"（過去未来完了形）が使われているのは、
+話し手の期待や予想に反する事実を述べる ためです。
+話し手は、過去の時点で「贈り物は準備されているだろう」と予想していたけれども、
+実際にはそうではなかった（あるいは確証がない）というニュアンスを伝えています。
+文の解説
+Pensaba que
+「私は思っていた」という意味で、主節が 過去形（pretérito imperfecto）です。
+話し手が過去に持っていた期待や推測を表します。
+habrías preparado
+過去未来完了形（condicional compuesto）
+この形は「過去のある時点で話し手が抱いていた予想、推測、期待」を表します。
+直訳すると「（その時点で）君はすべての贈り物を準備していただろう」ですが、
+実際には準備していなかった、あるいは話し手がそれを疑問視しているニュアンスがあります。
+過去未来完了形の使い方
+1. 過去の期待・予想
+話し手が過去に「こうなっているだろう」と思ったことが、現実には異なっていた場合に使います。
+例文:
+Pensaba que habrías terminado el informe antes de la reunión.
+（私は、会議の前に君がレポートを終わらせていると思っていた。）
+→ 実際には終わらせていなかった。
+2. 過去の出来事についての推測
+話し手が、過去のある時点で何が起きたのかを推測する際にも使います。
+例文:
+Para entonces ya habrías salido de la oficina.
+（その時点では君はもうオフィスを出ていただろう。）
+3. 非現実的な仮定
+仮定法の文脈で、過去の出来事が「こうであればこうだっただろう」
+というニュアンスを持つ場合に使います。
+例文:
+Si hubieras llegado temprano, habrías visto la presentación.
+（君が早く来ていたら、プレゼンを見ることができただろう。）
+文脈での解釈
+この文では、話し手は以下のように考えていたことを述べています：
+期待や予想: 「贈り物は式の日のために準備されているだろう」と思っていた。
+実際: その期待が満たされていなかった、あるいはその確認ができていない。
+したがって、文全体は「私は、式の日のために君がすべての贈り物を準備しているだろうと思っていた」
+という意味になります。
+関連表現との比較
+Pensaba que habías preparado todos los regalos.
+「すべての贈り物を準備したと思っていた」という単純な過去の事実を述べる。
+Pensaba que prepararías todos los regalos.
+「すべての贈り物を準備するつもりだと思っていた」という未来に対する期待。
+Pensaba que habrías preparado todos los regalos.
+「準備していただろうと思っていた」という期待が、現実には違っていた可能性を含む。
+まとめ
+"habrías preparado" は、話し手が過去に持っていた期待や予想に反する現実を示すために使われています。
+この時制は、相手にやや責任を問うようなニュアンスを含むこともあり、
+期待外れだった感情を和らげて伝える役割を果たすことがあります。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>過去に完了したことについての推量</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この文における "metido" は、動詞 "meterse" の過去分詞形で、
+ここでは再帰形 "se habrá metido"（未来完了形）の一部として使われています。
+文全体の解説
+Tampoco está aquí Jaime.
+（ハイメもここにいません。）
+→ まず、ハイメがその場にいないことを述べています。
+¿Dónde se habrá metido?
+（彼はどこに行ったのでしょうか？）
+→ 未来完了形（se habrá metido） が使われているのは、
+話し手が「現在の状況に至るまでに、彼がどこへ行ったのかを推測している」からです。
+"meterse" の意味と用法
+動詞 "meter" は「入れる」という意味ですが、再帰形の "meterse" には、以下のようなニュアンスがあります：
+特定の場所に入り込む
+例文:
+¿Dónde se ha metido el gato?
+（猫はどこに入り込んだんだ？）
+→ 「入り込む」という動作に焦点が当たります。
+どこかに行く、姿を消す（カジュアルな言い方）
+この場合、「どこかに行ってしまった」や「どこにいるのか分からない」というニュアンスで使われます。
+例文:
+No está en la fiesta. ¿Dónde se habrá metido?
+（パーティーにいない。どこに行ったんだろう？）
+困った状況に陥る（比喩的表現）
+例文:
+Siempre se mete en problemas.
+（彼はいつも問題に首を突っ込む。）
+→ 自らトラブルに関わるニュアンス。
+"metido" の具体的な意味
+この文では、"meterse" のカジュアルな意味、「どこかに行く」や「どこかに入り込む」を使っています。
+"¿Dónde se habrá metido?" は直訳すると「彼はどこに入り込んだのだろう？」という意味ですが、
+自然な日本語にすると「彼はどこに行ったんだろう？」という解釈になります。
+未来完了形のニュアンス
+"habrá metido"（未来完了形）は、過去の出来事について
+「こうだったのではないか」と現在推測している場合に使います。
+例文:
+¿Qué habrá pasado?
+（何が起こったんだろう？）
+→ 確信はないが、現在の状況をもとに推測している。
+まとめ
+文 "¿Dónde se habrá metido?" は、「ハイメがどこに行ったのだろう？」と、
+現在の状況をもとに話し手が推測している表現です。
+"meterse" が持つ「どこかに行ってしまう」「入り込む」という意味が、
+ここでは「いなくなった理由や場所の謎」を示しています。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -8294,8 +8876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273"/>
+    <sheetView tabSelected="1" topLeftCell="C314" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="18.75"/>
@@ -10317,7 +10899,7 @@
         <v>522</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="218" spans="2:6" ht="409.5">
@@ -10328,7 +10910,7 @@
         <v>524</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="219" spans="2:6">
@@ -10363,7 +10945,7 @@
     </row>
     <row r="222" spans="2:6" ht="37.5">
       <c r="B222" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>533</v>
@@ -10385,7 +10967,7 @@
         <v>537</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="225" spans="2:6" ht="56.25">
@@ -10412,7 +10994,7 @@
         <v>543</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="228" spans="2:6">
@@ -10431,7 +11013,7 @@
         <v>546</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="230" spans="2:6" ht="37.5">
@@ -10447,7 +11029,7 @@
         <v>549</v>
       </c>
       <c r="C231" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D231" t="s">
         <v>550</v>
@@ -10496,7 +11078,7 @@
         <v>561</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="237" spans="2:6" ht="37.5">
@@ -10515,7 +11097,7 @@
         <v>565</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="239" spans="2:6" ht="37.5">
@@ -10669,7 +11251,7 @@
         <v>604</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="37.5">
@@ -10704,7 +11286,7 @@
         <v>612</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="260" spans="2:6">
@@ -10745,7 +11327,7 @@
         <v>622</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="264" spans="2:6" ht="409.5">
@@ -10756,7 +11338,7 @@
         <v>624</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="265" spans="2:6">
@@ -10837,7 +11419,7 @@
         <v>643</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="274" spans="2:6" ht="56.25">
@@ -10856,7 +11438,7 @@
         <v>647</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="276" spans="2:6">
@@ -10929,12 +11511,15 @@
         <v>665</v>
       </c>
     </row>
-    <row r="284" spans="2:6">
+    <row r="284" spans="2:6" ht="409.5">
       <c r="B284" s="1" t="s">
         <v>666</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>667</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="285" spans="2:6" ht="37.5">
@@ -10969,7 +11554,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="37.5">
+    <row r="289" spans="2:6" ht="37.5">
       <c r="B289" s="1" t="s">
         <v>676</v>
       </c>
@@ -10977,7 +11562,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="37.5">
+    <row r="290" spans="2:6" ht="37.5">
       <c r="B290" s="1" t="s">
         <v>678</v>
       </c>
@@ -10985,7 +11570,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="291" spans="2:5">
+    <row r="291" spans="2:6">
       <c r="B291" s="1" t="s">
         <v>680</v>
       </c>
@@ -10999,7 +11584,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="37.5">
+    <row r="292" spans="2:6" ht="37.5">
       <c r="B292" s="1" t="s">
         <v>684</v>
       </c>
@@ -11007,15 +11592,18 @@
         <v>685</v>
       </c>
     </row>
-    <row r="293" spans="2:5" ht="37.5">
+    <row r="293" spans="2:6" ht="409.5">
       <c r="B293" s="1" t="s">
         <v>686</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="294" spans="2:5" ht="37.5">
+      <c r="F293" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" ht="37.5">
       <c r="B294" s="1" t="s">
         <v>688</v>
       </c>
@@ -11023,7 +11611,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="295" spans="2:5" ht="37.5">
+    <row r="295" spans="2:6" ht="37.5">
       <c r="B295" s="1" t="s">
         <v>690</v>
       </c>
@@ -11031,31 +11619,40 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="2:5" ht="37.5">
+    <row r="296" spans="2:6" ht="409.5">
       <c r="B296" s="1" t="s">
         <v>692</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="297" spans="2:5" ht="37.5">
+      <c r="F296" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" ht="409.5">
       <c r="B297" s="1" t="s">
         <v>694</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="298" spans="2:5" ht="37.5">
+      <c r="F297" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" ht="409.5">
       <c r="B298" s="1" t="s">
         <v>696</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="299" spans="2:5">
+      <c r="F298" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6">
       <c r="B299" s="1" t="s">
         <v>698</v>
       </c>
@@ -11063,15 +11660,18 @@
         <v>699</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="37.5">
+    <row r="300" spans="2:6" ht="409.5">
       <c r="B300" s="1" t="s">
         <v>700</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="301" spans="2:5">
+      <c r="F300" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6">
       <c r="B301" s="1" t="s">
         <v>702</v>
       </c>
@@ -11082,7 +11682,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="37.5">
+    <row r="302" spans="2:6" ht="37.5">
       <c r="B302" s="1" t="s">
         <v>705</v>
       </c>
@@ -11090,7 +11690,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="37.5">
+    <row r="303" spans="2:6" ht="37.5">
       <c r="B303" s="1" t="s">
         <v>707</v>
       </c>
@@ -11098,7 +11698,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="304" spans="2:5">
+    <row r="304" spans="2:6">
       <c r="B304" s="1" t="s">
         <v>709</v>
       </c>
@@ -11106,7 +11706,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="37.5">
+    <row r="305" spans="2:6" ht="37.5">
       <c r="B305" s="1" t="s">
         <v>711</v>
       </c>
@@ -11114,2676 +11714,2706 @@
         <v>712</v>
       </c>
     </row>
-    <row r="306" spans="2:5" ht="37.5">
+    <row r="306" spans="2:6" ht="409.5">
       <c r="B306" s="1" t="s">
         <v>713</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="307" spans="2:5" ht="37.5">
+      <c r="F306" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" ht="409.5">
       <c r="B307" s="1" t="s">
         <v>715</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="308" spans="2:5" ht="37.5">
+      <c r="F307" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" ht="409.5">
       <c r="B308" s="1" t="s">
         <v>717</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="309" spans="2:5" ht="37.5">
+      <c r="F308" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" ht="37.5">
       <c r="B309" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C309" s="1" t="s">
+    </row>
+    <row r="310" spans="2:6" ht="37.5">
+      <c r="B310" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="310" spans="2:5" ht="37.5">
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C310" s="1" t="s">
+    </row>
+    <row r="311" spans="2:6" ht="37.5">
+      <c r="B311" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="311" spans="2:5" ht="37.5">
-      <c r="B311" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" t="s">
         <v>724</v>
       </c>
-      <c r="D311" t="s">
+      <c r="E311" t="s">
         <v>725</v>
       </c>
-      <c r="E311" t="s">
+      <c r="F311" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" ht="409.5">
+      <c r="B312" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="312" spans="2:5">
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="F312" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6">
+      <c r="B313" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="313" spans="2:5">
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="F313" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" ht="409.5">
+      <c r="B314" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="314" spans="2:5" ht="37.5">
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="F314" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" ht="37.5">
+      <c r="B315" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="315" spans="2:5" ht="37.5">
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C315" s="1" t="s">
+    </row>
+    <row r="316" spans="2:6" ht="409.5">
+      <c r="B316" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="316" spans="2:5">
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="F316" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6">
+      <c r="B317" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="317" spans="2:5">
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C317" s="1" t="s">
+    </row>
+    <row r="318" spans="2:6" ht="37.5">
+      <c r="B318" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="318" spans="2:5" ht="37.5">
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C318" s="1" t="s">
+    </row>
+    <row r="319" spans="2:6" ht="409.5">
+      <c r="B319" s="1" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="319" spans="2:5" ht="37.5">
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="F319" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" ht="37.5">
+      <c r="B320" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="320" spans="2:5" ht="37.5">
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>744</v>
+      <c r="F320" s="1" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="321" spans="2:5" ht="37.5">
       <c r="B321" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" t="s">
         <v>746</v>
       </c>
-      <c r="D321" t="s">
+      <c r="E321" t="s">
         <v>747</v>
-      </c>
-      <c r="E321" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="37.5">
       <c r="B322" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="323" spans="2:5" ht="37.5">
       <c r="B323" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="324" spans="2:5">
       <c r="B324" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="325" spans="2:5" ht="37.5">
       <c r="B325" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="37.5">
       <c r="B326" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="327" spans="2:5">
       <c r="B327" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="328" spans="2:5" ht="37.5">
       <c r="B328" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="329" spans="2:5" ht="37.5">
       <c r="B329" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="37.5">
       <c r="B330" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="331" spans="2:5" ht="37.5">
       <c r="B331" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" t="s">
         <v>768</v>
       </c>
-      <c r="D331" t="s">
+      <c r="E331" t="s">
         <v>769</v>
-      </c>
-      <c r="E331" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="332" spans="2:5">
       <c r="B332" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="37.5">
       <c r="B333" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="334" spans="2:5">
       <c r="B334" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="335" spans="2:5" ht="37.5">
       <c r="B335" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="336" spans="2:5">
       <c r="B336" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="337" spans="2:5" ht="37.5">
       <c r="B337" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="338" spans="2:5" ht="37.5">
       <c r="B338" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="340" spans="2:5" ht="56.25">
       <c r="B340" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="341" spans="2:5" ht="37.5">
       <c r="B341" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" t="s">
         <v>789</v>
-      </c>
-      <c r="D341" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="342" spans="2:5">
       <c r="B342" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="343" spans="2:5" ht="37.5">
       <c r="B343" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="344" spans="2:5">
       <c r="B344" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="345" spans="2:5">
       <c r="B345" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="346" spans="2:5" ht="37.5">
       <c r="B346" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="347" spans="2:5">
       <c r="B347" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="348" spans="2:5">
       <c r="B348" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="349" spans="2:5">
       <c r="B349" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="350" spans="2:5" ht="37.5">
       <c r="B350" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" t="s">
         <v>810</v>
       </c>
-      <c r="D351" t="s">
+      <c r="E351" t="s">
         <v>811</v>
-      </c>
-      <c r="E351" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="352" spans="2:5" ht="37.5">
       <c r="B352" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="353" spans="2:5">
       <c r="B353" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="354" spans="2:5">
       <c r="B354" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="37.5">
       <c r="B355" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="356" spans="2:5">
       <c r="B356" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="357" spans="2:5" ht="37.5">
       <c r="B357" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="358" spans="2:5">
       <c r="B358" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="359" spans="2:5">
       <c r="B359" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="360" spans="2:5">
       <c r="B360" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="361" spans="2:5">
       <c r="B361" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" t="s">
         <v>832</v>
       </c>
-      <c r="D361" t="s">
+      <c r="E361" t="s">
         <v>833</v>
-      </c>
-      <c r="E361" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="362" spans="2:5">
       <c r="B362" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="37.5">
       <c r="B363" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="364" spans="2:5">
       <c r="B364" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="37.5">
       <c r="B365" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="366" spans="2:5">
       <c r="B366" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="368" spans="2:5">
       <c r="B368" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="369" spans="2:6">
       <c r="B369" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="370" spans="2:6" ht="37.5">
       <c r="B370" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="371" spans="2:6">
       <c r="B371" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" t="s">
         <v>854</v>
       </c>
-      <c r="D371" t="s">
+      <c r="E371" t="s">
         <v>855</v>
-      </c>
-      <c r="E371" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="372" spans="2:6">
       <c r="B372" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="373" spans="2:6" ht="37.5">
       <c r="B373" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="374" spans="2:6" ht="37.5">
       <c r="B374" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="375" spans="2:6" ht="37.5">
       <c r="B375" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="376" spans="2:6">
       <c r="B376" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="377" spans="2:6" ht="37.5">
       <c r="B377" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="378" spans="2:6" ht="37.5">
       <c r="B378" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="379" spans="2:6" ht="56.25">
       <c r="B379" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="380" spans="2:6">
       <c r="B380" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="381" spans="2:6" ht="409.5">
       <c r="B381" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" t="s">
         <v>876</v>
       </c>
-      <c r="D381" t="s">
+      <c r="E381" t="s">
+        <v>875</v>
+      </c>
+      <c r="F381" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="E381" t="s">
-        <v>876</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="382" spans="2:6" ht="37.5">
       <c r="B382" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="383" spans="2:6">
       <c r="B383" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="384" spans="2:6" ht="37.5">
       <c r="B384" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="385" spans="2:5" ht="37.5">
       <c r="B385" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="386" spans="2:5" ht="37.5">
       <c r="B386" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="37.5">
       <c r="B387" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="388" spans="2:5">
       <c r="B388" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="389" spans="2:5" ht="37.5">
       <c r="B389" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="390" spans="2:5" ht="56.25">
       <c r="B390" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="391" spans="2:5">
       <c r="B391" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" t="s">
         <v>898</v>
       </c>
-      <c r="D391" t="s">
+      <c r="E391" t="s">
         <v>899</v>
-      </c>
-      <c r="E391" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="392" spans="2:5" ht="37.5">
       <c r="B392" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="393" spans="2:5" ht="37.5">
       <c r="B393" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="394" spans="2:5" ht="37.5">
       <c r="B394" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="395" spans="2:5" ht="37.5">
       <c r="B395" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="398" spans="2:5">
       <c r="B398" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="399" spans="2:5" ht="37.5">
       <c r="B399" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="400" spans="2:5" ht="37.5">
       <c r="B400" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="401" spans="2:5" ht="37.5">
       <c r="B401" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" t="s">
         <v>920</v>
       </c>
-      <c r="D401" t="s">
+      <c r="E401" t="s">
         <v>921</v>
-      </c>
-      <c r="E401" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="402" spans="2:5" ht="37.5">
       <c r="B402" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="403" spans="2:5">
       <c r="B403" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="404" spans="2:5" ht="37.5">
       <c r="B404" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="405" spans="2:5" ht="37.5">
       <c r="B405" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="406" spans="2:5" ht="37.5">
       <c r="B406" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="407" spans="2:5" ht="37.5">
       <c r="B407" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="408" spans="2:5">
       <c r="B408" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="37.5">
       <c r="B409" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="410" spans="2:5" ht="37.5">
       <c r="B410" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="411" spans="2:5" ht="37.5">
       <c r="B411" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C411" s="1" t="s">
+      <c r="D411" t="s">
         <v>942</v>
       </c>
-      <c r="D411" t="s">
+      <c r="E411" t="s">
         <v>943</v>
-      </c>
-      <c r="E411" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="412" spans="2:5">
       <c r="B412" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="413" spans="2:5" ht="37.5">
       <c r="B413" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="414" spans="2:5" ht="37.5">
       <c r="B414" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C414" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="415" spans="2:5">
       <c r="B415" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C415" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="37.5">
       <c r="B416" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C416" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="417" spans="2:5">
       <c r="B417" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="418" spans="2:5">
       <c r="B418" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C418" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="419" spans="2:5">
       <c r="B419" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C419" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="420" spans="2:5" ht="56.25">
       <c r="B420" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="421" spans="2:5" ht="37.5">
       <c r="B421" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C421" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C421" s="1" t="s">
+      <c r="D421" t="s">
         <v>964</v>
       </c>
-      <c r="D421" t="s">
+      <c r="E421" t="s">
         <v>965</v>
-      </c>
-      <c r="E421" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="422" spans="2:5" ht="37.5">
       <c r="B422" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="423" spans="2:5" ht="37.5">
       <c r="B423" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C423" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="424" spans="2:5" ht="56.25">
       <c r="B424" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C424" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="425" spans="2:5" ht="37.5">
       <c r="B425" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="426" spans="2:5" ht="37.5">
       <c r="B426" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="427" spans="2:5" ht="37.5">
       <c r="B427" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C427" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="428" spans="2:5" ht="37.5">
       <c r="B428" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="429" spans="2:5">
       <c r="B429" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="430" spans="2:5">
       <c r="B430" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="431" spans="2:5">
       <c r="B431" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="D431" t="s">
         <v>986</v>
       </c>
-      <c r="D431" t="s">
+      <c r="E431" t="s">
         <v>987</v>
-      </c>
-      <c r="E431" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="432" spans="2:5" ht="37.5">
       <c r="B432" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="B433" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="37.5">
       <c r="B434" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="93.75">
       <c r="B435" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="F435" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="131.25">
       <c r="B436" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="F436" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="37.5">
       <c r="B437" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C437" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="37.5">
       <c r="B438" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="37.5">
       <c r="B439" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="B440" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="37.5">
       <c r="A441" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="D441" t="s">
         <v>1010</v>
       </c>
-      <c r="D441" t="s">
+      <c r="E441" t="s">
         <v>1011</v>
-      </c>
-      <c r="E441" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="37.5">
       <c r="B442" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="37.5">
       <c r="B443" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="37.5">
       <c r="B444" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="131.25">
       <c r="B445" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="C445" s="1" t="s">
+      <c r="F445" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="F445" s="1" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="37.5">
       <c r="B446" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="37.5">
       <c r="B447" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="37.5">
       <c r="B448" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="56.25">
       <c r="B449" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="37.5">
       <c r="B450" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="451" spans="2:5">
       <c r="B451" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="D451" t="s">
         <v>1033</v>
       </c>
-      <c r="D451" t="s">
+      <c r="E451" t="s">
         <v>1034</v>
-      </c>
-      <c r="E451" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="37.5">
       <c r="B452" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="37.5">
       <c r="B453" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="37.5">
       <c r="B454" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="37.5">
       <c r="B455" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="37.5">
       <c r="B456" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="37.5">
       <c r="B457" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="458" spans="2:5">
       <c r="B458" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="459" spans="2:5">
       <c r="B459" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="460" spans="2:5" ht="37.5">
       <c r="B460" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="461" spans="2:5">
       <c r="B461" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C461" s="1" t="s">
+      <c r="D461" t="s">
         <v>1055</v>
       </c>
-      <c r="D461" t="s">
+      <c r="E461" t="s">
         <v>1056</v>
-      </c>
-      <c r="E461" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="462" spans="2:5">
       <c r="B462" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="463" spans="2:5">
       <c r="B463" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="464" spans="2:5">
       <c r="B464" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="37.5">
       <c r="B465" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="466" spans="2:5">
       <c r="B466" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="467" spans="2:5">
       <c r="B467" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="37.5">
       <c r="B468" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="469" spans="2:5">
       <c r="B469" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C469" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="470" spans="2:5">
       <c r="B470" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="37.5">
       <c r="B471" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C471" s="1" t="s">
+      <c r="D471" t="s">
         <v>1077</v>
       </c>
-      <c r="D471" t="s">
+      <c r="E471" t="s">
         <v>1078</v>
-      </c>
-      <c r="E471" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="472" spans="2:5" ht="37.5">
       <c r="B472" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="37.5">
       <c r="B473" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="37.5">
       <c r="B474" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="37.5">
       <c r="B475" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="37.5">
       <c r="B476" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="37.5">
       <c r="B477" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C477" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="478" spans="2:5">
       <c r="B478" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="37.5">
       <c r="B479" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="37.5">
       <c r="B480" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C480" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="481" spans="2:6" ht="37.5">
       <c r="B481" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C481" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="C481" s="1" t="s">
+      <c r="D481" t="s">
         <v>1099</v>
       </c>
-      <c r="D481" t="s">
+      <c r="E481" t="s">
         <v>1100</v>
-      </c>
-      <c r="E481" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="482" spans="2:6">
       <c r="B482" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C482" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="483" spans="2:6" ht="37.5">
       <c r="B483" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="484" spans="2:6" ht="75">
       <c r="B484" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="C484" s="1" t="s">
+      <c r="F484" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="485" spans="2:6">
       <c r="B485" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C485" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="486" spans="2:6" ht="37.5">
       <c r="B486" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C486" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="487" spans="2:6" ht="37.5">
       <c r="B487" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C487" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="488" spans="2:6" ht="112.5">
       <c r="B488" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C488" s="1" t="s">
+      <c r="F488" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="489" spans="2:6" ht="225">
       <c r="B489" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C489" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C489" s="1" t="s">
+      <c r="F489" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="490" spans="2:6" ht="37.5">
       <c r="B490" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C490" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="491" spans="2:6" ht="37.5">
       <c r="B491" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="C491" s="1" t="s">
+      <c r="D491" t="s">
         <v>1124</v>
       </c>
-      <c r="D491" t="s">
+      <c r="E491" t="s">
         <v>1125</v>
-      </c>
-      <c r="E491" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="492" spans="2:6">
       <c r="B492" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="493" spans="2:6" ht="37.5">
       <c r="B493" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C493" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="494" spans="2:6">
       <c r="B494" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C494" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="495" spans="2:6" ht="37.5">
       <c r="B495" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="496" spans="2:6" ht="37.5">
       <c r="B496" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C496" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="497" spans="2:6" ht="243.75">
       <c r="B497" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C497" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="C497" s="1" t="s">
+      <c r="F497" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="F497" s="1" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="498" spans="2:6" ht="37.5">
       <c r="B498" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C498" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="499" spans="2:6" ht="37.5">
       <c r="B499" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C499" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="500" spans="2:6" ht="37.5">
       <c r="B500" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="501" spans="2:6">
       <c r="B501" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C501" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="C501" s="1" t="s">
+      <c r="D501" t="s">
         <v>1147</v>
       </c>
-      <c r="D501" t="s">
+      <c r="E501" t="s">
         <v>1148</v>
-      </c>
-      <c r="E501" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="502" spans="2:6" ht="37.5">
       <c r="B502" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C502" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="503" spans="2:6">
       <c r="B503" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C503" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="504" spans="2:6">
       <c r="B504" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C504" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="505" spans="2:6" ht="37.5">
       <c r="B505" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C505" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="506" spans="2:6" ht="37.5">
       <c r="B506" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C506" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="507" spans="2:6">
       <c r="B507" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C507" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="508" spans="2:6" ht="37.5">
       <c r="B508" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C508" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="509" spans="2:6">
       <c r="B509" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C509" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="510" spans="2:6" ht="409.5">
       <c r="B510" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C510" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C510" s="1" t="s">
+      <c r="F510" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="F510" s="1" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="511" spans="2:6">
       <c r="B511" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C511" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="C511" s="1" t="s">
+      <c r="D511" t="s">
         <v>1170</v>
       </c>
-      <c r="D511" t="s">
+      <c r="E511" t="s">
         <v>1171</v>
-      </c>
-      <c r="E511" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="512" spans="2:6" ht="318.75">
       <c r="B512" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F512" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F512" s="1" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="513" spans="2:6" ht="409.5">
       <c r="B513" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C513" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="C513" s="1" t="s">
+      <c r="F513" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="F513" s="1" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C514" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="515" spans="2:6" ht="56.25">
       <c r="B515" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C515" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="516" spans="2:6" ht="37.5">
       <c r="B516" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C516" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C517" s="1" t="s">
         <v>1184</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="518" spans="2:6" ht="409.5">
       <c r="B518" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C518" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C518" s="1" t="s">
+      <c r="F518" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="F518" s="1" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="519" spans="2:6" ht="409.5">
       <c r="B519" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C519" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="C519" s="1" t="s">
+      <c r="F519" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="F519" s="1" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="520" spans="2:6" ht="409.5">
       <c r="B520" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C520" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="C520" s="1" t="s">
+      <c r="F520" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="F520" s="1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="521" spans="2:6">
       <c r="B521" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C521" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="C521" s="1" t="s">
+      <c r="D521" t="s">
         <v>1196</v>
       </c>
-      <c r="D521" t="s">
+      <c r="E521" t="s">
         <v>1197</v>
-      </c>
-      <c r="E521" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="522" spans="2:6" ht="37.5">
       <c r="B522" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C522" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="523" spans="2:6">
       <c r="B523" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C523" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="524" spans="2:6">
       <c r="B524" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C524" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="525" spans="2:6">
       <c r="B525" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C525" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="526" spans="2:6">
       <c r="B526" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C526" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="527" spans="2:6">
       <c r="B527" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C527" s="1" t="s">
         <v>1209</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="528" spans="2:6" ht="356.25">
       <c r="B528" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C528" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="C528" s="1" t="s">
+      <c r="F528" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="F528" s="1" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="529" spans="2:6" ht="409.5">
       <c r="B529" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C529" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="C529" s="1" t="s">
+      <c r="F529" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="F529" s="1" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="530" spans="2:6" ht="409.5">
       <c r="B530" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C530" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="C530" s="1" t="s">
+      <c r="F530" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="F530" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="531" spans="2:6">
       <c r="B531" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C531" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="C531" s="1" t="s">
+      <c r="D531" t="s">
         <v>1221</v>
       </c>
-      <c r="D531" t="s">
+      <c r="E531" t="s">
         <v>1222</v>
-      </c>
-      <c r="E531" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="532" spans="2:6" ht="409.5">
       <c r="B532" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C532" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C532" s="1" t="s">
+      <c r="F532" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="F532" s="1" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="533" spans="2:6">
       <c r="B533" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C533" s="1" t="s">
         <v>1227</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="534" spans="2:6" ht="37.5">
       <c r="B534" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C534" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="C534" s="1" t="s">
+      <c r="F534" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="F534" s="1" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="535" spans="2:6" ht="37.5">
       <c r="B535" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="536" spans="2:6" ht="37.5">
       <c r="B536" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="537" spans="2:6" ht="37.5">
       <c r="B537" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C537" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="538" spans="2:6" ht="37.5">
       <c r="B538" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="539" spans="2:6" ht="37.5">
       <c r="B539" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="540" spans="2:6" ht="318.75">
       <c r="B540" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="C540" s="1" t="s">
+      <c r="F540" s="1" t="s">
         <v>1243</v>
-      </c>
-      <c r="F540" s="1" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="541" spans="2:6" ht="37.5">
       <c r="B541" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C541" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="C541" s="1" t="s">
+      <c r="D541" t="s">
         <v>1246</v>
       </c>
-      <c r="D541" t="s">
+      <c r="E541" t="s">
         <v>1247</v>
-      </c>
-      <c r="E541" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="542" spans="2:6" ht="409.5">
       <c r="B542" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C542" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C542" s="1" t="s">
+      <c r="F542" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="F542" s="1" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="543" spans="2:6">
       <c r="B543" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="544" spans="2:6" ht="37.5">
       <c r="B544" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C544" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="545" spans="2:6" ht="187.5">
       <c r="B545" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C545" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C545" s="1" t="s">
+      <c r="F545" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="F545" s="1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="546" spans="2:6" ht="409.5">
       <c r="B546" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C546" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="C546" s="1" t="s">
+      <c r="F546" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="F546" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="547" spans="2:6" ht="409.5">
       <c r="B547" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C547" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="C547" s="1" t="s">
+      <c r="F547" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="F547" s="1" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="548" spans="2:6" ht="409.5">
       <c r="B548" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C548" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C548" s="1" t="s">
+      <c r="F548" s="1" t="s">
         <v>1265</v>
-      </c>
-      <c r="F548" s="1" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="549" spans="2:6" ht="409.5">
       <c r="B549" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C549" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="C549" s="1" t="s">
+      <c r="F549" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="F549" s="1" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="550" spans="2:6" ht="409.5">
       <c r="B550" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C550" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="C550" s="1" t="s">
+      <c r="F550" s="1" t="s">
         <v>1271</v>
-      </c>
-      <c r="F550" s="1" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="551" spans="2:6" ht="37.5">
       <c r="B551" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C551" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C551" s="1" t="s">
+      <c r="D551" t="s">
         <v>1274</v>
       </c>
-      <c r="D551" t="s">
+      <c r="E551" t="s">
         <v>1275</v>
-      </c>
-      <c r="E551" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="552" spans="2:6" ht="37.5">
       <c r="B552" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C552" s="1" t="s">
         <v>1277</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="553" spans="2:6" ht="37.5">
       <c r="B553" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="554" spans="2:6" ht="409.5">
       <c r="B554" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C554" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="C554" s="1" t="s">
+      <c r="F554" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="F554" s="1" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="555" spans="2:6" ht="37.5">
       <c r="B555" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C555" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="556" spans="2:6" ht="37.5">
       <c r="B556" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C556" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="557" spans="2:6" ht="37.5">
       <c r="B557" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C557" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="558" spans="2:6" ht="409.5">
       <c r="B558" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C558" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="C558" s="1" t="s">
+      <c r="F558" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="F558" s="1" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="559" spans="2:6" ht="409.5">
       <c r="B559" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C559" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C559" s="1" t="s">
+      <c r="F559" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="F559" s="1" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="560" spans="2:6" ht="409.5">
       <c r="B560" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C560" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="C560" s="1" t="s">
+      <c r="F560" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="F560" s="1" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="561" spans="2:6" ht="37.5">
       <c r="B561" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C561" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="C561" s="1" t="s">
+      <c r="D561" t="s">
         <v>1300</v>
       </c>
-      <c r="D561" t="s">
+      <c r="E561" t="s">
         <v>1301</v>
-      </c>
-      <c r="E561" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="562" spans="2:6">
       <c r="B562" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C562" s="1" t="s">
         <v>1303</v>
-      </c>
-      <c r="C562" s="1" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="563" spans="2:6" ht="409.5">
       <c r="B563" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C563" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="C563" s="1" t="s">
+      <c r="F563" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="F563" s="1" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="564" spans="2:6" ht="37.5">
       <c r="B564" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C564" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="C564" s="1" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="565" spans="2:6" ht="37.5">
       <c r="B565" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C565" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="C565" s="1" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="566" spans="2:6" ht="37.5">
       <c r="B566" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C566" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="C566" s="1" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="567" spans="2:6" ht="37.5">
       <c r="B567" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C567" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="568" spans="2:6" ht="37.5">
       <c r="B568" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C568" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="569" spans="2:6" ht="409.5">
       <c r="B569" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="C569" s="1" t="s">
+      <c r="F569" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="F569" s="1" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="570" spans="2:6" ht="409.5">
       <c r="B570" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C570" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C570" s="1" t="s">
+      <c r="F570" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="F570" s="1" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="571" spans="2:6" ht="37.5">
       <c r="B571" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C571" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="C571" s="1" t="s">
+      <c r="D571" t="s">
         <v>1325</v>
       </c>
-      <c r="D571" t="s">
+      <c r="E571" t="s">
         <v>1326</v>
-      </c>
-      <c r="E571" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="572" spans="2:6" ht="37.5">
       <c r="B572" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C572" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="C572" s="1" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="573" spans="2:6" ht="37.5">
       <c r="B573" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C573" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="C573" s="1" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="574" spans="2:6" ht="37.5">
       <c r="B574" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C574" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="C574" s="1" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="575" spans="2:6">
       <c r="B575" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C575" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="576" spans="2:6">
       <c r="B576" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C576" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="C576" s="1" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="577" spans="2:6" ht="409.5">
       <c r="B577" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C577" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="C577" s="1" t="s">
+      <c r="F577" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="F577" s="1" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="578" spans="2:6">
       <c r="B578" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C578" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="579" spans="2:6" ht="37.5">
       <c r="B579" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C579" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="580" spans="2:6">
       <c r="B580" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C580" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="C580" s="1" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="581" spans="2:6" ht="409.5">
       <c r="B581" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C581" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="C581" s="1" t="s">
+      <c r="D581" t="s">
         <v>1348</v>
       </c>
-      <c r="D581" t="s">
+      <c r="E581" t="s">
         <v>1349</v>
       </c>
-      <c r="E581" t="s">
+      <c r="F581" s="1" t="s">
         <v>1350</v>
-      </c>
-      <c r="F581" s="1" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="582" spans="2:6" ht="131.25">
       <c r="B582" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C582" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="C582" s="1" t="s">
+      <c r="F582" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="F582" s="1" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="583" spans="2:6" ht="375">
       <c r="B583" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C583" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="C583" s="1" t="s">
+      <c r="F583" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="F583" s="1" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="584" spans="2:6" ht="300">
       <c r="B584" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C584" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="C584" s="1" t="s">
+      <c r="F584" s="1" t="s">
         <v>1359</v>
-      </c>
-      <c r="F584" s="1" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="585" spans="2:6">
       <c r="B585" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C585" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="586" spans="2:6">
       <c r="B586" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C586" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="C586" s="1" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="587" spans="2:6" ht="37.5">
       <c r="B587" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C587" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="588" spans="2:6" ht="75">
       <c r="B588" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C588" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="C588" s="1" t="s">
+      <c r="F588" s="1" t="s">
         <v>1368</v>
-      </c>
-      <c r="F588" s="1" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="589" spans="2:6" ht="409.5">
       <c r="B589" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C589" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="C589" s="1" t="s">
+      <c r="F589" s="1" t="s">
         <v>1371</v>
-      </c>
-      <c r="F589" s="1" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="590" spans="2:6" ht="262.5">
       <c r="B590" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C590" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="C590" s="1" t="s">
+      <c r="F590" s="1" t="s">
         <v>1374</v>
-      </c>
-      <c r="F590" s="1" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="591" spans="2:6" ht="37.5">
       <c r="B591" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C591" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="C591" s="1" t="s">
+      <c r="D591" t="s">
         <v>1377</v>
       </c>
-      <c r="D591" t="s">
+      <c r="E591" t="s">
         <v>1378</v>
-      </c>
-      <c r="E591" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="592" spans="2:6" ht="37.5">
       <c r="B592" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C592" s="1" t="s">
         <v>1380</v>
-      </c>
-      <c r="C592" s="1" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="593" spans="2:6" ht="37.5">
       <c r="B593" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C593" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="C593" s="1" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="594" spans="2:6" ht="75">
       <c r="B594" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C594" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="C594" s="1" t="s">
+      <c r="F594" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="F594" s="1" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="595" spans="2:6" ht="168.75">
       <c r="B595" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C595" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="C595" s="1" t="s">
+      <c r="F595" s="1" t="s">
         <v>1388</v>
-      </c>
-      <c r="F595" s="1" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="596" spans="2:6" ht="409.5">
       <c r="B596" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C596" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="C596" s="1" t="s">
+      <c r="F596" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="F596" s="1" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="597" spans="2:6" ht="37.5">
       <c r="B597" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C597" s="1" t="s">
         <v>1393</v>
-      </c>
-      <c r="C597" s="1" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="598" spans="2:6">
       <c r="B598" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C598" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="C598" s="1" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="599" spans="2:6">
       <c r="B599" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C599" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="C599" s="1" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="600" spans="2:6" ht="409.5">
       <c r="B600" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C600" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="C600" s="1" t="s">
+      <c r="F600" s="1" t="s">
         <v>1400</v>
-      </c>
-      <c r="F600" s="1" t="s">
-        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -13980,7 +14610,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14007,7 +14637,7 @@
         <v>573</v>
       </c>
       <c r="C26" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -14063,7 +14693,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -14071,7 +14701,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -14079,7 +14709,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -14087,7 +14717,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -14095,7 +14725,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -14103,7 +14733,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -14111,7 +14741,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -14119,7 +14749,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -14127,7 +14757,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -14135,7 +14765,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -14143,7 +14773,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -14151,7 +14781,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -14159,7 +14789,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -14167,10 +14797,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C46" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -14178,7 +14808,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -14186,7 +14816,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -14194,7 +14824,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -14202,7 +14832,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -14210,7 +14840,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -14218,7 +14848,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -14226,7 +14856,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -14234,7 +14864,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -14242,7 +14872,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -14250,7 +14880,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -14258,7 +14888,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -14266,7 +14896,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -14274,7 +14904,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -14282,7 +14912,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -14290,7 +14920,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
   </sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2C5EC-7022-4B78-8F14-C3BCCF5E8C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164F597-E00A-4C9C-B3E7-B062AA20B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="32985" yWindow="3120" windowWidth="20250" windowHeight="11505" tabRatio="500" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="30180" yWindow="2955" windowWidth="23865" windowHeight="11955" tabRatio="500" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0" iterateDelta="1E-4"/>
+  <x:calcPr calcId="0"/>
   <x:extLst>
     <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -7405,6 +7405,39 @@
     <x:t>Habiendo recogido todo lo que quedaba, la profesora García cerró el despacho.</x:t>
   </x:si>
   <x:si>
+    <x:t>**Habiendo recogido todo lo que quedaba, la profesora García cerró el despacho.**  
+この文での **habiendo recogido** は、「（すでに）残っていたすべてを片付けたあとで」という意味を持っています。
+この表現は分詞構文と呼ばれ、主節の動作に先立つ動作を表します。
+---
+### **構造の解説**
+1. **Habiendo**  
+   - 動詞 **haber**（助動詞）の現在分詞形です。  
+   - **haber + 過去分詞** の形を使うことで、「すでに〜した状態で」や
+   「〜を終えたあとで」というニュアンスを表します。
+2. **Recogido**  
+   - 動詞 **recoger**（片付ける、拾う）の過去分詞形です。  
+   - **haber + 過去分詞** の構造で完了形を作り、過去の行為を指しています。
+3. **Habiendo recogido**  
+   - 「片付けたあとで」または「片付けた状態で」という意味になります。  
+   - これは副詞句として働き、主節「la profesora García cerró el despacho」と密接に関連しています。
+---
+### **文の全体訳**
+「残っていたすべてを片付けたあとで、ガルシア先生は研究室を閉めた。」
+---
+### **類似構文と比較**
+分詞構文は他にも以下のように使えます：
+1. **Habiendo terminado el trabajo, salieron a dar un paseo.**  
+   → 「仕事を終えたあとで、散歩に出かけた。」
+2. **Habiendo estudiado tanto, aprobó el examen fácilmente.**  
+   → 「たくさん勉強したおかげで、試験に簡単に合格した。」
+---
+### **ポイント**
+- **Habiendo + 過去分詞** の形は、主節の動作よりも前に起きた行動や状態を説明します。  
+- 日本語では「〜したあとで」「〜した結果」と訳されることが多いです。  
+- 文語的で少しフォーマルな印象を与えますが、特に書き言葉でよく使われます。
+この文脈では、ガルシア先生が研究室を閉める前に片付けを終えていたことを強調しています。</x:t>
+  </x:si>
+  <x:si>
     <x:t>「Paulaは会社(e)にたくさんのことをしました」
 「それを考慮しても、彼女にさらにチャンスをあげることはできません」</x:t>
   </x:si>
@@ -7413,10 +7446,123 @@
 Aun teniéndolo en cuenta, no podemos darle más oportunidades.</x:t>
   </x:si>
   <x:si>
+    <x:t>**Paula ha hecho mucho por la empresa. Aun teniéndolo en cuenta, no podemos darle más oportunidades.**  
+この文で使われている現在分詞 **teniéndolo** は、
+「それを考慮している状態で」「それを考慮しても」という意味を持ちます。
+現在分詞を使うことで、補足的な状況を簡潔に表現しています。
+---
+### **現在分詞の役割**
+1. **現在分詞の基本構造**  
+   - 動詞 **tener** の現在分詞形 **teniendo** に目的語代名詞 **lo** が付加された形です。
+   - **teniendo + lo** は「それ（＝Paula ha hecho mucho por la empresa の内容）を考慮して」という意味です。
+2. **文全体での役割**  
+   - この現在分詞句は、副詞句として働き、
+   主節「no podemos darle más oportunidades」の理由や条件を補足的に説明しています。
+   - **Aun** と組み合わさることで「〜にもかかわらず」「〜を踏まえても」というニュアンスを強調しています。
+---
+### **文の全体訳**
+「パウラは会社のために多くのことをしてきました。
+それを考慮しても、これ以上彼女にチャンスを与えることはできません。」
+---
+### **類似の構文例**
+以下の例も、現在分詞を使って状況を補足的に説明しています：
+1. **Estando enferma, fue a trabajar.**  
+   → 「病気であったにもかかわらず、仕事に行った。」
+2. **Sabiendo que no era buena idea, decidieron intentarlo.**  
+   → 「それが良い考えではないと知りつつも、試すことにした。」
+3. **Aun habiendo estudiado mucho, suspendió el examen.**  
+   → 「たくさん勉強したのに、試験に落ちた。」
+---
+### **ポイント**
+- 現在分詞句は「〜しながら」「〜した状態で」「〜にもかかわらず」などの状況や条件を簡潔に表します。
+- **aun** との組み合わせでは「〜を考慮しても」「〜にもかかわらず」という意味を強調できます。
+- より書き言葉やフォーマルな場面で使われる傾向があります。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/01/22</x:t>
+  </x:si>
+  <x:si>
     <x:t>新しい監督(男性)が来てから、代表チームは良くなっていっている</x:t>
   </x:si>
   <x:si>
     <x:t>La selección va mejorando desde la llegada del entrenador nuevo.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+&lt;pregunta&gt;
+la llegada del entrenador nuevo
+って日本語に直訳すると、「新しい監督の到着」ですよね？
+日本語ではそんな変な言い方しないんですけど。
+&lt;/pregunta&gt;
+おっしゃる通り、スペイン語の **la llegada del entrenador nuevo** を直訳すると
+「新しい監督の到着」となり、日本語では少し不自然に聞こえます。
+日本語ではこのような表現をより自然に訳す際に、文脈に応じて工夫します。
+---
+### **文脈に基づいた訳し方**
+1. **具体的な言い方にする**
+   - 「新しい監督が来てから」  
+     → これは日本語の文脈において、最も自然に響く訳です。
+2. **スペイン語特有の名詞化を考慮**
+   - スペイン語では動詞 **llegar**（到着する）の派生形 **llegada**（到着）を名詞として使うことが多いですが、
+   日本語ではそのまま「到着」とするよりも「来る」や「就任」といった動詞で表現したほうが自然です。  
+     例: **「新しい監督が就任してから」**
+3. **スペイン語の語順や直訳のニュアンスを調整**
+   - 日本語では「新しい監督が来たことによって」や「新しい監督の影響で」など、
+   背景や影響を含んだ自然な言い回しに変えることもよくあります。
+---
+### **最終的な訳例**
+- **La selección va mejorando desde la llegada del entrenador nuevo.**  
+  - 「新しい監督が来てから、チームはだんだん良くなっています。」
+  - 「新しい監督の就任以来、チームの調子が上がっています。」
+---
+スペイン語の名詞化された表現（**la llegada** や **el comienzo** など）は、
+日本語にそのまま持ち込むと不自然になることが多いです。
+そのため、日本語では「動作や出来事を説明する動詞」を使って訳すことで、より自然な表現になります。
+=====
+&lt;pregunta&gt;
+日本語に直訳すると不自然になるようなスペイン語の言葉を使えるようにするにはどうしたらいいですか？
+日本語に直訳すると不自然に感じるということは、
+日本語母語話者はその表現のスペイン語が出てきようがないということですよね。
+&lt;/pregunta&gt;
+確かに、直訳すると不自然に感じるスペイン語表現を自然に使えるようになるには、
+日本語の感覚を少し離れ、スペイン語の思考パターンや表現の癖を理解する必要があります。
+そのためには、次のようなアプローチが効果的です。
+---
+### **1. スペイン語を「日本語に訳さず」そのまま理解する**
+- 日本語に訳さずにスペイン語そのものを理解する練習をすると、スペイン語らしい感覚が身についてきます。
+- たとえば、**la llegada del entrenador nuevo** は「新しい監督が来ること」と訳さずに、
+「到着」という名詞をそのままイメージとして捉える。
+  - 例: スペイン語で「到着」「訪問」「解決」などを動作ではなく「出来事」として扱う癖に慣れる。
+---
+### **2. よく使われるフレーズを丸ごと覚える**
+- ネイティブスピーカーが日常的に使う表現を、そのままフレーズとして覚えると、
+翻訳を介さず自然に出てくるようになります。
+  - 例: **Desde la llegada de...（～が来てから）** や **a partir de la resolución de...（～が解決してから）**
+- 自分の生活に関連した表現を積極的に取り入れると、実感を持って使いやすくなります。
+---
+### **3. 具体例を収集して、文脈ごと覚える**
+- 単語やフレーズだけではなく、どのような状況で使われるかを具体的な文脈で理解するのが大事です。
+  - 例: **Después de la llegada del tren, salimos de la estación.**（電車が到着した後、駅を出た。）  
+    → 「到着」を含む場面を思い浮かべながら覚える。
+---
+### **4. スペイン語で考える練習をする**
+- 自分の日常をスペイン語で記録したり、考えたりすることで、日本語からの翻訳癖を減らす。
+  - 例: 日記を書く際に「新しい先生が来てから」ではなく **Desde la llegada del nuevo profesor** と書いてみる。
+---
+### **5. ネイティブスピーカーや教材で表現を観察する**
+- ネイティブスピーカーの会話や文章を注意深く観察し、「自分ならどう言いそうか」と比較する練習をします。
+- 不自然に感じる部分を見つけたら、なぜその表現を使うのかを調べる癖をつける。
+  - 例: 映画やドラマで **la llegada de...** のような表現が出たら、
+  日本語でどう訳すかを考えず、どういう状況で使われているかに注目する。
+---
+### **6. 言語の「直訳できない部分」を楽しむ**
+- スペイン語と日本語では表現の仕方が異なることを前提に、言葉の違いを楽しむ姿勢を持つ。
+  - スペイン語の **la llegada** のような表現が「スペイン語らしさ」と感じられると、より自然に使いやすくなります。
+---
+### **まとめ**
+最初は日本語との違いに違和感を持つのは当然ですが、
+スペイン語の思考パターンを「そのまま」理解しようとすることで、徐々に自然に出てくるようになります。
+練習を続ける中で、直訳の癖を減らし、スペイン語の世界観をそのまま受け入れることが鍵です！</x:t>
   </x:si>
   <x:si>
     <x:t>(私たちが主語)このペースで歩いていたら、全然進みませんよ</x:t>
@@ -7508,7 +7654,44 @@
 hecho una fiera｜かんかんに怒って（←猛獣のようになって）．
 Está hecho un monstruo.｜彼はひどく怒っている；精力的に働いている（←怪物のようになっている）．
 ▲hecho は修飾する名詞に性数一致する．
-⇒La casa está hecha una ruina.｜家は廃墟(はいきょ)のようになっている．</x:t>
+⇒La casa está hecha una ruina.｜家は廃墟(はいきょ)のようになっている．
+======
+**La habitación de Emilio siempre está hecha un desastre** の **está hecha un desastre** 
+について説明します。この表現はスペイン語の口語的な言い回しで、
+「（場所や物が）非常に散らかっている、めちゃくちゃな状態である」という意味です。
+---
+### **文の分解と解釈**
+1. **está hecha**  
+   - 動詞 **estar** の現在形（3人称単数）と、**hacer** の過去分詞 **hecha** の組み合わせです。  
+   - ここでは、**estar + 過去分詞** の構造で、「～された状態である」という意味を表します。
+     - 例: La cama está hecha.（ベッドが整えられている。＝ベッドメイキングされている）
+2. **un desastre**  
+   - **desastre** は「災害、混乱、めちゃくちゃ」という意味の名詞で、ここでは「非常に散らかった状態」を指します。  
+   - **un desastre** を使うことで、「無秩序なひどい状態」というニュアンスが強調されています。
+---
+### **表現全体の意味**
+- **está hecha un desastre** を直訳すると、「（部屋が）めちゃくちゃな状態に作られている」となりますが、
+自然な訳は「（部屋が）めちゃくちゃに散らかっている」という意味になります。
+- ここでの **hacer**（過去分詞の **hecha**）は、実際に誰かが「めちゃくちゃにした」かどうかに関係なく、
+単に「現在の状態」を描写するために使われています。
+---
+### **似たような表現**
+- **Está hecha polvo.**（とても疲れている）  
+  - 「粉々にされている」という直訳ですが、比喩的に「ひどく疲れている」状態を表現。
+- **Está hecho un lío.**（とても混乱している／ごちゃごちゃしている）  
+  - 「混乱した状態になっている」というニュアンス。
+---
+### **補足：状態を強調する「un/a + 名詞」**
+スペイン語では、状態を比喩的に強調するために「un/a + 名詞」の形をよく使います。
+この文でも **un desastre** が状態を強調しています。
+- 例:
+  - **Está hecho un genio.**（彼はまるで天才のようだ。）
+  - **Está hecho un caos.**（それはまるでカオスのようだ。）
+---
+### **まとめ**
+**está hecha un desastre** は、「部屋がひどく散らかっている、めちゃくちゃな状態である」
+ということを表す日常的な表現です。このフレーズを覚えることで、
+状態を比喩的に強調するスペイン語の特徴的な言い回しを自然に使えるようになります。</x:t>
   </x:si>
   <x:si>
     <x:t>その経験ができて自分(女性)は非常に幸運だと思っています</x:t>
@@ -10308,13 +10491,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F600"/>
+  <x:dimension ref="A1:G600"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C364" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <x:selection activeCell="F373" sqref="F373"/>
+    <x:sheetView tabSelected="1" topLeftCell="C420" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <x:selection activeCell="F426" sqref="F426"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.585625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="14.335625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -10323,7 +10506,7 @@
     <x:col min="6" max="6" width="102.375" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="1" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -10340,7 +10523,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="2" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -10348,7 +10531,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="3" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B3" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -10356,7 +10539,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="4" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -10364,7 +10547,7 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="5" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B5" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -10372,7 +10555,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="6" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -10380,7 +10563,7 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="7" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B7" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -10388,7 +10571,7 @@
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="8" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
@@ -10396,7 +10579,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="9" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B9" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -10404,7 +10587,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="10" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B10" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -10415,7 +10598,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="11" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B11" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -10429,7 +10612,7 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="12" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B12" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -10440,7 +10623,7 @@
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="13" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B13" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -10448,7 +10631,7 @@
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="14" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B14" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -10456,7 +10639,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="15" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B15" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -10464,7 +10647,7 @@
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="16" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B16" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -10472,7 +10655,7 @@
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="17" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B17" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
@@ -10480,7 +10663,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="18" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B18" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -10491,7 +10674,7 @@
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="19" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B19" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
@@ -10499,7 +10682,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="20" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B20" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
@@ -10510,7 +10693,7 @@
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="21" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B21" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -10524,7 +10707,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="22" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B22" s="1" t="s">
         <x:v>53</x:v>
       </x:c>
@@ -10532,7 +10715,7 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="23" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B23" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -10540,7 +10723,7 @@
         <x:v>56</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="24" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B24" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
@@ -10548,7 +10731,7 @@
         <x:v>58</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="25" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B25" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
@@ -10556,7 +10739,7 @@
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="26" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B26" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -10564,7 +10747,7 @@
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="27" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B27" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -10575,7 +10758,7 @@
         <x:v>64</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="28" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B28" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -10583,7 +10766,7 @@
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="29" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B29" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -10591,7 +10774,7 @@
         <x:v>68</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="30" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B30" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -10599,7 +10782,7 @@
         <x:v>70</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="31" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B31" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
@@ -10613,7 +10796,7 @@
         <x:v>74</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="32" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B32" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
@@ -10621,7 +10804,7 @@
         <x:v>76</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="33" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B33" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
@@ -10629,7 +10812,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="34" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B34" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -10637,7 +10820,7 @@
         <x:v>80</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="35" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B35" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
@@ -10645,7 +10828,7 @@
         <x:v>82</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="36" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B36" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -10653,7 +10836,7 @@
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="37" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B37" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -10661,7 +10844,7 @@
         <x:v>86</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="38" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B38" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
@@ -10669,7 +10852,7 @@
         <x:v>88</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="39" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B39" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
@@ -10680,7 +10863,7 @@
         <x:v>91</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="40" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B40" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
@@ -10688,7 +10871,7 @@
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="41" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B41" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -10702,7 +10885,7 @@
         <x:v>97</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="42" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B42" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
@@ -10710,7 +10893,7 @@
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="43" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B43" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -10718,7 +10901,7 @@
         <x:v>101</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="44" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B44" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
@@ -10726,7 +10909,7 @@
         <x:v>103</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="45" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B45" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
@@ -10734,7 +10917,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="46" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B46" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
@@ -10742,7 +10925,7 @@
         <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="47" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B47" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
@@ -10750,7 +10933,7 @@
         <x:v>109</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="48" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B48" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
@@ -10758,7 +10941,7 @@
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="49" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B49" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
@@ -10766,7 +10949,7 @@
         <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="50" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B50" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
@@ -10774,7 +10957,7 @@
         <x:v>115</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="51" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B51" s="1" t="s">
         <x:v>116</x:v>
       </x:c>
@@ -10788,7 +10971,7 @@
         <x:v>119</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="52" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B52" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
@@ -10796,7 +10979,7 @@
         <x:v>121</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="53" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B53" s="1" t="s">
         <x:v>122</x:v>
       </x:c>
@@ -10804,7 +10987,7 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="54" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B54" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
@@ -10812,7 +10995,7 @@
         <x:v>125</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="55" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B55" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
@@ -10820,7 +11003,7 @@
         <x:v>127</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="56" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B56" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
@@ -10828,7 +11011,7 @@
         <x:v>119</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="57" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B57" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
@@ -10836,7 +11019,7 @@
         <x:v>130</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="58" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B58" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
@@ -10844,7 +11027,7 @@
         <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="59" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B59" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
@@ -10852,7 +11035,7 @@
         <x:v>134</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="60" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B60" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
@@ -10860,7 +11043,7 @@
         <x:v>136</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="61" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B61" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
@@ -10874,7 +11057,7 @@
         <x:v>140</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="62" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B62" s="1" t="s">
         <x:v>141</x:v>
       </x:c>
@@ -10882,7 +11065,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="63" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B63" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
@@ -10890,7 +11073,7 @@
         <x:v>144</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="64" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B64" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
@@ -10898,7 +11081,7 @@
         <x:v>146</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="65" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B65" s="1" t="s">
         <x:v>147</x:v>
       </x:c>
@@ -10906,7 +11089,7 @@
         <x:v>140</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="66" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B66" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
@@ -10914,7 +11097,7 @@
         <x:v>149</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="67" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B67" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
@@ -10925,7 +11108,7 @@
         <x:v>152</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="68" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B68" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
@@ -10933,7 +11116,7 @@
         <x:v>154</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="69" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B69" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
@@ -10941,7 +11124,7 @@
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="70" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B70" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
@@ -10949,7 +11132,7 @@
         <x:v>158</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="71" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B71" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
@@ -10963,7 +11146,7 @@
         <x:v>162</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="72" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B72" s="1" t="s">
         <x:v>163</x:v>
       </x:c>
@@ -10971,7 +11154,7 @@
         <x:v>164</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="73" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B73" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
@@ -10979,7 +11162,7 @@
         <x:v>166</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="74" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B74" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
@@ -10987,7 +11170,7 @@
         <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="75" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B75" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
@@ -10995,7 +11178,7 @@
         <x:v>170</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="76" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B76" s="1" t="s">
         <x:v>171</x:v>
       </x:c>
@@ -11003,7 +11186,7 @@
         <x:v>172</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="77" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B77" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
@@ -11011,7 +11194,7 @@
         <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="78" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B78" s="1" t="s">
         <x:v>175</x:v>
       </x:c>
@@ -11019,7 +11202,7 @@
         <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="79" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B79" s="1" t="s">
         <x:v>177</x:v>
       </x:c>
@@ -11027,7 +11210,7 @@
         <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="80" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B80" s="1" t="s">
         <x:v>179</x:v>
       </x:c>
@@ -11035,7 +11218,7 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="81" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B81" s="1" t="s">
         <x:v>181</x:v>
       </x:c>
@@ -11049,7 +11232,7 @@
         <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="82" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B82" s="1" t="s">
         <x:v>185</x:v>
       </x:c>
@@ -11057,7 +11240,7 @@
         <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="83" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B83" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
@@ -11065,7 +11248,7 @@
         <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="84" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B84" s="1" t="s">
         <x:v>189</x:v>
       </x:c>
@@ -11073,7 +11256,7 @@
         <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="85" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B85" s="1" t="s">
         <x:v>191</x:v>
       </x:c>
@@ -11081,7 +11264,7 @@
         <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="86" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B86" s="1" t="s">
         <x:v>193</x:v>
       </x:c>
@@ -11092,7 +11275,7 @@
         <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="87" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B87" s="1" t="s">
         <x:v>196</x:v>
       </x:c>
@@ -11100,7 +11283,7 @@
         <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="88" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B88" s="1" t="s">
         <x:v>198</x:v>
       </x:c>
@@ -11108,7 +11291,7 @@
         <x:v>199</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="89" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B89" s="1" t="s">
         <x:v>200</x:v>
       </x:c>
@@ -11116,7 +11299,7 @@
         <x:v>201</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="90" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B90" s="1" t="s">
         <x:v>202</x:v>
       </x:c>
@@ -11124,7 +11307,7 @@
         <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="91" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B91" s="1" t="s">
         <x:v>204</x:v>
       </x:c>
@@ -11138,7 +11321,7 @@
         <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="92" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B92" s="1" t="s">
         <x:v>208</x:v>
       </x:c>
@@ -11146,7 +11329,7 @@
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="93" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B93" s="1" t="s">
         <x:v>210</x:v>
       </x:c>
@@ -11154,7 +11337,7 @@
         <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="94" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B94" s="1" t="s">
         <x:v>212</x:v>
       </x:c>
@@ -11162,7 +11345,7 @@
         <x:v>213</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="95" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B95" s="1" t="s">
         <x:v>214</x:v>
       </x:c>
@@ -11170,7 +11353,7 @@
         <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="96" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B96" s="1" t="s">
         <x:v>216</x:v>
       </x:c>
@@ -11178,7 +11361,7 @@
         <x:v>217</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="97" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B97" s="1" t="s">
         <x:v>218</x:v>
       </x:c>
@@ -11186,7 +11369,7 @@
         <x:v>219</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="98" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B98" s="1" t="s">
         <x:v>220</x:v>
       </x:c>
@@ -11194,7 +11377,7 @@
         <x:v>221</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="99" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B99" s="1" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -11202,7 +11385,7 @@
         <x:v>223</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="100" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B100" s="1" t="s">
         <x:v>224</x:v>
       </x:c>
@@ -11210,7 +11393,7 @@
         <x:v>225</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="101" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B101" s="1" t="s">
         <x:v>226</x:v>
       </x:c>
@@ -11224,7 +11407,7 @@
         <x:v>229</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="102" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B102" s="1" t="s">
         <x:v>230</x:v>
       </x:c>
@@ -11232,7 +11415,7 @@
         <x:v>231</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="103" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B103" s="1" t="s">
         <x:v>232</x:v>
       </x:c>
@@ -11240,7 +11423,7 @@
         <x:v>233</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="104" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B104" s="1" t="s">
         <x:v>234</x:v>
       </x:c>
@@ -11248,7 +11431,7 @@
         <x:v>235</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="105" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B105" s="1" t="s">
         <x:v>236</x:v>
       </x:c>
@@ -11259,7 +11442,7 @@
         <x:v>238</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="106" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B106" s="1" t="s">
         <x:v>239</x:v>
       </x:c>
@@ -11267,7 +11450,7 @@
         <x:v>240</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="107" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B107" s="1" t="s">
         <x:v>241</x:v>
       </x:c>
@@ -11275,7 +11458,7 @@
         <x:v>242</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="108" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B108" s="1" t="s">
         <x:v>243</x:v>
       </x:c>
@@ -11283,7 +11466,7 @@
         <x:v>244</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="109" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B109" s="1" t="s">
         <x:v>245</x:v>
       </x:c>
@@ -11291,7 +11474,7 @@
         <x:v>246</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="110" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B110" s="1" t="s">
         <x:v>247</x:v>
       </x:c>
@@ -11299,7 +11482,7 @@
         <x:v>248</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="111" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B111" s="1" t="s">
         <x:v>249</x:v>
       </x:c>
@@ -11313,7 +11496,7 @@
         <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="112" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B112" s="1" t="s">
         <x:v>253</x:v>
       </x:c>
@@ -11321,7 +11504,7 @@
         <x:v>254</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="113" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B113" s="1" t="s">
         <x:v>255</x:v>
       </x:c>
@@ -11329,7 +11512,7 @@
         <x:v>256</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="114" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B114" s="1" t="s">
         <x:v>257</x:v>
       </x:c>
@@ -11337,7 +11520,7 @@
         <x:v>258</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="115" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B115" s="1" t="s">
         <x:v>259</x:v>
       </x:c>
@@ -11345,7 +11528,7 @@
         <x:v>260</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="116" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B116" s="1" t="s">
         <x:v>261</x:v>
       </x:c>
@@ -11353,7 +11536,7 @@
         <x:v>262</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="117" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B117" s="1" t="s">
         <x:v>263</x:v>
       </x:c>
@@ -11361,7 +11544,7 @@
         <x:v>264</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="118" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B118" s="1" t="s">
         <x:v>265</x:v>
       </x:c>
@@ -11369,7 +11552,7 @@
         <x:v>266</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="119" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B119" s="1" t="s">
         <x:v>267</x:v>
       </x:c>
@@ -11380,7 +11563,7 @@
         <x:v>269</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="120" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B120" s="1" t="s">
         <x:v>270</x:v>
       </x:c>
@@ -11388,7 +11571,7 @@
         <x:v>271</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="121" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B121" s="1" t="s">
         <x:v>272</x:v>
       </x:c>
@@ -11402,7 +11585,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="122" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B122" s="1" t="s">
         <x:v>276</x:v>
       </x:c>
@@ -11410,7 +11593,7 @@
         <x:v>277</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="123" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B123" s="1" t="s">
         <x:v>278</x:v>
       </x:c>
@@ -11418,7 +11601,7 @@
         <x:v>279</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="124" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B124" s="1" t="s">
         <x:v>280</x:v>
       </x:c>
@@ -11426,7 +11609,7 @@
         <x:v>281</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="125" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B125" s="1" t="s">
         <x:v>282</x:v>
       </x:c>
@@ -11434,7 +11617,7 @@
         <x:v>283</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="126" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B126" s="1" t="s">
         <x:v>284</x:v>
       </x:c>
@@ -11442,7 +11625,7 @@
         <x:v>285</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="127" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B127" s="1" t="s">
         <x:v>286</x:v>
       </x:c>
@@ -11450,7 +11633,7 @@
         <x:v>287</x:v>
       </x:c>
     </x:row>
-    <x:row r="128" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="128" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B128" s="1" t="s">
         <x:v>288</x:v>
       </x:c>
@@ -11458,7 +11641,7 @@
         <x:v>289</x:v>
       </x:c>
     </x:row>
-    <x:row r="129" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="129" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B129" s="1" t="s">
         <x:v>290</x:v>
       </x:c>
@@ -11466,7 +11649,7 @@
         <x:v>291</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="130" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B130" s="1" t="s">
         <x:v>292</x:v>
       </x:c>
@@ -11474,7 +11657,7 @@
         <x:v>293</x:v>
       </x:c>
     </x:row>
-    <x:row r="131" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="131" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B131" s="1" t="s">
         <x:v>294</x:v>
       </x:c>
@@ -11491,7 +11674,7 @@
         <x:v>298</x:v>
       </x:c>
     </x:row>
-    <x:row r="132" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="132" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B132" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
@@ -11502,7 +11685,7 @@
         <x:v>301</x:v>
       </x:c>
     </x:row>
-    <x:row r="133" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="133" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B133" s="1" t="s">
         <x:v>302</x:v>
       </x:c>
@@ -11510,7 +11693,7 @@
         <x:v>303</x:v>
       </x:c>
     </x:row>
-    <x:row r="134" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="134" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B134" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
@@ -11518,7 +11701,7 @@
         <x:v>305</x:v>
       </x:c>
     </x:row>
-    <x:row r="135" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="135" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B135" s="1" t="s">
         <x:v>306</x:v>
       </x:c>
@@ -11526,7 +11709,7 @@
         <x:v>307</x:v>
       </x:c>
     </x:row>
-    <x:row r="136" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="136" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B136" s="1" t="s">
         <x:v>308</x:v>
       </x:c>
@@ -11534,7 +11717,7 @@
         <x:v>309</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="137" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B137" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
@@ -11542,7 +11725,7 @@
         <x:v>311</x:v>
       </x:c>
     </x:row>
-    <x:row r="138" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="138" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B138" s="1" t="s">
         <x:v>312</x:v>
       </x:c>
@@ -11553,7 +11736,7 @@
         <x:v>314</x:v>
       </x:c>
     </x:row>
-    <x:row r="139" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="139" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B139" s="1" t="s">
         <x:v>315</x:v>
       </x:c>
@@ -11561,7 +11744,7 @@
         <x:v>316</x:v>
       </x:c>
     </x:row>
-    <x:row r="140" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="140" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B140" s="1" t="s">
         <x:v>317</x:v>
       </x:c>
@@ -11569,7 +11752,7 @@
         <x:v>318</x:v>
       </x:c>
     </x:row>
-    <x:row r="141" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="141" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B141" s="1" t="s">
         <x:v>319</x:v>
       </x:c>
@@ -11583,7 +11766,7 @@
         <x:v>322</x:v>
       </x:c>
     </x:row>
-    <x:row r="142" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="142" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B142" s="1" t="s">
         <x:v>323</x:v>
       </x:c>
@@ -11591,7 +11774,7 @@
         <x:v>324</x:v>
       </x:c>
     </x:row>
-    <x:row r="143" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="143" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B143" s="1" t="s">
         <x:v>325</x:v>
       </x:c>
@@ -11599,7 +11782,7 @@
         <x:v>326</x:v>
       </x:c>
     </x:row>
-    <x:row r="144" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="144" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B144" s="1" t="s">
         <x:v>327</x:v>
       </x:c>
@@ -11607,7 +11790,7 @@
         <x:v>328</x:v>
       </x:c>
     </x:row>
-    <x:row r="145" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="145" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B145" s="1" t="s">
         <x:v>329</x:v>
       </x:c>
@@ -11615,7 +11798,7 @@
         <x:v>330</x:v>
       </x:c>
     </x:row>
-    <x:row r="146" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="146" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B146" s="1" t="s">
         <x:v>331</x:v>
       </x:c>
@@ -11623,7 +11806,7 @@
         <x:v>332</x:v>
       </x:c>
     </x:row>
-    <x:row r="147" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="147" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B147" s="1" t="s">
         <x:v>333</x:v>
       </x:c>
@@ -11631,7 +11814,7 @@
         <x:v>334</x:v>
       </x:c>
     </x:row>
-    <x:row r="148" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="148" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B148" s="1" t="s">
         <x:v>335</x:v>
       </x:c>
@@ -11642,7 +11825,7 @@
         <x:v>337</x:v>
       </x:c>
     </x:row>
-    <x:row r="149" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="149" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B149" s="1" t="s">
         <x:v>338</x:v>
       </x:c>
@@ -11650,7 +11833,7 @@
         <x:v>339</x:v>
       </x:c>
     </x:row>
-    <x:row r="150" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="150" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B150" s="1" t="s">
         <x:v>340</x:v>
       </x:c>
@@ -11658,7 +11841,7 @@
         <x:v>341</x:v>
       </x:c>
     </x:row>
-    <x:row r="151" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="151" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B151" s="1" t="s">
         <x:v>342</x:v>
       </x:c>
@@ -11672,7 +11855,7 @@
         <x:v>345</x:v>
       </x:c>
     </x:row>
-    <x:row r="152" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="152" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B152" s="1" t="s">
         <x:v>346</x:v>
       </x:c>
@@ -11683,7 +11866,7 @@
         <x:v>348</x:v>
       </x:c>
     </x:row>
-    <x:row r="153" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="153" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B153" s="1" t="s">
         <x:v>349</x:v>
       </x:c>
@@ -11691,7 +11874,7 @@
         <x:v>350</x:v>
       </x:c>
     </x:row>
-    <x:row r="154" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="154" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B154" s="1" t="s">
         <x:v>351</x:v>
       </x:c>
@@ -11702,7 +11885,7 @@
         <x:v>353</x:v>
       </x:c>
     </x:row>
-    <x:row r="155" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="155" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B155" s="1" t="s">
         <x:v>354</x:v>
       </x:c>
@@ -11710,7 +11893,7 @@
         <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="156" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="156" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B156" s="1" t="s">
         <x:v>356</x:v>
       </x:c>
@@ -11718,7 +11901,7 @@
         <x:v>357</x:v>
       </x:c>
     </x:row>
-    <x:row r="157" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="157" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B157" s="1" t="s">
         <x:v>358</x:v>
       </x:c>
@@ -11726,7 +11909,7 @@
         <x:v>359</x:v>
       </x:c>
     </x:row>
-    <x:row r="158" spans="1:6" ht="206.25" customHeight="1">
+    <x:row r="158" spans="1:7" ht="206.25" customHeight="1">
       <x:c r="B158" s="1" t="s">
         <x:v>360</x:v>
       </x:c>
@@ -11737,7 +11920,7 @@
         <x:v>362</x:v>
       </x:c>
     </x:row>
-    <x:row r="159" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="159" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B159" s="1" t="s">
         <x:v>363</x:v>
       </x:c>
@@ -11745,7 +11928,7 @@
         <x:v>364</x:v>
       </x:c>
     </x:row>
-    <x:row r="160" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="160" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B160" s="1" t="s">
         <x:v>365</x:v>
       </x:c>
@@ -11756,7 +11939,7 @@
         <x:v>367</x:v>
       </x:c>
     </x:row>
-    <x:row r="161" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="161" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B161" s="1" t="s">
         <x:v>368</x:v>
       </x:c>
@@ -11770,7 +11953,7 @@
         <x:v>371</x:v>
       </x:c>
     </x:row>
-    <x:row r="162" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="162" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B162" s="1" t="s">
         <x:v>372</x:v>
       </x:c>
@@ -11778,7 +11961,7 @@
         <x:v>373</x:v>
       </x:c>
     </x:row>
-    <x:row r="163" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="163" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B163" s="1" t="s">
         <x:v>374</x:v>
       </x:c>
@@ -11786,7 +11969,7 @@
         <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="164" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="164" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B164" s="1" t="s">
         <x:v>376</x:v>
       </x:c>
@@ -11794,7 +11977,7 @@
         <x:v>377</x:v>
       </x:c>
     </x:row>
-    <x:row r="165" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="165" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B165" s="1" t="s">
         <x:v>378</x:v>
       </x:c>
@@ -11805,7 +11988,7 @@
         <x:v>380</x:v>
       </x:c>
     </x:row>
-    <x:row r="166" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="166" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B166" s="1" t="s">
         <x:v>381</x:v>
       </x:c>
@@ -11813,7 +11996,7 @@
         <x:v>382</x:v>
       </x:c>
     </x:row>
-    <x:row r="167" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="167" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B167" s="1" t="s">
         <x:v>383</x:v>
       </x:c>
@@ -11824,7 +12007,7 @@
         <x:v>385</x:v>
       </x:c>
     </x:row>
-    <x:row r="168" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="168" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B168" s="1" t="s">
         <x:v>386</x:v>
       </x:c>
@@ -11835,7 +12018,7 @@
         <x:v>388</x:v>
       </x:c>
     </x:row>
-    <x:row r="169" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="169" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B169" s="1" t="s">
         <x:v>389</x:v>
       </x:c>
@@ -11846,7 +12029,7 @@
         <x:v>391</x:v>
       </x:c>
     </x:row>
-    <x:row r="170" spans="1:6" ht="243.75" customHeight="1">
+    <x:row r="170" spans="1:7" ht="243.75" customHeight="1">
       <x:c r="B170" s="1" t="s">
         <x:v>392</x:v>
       </x:c>
@@ -11857,7 +12040,7 @@
         <x:v>394</x:v>
       </x:c>
     </x:row>
-    <x:row r="171" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="171" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B171" s="1" t="s">
         <x:v>395</x:v>
       </x:c>
@@ -11871,7 +12054,7 @@
         <x:v>398</x:v>
       </x:c>
     </x:row>
-    <x:row r="172" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="172" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B172" s="1" t="s">
         <x:v>399</x:v>
       </x:c>
@@ -11879,7 +12062,7 @@
         <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="173" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="173" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B173" s="1" t="s">
         <x:v>401</x:v>
       </x:c>
@@ -11887,7 +12070,7 @@
         <x:v>402</x:v>
       </x:c>
     </x:row>
-    <x:row r="174" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="174" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B174" s="1" t="s">
         <x:v>403</x:v>
       </x:c>
@@ -11895,7 +12078,7 @@
         <x:v>404</x:v>
       </x:c>
     </x:row>
-    <x:row r="175" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="175" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B175" s="1" t="s">
         <x:v>405</x:v>
       </x:c>
@@ -11903,7 +12086,7 @@
         <x:v>406</x:v>
       </x:c>
     </x:row>
-    <x:row r="176" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="176" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B176" s="1" t="s">
         <x:v>407</x:v>
       </x:c>
@@ -11914,7 +12097,7 @@
         <x:v>409</x:v>
       </x:c>
     </x:row>
-    <x:row r="177" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="177" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B177" s="1" t="s">
         <x:v>410</x:v>
       </x:c>
@@ -11925,7 +12108,7 @@
         <x:v>412</x:v>
       </x:c>
     </x:row>
-    <x:row r="178" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="178" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B178" s="1" t="s">
         <x:v>413</x:v>
       </x:c>
@@ -11933,7 +12116,7 @@
         <x:v>414</x:v>
       </x:c>
     </x:row>
-    <x:row r="179" spans="1:6" ht="75" customHeight="1">
+    <x:row r="179" spans="1:7" ht="75" customHeight="1">
       <x:c r="B179" s="1" t="s">
         <x:v>415</x:v>
       </x:c>
@@ -11944,7 +12127,7 @@
         <x:v>417</x:v>
       </x:c>
     </x:row>
-    <x:row r="180" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="180" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B180" s="1" t="s">
         <x:v>418</x:v>
       </x:c>
@@ -11952,7 +12135,7 @@
         <x:v>419</x:v>
       </x:c>
     </x:row>
-    <x:row r="181" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="181" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B181" s="1" t="s">
         <x:v>420</x:v>
       </x:c>
@@ -11966,7 +12149,7 @@
         <x:v>423</x:v>
       </x:c>
     </x:row>
-    <x:row r="182" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="182" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B182" s="1" t="s">
         <x:v>424</x:v>
       </x:c>
@@ -11974,7 +12157,7 @@
         <x:v>425</x:v>
       </x:c>
     </x:row>
-    <x:row r="183" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="183" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B183" s="1" t="s">
         <x:v>426</x:v>
       </x:c>
@@ -11985,7 +12168,7 @@
         <x:v>428</x:v>
       </x:c>
     </x:row>
-    <x:row r="184" spans="1:6" ht="206.25" customHeight="1">
+    <x:row r="184" spans="1:7" ht="206.25" customHeight="1">
       <x:c r="B184" s="1" t="s">
         <x:v>429</x:v>
       </x:c>
@@ -11996,7 +12179,7 @@
         <x:v>431</x:v>
       </x:c>
     </x:row>
-    <x:row r="185" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="185" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B185" s="1" t="s">
         <x:v>432</x:v>
       </x:c>
@@ -12007,7 +12190,7 @@
         <x:v>434</x:v>
       </x:c>
     </x:row>
-    <x:row r="186" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="186" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B186" s="1" t="s">
         <x:v>435</x:v>
       </x:c>
@@ -12015,7 +12198,7 @@
         <x:v>436</x:v>
       </x:c>
     </x:row>
-    <x:row r="187" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="187" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B187" s="1" t="s">
         <x:v>437</x:v>
       </x:c>
@@ -12023,7 +12206,7 @@
         <x:v>438</x:v>
       </x:c>
     </x:row>
-    <x:row r="188" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="188" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B188" s="1" t="s">
         <x:v>439</x:v>
       </x:c>
@@ -12034,7 +12217,7 @@
         <x:v>441</x:v>
       </x:c>
     </x:row>
-    <x:row r="189" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="189" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B189" s="1" t="s">
         <x:v>442</x:v>
       </x:c>
@@ -12045,7 +12228,7 @@
         <x:v>444</x:v>
       </x:c>
     </x:row>
-    <x:row r="190" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="190" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B190" s="1" t="s">
         <x:v>445</x:v>
       </x:c>
@@ -12056,7 +12239,7 @@
         <x:v>447</x:v>
       </x:c>
     </x:row>
-    <x:row r="191" spans="1:6" ht="83.25" customHeight="1">
+    <x:row r="191" spans="1:7" ht="83.25" customHeight="1">
       <x:c r="B191" s="1" t="s">
         <x:v>448</x:v>
       </x:c>
@@ -12070,7 +12253,7 @@
         <x:v>451</x:v>
       </x:c>
     </x:row>
-    <x:row r="192" spans="1:6" ht="206.25" customHeight="1">
+    <x:row r="192" spans="1:7" ht="206.25" customHeight="1">
       <x:c r="B192" s="1" t="s">
         <x:v>452</x:v>
       </x:c>
@@ -12081,7 +12264,7 @@
         <x:v>454</x:v>
       </x:c>
     </x:row>
-    <x:row r="193" spans="1:6" ht="356.25" customHeight="1">
+    <x:row r="193" spans="1:7" ht="356.25" customHeight="1">
       <x:c r="B193" s="1" t="s">
         <x:v>455</x:v>
       </x:c>
@@ -12092,7 +12275,7 @@
         <x:v>457</x:v>
       </x:c>
     </x:row>
-    <x:row r="194" spans="1:6" ht="116.25" customHeight="1">
+    <x:row r="194" spans="1:7" ht="116.25" customHeight="1">
       <x:c r="B194" s="1" t="s">
         <x:v>458</x:v>
       </x:c>
@@ -12103,7 +12286,7 @@
         <x:v>460</x:v>
       </x:c>
     </x:row>
-    <x:row r="195" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="195" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B195" s="1" t="s">
         <x:v>461</x:v>
       </x:c>
@@ -12111,7 +12294,7 @@
         <x:v>462</x:v>
       </x:c>
     </x:row>
-    <x:row r="196" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="196" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B196" s="1" t="s">
         <x:v>463</x:v>
       </x:c>
@@ -12122,7 +12305,7 @@
         <x:v>465</x:v>
       </x:c>
     </x:row>
-    <x:row r="197" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="197" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B197" s="1" t="s">
         <x:v>466</x:v>
       </x:c>
@@ -12133,7 +12316,7 @@
         <x:v>468</x:v>
       </x:c>
     </x:row>
-    <x:row r="198" spans="1:6" ht="300" customHeight="1">
+    <x:row r="198" spans="1:7" ht="300" customHeight="1">
       <x:c r="B198" s="1" t="s">
         <x:v>469</x:v>
       </x:c>
@@ -12144,7 +12327,7 @@
         <x:v>471</x:v>
       </x:c>
     </x:row>
-    <x:row r="199" spans="1:6" ht="131.25" customHeight="1">
+    <x:row r="199" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B199" s="1" t="s">
         <x:v>472</x:v>
       </x:c>
@@ -12155,7 +12338,7 @@
         <x:v>474</x:v>
       </x:c>
     </x:row>
-    <x:row r="200" spans="1:6" ht="187.5" customHeight="1">
+    <x:row r="200" spans="1:7" ht="187.5" customHeight="1">
       <x:c r="B200" s="1" t="s">
         <x:v>475</x:v>
       </x:c>
@@ -12166,7 +12349,7 @@
         <x:v>477</x:v>
       </x:c>
     </x:row>
-    <x:row r="201" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="201" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B201" s="1" t="s">
         <x:v>478</x:v>
       </x:c>
@@ -12180,7 +12363,7 @@
         <x:v>481</x:v>
       </x:c>
     </x:row>
-    <x:row r="202" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="202" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B202" s="1" t="s">
         <x:v>482</x:v>
       </x:c>
@@ -12191,7 +12374,7 @@
         <x:v>484</x:v>
       </x:c>
     </x:row>
-    <x:row r="203" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="203" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B203" s="1" t="s">
         <x:v>485</x:v>
       </x:c>
@@ -12199,7 +12382,7 @@
         <x:v>486</x:v>
       </x:c>
     </x:row>
-    <x:row r="204" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="204" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B204" s="1" t="s">
         <x:v>487</x:v>
       </x:c>
@@ -12210,7 +12393,7 @@
         <x:v>489</x:v>
       </x:c>
     </x:row>
-    <x:row r="205" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="205" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B205" s="1" t="s">
         <x:v>490</x:v>
       </x:c>
@@ -12221,7 +12404,7 @@
         <x:v>492</x:v>
       </x:c>
     </x:row>
-    <x:row r="206" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="206" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B206" s="1" t="s">
         <x:v>493</x:v>
       </x:c>
@@ -12232,7 +12415,7 @@
         <x:v>495</x:v>
       </x:c>
     </x:row>
-    <x:row r="207" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="207" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B207" s="1" t="s">
         <x:v>496</x:v>
       </x:c>
@@ -12243,7 +12426,7 @@
         <x:v>498</x:v>
       </x:c>
     </x:row>
-    <x:row r="208" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="208" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B208" s="1" t="s">
         <x:v>499</x:v>
       </x:c>
@@ -12254,7 +12437,7 @@
         <x:v>501</x:v>
       </x:c>
     </x:row>
-    <x:row r="209" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="209" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B209" s="1" t="s">
         <x:v>502</x:v>
       </x:c>
@@ -12262,7 +12445,7 @@
         <x:v>503</x:v>
       </x:c>
     </x:row>
-    <x:row r="210" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="210" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B210" s="1" t="s">
         <x:v>504</x:v>
       </x:c>
@@ -12273,7 +12456,7 @@
         <x:v>506</x:v>
       </x:c>
     </x:row>
-    <x:row r="211" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="211" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B211" s="1" t="s">
         <x:v>507</x:v>
       </x:c>
@@ -12287,7 +12470,7 @@
         <x:v>510</x:v>
       </x:c>
     </x:row>
-    <x:row r="212" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="212" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B212" s="1" t="s">
         <x:v>511</x:v>
       </x:c>
@@ -12295,7 +12478,7 @@
         <x:v>512</x:v>
       </x:c>
     </x:row>
-    <x:row r="213" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="213" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B213" s="1" t="s">
         <x:v>513</x:v>
       </x:c>
@@ -12303,7 +12486,7 @@
         <x:v>514</x:v>
       </x:c>
     </x:row>
-    <x:row r="214" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="214" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B214" s="1" t="s">
         <x:v>515</x:v>
       </x:c>
@@ -12311,7 +12494,7 @@
         <x:v>516</x:v>
       </x:c>
     </x:row>
-    <x:row r="215" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="215" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B215" s="1" t="s">
         <x:v>517</x:v>
       </x:c>
@@ -12319,7 +12502,7 @@
         <x:v>518</x:v>
       </x:c>
     </x:row>
-    <x:row r="216" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="216" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B216" s="1" t="s">
         <x:v>519</x:v>
       </x:c>
@@ -12330,7 +12513,7 @@
         <x:v>521</x:v>
       </x:c>
     </x:row>
-    <x:row r="217" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="217" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B217" s="1" t="s">
         <x:v>522</x:v>
       </x:c>
@@ -12341,7 +12524,7 @@
         <x:v>524</x:v>
       </x:c>
     </x:row>
-    <x:row r="218" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="218" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B218" s="1" t="s">
         <x:v>525</x:v>
       </x:c>
@@ -12352,7 +12535,7 @@
         <x:v>527</x:v>
       </x:c>
     </x:row>
-    <x:row r="219" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="219" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B219" s="1" t="s">
         <x:v>528</x:v>
       </x:c>
@@ -12360,7 +12543,7 @@
         <x:v>529</x:v>
       </x:c>
     </x:row>
-    <x:row r="220" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="220" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B220" s="1" t="s">
         <x:v>530</x:v>
       </x:c>
@@ -12368,7 +12551,7 @@
         <x:v>531</x:v>
       </x:c>
     </x:row>
-    <x:row r="221" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="221" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B221" s="1" t="s">
         <x:v>532</x:v>
       </x:c>
@@ -12382,7 +12565,7 @@
         <x:v>535</x:v>
       </x:c>
     </x:row>
-    <x:row r="222" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="222" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B222" s="1" t="s">
         <x:v>536</x:v>
       </x:c>
@@ -12390,7 +12573,7 @@
         <x:v>537</x:v>
       </x:c>
     </x:row>
-    <x:row r="223" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="223" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B223" s="1" t="s">
         <x:v>538</x:v>
       </x:c>
@@ -12398,7 +12581,7 @@
         <x:v>539</x:v>
       </x:c>
     </x:row>
-    <x:row r="224" spans="1:6" ht="168.75" customHeight="1">
+    <x:row r="224" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B224" s="1" t="s">
         <x:v>540</x:v>
       </x:c>
@@ -12409,7 +12592,7 @@
         <x:v>542</x:v>
       </x:c>
     </x:row>
-    <x:row r="225" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="225" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B225" s="1" t="s">
         <x:v>543</x:v>
       </x:c>
@@ -12417,7 +12600,7 @@
         <x:v>544</x:v>
       </x:c>
     </x:row>
-    <x:row r="226" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="226" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B226" s="1" t="s">
         <x:v>545</x:v>
       </x:c>
@@ -12425,7 +12608,7 @@
         <x:v>546</x:v>
       </x:c>
     </x:row>
-    <x:row r="227" spans="1:6" ht="206.25" customHeight="1">
+    <x:row r="227" spans="1:7" ht="206.25" customHeight="1">
       <x:c r="B227" s="1" t="s">
         <x:v>547</x:v>
       </x:c>
@@ -12436,7 +12619,7 @@
         <x:v>549</x:v>
       </x:c>
     </x:row>
-    <x:row r="228" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="228" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B228" s="1" t="s">
         <x:v>550</x:v>
       </x:c>
@@ -12444,7 +12627,7 @@
         <x:v>535</x:v>
       </x:c>
     </x:row>
-    <x:row r="229" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="229" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B229" s="1" t="s">
         <x:v>551</x:v>
       </x:c>
@@ -12455,7 +12638,7 @@
         <x:v>553</x:v>
       </x:c>
     </x:row>
-    <x:row r="230" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="230" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B230" s="1" t="s">
         <x:v>554</x:v>
       </x:c>
@@ -12463,7 +12646,7 @@
         <x:v>555</x:v>
       </x:c>
     </x:row>
-    <x:row r="231" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="231" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B231" s="1" t="s">
         <x:v>556</x:v>
       </x:c>
@@ -12477,7 +12660,7 @@
         <x:v>559</x:v>
       </x:c>
     </x:row>
-    <x:row r="232" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="232" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B232" s="1" t="s">
         <x:v>560</x:v>
       </x:c>
@@ -12485,7 +12668,7 @@
         <x:v>561</x:v>
       </x:c>
     </x:row>
-    <x:row r="233" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="233" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B233" s="1" t="s">
         <x:v>562</x:v>
       </x:c>
@@ -12493,7 +12676,7 @@
         <x:v>563</x:v>
       </x:c>
     </x:row>
-    <x:row r="234" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="234" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B234" s="1" t="s">
         <x:v>564</x:v>
       </x:c>
@@ -12501,7 +12684,7 @@
         <x:v>565</x:v>
       </x:c>
     </x:row>
-    <x:row r="235" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="235" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B235" s="1" t="s">
         <x:v>566</x:v>
       </x:c>
@@ -12509,7 +12692,7 @@
         <x:v>567</x:v>
       </x:c>
     </x:row>
-    <x:row r="236" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="236" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B236" s="1" t="s">
         <x:v>568</x:v>
       </x:c>
@@ -12520,7 +12703,7 @@
         <x:v>570</x:v>
       </x:c>
     </x:row>
-    <x:row r="237" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="237" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B237" s="1" t="s">
         <x:v>571</x:v>
       </x:c>
@@ -12528,7 +12711,7 @@
         <x:v>572</x:v>
       </x:c>
     </x:row>
-    <x:row r="238" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="238" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B238" s="1" t="s">
         <x:v>573</x:v>
       </x:c>
@@ -12539,7 +12722,7 @@
         <x:v>575</x:v>
       </x:c>
     </x:row>
-    <x:row r="239" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="239" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B239" s="1" t="s">
         <x:v>576</x:v>
       </x:c>
@@ -12547,7 +12730,7 @@
         <x:v>577</x:v>
       </x:c>
     </x:row>
-    <x:row r="240" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="240" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B240" s="1" t="s">
         <x:v>578</x:v>
       </x:c>
@@ -12555,7 +12738,7 @@
         <x:v>579</x:v>
       </x:c>
     </x:row>
-    <x:row r="241" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="241" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="A241" s="0" t="s">
         <x:v>580</x:v>
       </x:c>
@@ -12572,7 +12755,7 @@
         <x:v>584</x:v>
       </x:c>
     </x:row>
-    <x:row r="242" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="242" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B242" s="1" t="s">
         <x:v>585</x:v>
       </x:c>
@@ -12580,7 +12763,7 @@
         <x:v>586</x:v>
       </x:c>
     </x:row>
-    <x:row r="243" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="243" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B243" s="1" t="s">
         <x:v>587</x:v>
       </x:c>
@@ -12588,7 +12771,7 @@
         <x:v>588</x:v>
       </x:c>
     </x:row>
-    <x:row r="244" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="244" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B244" s="1" t="s">
         <x:v>589</x:v>
       </x:c>
@@ -12596,7 +12779,7 @@
         <x:v>590</x:v>
       </x:c>
     </x:row>
-    <x:row r="245" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="245" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B245" s="1" t="s">
         <x:v>591</x:v>
       </x:c>
@@ -12604,7 +12787,7 @@
         <x:v>592</x:v>
       </x:c>
     </x:row>
-    <x:row r="246" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="246" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B246" s="1" t="s">
         <x:v>593</x:v>
       </x:c>
@@ -12612,7 +12795,7 @@
         <x:v>594</x:v>
       </x:c>
     </x:row>
-    <x:row r="247" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="247" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B247" s="1" t="s">
         <x:v>595</x:v>
       </x:c>
@@ -12620,7 +12803,7 @@
         <x:v>596</x:v>
       </x:c>
     </x:row>
-    <x:row r="248" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="248" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B248" s="1" t="s">
         <x:v>597</x:v>
       </x:c>
@@ -12628,7 +12811,7 @@
         <x:v>598</x:v>
       </x:c>
     </x:row>
-    <x:row r="249" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="249" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B249" s="1" t="s">
         <x:v>599</x:v>
       </x:c>
@@ -12636,7 +12819,7 @@
         <x:v>600</x:v>
       </x:c>
     </x:row>
-    <x:row r="250" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="250" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B250" s="1" t="s">
         <x:v>601</x:v>
       </x:c>
@@ -12644,7 +12827,7 @@
         <x:v>602</x:v>
       </x:c>
     </x:row>
-    <x:row r="251" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="251" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B251" s="1" t="s">
         <x:v>603</x:v>
       </x:c>
@@ -12658,7 +12841,7 @@
         <x:v>606</x:v>
       </x:c>
     </x:row>
-    <x:row r="252" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="252" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B252" s="1" t="s">
         <x:v>607</x:v>
       </x:c>
@@ -12666,7 +12849,7 @@
         <x:v>608</x:v>
       </x:c>
     </x:row>
-    <x:row r="253" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="253" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B253" s="1" t="s">
         <x:v>609</x:v>
       </x:c>
@@ -12674,7 +12857,7 @@
         <x:v>610</x:v>
       </x:c>
     </x:row>
-    <x:row r="254" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="254" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B254" s="1" t="s">
         <x:v>611</x:v>
       </x:c>
@@ -12682,7 +12865,7 @@
         <x:v>612</x:v>
       </x:c>
     </x:row>
-    <x:row r="255" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="255" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B255" s="1" t="s">
         <x:v>613</x:v>
       </x:c>
@@ -12693,7 +12876,7 @@
         <x:v>615</x:v>
       </x:c>
     </x:row>
-    <x:row r="256" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="256" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B256" s="1" t="s">
         <x:v>616</x:v>
       </x:c>
@@ -12701,7 +12884,7 @@
         <x:v>617</x:v>
       </x:c>
     </x:row>
-    <x:row r="257" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="257" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B257" s="1" t="s">
         <x:v>618</x:v>
       </x:c>
@@ -12709,7 +12892,7 @@
         <x:v>619</x:v>
       </x:c>
     </x:row>
-    <x:row r="258" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="258" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B258" s="1" t="s">
         <x:v>620</x:v>
       </x:c>
@@ -12717,7 +12900,7 @@
         <x:v>621</x:v>
       </x:c>
     </x:row>
-    <x:row r="259" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="259" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B259" s="1" t="s">
         <x:v>622</x:v>
       </x:c>
@@ -12728,7 +12911,7 @@
         <x:v>624</x:v>
       </x:c>
     </x:row>
-    <x:row r="260" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="260" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B260" s="1" t="s">
         <x:v>625</x:v>
       </x:c>
@@ -12736,7 +12919,7 @@
         <x:v>626</x:v>
       </x:c>
     </x:row>
-    <x:row r="261" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="261" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B261" s="1" t="s">
         <x:v>627</x:v>
       </x:c>
@@ -12750,7 +12933,7 @@
         <x:v>630</x:v>
       </x:c>
     </x:row>
-    <x:row r="262" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="262" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B262" s="1" t="s">
         <x:v>631</x:v>
       </x:c>
@@ -12758,7 +12941,7 @@
         <x:v>632</x:v>
       </x:c>
     </x:row>
-    <x:row r="263" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="263" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B263" s="1" t="s">
         <x:v>633</x:v>
       </x:c>
@@ -12769,7 +12952,7 @@
         <x:v>635</x:v>
       </x:c>
     </x:row>
-    <x:row r="264" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="264" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B264" s="1" t="s">
         <x:v>636</x:v>
       </x:c>
@@ -12780,7 +12963,7 @@
         <x:v>638</x:v>
       </x:c>
     </x:row>
-    <x:row r="265" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="265" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B265" s="1" t="s">
         <x:v>639</x:v>
       </x:c>
@@ -12788,7 +12971,7 @@
         <x:v>640</x:v>
       </x:c>
     </x:row>
-    <x:row r="266" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="266" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B266" s="1" t="s">
         <x:v>641</x:v>
       </x:c>
@@ -12796,7 +12979,7 @@
         <x:v>630</x:v>
       </x:c>
     </x:row>
-    <x:row r="267" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="267" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B267" s="1" t="s">
         <x:v>642</x:v>
       </x:c>
@@ -12804,7 +12987,7 @@
         <x:v>643</x:v>
       </x:c>
     </x:row>
-    <x:row r="268" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="268" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B268" s="1" t="s">
         <x:v>644</x:v>
       </x:c>
@@ -12812,7 +12995,7 @@
         <x:v>645</x:v>
       </x:c>
     </x:row>
-    <x:row r="269" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="269" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B269" s="1" t="s">
         <x:v>646</x:v>
       </x:c>
@@ -12820,7 +13003,7 @@
         <x:v>647</x:v>
       </x:c>
     </x:row>
-    <x:row r="270" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="270" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B270" s="1" t="s">
         <x:v>648</x:v>
       </x:c>
@@ -12828,7 +13011,7 @@
         <x:v>649</x:v>
       </x:c>
     </x:row>
-    <x:row r="271" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="271" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B271" s="1" t="s">
         <x:v>650</x:v>
       </x:c>
@@ -12842,7 +13025,7 @@
         <x:v>653</x:v>
       </x:c>
     </x:row>
-    <x:row r="272" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="272" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B272" s="1" t="s">
         <x:v>654</x:v>
       </x:c>
@@ -12850,7 +13033,7 @@
         <x:v>655</x:v>
       </x:c>
     </x:row>
-    <x:row r="273" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="273" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B273" s="1" t="s">
         <x:v>656</x:v>
       </x:c>
@@ -12861,7 +13044,7 @@
         <x:v>658</x:v>
       </x:c>
     </x:row>
-    <x:row r="274" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="274" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B274" s="1" t="s">
         <x:v>659</x:v>
       </x:c>
@@ -12869,7 +13052,7 @@
         <x:v>660</x:v>
       </x:c>
     </x:row>
-    <x:row r="275" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="275" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B275" s="1" t="s">
         <x:v>661</x:v>
       </x:c>
@@ -12880,7 +13063,7 @@
         <x:v>663</x:v>
       </x:c>
     </x:row>
-    <x:row r="276" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="276" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B276" s="1" t="s">
         <x:v>664</x:v>
       </x:c>
@@ -12888,7 +13071,7 @@
         <x:v>665</x:v>
       </x:c>
     </x:row>
-    <x:row r="277" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="277" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B277" s="1" t="s">
         <x:v>666</x:v>
       </x:c>
@@ -12896,7 +13079,7 @@
         <x:v>667</x:v>
       </x:c>
     </x:row>
-    <x:row r="278" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="278" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B278" s="1" t="s">
         <x:v>668</x:v>
       </x:c>
@@ -12904,7 +13087,7 @@
         <x:v>669</x:v>
       </x:c>
     </x:row>
-    <x:row r="279" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="279" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B279" s="1" t="s">
         <x:v>670</x:v>
       </x:c>
@@ -12912,7 +13095,7 @@
         <x:v>671</x:v>
       </x:c>
     </x:row>
-    <x:row r="280" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="280" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B280" s="1" t="s">
         <x:v>672</x:v>
       </x:c>
@@ -12920,7 +13103,7 @@
         <x:v>673</x:v>
       </x:c>
     </x:row>
-    <x:row r="281" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="281" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B281" s="1" t="s">
         <x:v>674</x:v>
       </x:c>
@@ -12934,7 +13117,7 @@
         <x:v>677</x:v>
       </x:c>
     </x:row>
-    <x:row r="282" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="282" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B282" s="1" t="s">
         <x:v>678</x:v>
       </x:c>
@@ -12942,7 +13125,7 @@
         <x:v>679</x:v>
       </x:c>
     </x:row>
-    <x:row r="283" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="283" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B283" s="1" t="s">
         <x:v>680</x:v>
       </x:c>
@@ -12950,7 +13133,7 @@
         <x:v>681</x:v>
       </x:c>
     </x:row>
-    <x:row r="284" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="284" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B284" s="1" t="s">
         <x:v>682</x:v>
       </x:c>
@@ -12961,7 +13144,7 @@
         <x:v>684</x:v>
       </x:c>
     </x:row>
-    <x:row r="285" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="285" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B285" s="1" t="s">
         <x:v>685</x:v>
       </x:c>
@@ -12969,7 +13152,7 @@
         <x:v>686</x:v>
       </x:c>
     </x:row>
-    <x:row r="286" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="286" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B286" s="1" t="s">
         <x:v>687</x:v>
       </x:c>
@@ -12977,7 +13160,7 @@
         <x:v>688</x:v>
       </x:c>
     </x:row>
-    <x:row r="287" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="287" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B287" s="1" t="s">
         <x:v>689</x:v>
       </x:c>
@@ -12985,7 +13168,7 @@
         <x:v>690</x:v>
       </x:c>
     </x:row>
-    <x:row r="288" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="288" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B288" s="1" t="s">
         <x:v>691</x:v>
       </x:c>
@@ -12993,7 +13176,7 @@
         <x:v>692</x:v>
       </x:c>
     </x:row>
-    <x:row r="289" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="289" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B289" s="1" t="s">
         <x:v>693</x:v>
       </x:c>
@@ -13001,7 +13184,7 @@
         <x:v>694</x:v>
       </x:c>
     </x:row>
-    <x:row r="290" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="290" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B290" s="1" t="s">
         <x:v>695</x:v>
       </x:c>
@@ -13009,7 +13192,7 @@
         <x:v>696</x:v>
       </x:c>
     </x:row>
-    <x:row r="291" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="291" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B291" s="1" t="s">
         <x:v>697</x:v>
       </x:c>
@@ -13023,7 +13206,7 @@
         <x:v>700</x:v>
       </x:c>
     </x:row>
-    <x:row r="292" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="292" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B292" s="1" t="s">
         <x:v>701</x:v>
       </x:c>
@@ -13031,7 +13214,7 @@
         <x:v>702</x:v>
       </x:c>
     </x:row>
-    <x:row r="293" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="293" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B293" s="1" t="s">
         <x:v>703</x:v>
       </x:c>
@@ -13042,7 +13225,7 @@
         <x:v>705</x:v>
       </x:c>
     </x:row>
-    <x:row r="294" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="294" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B294" s="1" t="s">
         <x:v>706</x:v>
       </x:c>
@@ -13050,7 +13233,7 @@
         <x:v>707</x:v>
       </x:c>
     </x:row>
-    <x:row r="295" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="295" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B295" s="1" t="s">
         <x:v>708</x:v>
       </x:c>
@@ -13058,7 +13241,7 @@
         <x:v>709</x:v>
       </x:c>
     </x:row>
-    <x:row r="296" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="296" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B296" s="1" t="s">
         <x:v>710</x:v>
       </x:c>
@@ -13069,7 +13252,7 @@
         <x:v>712</x:v>
       </x:c>
     </x:row>
-    <x:row r="297" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="297" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B297" s="1" t="s">
         <x:v>713</x:v>
       </x:c>
@@ -13080,7 +13263,7 @@
         <x:v>715</x:v>
       </x:c>
     </x:row>
-    <x:row r="298" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="298" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B298" s="1" t="s">
         <x:v>716</x:v>
       </x:c>
@@ -13091,7 +13274,7 @@
         <x:v>718</x:v>
       </x:c>
     </x:row>
-    <x:row r="299" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="299" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B299" s="1" t="s">
         <x:v>719</x:v>
       </x:c>
@@ -13099,7 +13282,7 @@
         <x:v>720</x:v>
       </x:c>
     </x:row>
-    <x:row r="300" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="300" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B300" s="1" t="s">
         <x:v>721</x:v>
       </x:c>
@@ -13110,7 +13293,7 @@
         <x:v>723</x:v>
       </x:c>
     </x:row>
-    <x:row r="301" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="301" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B301" s="1" t="s">
         <x:v>724</x:v>
       </x:c>
@@ -13121,7 +13304,7 @@
         <x:v>726</x:v>
       </x:c>
     </x:row>
-    <x:row r="302" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="302" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B302" s="1" t="s">
         <x:v>727</x:v>
       </x:c>
@@ -13129,7 +13312,7 @@
         <x:v>728</x:v>
       </x:c>
     </x:row>
-    <x:row r="303" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="303" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B303" s="1" t="s">
         <x:v>729</x:v>
       </x:c>
@@ -13137,7 +13320,7 @@
         <x:v>730</x:v>
       </x:c>
     </x:row>
-    <x:row r="304" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="304" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B304" s="1" t="s">
         <x:v>731</x:v>
       </x:c>
@@ -13145,7 +13328,7 @@
         <x:v>732</x:v>
       </x:c>
     </x:row>
-    <x:row r="305" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="305" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B305" s="1" t="s">
         <x:v>733</x:v>
       </x:c>
@@ -13153,7 +13336,7 @@
         <x:v>734</x:v>
       </x:c>
     </x:row>
-    <x:row r="306" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="306" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B306" s="1" t="s">
         <x:v>735</x:v>
       </x:c>
@@ -13164,7 +13347,7 @@
         <x:v>737</x:v>
       </x:c>
     </x:row>
-    <x:row r="307" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="307" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B307" s="1" t="s">
         <x:v>738</x:v>
       </x:c>
@@ -13175,7 +13358,7 @@
         <x:v>740</x:v>
       </x:c>
     </x:row>
-    <x:row r="308" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="308" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B308" s="1" t="s">
         <x:v>741</x:v>
       </x:c>
@@ -13186,7 +13369,7 @@
         <x:v>743</x:v>
       </x:c>
     </x:row>
-    <x:row r="309" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="309" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B309" s="1" t="s">
         <x:v>744</x:v>
       </x:c>
@@ -13194,7 +13377,7 @@
         <x:v>745</x:v>
       </x:c>
     </x:row>
-    <x:row r="310" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="310" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B310" s="1" t="s">
         <x:v>746</x:v>
       </x:c>
@@ -13202,7 +13385,7 @@
         <x:v>747</x:v>
       </x:c>
     </x:row>
-    <x:row r="311" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="311" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B311" s="1" t="s">
         <x:v>748</x:v>
       </x:c>
@@ -13219,7 +13402,7 @@
         <x:v>752</x:v>
       </x:c>
     </x:row>
-    <x:row r="312" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="312" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B312" s="1" t="s">
         <x:v>753</x:v>
       </x:c>
@@ -13230,7 +13413,7 @@
         <x:v>755</x:v>
       </x:c>
     </x:row>
-    <x:row r="313" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="313" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B313" s="1" t="s">
         <x:v>756</x:v>
       </x:c>
@@ -13241,7 +13424,7 @@
         <x:v>752</x:v>
       </x:c>
     </x:row>
-    <x:row r="314" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="314" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B314" s="1" t="s">
         <x:v>758</x:v>
       </x:c>
@@ -13252,7 +13435,7 @@
         <x:v>760</x:v>
       </x:c>
     </x:row>
-    <x:row r="315" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="315" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B315" s="1" t="s">
         <x:v>761</x:v>
       </x:c>
@@ -13260,7 +13443,7 @@
         <x:v>762</x:v>
       </x:c>
     </x:row>
-    <x:row r="316" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="316" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B316" s="1" t="s">
         <x:v>763</x:v>
       </x:c>
@@ -13271,7 +13454,7 @@
         <x:v>765</x:v>
       </x:c>
     </x:row>
-    <x:row r="317" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="317" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B317" s="1" t="s">
         <x:v>766</x:v>
       </x:c>
@@ -13279,7 +13462,7 @@
         <x:v>767</x:v>
       </x:c>
     </x:row>
-    <x:row r="318" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="318" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B318" s="1" t="s">
         <x:v>768</x:v>
       </x:c>
@@ -13287,7 +13470,7 @@
         <x:v>769</x:v>
       </x:c>
     </x:row>
-    <x:row r="319" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="319" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B319" s="1" t="s">
         <x:v>770</x:v>
       </x:c>
@@ -13298,7 +13481,7 @@
         <x:v>772</x:v>
       </x:c>
     </x:row>
-    <x:row r="320" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="320" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B320" s="1" t="s">
         <x:v>773</x:v>
       </x:c>
@@ -13309,7 +13492,7 @@
         <x:v>775</x:v>
       </x:c>
     </x:row>
-    <x:row r="321" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="321" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B321" s="1" t="s">
         <x:v>776</x:v>
       </x:c>
@@ -13323,7 +13506,7 @@
         <x:v>779</x:v>
       </x:c>
     </x:row>
-    <x:row r="322" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="322" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B322" s="1" t="s">
         <x:v>780</x:v>
       </x:c>
@@ -13331,7 +13514,7 @@
         <x:v>781</x:v>
       </x:c>
     </x:row>
-    <x:row r="323" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="323" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B323" s="1" t="s">
         <x:v>782</x:v>
       </x:c>
@@ -13342,7 +13525,7 @@
         <x:v>784</x:v>
       </x:c>
     </x:row>
-    <x:row r="324" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="324" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B324" s="1" t="s">
         <x:v>785</x:v>
       </x:c>
@@ -13350,7 +13533,7 @@
         <x:v>786</x:v>
       </x:c>
     </x:row>
-    <x:row r="325" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="325" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B325" s="1" t="s">
         <x:v>787</x:v>
       </x:c>
@@ -13358,7 +13541,7 @@
         <x:v>788</x:v>
       </x:c>
     </x:row>
-    <x:row r="326" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="326" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B326" s="1" t="s">
         <x:v>789</x:v>
       </x:c>
@@ -13366,7 +13549,7 @@
         <x:v>790</x:v>
       </x:c>
     </x:row>
-    <x:row r="327" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="327" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B327" s="1" t="s">
         <x:v>791</x:v>
       </x:c>
@@ -13374,7 +13557,7 @@
         <x:v>792</x:v>
       </x:c>
     </x:row>
-    <x:row r="328" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="328" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B328" s="1" t="s">
         <x:v>793</x:v>
       </x:c>
@@ -13382,7 +13565,7 @@
         <x:v>794</x:v>
       </x:c>
     </x:row>
-    <x:row r="329" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="329" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B329" s="1" t="s">
         <x:v>795</x:v>
       </x:c>
@@ -13393,7 +13576,7 @@
         <x:v>797</x:v>
       </x:c>
     </x:row>
-    <x:row r="330" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="330" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B330" s="1" t="s">
         <x:v>798</x:v>
       </x:c>
@@ -13401,7 +13584,7 @@
         <x:v>799</x:v>
       </x:c>
     </x:row>
-    <x:row r="331" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="331" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B331" s="1" t="s">
         <x:v>800</x:v>
       </x:c>
@@ -13418,7 +13601,7 @@
         <x:v>804</x:v>
       </x:c>
     </x:row>
-    <x:row r="332" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="332" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B332" s="1" t="s">
         <x:v>805</x:v>
       </x:c>
@@ -13426,7 +13609,7 @@
         <x:v>803</x:v>
       </x:c>
     </x:row>
-    <x:row r="333" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="333" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B333" s="1" t="s">
         <x:v>806</x:v>
       </x:c>
@@ -13434,7 +13617,7 @@
         <x:v>807</x:v>
       </x:c>
     </x:row>
-    <x:row r="334" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="334" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B334" s="1" t="s">
         <x:v>808</x:v>
       </x:c>
@@ -13442,7 +13625,7 @@
         <x:v>809</x:v>
       </x:c>
     </x:row>
-    <x:row r="335" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="335" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B335" s="1" t="s">
         <x:v>810</x:v>
       </x:c>
@@ -13453,7 +13636,7 @@
         <x:v>812</x:v>
       </x:c>
     </x:row>
-    <x:row r="336" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="336" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B336" s="1" t="s">
         <x:v>813</x:v>
       </x:c>
@@ -13461,7 +13644,7 @@
         <x:v>814</x:v>
       </x:c>
     </x:row>
-    <x:row r="337" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="337" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B337" s="1" t="s">
         <x:v>815</x:v>
       </x:c>
@@ -13469,7 +13652,7 @@
         <x:v>816</x:v>
       </x:c>
     </x:row>
-    <x:row r="338" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="338" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B338" s="1" t="s">
         <x:v>817</x:v>
       </x:c>
@@ -13477,7 +13660,7 @@
         <x:v>818</x:v>
       </x:c>
     </x:row>
-    <x:row r="339" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="339" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B339" s="1" t="s">
         <x:v>819</x:v>
       </x:c>
@@ -13488,7 +13671,7 @@
         <x:v>821</x:v>
       </x:c>
     </x:row>
-    <x:row r="340" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="340" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B340" s="1" t="s">
         <x:v>822</x:v>
       </x:c>
@@ -13496,7 +13679,7 @@
         <x:v>823</x:v>
       </x:c>
     </x:row>
-    <x:row r="341" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="341" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B341" s="1" t="s">
         <x:v>824</x:v>
       </x:c>
@@ -13507,7 +13690,7 @@
         <x:v>826</x:v>
       </x:c>
     </x:row>
-    <x:row r="342" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="342" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B342" s="1" t="s">
         <x:v>827</x:v>
       </x:c>
@@ -13515,7 +13698,7 @@
         <x:v>828</x:v>
       </x:c>
     </x:row>
-    <x:row r="343" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="343" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B343" s="1" t="s">
         <x:v>829</x:v>
       </x:c>
@@ -13523,7 +13706,7 @@
         <x:v>830</x:v>
       </x:c>
     </x:row>
-    <x:row r="344" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="344" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B344" s="1" t="s">
         <x:v>831</x:v>
       </x:c>
@@ -13534,7 +13717,7 @@
         <x:v>833</x:v>
       </x:c>
     </x:row>
-    <x:row r="345" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="345" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B345" s="1" t="s">
         <x:v>834</x:v>
       </x:c>
@@ -13545,7 +13728,7 @@
         <x:v>836</x:v>
       </x:c>
     </x:row>
-    <x:row r="346" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="346" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B346" s="1" t="s">
         <x:v>837</x:v>
       </x:c>
@@ -13553,7 +13736,7 @@
         <x:v>838</x:v>
       </x:c>
     </x:row>
-    <x:row r="347" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="347" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B347" s="1" t="s">
         <x:v>839</x:v>
       </x:c>
@@ -13564,7 +13747,7 @@
         <x:v>841</x:v>
       </x:c>
     </x:row>
-    <x:row r="348" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="348" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B348" s="1" t="s">
         <x:v>842</x:v>
       </x:c>
@@ -13572,7 +13755,7 @@
         <x:v>843</x:v>
       </x:c>
     </x:row>
-    <x:row r="349" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="349" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B349" s="1" t="s">
         <x:v>844</x:v>
       </x:c>
@@ -13580,7 +13763,7 @@
         <x:v>845</x:v>
       </x:c>
     </x:row>
-    <x:row r="350" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="350" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B350" s="1" t="s">
         <x:v>846</x:v>
       </x:c>
@@ -13591,7 +13774,7 @@
         <x:v>848</x:v>
       </x:c>
     </x:row>
-    <x:row r="351" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="351" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B351" s="1" t="s">
         <x:v>849</x:v>
       </x:c>
@@ -13605,7 +13788,7 @@
         <x:v>852</x:v>
       </x:c>
     </x:row>
-    <x:row r="352" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="352" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B352" s="1" t="s">
         <x:v>853</x:v>
       </x:c>
@@ -13616,7 +13799,7 @@
         <x:v>855</x:v>
       </x:c>
     </x:row>
-    <x:row r="353" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="353" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B353" s="1" t="s">
         <x:v>856</x:v>
       </x:c>
@@ -13627,7 +13810,7 @@
         <x:v>858</x:v>
       </x:c>
     </x:row>
-    <x:row r="354" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="354" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B354" s="1" t="s">
         <x:v>859</x:v>
       </x:c>
@@ -13635,7 +13818,7 @@
         <x:v>860</x:v>
       </x:c>
     </x:row>
-    <x:row r="355" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="355" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B355" s="1" t="s">
         <x:v>861</x:v>
       </x:c>
@@ -13643,7 +13826,7 @@
         <x:v>862</x:v>
       </x:c>
     </x:row>
-    <x:row r="356" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="356" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B356" s="1" t="s">
         <x:v>863</x:v>
       </x:c>
@@ -13654,7 +13837,7 @@
         <x:v>865</x:v>
       </x:c>
     </x:row>
-    <x:row r="357" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="357" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B357" s="1" t="s">
         <x:v>866</x:v>
       </x:c>
@@ -13665,7 +13848,7 @@
         <x:v>868</x:v>
       </x:c>
     </x:row>
-    <x:row r="358" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="358" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B358" s="1" t="s">
         <x:v>869</x:v>
       </x:c>
@@ -13673,7 +13856,7 @@
         <x:v>870</x:v>
       </x:c>
     </x:row>
-    <x:row r="359" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="359" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B359" s="1" t="s">
         <x:v>871</x:v>
       </x:c>
@@ -13681,7 +13864,7 @@
         <x:v>872</x:v>
       </x:c>
     </x:row>
-    <x:row r="360" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="360" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B360" s="1" t="s">
         <x:v>873</x:v>
       </x:c>
@@ -13689,7 +13872,7 @@
         <x:v>874</x:v>
       </x:c>
     </x:row>
-    <x:row r="361" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="361" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B361" s="1" t="s">
         <x:v>875</x:v>
       </x:c>
@@ -13703,7 +13886,7 @@
         <x:v>878</x:v>
       </x:c>
     </x:row>
-    <x:row r="362" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="362" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B362" s="1" t="s">
         <x:v>879</x:v>
       </x:c>
@@ -13711,7 +13894,7 @@
         <x:v>880</x:v>
       </x:c>
     </x:row>
-    <x:row r="363" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="363" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B363" s="1" t="s">
         <x:v>881</x:v>
       </x:c>
@@ -13722,7 +13905,7 @@
         <x:v>883</x:v>
       </x:c>
     </x:row>
-    <x:row r="364" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="364" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B364" s="1" t="s">
         <x:v>884</x:v>
       </x:c>
@@ -13730,7 +13913,7 @@
         <x:v>885</x:v>
       </x:c>
     </x:row>
-    <x:row r="365" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="365" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B365" s="1" t="s">
         <x:v>886</x:v>
       </x:c>
@@ -13738,7 +13921,7 @@
         <x:v>887</x:v>
       </x:c>
     </x:row>
-    <x:row r="366" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="366" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B366" s="1" t="s">
         <x:v>888</x:v>
       </x:c>
@@ -13746,7 +13929,7 @@
         <x:v>889</x:v>
       </x:c>
     </x:row>
-    <x:row r="367" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="367" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B367" s="1" t="s">
         <x:v>890</x:v>
       </x:c>
@@ -13754,7 +13937,7 @@
         <x:v>891</x:v>
       </x:c>
     </x:row>
-    <x:row r="368" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="368" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B368" s="1" t="s">
         <x:v>892</x:v>
       </x:c>
@@ -13762,7 +13945,7 @@
         <x:v>893</x:v>
       </x:c>
     </x:row>
-    <x:row r="369" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="369" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B369" s="1" t="s">
         <x:v>894</x:v>
       </x:c>
@@ -13770,7 +13953,7 @@
         <x:v>895</x:v>
       </x:c>
     </x:row>
-    <x:row r="370" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="370" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B370" s="1" t="s">
         <x:v>896</x:v>
       </x:c>
@@ -13778,7 +13961,7 @@
         <x:v>897</x:v>
       </x:c>
     </x:row>
-    <x:row r="371" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="371" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B371" s="1" t="s">
         <x:v>898</x:v>
       </x:c>
@@ -13792,7 +13975,7 @@
         <x:v>901</x:v>
       </x:c>
     </x:row>
-    <x:row r="372" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="372" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B372" s="1" t="s">
         <x:v>902</x:v>
       </x:c>
@@ -13800,7 +13983,7 @@
         <x:v>903</x:v>
       </x:c>
     </x:row>
-    <x:row r="373" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="373" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B373" s="1" t="s">
         <x:v>904</x:v>
       </x:c>
@@ -13808,7 +13991,7 @@
         <x:v>905</x:v>
       </x:c>
     </x:row>
-    <x:row r="374" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="374" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B374" s="1" t="s">
         <x:v>906</x:v>
       </x:c>
@@ -13816,7 +13999,7 @@
         <x:v>907</x:v>
       </x:c>
     </x:row>
-    <x:row r="375" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="375" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B375" s="1" t="s">
         <x:v>908</x:v>
       </x:c>
@@ -13824,7 +14007,7 @@
         <x:v>909</x:v>
       </x:c>
     </x:row>
-    <x:row r="376" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="376" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B376" s="1" t="s">
         <x:v>910</x:v>
       </x:c>
@@ -13832,7 +14015,7 @@
         <x:v>911</x:v>
       </x:c>
     </x:row>
-    <x:row r="377" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="377" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B377" s="1" t="s">
         <x:v>912</x:v>
       </x:c>
@@ -13843,7 +14026,7 @@
         <x:v>914</x:v>
       </x:c>
     </x:row>
-    <x:row r="378" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="378" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B378" s="1" t="s">
         <x:v>915</x:v>
       </x:c>
@@ -13851,7 +14034,7 @@
         <x:v>916</x:v>
       </x:c>
     </x:row>
-    <x:row r="379" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="379" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B379" s="1" t="s">
         <x:v>917</x:v>
       </x:c>
@@ -13859,7 +14042,7 @@
         <x:v>918</x:v>
       </x:c>
     </x:row>
-    <x:row r="380" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="380" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B380" s="1" t="s">
         <x:v>919</x:v>
       </x:c>
@@ -13867,7 +14050,7 @@
         <x:v>920</x:v>
       </x:c>
     </x:row>
-    <x:row r="381" spans="1:6" ht="409.5" customHeight="1">
+    <x:row r="381" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B381" s="1" t="s">
         <x:v>921</x:v>
       </x:c>
@@ -13884,7 +14067,7 @@
         <x:v>924</x:v>
       </x:c>
     </x:row>
-    <x:row r="382" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="382" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B382" s="1" t="s">
         <x:v>925</x:v>
       </x:c>
@@ -13895,7 +14078,7 @@
         <x:v>927</x:v>
       </x:c>
     </x:row>
-    <x:row r="383" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="383" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B383" s="1" t="s">
         <x:v>928</x:v>
       </x:c>
@@ -13903,7 +14086,7 @@
         <x:v>929</x:v>
       </x:c>
     </x:row>
-    <x:row r="384" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="384" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B384" s="1" t="s">
         <x:v>930</x:v>
       </x:c>
@@ -13914,7 +14097,7 @@
         <x:v>932</x:v>
       </x:c>
     </x:row>
-    <x:row r="385" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="385" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B385" s="1" t="s">
         <x:v>933</x:v>
       </x:c>
@@ -13922,7 +14105,7 @@
         <x:v>934</x:v>
       </x:c>
     </x:row>
-    <x:row r="386" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="386" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B386" s="1" t="s">
         <x:v>935</x:v>
       </x:c>
@@ -13930,7 +14113,7 @@
         <x:v>936</x:v>
       </x:c>
     </x:row>
-    <x:row r="387" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="387" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B387" s="1" t="s">
         <x:v>937</x:v>
       </x:c>
@@ -13941,7 +14124,7 @@
         <x:v>939</x:v>
       </x:c>
     </x:row>
-    <x:row r="388" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="388" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B388" s="1" t="s">
         <x:v>940</x:v>
       </x:c>
@@ -13952,7 +14135,7 @@
         <x:v>942</x:v>
       </x:c>
     </x:row>
-    <x:row r="389" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="389" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B389" s="1" t="s">
         <x:v>943</x:v>
       </x:c>
@@ -13963,7 +14146,7 @@
         <x:v>945</x:v>
       </x:c>
     </x:row>
-    <x:row r="390" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="390" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B390" s="1" t="s">
         <x:v>946</x:v>
       </x:c>
@@ -13974,7 +14157,7 @@
         <x:v>948</x:v>
       </x:c>
     </x:row>
-    <x:row r="391" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="391" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B391" s="1" t="s">
         <x:v>949</x:v>
       </x:c>
@@ -13988,7 +14171,7 @@
         <x:v>952</x:v>
       </x:c>
     </x:row>
-    <x:row r="392" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="392" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B392" s="1" t="s">
         <x:v>953</x:v>
       </x:c>
@@ -13996,7 +14179,7 @@
         <x:v>954</x:v>
       </x:c>
     </x:row>
-    <x:row r="393" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="393" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B393" s="1" t="s">
         <x:v>955</x:v>
       </x:c>
@@ -14004,7 +14187,7 @@
         <x:v>956</x:v>
       </x:c>
     </x:row>
-    <x:row r="394" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="394" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B394" s="1" t="s">
         <x:v>957</x:v>
       </x:c>
@@ -14012,7 +14195,7 @@
         <x:v>958</x:v>
       </x:c>
     </x:row>
-    <x:row r="395" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="395" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B395" s="1" t="s">
         <x:v>959</x:v>
       </x:c>
@@ -14020,7 +14203,7 @@
         <x:v>960</x:v>
       </x:c>
     </x:row>
-    <x:row r="396" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="396" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B396" s="1" t="s">
         <x:v>961</x:v>
       </x:c>
@@ -14031,7 +14214,7 @@
         <x:v>963</x:v>
       </x:c>
     </x:row>
-    <x:row r="397" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="397" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B397" s="1" t="s">
         <x:v>964</x:v>
       </x:c>
@@ -14042,7 +14225,7 @@
         <x:v>966</x:v>
       </x:c>
     </x:row>
-    <x:row r="398" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="398" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B398" s="1" t="s">
         <x:v>967</x:v>
       </x:c>
@@ -14053,7 +14236,7 @@
         <x:v>969</x:v>
       </x:c>
     </x:row>
-    <x:row r="399" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="399" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B399" s="1" t="s">
         <x:v>970</x:v>
       </x:c>
@@ -14064,7 +14247,7 @@
         <x:v>972</x:v>
       </x:c>
     </x:row>
-    <x:row r="400" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="400" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B400" s="1" t="s">
         <x:v>973</x:v>
       </x:c>
@@ -14072,7 +14255,7 @@
         <x:v>974</x:v>
       </x:c>
     </x:row>
-    <x:row r="401" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="401" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B401" s="1" t="s">
         <x:v>975</x:v>
       </x:c>
@@ -14089,7 +14272,7 @@
         <x:v>979</x:v>
       </x:c>
     </x:row>
-    <x:row r="402" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="402" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B402" s="1" t="s">
         <x:v>980</x:v>
       </x:c>
@@ -14097,7 +14280,7 @@
         <x:v>981</x:v>
       </x:c>
     </x:row>
-    <x:row r="403" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="403" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B403" s="1" t="s">
         <x:v>982</x:v>
       </x:c>
@@ -14108,7 +14291,7 @@
         <x:v>984</x:v>
       </x:c>
     </x:row>
-    <x:row r="404" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="404" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B404" s="1" t="s">
         <x:v>985</x:v>
       </x:c>
@@ -14116,7 +14299,7 @@
         <x:v>986</x:v>
       </x:c>
     </x:row>
-    <x:row r="405" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="405" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B405" s="1" t="s">
         <x:v>987</x:v>
       </x:c>
@@ -14124,7 +14307,7 @@
         <x:v>988</x:v>
       </x:c>
     </x:row>
-    <x:row r="406" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="406" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B406" s="1" t="s">
         <x:v>989</x:v>
       </x:c>
@@ -14132,7 +14315,7 @@
         <x:v>990</x:v>
       </x:c>
     </x:row>
-    <x:row r="407" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="407" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B407" s="1" t="s">
         <x:v>991</x:v>
       </x:c>
@@ -14143,7 +14326,7 @@
         <x:v>993</x:v>
       </x:c>
     </x:row>
-    <x:row r="408" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="408" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B408" s="1" t="s">
         <x:v>994</x:v>
       </x:c>
@@ -14154,7 +14337,7 @@
         <x:v>996</x:v>
       </x:c>
     </x:row>
-    <x:row r="409" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="409" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B409" s="1" t="s">
         <x:v>997</x:v>
       </x:c>
@@ -14162,7 +14345,7 @@
         <x:v>998</x:v>
       </x:c>
     </x:row>
-    <x:row r="410" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="410" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B410" s="1" t="s">
         <x:v>999</x:v>
       </x:c>
@@ -14170,7 +14353,7 @@
         <x:v>1000</x:v>
       </x:c>
     </x:row>
-    <x:row r="411" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="411" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B411" s="1" t="s">
         <x:v>1001</x:v>
       </x:c>
@@ -14184,7 +14367,7 @@
         <x:v>1004</x:v>
       </x:c>
     </x:row>
-    <x:row r="412" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="412" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B412" s="1" t="s">
         <x:v>1005</x:v>
       </x:c>
@@ -14195,7 +14378,7 @@
         <x:v>1007</x:v>
       </x:c>
     </x:row>
-    <x:row r="413" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="413" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B413" s="1" t="s">
         <x:v>1008</x:v>
       </x:c>
@@ -14206,7 +14389,7 @@
         <x:v>1010</x:v>
       </x:c>
     </x:row>
-    <x:row r="414" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="414" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B414" s="1" t="s">
         <x:v>1011</x:v>
       </x:c>
@@ -14214,7 +14397,7 @@
         <x:v>1012</x:v>
       </x:c>
     </x:row>
-    <x:row r="415" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="415" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B415" s="1" t="s">
         <x:v>1013</x:v>
       </x:c>
@@ -14222,7 +14405,7 @@
         <x:v>1014</x:v>
       </x:c>
     </x:row>
-    <x:row r="416" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="416" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B416" s="1" t="s">
         <x:v>1015</x:v>
       </x:c>
@@ -14230,7 +14413,7 @@
         <x:v>1016</x:v>
       </x:c>
     </x:row>
-    <x:row r="417" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="417" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B417" s="1" t="s">
         <x:v>1017</x:v>
       </x:c>
@@ -14238,7 +14421,7 @@
         <x:v>1018</x:v>
       </x:c>
     </x:row>
-    <x:row r="418" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="418" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B418" s="1" t="s">
         <x:v>1019</x:v>
       </x:c>
@@ -14246,7 +14429,7 @@
         <x:v>1020</x:v>
       </x:c>
     </x:row>
-    <x:row r="419" spans="1:6" ht="18.75" customHeight="1">
+    <x:row r="419" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B419" s="1" t="s">
         <x:v>1021</x:v>
       </x:c>
@@ -14254,7 +14437,7 @@
         <x:v>1022</x:v>
       </x:c>
     </x:row>
-    <x:row r="420" spans="1:6" ht="56.25" customHeight="1">
+    <x:row r="420" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B420" s="1" t="s">
         <x:v>1023</x:v>
       </x:c>
@@ -14262,7 +14445,7 @@
         <x:v>1024</x:v>
       </x:c>
     </x:row>
-    <x:row r="421" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="421" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B421" s="1" t="s">
         <x:v>1025</x:v>
       </x:c>
@@ -14276,7 +14459,7 @@
         <x:v>1028</x:v>
       </x:c>
     </x:row>
-    <x:row r="422" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="422" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B422" s="1" t="s">
         <x:v>1029</x:v>
       </x:c>
@@ -14284,1668 +14467,1686 @@
         <x:v>1030</x:v>
       </x:c>
     </x:row>
-    <x:row r="423" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="423" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B423" s="1" t="s">
         <x:v>1031</x:v>
       </x:c>
       <x:c r="C423" s="1" t="s">
         <x:v>1032</x:v>
       </x:c>
-    </x:row>
-    <x:row r="424" spans="1:6" ht="56.25" customHeight="1">
+      <x:c r="F423" s="1" t="s">
+        <x:v>1033</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="424" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B424" s="1" t="s">
-        <x:v>1033</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="C424" s="1" t="s">
-        <x:v>1034</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="425" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1035</x:v>
+      </x:c>
+      <x:c r="F424" s="1" t="s">
+        <x:v>1036</x:v>
+      </x:c>
+      <x:c r="G424" s="0" t="s">
+        <x:v>1037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="425" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B425" s="1" t="s">
-        <x:v>1035</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="C425" s="1" t="s">
-        <x:v>1036</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="426" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1039</x:v>
+      </x:c>
+      <x:c r="F425" s="1" t="s">
+        <x:v>1040</x:v>
+      </x:c>
+      <x:c r="G425" s="1" t="s">
+        <x:v>1037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="426" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B426" s="1" t="s">
+        <x:v>1041</x:v>
+      </x:c>
+      <x:c r="C426" s="1" t="s">
+        <x:v>1042</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="427" spans="1:7" ht="37.5" customHeight="1">
+      <x:c r="B427" s="1" t="s">
+        <x:v>1043</x:v>
+      </x:c>
+      <x:c r="C427" s="1" t="s">
+        <x:v>1044</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="428" spans="1:7" ht="37.5" customHeight="1">
+      <x:c r="B428" s="1" t="s">
+        <x:v>1045</x:v>
+      </x:c>
+      <x:c r="C428" s="1" t="s">
+        <x:v>1046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="429" spans="1:7" ht="18.75" customHeight="1">
+      <x:c r="B429" s="1" t="s">
+        <x:v>1047</x:v>
+      </x:c>
+      <x:c r="C429" s="1" t="s">
+        <x:v>1048</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="430" spans="1:7" ht="18.75" customHeight="1">
+      <x:c r="B430" s="1" t="s">
+        <x:v>1049</x:v>
+      </x:c>
+      <x:c r="C430" s="1" t="s">
+        <x:v>1050</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="431" spans="1:7" ht="18.75" customHeight="1">
+      <x:c r="B431" s="1" t="s">
+        <x:v>1051</x:v>
+      </x:c>
+      <x:c r="C431" s="1" t="s">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c r="D431" s="0" t="s">
+        <x:v>1053</x:v>
+      </x:c>
+      <x:c r="E431" s="0" t="s">
+        <x:v>1054</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="432" spans="1:7" ht="37.5" customHeight="1">
+      <x:c r="B432" s="1" t="s">
+        <x:v>1055</x:v>
+      </x:c>
+      <x:c r="C432" s="1" t="s">
+        <x:v>1056</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="433" spans="1:7" ht="18.75" customHeight="1">
+      <x:c r="B433" s="1" t="s">
+        <x:v>1057</x:v>
+      </x:c>
+      <x:c r="C433" s="1" t="s">
+        <x:v>1058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="434" spans="1:7" ht="37.5" customHeight="1">
+      <x:c r="B434" s="1" t="s">
+        <x:v>1059</x:v>
+      </x:c>
+      <x:c r="C434" s="1" t="s">
+        <x:v>1060</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="435" spans="1:7" ht="93.75" customHeight="1">
+      <x:c r="B435" s="1" t="s">
+        <x:v>1061</x:v>
+      </x:c>
+      <x:c r="C435" s="1" t="s">
+        <x:v>1062</x:v>
+      </x:c>
+      <x:c r="F435" s="1" t="s">
+        <x:v>1063</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="436" spans="1:7" ht="131.25" customHeight="1">
+      <x:c r="B436" s="1" t="s">
+        <x:v>1064</x:v>
+      </x:c>
+      <x:c r="C436" s="1" t="s">
+        <x:v>1065</x:v>
+      </x:c>
+      <x:c r="F436" s="1" t="s">
+        <x:v>1066</x:v>
+      </x:c>
+      <x:c r="G436" s="0" t="s">
         <x:v>1037</x:v>
       </x:c>
-      <x:c r="C426" s="1" t="s">
-        <x:v>1038</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="427" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="B427" s="1" t="s">
-        <x:v>1039</x:v>
-      </x:c>
-      <x:c r="C427" s="1" t="s">
-        <x:v>1040</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="428" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="B428" s="1" t="s">
-        <x:v>1041</x:v>
-      </x:c>
-      <x:c r="C428" s="1" t="s">
-        <x:v>1042</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="429" spans="1:6" ht="18.75" customHeight="1">
-      <x:c r="B429" s="1" t="s">
-        <x:v>1043</x:v>
-      </x:c>
-      <x:c r="C429" s="1" t="s">
-        <x:v>1044</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="430" spans="1:6" ht="18.75" customHeight="1">
-      <x:c r="B430" s="1" t="s">
-        <x:v>1045</x:v>
-      </x:c>
-      <x:c r="C430" s="1" t="s">
-        <x:v>1046</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="431" spans="1:6" ht="18.75" customHeight="1">
-      <x:c r="B431" s="1" t="s">
-        <x:v>1047</x:v>
-      </x:c>
-      <x:c r="C431" s="1" t="s">
-        <x:v>1048</x:v>
-      </x:c>
-      <x:c r="D431" s="0" t="s">
-        <x:v>1049</x:v>
-      </x:c>
-      <x:c r="E431" s="0" t="s">
-        <x:v>1050</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="432" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="B432" s="1" t="s">
-        <x:v>1051</x:v>
-      </x:c>
-      <x:c r="C432" s="1" t="s">
-        <x:v>1052</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="433" spans="1:6" ht="18.75" customHeight="1">
-      <x:c r="B433" s="1" t="s">
-        <x:v>1053</x:v>
-      </x:c>
-      <x:c r="C433" s="1" t="s">
+    </x:row>
+    <x:row r="437" spans="1:7" ht="37.5" customHeight="1">
+      <x:c r="B437" s="1" t="s">
+        <x:v>1067</x:v>
+      </x:c>
+      <x:c r="C437" s="1" t="s">
+        <x:v>1068</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="438" spans="1:7" ht="37.5" customHeight="1">
+      <x:c r="B438" s="1" t="s">
+        <x:v>1069</x:v>
+      </x:c>
+      <x:c r="C438" s="1" t="s">
+        <x:v>1070</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="439" spans="1:7" ht="37.5" customHeight="1">
+      <x:c r="B439" s="1" t="s">
+        <x:v>1071</x:v>
+      </x:c>
+      <x:c r="C439" s="1" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="440" spans="1:7" ht="18.75" customHeight="1">
+      <x:c r="B440" s="1" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+      <x:c r="C440" s="1" t="s">
         <x:v>1054</x:v>
       </x:c>
     </x:row>
-    <x:row r="434" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="B434" s="1" t="s">
-        <x:v>1055</x:v>
-      </x:c>
-      <x:c r="C434" s="1" t="s">
-        <x:v>1056</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="435" spans="1:6" ht="93.75" customHeight="1">
-      <x:c r="B435" s="1" t="s">
-        <x:v>1057</x:v>
-      </x:c>
-      <x:c r="C435" s="1" t="s">
-        <x:v>1058</x:v>
-      </x:c>
-      <x:c r="F435" s="1" t="s">
-        <x:v>1059</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="436" spans="1:6" ht="131.25" customHeight="1">
-      <x:c r="B436" s="1" t="s">
-        <x:v>1060</x:v>
-      </x:c>
-      <x:c r="C436" s="1" t="s">
-        <x:v>1061</x:v>
-      </x:c>
-      <x:c r="F436" s="1" t="s">
-        <x:v>1062</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="437" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="B437" s="1" t="s">
-        <x:v>1063</x:v>
-      </x:c>
-      <x:c r="C437" s="1" t="s">
-        <x:v>1064</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="438" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="B438" s="1" t="s">
-        <x:v>1065</x:v>
-      </x:c>
-      <x:c r="C438" s="1" t="s">
-        <x:v>1066</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="439" spans="1:6" ht="37.5" customHeight="1">
-      <x:c r="B439" s="1" t="s">
-        <x:v>1067</x:v>
-      </x:c>
-      <x:c r="C439" s="1" t="s">
-        <x:v>1068</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="440" spans="1:6" ht="18.75" customHeight="1">
-      <x:c r="B440" s="1" t="s">
-        <x:v>1069</x:v>
-      </x:c>
-      <x:c r="C440" s="1" t="s">
-        <x:v>1050</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="441" spans="1:6" ht="37.5" customHeight="1">
+    <x:row r="441" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="A441" s="0" t="s">
-        <x:v>1070</x:v>
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="B441" s="1" t="s">
-        <x:v>1071</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="C441" s="1" t="s">
-        <x:v>1072</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="D441" s="0" t="s">
-        <x:v>1073</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="E441" s="0" t="s">
-        <x:v>1074</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="442" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1078</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="442" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B442" s="1" t="s">
-        <x:v>1075</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="C442" s="1" t="s">
-        <x:v>1076</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="443" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1080</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="443" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B443" s="1" t="s">
-        <x:v>1077</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="C443" s="1" t="s">
-        <x:v>1078</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="444" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="444" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B444" s="1" t="s">
-        <x:v>1079</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="C444" s="1" t="s">
-        <x:v>1080</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="445" spans="1:6" ht="131.25" customHeight="1">
+        <x:v>1084</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="445" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B445" s="1" t="s">
-        <x:v>1081</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="C445" s="1" t="s">
-        <x:v>1082</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="F445" s="1" t="s">
-        <x:v>1083</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="446" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="446" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B446" s="1" t="s">
-        <x:v>1084</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="C446" s="1" t="s">
-        <x:v>1085</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="447" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1089</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="447" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B447" s="1" t="s">
-        <x:v>1086</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="C447" s="1" t="s">
-        <x:v>1087</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="448" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1091</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="448" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B448" s="1" t="s">
-        <x:v>1088</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="C448" s="1" t="s">
-        <x:v>1089</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="449" spans="1:6" ht="56.25" customHeight="1">
+        <x:v>1093</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="449" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B449" s="1" t="s">
-        <x:v>1090</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="C449" s="1" t="s">
-        <x:v>1091</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="450" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1095</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="450" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B450" s="1" t="s">
-        <x:v>1092</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="C450" s="1" t="s">
-        <x:v>1093</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="451" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1097</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="451" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B451" s="1" t="s">
-        <x:v>1094</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="C451" s="1" t="s">
-        <x:v>1095</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="D451" s="0" t="s">
-        <x:v>1096</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E451" s="0" t="s">
-        <x:v>1097</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="452" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="452" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B452" s="1" t="s">
-        <x:v>1098</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="C452" s="1" t="s">
-        <x:v>1099</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="453" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="453" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B453" s="1" t="s">
-        <x:v>1100</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="C453" s="1" t="s">
-        <x:v>1101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="454" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="454" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B454" s="1" t="s">
-        <x:v>1102</x:v>
+        <x:v>1106</x:v>
       </x:c>
       <x:c r="C454" s="1" t="s">
-        <x:v>1103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="455" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="455" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B455" s="1" t="s">
-        <x:v>1104</x:v>
+        <x:v>1108</x:v>
       </x:c>
       <x:c r="C455" s="1" t="s">
-        <x:v>1105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="456" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="456" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B456" s="1" t="s">
-        <x:v>1106</x:v>
+        <x:v>1110</x:v>
       </x:c>
       <x:c r="C456" s="1" t="s">
-        <x:v>1107</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="457" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="457" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B457" s="1" t="s">
-        <x:v>1108</x:v>
+        <x:v>1112</x:v>
       </x:c>
       <x:c r="C457" s="1" t="s">
-        <x:v>1109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="458" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="458" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B458" s="1" t="s">
-        <x:v>1110</x:v>
+        <x:v>1114</x:v>
       </x:c>
       <x:c r="C458" s="1" t="s">
-        <x:v>1111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="459" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="459" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B459" s="1" t="s">
-        <x:v>1112</x:v>
+        <x:v>1116</x:v>
       </x:c>
       <x:c r="C459" s="1" t="s">
-        <x:v>1113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="460" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="460" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B460" s="1" t="s">
-        <x:v>1114</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="C460" s="1" t="s">
-        <x:v>1115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="461" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="461" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B461" s="1" t="s">
-        <x:v>1116</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="C461" s="1" t="s">
-        <x:v>1117</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="D461" s="0" t="s">
-        <x:v>1118</x:v>
+        <x:v>1122</x:v>
       </x:c>
       <x:c r="E461" s="0" t="s">
-        <x:v>1119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="462" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="462" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B462" s="1" t="s">
-        <x:v>1120</x:v>
+        <x:v>1124</x:v>
       </x:c>
       <x:c r="C462" s="1" t="s">
-        <x:v>1121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="463" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="463" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B463" s="1" t="s">
-        <x:v>1122</x:v>
+        <x:v>1126</x:v>
       </x:c>
       <x:c r="C463" s="1" t="s">
-        <x:v>1123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="464" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="464" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B464" s="1" t="s">
-        <x:v>1124</x:v>
+        <x:v>1128</x:v>
       </x:c>
       <x:c r="C464" s="1" t="s">
-        <x:v>1125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="465" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="465" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B465" s="1" t="s">
-        <x:v>1126</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="C465" s="1" t="s">
-        <x:v>1127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="466" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="466" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B466" s="1" t="s">
-        <x:v>1128</x:v>
+        <x:v>1132</x:v>
       </x:c>
       <x:c r="C466" s="1" t="s">
-        <x:v>1129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="467" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="467" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B467" s="1" t="s">
-        <x:v>1130</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="C467" s="1" t="s">
-        <x:v>1131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="468" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="468" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B468" s="1" t="s">
-        <x:v>1132</x:v>
+        <x:v>1136</x:v>
       </x:c>
       <x:c r="C468" s="1" t="s">
-        <x:v>1133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="469" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="469" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B469" s="1" t="s">
-        <x:v>1134</x:v>
+        <x:v>1138</x:v>
       </x:c>
       <x:c r="C469" s="1" t="s">
-        <x:v>1135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="470" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="470" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B470" s="1" t="s">
-        <x:v>1136</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="C470" s="1" t="s">
-        <x:v>1137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="471" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="471" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B471" s="1" t="s">
-        <x:v>1138</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="C471" s="1" t="s">
-        <x:v>1139</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="D471" s="0" t="s">
-        <x:v>1140</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="E471" s="0" t="s">
-        <x:v>1141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="472" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="472" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B472" s="1" t="s">
-        <x:v>1142</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="C472" s="1" t="s">
-        <x:v>1143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="473" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="473" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B473" s="1" t="s">
-        <x:v>1144</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="C473" s="1" t="s">
-        <x:v>1145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="474" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="474" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B474" s="1" t="s">
-        <x:v>1146</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="C474" s="1" t="s">
-        <x:v>1147</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="475" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="475" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B475" s="1" t="s">
-        <x:v>1148</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="C475" s="1" t="s">
-        <x:v>1149</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="476" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="476" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B476" s="1" t="s">
-        <x:v>1150</x:v>
+        <x:v>1154</x:v>
       </x:c>
       <x:c r="C476" s="1" t="s">
-        <x:v>1151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="477" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="477" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B477" s="1" t="s">
-        <x:v>1152</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="C477" s="1" t="s">
-        <x:v>1153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="478" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="478" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B478" s="1" t="s">
-        <x:v>1154</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="C478" s="1" t="s">
-        <x:v>1155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="479" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="479" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B479" s="1" t="s">
-        <x:v>1156</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="C479" s="1" t="s">
-        <x:v>1157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="480" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="480" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B480" s="1" t="s">
-        <x:v>1158</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="C480" s="1" t="s">
-        <x:v>1159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="481" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="481" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B481" s="1" t="s">
-        <x:v>1160</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="C481" s="1" t="s">
-        <x:v>1161</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="D481" s="0" t="s">
-        <x:v>1162</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="E481" s="0" t="s">
-        <x:v>1163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="482" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="482" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B482" s="1" t="s">
-        <x:v>1164</x:v>
+        <x:v>1168</x:v>
       </x:c>
       <x:c r="C482" s="1" t="s">
-        <x:v>1165</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="483" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="483" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B483" s="1" t="s">
-        <x:v>1166</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="C483" s="1" t="s">
-        <x:v>1167</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="484" spans="1:6" ht="75" customHeight="1">
+        <x:v>1171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="484" spans="1:7" ht="75" customHeight="1">
       <x:c r="B484" s="1" t="s">
-        <x:v>1168</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="C484" s="1" t="s">
-        <x:v>1169</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="F484" s="1" t="s">
-        <x:v>1170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="485" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="485" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B485" s="1" t="s">
-        <x:v>1171</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="C485" s="1" t="s">
-        <x:v>1172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="486" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="486" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B486" s="1" t="s">
-        <x:v>1173</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="C486" s="1" t="s">
-        <x:v>1174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="487" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="487" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B487" s="1" t="s">
-        <x:v>1175</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="C487" s="1" t="s">
-        <x:v>1176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="488" spans="1:6" ht="112.5" customHeight="1">
+        <x:v>1180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="488" spans="1:7" ht="112.5" customHeight="1">
       <x:c r="B488" s="1" t="s">
-        <x:v>1177</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="C488" s="1" t="s">
-        <x:v>1178</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="F488" s="1" t="s">
-        <x:v>1179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="489" spans="1:6" ht="225" customHeight="1">
+        <x:v>1183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="489" spans="1:7" ht="225" customHeight="1">
       <x:c r="B489" s="1" t="s">
-        <x:v>1180</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="C489" s="1" t="s">
-        <x:v>1181</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="F489" s="1" t="s">
-        <x:v>1182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="490" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="490" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B490" s="1" t="s">
-        <x:v>1183</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="C490" s="1" t="s">
-        <x:v>1184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="491" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="491" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B491" s="1" t="s">
-        <x:v>1185</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="C491" s="1" t="s">
-        <x:v>1186</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="D491" s="0" t="s">
-        <x:v>1187</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="E491" s="0" t="s">
-        <x:v>1188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="492" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="492" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B492" s="1" t="s">
-        <x:v>1189</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="C492" s="1" t="s">
-        <x:v>1190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="493" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="493" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B493" s="1" t="s">
-        <x:v>1191</x:v>
+        <x:v>1195</x:v>
       </x:c>
       <x:c r="C493" s="1" t="s">
-        <x:v>1192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="494" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="494" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B494" s="1" t="s">
-        <x:v>1193</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="C494" s="1" t="s">
-        <x:v>1194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="495" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="495" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B495" s="1" t="s">
-        <x:v>1195</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="C495" s="1" t="s">
-        <x:v>1196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="496" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="496" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B496" s="1" t="s">
-        <x:v>1197</x:v>
+        <x:v>1201</x:v>
       </x:c>
       <x:c r="C496" s="1" t="s">
-        <x:v>1198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="497" spans="1:6" ht="243.75" customHeight="1">
+        <x:v>1202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="497" spans="1:7" ht="243.75" customHeight="1">
       <x:c r="B497" s="1" t="s">
-        <x:v>1199</x:v>
+        <x:v>1203</x:v>
       </x:c>
       <x:c r="C497" s="1" t="s">
-        <x:v>1200</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="F497" s="1" t="s">
-        <x:v>1201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="498" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="498" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B498" s="1" t="s">
-        <x:v>1202</x:v>
+        <x:v>1206</x:v>
       </x:c>
       <x:c r="C498" s="1" t="s">
-        <x:v>1203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="499" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="499" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B499" s="1" t="s">
-        <x:v>1204</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="C499" s="1" t="s">
-        <x:v>1205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="500" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="500" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B500" s="1" t="s">
-        <x:v>1206</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="C500" s="1" t="s">
-        <x:v>1207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="501" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="501" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B501" s="1" t="s">
-        <x:v>1208</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="C501" s="1" t="s">
-        <x:v>1209</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="D501" s="0" t="s">
-        <x:v>1210</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="E501" s="0" t="s">
-        <x:v>1211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="502" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="502" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B502" s="1" t="s">
-        <x:v>1212</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="C502" s="1" t="s">
-        <x:v>1213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="503" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="503" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B503" s="1" t="s">
-        <x:v>1214</x:v>
+        <x:v>1218</x:v>
       </x:c>
       <x:c r="C503" s="1" t="s">
-        <x:v>1215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="504" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="504" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B504" s="1" t="s">
-        <x:v>1216</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="C504" s="1" t="s">
-        <x:v>1217</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="505" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="505" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B505" s="1" t="s">
-        <x:v>1218</x:v>
+        <x:v>1222</x:v>
       </x:c>
       <x:c r="C505" s="1" t="s">
-        <x:v>1219</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="506" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="506" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B506" s="1" t="s">
-        <x:v>1220</x:v>
+        <x:v>1224</x:v>
       </x:c>
       <x:c r="C506" s="1" t="s">
-        <x:v>1221</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="507" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="507" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B507" s="1" t="s">
-        <x:v>1222</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="C507" s="1" t="s">
-        <x:v>1223</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="508" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="508" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B508" s="1" t="s">
-        <x:v>1224</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="C508" s="1" t="s">
-        <x:v>1225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="509" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="509" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B509" s="1" t="s">
-        <x:v>1226</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="C509" s="1" t="s">
-        <x:v>1227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="510" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="510" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B510" s="1" t="s">
-        <x:v>1228</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="C510" s="1" t="s">
-        <x:v>1229</x:v>
+        <x:v>1233</x:v>
       </x:c>
       <x:c r="F510" s="1" t="s">
-        <x:v>1230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="511" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="511" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B511" s="1" t="s">
-        <x:v>1231</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="C511" s="1" t="s">
-        <x:v>1232</x:v>
+        <x:v>1236</x:v>
       </x:c>
       <x:c r="D511" s="0" t="s">
-        <x:v>1233</x:v>
+        <x:v>1237</x:v>
       </x:c>
       <x:c r="E511" s="0" t="s">
-        <x:v>1234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="512" spans="1:6" ht="318.75" customHeight="1">
+        <x:v>1238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="512" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B512" s="1" t="s">
-        <x:v>1235</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="C512" s="1" t="s">
-        <x:v>1234</x:v>
+        <x:v>1238</x:v>
       </x:c>
       <x:c r="F512" s="1" t="s">
-        <x:v>1236</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="513" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="513" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B513" s="1" t="s">
-        <x:v>1237</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="C513" s="1" t="s">
-        <x:v>1238</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="F513" s="1" t="s">
-        <x:v>1239</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="514" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="514" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B514" s="1" t="s">
-        <x:v>1240</x:v>
+        <x:v>1244</x:v>
       </x:c>
       <x:c r="C514" s="1" t="s">
-        <x:v>1241</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="515" spans="1:6" ht="56.25" customHeight="1">
+        <x:v>1245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="515" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B515" s="1" t="s">
-        <x:v>1242</x:v>
+        <x:v>1246</x:v>
       </x:c>
       <x:c r="C515" s="1" t="s">
-        <x:v>1243</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="516" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="516" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B516" s="1" t="s">
-        <x:v>1244</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="C516" s="1" t="s">
-        <x:v>1245</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="517" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="517" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B517" s="1" t="s">
-        <x:v>1246</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="C517" s="1" t="s">
-        <x:v>1247</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="518" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="518" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B518" s="1" t="s">
-        <x:v>1248</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="C518" s="1" t="s">
-        <x:v>1249</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="F518" s="1" t="s">
-        <x:v>1250</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="519" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="519" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B519" s="1" t="s">
-        <x:v>1251</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="C519" s="1" t="s">
-        <x:v>1252</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="F519" s="1" t="s">
-        <x:v>1253</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="520" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="520" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B520" s="1" t="s">
-        <x:v>1254</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="C520" s="1" t="s">
-        <x:v>1255</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="F520" s="1" t="s">
-        <x:v>1256</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="521" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="521" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B521" s="1" t="s">
-        <x:v>1257</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="C521" s="1" t="s">
-        <x:v>1258</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="D521" s="0" t="s">
-        <x:v>1259</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="E521" s="0" t="s">
-        <x:v>1260</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="522" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="522" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B522" s="1" t="s">
-        <x:v>1261</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="C522" s="1" t="s">
-        <x:v>1262</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="523" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="523" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B523" s="1" t="s">
-        <x:v>1263</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="C523" s="1" t="s">
-        <x:v>1264</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="524" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="524" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B524" s="1" t="s">
-        <x:v>1265</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="C524" s="1" t="s">
-        <x:v>1266</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="525" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="525" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B525" s="1" t="s">
-        <x:v>1267</x:v>
+        <x:v>1271</x:v>
       </x:c>
       <x:c r="C525" s="1" t="s">
-        <x:v>1268</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="526" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="526" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B526" s="1" t="s">
-        <x:v>1269</x:v>
+        <x:v>1273</x:v>
       </x:c>
       <x:c r="C526" s="1" t="s">
-        <x:v>1270</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="527" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="527" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B527" s="1" t="s">
-        <x:v>1271</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="C527" s="1" t="s">
-        <x:v>1272</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="528" spans="1:6" ht="356.25" customHeight="1">
+        <x:v>1276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="528" spans="1:7" ht="356.25" customHeight="1">
       <x:c r="B528" s="1" t="s">
-        <x:v>1273</x:v>
+        <x:v>1277</x:v>
       </x:c>
       <x:c r="C528" s="1" t="s">
-        <x:v>1274</x:v>
+        <x:v>1278</x:v>
       </x:c>
       <x:c r="F528" s="1" t="s">
-        <x:v>1275</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="529" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="529" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B529" s="1" t="s">
-        <x:v>1276</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="C529" s="1" t="s">
-        <x:v>1277</x:v>
+        <x:v>1281</x:v>
       </x:c>
       <x:c r="F529" s="1" t="s">
-        <x:v>1278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="530" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="530" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B530" s="1" t="s">
-        <x:v>1279</x:v>
+        <x:v>1283</x:v>
       </x:c>
       <x:c r="C530" s="1" t="s">
-        <x:v>1280</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="F530" s="1" t="s">
-        <x:v>1281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="531" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="531" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B531" s="1" t="s">
-        <x:v>1282</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="C531" s="1" t="s">
-        <x:v>1283</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="D531" s="0" t="s">
-        <x:v>1284</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="E531" s="0" t="s">
-        <x:v>1285</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="532" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="532" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B532" s="1" t="s">
-        <x:v>1286</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="C532" s="1" t="s">
-        <x:v>1287</x:v>
+        <x:v>1291</x:v>
       </x:c>
       <x:c r="F532" s="1" t="s">
-        <x:v>1288</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="533" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="533" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B533" s="1" t="s">
-        <x:v>1289</x:v>
+        <x:v>1293</x:v>
       </x:c>
       <x:c r="C533" s="1" t="s">
-        <x:v>1290</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="534" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="534" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B534" s="1" t="s">
-        <x:v>1291</x:v>
+        <x:v>1295</x:v>
       </x:c>
       <x:c r="C534" s="1" t="s">
-        <x:v>1292</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="F534" s="1" t="s">
-        <x:v>1293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="535" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="535" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B535" s="1" t="s">
-        <x:v>1294</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="C535" s="1" t="s">
-        <x:v>1295</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="536" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="536" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B536" s="1" t="s">
-        <x:v>1296</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="C536" s="1" t="s">
-        <x:v>1297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="537" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="537" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B537" s="1" t="s">
-        <x:v>1298</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="C537" s="1" t="s">
-        <x:v>1299</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="538" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="538" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B538" s="1" t="s">
-        <x:v>1300</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="C538" s="1" t="s">
-        <x:v>1301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="539" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="539" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B539" s="1" t="s">
-        <x:v>1302</x:v>
+        <x:v>1306</x:v>
       </x:c>
       <x:c r="C539" s="1" t="s">
-        <x:v>1303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="540" spans="1:6" ht="318.75" customHeight="1">
+        <x:v>1307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="540" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B540" s="1" t="s">
-        <x:v>1304</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="C540" s="1" t="s">
-        <x:v>1305</x:v>
+        <x:v>1309</x:v>
       </x:c>
       <x:c r="F540" s="1" t="s">
-        <x:v>1306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="541" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="541" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B541" s="1" t="s">
-        <x:v>1307</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="C541" s="1" t="s">
-        <x:v>1308</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="D541" s="0" t="s">
-        <x:v>1309</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="E541" s="0" t="s">
-        <x:v>1310</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="542" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="542" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B542" s="1" t="s">
-        <x:v>1311</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="C542" s="1" t="s">
-        <x:v>1312</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="F542" s="1" t="s">
-        <x:v>1313</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="543" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="543" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B543" s="1" t="s">
+        <x:v>1318</x:v>
+      </x:c>
+      <x:c r="C543" s="1" t="s">
         <x:v>1314</x:v>
       </x:c>
-      <x:c r="C543" s="1" t="s">
-        <x:v>1310</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="544" spans="1:6" ht="37.5" customHeight="1">
+    </x:row>
+    <x:row r="544" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B544" s="1" t="s">
-        <x:v>1315</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="C544" s="1" t="s">
-        <x:v>1316</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="545" spans="1:6" ht="187.5" customHeight="1">
+        <x:v>1320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="545" spans="1:7" ht="187.5" customHeight="1">
       <x:c r="B545" s="1" t="s">
-        <x:v>1317</x:v>
+        <x:v>1321</x:v>
       </x:c>
       <x:c r="C545" s="1" t="s">
-        <x:v>1318</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="F545" s="1" t="s">
-        <x:v>1319</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="546" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="546" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B546" s="1" t="s">
-        <x:v>1320</x:v>
+        <x:v>1324</x:v>
       </x:c>
       <x:c r="C546" s="1" t="s">
-        <x:v>1321</x:v>
+        <x:v>1325</x:v>
       </x:c>
       <x:c r="F546" s="1" t="s">
-        <x:v>1322</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="547" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="547" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B547" s="1" t="s">
-        <x:v>1323</x:v>
+        <x:v>1327</x:v>
       </x:c>
       <x:c r="C547" s="1" t="s">
-        <x:v>1324</x:v>
+        <x:v>1328</x:v>
       </x:c>
       <x:c r="F547" s="1" t="s">
-        <x:v>1325</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="548" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="548" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B548" s="1" t="s">
-        <x:v>1326</x:v>
+        <x:v>1330</x:v>
       </x:c>
       <x:c r="C548" s="1" t="s">
-        <x:v>1327</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="F548" s="1" t="s">
-        <x:v>1328</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="549" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="549" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B549" s="1" t="s">
-        <x:v>1329</x:v>
+        <x:v>1333</x:v>
       </x:c>
       <x:c r="C549" s="1" t="s">
-        <x:v>1330</x:v>
+        <x:v>1334</x:v>
       </x:c>
       <x:c r="F549" s="1" t="s">
-        <x:v>1331</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="550" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="550" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B550" s="1" t="s">
-        <x:v>1332</x:v>
+        <x:v>1336</x:v>
       </x:c>
       <x:c r="C550" s="1" t="s">
-        <x:v>1333</x:v>
+        <x:v>1337</x:v>
       </x:c>
       <x:c r="F550" s="1" t="s">
-        <x:v>1334</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="551" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="551" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B551" s="1" t="s">
-        <x:v>1335</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="C551" s="1" t="s">
-        <x:v>1336</x:v>
+        <x:v>1340</x:v>
       </x:c>
       <x:c r="D551" s="0" t="s">
-        <x:v>1337</x:v>
+        <x:v>1341</x:v>
       </x:c>
       <x:c r="E551" s="0" t="s">
-        <x:v>1338</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="552" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1342</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="552" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B552" s="1" t="s">
-        <x:v>1339</x:v>
+        <x:v>1343</x:v>
       </x:c>
       <x:c r="C552" s="1" t="s">
-        <x:v>1340</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="553" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1344</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="553" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B553" s="1" t="s">
-        <x:v>1341</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="C553" s="1" t="s">
-        <x:v>1342</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="554" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1346</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="554" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B554" s="1" t="s">
-        <x:v>1343</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="C554" s="1" t="s">
-        <x:v>1344</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="F554" s="1" t="s">
-        <x:v>1345</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="555" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="555" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B555" s="1" t="s">
-        <x:v>1346</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="C555" s="1" t="s">
-        <x:v>1347</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="556" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1351</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="556" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B556" s="1" t="s">
-        <x:v>1348</x:v>
+        <x:v>1352</x:v>
       </x:c>
       <x:c r="C556" s="1" t="s">
-        <x:v>1349</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="557" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="557" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B557" s="1" t="s">
-        <x:v>1350</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="C557" s="1" t="s">
-        <x:v>1351</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="558" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="558" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B558" s="1" t="s">
-        <x:v>1352</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="C558" s="1" t="s">
-        <x:v>1353</x:v>
+        <x:v>1357</x:v>
       </x:c>
       <x:c r="F558" s="1" t="s">
-        <x:v>1354</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="559" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="559" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B559" s="1" t="s">
-        <x:v>1355</x:v>
+        <x:v>1359</x:v>
       </x:c>
       <x:c r="C559" s="1" t="s">
-        <x:v>1356</x:v>
+        <x:v>1360</x:v>
       </x:c>
       <x:c r="F559" s="1" t="s">
-        <x:v>1357</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="560" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="560" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B560" s="1" t="s">
-        <x:v>1358</x:v>
+        <x:v>1362</x:v>
       </x:c>
       <x:c r="C560" s="1" t="s">
-        <x:v>1359</x:v>
+        <x:v>1363</x:v>
       </x:c>
       <x:c r="F560" s="1" t="s">
-        <x:v>1360</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="561" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="561" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B561" s="1" t="s">
-        <x:v>1361</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="C561" s="1" t="s">
-        <x:v>1362</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="D561" s="0" t="s">
-        <x:v>1363</x:v>
+        <x:v>1367</x:v>
       </x:c>
       <x:c r="E561" s="0" t="s">
-        <x:v>1364</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="562" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="562" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B562" s="1" t="s">
-        <x:v>1365</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="C562" s="1" t="s">
-        <x:v>1366</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="563" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="563" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B563" s="1" t="s">
-        <x:v>1367</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="C563" s="1" t="s">
-        <x:v>1368</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="F563" s="1" t="s">
-        <x:v>1369</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="564" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="564" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B564" s="1" t="s">
-        <x:v>1370</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="C564" s="1" t="s">
-        <x:v>1371</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="565" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="565" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B565" s="1" t="s">
-        <x:v>1372</x:v>
+        <x:v>1376</x:v>
       </x:c>
       <x:c r="C565" s="1" t="s">
-        <x:v>1373</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="566" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="566" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B566" s="1" t="s">
-        <x:v>1374</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="C566" s="1" t="s">
-        <x:v>1375</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="567" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="567" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B567" s="1" t="s">
-        <x:v>1376</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="C567" s="1" t="s">
-        <x:v>1377</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="568" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="568" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B568" s="1" t="s">
-        <x:v>1378</x:v>
+        <x:v>1382</x:v>
       </x:c>
       <x:c r="C568" s="1" t="s">
-        <x:v>1379</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="569" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="569" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B569" s="1" t="s">
-        <x:v>1380</x:v>
+        <x:v>1384</x:v>
       </x:c>
       <x:c r="C569" s="1" t="s">
-        <x:v>1381</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="F569" s="1" t="s">
-        <x:v>1382</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="570" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1386</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="570" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B570" s="1" t="s">
-        <x:v>1383</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="C570" s="1" t="s">
-        <x:v>1384</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="F570" s="1" t="s">
-        <x:v>1385</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="571" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="571" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B571" s="1" t="s">
-        <x:v>1386</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="C571" s="1" t="s">
-        <x:v>1387</x:v>
+        <x:v>1391</x:v>
       </x:c>
       <x:c r="D571" s="0" t="s">
-        <x:v>1388</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="E571" s="0" t="s">
-        <x:v>1389</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="572" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="572" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B572" s="1" t="s">
-        <x:v>1390</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="C572" s="1" t="s">
-        <x:v>1391</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="573" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="573" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B573" s="1" t="s">
-        <x:v>1392</x:v>
+        <x:v>1396</x:v>
       </x:c>
       <x:c r="C573" s="1" t="s">
-        <x:v>1393</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="574" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="574" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B574" s="1" t="s">
-        <x:v>1394</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="C574" s="1" t="s">
-        <x:v>1395</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="575" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="575" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B575" s="1" t="s">
-        <x:v>1396</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="C575" s="1" t="s">
-        <x:v>1397</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="576" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="576" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B576" s="1" t="s">
-        <x:v>1398</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="C576" s="1" t="s">
-        <x:v>1399</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="577" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="577" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B577" s="1" t="s">
-        <x:v>1400</x:v>
+        <x:v>1404</x:v>
       </x:c>
       <x:c r="C577" s="1" t="s">
-        <x:v>1401</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>1402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="578" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="578" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B578" s="1" t="s">
-        <x:v>1403</x:v>
+        <x:v>1407</x:v>
       </x:c>
       <x:c r="C578" s="1" t="s">
-        <x:v>1404</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="579" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="579" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B579" s="1" t="s">
-        <x:v>1405</x:v>
+        <x:v>1409</x:v>
       </x:c>
       <x:c r="C579" s="1" t="s">
-        <x:v>1406</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="580" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="580" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B580" s="1" t="s">
-        <x:v>1407</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="C580" s="1" t="s">
-        <x:v>1408</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="581" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="581" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B581" s="1" t="s">
-        <x:v>1409</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="C581" s="1" t="s">
-        <x:v>1410</x:v>
+        <x:v>1414</x:v>
       </x:c>
       <x:c r="D581" s="0" t="s">
-        <x:v>1411</x:v>
+        <x:v>1415</x:v>
       </x:c>
       <x:c r="E581" s="0" t="s">
-        <x:v>1412</x:v>
+        <x:v>1416</x:v>
       </x:c>
       <x:c r="F581" s="1" t="s">
-        <x:v>1413</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="582" spans="1:6" ht="131.25" customHeight="1">
+        <x:v>1417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="582" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B582" s="1" t="s">
-        <x:v>1414</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="C582" s="1" t="s">
-        <x:v>1415</x:v>
+        <x:v>1419</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>1416</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="583" spans="1:6" ht="375" customHeight="1">
+        <x:v>1420</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="583" spans="1:7" ht="375" customHeight="1">
       <x:c r="B583" s="1" t="s">
-        <x:v>1417</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="C583" s="1" t="s">
-        <x:v>1418</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="F583" s="1" t="s">
-        <x:v>1419</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="584" spans="1:6" ht="300" customHeight="1">
+        <x:v>1423</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="584" spans="1:7" ht="300" customHeight="1">
       <x:c r="B584" s="1" t="s">
-        <x:v>1420</x:v>
+        <x:v>1424</x:v>
       </x:c>
       <x:c r="C584" s="1" t="s">
-        <x:v>1421</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="F584" s="1" t="s">
-        <x:v>1422</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="585" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="585" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B585" s="1" t="s">
-        <x:v>1423</x:v>
+        <x:v>1427</x:v>
       </x:c>
       <x:c r="C585" s="1" t="s">
-        <x:v>1424</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="586" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1428</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="586" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B586" s="1" t="s">
-        <x:v>1425</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="C586" s="1" t="s">
-        <x:v>1426</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="587" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="587" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B587" s="1" t="s">
-        <x:v>1427</x:v>
+        <x:v>1431</x:v>
       </x:c>
       <x:c r="C587" s="1" t="s">
-        <x:v>1428</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="588" spans="1:6" ht="75" customHeight="1">
+        <x:v>1432</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="588" spans="1:7" ht="75" customHeight="1">
       <x:c r="B588" s="1" t="s">
-        <x:v>1429</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="C588" s="1" t="s">
-        <x:v>1430</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="F588" s="1" t="s">
-        <x:v>1431</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="589" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="589" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B589" s="1" t="s">
-        <x:v>1432</x:v>
+        <x:v>1436</x:v>
       </x:c>
       <x:c r="C589" s="1" t="s">
-        <x:v>1433</x:v>
+        <x:v>1437</x:v>
       </x:c>
       <x:c r="F589" s="1" t="s">
-        <x:v>1434</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="590" spans="1:6" ht="262.5" customHeight="1">
+        <x:v>1438</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="590" spans="1:7" ht="262.5" customHeight="1">
       <x:c r="B590" s="1" t="s">
-        <x:v>1435</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="C590" s="1" t="s">
-        <x:v>1436</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="F590" s="1" t="s">
-        <x:v>1437</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="591" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="591" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B591" s="1" t="s">
-        <x:v>1438</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="C591" s="1" t="s">
-        <x:v>1439</x:v>
+        <x:v>1443</x:v>
       </x:c>
       <x:c r="D591" s="0" t="s">
-        <x:v>1440</x:v>
+        <x:v>1444</x:v>
       </x:c>
       <x:c r="E591" s="0" t="s">
-        <x:v>1441</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="592" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1445</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="592" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B592" s="1" t="s">
-        <x:v>1442</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="C592" s="1" t="s">
-        <x:v>1443</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="593" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="593" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B593" s="1" t="s">
-        <x:v>1444</x:v>
+        <x:v>1448</x:v>
       </x:c>
       <x:c r="C593" s="1" t="s">
-        <x:v>1445</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="594" spans="1:6" ht="75" customHeight="1">
+        <x:v>1449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="594" spans="1:7" ht="75" customHeight="1">
       <x:c r="B594" s="1" t="s">
-        <x:v>1446</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="C594" s="1" t="s">
-        <x:v>1447</x:v>
+        <x:v>1451</x:v>
       </x:c>
       <x:c r="F594" s="1" t="s">
-        <x:v>1448</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="595" spans="1:6" ht="168.75" customHeight="1">
+        <x:v>1452</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="595" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B595" s="1" t="s">
-        <x:v>1449</x:v>
+        <x:v>1453</x:v>
       </x:c>
       <x:c r="C595" s="1" t="s">
-        <x:v>1450</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="F595" s="1" t="s">
-        <x:v>1451</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="596" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="596" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B596" s="1" t="s">
-        <x:v>1452</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="C596" s="1" t="s">
-        <x:v>1453</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
-        <x:v>1454</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="597" spans="1:6" ht="37.5" customHeight="1">
+        <x:v>1458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="597" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B597" s="1" t="s">
-        <x:v>1455</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
-        <x:v>1456</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="598" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1460</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="598" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B598" s="1" t="s">
-        <x:v>1457</x:v>
+        <x:v>1461</x:v>
       </x:c>
       <x:c r="C598" s="1" t="s">
-        <x:v>1458</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="599" spans="1:6" ht="18.75" customHeight="1">
+        <x:v>1462</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="599" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B599" s="1" t="s">
-        <x:v>1459</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="C599" s="1" t="s">
-        <x:v>1460</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="600" spans="1:6" ht="409.5" customHeight="1">
+        <x:v>1464</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="600" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B600" s="1" t="s">
-        <x:v>1461</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>1462</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="F600" s="1" t="s">
-        <x:v>1463</x:v>
+        <x:v>1467</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15969,7 +16170,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.585625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="14.335625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="50.375" style="0" customWidth="1"/>
@@ -16148,7 +16349,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1464</x:v>
+        <x:v>1468</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="18.75" customHeight="1">
@@ -16175,7 +16376,7 @@
         <x:v>583</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1465</x:v>
+        <x:v>1469</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3" ht="18.75" customHeight="1">
@@ -16327,7 +16528,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>1049</x:v>
+        <x:v>1053</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3" ht="18.75" customHeight="1">
@@ -16335,10 +16536,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>1073</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1466</x:v>
+        <x:v>1470</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3" ht="18.75" customHeight="1">
@@ -16346,7 +16547,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>1096</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3" ht="18.75" customHeight="1">
@@ -16354,7 +16555,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>1118</x:v>
+        <x:v>1122</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3" ht="18.75" customHeight="1">
@@ -16362,7 +16563,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>1140</x:v>
+        <x:v>1144</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3" ht="18.75" customHeight="1">
@@ -16370,7 +16571,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>1162</x:v>
+        <x:v>1166</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3" ht="18.75" customHeight="1">
@@ -16378,7 +16579,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>1187</x:v>
+        <x:v>1191</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3" ht="18.75" customHeight="1">
@@ -16386,7 +16587,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>1210</x:v>
+        <x:v>1214</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3" ht="18.75" customHeight="1">
@@ -16394,7 +16595,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>1233</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3" ht="18.75" customHeight="1">
@@ -16402,7 +16603,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>1259</x:v>
+        <x:v>1263</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3" ht="18.75" customHeight="1">
@@ -16410,7 +16611,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>1284</x:v>
+        <x:v>1288</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3" ht="18.75" customHeight="1">
@@ -16418,7 +16619,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>1309</x:v>
+        <x:v>1313</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3" ht="18.75" customHeight="1">
@@ -16426,7 +16627,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>1337</x:v>
+        <x:v>1341</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3" ht="18.75" customHeight="1">
@@ -16434,7 +16635,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>1363</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" ht="18.75" customHeight="1">
@@ -16442,7 +16643,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>1388</x:v>
+        <x:v>1392</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3" ht="18.75" customHeight="1">
@@ -16450,7 +16651,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>1411</x:v>
+        <x:v>1415</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3" ht="18.75" customHeight="1">
@@ -16458,7 +16659,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>1440</x:v>
+        <x:v>1444</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -7110,6 +7110,53 @@
     <x:t>Sus abuelos se pondrán muy contentos de que Francisco haya conseguido un puesto tan importante.</x:t>
   </x:si>
   <x:si>
+    <x:t>文中の **「de que」** の部分について解説します。
+この表現はスペイン語の特定の動詞や形容詞とともに用いられる文法構造の一部です。以下に詳しく説明します。
+---
+### **文の構造を分解**
+1. **主文: Sus abuelos se pondrán muy contentos**  
+   - 「彼の祖父母はとても喜ぶだろう」という主文です。
+   - 動詞 **ponerse contentos**（喜ぶ、嬉しくなる）が使われています。
+2. **補足説明: de que Francisco haya conseguido un puesto tan importante**  
+   - 「フランシスコがそんなに重要な職を得たこと」という情報を表しています。
+   - **de que** を導入詞として従属節（**Francisco haya conseguido un puesto tan importante**）を接続しています。
+---
+### **「de que」の文法的役割**
+1. **「de」の必要性**
+   - 一部の形容詞や動詞（特に感情を表すもの）と一緒に、従属節を導入する際に **「de」** を加えます。
+   - この場合、形容詞 **contentos** が **ponerse contentos de algo**（～のことで喜ぶ）
+   という表現で使われているため、**「de」** が必要になります。
+2. **「que」の役割**
+   - **que** は、従属節を導入する接続詞として機能しています。
+   - **de que** の後に動詞 **haya conseguido** が続き、内容を詳しく説明しています。
+---
+### **ポイント: 「de que」 vs 「que」**
+- **「de que」**  
+  感情、評価、または物事に関する特定の動詞や形容詞とともに使われ、**原因や理由** を表す場合に用いられる。  
+  - 例: 
+    - Me alegro de que hayas venido.（君が来てくれたことが嬉しい。）
+    - Estoy orgulloso de que lo hayas logrado.（君がそれを成し遂げたことを誇りに思う。）
+- **「que」**  
+  動詞や形容詞が **「de」** を必要としない場合は単に **que** だけを使います。  
+  - 例: 
+    - Sé que él está bien.（彼が元気だと知っている。）
+    - Dijo que saldría temprano.（早めに出ると言った。）
+---
+### **接続法が使われる理由**
+- **Francisco haya conseguido un puesto tan importante** という部分で
+接続法現在完了（**haya conseguido**）が使われています。
+- 理由: 喜び、感情を表す文では、従属節で接続法が使われるのが一般的です。
+---
+### **まとめ**
+**de que** は感情や評価を表す形容詞（この場合は **contentos**）
+や動詞とともに用いられる表現で、従属節を導入する際に使われます。
+この文では、「フランシスコが重要な職を得たことが原因で、
+祖父母が喜ぶ」という関係を表現しています。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/01/28</x:t>
+  </x:si>
+  <x:si>
     <x:t>「おめでとう！」
 (tú)「誕生日を覚えててくれてうれしい！」</x:t>
   </x:si>
@@ -7225,6 +7272,52 @@
     <x:t>No estoy segura de que esa decisión vuestra sea adecuada.</x:t>
   </x:si>
   <x:si>
+    <x:t>はい、その通りです！この文でも **「de que」** が使われている理由は、
+前の例文(No 405)と同じく、特定の形容詞（この場合は **segura**）が従属節を導入する際に **「de」** を必要とするためです。
+---
+### **文を分解して解説**
+1. **主文: No estoy segura**  
+   - 「私は確信がない」という主文です。
+   - 形容詞 **segura**（確信している）が使われています。
+2. **補足説明: de que esa decisión vuestra sea adecuada**  
+   - **esa decisión vuestra sea adecuada**（あなたたちのその決断が適切である）という従属節が補足的な情報を提供しています。
+   - **de que** が従属節を導入しています。
+---
+### **「de que」が使われる理由**
+1. **形容詞 segura の構文**
+   - **seguro/a**（確信している）は、従属節を導入する際に前置詞 **de** を必要とします。
+   - 例: Estoy segura de que todo saldrá bien.（すべてがうまくいくと確信している。）
+2. **従属節の導入**
+   - **que** は従属節を接続する役割を果たします。
+   - **de que** 全体で「～ということ（に関して）」を表現します。
+---
+### **なぜ「que」だけではダメなのか？**
+- **seguro/a** は **de** が必要な形容詞です。
+  - 例えば、以下のように **de** が必須です:
+    - Estoy segura de mi decisión.（自分の決断に確信がある。）
+    - Estoy segura de que mi decisión es correcta.（自分の決断が正しいと確信している。）
+- このため、従属節を導入する際も **de que** となります。
+---
+### **接続法が使われている理由**
+- 従属節 **esa decisión vuestra sea adecuada** では接続法現在（**sea**）が使われています。
+- 理由: 主文で「確信の欠如」を表す **No estoy segura** という否定の表現が使われているため、従属節で接続法が必要となります。
+---
+### **比較: 確信がある場合**
+もし肯定形（確信がある場合）であれば、接続法ではなく直説法になります：
+- Estoy segura de que esa decisión vuestra es adecuada.  
+  （あなたたちのその決断が適切であると確信している。）
+---
+### **まとめ**
+**No estoy segura de que esa decisión vuestra sea adecuada.** の **de que** は、
+形容詞 **segura** が従属節を導入する際に **de** を必要とするために使われています。
+また、主文が否定形であるため、従属節では接続法が使われています。
+この文は「その決断が適切であるかどうか確信がない」というニュアンスを伝えています。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/03
+2025/02/03</x:t>
+  </x:si>
+  <x:si>
     <x:t>祖父はいつもこう言ったものだ。「意思あるところに道あり」</x:t>
   </x:si>
   <x:si>
@@ -7355,6 +7448,57 @@
   </x:si>
   <x:si>
     <x:t>¿Han oído cantar a Esteban?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>**¿Han oído cantar a Esteban?**  
+この文の **「cantar a Esteban」** の部分の文法を詳しく解説します。
+---
+### **1. 動詞「oír」の構造**
+**oír**（聞く）は「知覚動詞」と呼ばれる動詞の一つで、次のような構造をとることができます：
+🔹 **oír + 動詞の原形（不定詞）+ 目的語**  
+🔹 **oír + 目的語 + 動詞の原形（不定詞）**
+つまり、  
+- **Oí cantar a Esteban.**（エステバンが歌うのを聞いた。）  
+- **Oí a Esteban cantar.**（同じ意味）  
+のように、「oír + 動詞の原形（不定詞）」の形で使われます。
+この構造は、英語の **"hear someone do something"** に似ています。  
+- **I heard Esteban sing.**（エステバンが歌うのを聞いた。）  
+と同じような表現ですね。
+---
+### **2. 「a Esteban」の役割**
+**「a Esteban」** は **「cantar」** の動作主を明確にするために使われています。
+つまり、「誰が歌うのか」を示しています。
+**なぜ前置詞「a」を使うのか？**  
+スペイン語では **「人が目的語になるとき」**、通常 **「a」** を使います（「対格のa」または「人称a」）。  
+この場合、**Esteban** は **cantar**（歌う）の動作主であるため、「a Esteban」となります。
+🔹 **比較：目的語が人でない場合**
+- **Han oído cantar a los pájaros.**（鳥が歌うのを聞いた。）✅  
+  （鳥も生き物なので **a** を使うのが一般的）  
+- **Han oído sonar el teléfono.**（電話が鳴るのを聞いた。）✅  
+  （電話は無生物なので **a** を使わない）
+---
+### **3. 別の例文での応用**
+- **Oí gritar a los niños.**（子どもたちが叫ぶのを聞いた。）  
+- **Vimos correr a Marta.**（マルタが走るのを見た。）  
+- **Noté temblar a Juan.**（フアンが震えるのを感じた。）  
+すべて「知覚動詞 + 不定詞 +（人なら a）」の構造になっています。
+---
+### **4. 文の意味**
+「¿Han oído cantar a Esteban?」  
+→「あなたたちはエステバンが歌うのを聞いたことがありますか？」  
+主語：「あなたたち（ustedes）」  
+動詞：「聞いたことがありますか？」（現在完了）  
+補語：「エステバンが歌うのを」
+---
+### **5. まとめ**
+- **「oír + 不定詞」** の構造で、知覚動詞の典型的な使い方。  
+- **「a Esteban」** は **cantar** の動作主を明示するための「対格のa」。  
+- **「人が目的語のときは a をつける」** というスペイン語のルールに従っている。  
+- **この構造は「oír」「ver」「notar」などの知覚動詞とよく使われる。**
+この構文に慣れると、より自然なスペイン語の表現ができるようになりますよ！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/03</x:t>
   </x:si>
   <x:si>
     <x:t>私たちは公演を録画させてもらえませんでした</x:t>
@@ -7825,10 +7969,248 @@
     <x:t>A lo mejor no le gusta, pero tengo un regalo para usted.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">### **A lo mejor no le gusta の文法解説**  
+このフレーズは、「もしかすると彼（彼女）は気に入らないかもしれません」という意味になります。
+文法的にどのように構成されているのか、詳しく解説します。
+---
+### **1. 「A lo mejor」の意味と役割**  
+**A lo mejor** は **「もしかすると」「たぶん」** という意味の副詞表現です。  
+**特徴:**  
+- **直説法**（modo indicativo）と一緒に使うのが一般的。  
+- **接続法**（subjuntivo）は使わない（話し手の主観的な判断を表すわけではないため）。  
+🔹 **類似表現と比較**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt;表現&lt;/th&gt;
+      &lt;th&gt;意味&lt;/th&gt;
+      &lt;th&gt;使われる時制&lt;/th&gt;
+      &lt;/tr&gt;
+    &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt;A lo mejor&lt;/th&gt;
+      &lt;td&gt;たぶん&lt;/td&gt;
+      &lt;td&gt;直説法&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Quizás / Tal vez&lt;/th&gt;
+      &lt;td&gt;たぶん&lt;/td&gt;
+      &lt;td&gt;直説法 or 接続法&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Es posible que&lt;/th&gt;
+      &lt;td&gt;～の可能性がある&lt;/td&gt;
+      &lt;td&gt;接続法&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Puede que&lt;/th&gt;
+      &lt;td&gt;～かもしれない&lt;/td&gt;
+      &lt;td&gt;接続法&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+例:  
+- **A lo mejor llueve mañana.**（もしかすると明日雨が降るかもしれない。）✅（直説法）  
+- **Tal vez llueva mañana.**（たぶん明日雨が降るかもしれない。）✅（接続法）  
+---
+### **2. 「no le gusta」の構造**
+**「no le gusta」** は **動詞 gustar（気に入る、好き）** の現在形で、
+構造的には「間接目的語 + gustar + 主語」になっています。
+**✔ 文の構造**
+- **le** → 間接目的語代名詞（彼/彼女/あなたに）  
+- **gusta** → 動詞 gustar の直説法現在（主語が単数の場合）  
+- **(省略されている主語)** → 何か（この場合は「regalo（プレゼント）」）  
+**例:**
+- **A Juan le gusta el café.**（フアンはコーヒーが好きです。）  
+  → **「コーヒーがフアンにとって好ましい」** というスペイン語独特の構造。  
+- **No le gusta el pescado.**（彼/彼女/あなたは魚が好きではない。）  
+  → **「魚が彼/彼女/あなたにとって好ましくない」** という意味。
+---
+### **3. まとめ**
+✔ **「A lo mejor」** は「たぶん」「もしかすると」という意味で **直説法** と一緒に使う。  
+✔ **「no le gusta」** は gustar 動詞の基本構造（間接目的語 + gustar + 主語）。  
+✔ 文全体の意味は「もしかすると（彼は）気に入らないかもしれませんが、プレゼントを用意しました。」  
+この構造を覚えておくと、日常会話で「たぶん～かもしれない」という表現がスムーズにできるようになります！
+=====
+### **A lo mejor llueve mañana.** と **Tal vez llueva mañana.** の違い  
+この2つの文の大きな違いは **動詞の時制** ですが、
+それによって **話し手の気持ちや確信の度合い** が変わってきます。
+---
+### **1. A lo mejor llueve mañana.（直説法）**  
+- **「たぶん明日は雨が降る」**  
+- **A lo mejor**（もしかすると、たぶん）は **直説法**（indicativo）と一緒に使われる。  
+- **話し手の気持ち:** **「実際にそうなりそうだ」と思っている。**  
+  - つまり、話し手は **「雨が降る可能性が高い」と考えている**。  
+  - **客観的な事実に基づいている** ことが多い。  
+  - 例えば、**空が曇っていて今にも降りそう** なときに使う。  
+**✔ 例:**  
+- **A lo mejor llego tarde.**（たぶん遅れるかも。）
+→ **実際に遅れる可能性が高いと思っている**。  
+- **A lo mejor está en casa.**（たぶん家にいるよ。）
+→ **そう思える理由がある（例：電話に出ない、いつもこの時間は家にいる）**。  
+---
+### **2. Tal vez llueva mañana.（接続法）**  
+- **「たぶん明日は雨が降るかもしれない」**  
+- **Tal vez**（たぶん）は **直説法と接続法のどちらも使える** が、
+**接続法（subjuntivo）を使うと不確実性が強まる**。  
+- **話し手の気持ち:** **「雨が降るかもしれないけど、確信はない」**  
+  - 直感的だったり、根拠が薄かったりするときに使われる。  
+  - **可能性はあるが、それほど確信していない**（主観的）。  
+  - **「まあ、降る可能性もあるよね」くらいのニュアンス。**  
+**✔ 例:**  
+- **Tal vez tenga razón.**（たぶん彼は正しいかもしれない。）
+→ **確信はないが、その可能性はあると思っている。**  
+- **Tal vez nos veamos pronto.**（たぶん近いうちに会うかもね。）
+→ **はっきり決まってはいないけど、可能性はある。**  
+---
+### **3. Tal vez llueve mañana.（直説法の場合）**  
+- **Tal vez** は直説法も使えるので、「Tal vez llueve mañana」も文法的にOK。  
+- **話し手の確信がA lo mejorよりは弱いが、それなりに根拠がある。**  
+- 直説法を使うと「たぶん降るよ」と少し事実寄りになる。  
+- 例えば、天気予報で「降水確率50%」と言われたら、この表現が自然。
+---
+### **4. まとめ（確信度の違い）**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt;表現&lt;/th&gt;
+      &lt;th&gt;動詞の形&lt;/th&gt;
+      &lt;th&gt;話し手の確信度&lt;/th&gt;
+      &lt;th&gt;Matiz&lt;/th&gt;
+      &lt;/tr&gt;
+    &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt;A lo mejor llueve.&lt;/th&gt;
+      &lt;td&gt;直説法&lt;/td&gt;
+      &lt;td&gt;高め&lt;/td&gt;
+      &lt;td&gt;たぶん雨が降る（根拠がある）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Tal vez llueve.&lt;/th&gt;
+      &lt;td&gt;直説法&lt;/td&gt;
+      &lt;td&gt;中くらい&lt;/td&gt;
+      &lt;td&gt;たぶん降るかも（確信はあるが、A lo mejor ほどではない）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Tal vez llueva.&lt;/th&gt;
+      &lt;td&gt;接続法&lt;/td&gt;
+      &lt;td&gt;低め&lt;/td&gt;
+      &lt;td&gt;もしかしたら降るかも（不確実、推測的）&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **5. どちらを使うべき？**
+- **確信度が高いとき（根拠がある）** → **A lo mejor llueve.**  
+- **予測や推測が強いとき** → **Tal vez llueva.**（または Tal vez llueve.）  
+例えば、天気予報を見て「明日は雨だろうな」と思ったら **A lo mejor llueve** が自然。  
+逆に、「最近雨降ってないし、そろそろ降るかも？」
+みたいに推測で言うなら **Tal vez llueva** が適しています。
+---
+### **6. 日本語でのイメージ**
+- **A lo mejor llueve.** → 「たぶん雨が降ると思うよ。（降る可能性が高そう）」  
+- **Tal vez llueva.** → 「もしかしたら雨が降るかもしれない。（確信はない）」  
+話し手の確信度によって微妙にニュアンスが変わるので、文脈に応じて使い分けるといいですね！
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>(P)おそらく野党は首相(男性)を止めることができるだろう</x:t>
   </x:si>
   <x:si>
     <x:t>Posiblemente la oposición consiga parar al primer ministro.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>この文で **「consiga」** に **接続法（subjuntivo）** が使われている理由は、「posiblemente」という副詞があるからです。  
+---
+### **1. 「Posiblemente + 接続法」の意味**
+- **「Posiblemente」** は「おそらく」「たぶん」という意味の副詞で、話し手の **不確実性** や **推測** を表します。  
+- **話し手が確信を持っていない場合**、動詞を **接続法（subjuntivo）** にします。
+つまり、  
+👉 **「Posiblemente la oposición consiga parar al primer ministro.」**  
+は、**「おそらく野党が首相を阻止できるかもしれない。」** という **可能性のニュアンス** を含んでいます。
+---
+### **2. 「Posiblemente + 直説法」もあり？**
+- **Posiblemente** は、直説法（indicativo）と接続法（subjuntivo）の **どちらも使えます**。  
+- **違いは、話し手の確信度。**  
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt;時制&lt;/th&gt;
+      &lt;th&gt;話し手の気持ち・確信度&lt;/th&gt;
+      &lt;th&gt;例文&lt;/th&gt;
+      &lt;/tr&gt;
+    &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Posiblemente + 接続法&lt;/th&gt;
+      &lt;td&gt;可能性があるが確信はない&lt;/td&gt;
+      &lt;td&gt;Posiblemente la oposición consiga parar al primer ministro.&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;&lt;/th&gt;
+      &lt;td&gt;&lt;/td&gt;
+      &lt;td&gt;たぶん野党は首相を阻止できるかも。&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Posiblemente + 直説法&lt;/th&gt;
+      &lt;td&gt;話し手がより確信している&lt;/td&gt;
+      &lt;td&gt;Posiblemente la oposición consigue parar al primer ministro.&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;&lt;/th&gt;
+      &lt;td&gt;&lt;/td&gt;
+      &lt;td&gt;たぶん野党は首相を阻止できるだろう。&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+**✔ ポイント**
+- **接続法（consiga）** → 話し手が「どうなるかわからない」と思っている。  
+- **直説法（consigue）** → 事実に近いと考えている。  
+---
+### **3. 他の類似表現**
+「Posiblemente」 以外にも、話し手の **不確実な推測** を表す副詞があり、それらも **接続法を使いやすい** です。
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt;副詞・表現&lt;/th&gt;
+      &lt;th&gt;例文（接続法）&lt;/th&gt;
+      &lt;/tr&gt;
+    &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Quizás（たぶん）&lt;/th&gt;
+      &lt;td&gt;Quizás venga mañana.（たぶん彼は明日来るかも。）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Tal vez（もしかすると）&lt;/th&gt;
+      &lt;td&gt;Tal vez llueva más tarde.（もしかすると後で雨が降るかも。）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Probablemente（おそらく）&lt;/th&gt;
+      &lt;td&gt;Probablemente sea verdad.（おそらく本当かもしれない。）&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;Puede que（〜かもしれない）&lt;/th&gt;
+      &lt;td&gt;Puede que tenga razón.（彼は正しいかもしれない。）&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **4. まとめ**
+✅ **「Posiblemente」などの副詞がある場合、接続法を使うことが多い。**  
+✅ **直説法も使えるが、確信度が違う。**  
+✅ **話し手の不確実な推測や可能性を表すときに接続法が適している。**  
+---
+**🎯 結論:**  
+🔹 **Posiblemente la oposición consiga parar al primer ministro.**（たぶん野党は阻止できるかも。）  
+➡ **「確信はないが、そうなる可能性がある」** というニュアンスなので、**接続法** を使っている！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/03
+2025/02/03
+2025/02/03</x:t>
   </x:si>
   <x:si>
     <x:t>「今頃彼女はもう家にいるだろう」
@@ -10497,7 +10879,7 @@
       <x:selection activeCell="F426" sqref="F426"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="14.335625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="15.335625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -14306,1847 +14688,1877 @@
       <x:c r="C405" s="1" t="s">
         <x:v>988</x:v>
       </x:c>
+      <x:c r="F405" s="1" t="s">
+        <x:v>989</x:v>
+      </x:c>
+      <x:c r="G405" s="0" t="s">
+        <x:v>990</x:v>
+      </x:c>
     </x:row>
     <x:row r="406" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B406" s="1" t="s">
-        <x:v>989</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="C406" s="1" t="s">
-        <x:v>990</x:v>
+        <x:v>992</x:v>
       </x:c>
     </x:row>
     <x:row r="407" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B407" s="1" t="s">
-        <x:v>991</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="C407" s="1" t="s">
-        <x:v>992</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="F407" s="1" t="s">
-        <x:v>993</x:v>
+        <x:v>995</x:v>
       </x:c>
     </x:row>
     <x:row r="408" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B408" s="1" t="s">
-        <x:v>994</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="C408" s="1" t="s">
-        <x:v>995</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="F408" s="1" t="s">
-        <x:v>996</x:v>
+        <x:v>998</x:v>
       </x:c>
     </x:row>
     <x:row r="409" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B409" s="1" t="s">
-        <x:v>997</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="C409" s="1" t="s">
-        <x:v>998</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="410" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B410" s="1" t="s">
-        <x:v>999</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="C410" s="1" t="s">
-        <x:v>1000</x:v>
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="F410" s="1" t="s">
+        <x:v>1003</x:v>
+      </x:c>
+      <x:c r="G410" s="1" t="s">
+        <x:v>1004</x:v>
       </x:c>
     </x:row>
     <x:row r="411" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B411" s="1" t="s">
-        <x:v>1001</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="C411" s="1" t="s">
-        <x:v>1002</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="D411" s="0" t="s">
-        <x:v>1003</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="E411" s="0" t="s">
-        <x:v>1004</x:v>
+        <x:v>1008</x:v>
       </x:c>
     </x:row>
     <x:row r="412" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B412" s="1" t="s">
-        <x:v>1005</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="C412" s="1" t="s">
-        <x:v>1006</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="F412" s="1" t="s">
-        <x:v>1007</x:v>
+        <x:v>1011</x:v>
       </x:c>
     </x:row>
     <x:row r="413" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B413" s="1" t="s">
-        <x:v>1008</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="C413" s="1" t="s">
-        <x:v>1009</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="F413" s="1" t="s">
-        <x:v>1010</x:v>
+        <x:v>1014</x:v>
       </x:c>
     </x:row>
     <x:row r="414" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B414" s="1" t="s">
-        <x:v>1011</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="C414" s="1" t="s">
-        <x:v>1012</x:v>
+        <x:v>1016</x:v>
       </x:c>
     </x:row>
     <x:row r="415" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B415" s="1" t="s">
-        <x:v>1013</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="C415" s="1" t="s">
-        <x:v>1014</x:v>
+        <x:v>1018</x:v>
       </x:c>
     </x:row>
     <x:row r="416" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B416" s="1" t="s">
-        <x:v>1015</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="C416" s="1" t="s">
-        <x:v>1016</x:v>
+        <x:v>1020</x:v>
       </x:c>
     </x:row>
     <x:row r="417" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B417" s="1" t="s">
-        <x:v>1017</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="C417" s="1" t="s">
-        <x:v>1018</x:v>
+        <x:v>1022</x:v>
+      </x:c>
+      <x:c r="F417" s="1" t="s">
+        <x:v>1023</x:v>
+      </x:c>
+      <x:c r="G417" s="0" t="s">
+        <x:v>1024</x:v>
       </x:c>
     </x:row>
     <x:row r="418" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B418" s="1" t="s">
-        <x:v>1019</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="C418" s="1" t="s">
-        <x:v>1020</x:v>
+        <x:v>1026</x:v>
       </x:c>
     </x:row>
     <x:row r="419" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B419" s="1" t="s">
-        <x:v>1021</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="C419" s="1" t="s">
-        <x:v>1022</x:v>
+        <x:v>1028</x:v>
       </x:c>
     </x:row>
     <x:row r="420" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B420" s="1" t="s">
-        <x:v>1023</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="C420" s="1" t="s">
-        <x:v>1024</x:v>
+        <x:v>1030</x:v>
       </x:c>
     </x:row>
     <x:row r="421" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B421" s="1" t="s">
-        <x:v>1025</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="C421" s="1" t="s">
-        <x:v>1026</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="D421" s="0" t="s">
-        <x:v>1027</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="E421" s="0" t="s">
-        <x:v>1028</x:v>
+        <x:v>1034</x:v>
       </x:c>
     </x:row>
     <x:row r="422" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B422" s="1" t="s">
-        <x:v>1029</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="C422" s="1" t="s">
-        <x:v>1030</x:v>
+        <x:v>1036</x:v>
       </x:c>
     </x:row>
     <x:row r="423" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B423" s="1" t="s">
-        <x:v>1031</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="C423" s="1" t="s">
-        <x:v>1032</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="F423" s="1" t="s">
-        <x:v>1033</x:v>
+        <x:v>1039</x:v>
       </x:c>
     </x:row>
     <x:row r="424" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B424" s="1" t="s">
-        <x:v>1034</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="C424" s="1" t="s">
-        <x:v>1035</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="F424" s="1" t="s">
-        <x:v>1036</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="G424" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1043</x:v>
       </x:c>
     </x:row>
     <x:row r="425" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B425" s="1" t="s">
-        <x:v>1038</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="C425" s="1" t="s">
-        <x:v>1039</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="F425" s="1" t="s">
-        <x:v>1040</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="G425" s="1" t="s">
-        <x:v>1037</x:v>
+        <x:v>1043</x:v>
       </x:c>
     </x:row>
     <x:row r="426" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B426" s="1" t="s">
-        <x:v>1041</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="C426" s="1" t="s">
-        <x:v>1042</x:v>
+        <x:v>1048</x:v>
       </x:c>
     </x:row>
     <x:row r="427" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B427" s="1" t="s">
-        <x:v>1043</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="C427" s="1" t="s">
-        <x:v>1044</x:v>
+        <x:v>1050</x:v>
       </x:c>
     </x:row>
     <x:row r="428" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B428" s="1" t="s">
-        <x:v>1045</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="C428" s="1" t="s">
-        <x:v>1046</x:v>
+        <x:v>1052</x:v>
       </x:c>
     </x:row>
     <x:row r="429" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B429" s="1" t="s">
-        <x:v>1047</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="C429" s="1" t="s">
-        <x:v>1048</x:v>
+        <x:v>1054</x:v>
       </x:c>
     </x:row>
     <x:row r="430" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B430" s="1" t="s">
-        <x:v>1049</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="C430" s="1" t="s">
-        <x:v>1050</x:v>
+        <x:v>1056</x:v>
       </x:c>
     </x:row>
     <x:row r="431" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B431" s="1" t="s">
-        <x:v>1051</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="C431" s="1" t="s">
-        <x:v>1052</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="D431" s="0" t="s">
-        <x:v>1053</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="E431" s="0" t="s">
-        <x:v>1054</x:v>
+        <x:v>1060</x:v>
       </x:c>
     </x:row>
     <x:row r="432" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B432" s="1" t="s">
-        <x:v>1055</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="C432" s="1" t="s">
-        <x:v>1056</x:v>
+        <x:v>1062</x:v>
       </x:c>
     </x:row>
     <x:row r="433" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B433" s="1" t="s">
-        <x:v>1057</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="C433" s="1" t="s">
-        <x:v>1058</x:v>
+        <x:v>1064</x:v>
       </x:c>
     </x:row>
     <x:row r="434" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B434" s="1" t="s">
-        <x:v>1059</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="C434" s="1" t="s">
-        <x:v>1060</x:v>
+        <x:v>1066</x:v>
       </x:c>
     </x:row>
     <x:row r="435" spans="1:7" ht="93.75" customHeight="1">
       <x:c r="B435" s="1" t="s">
-        <x:v>1061</x:v>
+        <x:v>1067</x:v>
       </x:c>
       <x:c r="C435" s="1" t="s">
-        <x:v>1062</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="F435" s="1" t="s">
-        <x:v>1063</x:v>
+        <x:v>1069</x:v>
       </x:c>
     </x:row>
     <x:row r="436" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B436" s="1" t="s">
-        <x:v>1064</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="C436" s="1" t="s">
-        <x:v>1065</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="F436" s="1" t="s">
-        <x:v>1066</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="G436" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1043</x:v>
       </x:c>
     </x:row>
     <x:row r="437" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B437" s="1" t="s">
-        <x:v>1067</x:v>
+        <x:v>1073</x:v>
       </x:c>
       <x:c r="C437" s="1" t="s">
-        <x:v>1068</x:v>
+        <x:v>1074</x:v>
       </x:c>
     </x:row>
     <x:row r="438" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B438" s="1" t="s">
-        <x:v>1069</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="C438" s="1" t="s">
-        <x:v>1070</x:v>
+        <x:v>1076</x:v>
       </x:c>
     </x:row>
     <x:row r="439" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B439" s="1" t="s">
-        <x:v>1071</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="C439" s="1" t="s">
-        <x:v>1072</x:v>
+        <x:v>1078</x:v>
       </x:c>
     </x:row>
     <x:row r="440" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B440" s="1" t="s">
-        <x:v>1073</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="C440" s="1" t="s">
-        <x:v>1054</x:v>
+        <x:v>1060</x:v>
       </x:c>
     </x:row>
     <x:row r="441" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="A441" s="0" t="s">
-        <x:v>1074</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B441" s="1" t="s">
-        <x:v>1075</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="C441" s="1" t="s">
-        <x:v>1076</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="D441" s="0" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="E441" s="0" t="s">
-        <x:v>1078</x:v>
+        <x:v>1084</x:v>
       </x:c>
     </x:row>
     <x:row r="442" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B442" s="1" t="s">
-        <x:v>1079</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="C442" s="1" t="s">
-        <x:v>1080</x:v>
+        <x:v>1086</x:v>
       </x:c>
     </x:row>
     <x:row r="443" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B443" s="1" t="s">
-        <x:v>1081</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="C443" s="1" t="s">
-        <x:v>1082</x:v>
+        <x:v>1088</x:v>
       </x:c>
     </x:row>
     <x:row r="444" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B444" s="1" t="s">
-        <x:v>1083</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="C444" s="1" t="s">
-        <x:v>1084</x:v>
+        <x:v>1090</x:v>
       </x:c>
     </x:row>
     <x:row r="445" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B445" s="1" t="s">
-        <x:v>1085</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="C445" s="1" t="s">
-        <x:v>1086</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="F445" s="1" t="s">
-        <x:v>1087</x:v>
+        <x:v>1093</x:v>
       </x:c>
     </x:row>
     <x:row r="446" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B446" s="1" t="s">
-        <x:v>1088</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="C446" s="1" t="s">
-        <x:v>1089</x:v>
+        <x:v>1095</x:v>
+      </x:c>
+      <x:c r="F446" s="1" t="s">
+        <x:v>1096</x:v>
+      </x:c>
+      <x:c r="G446" s="0" t="s">
+        <x:v>1024</x:v>
       </x:c>
     </x:row>
     <x:row r="447" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B447" s="1" t="s">
-        <x:v>1090</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="C447" s="1" t="s">
-        <x:v>1091</x:v>
+        <x:v>1098</x:v>
+      </x:c>
+      <x:c r="F447" s="1" t="s">
+        <x:v>1099</x:v>
+      </x:c>
+      <x:c r="G447" s="1" t="s">
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="448" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B448" s="1" t="s">
-        <x:v>1092</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="C448" s="1" t="s">
-        <x:v>1093</x:v>
+        <x:v>1102</x:v>
       </x:c>
     </x:row>
     <x:row r="449" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B449" s="1" t="s">
-        <x:v>1094</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="C449" s="1" t="s">
-        <x:v>1095</x:v>
+        <x:v>1104</x:v>
       </x:c>
     </x:row>
     <x:row r="450" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B450" s="1" t="s">
-        <x:v>1096</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="C450" s="1" t="s">
-        <x:v>1097</x:v>
+        <x:v>1106</x:v>
       </x:c>
     </x:row>
     <x:row r="451" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B451" s="1" t="s">
-        <x:v>1098</x:v>
+        <x:v>1107</x:v>
       </x:c>
       <x:c r="C451" s="1" t="s">
-        <x:v>1099</x:v>
+        <x:v>1108</x:v>
       </x:c>
       <x:c r="D451" s="0" t="s">
-        <x:v>1100</x:v>
+        <x:v>1109</x:v>
       </x:c>
       <x:c r="E451" s="0" t="s">
-        <x:v>1101</x:v>
+        <x:v>1110</x:v>
       </x:c>
     </x:row>
     <x:row r="452" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B452" s="1" t="s">
-        <x:v>1102</x:v>
+        <x:v>1111</x:v>
       </x:c>
       <x:c r="C452" s="1" t="s">
-        <x:v>1103</x:v>
+        <x:v>1112</x:v>
       </x:c>
     </x:row>
     <x:row r="453" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B453" s="1" t="s">
-        <x:v>1104</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="C453" s="1" t="s">
-        <x:v>1105</x:v>
+        <x:v>1114</x:v>
       </x:c>
     </x:row>
     <x:row r="454" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B454" s="1" t="s">
-        <x:v>1106</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="C454" s="1" t="s">
-        <x:v>1107</x:v>
+        <x:v>1116</x:v>
       </x:c>
     </x:row>
     <x:row r="455" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B455" s="1" t="s">
-        <x:v>1108</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="C455" s="1" t="s">
-        <x:v>1109</x:v>
+        <x:v>1118</x:v>
       </x:c>
     </x:row>
     <x:row r="456" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B456" s="1" t="s">
-        <x:v>1110</x:v>
+        <x:v>1119</x:v>
       </x:c>
       <x:c r="C456" s="1" t="s">
-        <x:v>1111</x:v>
+        <x:v>1120</x:v>
       </x:c>
     </x:row>
     <x:row r="457" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B457" s="1" t="s">
-        <x:v>1112</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="C457" s="1" t="s">
-        <x:v>1113</x:v>
+        <x:v>1122</x:v>
       </x:c>
     </x:row>
     <x:row r="458" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B458" s="1" t="s">
-        <x:v>1114</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="C458" s="1" t="s">
-        <x:v>1115</x:v>
+        <x:v>1124</x:v>
       </x:c>
     </x:row>
     <x:row r="459" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B459" s="1" t="s">
-        <x:v>1116</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="C459" s="1" t="s">
-        <x:v>1117</x:v>
+        <x:v>1126</x:v>
       </x:c>
     </x:row>
     <x:row r="460" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B460" s="1" t="s">
-        <x:v>1118</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="C460" s="1" t="s">
-        <x:v>1119</x:v>
+        <x:v>1128</x:v>
       </x:c>
     </x:row>
     <x:row r="461" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B461" s="1" t="s">
-        <x:v>1120</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="C461" s="1" t="s">
-        <x:v>1121</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="D461" s="0" t="s">
-        <x:v>1122</x:v>
+        <x:v>1131</x:v>
       </x:c>
       <x:c r="E461" s="0" t="s">
-        <x:v>1123</x:v>
+        <x:v>1132</x:v>
       </x:c>
     </x:row>
     <x:row r="462" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B462" s="1" t="s">
-        <x:v>1124</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="C462" s="1" t="s">
-        <x:v>1125</x:v>
+        <x:v>1134</x:v>
       </x:c>
     </x:row>
     <x:row r="463" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B463" s="1" t="s">
-        <x:v>1126</x:v>
+        <x:v>1135</x:v>
       </x:c>
       <x:c r="C463" s="1" t="s">
-        <x:v>1127</x:v>
+        <x:v>1136</x:v>
       </x:c>
     </x:row>
     <x:row r="464" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B464" s="1" t="s">
-        <x:v>1128</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="C464" s="1" t="s">
-        <x:v>1129</x:v>
+        <x:v>1138</x:v>
       </x:c>
     </x:row>
     <x:row r="465" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B465" s="1" t="s">
-        <x:v>1130</x:v>
+        <x:v>1139</x:v>
       </x:c>
       <x:c r="C465" s="1" t="s">
-        <x:v>1131</x:v>
+        <x:v>1140</x:v>
       </x:c>
     </x:row>
     <x:row r="466" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B466" s="1" t="s">
-        <x:v>1132</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="C466" s="1" t="s">
-        <x:v>1133</x:v>
+        <x:v>1142</x:v>
       </x:c>
     </x:row>
     <x:row r="467" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B467" s="1" t="s">
-        <x:v>1134</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="C467" s="1" t="s">
-        <x:v>1135</x:v>
+        <x:v>1144</x:v>
       </x:c>
     </x:row>
     <x:row r="468" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B468" s="1" t="s">
-        <x:v>1136</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="C468" s="1" t="s">
-        <x:v>1137</x:v>
+        <x:v>1146</x:v>
       </x:c>
     </x:row>
     <x:row r="469" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B469" s="1" t="s">
-        <x:v>1138</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="C469" s="1" t="s">
-        <x:v>1139</x:v>
+        <x:v>1148</x:v>
       </x:c>
     </x:row>
     <x:row r="470" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B470" s="1" t="s">
-        <x:v>1140</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="C470" s="1" t="s">
-        <x:v>1141</x:v>
+        <x:v>1150</x:v>
       </x:c>
     </x:row>
     <x:row r="471" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B471" s="1" t="s">
-        <x:v>1142</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="C471" s="1" t="s">
-        <x:v>1143</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="D471" s="0" t="s">
-        <x:v>1144</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="E471" s="0" t="s">
-        <x:v>1145</x:v>
+        <x:v>1154</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B472" s="1" t="s">
-        <x:v>1146</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="C472" s="1" t="s">
-        <x:v>1147</x:v>
+        <x:v>1156</x:v>
       </x:c>
     </x:row>
     <x:row r="473" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B473" s="1" t="s">
-        <x:v>1148</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="C473" s="1" t="s">
-        <x:v>1149</x:v>
+        <x:v>1158</x:v>
       </x:c>
     </x:row>
     <x:row r="474" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B474" s="1" t="s">
-        <x:v>1150</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="C474" s="1" t="s">
-        <x:v>1151</x:v>
+        <x:v>1160</x:v>
       </x:c>
     </x:row>
     <x:row r="475" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B475" s="1" t="s">
-        <x:v>1152</x:v>
+        <x:v>1161</x:v>
       </x:c>
       <x:c r="C475" s="1" t="s">
-        <x:v>1153</x:v>
+        <x:v>1162</x:v>
       </x:c>
     </x:row>
     <x:row r="476" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B476" s="1" t="s">
-        <x:v>1154</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="C476" s="1" t="s">
-        <x:v>1155</x:v>
+        <x:v>1164</x:v>
       </x:c>
     </x:row>
     <x:row r="477" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B477" s="1" t="s">
-        <x:v>1156</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="C477" s="1" t="s">
-        <x:v>1157</x:v>
+        <x:v>1166</x:v>
       </x:c>
     </x:row>
     <x:row r="478" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B478" s="1" t="s">
-        <x:v>1158</x:v>
+        <x:v>1167</x:v>
       </x:c>
       <x:c r="C478" s="1" t="s">
-        <x:v>1159</x:v>
+        <x:v>1168</x:v>
       </x:c>
     </x:row>
     <x:row r="479" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B479" s="1" t="s">
-        <x:v>1160</x:v>
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="C479" s="1" t="s">
-        <x:v>1161</x:v>
+        <x:v>1170</x:v>
       </x:c>
     </x:row>
     <x:row r="480" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B480" s="1" t="s">
-        <x:v>1162</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="C480" s="1" t="s">
-        <x:v>1163</x:v>
+        <x:v>1172</x:v>
       </x:c>
     </x:row>
     <x:row r="481" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B481" s="1" t="s">
-        <x:v>1164</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="C481" s="1" t="s">
-        <x:v>1165</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="D481" s="0" t="s">
-        <x:v>1166</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="E481" s="0" t="s">
-        <x:v>1167</x:v>
+        <x:v>1176</x:v>
       </x:c>
     </x:row>
     <x:row r="482" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B482" s="1" t="s">
-        <x:v>1168</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="C482" s="1" t="s">
-        <x:v>1169</x:v>
+        <x:v>1178</x:v>
       </x:c>
     </x:row>
     <x:row r="483" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B483" s="1" t="s">
-        <x:v>1170</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="C483" s="1" t="s">
-        <x:v>1171</x:v>
+        <x:v>1180</x:v>
       </x:c>
     </x:row>
     <x:row r="484" spans="1:7" ht="75" customHeight="1">
       <x:c r="B484" s="1" t="s">
-        <x:v>1172</x:v>
+        <x:v>1181</x:v>
       </x:c>
       <x:c r="C484" s="1" t="s">
-        <x:v>1173</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="F484" s="1" t="s">
-        <x:v>1174</x:v>
+        <x:v>1183</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B485" s="1" t="s">
-        <x:v>1175</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="C485" s="1" t="s">
-        <x:v>1176</x:v>
+        <x:v>1185</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B486" s="1" t="s">
-        <x:v>1177</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="C486" s="1" t="s">
-        <x:v>1178</x:v>
+        <x:v>1187</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B487" s="1" t="s">
-        <x:v>1179</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="C487" s="1" t="s">
-        <x:v>1180</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
     <x:row r="488" spans="1:7" ht="112.5" customHeight="1">
       <x:c r="B488" s="1" t="s">
-        <x:v>1181</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="C488" s="1" t="s">
-        <x:v>1182</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="F488" s="1" t="s">
-        <x:v>1183</x:v>
+        <x:v>1192</x:v>
       </x:c>
     </x:row>
     <x:row r="489" spans="1:7" ht="225" customHeight="1">
       <x:c r="B489" s="1" t="s">
-        <x:v>1184</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="C489" s="1" t="s">
-        <x:v>1185</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="F489" s="1" t="s">
-        <x:v>1186</x:v>
+        <x:v>1195</x:v>
       </x:c>
     </x:row>
     <x:row r="490" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B490" s="1" t="s">
-        <x:v>1187</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="C490" s="1" t="s">
-        <x:v>1188</x:v>
+        <x:v>1197</x:v>
       </x:c>
     </x:row>
     <x:row r="491" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B491" s="1" t="s">
-        <x:v>1189</x:v>
+        <x:v>1198</x:v>
       </x:c>
       <x:c r="C491" s="1" t="s">
-        <x:v>1190</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="D491" s="0" t="s">
-        <x:v>1191</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="E491" s="0" t="s">
-        <x:v>1192</x:v>
+        <x:v>1201</x:v>
       </x:c>
     </x:row>
     <x:row r="492" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B492" s="1" t="s">
-        <x:v>1193</x:v>
+        <x:v>1202</x:v>
       </x:c>
       <x:c r="C492" s="1" t="s">
-        <x:v>1194</x:v>
+        <x:v>1203</x:v>
       </x:c>
     </x:row>
     <x:row r="493" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B493" s="1" t="s">
-        <x:v>1195</x:v>
+        <x:v>1204</x:v>
       </x:c>
       <x:c r="C493" s="1" t="s">
-        <x:v>1196</x:v>
+        <x:v>1205</x:v>
       </x:c>
     </x:row>
     <x:row r="494" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B494" s="1" t="s">
-        <x:v>1197</x:v>
+        <x:v>1206</x:v>
       </x:c>
       <x:c r="C494" s="1" t="s">
-        <x:v>1198</x:v>
+        <x:v>1207</x:v>
       </x:c>
     </x:row>
     <x:row r="495" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B495" s="1" t="s">
-        <x:v>1199</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="C495" s="1" t="s">
-        <x:v>1200</x:v>
+        <x:v>1209</x:v>
       </x:c>
     </x:row>
     <x:row r="496" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B496" s="1" t="s">
-        <x:v>1201</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="C496" s="1" t="s">
-        <x:v>1202</x:v>
+        <x:v>1211</x:v>
       </x:c>
     </x:row>
     <x:row r="497" spans="1:7" ht="243.75" customHeight="1">
       <x:c r="B497" s="1" t="s">
-        <x:v>1203</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="C497" s="1" t="s">
-        <x:v>1204</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="F497" s="1" t="s">
-        <x:v>1205</x:v>
+        <x:v>1214</x:v>
       </x:c>
     </x:row>
     <x:row r="498" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B498" s="1" t="s">
-        <x:v>1206</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="C498" s="1" t="s">
-        <x:v>1207</x:v>
+        <x:v>1216</x:v>
       </x:c>
     </x:row>
     <x:row r="499" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B499" s="1" t="s">
-        <x:v>1208</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="C499" s="1" t="s">
-        <x:v>1209</x:v>
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="500" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B500" s="1" t="s">
-        <x:v>1210</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="C500" s="1" t="s">
-        <x:v>1211</x:v>
+        <x:v>1220</x:v>
       </x:c>
     </x:row>
     <x:row r="501" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B501" s="1" t="s">
-        <x:v>1212</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="C501" s="1" t="s">
-        <x:v>1213</x:v>
+        <x:v>1222</x:v>
       </x:c>
       <x:c r="D501" s="0" t="s">
-        <x:v>1214</x:v>
+        <x:v>1223</x:v>
       </x:c>
       <x:c r="E501" s="0" t="s">
-        <x:v>1215</x:v>
+        <x:v>1224</x:v>
       </x:c>
     </x:row>
     <x:row r="502" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B502" s="1" t="s">
-        <x:v>1216</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="C502" s="1" t="s">
-        <x:v>1217</x:v>
+        <x:v>1226</x:v>
       </x:c>
     </x:row>
     <x:row r="503" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B503" s="1" t="s">
-        <x:v>1218</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="C503" s="1" t="s">
-        <x:v>1219</x:v>
+        <x:v>1228</x:v>
       </x:c>
     </x:row>
     <x:row r="504" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B504" s="1" t="s">
-        <x:v>1220</x:v>
+        <x:v>1229</x:v>
       </x:c>
       <x:c r="C504" s="1" t="s">
-        <x:v>1221</x:v>
+        <x:v>1230</x:v>
       </x:c>
     </x:row>
     <x:row r="505" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B505" s="1" t="s">
-        <x:v>1222</x:v>
+        <x:v>1231</x:v>
       </x:c>
       <x:c r="C505" s="1" t="s">
-        <x:v>1223</x:v>
+        <x:v>1232</x:v>
       </x:c>
     </x:row>
     <x:row r="506" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B506" s="1" t="s">
-        <x:v>1224</x:v>
+        <x:v>1233</x:v>
       </x:c>
       <x:c r="C506" s="1" t="s">
-        <x:v>1225</x:v>
+        <x:v>1234</x:v>
       </x:c>
     </x:row>
     <x:row r="507" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B507" s="1" t="s">
-        <x:v>1226</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="C507" s="1" t="s">
-        <x:v>1227</x:v>
+        <x:v>1236</x:v>
       </x:c>
     </x:row>
     <x:row r="508" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B508" s="1" t="s">
-        <x:v>1228</x:v>
+        <x:v>1237</x:v>
       </x:c>
       <x:c r="C508" s="1" t="s">
-        <x:v>1229</x:v>
+        <x:v>1238</x:v>
       </x:c>
     </x:row>
     <x:row r="509" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B509" s="1" t="s">
-        <x:v>1230</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="C509" s="1" t="s">
-        <x:v>1231</x:v>
+        <x:v>1240</x:v>
       </x:c>
     </x:row>
     <x:row r="510" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B510" s="1" t="s">
-        <x:v>1232</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="C510" s="1" t="s">
-        <x:v>1233</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="F510" s="1" t="s">
-        <x:v>1234</x:v>
+        <x:v>1243</x:v>
       </x:c>
     </x:row>
     <x:row r="511" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B511" s="1" t="s">
-        <x:v>1235</x:v>
+        <x:v>1244</x:v>
       </x:c>
       <x:c r="C511" s="1" t="s">
-        <x:v>1236</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="D511" s="0" t="s">
-        <x:v>1237</x:v>
+        <x:v>1246</x:v>
       </x:c>
       <x:c r="E511" s="0" t="s">
-        <x:v>1238</x:v>
+        <x:v>1247</x:v>
       </x:c>
     </x:row>
     <x:row r="512" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B512" s="1" t="s">
-        <x:v>1239</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="C512" s="1" t="s">
-        <x:v>1238</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="F512" s="1" t="s">
-        <x:v>1240</x:v>
+        <x:v>1249</x:v>
       </x:c>
     </x:row>
     <x:row r="513" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B513" s="1" t="s">
-        <x:v>1241</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="C513" s="1" t="s">
-        <x:v>1242</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="F513" s="1" t="s">
-        <x:v>1243</x:v>
+        <x:v>1252</x:v>
       </x:c>
     </x:row>
     <x:row r="514" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B514" s="1" t="s">
-        <x:v>1244</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="C514" s="1" t="s">
-        <x:v>1245</x:v>
+        <x:v>1254</x:v>
       </x:c>
     </x:row>
     <x:row r="515" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B515" s="1" t="s">
-        <x:v>1246</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="C515" s="1" t="s">
-        <x:v>1247</x:v>
+        <x:v>1256</x:v>
       </x:c>
     </x:row>
     <x:row r="516" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B516" s="1" t="s">
-        <x:v>1248</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="C516" s="1" t="s">
-        <x:v>1249</x:v>
+        <x:v>1258</x:v>
       </x:c>
     </x:row>
     <x:row r="517" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B517" s="1" t="s">
-        <x:v>1250</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="C517" s="1" t="s">
-        <x:v>1251</x:v>
+        <x:v>1260</x:v>
       </x:c>
     </x:row>
     <x:row r="518" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B518" s="1" t="s">
-        <x:v>1252</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="C518" s="1" t="s">
-        <x:v>1253</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="F518" s="1" t="s">
-        <x:v>1254</x:v>
+        <x:v>1263</x:v>
       </x:c>
     </x:row>
     <x:row r="519" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B519" s="1" t="s">
-        <x:v>1255</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="C519" s="1" t="s">
-        <x:v>1256</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="F519" s="1" t="s">
-        <x:v>1257</x:v>
+        <x:v>1266</x:v>
       </x:c>
     </x:row>
     <x:row r="520" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B520" s="1" t="s">
-        <x:v>1258</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="C520" s="1" t="s">
-        <x:v>1259</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="F520" s="1" t="s">
-        <x:v>1260</x:v>
+        <x:v>1269</x:v>
       </x:c>
     </x:row>
     <x:row r="521" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B521" s="1" t="s">
-        <x:v>1261</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="C521" s="1" t="s">
-        <x:v>1262</x:v>
+        <x:v>1271</x:v>
       </x:c>
       <x:c r="D521" s="0" t="s">
-        <x:v>1263</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="E521" s="0" t="s">
-        <x:v>1264</x:v>
+        <x:v>1273</x:v>
       </x:c>
     </x:row>
     <x:row r="522" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B522" s="1" t="s">
-        <x:v>1265</x:v>
+        <x:v>1274</x:v>
       </x:c>
       <x:c r="C522" s="1" t="s">
-        <x:v>1266</x:v>
+        <x:v>1275</x:v>
       </x:c>
     </x:row>
     <x:row r="523" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B523" s="1" t="s">
-        <x:v>1267</x:v>
+        <x:v>1276</x:v>
       </x:c>
       <x:c r="C523" s="1" t="s">
-        <x:v>1268</x:v>
+        <x:v>1277</x:v>
       </x:c>
     </x:row>
     <x:row r="524" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B524" s="1" t="s">
-        <x:v>1269</x:v>
+        <x:v>1278</x:v>
       </x:c>
       <x:c r="C524" s="1" t="s">
-        <x:v>1270</x:v>
+        <x:v>1279</x:v>
       </x:c>
     </x:row>
     <x:row r="525" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B525" s="1" t="s">
-        <x:v>1271</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="C525" s="1" t="s">
-        <x:v>1272</x:v>
+        <x:v>1281</x:v>
       </x:c>
     </x:row>
     <x:row r="526" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B526" s="1" t="s">
-        <x:v>1273</x:v>
+        <x:v>1282</x:v>
       </x:c>
       <x:c r="C526" s="1" t="s">
-        <x:v>1274</x:v>
+        <x:v>1283</x:v>
       </x:c>
     </x:row>
     <x:row r="527" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B527" s="1" t="s">
-        <x:v>1275</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="C527" s="1" t="s">
-        <x:v>1276</x:v>
+        <x:v>1285</x:v>
       </x:c>
     </x:row>
     <x:row r="528" spans="1:7" ht="356.25" customHeight="1">
       <x:c r="B528" s="1" t="s">
-        <x:v>1277</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="C528" s="1" t="s">
-        <x:v>1278</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="F528" s="1" t="s">
-        <x:v>1279</x:v>
+        <x:v>1288</x:v>
       </x:c>
     </x:row>
     <x:row r="529" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B529" s="1" t="s">
-        <x:v>1280</x:v>
+        <x:v>1289</x:v>
       </x:c>
       <x:c r="C529" s="1" t="s">
-        <x:v>1281</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="F529" s="1" t="s">
-        <x:v>1282</x:v>
+        <x:v>1291</x:v>
       </x:c>
     </x:row>
     <x:row r="530" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B530" s="1" t="s">
-        <x:v>1283</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="C530" s="1" t="s">
-        <x:v>1284</x:v>
+        <x:v>1293</x:v>
       </x:c>
       <x:c r="F530" s="1" t="s">
-        <x:v>1285</x:v>
+        <x:v>1294</x:v>
       </x:c>
     </x:row>
     <x:row r="531" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B531" s="1" t="s">
-        <x:v>1286</x:v>
+        <x:v>1295</x:v>
       </x:c>
       <x:c r="C531" s="1" t="s">
-        <x:v>1287</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="D531" s="0" t="s">
-        <x:v>1288</x:v>
+        <x:v>1297</x:v>
       </x:c>
       <x:c r="E531" s="0" t="s">
-        <x:v>1289</x:v>
+        <x:v>1298</x:v>
       </x:c>
     </x:row>
     <x:row r="532" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B532" s="1" t="s">
-        <x:v>1290</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="C532" s="1" t="s">
-        <x:v>1291</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="F532" s="1" t="s">
-        <x:v>1292</x:v>
+        <x:v>1301</x:v>
       </x:c>
     </x:row>
     <x:row r="533" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B533" s="1" t="s">
-        <x:v>1293</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="C533" s="1" t="s">
-        <x:v>1294</x:v>
+        <x:v>1303</x:v>
       </x:c>
     </x:row>
     <x:row r="534" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B534" s="1" t="s">
-        <x:v>1295</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="C534" s="1" t="s">
-        <x:v>1296</x:v>
+        <x:v>1305</x:v>
       </x:c>
       <x:c r="F534" s="1" t="s">
-        <x:v>1297</x:v>
+        <x:v>1306</x:v>
       </x:c>
     </x:row>
     <x:row r="535" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B535" s="1" t="s">
-        <x:v>1298</x:v>
+        <x:v>1307</x:v>
       </x:c>
       <x:c r="C535" s="1" t="s">
-        <x:v>1299</x:v>
+        <x:v>1308</x:v>
       </x:c>
     </x:row>
     <x:row r="536" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B536" s="1" t="s">
-        <x:v>1300</x:v>
+        <x:v>1309</x:v>
       </x:c>
       <x:c r="C536" s="1" t="s">
-        <x:v>1301</x:v>
+        <x:v>1310</x:v>
       </x:c>
     </x:row>
     <x:row r="537" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B537" s="1" t="s">
-        <x:v>1302</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="C537" s="1" t="s">
-        <x:v>1303</x:v>
+        <x:v>1312</x:v>
       </x:c>
     </x:row>
     <x:row r="538" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B538" s="1" t="s">
-        <x:v>1304</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="C538" s="1" t="s">
-        <x:v>1305</x:v>
+        <x:v>1314</x:v>
       </x:c>
     </x:row>
     <x:row r="539" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B539" s="1" t="s">
-        <x:v>1306</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="C539" s="1" t="s">
-        <x:v>1307</x:v>
+        <x:v>1316</x:v>
       </x:c>
     </x:row>
     <x:row r="540" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B540" s="1" t="s">
-        <x:v>1308</x:v>
+        <x:v>1317</x:v>
       </x:c>
       <x:c r="C540" s="1" t="s">
-        <x:v>1309</x:v>
+        <x:v>1318</x:v>
       </x:c>
       <x:c r="F540" s="1" t="s">
-        <x:v>1310</x:v>
+        <x:v>1319</x:v>
       </x:c>
     </x:row>
     <x:row r="541" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B541" s="1" t="s">
-        <x:v>1311</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="C541" s="1" t="s">
-        <x:v>1312</x:v>
+        <x:v>1321</x:v>
       </x:c>
       <x:c r="D541" s="0" t="s">
-        <x:v>1313</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="E541" s="0" t="s">
-        <x:v>1314</x:v>
+        <x:v>1323</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B542" s="1" t="s">
-        <x:v>1315</x:v>
+        <x:v>1324</x:v>
       </x:c>
       <x:c r="C542" s="1" t="s">
-        <x:v>1316</x:v>
+        <x:v>1325</x:v>
       </x:c>
       <x:c r="F542" s="1" t="s">
-        <x:v>1317</x:v>
+        <x:v>1326</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B543" s="1" t="s">
-        <x:v>1318</x:v>
+        <x:v>1327</x:v>
       </x:c>
       <x:c r="C543" s="1" t="s">
-        <x:v>1314</x:v>
+        <x:v>1323</x:v>
       </x:c>
     </x:row>
     <x:row r="544" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B544" s="1" t="s">
-        <x:v>1319</x:v>
+        <x:v>1328</x:v>
       </x:c>
       <x:c r="C544" s="1" t="s">
-        <x:v>1320</x:v>
+        <x:v>1329</x:v>
       </x:c>
     </x:row>
     <x:row r="545" spans="1:7" ht="187.5" customHeight="1">
       <x:c r="B545" s="1" t="s">
-        <x:v>1321</x:v>
+        <x:v>1330</x:v>
       </x:c>
       <x:c r="C545" s="1" t="s">
-        <x:v>1322</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="F545" s="1" t="s">
-        <x:v>1323</x:v>
+        <x:v>1332</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B546" s="1" t="s">
-        <x:v>1324</x:v>
+        <x:v>1333</x:v>
       </x:c>
       <x:c r="C546" s="1" t="s">
-        <x:v>1325</x:v>
+        <x:v>1334</x:v>
       </x:c>
       <x:c r="F546" s="1" t="s">
-        <x:v>1326</x:v>
+        <x:v>1335</x:v>
       </x:c>
     </x:row>
     <x:row r="547" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B547" s="1" t="s">
-        <x:v>1327</x:v>
+        <x:v>1336</x:v>
       </x:c>
       <x:c r="C547" s="1" t="s">
-        <x:v>1328</x:v>
+        <x:v>1337</x:v>
       </x:c>
       <x:c r="F547" s="1" t="s">
-        <x:v>1329</x:v>
+        <x:v>1338</x:v>
       </x:c>
     </x:row>
     <x:row r="548" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B548" s="1" t="s">
-        <x:v>1330</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="C548" s="1" t="s">
-        <x:v>1331</x:v>
+        <x:v>1340</x:v>
       </x:c>
       <x:c r="F548" s="1" t="s">
-        <x:v>1332</x:v>
+        <x:v>1341</x:v>
       </x:c>
     </x:row>
     <x:row r="549" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B549" s="1" t="s">
-        <x:v>1333</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="C549" s="1" t="s">
-        <x:v>1334</x:v>
+        <x:v>1343</x:v>
       </x:c>
       <x:c r="F549" s="1" t="s">
-        <x:v>1335</x:v>
+        <x:v>1344</x:v>
       </x:c>
     </x:row>
     <x:row r="550" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B550" s="1" t="s">
-        <x:v>1336</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="C550" s="1" t="s">
-        <x:v>1337</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="F550" s="1" t="s">
-        <x:v>1338</x:v>
+        <x:v>1347</x:v>
       </x:c>
     </x:row>
     <x:row r="551" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B551" s="1" t="s">
-        <x:v>1339</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="C551" s="1" t="s">
-        <x:v>1340</x:v>
+        <x:v>1349</x:v>
       </x:c>
       <x:c r="D551" s="0" t="s">
-        <x:v>1341</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E551" s="0" t="s">
-        <x:v>1342</x:v>
+        <x:v>1351</x:v>
       </x:c>
     </x:row>
     <x:row r="552" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B552" s="1" t="s">
-        <x:v>1343</x:v>
+        <x:v>1352</x:v>
       </x:c>
       <x:c r="C552" s="1" t="s">
-        <x:v>1344</x:v>
+        <x:v>1353</x:v>
       </x:c>
     </x:row>
     <x:row r="553" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B553" s="1" t="s">
-        <x:v>1345</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="C553" s="1" t="s">
-        <x:v>1346</x:v>
+        <x:v>1355</x:v>
       </x:c>
     </x:row>
     <x:row r="554" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B554" s="1" t="s">
-        <x:v>1347</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="C554" s="1" t="s">
-        <x:v>1348</x:v>
+        <x:v>1357</x:v>
       </x:c>
       <x:c r="F554" s="1" t="s">
-        <x:v>1349</x:v>
+        <x:v>1358</x:v>
       </x:c>
     </x:row>
     <x:row r="555" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B555" s="1" t="s">
-        <x:v>1350</x:v>
+        <x:v>1359</x:v>
       </x:c>
       <x:c r="C555" s="1" t="s">
-        <x:v>1351</x:v>
+        <x:v>1360</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B556" s="1" t="s">
-        <x:v>1352</x:v>
+        <x:v>1361</x:v>
       </x:c>
       <x:c r="C556" s="1" t="s">
-        <x:v>1353</x:v>
+        <x:v>1362</x:v>
       </x:c>
     </x:row>
     <x:row r="557" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B557" s="1" t="s">
-        <x:v>1354</x:v>
+        <x:v>1363</x:v>
       </x:c>
       <x:c r="C557" s="1" t="s">
-        <x:v>1355</x:v>
+        <x:v>1364</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B558" s="1" t="s">
-        <x:v>1356</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="C558" s="1" t="s">
-        <x:v>1357</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="F558" s="1" t="s">
-        <x:v>1358</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="559" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B559" s="1" t="s">
-        <x:v>1359</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="C559" s="1" t="s">
-        <x:v>1360</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="F559" s="1" t="s">
-        <x:v>1361</x:v>
+        <x:v>1370</x:v>
       </x:c>
     </x:row>
     <x:row r="560" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B560" s="1" t="s">
-        <x:v>1362</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="C560" s="1" t="s">
-        <x:v>1363</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="F560" s="1" t="s">
-        <x:v>1364</x:v>
+        <x:v>1373</x:v>
       </x:c>
     </x:row>
     <x:row r="561" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B561" s="1" t="s">
-        <x:v>1365</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="C561" s="1" t="s">
-        <x:v>1366</x:v>
+        <x:v>1375</x:v>
       </x:c>
       <x:c r="D561" s="0" t="s">
-        <x:v>1367</x:v>
+        <x:v>1376</x:v>
       </x:c>
       <x:c r="E561" s="0" t="s">
-        <x:v>1368</x:v>
+        <x:v>1377</x:v>
       </x:c>
     </x:row>
     <x:row r="562" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B562" s="1" t="s">
-        <x:v>1369</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="C562" s="1" t="s">
-        <x:v>1370</x:v>
+        <x:v>1379</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B563" s="1" t="s">
-        <x:v>1371</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="C563" s="1" t="s">
-        <x:v>1372</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="F563" s="1" t="s">
-        <x:v>1373</x:v>
+        <x:v>1382</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B564" s="1" t="s">
-        <x:v>1374</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="C564" s="1" t="s">
-        <x:v>1375</x:v>
+        <x:v>1384</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B565" s="1" t="s">
-        <x:v>1376</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="C565" s="1" t="s">
-        <x:v>1377</x:v>
+        <x:v>1386</x:v>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B566" s="1" t="s">
-        <x:v>1378</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="C566" s="1" t="s">
-        <x:v>1379</x:v>
+        <x:v>1388</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B567" s="1" t="s">
-        <x:v>1380</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="C567" s="1" t="s">
-        <x:v>1381</x:v>
+        <x:v>1390</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B568" s="1" t="s">
-        <x:v>1382</x:v>
+        <x:v>1391</x:v>
       </x:c>
       <x:c r="C568" s="1" t="s">
-        <x:v>1383</x:v>
+        <x:v>1392</x:v>
       </x:c>
     </x:row>
     <x:row r="569" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B569" s="1" t="s">
-        <x:v>1384</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="C569" s="1" t="s">
-        <x:v>1385</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="F569" s="1" t="s">
-        <x:v>1386</x:v>
+        <x:v>1395</x:v>
       </x:c>
     </x:row>
     <x:row r="570" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B570" s="1" t="s">
-        <x:v>1387</x:v>
+        <x:v>1396</x:v>
       </x:c>
       <x:c r="C570" s="1" t="s">
-        <x:v>1388</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="F570" s="1" t="s">
-        <x:v>1389</x:v>
+        <x:v>1398</x:v>
       </x:c>
     </x:row>
     <x:row r="571" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B571" s="1" t="s">
-        <x:v>1390</x:v>
+        <x:v>1399</x:v>
       </x:c>
       <x:c r="C571" s="1" t="s">
-        <x:v>1391</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="D571" s="0" t="s">
-        <x:v>1392</x:v>
+        <x:v>1401</x:v>
       </x:c>
       <x:c r="E571" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1402</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B572" s="1" t="s">
-        <x:v>1394</x:v>
+        <x:v>1403</x:v>
       </x:c>
       <x:c r="C572" s="1" t="s">
-        <x:v>1395</x:v>
+        <x:v>1404</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B573" s="1" t="s">
-        <x:v>1396</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="C573" s="1" t="s">
-        <x:v>1397</x:v>
+        <x:v>1406</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B574" s="1" t="s">
-        <x:v>1398</x:v>
+        <x:v>1407</x:v>
       </x:c>
       <x:c r="C574" s="1" t="s">
-        <x:v>1399</x:v>
+        <x:v>1408</x:v>
       </x:c>
     </x:row>
     <x:row r="575" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B575" s="1" t="s">
-        <x:v>1400</x:v>
+        <x:v>1409</x:v>
       </x:c>
       <x:c r="C575" s="1" t="s">
-        <x:v>1401</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
     <x:row r="576" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B576" s="1" t="s">
-        <x:v>1402</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="C576" s="1" t="s">
-        <x:v>1403</x:v>
+        <x:v>1412</x:v>
       </x:c>
     </x:row>
     <x:row r="577" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B577" s="1" t="s">
-        <x:v>1404</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="C577" s="1" t="s">
-        <x:v>1405</x:v>
+        <x:v>1414</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>1406</x:v>
+        <x:v>1415</x:v>
       </x:c>
     </x:row>
     <x:row r="578" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B578" s="1" t="s">
-        <x:v>1407</x:v>
+        <x:v>1416</x:v>
       </x:c>
       <x:c r="C578" s="1" t="s">
-        <x:v>1408</x:v>
+        <x:v>1417</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B579" s="1" t="s">
-        <x:v>1409</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="C579" s="1" t="s">
-        <x:v>1410</x:v>
+        <x:v>1419</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B580" s="1" t="s">
-        <x:v>1411</x:v>
+        <x:v>1420</x:v>
       </x:c>
       <x:c r="C580" s="1" t="s">
-        <x:v>1412</x:v>
+        <x:v>1421</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B581" s="1" t="s">
-        <x:v>1413</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="C581" s="1" t="s">
-        <x:v>1414</x:v>
+        <x:v>1423</x:v>
       </x:c>
       <x:c r="D581" s="0" t="s">
-        <x:v>1415</x:v>
+        <x:v>1424</x:v>
       </x:c>
       <x:c r="E581" s="0" t="s">
-        <x:v>1416</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="F581" s="1" t="s">
-        <x:v>1417</x:v>
+        <x:v>1426</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B582" s="1" t="s">
-        <x:v>1418</x:v>
+        <x:v>1427</x:v>
       </x:c>
       <x:c r="C582" s="1" t="s">
-        <x:v>1419</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>1420</x:v>
+        <x:v>1429</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:7" ht="375" customHeight="1">
       <x:c r="B583" s="1" t="s">
-        <x:v>1421</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="C583" s="1" t="s">
-        <x:v>1422</x:v>
+        <x:v>1431</x:v>
       </x:c>
       <x:c r="F583" s="1" t="s">
-        <x:v>1423</x:v>
+        <x:v>1432</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:7" ht="300" customHeight="1">
       <x:c r="B584" s="1" t="s">
-        <x:v>1424</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="C584" s="1" t="s">
-        <x:v>1425</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="F584" s="1" t="s">
-        <x:v>1426</x:v>
+        <x:v>1435</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B585" s="1" t="s">
-        <x:v>1427</x:v>
+        <x:v>1436</x:v>
       </x:c>
       <x:c r="C585" s="1" t="s">
-        <x:v>1428</x:v>
+        <x:v>1437</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B586" s="1" t="s">
-        <x:v>1429</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="C586" s="1" t="s">
-        <x:v>1430</x:v>
+        <x:v>1439</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B587" s="1" t="s">
-        <x:v>1431</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="C587" s="1" t="s">
-        <x:v>1432</x:v>
+        <x:v>1441</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:7" ht="75" customHeight="1">
       <x:c r="B588" s="1" t="s">
-        <x:v>1433</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="C588" s="1" t="s">
-        <x:v>1434</x:v>
+        <x:v>1443</x:v>
       </x:c>
       <x:c r="F588" s="1" t="s">
-        <x:v>1435</x:v>
+        <x:v>1444</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B589" s="1" t="s">
-        <x:v>1436</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="C589" s="1" t="s">
-        <x:v>1437</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="F589" s="1" t="s">
-        <x:v>1438</x:v>
+        <x:v>1447</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:7" ht="262.5" customHeight="1">
       <x:c r="B590" s="1" t="s">
-        <x:v>1439</x:v>
+        <x:v>1448</x:v>
       </x:c>
       <x:c r="C590" s="1" t="s">
-        <x:v>1440</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="F590" s="1" t="s">
-        <x:v>1441</x:v>
+        <x:v>1450</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B591" s="1" t="s">
-        <x:v>1442</x:v>
+        <x:v>1451</x:v>
       </x:c>
       <x:c r="C591" s="1" t="s">
-        <x:v>1443</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="D591" s="0" t="s">
-        <x:v>1444</x:v>
+        <x:v>1453</x:v>
       </x:c>
       <x:c r="E591" s="0" t="s">
-        <x:v>1445</x:v>
+        <x:v>1454</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B592" s="1" t="s">
-        <x:v>1446</x:v>
+        <x:v>1455</x:v>
       </x:c>
       <x:c r="C592" s="1" t="s">
-        <x:v>1447</x:v>
+        <x:v>1456</x:v>
       </x:c>
     </x:row>
     <x:row r="593" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B593" s="1" t="s">
-        <x:v>1448</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="C593" s="1" t="s">
-        <x:v>1449</x:v>
+        <x:v>1458</x:v>
       </x:c>
     </x:row>
     <x:row r="594" spans="1:7" ht="75" customHeight="1">
       <x:c r="B594" s="1" t="s">
-        <x:v>1450</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="C594" s="1" t="s">
-        <x:v>1451</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="F594" s="1" t="s">
-        <x:v>1452</x:v>
+        <x:v>1461</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B595" s="1" t="s">
-        <x:v>1453</x:v>
+        <x:v>1462</x:v>
       </x:c>
       <x:c r="C595" s="1" t="s">
-        <x:v>1454</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="F595" s="1" t="s">
-        <x:v>1455</x:v>
+        <x:v>1464</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B596" s="1" t="s">
-        <x:v>1456</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="C596" s="1" t="s">
-        <x:v>1457</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
-        <x:v>1458</x:v>
+        <x:v>1467</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B597" s="1" t="s">
-        <x:v>1459</x:v>
+        <x:v>1468</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
-        <x:v>1460</x:v>
+        <x:v>1469</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B598" s="1" t="s">
-        <x:v>1461</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="C598" s="1" t="s">
-        <x:v>1462</x:v>
+        <x:v>1471</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B599" s="1" t="s">
-        <x:v>1463</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="C599" s="1" t="s">
-        <x:v>1464</x:v>
+        <x:v>1473</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B600" s="1" t="s">
-        <x:v>1465</x:v>
+        <x:v>1474</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>1466</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="F600" s="1" t="s">
-        <x:v>1467</x:v>
+        <x:v>1476</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -16170,7 +16582,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="14.335625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="15.335625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="50.375" style="0" customWidth="1"/>
@@ -16349,7 +16761,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1468</x:v>
+        <x:v>1477</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="18.75" customHeight="1">
@@ -16376,7 +16788,7 @@
         <x:v>583</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1469</x:v>
+        <x:v>1478</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3" ht="18.75" customHeight="1">
@@ -16512,7 +16924,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>1003</x:v>
+        <x:v>1007</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3" ht="18.75" customHeight="1">
@@ -16520,7 +16932,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>1027</x:v>
+        <x:v>1033</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3" ht="18.75" customHeight="1">
@@ -16528,7 +16940,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>1053</x:v>
+        <x:v>1059</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3" ht="18.75" customHeight="1">
@@ -16536,10 +16948,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>1077</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1470</x:v>
+        <x:v>1479</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3" ht="18.75" customHeight="1">
@@ -16547,7 +16959,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>1100</x:v>
+        <x:v>1109</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3" ht="18.75" customHeight="1">
@@ -16555,7 +16967,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>1122</x:v>
+        <x:v>1131</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3" ht="18.75" customHeight="1">
@@ -16563,7 +16975,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>1144</x:v>
+        <x:v>1153</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3" ht="18.75" customHeight="1">
@@ -16571,7 +16983,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>1166</x:v>
+        <x:v>1175</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3" ht="18.75" customHeight="1">
@@ -16579,7 +16991,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>1191</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3" ht="18.75" customHeight="1">
@@ -16587,7 +16999,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>1214</x:v>
+        <x:v>1223</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3" ht="18.75" customHeight="1">
@@ -16595,7 +17007,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>1237</x:v>
+        <x:v>1246</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3" ht="18.75" customHeight="1">
@@ -16603,7 +17015,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>1263</x:v>
+        <x:v>1272</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3" ht="18.75" customHeight="1">
@@ -16611,7 +17023,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>1288</x:v>
+        <x:v>1297</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3" ht="18.75" customHeight="1">
@@ -16619,7 +17031,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>1313</x:v>
+        <x:v>1322</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3" ht="18.75" customHeight="1">
@@ -16627,7 +17039,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>1341</x:v>
+        <x:v>1350</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3" ht="18.75" customHeight="1">
@@ -16635,7 +17047,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>1367</x:v>
+        <x:v>1376</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" ht="18.75" customHeight="1">
@@ -16643,7 +17055,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>1392</x:v>
+        <x:v>1401</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3" ht="18.75" customHeight="1">
@@ -16651,7 +17063,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>1415</x:v>
+        <x:v>1424</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3" ht="18.75" customHeight="1">
@@ -16659,7 +17071,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>1444</x:v>
+        <x:v>1453</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164F597-E00A-4C9C-B3E7-B062AA20B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C08EA9-769A-4B38-8970-0DBAE67BB4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="30180" yWindow="2955" windowWidth="23865" windowHeight="11955" tabRatio="500" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="32835" yWindow="2055" windowWidth="23865" windowHeight="14025" tabRatio="500" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3489,7 +3489,17 @@
     <x:t>その村はここから100キロのところにあります</x:t>
   </x:si>
   <x:si>
-    <x:t>[El^Ese] pueblo está a cien kilómetros de aquí.</x:t>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>[El^Ese] pueblo está a cien kilómetros de aquí.</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
     <x:t>前置詞</x:t>
@@ -7898,6 +7908,72 @@
 Serían las cinco o por ahí.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">
+&lt;pregunta&gt;
+¿A qué hora es la sesión de la tarde?
+Es las cinco y cuarto.
+¿Qué hora sería cuando oímos el ruido?
+Serían las cinco o por ahí.
+同じ時間を聞いている文なのに、
+一つ目の疑問文はAがついているのに、二つ目の疑問文にはAがついていないのはなぜですか？
+&lt;/pregunta&gt;
+とても鋭い疑問ですね！💡 **「¿A qué hora...?」と「¿Qué hora...？」の違い** を説明します。  
+---
+### **🔹「¿A qué hora...?」の使い方**  
+✅ 具体的な出来事や予定の「時刻」を聞くときに使う。  
+📌 **ポイント：前置詞 "a" が必要！**  
+▶ **例文**  
+- **¿A qué hora es la sesión de la tarde?**   
+  👉 **（午後の回は何時ですか？）** → **イベントの開始時刻を尋ねている！**  
+- **¿A qué hora empieza la clase?**  
+  👉 **（授業は何時に始まりますか？）**  
+✅ 「何時に〇〇が起こるのか？」を聞くときは **"¿A qué hora...?"** を使う！  
+---
+### **🔹「¿Qué hora...?」の使い方**  
+✅ その時点での「時刻」（時計の針が指している時間）を聞くときに使う。  
+📌 **ポイント："a" は不要！**  
+▶ **例文**  
+- **¿Qué hora es?**  
+  👉 **（今何時？）** → **シンプルに時刻を聞いている！**  
+- **¿Qué hora sería cuando oímos el ruido?**  
+  👉 **（その音を聞いたとき、何時だっただろう？）** 
+  → **単に時計の針が示していた時刻を推測している！**  
+---
+### **🔹 今回の2つの文の違い**  
+1️⃣ **¿A qué hora es la sesión de la tarde?**  
+👉 「セッション」という **イベントの時間** を聞いているので **"A qué hora"** が必要！  
+2️⃣ **¿Qué hora sería cuando oímos el ruido?**  
+👉 **「音を聞いたときの時刻」＝時計が指していた時間** を推測しているだけなので、
+**"¿Qué hora"** だけでOK！  
+---
+### **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 使い方 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿A qué hora...? &lt;/th&gt;
+      &lt;td&gt; イベントや出来事の時刻を聞く（前置詞 "a" が必要） &lt;/td&gt;
+      &lt;td&gt; ¿A qué hora empieza la película? &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿Qué hora...? &lt;/th&gt;
+      &lt;td&gt; 時計が指していた時間を聞く（前置詞なし） &lt;/td&gt;
+      &lt;td&gt; ¿Qué hora era cuando llegaste? &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+この違いを意識すると、どちらを使うべきかスッと理解できるようになりますよ！ 😊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/04</x:t>
+  </x:si>
+  <x:si>
     <x:t>「Joaquínはまだ気づかれてないだろう」
 「でも知るのにそれほどかからないよ」</x:t>
   </x:si>
@@ -8281,6 +8357,58 @@
 Los fines de semana siempre está así.</x:t>
   </x:si>
   <x:si>
+    <x:t>**「¡Qué de gente!」の "de" はなぜ必要なのか？** 🤔  
+この表現は **口語的な強調表現** で、**「¡Cuánta gente!（なんてたくさんの人だ！）」** とほぼ同じ意味です。  
+---
+### **🔹 "¡Qué de + 名詞!" の構造**
+✅ 「¡Qué + 形容詞!」の形はよく知っていますよね？  
+👉 例：「¡Qué bonito!（なんて美しいんだ！）」  
+✅ しかし、名詞を強調するとき、**「¡Qué de + 名詞!」** という形が使われることがあります。  
+📌 **この "de" は数量の強調をするための前置詞！**  
+▶ **例文**  
+- **¡Qué de gente!** （なんてたくさんの人だ！）  
+- **¡Qué de cosas tienes en tu casa!** （なんてたくさんの物を持ってるんだ！）  
+- **¡Qué de ruido hay aquí!** （なんてうるさいんだ！）
+この "de" は「たくさんの」という意味を持たせるために使われる、と覚えておくといいですね！ ✨  
+---
+### **🔹「¡Cuánto/a/os/as + 名詞!」との違い**  
+似た表現に **「¡Cuánta gente!」** がありますが、こちらの方が **文法的に正式** です。  
+一方、「¡Qué de gente!」は **より口語的でカジュアルな表現** になります。  
+▶ **ニュアンスの違い**  
+- **¡Cuánta gente hay!** 👉 **文法的に正しい＆書き言葉でもOK**  
+- **¡Qué de gente!** 👉 **よりカジュアル＆話し言葉でよく使う**  
+---
+### **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; 文法の特徴 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¡Qué bonito! &lt;/th&gt;
+      &lt;td&gt; なんてきれいなんだ！ &lt;/td&gt;
+      &lt;td&gt; 「¡Qué + 形容詞!」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¡Cuánta gente! &lt;/th&gt;
+      &lt;td&gt; なんてたくさんの人！ &lt;/td&gt;
+      &lt;td&gt; 「¡Cuánto/a/os/as + 名詞!」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¡Qué de gente! &lt;/th&gt;
+      &lt;td&gt; なんてたくさんの人！ &lt;/td&gt;
+      &lt;td&gt; 口語的＆"de + 名詞" &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+「¡Qué de + 名詞!」の形は特にスペインのスペイン語でよく使われるので、
+カジュアルな会話の中で聞くことが多いですよ！ 🎤😃</x:t>
+  </x:si>
+  <x:si>
     <x:t>「その子(女性)の歩き方見てみて！」
 「もう大きくなったなぁ！」</x:t>
   </x:si>
@@ -8289,6 +8417,44 @@
 ¡Qué grande está ya!</x:t>
   </x:si>
   <x:si>
+    <x:t>この **「¡Qué grande está ya!」** という表現は、口語的な **感嘆文** で、
+直訳すると **「なんて大きくなったんだ！」** という意味になります。  
+---
+### **🔹 文の構造**
+1. **「¡Qué grande!」**  
+   - **「¡Qué + 形容詞!」** は **「なんて～なんだ！」** という **感嘆表現**。  
+   - 例：  
+     - ¡Qué bonito!（なんて綺麗なんだ！）  
+     - ¡Qué rápido corre!（なんて速く走るんだ！）  
+     - **¡Qué grande!**（なんて大きいんだ！）  
+2. **「está ya」**  
+   - **「estar + 形容詞」** の形で、「今そうなっている状態」を強調。  
+   - **「ya」** は「もう、すでに」という意味で、「成長した」ことを強調。  
+   - 例：
+     - **Está muy alto ya.**（もうすごく背が高くなった。）  
+     - **Está muy mayor ya.**（もうすごく大人っぽくなった。）  
+     - **¡Qué grande está ya!**（もうなんて大きくなったんだ！）
+---
+### **🔹 ニュアンス**
+このフレーズは **子どもが成長して驚いているとき** に、よく使われます。  
+例えば、久しぶりに会った親戚の子どもを見て、「えっ、こんなに大きくなったの？」と驚くときの感覚です。  
+**🎯 日本語訳のイメージ**
+✅ **「もうこんなに大きくなったんだね！」**  
+✅ **「なんて大きくなったんだ！」**  
+✅ **「うわぁ、成長したなぁ！」**  
+---
+### **🔹 まとめ**
+✅ **「¡Qué grande está ya!」は感嘆表現で、子どもの成長に驚いているときに使う。**  
+✅ **「estar + 形容詞」なので、「今そうなっている状態」を表す。**  
+✅ **「ya」があることで、「もうこんなに」という驚きを強調！**  
+---
+📌 **似た表現**
+- ¡Qué alto está ya!（もうなんて背が高くなったんだ！）  
+- ¡Qué guapa está!（なんてかわいくなったんだ！）  
+- ¡Qué mayor está ya!（もうなんて大人っぽくなったんだ！）
+✨ **日常会話でよく使う表現なので、覚えておくと便利ですよ！**</x:t>
+  </x:si>
+  <x:si>
     <x:t>(君たち)「久しぶり！」
 「本当に！うれしいなぁ！」</x:t>
   </x:si>
@@ -8317,6 +8483,13 @@
 ¡Qué casa tan acogedora! ¡Enhorabuena!</x:t>
   </x:si>
   <x:si>
+    <x:t>[形]
+1 歓迎［歓待］する，もてなし上手な；温かい，友好的な．
+un ambiente acogedor｜温かい雰囲気．
+2 〈場所が〉居心地のよい，快適な．
+un saloncito muy acogedor｜とても居心地のよい居間．</x:t>
+  </x:si>
+  <x:si>
     <x:t>今日はとても暑い。エアコンをつけよう</x:t>
   </x:si>
   <x:si>
@@ -8373,10 +8546,128 @@
 En esta época anochece muy pronto.</x:t>
   </x:si>
   <x:si>
+    <x:t>### **🔹 「de noche」の「de」の意味と使い方**
+「de noche」は「夜に」「夜の時間帯に」という意味で使われます。
+この **「de」** は **時間帯を示す** 前置詞として使われているんです。  
+---
+### **🔹 「de + 時間帯」の使い方**
+スペイン語では、特定の時間帯を表すときに **「de + 時間帯」** という形を使うことがあります。
+✅ **「de noche」** → 夜に  
+✅ **「de día」** → 昼に  
+✅ **「de madrugada」** → 夜明け前（早朝）に  
+✅ **「de tarde」** → 午後に  
+🔹 **例文**
+- **Salimos de casa de noche.**  
+  （夜に家を出た。）  
+- **Las estrellas se ven mejor de noche.**  
+  （星は夜のほうがよく見える。）  
+- **Prefiero viajar de día.**  
+  （昼に移動するほうが好き。）  
+---
+### **🔹 「por la noche」との違い**
+「de noche」と「por la noche」は似ていますが、ニュアンスが少し異なります。
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味・使い方 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; de noche &lt;/th&gt;
+      &lt;td&gt; 「夜という時間帯に」という一般的な表現。 明確な時間を指定しない。 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; por la noche &lt;/th&gt;
+      &lt;td&gt; 「夜の時間帯に何かをする」 という文脈で使われることが多い。&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+🔹 **例文で比較**
+- **Las luces se encienden de noche.**  
+  （夜になると明かりがつく。）← **時間帯の変化を表す**
+- **Trabaja por la noche.**  
+  （彼は夜に働く。）← **「夜に」という状況の説明**
+---
+### **🔹 「ya era de noche」の解釈**
+**「ya era de noche」** は **「すでに夜になっていた」** という意味。  
+ここでの「de noche」は、**「夜という時間帯に入っていた」** ということを表しています。
+🔹 **他の例**
+- **Cuando salimos, ya era de noche.**  
+  （私たちが出かけたときには、すでに夜になっていた。）  
+- **Llegamos al pueblo y era de noche.**  
+  （村に着いたとき、夜だった。）  
+この場合、「por la noche」は使えません。
+「por la noche」は **「夜に何かをする」** というニュアンスになるので、
+「すでに夜になっていた（時間帯の状態）」を表す「de noche」のほうが適切なんです。
+---
+### **🔹 まとめ**
+✅ **「de noche」= 「夜に」という時間帯の表現**  
+✅ **「por la noche」= 「夜に何かをする」という状況を説明する表現**  
+✅ **「ya era de noche」→「もう夜だった」「すでに夜の時間帯だった」**  
+この「de noche」は「時間帯の変化」や「状態」を表すときによく使うので、ぜひ覚えてみてください！ 😊</x:t>
+  </x:si>
+  <x:si>
     <x:t>外はとっても寒いですが、この中はいい具合です</x:t>
   </x:si>
   <x:si>
     <x:t>Fuera hace muchísimo frío, pero aquí dentro se está muy bien.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>### **🔹 「se está」の使い方**
+この **「se está muy bien」** という表現は、スペイン語の **「無人称構文」** の一種です。  
+直訳すると「ここ（の状態）はとても快適にされている」となりますが、
+実際には **「ここはとても快適だ」「ここは居心地がいい」** という意味になります。
+---
+## **🔹 文法解説**
+1. **「se + estar」** の形
+   - **「se está」** は「人が特定されない状態」を表すため、**無人称構文** になっています。  
+   - ここでの「se」は、一般的な状況や経験を指すために使われる **「無人称 se」**（se impersonal）。  
+   - **誰が快適なのかを特定せず**、「場所の状態として快適である」と表現している。
+2. **形容詞や副詞が続く**
+   - **「se está muy bien」** のように、無人称の「se está」の後には
+    **「muy bien」「fenomenal」「de maravilla」** など、快適さを表す語句が続くことが多い。
+---
+## **🔹 例文**
+この表現は **「ある場所の居心地の良さ」** を言うときによく使われます。
+✅ **Aquí dentro se está muy bien.**  
+（ここ中はとても快適だ。）  
+✅ **En la playa se está fenomenal.**  
+（ビーチにいるとすごく気持ちがいい。）  
+✅ **En esta cafetería se está de maravilla.**  
+（このカフェはとても居心地がいい。）
+✅ **Se está mejor a la sombra.**  
+（日陰のほうが快適だ。）
+---
+## **🔹 なぜ「se está」を使うのか？**
+普通に「Aquí dentro está muy bien.」とは言えないのか？と思うかもしれませんが、
+それだと **「場所そのものが良い」** という意味になってしまいます。
+🔹 **違いを比較**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; スペイン語 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Aquí dentro está muy bien. &lt;/th&gt;
+      &lt;td&gt; 「ここの環境はいい。」（場所の良さ） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Aquí dentro se está muy bien. &lt;/th&gt;
+      &lt;td&gt; 「ここにいると快適だ。」（人が感じる快適さ） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **🔹 まとめ**
+✅ **「se está」+ 副詞や形容詞で「（場所が）快適だ」「気持ちがいい」という意味。**  
+✅ **無人称構文なので、「誰が」ではなく「場所の状態」を表す。**  
+✅ **「se está muy bien」=「ここは居心地がいい」** という自然な表現。
+この言い方は日常会話でとてもよく使われるので、ぜひ覚えておくといいですよ！ 😊</x:t>
   </x:si>
   <x:si>
     <x:t>昨夜はかなりの時間雷が鳴っていて、風も強かった</x:t>
@@ -8399,6 +8690,53 @@
     <x:t>Nos vemos el viernes a las seis.</x:t>
   </x:si>
   <x:si>
+    <x:t>この **"si"** は、**「仮定」や「提案」** を表す接続詞として使われています。  
+---
+### **🔹 文の構造**
+- **¿Te parece si nos vemos el viernes a las seis y media?**  
+  → 「金曜日の6時半に会うのはどう思う？」  
+  → 「金曜日の6時半に会うのはどう？」  
+👉 「もし～ならどう？」という **提案** や **打診** をやわらかく伝える表現です。  
+---
+### **🔹 si の使い方**
+通常、**si** は「もし～なら」という **仮定の意味** で使われますが、
+**「提案・依頼」** のニュアンスを持つこともあります。  
+この場合、「～するのはどう？」という軽い提案や確認をする表現になります。
+💡 **類似表現**
+- **¿Qué te parece si nos vemos el viernes?**  
+  （金曜日に会うのはどう？）  
+- **¿Te va bien si nos vemos el viernes?**  
+  （金曜日に会うので大丈夫？）  
+---
+### **🔹 似た表現との違い**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; ニュアンス &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿Qué te parece si…? &lt;/th&gt;
+      &lt;td&gt; 少し丁寧な提案。「～はどう思う？」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿Te parece si…? &lt;/th&gt;
+      &lt;td&gt; フランクな提案。「～するのはどう？」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿Te va bien si…? &lt;/th&gt;
+      &lt;td&gt; 相手の都合を気にする感じ。「～で都合いい？」 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+👉 **この文は「軽い提案」の表現なので、フレンドリーな会話でよく使われます！** 😊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/05</x:t>
+  </x:si>
+  <x:si>
     <x:t>「今年君の誕生日は何曜日にあたるの？」
 「土曜日にあたります」</x:t>
   </x:si>
@@ -8439,6 +8777,56 @@
 De acuerdo. Terminaremos a las cuatro como muy tarde.</x:t>
   </x:si>
   <x:si>
+    <x:t>### **🔹 「como muy tarde」の「como」の使い方について**  
+この「**como**」は、**「最大でも・せいぜい」** という意味で使われています。  
+「como + 副詞（または数量表現）」の形で、「**上限**」や「**最大値**」を示す表現です。  
+---
+### **🔹 文の分解**
+- **Terminaremos a las cuatro como muy tarde.**  
+  - **直訳:** 「私たちは遅くとも4時には終わります。」  
+  - **自然な訳:** 「遅くても4時までには終わります。」  
+🔹 **「como muy tarde」＝「遅くても（最大でも）」** という意味になります。
+---
+### **🔹 「como + 副詞 / 数量表現」の他の例**
+この「como」は、**「せいぜい～」「最大でも～」** という意味を持ち、
+いくつかの表現と組み合わせて使われます。
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; スペイン語 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Como mucho, costará 50 euros. &lt;/th&gt;
+      &lt;td&gt; 「多くても50ユーロだろう。」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Vendrá en como dos horas. &lt;/th&gt;
+      &lt;td&gt; 「せいぜい2時間後には来るだろう。」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Tardaremos como máximo tres días en terminarlo. &lt;/th&gt;
+      &lt;td&gt; 「終えるのに最大でも3日かかる。」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Había como veinte personas en la sala. &lt;/th&gt;
+      &lt;td&gt; 「部屋には20人くらいいた。」 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+🌟 **ポイント**
+- 「como mucho / como máximo」＝ **最大でも・せいぜい**
+- 「como + 数量表現」＝ **おおよそ・だいたい**
+---
+### **🔹 まとめ**
+✅ **「como muy tarde」＝ 遅くても（最大でも）**  
+✅ **「como + 数量」＝ だいたい・せいぜい**  
+✅ **「como + 副詞」＝ 限度を示す**（como mucho, como mínimo, como máximo など）  
+この表現は日常会話でよく使われるので、覚えておくと便利ですよ！ 😊</x:t>
+  </x:si>
+  <x:si>
     <x:t>「もうホテルに戻る？」
 「いや、まだ早いよ」</x:t>
   </x:si>
@@ -8459,6 +8847,62 @@
     <x:t>Trabajaba en esa tienda desde hacía tres años cuando me ofrecieron el ascenso.</x:t>
   </x:si>
   <x:si>
+    <x:t>### **🔹 「desde hacía」の意味と使い方**
+**「desde hacía」** は、過去のある時点まで **「～の間ずっと」** という継続を表す表現です。  
+この文を分解すると：
+- **Trabajaba en esa tienda** → （私はその店で働いていた）
+- **desde hacía tres años** → （3年間ずっと）
+- **cuando me ofrecieron el ascenso** → （昇進を申し出られたとき）
+つまり、**「昇進を申し出られたときには、すでに3年間その店で働いていた」** という意味になります。
+---
+### **🔹 なぜ「hacía」なのか？**
+「desde hace（現在形）」は **現在** までの継続を表しますが、
+過去のある時点までの継続を表すには「hacía（過去形）」を使います。
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 時制 &lt;/th&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 現在 &lt;/th&gt;
+      &lt;td&gt; desde hace + 期間 &lt;/td&gt;
+      &lt;td&gt; （今まで）～の間ずっと &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 過去 &lt;/th&gt;
+      &lt;td&gt; desde hacía + 期間 &lt;/td&gt;
+      &lt;td&gt; （過去のある時点まで）～の間ずっと &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+🔹 **例文で比較**
+1️⃣ **現在の継続**
+   - **Vivo en Madrid desde hace cinco años.**  
+     （私は5年前からずっとマドリードに住んでいる。）← **今も継続中**  
+2️⃣ **過去の継続**
+   - **Vivía en Madrid desde hacía cinco años cuando me mudé.**  
+     （引っ越したとき、私は5年間マドリードに住んでいた。）← **過去のある時点までの継続**
+---
+### **🔹 似た表現との違い**
+**「hacía + 期間 + que + 過去形」** という表現も、同じ意味になります。
+✅ **「desde hacía ～」**  
+✅ **「hacía ～ que ＋ 過去形」**  
+🔹 **例文で比較**
+- **Trabajaba en esa tienda desde hacía tres años cuando me ofrecieron el ascenso.**  
+- **Hacía tres años que trabajaba en esa tienda cuando me ofrecieron el ascenso.**  
+どちらも **「昇進のオファーを受けたとき、私は3年間その店で働いていた」** という意味で、ほぼ同じニュアンスです。
+---
+### **🔹 まとめ**
+✅ **「desde hacía ＋ 期間」** → 過去のある時点までの継続を表す  
+✅ **「desde hace ＋ 期間」** → 現在までの継続を表す  
+✅ **「hacía ＋ 期間 ＋ que ＋ 過去形」** も同じ意味で使える  
+この使い方を覚えておくと、過去の出来事を自然に表現できるようになりますよ！ 😊</x:t>
+  </x:si>
+  <x:si>
     <x:t>「あなたはどれくらい書道を習ってるんですか？」
 「ええっと、もう15年以上になります」</x:t>
   </x:si>
@@ -8467,6 +8911,59 @@
 Pues, ya llevo más de quince años.</x:t>
   </x:si>
   <x:si>
+    <x:t>### **🔹 「¿Cuánto tiempo lleva usted practicando caligrafía?」の現在分詞について**  
+この文の **「practicando」**（現在分詞）は、動詞 **「llevar + 現在分詞（-ando / -iendo）」** の構造で、
+「～している期間」を表す表現として使われています。  
+---
+### **🔹 「llevar + 現在分詞」の意味**
+**「llevar + 現在分詞」** は、**「（ある期間）～し続けている」** という継続を表す構文です。  
+🔹 **文の分解**
+- **¿Cuánto tiempo lleva usted practicando caligrafía?**  
+  - 「あなたは書道をどのくらいの期間練習し続けていますか？」  
+  - **llevar**（持つ）＋ **practicando**（練習している） → **「練習を続けている」**  
+- **Pues, ya llevo más de quince años.**  
+  - 「もう15年以上になります。」  
+  - **llevo más de quince años practicando caligrafía** が省略されている。
+---
+### **🔹 似た表現との比較**
+スペイン語には、**「llevar + 期間 + 現在分詞」** 以外にも「～し続けている」という表現があります。
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 構文 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Llevar + 期間 + 現在分詞 &lt;/th&gt;
+      &lt;td&gt; Llevo cinco años estudiando español. &lt;/td&gt;
+      &lt;td&gt; （私は）5年間スペイン語を勉強し続けている。 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Hace + 期間 + que + 現在形 &lt;/th&gt;
+      &lt;td&gt; Hace cinco años que estudio español. &lt;/td&gt;
+      &lt;td&gt; （私は）5年前からスペイン語を勉強している。 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Desde hace + 期間 + 現在形 &lt;/th&gt;
+      &lt;td&gt; Estudio español desde hace cinco años. &lt;/td&gt;
+      &lt;td&gt; （私は）5年前からスペイン語を勉強している。 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+🌟 **ポイント**
+- 「llevar + 現在分詞」は **「その行為を続けている」** ことを強調。  
+- 「hace + 期間 + que + 現在形」や「desde hace + 期間」は、単に「～の間ずっとしている」という事実を述べる感じ。  
+---
+### **🔹 まとめ**
+✅ **「llevar + 現在分詞」** → 「（ある期間）ずっと～し続けている」  
+✅ **現在完了（he practicado）とは異なり、行為の継続に焦点を当てる**  
+✅ **「hace ～ que + 現在形」や「desde hace ～」との違いを意識すると使い分けやすい！**  
+この構文は日常会話でもよく使うので、覚えておくと便利ですよ！ 😊</x:t>
+  </x:si>
+  <x:si>
     <x:t>「僕はコーヒーに砂糖を2杯入れる」
 「私は砂糖もミルクも入れない」</x:t>
   </x:si>
@@ -8502,9 +8999,106 @@
 Han subido un cinco por ciento.</x:t>
   </x:si>
   <x:si>
-    <x:t>a un euro con cincuenta céntimos：ここで「a」は「（単価が）～で」という意味を持ち、「1ユーロ50セントで」という価格設定を示しています。
+    <x:t xml:space="preserve">a un euro con cincuenta céntimos：ここで「a」は「（単価が）～で」という意味を持ち、
+「1ユーロ50セントで」という価格設定を示しています。
 La gasolina está a 2 euros el litro.（ガソリンは1リットルあたり2ユーロです）
-Las manzanas están a 3 euros el kilo.（りんごは1キロあたり3ユーロです）</x:t>
+Las manzanas están a 3 euros el kilo.（りんごは1キロあたり3ユーロです）
+======
+**「a + 数」と「de + 数」の違い** を理解するポイントは、それぞれが **何を表しているのか** です。  
+---
+## **🔹 ①「a + 数」：価格や比率**
+**「～あたりの価格」や「単位ごとの割合」** を表します。  
+✅ **Los tomates están** ***a*** **un euro con cincuenta céntimos el kilo.**  
+→ 「トマトは **1キロあたり** 1.50ユーロです。」  
+✅ **La gasolina está** ***a*** **1,70 euros el litro.**  
+→ 「ガソリンは **1リットルあたり** 1.70ユーロです。」  
+### **🔸 ポイント**
+- **「1キロあたり」「1リットルあたり」「1時間あたり」などの比率や単価を示すとき** に「a + 数」を使う。  
+- **単位（kg, L, 時間など）と一緒に使われる**。
+---
+## **🔹 ②「de + 数」：数量・規模**
+**「～の数・数量・規模」を表す** ときに使います。  
+✅ **La población de Japón es** ***de*** **ciento treinta millones de habitantes aproximadamente.**  
+→ 「日本の人口は **1億3000万人** です。」  
+✅ **El edificio tiene** ***de*** **20 pisos.**  
+→ 「その建物は **20階建て** です。」  
+✅ **Tengo una colección de más de 500 libros.**  
+→ 「私は **500冊以上の本** を持っています。」  
+### **🔸 ポイント**
+- **あるものの「全体の数量」を示すときに「de + 数」を使う**。  
+- **人口、階数、物の数など、"全体の規模" を表すときに使われる**。  
+---
+## **🔹 じゃあ、「a」と「de」の違いは？**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 使う前置詞 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 価格・単価・比率 &lt;/th&gt;
+      &lt;td&gt; a &lt;/td&gt;
+      &lt;td&gt; El pan está a 2 euros la barra.（パンは1本 2ユーロ） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 全体の数量・規模 &lt;/th&gt;
+      &lt;td&gt; de &lt;/td&gt;
+      &lt;td&gt; La población es de 50.000 personas.（人口は 5万人） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **🔹 似た表現で混同しやすい例**
+### **価格を言うとき**
+✅ **Los tomates están** ***a*** **1,50 euros el kilo.**（1キロ **あたり** 1.50ユーロ）  
+❌ **Los tomates están de 1,50 euros el kilo.**（間違い）
+### **全体の数を言うとき**
+✅ **La población de Japón es** ***de*** **130 millones.**（**人口は** 1億3000万人）  
+❌ **La población de Japón es a 130 millones.**（間違い）
+---
+## **🔹 まとめ**
+- **「1キロあたり」「1リットルあたり」などの単価・比率 → 「a + 数」**  
+- **「人口は～人」「ビルは～階建て」などの全体の数量 → 「de + 数」**  
+迷ったら、「これは **1個あたりの値段** なのか？それとも **全体の数** なのか？」と考えるとスムーズですよ！😊
+=====
+&lt;pregunta&gt;
+では以下の文ではなぜaを使っていますか？
+El pueblo está a cien kilómetros de aquí.
+&lt;/pregunta&gt;
+この文で **「a + 数」** が使われている理由は、**「距離」を表すときに「a + 数」** を使うルールがあるからです。  
+---
+## **🔹 El pueblo está *a* cien kilómetros de aquí.**  
+→ 「その村は **ここから** 100キロのところにある。」
+---
+### **📌 なぜ「a」を使うのか？**
+「a + 数」は **価格や比率** だけでなく、**距離や時間の隔たり** を表すときにも使われます。  
+✅ **距離を表す「a + 数」**  
+- **Madrid está *a* 500 kilómetros de Barcelona.**  
+  → 「マドリードはバルセロナから **500キロの距離** にある。」  
+- **El colegio está *a* dos calles de mi casa.**  
+  → 「学校は私の家から **2ブロック先** にある。」  
+✅ **時間の隔たりを表す「a + 数」**  
+- **Estamos *a* cinco días de Navidad.**  
+  → 「クリスマスまで **5日** です。」  
+- **El tren sale *a* las 7 de la mañana.**  
+  → 「電車は **朝7時に** 出発します。」  
+---
+### **🔹 「de」との違い**
+「de + 数」は **「全体の数や規模」を表す** ので、距離や時間には使えません。  
+✅ **使える例**（数量・規模を表す）  
+✔ **La población de la ciudad es *de* 500.000 habitantes.**  
+→ 「その都市の人口は **50万人** です。」
+❌ **El pueblo está *de* 100 kilómetros de aquí.**（間違い）  
+→ 距離を表すには「a」を使うべき。
+---
+### **🔹 まとめ**
+- **「距離」「時間の隔たり」→「a + 数」**
+- **「全体の数・規模」→「de + 数」**
+このルールを覚えておくと、いろんな場面で役立ちますよ！ 😊
+</x:t>
   </x:si>
   <x:si>
     <x:t>イカを何皿頼もうか？</x:t>
@@ -8530,14 +9124,107 @@
     <x:t>スペイン人の平均給料は月2000ユーロ前後です</x:t>
   </x:si>
   <x:si>
-    <x:t>El salario medio de los españoles ronda alrededor de 2.000 euros al mes.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>「ronda」はここで「おおよそ～の範囲にある」「～に近い」といった意味で使われており、数量が特定の数値の周辺にあることを表現しています。英語の「to be around」「to approximate」にあたります。
-alrededor deも「おおよそ」のニュアンスを補強する表現で、さらに「ronda」の意味を明確にしています。
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>El salario medio de los españoles ronda alrededor de 2000 euros al mes.</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>「ronda」はここで「おおよそ～の範囲にある」「～に近い」といった意味で使われており、
+数量が特定の数値の周辺にあることを表現しています。
+英語の「to be around」「to approximate」にあたります。
+alrededor deも「おおよそ」のニュアンスを補強する表現で、
+さらに「ronda」の意味を明確にしています。
 La temperatura ronda los 30 grados en verano.（夏の気温は30度あたりです）
 Su edad ronda los 50 años.（彼の年齢は50歳くらいです）
-「rondar」は「近似の値を表す」というニュアンスがあるため、会話でもよく使われる表現です。</x:t>
+「rondar」は「近似の値を表す」というニュアンスがあるため、
+会話でもよく使われる表現です。
+======
+### **🔹 「ronda」の意味と使い方**  
+「**ronda**」は動詞 **rondar** の活用形で、
+ここでは **「おおよそ～である」「～の近くで推移する」** という意味で使われています。  
+---
+### **🔹 文の解釈**
+**El salario medio de los españoles ronda alrededor de 2.000 euros al mes.**  
+📌 **直訳:** 「スペイン人の平均給与は月におよそ2,000ユーロのあたりを回る。」  
+📌 **自然な訳:** 「スペイン人の平均給与は月に約2,000ユーロだ。」
+🔹 **「rondar alrededor de ～」＝「おおよそ～の範囲にある」** という意味になります。  
+🔹 ただし、**「rondar」にはすでに「おおよそ～である」という意味があるため、
+「rondar alrededor de ～」はやや冗長な表現** です。  
+---
+### **🔹 「rondar」の別の使い方**
+「rondar」にはいくつかの意味がありますが、以下のように使われます。
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+      &lt;th&gt; 訳 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; （数値が）～のあたりである &lt;/th&gt;
+      &lt;td&gt; Su edad ronda los 40 años. &lt;/td&gt;
+      &lt;td&gt; 「彼の年齢は40歳くらいだ。」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; （場所の周りをうろつく） &lt;/th&gt;
+      &lt;td&gt; Había un perro rondando la casa. &lt;/td&gt;
+      &lt;td&gt; 「家の周りを犬がうろついていた。」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; （異性に言い寄る） &lt;/th&gt;
+      &lt;td&gt; Lleva tiempo rondando a Marta. &lt;/td&gt;
+      &lt;td&gt; 「彼はずっとマルタに言い寄っている。」 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **🔹 まとめ**
+✅ **「rondar」＝「～のあたりである」「おおよそ～である」**  
+✅ **「rondar alrededor de ～」は少し冗長だが、よく使われる**  
+✅ **「rondar」には「うろつく」「言い寄る」などの意味もある**  
+**「El salario medio de los españoles ronda los 2.000 euros al mes.」** 
+のように **「rondar + 数値」** の形で使うことも多いですよ！ 😊
+======
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 使う前置詞 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 商品・重量・単価 &lt;/th&gt;
+      &lt;td&gt; a &lt;/td&gt;
+      &lt;td&gt; Los tomates están a 1,50 el kilo. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 期間ごとの金額 &lt;/th&gt;
+      &lt;td&gt; al &lt;/td&gt;
+      &lt;td&gt; Gana 2.000 euros al mes. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 頻度・回数 &lt;/th&gt;
+      &lt;td&gt; a &lt;/td&gt;
+      &lt;td&gt; Voy al cine una vez a la semana. &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/04
+2025/02/05</x:t>
   </x:si>
   <x:si>
     <x:t>ダリは1904年に生まれ、1989年に85歳で亡くなった</x:t>
@@ -8546,7 +9233,17 @@
     <x:t>Dalí nació en 1904 y murió en 1989, a los 85 años.</x:t>
   </x:si>
   <x:si>
-    <x:t>この文の最後にある 「a los 85 años」 は、年齢を表す際によく使われる構文で、「～歳で」という意味を表しています。この 「los」 は「（その年齢）～歳」という特定の数を指すために必要です。
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve">この文の最後にある 「a los 85 años」 は、年齢を表す際によく使われる構文で、
+「～歳で」という意味を表しています。
+この 「los」 は「（その年齢）～歳」という特定の数を指すために必要です。
 構文の説明
 a + 定冠詞 + 年齢 + años の形で、「～歳で」という意味を表します。
 この 「los」 は 「85 años」 を特定の年齢として強調する役割があります。
@@ -8554,7 +9251,10 @@
 他の例でも同様の構文が見られます。
 Se jubiló a los 65 años.（彼は65歳で退職しました）
 Empezó a pintar a los 10 años.（彼は10歳で絵を描き始めました）
-したがって、「los」 がないと文法的に不自然に感じられるため、この表現では必要な要素となっています。</x:t>
+したがって、「los」 がないと文法的に不自然に感じられるため、
+この表現では必要な要素となっています。</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
     <x:t>「炭酸ガスなしの水を1本ください」
@@ -8664,6 +9364,138 @@
   </x:si>
   <x:si>
     <x:t>Se necesitan más sillas.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">無人称文と受動態の区別は、スペイン語学習者にとって確かに紛らわしい部分ですよね。
+でも、ポイントを押さえれば見分けられるようになります！  
+---
+## **🔹 無人称文と受動態の違い**  
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 特徴         &lt;/th&gt;
+      &lt;th&gt; 無人称文 &lt;/th&gt;
+      &lt;th&gt; 受動態 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 主語       &lt;/th&gt;
+      &lt;td&gt; なし / 不特定 &lt;/td&gt;
+      &lt;td&gt; 目的語が主語になる &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 構造       &lt;/th&gt;
+      &lt;td&gt; 動詞が三人称単数形 &lt;/td&gt;
+      &lt;td&gt; se + 動詞（3人称単数 or 複数） / ser + 過去分詞 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 意味の違い &lt;/th&gt;
+      &lt;td&gt; 「誰がやったかわからない / 重要でない」 &lt;/td&gt;
+      &lt;td&gt; 「～がされた」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 例文       &lt;/th&gt;
+      &lt;td&gt; Aquí se vive bien.&lt;/td&gt;
+      &lt;td&gt; Se vendieron muchas entradas.&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;&lt;/th&gt;
+      &lt;td&gt;「ここでは快適に暮らせる。」 &lt;/td&gt;
+      &lt;td&gt;「多くのチケットが売れた。」 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **🔹 詳しく見てみよう！**
+### **① 無人称文（oración impersonal）**
+📌 **主語がない、または「不特定の人」** を指す文。  
+📌 **動詞は三人称単数形！**
+✅ **Ejemplos（例文）**
+- **Se vive bien en España.**  
+  （スペインでは快適に暮らせる。）  
+- **Dicen que va a llover.**  
+  （雨が降るらしい。）  
+- **Aquí no se puede fumar.**  
+  （ここでは喫煙できません。）  
+- **Hace frío.**  
+  （寒い。）  
+👉 **「誰が？」を考える必要がないのがポイント！**
+---
+### **② 受動態（voz pasiva）**
+📌 **目的語が主語になり、「～された」という意味になる。**  
+📌 **「ser + 過去分詞」または「se + 動詞の3人称形（単数 or 複数）」**  
+📌 **行為者（agente）が省略されることが多いが、「por + 行為者」で明示できる！**
+✅ **Ejemplos（例文）**
+- **El libro fue escrito por Cervantes.**  
+  （この本はセルバンテスによって書かれた。）  
+- **Se venden casas en esta zona.**  
+  （この地域では家が売られている。）  
+- **Se fabrican coches en esta fábrica.**  
+  （この工場では車が製造されている。）  
+👉 **「誰が？」を考えたときに、「～によって」が入るなら受動態！**
+---
+## **🔹 見分けるコツ**
+「se + 動詞」の文を見たら、**以下の2つをチェック！**
+1️⃣ **動詞が単数か複数か？**  
+   → **単数なら無人称文の可能性大！**  
+   → **複数なら受動態の可能性大！**  
+2️⃣ **「～によって（por...）」を加えて意味が通るか？**  
+   → **通れば受動態！**  
+   → **通らなければ無人称文！**
+---
+## **🔹 まとめ**
+✅ **無人称文 → 誰がするか不特定、動詞は三人称単数形！**  
+✅ **受動態 → 「～がされた」目的語が主語に、動詞は単数 or 複数！**  
+✅ **「por + 行為者」が入るかどうかで判別！**  
+**💡 例文を見て、自分で「これは無人称？ 受動態？」と考える練習をすると、
+自然に区別できるようになりますよ！ 😊**
+=====
+&lt;pregunta&gt;
+そもそも、無人称文と受動態を区別する必要のない場合もありますか？
+&lt;/pregunta&gt;
+**はい、区別する必要のない場合もあります！**  
+特に **「se + 動詞」** の構造を持つ文では、
+**無人称文と受動態のどちらとも解釈できるケース** があります。  
+---
+## **🔹 区別しなくてもいいケース**
+1️⃣ **主語が不明確でも意味が変わらない場合**  
+2️⃣ **行為者（誰がやったか）が重要でない場合**  
+3️⃣ **日常会話などで、正確に区別しなくても問題がない場合**  
+例えば：
+✅ **Se dice que va a llover.**  
+　「雨が降ると言われている。」  
+　→ これは「無人称文（誰が言ったか不明）」ですが、
+　受動態的に「そう言われている」とも解釈できます。  
+✅ **Se construyeron muchas casas el año pasado.**  
+　「昨年、多くの家が建てられた。」  
+　→ これは「受動態（多くの家が建設された）」ですが、
+　**「誰が建てたか」には興味がないので無人称っぽくもある。**  
+---
+## **🔹 なぜ区別しなくていいのか？**
+📌 **結局、意味が通じるから！**  
+無人称文も受動態も、どちらも **「行為者が特定されていない」** という点で共通しています。  
+📌 **文脈で自然に判断できるから！**  
+たとえば、  
+「Se vende pan en esta tienda.」  
+（この店ではパンが売られている。）  
+→ これは受動態に見えるけど、「売っている人」ではなく、
+「パンが売られている」という事実が大事なので、無人称っぽくもある。  
+📌 **日常会話では気にされない！**  
+文法的に厳密な区別が必要な場面（試験など）以外では、
+どちらの解釈でも問題なく伝わることが多いです。  
+---
+## **🔹 じゃあ、どんなときに区別するの？**
+✔ **正確な文法分析が必要なとき**（例えばスペイン語の試験や翻訳など）  
+✔ **「行為者（agente）」を明示したいとき**
+	（例えば「この建物はガウディによって設計された」と言いたいとき）  
+✔ **明確に「～された」というニュアンスを出したいとき**  
+---
+### **🔹 まとめ**
+✅ **無人称文と受動態の区別が曖昧でも、意味が通じるなら気にしなくてOK！**  
+✅ **でも、試験やフォーマルな文脈では文法的に正しく使うのがベスト！**  
+実際にスペイン語のネイティブも、厳密に区別しないことが多いので、
+あまり神経質にならずに **「伝わればOK！」** くらいの気持ちで使うといいですよ！ </x:t>
   </x:si>
   <x:si>
     <x:t>「ここでは何を売ってるんですか？」
@@ -8747,7 +9579,62 @@
 「se cuecen y se pelan」のように言うと、丁寧で説明的なトーンが強まります。
 結論
 「cocer y pelar」 も使うことができますが、「se cuecen y se pelan」 の方が一般的で自然な言い方です。
-特に、特定の人を指定せずに調理方法を説明する際には、この受動態の形がより適切です。</x:t>
+特に、特定の人を指定せずに調理方法を説明する際には、この受動態の形がより適切です。
+======
+この文は **「無人称の se」** ではなく、**「受動態の se（se pasiva）」** を使っています！  
+---
+### **🔹 文の構造**
+1. **¿Cómo se preparan las patatas?**  
+   - 「ジャガイモはどのように調理されますか？」
+   - **主語は "las patatas"（ジャガイモ・複数形）**
+   - 受動態の **se + 三人称複数（preparan）** を使っている
+2. **Se cuecen y se pelan.**  
+   - 「（ジャガイモは）茹でられ、皮がむかれます。」
+   - **主語は省略されているが、"las patatas"（複数）**
+   - **"cuecen" と "pelan" も三人称複数形**
+---
+### **🔹 なぜ se + 三人称複数？**
+**受動態の se（se pasiva）** は、「○○が～される」という意味を表すときに使います。  
+動詞の活用は、**主語の数に合わせて変化** します。
+✅ **主語が単数の場合 → 動詞は三人称単数**  
+- **¿Cómo se prepara la carne?** （肉はどうやって調理されますか？）
+- **Se asa.** （焼かれます。）
+✅ **主語が複数の場合 → 動詞は三人称複数**  
+- **¿Cómo se preparan las patatas?** （ジャガイモはどうやって調理されますか？）
+- **Se cuecen y se pelan.** （茹でられ、皮がむかれます。）
+---
+### **🔹 受動態の se（se pasiva） vs. 無人称の se（se impersonal）**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 文のタイプ &lt;/th&gt;
+      &lt;th&gt; 主語 &lt;/th&gt;
+      &lt;th&gt; 動詞の活用 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 受動態の se &lt;/th&gt;
+      &lt;td&gt; あり（もの・人） &lt;/td&gt;
+      &lt;td&gt; 主語の数に合わせる &lt;/td&gt;
+      &lt;td&gt; Se venden coches.（車が売られている。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 無人称の se &lt;/th&gt;
+      &lt;td&gt; なし &lt;/td&gt;
+      &lt;td&gt; 常に三人称単数 &lt;/td&gt;
+      &lt;td&gt; Se dice que va a llover.（雨が降ると言われている。） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+「ジャガイモは調理される」という場合、**主語（las patatas）があるので、受動態の se を使う！**  
+👉 だから **"se preparan"（複数形）** になっているんですね！
+---
+### **🔹 まとめ**
+**この文は「受動態の se」だから、主語（las patatas）に合わせて三人称複数を使う！**  
+✔ **「las patatas」は複数 → 動詞も「preparan / cuecen / pelan」など三人称複数形になる！**  
+これで **「受動態の se」** のルールがスッキリしたはず！ 😊✨</x:t>
   </x:si>
   <x:si>
     <x:t>私に読み書きを教えてくれたのは父でした</x:t>
@@ -10875,11 +11762,11 @@
   </x:sheetPr>
   <x:dimension ref="A1:G600"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C420" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <x:selection activeCell="F426" sqref="F426"/>
+    <x:sheetView tabSelected="1" topLeftCell="A230" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <x:selection activeCell="C231" sqref="C231"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="15.335625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="17.210625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -15081,27 +15968,33 @@
       <x:c r="C444" s="1" t="s">
         <x:v>1090</x:v>
       </x:c>
+      <x:c r="F444" s="1" t="s">
+        <x:v>1091</x:v>
+      </x:c>
+      <x:c r="G444" s="0" t="s">
+        <x:v>1092</x:v>
+      </x:c>
     </x:row>
     <x:row r="445" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B445" s="1" t="s">
-        <x:v>1091</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="C445" s="1" t="s">
-        <x:v>1092</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="F445" s="1" t="s">
-        <x:v>1093</x:v>
+        <x:v>1095</x:v>
       </x:c>
     </x:row>
     <x:row r="446" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B446" s="1" t="s">
-        <x:v>1094</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="C446" s="1" t="s">
-        <x:v>1095</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="F446" s="1" t="s">
-        <x:v>1096</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="G446" s="0" t="s">
         <x:v>1024</x:v>
@@ -15109,1456 +16002,1525 @@
     </x:row>
     <x:row r="447" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B447" s="1" t="s">
-        <x:v>1097</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="C447" s="1" t="s">
-        <x:v>1098</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="F447" s="1" t="s">
-        <x:v>1099</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="G447" s="1" t="s">
-        <x:v>1100</x:v>
+        <x:v>1102</x:v>
       </x:c>
     </x:row>
     <x:row r="448" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B448" s="1" t="s">
-        <x:v>1101</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="C448" s="1" t="s">
-        <x:v>1102</x:v>
+        <x:v>1104</x:v>
       </x:c>
     </x:row>
     <x:row r="449" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B449" s="1" t="s">
-        <x:v>1103</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="C449" s="1" t="s">
-        <x:v>1104</x:v>
+        <x:v>1106</x:v>
       </x:c>
     </x:row>
     <x:row r="450" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B450" s="1" t="s">
-        <x:v>1105</x:v>
+        <x:v>1107</x:v>
       </x:c>
       <x:c r="C450" s="1" t="s">
-        <x:v>1106</x:v>
+        <x:v>1108</x:v>
       </x:c>
     </x:row>
     <x:row r="451" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B451" s="1" t="s">
-        <x:v>1107</x:v>
+        <x:v>1109</x:v>
       </x:c>
       <x:c r="C451" s="1" t="s">
-        <x:v>1108</x:v>
+        <x:v>1110</x:v>
       </x:c>
       <x:c r="D451" s="0" t="s">
-        <x:v>1109</x:v>
+        <x:v>1111</x:v>
       </x:c>
       <x:c r="E451" s="0" t="s">
-        <x:v>1110</x:v>
+        <x:v>1112</x:v>
       </x:c>
     </x:row>
     <x:row r="452" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B452" s="1" t="s">
-        <x:v>1111</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="C452" s="1" t="s">
-        <x:v>1112</x:v>
+        <x:v>1114</x:v>
       </x:c>
     </x:row>
     <x:row r="453" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B453" s="1" t="s">
-        <x:v>1113</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="C453" s="1" t="s">
-        <x:v>1114</x:v>
+        <x:v>1116</x:v>
       </x:c>
     </x:row>
     <x:row r="454" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B454" s="1" t="s">
-        <x:v>1115</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="C454" s="1" t="s">
-        <x:v>1116</x:v>
+        <x:v>1118</x:v>
       </x:c>
     </x:row>
     <x:row r="455" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B455" s="1" t="s">
-        <x:v>1117</x:v>
+        <x:v>1119</x:v>
       </x:c>
       <x:c r="C455" s="1" t="s">
-        <x:v>1118</x:v>
+        <x:v>1120</x:v>
+      </x:c>
+      <x:c r="F455" s="1" t="s">
+        <x:v>1121</x:v>
+      </x:c>
+      <x:c r="G455" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="456" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B456" s="1" t="s">
-        <x:v>1119</x:v>
+        <x:v>1122</x:v>
       </x:c>
       <x:c r="C456" s="1" t="s">
-        <x:v>1120</x:v>
+        <x:v>1123</x:v>
+      </x:c>
+      <x:c r="F456" s="1" t="s">
+        <x:v>1124</x:v>
+      </x:c>
+      <x:c r="G456" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="457" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B457" s="1" t="s">
-        <x:v>1121</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="C457" s="1" t="s">
-        <x:v>1122</x:v>
+        <x:v>1126</x:v>
       </x:c>
     </x:row>
     <x:row r="458" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B458" s="1" t="s">
-        <x:v>1123</x:v>
+        <x:v>1127</x:v>
       </x:c>
       <x:c r="C458" s="1" t="s">
-        <x:v>1124</x:v>
+        <x:v>1128</x:v>
       </x:c>
     </x:row>
     <x:row r="459" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B459" s="1" t="s">
-        <x:v>1125</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="C459" s="1" t="s">
-        <x:v>1126</x:v>
+        <x:v>1130</x:v>
       </x:c>
     </x:row>
     <x:row r="460" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B460" s="1" t="s">
-        <x:v>1127</x:v>
+        <x:v>1131</x:v>
       </x:c>
       <x:c r="C460" s="1" t="s">
-        <x:v>1128</x:v>
+        <x:v>1132</x:v>
+      </x:c>
+      <x:c r="F460" s="1" t="s">
+        <x:v>1133</x:v>
+      </x:c>
+      <x:c r="G460" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="461" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B461" s="1" t="s">
-        <x:v>1129</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="C461" s="1" t="s">
-        <x:v>1130</x:v>
+        <x:v>1135</x:v>
       </x:c>
       <x:c r="D461" s="0" t="s">
-        <x:v>1131</x:v>
+        <x:v>1136</x:v>
       </x:c>
       <x:c r="E461" s="0" t="s">
-        <x:v>1132</x:v>
+        <x:v>1137</x:v>
       </x:c>
     </x:row>
     <x:row r="462" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B462" s="1" t="s">
-        <x:v>1133</x:v>
+        <x:v>1138</x:v>
       </x:c>
       <x:c r="C462" s="1" t="s">
-        <x:v>1134</x:v>
+        <x:v>1139</x:v>
       </x:c>
     </x:row>
     <x:row r="463" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B463" s="1" t="s">
-        <x:v>1135</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="C463" s="1" t="s">
-        <x:v>1136</x:v>
+        <x:v>1141</x:v>
       </x:c>
     </x:row>
     <x:row r="464" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B464" s="1" t="s">
-        <x:v>1137</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="C464" s="1" t="s">
-        <x:v>1138</x:v>
+        <x:v>1143</x:v>
       </x:c>
     </x:row>
     <x:row r="465" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B465" s="1" t="s">
-        <x:v>1139</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="C465" s="1" t="s">
-        <x:v>1140</x:v>
+        <x:v>1145</x:v>
       </x:c>
     </x:row>
     <x:row r="466" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B466" s="1" t="s">
-        <x:v>1141</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="C466" s="1" t="s">
-        <x:v>1142</x:v>
+        <x:v>1147</x:v>
       </x:c>
     </x:row>
     <x:row r="467" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B467" s="1" t="s">
-        <x:v>1143</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="C467" s="1" t="s">
-        <x:v>1144</x:v>
+        <x:v>1149</x:v>
       </x:c>
     </x:row>
     <x:row r="468" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B468" s="1" t="s">
-        <x:v>1145</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="C468" s="1" t="s">
-        <x:v>1146</x:v>
+        <x:v>1151</x:v>
+      </x:c>
+      <x:c r="F468" s="1" t="s">
+        <x:v>1152</x:v>
+      </x:c>
+      <x:c r="G468" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="469" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B469" s="1" t="s">
-        <x:v>1147</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="C469" s="1" t="s">
-        <x:v>1148</x:v>
+        <x:v>1154</x:v>
+      </x:c>
+      <x:c r="F469" s="1" t="s">
+        <x:v>1155</x:v>
+      </x:c>
+      <x:c r="G469" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="470" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B470" s="1" t="s">
-        <x:v>1149</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="C470" s="1" t="s">
-        <x:v>1150</x:v>
+        <x:v>1157</x:v>
       </x:c>
     </x:row>
     <x:row r="471" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B471" s="1" t="s">
-        <x:v>1151</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="C471" s="1" t="s">
-        <x:v>1152</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="D471" s="0" t="s">
-        <x:v>1153</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="E471" s="0" t="s">
-        <x:v>1154</x:v>
+        <x:v>1161</x:v>
+      </x:c>
+      <x:c r="F471" s="1" t="s">
+        <x:v>1162</x:v>
+      </x:c>
+      <x:c r="G471" s="0" t="s">
+        <x:v>1163</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B472" s="1" t="s">
-        <x:v>1155</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="C472" s="1" t="s">
-        <x:v>1156</x:v>
+        <x:v>1165</x:v>
       </x:c>
     </x:row>
     <x:row r="473" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B473" s="1" t="s">
-        <x:v>1157</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="C473" s="1" t="s">
-        <x:v>1158</x:v>
+        <x:v>1167</x:v>
       </x:c>
     </x:row>
     <x:row r="474" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B474" s="1" t="s">
-        <x:v>1159</x:v>
+        <x:v>1168</x:v>
       </x:c>
       <x:c r="C474" s="1" t="s">
-        <x:v>1160</x:v>
+        <x:v>1169</x:v>
       </x:c>
     </x:row>
     <x:row r="475" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B475" s="1" t="s">
-        <x:v>1161</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="C475" s="1" t="s">
-        <x:v>1162</x:v>
+        <x:v>1171</x:v>
       </x:c>
     </x:row>
     <x:row r="476" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B476" s="1" t="s">
-        <x:v>1163</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="C476" s="1" t="s">
-        <x:v>1164</x:v>
+        <x:v>1173</x:v>
+      </x:c>
+      <x:c r="F476" s="1" t="s">
+        <x:v>1174</x:v>
+      </x:c>
+      <x:c r="G476" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="477" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B477" s="1" t="s">
-        <x:v>1165</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="C477" s="1" t="s">
-        <x:v>1166</x:v>
+        <x:v>1176</x:v>
       </x:c>
     </x:row>
     <x:row r="478" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B478" s="1" t="s">
-        <x:v>1167</x:v>
+        <x:v>1177</x:v>
       </x:c>
       <x:c r="C478" s="1" t="s">
-        <x:v>1168</x:v>
+        <x:v>1178</x:v>
       </x:c>
     </x:row>
     <x:row r="479" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B479" s="1" t="s">
-        <x:v>1169</x:v>
+        <x:v>1179</x:v>
       </x:c>
       <x:c r="C479" s="1" t="s">
-        <x:v>1170</x:v>
+        <x:v>1180</x:v>
+      </x:c>
+      <x:c r="F479" s="1" t="s">
+        <x:v>1181</x:v>
+      </x:c>
+      <x:c r="G479" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="480" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B480" s="1" t="s">
-        <x:v>1171</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="C480" s="1" t="s">
-        <x:v>1172</x:v>
+        <x:v>1183</x:v>
+      </x:c>
+      <x:c r="F480" s="1" t="s">
+        <x:v>1184</x:v>
+      </x:c>
+      <x:c r="G480" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="481" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B481" s="1" t="s">
-        <x:v>1173</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="C481" s="1" t="s">
-        <x:v>1174</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="D481" s="0" t="s">
-        <x:v>1175</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="E481" s="0" t="s">
-        <x:v>1176</x:v>
+        <x:v>1188</x:v>
       </x:c>
     </x:row>
     <x:row r="482" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B482" s="1" t="s">
-        <x:v>1177</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="C482" s="1" t="s">
-        <x:v>1178</x:v>
+        <x:v>1190</x:v>
       </x:c>
     </x:row>
     <x:row r="483" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B483" s="1" t="s">
-        <x:v>1179</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="C483" s="1" t="s">
-        <x:v>1180</x:v>
+        <x:v>1192</x:v>
       </x:c>
     </x:row>
     <x:row r="484" spans="1:7" ht="75" customHeight="1">
       <x:c r="B484" s="1" t="s">
-        <x:v>1181</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="C484" s="1" t="s">
-        <x:v>1182</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="F484" s="1" t="s">
-        <x:v>1183</x:v>
+        <x:v>1195</x:v>
+      </x:c>
+      <x:c r="G484" s="0" t="s">
+        <x:v>1163</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B485" s="1" t="s">
-        <x:v>1184</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="C485" s="1" t="s">
-        <x:v>1185</x:v>
+        <x:v>1197</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B486" s="1" t="s">
-        <x:v>1186</x:v>
+        <x:v>1198</x:v>
       </x:c>
       <x:c r="C486" s="1" t="s">
-        <x:v>1187</x:v>
+        <x:v>1199</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B487" s="1" t="s">
-        <x:v>1188</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="C487" s="1" t="s">
-        <x:v>1189</x:v>
+        <x:v>1201</x:v>
       </x:c>
     </x:row>
     <x:row r="488" spans="1:7" ht="112.5" customHeight="1">
       <x:c r="B488" s="1" t="s">
-        <x:v>1190</x:v>
+        <x:v>1202</x:v>
       </x:c>
       <x:c r="C488" s="1" t="s">
-        <x:v>1191</x:v>
+        <x:v>1203</x:v>
       </x:c>
       <x:c r="F488" s="1" t="s">
-        <x:v>1192</x:v>
+        <x:v>1204</x:v>
+      </x:c>
+      <x:c r="G488" s="1" t="s">
+        <x:v>1205</x:v>
       </x:c>
     </x:row>
     <x:row r="489" spans="1:7" ht="225" customHeight="1">
       <x:c r="B489" s="1" t="s">
-        <x:v>1193</x:v>
+        <x:v>1206</x:v>
       </x:c>
       <x:c r="C489" s="1" t="s">
-        <x:v>1194</x:v>
+        <x:v>1207</x:v>
       </x:c>
       <x:c r="F489" s="1" t="s">
-        <x:v>1195</x:v>
+        <x:v>1208</x:v>
       </x:c>
     </x:row>
     <x:row r="490" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B490" s="1" t="s">
-        <x:v>1196</x:v>
+        <x:v>1209</x:v>
       </x:c>
       <x:c r="C490" s="1" t="s">
-        <x:v>1197</x:v>
+        <x:v>1210</x:v>
       </x:c>
     </x:row>
     <x:row r="491" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B491" s="1" t="s">
-        <x:v>1198</x:v>
+        <x:v>1211</x:v>
       </x:c>
       <x:c r="C491" s="1" t="s">
-        <x:v>1199</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="D491" s="0" t="s">
-        <x:v>1200</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="E491" s="0" t="s">
-        <x:v>1201</x:v>
+        <x:v>1214</x:v>
       </x:c>
     </x:row>
     <x:row r="492" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B492" s="1" t="s">
-        <x:v>1202</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="C492" s="1" t="s">
-        <x:v>1203</x:v>
+        <x:v>1216</x:v>
       </x:c>
     </x:row>
     <x:row r="493" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B493" s="1" t="s">
-        <x:v>1204</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="C493" s="1" t="s">
-        <x:v>1205</x:v>
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="494" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B494" s="1" t="s">
-        <x:v>1206</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="C494" s="1" t="s">
-        <x:v>1207</x:v>
+        <x:v>1220</x:v>
       </x:c>
     </x:row>
     <x:row r="495" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B495" s="1" t="s">
-        <x:v>1208</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="C495" s="1" t="s">
-        <x:v>1209</x:v>
+        <x:v>1222</x:v>
       </x:c>
     </x:row>
     <x:row r="496" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B496" s="1" t="s">
-        <x:v>1210</x:v>
+        <x:v>1223</x:v>
       </x:c>
       <x:c r="C496" s="1" t="s">
-        <x:v>1211</x:v>
+        <x:v>1224</x:v>
       </x:c>
     </x:row>
     <x:row r="497" spans="1:7" ht="243.75" customHeight="1">
       <x:c r="B497" s="1" t="s">
-        <x:v>1212</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="C497" s="1" t="s">
-        <x:v>1213</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="F497" s="1" t="s">
-        <x:v>1214</x:v>
+        <x:v>1227</x:v>
       </x:c>
     </x:row>
     <x:row r="498" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B498" s="1" t="s">
-        <x:v>1215</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="C498" s="1" t="s">
-        <x:v>1216</x:v>
+        <x:v>1229</x:v>
       </x:c>
     </x:row>
     <x:row r="499" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B499" s="1" t="s">
-        <x:v>1217</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="C499" s="1" t="s">
-        <x:v>1218</x:v>
+        <x:v>1231</x:v>
       </x:c>
     </x:row>
     <x:row r="500" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B500" s="1" t="s">
-        <x:v>1219</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="C500" s="1" t="s">
-        <x:v>1220</x:v>
+        <x:v>1233</x:v>
       </x:c>
     </x:row>
     <x:row r="501" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B501" s="1" t="s">
-        <x:v>1221</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="C501" s="1" t="s">
-        <x:v>1222</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="D501" s="0" t="s">
-        <x:v>1223</x:v>
+        <x:v>1236</x:v>
       </x:c>
       <x:c r="E501" s="0" t="s">
-        <x:v>1224</x:v>
+        <x:v>1237</x:v>
+      </x:c>
+      <x:c r="F501" s="1" t="s">
+        <x:v>1238</x:v>
+      </x:c>
+      <x:c r="G501" s="0" t="s">
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="502" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B502" s="1" t="s">
-        <x:v>1225</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="C502" s="1" t="s">
-        <x:v>1226</x:v>
+        <x:v>1240</x:v>
       </x:c>
     </x:row>
     <x:row r="503" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B503" s="1" t="s">
-        <x:v>1227</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="C503" s="1" t="s">
-        <x:v>1228</x:v>
+        <x:v>1242</x:v>
       </x:c>
     </x:row>
     <x:row r="504" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B504" s="1" t="s">
-        <x:v>1229</x:v>
+        <x:v>1243</x:v>
       </x:c>
       <x:c r="C504" s="1" t="s">
-        <x:v>1230</x:v>
+        <x:v>1244</x:v>
       </x:c>
     </x:row>
     <x:row r="505" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B505" s="1" t="s">
-        <x:v>1231</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="C505" s="1" t="s">
-        <x:v>1232</x:v>
+        <x:v>1246</x:v>
       </x:c>
     </x:row>
     <x:row r="506" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B506" s="1" t="s">
-        <x:v>1233</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="C506" s="1" t="s">
-        <x:v>1234</x:v>
+        <x:v>1248</x:v>
       </x:c>
     </x:row>
     <x:row r="507" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B507" s="1" t="s">
-        <x:v>1235</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="C507" s="1" t="s">
-        <x:v>1236</x:v>
+        <x:v>1250</x:v>
       </x:c>
     </x:row>
     <x:row r="508" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B508" s="1" t="s">
-        <x:v>1237</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="C508" s="1" t="s">
-        <x:v>1238</x:v>
+        <x:v>1252</x:v>
       </x:c>
     </x:row>
     <x:row r="509" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B509" s="1" t="s">
-        <x:v>1239</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="C509" s="1" t="s">
-        <x:v>1240</x:v>
+        <x:v>1254</x:v>
       </x:c>
     </x:row>
     <x:row r="510" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B510" s="1" t="s">
-        <x:v>1241</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="C510" s="1" t="s">
-        <x:v>1242</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="F510" s="1" t="s">
-        <x:v>1243</x:v>
+        <x:v>1257</x:v>
+      </x:c>
+      <x:c r="G510" s="0" t="s">
+        <x:v>1163</x:v>
       </x:c>
     </x:row>
     <x:row r="511" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B511" s="1" t="s">
-        <x:v>1244</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="C511" s="1" t="s">
-        <x:v>1245</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="D511" s="0" t="s">
-        <x:v>1246</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="E511" s="0" t="s">
-        <x:v>1247</x:v>
+        <x:v>1261</x:v>
       </x:c>
     </x:row>
     <x:row r="512" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B512" s="1" t="s">
-        <x:v>1248</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="C512" s="1" t="s">
-        <x:v>1247</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="F512" s="1" t="s">
-        <x:v>1249</x:v>
+        <x:v>1263</x:v>
       </x:c>
     </x:row>
     <x:row r="513" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B513" s="1" t="s">
-        <x:v>1250</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="C513" s="1" t="s">
-        <x:v>1251</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="F513" s="1" t="s">
-        <x:v>1252</x:v>
+        <x:v>1266</x:v>
       </x:c>
     </x:row>
     <x:row r="514" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B514" s="1" t="s">
-        <x:v>1253</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="C514" s="1" t="s">
-        <x:v>1254</x:v>
+        <x:v>1268</x:v>
       </x:c>
     </x:row>
     <x:row r="515" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B515" s="1" t="s">
-        <x:v>1255</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="C515" s="1" t="s">
-        <x:v>1256</x:v>
+        <x:v>1270</x:v>
       </x:c>
     </x:row>
     <x:row r="516" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B516" s="1" t="s">
-        <x:v>1257</x:v>
+        <x:v>1271</x:v>
       </x:c>
       <x:c r="C516" s="1" t="s">
-        <x:v>1258</x:v>
+        <x:v>1272</x:v>
       </x:c>
     </x:row>
     <x:row r="517" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B517" s="1" t="s">
-        <x:v>1259</x:v>
+        <x:v>1273</x:v>
       </x:c>
       <x:c r="C517" s="1" t="s">
-        <x:v>1260</x:v>
+        <x:v>1274</x:v>
       </x:c>
     </x:row>
     <x:row r="518" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B518" s="1" t="s">
-        <x:v>1261</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="C518" s="1" t="s">
-        <x:v>1262</x:v>
+        <x:v>1276</x:v>
       </x:c>
       <x:c r="F518" s="1" t="s">
-        <x:v>1263</x:v>
+        <x:v>1277</x:v>
       </x:c>
     </x:row>
     <x:row r="519" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B519" s="1" t="s">
-        <x:v>1264</x:v>
+        <x:v>1278</x:v>
       </x:c>
       <x:c r="C519" s="1" t="s">
-        <x:v>1265</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="F519" s="1" t="s">
-        <x:v>1266</x:v>
+        <x:v>1280</x:v>
       </x:c>
     </x:row>
     <x:row r="520" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B520" s="1" t="s">
-        <x:v>1267</x:v>
+        <x:v>1281</x:v>
       </x:c>
       <x:c r="C520" s="1" t="s">
-        <x:v>1268</x:v>
+        <x:v>1282</x:v>
       </x:c>
       <x:c r="F520" s="1" t="s">
-        <x:v>1269</x:v>
+        <x:v>1283</x:v>
       </x:c>
     </x:row>
     <x:row r="521" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B521" s="1" t="s">
-        <x:v>1270</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="C521" s="1" t="s">
-        <x:v>1271</x:v>
+        <x:v>1285</x:v>
       </x:c>
       <x:c r="D521" s="0" t="s">
-        <x:v>1272</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="E521" s="0" t="s">
-        <x:v>1273</x:v>
+        <x:v>1287</x:v>
       </x:c>
     </x:row>
     <x:row r="522" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B522" s="1" t="s">
-        <x:v>1274</x:v>
+        <x:v>1288</x:v>
       </x:c>
       <x:c r="C522" s="1" t="s">
-        <x:v>1275</x:v>
+        <x:v>1289</x:v>
       </x:c>
     </x:row>
     <x:row r="523" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B523" s="1" t="s">
-        <x:v>1276</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="C523" s="1" t="s">
-        <x:v>1277</x:v>
+        <x:v>1291</x:v>
       </x:c>
     </x:row>
     <x:row r="524" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B524" s="1" t="s">
-        <x:v>1278</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="C524" s="1" t="s">
-        <x:v>1279</x:v>
+        <x:v>1293</x:v>
       </x:c>
     </x:row>
     <x:row r="525" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B525" s="1" t="s">
-        <x:v>1280</x:v>
+        <x:v>1294</x:v>
       </x:c>
       <x:c r="C525" s="1" t="s">
-        <x:v>1281</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="526" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B526" s="1" t="s">
-        <x:v>1282</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="C526" s="1" t="s">
-        <x:v>1283</x:v>
+        <x:v>1297</x:v>
       </x:c>
     </x:row>
     <x:row r="527" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B527" s="1" t="s">
-        <x:v>1284</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="C527" s="1" t="s">
-        <x:v>1285</x:v>
+        <x:v>1299</x:v>
       </x:c>
     </x:row>
     <x:row r="528" spans="1:7" ht="356.25" customHeight="1">
       <x:c r="B528" s="1" t="s">
-        <x:v>1286</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="C528" s="1" t="s">
-        <x:v>1287</x:v>
+        <x:v>1301</x:v>
       </x:c>
       <x:c r="F528" s="1" t="s">
-        <x:v>1288</x:v>
+        <x:v>1302</x:v>
       </x:c>
     </x:row>
     <x:row r="529" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B529" s="1" t="s">
-        <x:v>1289</x:v>
+        <x:v>1303</x:v>
       </x:c>
       <x:c r="C529" s="1" t="s">
-        <x:v>1290</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="F529" s="1" t="s">
-        <x:v>1291</x:v>
+        <x:v>1305</x:v>
       </x:c>
     </x:row>
     <x:row r="530" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B530" s="1" t="s">
-        <x:v>1292</x:v>
+        <x:v>1306</x:v>
       </x:c>
       <x:c r="C530" s="1" t="s">
-        <x:v>1293</x:v>
+        <x:v>1307</x:v>
       </x:c>
       <x:c r="F530" s="1" t="s">
-        <x:v>1294</x:v>
+        <x:v>1308</x:v>
       </x:c>
     </x:row>
     <x:row r="531" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B531" s="1" t="s">
-        <x:v>1295</x:v>
+        <x:v>1309</x:v>
       </x:c>
       <x:c r="C531" s="1" t="s">
-        <x:v>1296</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="D531" s="0" t="s">
-        <x:v>1297</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="E531" s="0" t="s">
-        <x:v>1298</x:v>
+        <x:v>1312</x:v>
       </x:c>
     </x:row>
     <x:row r="532" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B532" s="1" t="s">
-        <x:v>1299</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="C532" s="1" t="s">
-        <x:v>1300</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="F532" s="1" t="s">
-        <x:v>1301</x:v>
+        <x:v>1315</x:v>
       </x:c>
     </x:row>
     <x:row r="533" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B533" s="1" t="s">
-        <x:v>1302</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="C533" s="1" t="s">
-        <x:v>1303</x:v>
+        <x:v>1317</x:v>
       </x:c>
     </x:row>
     <x:row r="534" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B534" s="1" t="s">
-        <x:v>1304</x:v>
+        <x:v>1318</x:v>
       </x:c>
       <x:c r="C534" s="1" t="s">
-        <x:v>1305</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="F534" s="1" t="s">
-        <x:v>1306</x:v>
+        <x:v>1320</x:v>
       </x:c>
     </x:row>
     <x:row r="535" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B535" s="1" t="s">
-        <x:v>1307</x:v>
+        <x:v>1321</x:v>
       </x:c>
       <x:c r="C535" s="1" t="s">
-        <x:v>1308</x:v>
+        <x:v>1322</x:v>
       </x:c>
     </x:row>
     <x:row r="536" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B536" s="1" t="s">
-        <x:v>1309</x:v>
+        <x:v>1323</x:v>
       </x:c>
       <x:c r="C536" s="1" t="s">
-        <x:v>1310</x:v>
+        <x:v>1324</x:v>
       </x:c>
     </x:row>
     <x:row r="537" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B537" s="1" t="s">
-        <x:v>1311</x:v>
+        <x:v>1325</x:v>
       </x:c>
       <x:c r="C537" s="1" t="s">
-        <x:v>1312</x:v>
+        <x:v>1326</x:v>
       </x:c>
     </x:row>
     <x:row r="538" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B538" s="1" t="s">
-        <x:v>1313</x:v>
+        <x:v>1327</x:v>
       </x:c>
       <x:c r="C538" s="1" t="s">
-        <x:v>1314</x:v>
+        <x:v>1328</x:v>
       </x:c>
     </x:row>
     <x:row r="539" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B539" s="1" t="s">
-        <x:v>1315</x:v>
+        <x:v>1329</x:v>
       </x:c>
       <x:c r="C539" s="1" t="s">
-        <x:v>1316</x:v>
+        <x:v>1330</x:v>
       </x:c>
     </x:row>
     <x:row r="540" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B540" s="1" t="s">
-        <x:v>1317</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="C540" s="1" t="s">
-        <x:v>1318</x:v>
+        <x:v>1332</x:v>
       </x:c>
       <x:c r="F540" s="1" t="s">
-        <x:v>1319</x:v>
+        <x:v>1333</x:v>
       </x:c>
     </x:row>
     <x:row r="541" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B541" s="1" t="s">
-        <x:v>1320</x:v>
+        <x:v>1334</x:v>
       </x:c>
       <x:c r="C541" s="1" t="s">
-        <x:v>1321</x:v>
+        <x:v>1335</x:v>
       </x:c>
       <x:c r="D541" s="0" t="s">
-        <x:v>1322</x:v>
+        <x:v>1336</x:v>
       </x:c>
       <x:c r="E541" s="0" t="s">
-        <x:v>1323</x:v>
+        <x:v>1337</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B542" s="1" t="s">
-        <x:v>1324</x:v>
+        <x:v>1338</x:v>
       </x:c>
       <x:c r="C542" s="1" t="s">
-        <x:v>1325</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="F542" s="1" t="s">
-        <x:v>1326</x:v>
+        <x:v>1340</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B543" s="1" t="s">
-        <x:v>1327</x:v>
+        <x:v>1341</x:v>
       </x:c>
       <x:c r="C543" s="1" t="s">
-        <x:v>1323</x:v>
+        <x:v>1337</x:v>
       </x:c>
     </x:row>
     <x:row r="544" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B544" s="1" t="s">
-        <x:v>1328</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="C544" s="1" t="s">
-        <x:v>1329</x:v>
+        <x:v>1343</x:v>
       </x:c>
     </x:row>
     <x:row r="545" spans="1:7" ht="187.5" customHeight="1">
       <x:c r="B545" s="1" t="s">
-        <x:v>1330</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="C545" s="1" t="s">
-        <x:v>1331</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="F545" s="1" t="s">
-        <x:v>1332</x:v>
+        <x:v>1346</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B546" s="1" t="s">
-        <x:v>1333</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="C546" s="1" t="s">
-        <x:v>1334</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="F546" s="1" t="s">
-        <x:v>1335</x:v>
+        <x:v>1349</x:v>
       </x:c>
     </x:row>
     <x:row r="547" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B547" s="1" t="s">
-        <x:v>1336</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="C547" s="1" t="s">
-        <x:v>1337</x:v>
+        <x:v>1351</x:v>
       </x:c>
       <x:c r="F547" s="1" t="s">
-        <x:v>1338</x:v>
+        <x:v>1352</x:v>
       </x:c>
     </x:row>
     <x:row r="548" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B548" s="1" t="s">
-        <x:v>1339</x:v>
+        <x:v>1353</x:v>
       </x:c>
       <x:c r="C548" s="1" t="s">
-        <x:v>1340</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="F548" s="1" t="s">
-        <x:v>1341</x:v>
+        <x:v>1355</x:v>
       </x:c>
     </x:row>
     <x:row r="549" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B549" s="1" t="s">
-        <x:v>1342</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="C549" s="1" t="s">
-        <x:v>1343</x:v>
+        <x:v>1357</x:v>
       </x:c>
       <x:c r="F549" s="1" t="s">
-        <x:v>1344</x:v>
+        <x:v>1358</x:v>
       </x:c>
     </x:row>
     <x:row r="550" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B550" s="1" t="s">
-        <x:v>1345</x:v>
+        <x:v>1359</x:v>
       </x:c>
       <x:c r="C550" s="1" t="s">
-        <x:v>1346</x:v>
+        <x:v>1360</x:v>
       </x:c>
       <x:c r="F550" s="1" t="s">
-        <x:v>1347</x:v>
+        <x:v>1361</x:v>
       </x:c>
     </x:row>
     <x:row r="551" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B551" s="1" t="s">
-        <x:v>1348</x:v>
+        <x:v>1362</x:v>
       </x:c>
       <x:c r="C551" s="1" t="s">
-        <x:v>1349</x:v>
+        <x:v>1363</x:v>
       </x:c>
       <x:c r="D551" s="0" t="s">
-        <x:v>1350</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="E551" s="0" t="s">
-        <x:v>1351</x:v>
+        <x:v>1365</x:v>
       </x:c>
     </x:row>
     <x:row r="552" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B552" s="1" t="s">
-        <x:v>1352</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="C552" s="1" t="s">
-        <x:v>1353</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="553" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B553" s="1" t="s">
-        <x:v>1354</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="C553" s="1" t="s">
-        <x:v>1355</x:v>
+        <x:v>1369</x:v>
       </x:c>
     </x:row>
     <x:row r="554" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B554" s="1" t="s">
-        <x:v>1356</x:v>
+        <x:v>1370</x:v>
       </x:c>
       <x:c r="C554" s="1" t="s">
-        <x:v>1357</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="F554" s="1" t="s">
-        <x:v>1358</x:v>
+        <x:v>1372</x:v>
       </x:c>
     </x:row>
     <x:row r="555" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B555" s="1" t="s">
-        <x:v>1359</x:v>
+        <x:v>1373</x:v>
       </x:c>
       <x:c r="C555" s="1" t="s">
-        <x:v>1360</x:v>
+        <x:v>1374</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B556" s="1" t="s">
-        <x:v>1361</x:v>
+        <x:v>1375</x:v>
       </x:c>
       <x:c r="C556" s="1" t="s">
-        <x:v>1362</x:v>
+        <x:v>1376</x:v>
       </x:c>
     </x:row>
     <x:row r="557" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B557" s="1" t="s">
-        <x:v>1363</x:v>
+        <x:v>1377</x:v>
       </x:c>
       <x:c r="C557" s="1" t="s">
-        <x:v>1364</x:v>
+        <x:v>1378</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B558" s="1" t="s">
-        <x:v>1365</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="C558" s="1" t="s">
-        <x:v>1366</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="F558" s="1" t="s">
-        <x:v>1367</x:v>
+        <x:v>1381</x:v>
       </x:c>
     </x:row>
     <x:row r="559" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B559" s="1" t="s">
-        <x:v>1368</x:v>
+        <x:v>1382</x:v>
       </x:c>
       <x:c r="C559" s="1" t="s">
-        <x:v>1369</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="F559" s="1" t="s">
-        <x:v>1370</x:v>
+        <x:v>1384</x:v>
       </x:c>
     </x:row>
     <x:row r="560" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B560" s="1" t="s">
-        <x:v>1371</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="C560" s="1" t="s">
-        <x:v>1372</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="F560" s="1" t="s">
-        <x:v>1373</x:v>
+        <x:v>1387</x:v>
       </x:c>
     </x:row>
     <x:row r="561" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B561" s="1" t="s">
-        <x:v>1374</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="C561" s="1" t="s">
-        <x:v>1375</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="D561" s="0" t="s">
-        <x:v>1376</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="E561" s="0" t="s">
-        <x:v>1377</x:v>
+        <x:v>1391</x:v>
       </x:c>
     </x:row>
     <x:row r="562" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B562" s="1" t="s">
-        <x:v>1378</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="C562" s="1" t="s">
-        <x:v>1379</x:v>
+        <x:v>1393</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B563" s="1" t="s">
-        <x:v>1380</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="C563" s="1" t="s">
-        <x:v>1381</x:v>
+        <x:v>1395</x:v>
       </x:c>
       <x:c r="F563" s="1" t="s">
-        <x:v>1382</x:v>
+        <x:v>1396</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B564" s="1" t="s">
-        <x:v>1383</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="C564" s="1" t="s">
-        <x:v>1384</x:v>
+        <x:v>1398</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B565" s="1" t="s">
-        <x:v>1385</x:v>
+        <x:v>1399</x:v>
       </x:c>
       <x:c r="C565" s="1" t="s">
-        <x:v>1386</x:v>
+        <x:v>1400</x:v>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B566" s="1" t="s">
-        <x:v>1387</x:v>
+        <x:v>1401</x:v>
       </x:c>
       <x:c r="C566" s="1" t="s">
-        <x:v>1388</x:v>
+        <x:v>1402</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B567" s="1" t="s">
-        <x:v>1389</x:v>
+        <x:v>1403</x:v>
       </x:c>
       <x:c r="C567" s="1" t="s">
-        <x:v>1390</x:v>
+        <x:v>1404</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B568" s="1" t="s">
-        <x:v>1391</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="C568" s="1" t="s">
-        <x:v>1392</x:v>
+        <x:v>1406</x:v>
       </x:c>
     </x:row>
     <x:row r="569" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B569" s="1" t="s">
-        <x:v>1393</x:v>
+        <x:v>1407</x:v>
       </x:c>
       <x:c r="C569" s="1" t="s">
-        <x:v>1394</x:v>
+        <x:v>1408</x:v>
       </x:c>
       <x:c r="F569" s="1" t="s">
-        <x:v>1395</x:v>
+        <x:v>1409</x:v>
       </x:c>
     </x:row>
     <x:row r="570" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B570" s="1" t="s">
-        <x:v>1396</x:v>
+        <x:v>1410</x:v>
       </x:c>
       <x:c r="C570" s="1" t="s">
-        <x:v>1397</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="F570" s="1" t="s">
-        <x:v>1398</x:v>
+        <x:v>1412</x:v>
       </x:c>
     </x:row>
     <x:row r="571" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B571" s="1" t="s">
-        <x:v>1399</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="C571" s="1" t="s">
-        <x:v>1400</x:v>
+        <x:v>1414</x:v>
       </x:c>
       <x:c r="D571" s="0" t="s">
-        <x:v>1401</x:v>
+        <x:v>1415</x:v>
       </x:c>
       <x:c r="E571" s="0" t="s">
-        <x:v>1402</x:v>
+        <x:v>1416</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B572" s="1" t="s">
-        <x:v>1403</x:v>
+        <x:v>1417</x:v>
       </x:c>
       <x:c r="C572" s="1" t="s">
-        <x:v>1404</x:v>
+        <x:v>1418</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B573" s="1" t="s">
-        <x:v>1405</x:v>
+        <x:v>1419</x:v>
       </x:c>
       <x:c r="C573" s="1" t="s">
-        <x:v>1406</x:v>
+        <x:v>1420</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B574" s="1" t="s">
-        <x:v>1407</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="C574" s="1" t="s">
-        <x:v>1408</x:v>
+        <x:v>1422</x:v>
       </x:c>
     </x:row>
     <x:row r="575" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B575" s="1" t="s">
-        <x:v>1409</x:v>
+        <x:v>1423</x:v>
       </x:c>
       <x:c r="C575" s="1" t="s">
-        <x:v>1410</x:v>
+        <x:v>1424</x:v>
       </x:c>
     </x:row>
     <x:row r="576" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B576" s="1" t="s">
-        <x:v>1411</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="C576" s="1" t="s">
-        <x:v>1412</x:v>
+        <x:v>1426</x:v>
       </x:c>
     </x:row>
     <x:row r="577" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B577" s="1" t="s">
-        <x:v>1413</x:v>
+        <x:v>1427</x:v>
       </x:c>
       <x:c r="C577" s="1" t="s">
-        <x:v>1414</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>1415</x:v>
+        <x:v>1429</x:v>
       </x:c>
     </x:row>
     <x:row r="578" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B578" s="1" t="s">
-        <x:v>1416</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="C578" s="1" t="s">
-        <x:v>1417</x:v>
+        <x:v>1431</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B579" s="1" t="s">
-        <x:v>1418</x:v>
+        <x:v>1432</x:v>
       </x:c>
       <x:c r="C579" s="1" t="s">
-        <x:v>1419</x:v>
+        <x:v>1433</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B580" s="1" t="s">
-        <x:v>1420</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="C580" s="1" t="s">
-        <x:v>1421</x:v>
+        <x:v>1435</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B581" s="1" t="s">
-        <x:v>1422</x:v>
+        <x:v>1436</x:v>
       </x:c>
       <x:c r="C581" s="1" t="s">
-        <x:v>1423</x:v>
+        <x:v>1437</x:v>
       </x:c>
       <x:c r="D581" s="0" t="s">
-        <x:v>1424</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="E581" s="0" t="s">
-        <x:v>1425</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="F581" s="1" t="s">
-        <x:v>1426</x:v>
+        <x:v>1440</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B582" s="1" t="s">
-        <x:v>1427</x:v>
+        <x:v>1441</x:v>
       </x:c>
       <x:c r="C582" s="1" t="s">
-        <x:v>1428</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>1429</x:v>
+        <x:v>1443</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:7" ht="375" customHeight="1">
       <x:c r="B583" s="1" t="s">
-        <x:v>1430</x:v>
+        <x:v>1444</x:v>
       </x:c>
       <x:c r="C583" s="1" t="s">
-        <x:v>1431</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="F583" s="1" t="s">
-        <x:v>1432</x:v>
+        <x:v>1446</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:7" ht="300" customHeight="1">
       <x:c r="B584" s="1" t="s">
-        <x:v>1433</x:v>
+        <x:v>1447</x:v>
       </x:c>
       <x:c r="C584" s="1" t="s">
-        <x:v>1434</x:v>
+        <x:v>1448</x:v>
       </x:c>
       <x:c r="F584" s="1" t="s">
-        <x:v>1435</x:v>
+        <x:v>1449</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B585" s="1" t="s">
-        <x:v>1436</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="C585" s="1" t="s">
-        <x:v>1437</x:v>
+        <x:v>1451</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B586" s="1" t="s">
-        <x:v>1438</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="C586" s="1" t="s">
-        <x:v>1439</x:v>
+        <x:v>1453</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B587" s="1" t="s">
-        <x:v>1440</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="C587" s="1" t="s">
-        <x:v>1441</x:v>
+        <x:v>1455</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:7" ht="75" customHeight="1">
       <x:c r="B588" s="1" t="s">
-        <x:v>1442</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="C588" s="1" t="s">
-        <x:v>1443</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="F588" s="1" t="s">
-        <x:v>1444</x:v>
+        <x:v>1458</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B589" s="1" t="s">
-        <x:v>1445</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="C589" s="1" t="s">
-        <x:v>1446</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="F589" s="1" t="s">
-        <x:v>1447</x:v>
+        <x:v>1461</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:7" ht="262.5" customHeight="1">
       <x:c r="B590" s="1" t="s">
-        <x:v>1448</x:v>
+        <x:v>1462</x:v>
       </x:c>
       <x:c r="C590" s="1" t="s">
-        <x:v>1449</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="F590" s="1" t="s">
-        <x:v>1450</x:v>
+        <x:v>1464</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B591" s="1" t="s">
-        <x:v>1451</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="C591" s="1" t="s">
-        <x:v>1452</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="D591" s="0" t="s">
-        <x:v>1453</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="E591" s="0" t="s">
-        <x:v>1454</x:v>
+        <x:v>1468</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B592" s="1" t="s">
-        <x:v>1455</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="C592" s="1" t="s">
-        <x:v>1456</x:v>
+        <x:v>1470</x:v>
       </x:c>
     </x:row>
     <x:row r="593" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B593" s="1" t="s">
-        <x:v>1457</x:v>
+        <x:v>1471</x:v>
       </x:c>
       <x:c r="C593" s="1" t="s">
-        <x:v>1458</x:v>
+        <x:v>1472</x:v>
       </x:c>
     </x:row>
     <x:row r="594" spans="1:7" ht="75" customHeight="1">
       <x:c r="B594" s="1" t="s">
-        <x:v>1459</x:v>
+        <x:v>1473</x:v>
       </x:c>
       <x:c r="C594" s="1" t="s">
-        <x:v>1460</x:v>
+        <x:v>1474</x:v>
       </x:c>
       <x:c r="F594" s="1" t="s">
-        <x:v>1461</x:v>
+        <x:v>1475</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B595" s="1" t="s">
-        <x:v>1462</x:v>
+        <x:v>1476</x:v>
       </x:c>
       <x:c r="C595" s="1" t="s">
-        <x:v>1463</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="F595" s="1" t="s">
-        <x:v>1464</x:v>
+        <x:v>1478</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B596" s="1" t="s">
-        <x:v>1465</x:v>
+        <x:v>1479</x:v>
       </x:c>
       <x:c r="C596" s="1" t="s">
-        <x:v>1466</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
-        <x:v>1467</x:v>
+        <x:v>1481</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B597" s="1" t="s">
-        <x:v>1468</x:v>
+        <x:v>1482</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
-        <x:v>1469</x:v>
+        <x:v>1483</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B598" s="1" t="s">
-        <x:v>1470</x:v>
+        <x:v>1484</x:v>
       </x:c>
       <x:c r="C598" s="1" t="s">
-        <x:v>1471</x:v>
+        <x:v>1485</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B599" s="1" t="s">
-        <x:v>1472</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="C599" s="1" t="s">
-        <x:v>1473</x:v>
+        <x:v>1487</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B600" s="1" t="s">
-        <x:v>1474</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>1475</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="F600" s="1" t="s">
-        <x:v>1476</x:v>
+        <x:v>1490</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -16582,7 +17544,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="15.335625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="17.210625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="50.375" style="0" customWidth="1"/>
@@ -16761,7 +17723,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1477</x:v>
+        <x:v>1491</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="18.75" customHeight="1">
@@ -16788,7 +17750,7 @@
         <x:v>583</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1478</x:v>
+        <x:v>1492</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3" ht="18.75" customHeight="1">
@@ -16951,7 +17913,7 @@
         <x:v>1083</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1479</x:v>
+        <x:v>1493</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3" ht="18.75" customHeight="1">
@@ -16959,7 +17921,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>1109</x:v>
+        <x:v>1111</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3" ht="18.75" customHeight="1">
@@ -16967,7 +17929,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>1131</x:v>
+        <x:v>1136</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3" ht="18.75" customHeight="1">
@@ -16975,7 +17937,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>1153</x:v>
+        <x:v>1160</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3" ht="18.75" customHeight="1">
@@ -16983,7 +17945,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>1175</x:v>
+        <x:v>1187</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3" ht="18.75" customHeight="1">
@@ -16991,7 +17953,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>1200</x:v>
+        <x:v>1213</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3" ht="18.75" customHeight="1">
@@ -16999,7 +17961,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>1223</x:v>
+        <x:v>1236</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3" ht="18.75" customHeight="1">
@@ -17007,7 +17969,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>1246</x:v>
+        <x:v>1260</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3" ht="18.75" customHeight="1">
@@ -17015,7 +17977,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>1272</x:v>
+        <x:v>1286</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3" ht="18.75" customHeight="1">
@@ -17023,7 +17985,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>1297</x:v>
+        <x:v>1311</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3" ht="18.75" customHeight="1">
@@ -17031,7 +17993,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>1322</x:v>
+        <x:v>1336</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3" ht="18.75" customHeight="1">
@@ -17039,7 +18001,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>1350</x:v>
+        <x:v>1364</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3" ht="18.75" customHeight="1">
@@ -17047,7 +18009,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>1376</x:v>
+        <x:v>1390</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" ht="18.75" customHeight="1">
@@ -17055,7 +18017,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>1401</x:v>
+        <x:v>1415</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3" ht="18.75" customHeight="1">
@@ -17063,7 +18025,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>1424</x:v>
+        <x:v>1438</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3" ht="18.75" customHeight="1">
@@ -17071,7 +18033,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>1453</x:v>
+        <x:v>1467</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -9285,6 +9285,46 @@
     <x:t>No se debe tratar a los animales así.</x:t>
   </x:si>
   <x:si>
+    <x:t>この文の **「debe」** は **動詞「deber」の三人称単数現在形** で、
+意味は **「～すべきである」「～するのが適切である」** です。  
+---
+## **📌 No se debe tratar a los animales así.**  
+→ 「動物をそのように扱うべきではない。」
+---
+### **🔹 「deber + 動詞の原形」の意味**
+**「deber + 動詞の原形」** は「義務」「必要性」「道徳的な勧告」を表します。  
+✅ **例文**  
+✔ **Debes estudiar más.**  
+→ 「もっと勉強すべきだ。」（義務・助言）  
+✔ **Se debe respetar a los mayores.**  
+→ 「年長者は敬うべきだ。」（道徳的な義務）  
+---
+### **🔹 「No se debe ～」の使い方**
+「No se debe + 動詞の原形」の形をとると、
+**「～してはいけない」「～するべきではない」** という意味になります。  
+✅ **例文**  
+✔ **No se debe fumar en los hospitales.**  
+→ 「病院でタバコを吸ってはいけない。」  
+✔ **No se debe hablar con la boca llena.**  
+→ 「口に食べ物を入れたまま話すべきではない。」  
+---
+### **🔹 受動的な表現（無人称 se）**
+今回の文 **「No se debe tratar a los animales así.」** では **無人称構文「se」** を使っています。  
+これは「一般的に」「人々は」といった意味を含み、主語を特定しない表現です。  
+✅ 言い換えると...  
+- **La gente no debe tratar a los animales así.**  
+- **No debemos tratar a los animales así.**  
+---
+### **🔹 まとめ**
+- **「deber + 動詞の原形」** = 「～すべき」「～する必要がある」
+- **「No se debe + 動詞」** = 「～してはいけない」「～するべきではない」
+- **「se」** を使うと「一般的な義務・禁止事項」のニュアンスになる
+この形はルールやマナーを述べるときによく使われるので、日常会話や文章で役立ちますよ！ 😊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/06</x:t>
+  </x:si>
+  <x:si>
     <x:t>「ここから君の家までどれくらいかかるの？」
 「地下鉄で10分ほどです」</x:t>
   </x:si>
@@ -9299,6 +9339,104 @@
     <x:t>En Japón se cena antes que en España.</x:t>
   </x:si>
   <x:si>
+    <x:t>### **🔹 「antes de」「antes que」「antes de que」の使い分け**  
+「antes（前に）」を含む3つの表現 **"antes de" "antes que" "antes de que"** は、
+それぞれ **異なる文法的な使い方** をします。  
+---
+## **🟢 ① antes de + 名詞 / 動詞の原形**  
+➡ **「～の前に / ～する前に」**（前置詞）  
+📌 **名詞や不定詞（動詞の原形）を伴う。**  
+✅ **Antes de + 名詞**  
+- **Antes de la cena, daremos un paseo.**  
+  （夕食の前に散歩をします。）  
+- **Antes del examen, voy a repasar.**  
+  （試験の前に復習するつもりです。）  
+✅ **Antes de + 動詞の原形**（不定詞）  
+- **Lávate las manos antes de comer.**  
+  （食べる前に手を洗いなさい。）  
+- **Quiero hablar contigo antes de salir.**  
+  （出かける前に君と話したい。）  
+📍 **💡 ポイント：**
+- 名詞・不定詞の **直前に使う**。  
+- **主語が変わらないときは不定詞を使う**（例：antes de salir）。  
+- **主語が変わる場合は "antes de que" を使う。**（後述）  
+---
+## **🟠 ② antes que + 代名詞 / 名詞 / 動詞の原形**  
+➡ **「～よりも先に / ～よりもむしろ」**（比較）  
+📌 **比較の "que" を使うので、主に「～より前に」「～よりもむしろ」という意味で使われる。**  
+✅ **Antes que + 代名詞 / 名詞**  
+- **Prefiero morir antes que rendirme.**  
+  （降参するくらいなら死んだほうがましだ。）  
+- **Yo llegué antes que tú.**  
+  （私は君より先に着いた。）  
+✅ **Antes que + 動詞の原形**  
+- **Antes que discutir, prefiero callarme.**  
+  （議論するくらいなら、黙っているほうがいい。）  
+📍 **💡 ポイント：**
+- 比較を表すために **「～よりも先に」「～よりもむしろ」** というニュアンスになる。  
+- **主語が変わる場合にも使えるが、比較の意味がある。**  
+---
+## **🔴 ③ antes de que + 動詞（接続法）**  
+➡ **「～する前に」**（接続詞）  
+📌 **"antes de que" の後には、動詞の接続法（subjuntivo）が来る。**  
+✅ **Antes de que + 動詞（接続法）**  
+- **Sal de aquí antes de que empiece la reunión.**  
+  （会議が始まる前にここを出なさい。）  
+- **Voy a avisarte antes de que vayas.**  
+  （君が行く前に知らせるよ。）  
+📍 **💡 ポイント：**
+- **主語が変わる場合に使う。**  
+  - ❌ **Antes de salir.**（主語は同じ）  
+  - ✅ **Antes de que salgas.**（主語が異なる → 接続法）  
+- **接続法が使われる理由**  
+  - 「まだ起こっていない未来のこと」だから。  
+---
+## **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 構造 &lt;/th&gt;
+      &lt;th&gt; 用法 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+      &lt;th&gt;  &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; antes de + 名詞 &lt;/th&gt;
+      &lt;td&gt; 「～の前に」 &lt;/td&gt;
+      &lt;td&gt; Antes de la cena, daremos un paseo. &lt;/td&gt;
+      &lt;td&gt;  &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; antes de + 不定詞 &lt;/th&gt;
+      &lt;td&gt; 「～する前に」&lt;/td&gt;
+      &lt;td&gt; Lávate las manos antes de comer. &lt;/td&gt;
+      &lt;td&gt;  &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; antes que + 代名詞 / 動詞 &lt;/th&gt;
+      &lt;td&gt; 「～より前に / ～よりもむしろ」 &lt;/td&gt;
+      &lt;td&gt; Prefiero morir antes que rendirme. &lt;/td&gt;
+      &lt;td&gt;  &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; antes de que + 動詞（接続法） &lt;/th&gt;
+      &lt;td&gt; 「～する前に」（主語が変わる）&lt;/td&gt;
+      &lt;td&gt; Sal de aquí antes de que empiece la reunión. &lt;/td&gt;
+      &lt;td&gt;  &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **💡 どれを使えばいいか？**
+1️⃣ 名詞・不定詞を続けるなら → **"antes de"**  
+2️⃣ 「～よりも先に / ～よりもむしろ」の比較なら → **"antes que"**  
+3️⃣ 主語が変わり、「～する前に」の意味なら → **"antes de que"（接続法）**  
+💡 **「主語が変わるか？」と「比較の意味があるか？」を意識すると、
+使い分けがスムーズになります！ 😉**</x:t>
+  </x:si>
+  <x:si>
     <x:t>「美術館でパスポートを盗まれたんです」
 「もう警察に行きましたか？」</x:t>
   </x:si>
@@ -9311,6 +9449,143 @@
   </x:si>
   <x:si>
     <x:t>Uno se siente muy impotente ante una tragedia de ese calibre.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>この文の **「Uno」** と **「ante」** の使い方について、それぞれ詳しく解説します。  
+---
+## **🔹 「Uno」について**  
+### **📌 Uno se siente muy impotente ante una tragedia de ese calibre.**  
+→ 「その規模の悲劇を前にすると、人はとても無力に感じる。」
+この **「Uno」** は **不定代名詞** として使われており、「一般の人」「誰でも」といった意味を持ちます。  
+✅ **類似表現**  
+- **La gente se siente muy impotente...**（人々はとても無力に感じる）  
+- **Nos sentimos muy impotentes...**（私たちはとても無力に感じる）  
+つまり、**「Uno」** は特定の個人ではなく、「人一般」を指す表現として使われています。  
+✅ **「Uno」 を使う場合**  
+- **一般的な真理や経験を述べるとき**  
+  - **Uno nunca sabe qué puede pasar.**  
+    → 「人は何が起こるかわからないものだ。」  
+- **一般論を述べるとき**  
+  - **Cuando uno está enfermo, necesita descansar.**  
+    → 「人は病気のとき、休む必要がある。」  
+この使い方は、日本語の「人は～」「誰でも～」に相当します。  
+---
+## **🔹 「Ante」について**  
+この文の **「ante」** は **「～の前で」「～に直面して」** という意味の前置詞です。  
+✅ **「ante + 名詞」 の意味**  
+1. **物理的な「～の前で」**  
+   - **Estábamos ante la catedral.**  
+     → 「私たちは大聖堂の前にいた。」  
+2. **状況・感情的な「～に直面して」**  
+   - **Me quedé sin palabras ante su generosidad.**  
+     → 「彼の寛大さに言葉を失った。」  
+   - **No sé qué hacer ante esta situación.**  
+     → 「この状況を前にして、どうすればいいかわからない。」  
+今回の文では **「悲劇に直面して」** という意味で使われています。  
+---
+## **🔹 まとめ**
+✅ **「Uno」** = 一般的な人々を指す不定代名詞（人は～）  
+✅ **「Ante」** = 物理的・状況的に「～の前で」「～に直面して」  
+📌 **例文の意味**  
+**「Uno se siente muy impotente ante una tragedia de ese calibre.」**  
+→ 「その規模の悲劇を前にすると、人はとても無力に感じる。」  
+この構造を理解すると、スペイン語の「一般論を述べる表現」がより自然に使えるようになりますよ！ 😊
+=====
+&lt;pregunta&gt;
+「前」という意味のスペイン語はanteの他にもありますよね？
+どう使い分けるのでしょうか？
+&lt;/pregunta&gt;
+「前」という意味のスペイン語には、**「ante」** のほかにも 
+**「delante de」** や **「frente a」** などがあります。それぞれの違いと使い分けを解説します。  
+---
+## **🔹 1. 「ante」 = （状況・権威・抽象的な「前」）**
+👉 物理的な「前」よりも、**状況的・心理的な「前」** を表すことが多い。  
+✅ **主な使い方**
+1. **抽象的・比喩的な「～に直面して」**
+   - **Me quedé sin palabras ante su belleza.**  
+     → 「彼女の美しさを前にして、言葉を失った。」  
+   - **Uno se siente impotente ante una tragedia de ese calibre.**  
+     → 「その規模の悲劇を前にして、人は無力に感じる。」  
+   - **No sé qué hacer ante esta situación.**  
+     → 「この状況を前にして、どうすればいいかわからない。」
+2. **権威や規則の「前」**
+   - **Debemos comparecer ante el juez.**  
+     → 「私たちは裁判官の前に出頭しなければならない。」  
+   - **Ante la ley, todos somos iguales.**  
+     → 「法律の前では、私たちは皆平等だ。」  
+📌 **「ante」は物理的な位置よりも、状況・心理・権威の「前」に使う！**
+---
+## **🔹 2. 「delante de」 = （物理的な「前」）**
+👉 具体的に、**何かの前方に位置していること** を表す。
+✅ **主な使い方**
+- **María está delante de la casa.**  
+  → 「マリアは家の前にいる。」  
+- **El coche está aparcado delante del supermercado.**  
+  → 「車はスーパーの前に駐車されている。」  
+- **Ponte delante de mí para que te vea bien.**  
+  → 「私がよく見えるように、私の前に立って。」
+📌 **「delante de」は物理的な「前」に限定！**
+---
+## **🔹 3. 「frente a」 = （「～の正面に」）**
+👉 **「～に向かい合って」** というニュアンス。  
+「delante de」よりも、**向かい合う関係** を意識した表現。  
+✅ **主な使い方**
+- **El banco está frente a la plaza.**  
+  → 「銀行は広場の正面にある。」  
+- **Nos sentamos frente a la chimenea.**  
+  → 「私たちは暖炉の正面に座った。」  
+- **Estaba de pie frente al espejo.**  
+  → 「彼は鏡の前に立っていた。」
+📌 **「frente a」は「正面に向かっている」ことを強調！**
+---
+## **🔹 4. 「enfrente de」 = （「～の向かい側に」）**
+👉 「frente a」と似ているが、**より具体的に「向かい側にある」** という意味。
+✅ **主な使い方**
+- **La farmacia está enfrente de la panadería.**  
+  → 「薬局はパン屋の向かいにある。」  
+- **El hotel está justo enfrente de la estación.**  
+  → 「ホテルは駅の真向かいにある。」  
+📌 **「frente a」よりも「対面・向かい側」の位置関係を強調！**
+---
+## **🔹 まとめ（使い分け）**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; スペイン語 &lt;/th&gt;
+      &lt;th&gt; 使い方 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ante &lt;/th&gt;
+      &lt;td&gt; 状況・心理・権威の「前」 &lt;/td&gt;
+      &lt;td&gt; Ante la ley, todos somos iguales.（法律の前では平等だ。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; delante de &lt;/th&gt;
+      &lt;td&gt; 物理的な「前」 &lt;/td&gt;
+      &lt;td&gt; El coche está delante del supermercado.（車はスーパーの前にある。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; frente a &lt;/th&gt;
+      &lt;td&gt; 「正面に向かっている」 &lt;/td&gt;
+      &lt;td&gt; Nos sentamos frente a la chimenea.（暖炉の正面に座った。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; enfrente de &lt;/th&gt;
+      &lt;td&gt; 「向かい側にある」 &lt;/td&gt;
+      &lt;td&gt; La farmacia está enfrente de la panadería.（薬局はパン屋の向かいにある。） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **✅ まとめのポイント**
+1. **抽象的な「前」** → **「ante」**（状況・心理・権威）
+2. **物理的な「前」** → **「delante de」**
+3. **正面に向かっている「前」** → **「frente a」**
+4. **向かい側の「前」** → **「enfrente de」**
+この違いを意識すると、使い分けがスムーズになりますよ！ 😊</x:t>
   </x:si>
   <x:si>
     <x:t>夏は42度にまでなることがあるそうです</x:t>
@@ -9649,6 +9924,182 @@
     <x:t>¡No sabes el hambre que tengo!</x:t>
   </x:si>
   <x:si>
+    <x:t>### **📌 スペイン語の強調構文まとめ**  
+スペイン語では、話し手の意図を強調するためにさまざまな表現が使われます。  
+以下に、よく使われる強調構文をまとめました。  
+---
+## **🔹 ① lo + 形容詞・副詞 + que**
+**✅「どれだけ〜か」「いかに〜か」を強調する表現**  
+### **🔸 構造**
+**lo + 形容詞・副詞 + que + 動詞（主節）**  
+### **🔸 例文**
+- **No te imaginas lo difícil que fue.**  
+  → 「どれだけ大変だったか君には想像もつかないよ。」
+- **Sabes lo caro que es ese coche.**  
+  → 「あの車がどれだけ高いか知ってる？」
+- **¡Lo rápido que corrió!**  
+  → 「なんて速く走ったんだ！」
+---
+## **🔹 ② Qué + 形容詞 / 副詞 / 名詞**
+**✅「なんて〜なんだ！」（感嘆文）**  
+### **🔸 構造**
+**¡Qué + 形容詞 / 副詞 / 名詞!**  
+### **🔸 例文**
+- **¡Qué bonito es este lugar!**  
+  → 「なんて美しい場所なんだ！」  
+- **¡Qué bien hablas español!**  
+  → 「なんて上手にスペイン語を話すんだ！」  
+- **¡Qué de gente!**  
+  → 「すごい人の数だね！」  
+📌 **ポイント：「Qué de + 名詞」=「たくさんの〜」**
+- **¡Qué de problemas tienes!**  
+  → 「なんてたくさんの問題を抱えてるんだ！」
+---
+## **🔹 ③ Si + 直説法**
+**✅「本当に〜なんだから！」**  
+### **🔸 構造**
+**Si + 直説法（主語 + 動詞）**  
+### **🔸 例文**
+- **¡Si es muy fácil!**  
+  → 「めちゃくちゃ簡単なんだから！」  
+- **¡Si yo no he hecho nada!**  
+  → 「本当に何もしてないんだから！」  
+---
+## **🔹 ④ Menudo/a/os/as + 名詞**
+**✅「とんでもない〜だ！」**  
+### **🔸 構造**
+**¡Menudo/a/os/as + 名詞!**  
+### **🔸 例文**
+- **¡Menudo coche tienes!**  
+  → 「すごい車持ってるね！」  
+- **¡Menuda tormenta cayó ayer!**  
+  → 「昨日はとんでもない嵐だったね！」  
+📌 「menudo」は「小さい」という意味もあるが、
+強調構文では「すごい」「とんでもない」という意味になる。
+---
+## **🔹 ⑤ Hasta + 主語 + 動詞**
+**✅「〜さえも」「〜でさえ」**  
+### **🔸 構造**
+**Hasta + 主語 + 動詞**  
+### **🔸 例文**
+- **Hasta mi abuelo usa WhatsApp.**  
+  → 「おじいちゃんでさえWhatsAppを使ってるよ。」  
+- **Hasta los niños entienden esto.**  
+  → 「子どもでさえこれを理解できるよ。」  
+---
+## **🔹 ⑥ Ni que + 接続法**
+**✅「まるで〜みたいだ！」（皮肉や驚きを込めて）**  
+### **🔸 構造**
+**¡Ni que + 接続法!**  
+### **🔸 例文**
+- **¡Ni que fuera millonario!**  
+  → 「まるで大富豪みたいじゃないか！」  
+- **¡Ni que no me conocieras!**  
+  → 「まるで私のこと知らないみたいじゃないか！」  
+📌 **「Ni que + 過去接続法」** で「まるで〜みたいだ」と非現実的なことを強調する。
+---
+## **🔹 ⑦ Vaya + 名詞**
+**✅「なんて〜だ！」**（驚き・不満・称賛）  
+### **🔸 構造**
+**¡Vaya + 名詞!**  
+### **🔸 例文**
+- **¡Vaya sorpresa!**  
+  → 「なんてびっくりなんだ！」  
+- **¡Vaya día de trabajo!**  
+  → 「なんて大変な仕事の日だったんだ！」  
+📌 **「Vaya + 名詞 + que + 動詞」** でさらに強調も可能！  
+- **¡Vaya coche que te has comprado!**  
+  → 「すごい車買ったね！」
+---
+## **🔹 ⑧ Ya + 未来形**
+**✅「きっと〜だよ！」**（確信・予測）  
+### **🔸 構造**
+**Ya + 未来形**  
+### **🔸 例文**
+- **Ya verás que todo irá bien.**  
+  → 「きっと全部うまくいくよ！」  
+- **Ya llegarán.**  
+  → 「そのうち来るよ。」  
+📌 未来形を使うことで「確信・強調」のニュアンスが出る。
+---
+## **🔹 ⑨ Hasta qué punto**
+**✅「どれほど〜か」**  
+### **🔸 構造**
+**Hasta qué punto + 動詞**  
+### **🔸 例文**
+- **No sabes hasta qué punto te quiero.**  
+  → 「君をどれほど愛しているか分からないだろう。」  
+- **No te imaginas hasta qué punto es difícil este trabajo.**  
+  → 「この仕事がどれほど難しいか君には想像もつかないよ。」  
+---
+## **🌟 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 強調構文 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; lo + 形容詞・副詞 + que &lt;/th&gt;
+      &lt;td&gt; ¡No sabes lo bien que lo pasamos! &lt;/td&gt;
+      &lt;td&gt; どれだけ楽しかったか！ &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Qué + 形容詞 / 名詞 &lt;/th&gt;
+      &lt;td&gt; ¡Qué bonito! &lt;/td&gt;
+      &lt;td&gt; なんてきれいなんだ！ &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Si + 直説法 &lt;/th&gt;
+      &lt;td&gt; ¡Si es facilísimo! &lt;/td&gt;
+      &lt;td&gt; めちゃくちゃ簡単なんだから！ &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Menudo/a + 名詞 &lt;/th&gt;
+      &lt;td&gt; ¡Menudo día! &lt;/td&gt;
+      &lt;td&gt; なんて大変な日だ！ &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Hasta + 主語 + 動詞 &lt;/th&gt;
+      &lt;td&gt; Hasta los niños lo entienden. &lt;/td&gt;
+      &lt;td&gt; 子供でさえ理解できるよ。 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Ni que + 接続法 &lt;/th&gt;
+      &lt;td&gt; ¡Ni que fuera famoso! &lt;/td&gt;
+      &lt;td&gt; まるで有名人みたいじゃないか！ &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Vaya + 名詞 &lt;/th&gt;
+      &lt;td&gt; ¡Vaya coche! &lt;/td&gt;
+      &lt;td&gt; すごい車だね！ &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Ya + 未来形 &lt;/th&gt;
+      &lt;td&gt; Ya verás. &lt;/td&gt;
+      &lt;td&gt; きっと分かるよ。 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Hasta qué punto &lt;/th&gt;
+      &lt;td&gt; No sabes hasta qué punto te quiero. &lt;/td&gt;
+      &lt;td&gt; どれほど愛しているか分からないよ。 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **✅ どれを覚えればいい？**
+💡 **日常会話でよく使うのは👇**
+- **lo + 形容詞 + que**（どれだけ〜か）
+- **¡Qué + 形容詞!**（なんて〜なんだ！）
+- **Si + 直説法**（本当に〜なんだから）
+- **Menudo/a + 名詞**（すごい〜だ！）
+- **Hasta + 主語 + 動詞**（〜でさえ）
+このあたりを意識して会話で使ってみると、より自然なスペイン語になりますよ！💪😃</x:t>
+  </x:si>
+  <x:si>
     <x:t>どれだけお腹が減ってるか分からないでしょう！</x:t>
   </x:si>
   <x:si>
@@ -9665,7 +10116,82 @@
 「tengo」は動詞 tener（持つ）の 直説法現在形、1人称単数（yo） です。
 ここでは「お腹が空いている」という状態を表現しています（tener hambre＝空腹である）。
 直訳すると、「僕が持っている空腹」のような意味になりますが、
-自然な訳だと「どれだけお腹が空いているか」といった感じです。</x:t>
+自然な訳だと「どれだけお腹が空いているか」といった感じです。
+======
+この文は、**強調表現** と **感嘆文** が組み合わさった構造になっています。
+それぞれの部分を詳しく解説しますね！  
+---
+## **🔹 文の構造を分解**
+**¡No sabes el hambre que tengo!**  
+👉 「僕がどれだけお腹が空いているか、君には分からないよ！」  
+1️⃣ **¡No sabes...!**  
+   - 「君には分からないよ！」  
+   - **「saber + 直説法現在」** を使った平叙文（直説法）。  
+   - 感情や驚きを込めるために **否定形（No）** を使っている。  
+2️⃣ **el hambre que tengo**  
+   - 「僕が持っている空腹」＝「僕がどれだけお腹が空いているか」  
+   - **「el hambre」** は女性名詞だが、h で始まるため **el** を使う。  
+   - **「que tengo」** は「関係詞 que」＋「tener の直説法現在」。  
+   - **関係詞節が「どれほどの空腹か」を説明している**。
+---
+## **🔹 ① ¡No sabes...!（「知らないよ！」）**
+文の冒頭 **「¡No sabes...!」** は、単なる事実を述べるのではなく、
+**強調** や **感情のこもった表現** になっています。  
+✅ **似た例**
+- **¡No te imaginas lo difícil que fue!**  
+  → 「どれほど大変だったか、君には想像もつかないよ！」  
+- **¡No sabes las ganas que tengo de verte!**  
+  → 「君に会いたい気持ちがどれほどか、君には分からないよ！」
+📌 **ポイント**
+- **「No sabes...」「No te imaginas...」などの否定形** は、
+「すごく〇〇だよ！」という強調表現として使われることがある。  
+- **驚きや感情を込める** ときに便利なフレーズ。
+---
+## **🔹 ② el hambre que tengo（「僕が持っている空腹」）**
+- **「el hambre」** → 「空腹」（女性名詞だが、h で始まるので「el」を使う）  
+- **「que tengo」** → 「僕が持っている（空腹）」＝「僕がどれほどお腹が空いているか」  
+📌 **この「que」は関係詞で、先行詞（el hambre）を説明している！**  
+✅ **似た構造**
+- **¡No te imaginas la sed que tengo!**  
+  → 「どれほど喉が渇いているか、君には想像もつかないよ！」  
+- **¡No sabes lo cansado que estoy!**  
+  → 「どれほど疲れているか、君には分からないよ！」
+---
+## **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 部分 &lt;/th&gt;
+      &lt;th&gt; 役割 &lt;/th&gt;
+      &lt;th&gt; 文法 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¡No sabes...! &lt;/th&gt;
+      &lt;td&gt; 「知らないよ！」（強調） &lt;/td&gt;
+      &lt;td&gt; 直説法現在 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; el hambre &lt;/th&gt;
+      &lt;td&gt; 「空腹」 &lt;/td&gt;
+      &lt;td&gt; 女性名詞だが「el」を使う &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; que tengo &lt;/th&gt;
+      &lt;td&gt; 関係詞節（空腹を説明） &lt;/td&gt;
+      &lt;td&gt; 直説法現在 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+### **日本語訳**
+👉 **「僕がどれだけお腹が空いているか、君には分からないよ！」**
+---
+## **✅ ポイント**
+1️⃣ **「¡No sabes...!」は、強調や驚きを表すフレーズとして使える！**  
+2️⃣ **「関係詞 que + 直説法現在」で、具体的な状態や程度を説明する！**  
+3️⃣ **「el hambre」は女性名詞だけど、h で始まるので el を使う！**
+この表現は、感情を込めて話したいときによく使うので、ぜひ覚えておくと便利ですよ！ 😊</x:t>
   </x:si>
   <x:si>
     <x:t>ワークショップで私たちがどれほど楽しかったか君は想像もできないよ！</x:t>
@@ -9706,12 +10232,205 @@
     <x:t>Fuiste tú la que se equivocó.</x:t>
   </x:si>
   <x:si>
+    <x:t>この文は**強調構文**になっています。構造を分解して解説しますね！  
+---
+## **🔹 文の直訳**
+👉 **「間違えたのは君だった」**  
+---
+## **🔹 文の構造**
+**Fuiste tú la que se equivocó.**  
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 部分 &lt;/th&gt;
+      &lt;th&gt; 役割 &lt;/th&gt;
+      &lt;th&gt; 解説 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Fuiste &lt;/th&gt;
+      &lt;td&gt; serの点過去（2人称単数） &lt;/td&gt;
+      &lt;td&gt; 「君だった」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; tú &lt;/th&gt;
+      &lt;td&gt; 主語（強調） &lt;/td&gt;
+      &lt;td&gt; 「君が」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; la que &lt;/th&gt;
+      &lt;td&gt; 関係詞 &lt;/td&gt;
+      &lt;td&gt; 「〜したのは（君）」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; se equivocó &lt;/th&gt;
+      &lt;td&gt; 再帰動詞equivocarse（間違える）の点過去 &lt;/td&gt;
+      &lt;td&gt; 「間違えた」 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **🔹 ① 強調構文（Ser + 主語 + 関係詞）**
+この文は **serを使った強調構文** になっています。  
+✅ **「〇〇したのは〜だ」** という形を作るときに使う！  
+```txt
+Fue + [強調する部分] + el/la que + 動詞（主語に一致）
+```
+📌 **この文のポイント**
+- **「fuiste」** = 「君だった」（点過去 ser）  
+- **「tú」** = 「君が」  
+- **「la que」** = 「間違えたのは（君）」  
+  - **関係詞 que を使い、先行詞（la）を指す！**  
+  - **先行詞 la は「una persona（女性）」を指している！**
+- **「se equivocó」** = 「間違えた」（点過去）  
+👉 **「間違えたのは君だった」** という意味になる！  
+---
+## **🔹 ② la que の使い方**
+ここで使われている **「la que」** は **関係代名詞** の一種で、前の名詞を詳しく説明しています。  
+🔸 **この la は「tú（君）」を指している！**  
+- **tú**（君）は女性 → **「la que」**（女性形）を使う  
+- もし **男性** なら → **「el que」** になる！  
+✅ **似た例**
+- **Fui yo el que rompió el vaso.**  
+  → 「コップを割ったのは僕だった」  
+- **Fuimos nosotros los que ganamos.**  
+  → 「勝ったのは僕たちだった」
+---
+## **🔹 ③ se equivocó の文法**
+- **equivocarse**（間違える）は再帰動詞。  
+- **主語に一致して活用する！**  
+🔸 **主語が「la que」（＝tú, 女性）なので、三人称単数（se equivocó）を使う！**  
+✅ **動詞の活用**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 主語 &lt;/th&gt;
+      &lt;th&gt; 動詞（点過去） &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Yo &lt;/th&gt;
+      &lt;td&gt; me equivoqué &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Tú &lt;/th&gt;
+      &lt;td&gt; te equivocaste &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Él/Ella/Usted &lt;/th&gt;
+      &lt;td&gt; se equivocó &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Nosotros &lt;/th&gt;
+      &lt;td&gt; nos equivocamos &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Vosotros &lt;/th&gt;
+      &lt;td&gt; os equivocasteis &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Ellos/Ellas/Ustedes &lt;/th&gt;
+      &lt;td&gt; se equivocaron &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 文の部分 &lt;/th&gt;
+      &lt;th&gt; 役割 &lt;/th&gt;
+      &lt;th&gt; 説明 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Fuiste &lt;/th&gt;
+      &lt;td&gt; 強調構文のser（点過去） &lt;/td&gt;
+      &lt;td&gt; 「君だった」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; tú &lt;/th&gt;
+      &lt;td&gt; 強調する主語 &lt;/td&gt;
+      &lt;td&gt; 「君が」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; la que &lt;/th&gt;
+      &lt;td&gt; 関係詞 &lt;/td&gt;
+      &lt;td&gt; 「間違えたのは（君）」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; se equivocó &lt;/th&gt;
+      &lt;td&gt; 再帰動詞（点過去） &lt;/td&gt;
+      &lt;td&gt; 「間違えた」 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+👉 **「間違えたのは君だった！」** という意味になる！  
+---
+## **✅ ポイント**
+1️⃣ **「Ser + 主語 + 関係詞」で、強調構文が作れる！**  
+2️⃣ **「la que」は、tú（女性）を指している！**  
+3️⃣ **「se equivocó」は三人称単数形になっている！（la que に合わせる）**
+---
+この構文はよく使われるので、ぜひ覚えておくと便利ですよ！ 😊</x:t>
+  </x:si>
+  <x:si>
     <x:t>「終電に乗り遅れた！」
 「ほらね、しっかり気を付けるように注意してあったのに」</x:t>
   </x:si>
   <x:si>
     <x:t>¡He perdido el último tren!
 Mira que te había advertido que tuvieras mucho cuidado.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>### **🔹「Mira que」の使い方**  
+📌 **「Mira que + 直説法 / 接続法」** は、「ほら言ったでしょう！」とか
+「だから言ったのに！」という **注意喚起・叱責・驚き** を表す表現です。  
+---
+### **🔸 例文**
+- **Mira que te había advertido que tuvieras mucho cuidado.**  
+  → 「ほら、ちゃんと気をつけるように言ったのに！」  
+  （⚠️ 事前に注意していたのに相手が守らなかったとき）  
+- **Mira que es difícil este examen.**  
+  → 「この試験、本当に難しいんだから！」  
+  （💡 強調：「めちゃくちゃ難しいよ！」）  
+- **Mira que tienes mala suerte.**  
+  → 「君って本当に運が悪いよね。」  
+  （💡 驚き・同情：「よくもまぁそんなについてないね。」）  
+- **Mira que te lo advertí.**  
+  → 「だから言ったのに！」  
+  （⚠️ 相手が事前の忠告を無視して失敗したとき）  
+---
+### **🔸 文法のポイント**
+1. **Mira que + 直説法** → 「本当に〜だよ」「〜なんだからね」  
+   → **強調・驚き・呆れ**
+   - **Mira que es listo tu hermano.**  
+     → 「君の弟、本当に頭がいいんだから！」  
+2. **Mira que + 過去形（特に過去完了）** → 「だから〜したのに！」  
+   → **忠告したのに無視されたことへの叱責**
+   - **Mira que te había dicho que no lo hicieras.**  
+     → 「だからやるなって言ったのに！」  
+3. **Mira que + 接続法** → 「〜するように言ったのに！」  
+   → **命令・警告を聞かなかったことへの指摘**
+   - **Mira que te había advertido que tuvieras cuidado.**  
+     → 「ほら、気をつけるように言ってたでしょう？」  
+---
+### **🔹 まとめ**
+「Mira que」は **忠告・驚き・強調** を表す便利な表現。
+特に、相手が忠告を無視して失敗したときによく使います。  
+📝 **よくあるシチュエーション**
+- 友達が約束の時間に遅れた →
+ **Mira que te dije que llegaras temprano.**（「早く来るように言ったのに！」）  
+- 誰かがまたミスをした → **Mira que eres despistado.**（「本当にそそっかしいね！」）  
+💡 **日常会話でめっちゃ使えるので、覚えておくと便利です！** 😉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/06
+2025/02/06</x:t>
   </x:si>
   <x:si>
     <x:t>子供のころの最初の数年間勉強したのはここです。ああ、懐かしいなぁ！</x:t>
@@ -9761,7 +10480,96 @@
 Ya verás は未来の確信や予測を示す。
 Lo fáciles que son で「どれだけ簡単か」を強調。
 De manejar で「操作するのが」という補足説明。
-Estos aparatos が主語であり、複数の名詞に一致させた動詞や形容詞を使っている。</x:t>
+Estos aparatos が主語であり、複数の名詞に一致させた動詞や形容詞を使っている。
+======
+この文は少し独特な構造を持っていますが、分解して考えれば理解しやすくなります。  
+---
+### **🔹 文の基本構造**
+**Ya verás lo fáciles que son de manejar estos aparatos.**  
+👉 「これらの機械がどれほど扱いやすいか、そのうちわかるよ。」
+まず、文の主要部分を分解すると以下のようになります。  
+1️⃣ **Ya verás**（「そのうちわかるよ」「見てみなよ」）  
+2️⃣ **lo fáciles que son de manejar**（「どれほど扱いやすいか」）  
+3️⃣ **estos aparatos**（「これらの機械」）
+では、それぞれ詳しく見ていきましょう。
+---
+### **🔹 ① 「Ya verás」**
+👉 **「そのうちわかるよ」** という意味の未来形。  
+この場合の「verás」は、単に「見る」ではなく、「理解する、実感する」というニュアンスになります。
+- **Ya verás que todo saldrá bien.**  
+  → 「すべてうまくいくって、そのうちわかるよ。」
+この表現は日常会話でよく使われます。
+---
+### **🔹 ② 「lo fáciles que son de manejar」**
+👉 ここが文の核となる部分で、ちょっと独特な構造です。
+#### **（1）lo + 形容詞 + que の構造**
+これは「どれほど～か」という意味を持つ表現です。  
+- **lo fáciles que son** → 「どれほど簡単か」  
+- **lo bonito que es este lugar** → 「この場所がどれほど美しいか」  
+この形は感嘆文や間接疑問でよく使われます。
+📌 **比較**
+- **¡Qué fáciles son de manejar estos aparatos!**  
+  → 「これらの機械はなんて扱いやすいんだ！」（感嘆文）  
+- **No sabes lo fáciles que son de manejar estos aparatos.**  
+  → 「これらの機械がどれほど扱いやすいか、あなたは知らない。」（間接疑問）
+---
+#### **（2）「son de manejar」**
+「ser + de + 動詞原形」の形は、**特性や性質を表す** のによく使われます。
+📌 **例**
+- **Es fácil de entender.** → 「理解しやすい。」  
+- **No es difícil de hacer.** → 「作るのは難しくない。」  
+- **Estos aparatos son fáciles de manejar.** → 「これらの機械は扱いやすい。」  
+この「ser + de + 不定詞」の形は、「～しやすい」「～するのが簡単／難しい」という特性を表します。  
+📌 **比較**
+- **Estos aparatos son fáciles de manejar.**  
+  → 「これらの機械は扱いやすい。」  
+- **Estos aparatos se manejan fácilmente.**  
+  → 「これらの機械は簡単に操作できる。」（意味はほぼ同じ）
+---
+### **🔹 ③ 「estos aparatos」**
+👉 ここは単純に「これらの機械（装置）」という意味です。
+この部分は「lo fáciles que son de manejar」を説明するための補足であり、
+**主語の位置が後ろに置かれる倒置構造** になっています。
+📌 **比較**
+- **Estos aparatos son fáciles de manejar.**（通常の語順）  
+- **Lo fáciles que son de manejar estos aparatos.**（倒置）
+このように、感嘆文や間接疑問では、形容詞部分が前に出ることがあります。
+---
+### **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 部分 &lt;/th&gt;
+      &lt;th&gt; 役割 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Ya verás &lt;/th&gt;
+      &lt;td&gt; 主要動詞 &lt;/td&gt;
+      &lt;td&gt; 「そのうちわかるよ」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; lo fáciles que son de manejar &lt;/th&gt;
+      &lt;td&gt; 間接疑問 &lt;/td&gt;
+      &lt;td&gt; 「どれほど扱いやすいか」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; estos aparatos &lt;/th&gt;
+      &lt;td&gt; 主語（倒置） &lt;/td&gt;
+      &lt;td&gt; 「これらの機械」 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+💡 **日本語訳**
+👉 「これらの機械がどれほど扱いやすいか、そのうちわかるよ。」
+---
+### **✅ ポイント**
+1️⃣ **「lo + 形容詞 + que」** → 「どれほど～か」という意味。  
+2️⃣ **「ser + de + 動詞原形」** → 「～しやすい」という特性を表す。  
+3️⃣ **主語（estos aparatos）が後ろに来る倒置構造**。  
+この形を覚えておくと、感嘆文や説明文でとても役立ちますよ！ 😊</x:t>
   </x:si>
   <x:si>
     <x:t>あんなにいい人だったPacoが去ってしまうのは残念だなぁ！</x:t>
@@ -9796,7 +10604,91 @@
 文法まとめ
 ¡Qué pena que...! で感嘆文を構成し、感情の対象（Pacoが去ること）を従属節で表現。
 Se vaya は接続法現在形で、感情を表す文脈で使われている。
-Con lo buena persona que era で「彼がどれだけ良い人だったか」を強調し、その事実を感情的に補足する。</x:t>
+Con lo buena persona que era で「彼がどれだけ良い人だったか」を強調し、その事実を感情的に補足する。
+======
+この文は、**感嘆文と接続法** を組み合わせた複雑な構造を持っています。
+それぞれの部分を詳しく解説していきますね。
+---
+## **🔹 文の構造を分解**
+**¡Qué pena que se vaya Paco con lo buena persona que era!**  
+👉 「パコが行ってしまうなんて残念だ、あんなに良い人だったのに！」
+1️⃣ **¡Qué pena que...!**  
+   - **「～とはなんて残念なんだ！」** という感嘆文。  
+   - **「que」** 以下には **接続法** を使う。  
+2️⃣ **se vaya Paco**  
+   - **「パコが行ってしまう」**  
+   - **接続法現在（vaya）** が使われている。  
+3️⃣ **con lo buena persona que era**  
+   - **「あんなに良い人だったのに」**  
+   - **「lo + 形容詞 + que」** の形で、**性質や状態を強調** する。  
+   - **直説法過去（era）** が使われている。
+---
+## **🔹 ① ¡Qué pena que...!（感嘆文）**
+- **¡Qué pena que...!** は「～とはなんて残念なんだ！」という感嘆文です。  
+- 感情を表す文では、**「que」以下に接続法** を使います。  
+✅ **例文**
+- **¡Qué lástima que no puedas venir!**  
+  → 「君が来られないなんて、なんて残念なんだ！」  
+- **¡Qué triste que haya llovido!**  
+  → 「雨が降ったなんて、なんて悲しいんだ！」
+---
+## **🔹 ② se vaya Paco（接続法現在）**
+- **irse**（行く、去る）の **接続法現在** で **「vaya」** が使われています。  
+- **接続法** は、**感情や不確実な状況を表す** ときに使われます。
+✅ **例文**
+- **Espero que se vaya pronto.**  
+  → 「彼が早く行くことを願っている。」  
+- **Dudo que él venga mañana.**  
+  → 「彼が明日来るかどうか疑わしい。」
+---
+## **🔹 ③ con lo buena persona que era（強調構文）**
+- **con lo + 形容詞 + que + 動詞** の形で、**性質や状態を強調** します。  
+- **「lo」** は **中性代名詞** で、**性質や状態全体を指す** 役割を持ちます。  
+  - **lo buena persona** → 「どれほど良い人か」  
+✅ **例文**
+- **Con lo caro que es este restaurante, no vale la pena.**  
+  → 「このレストランがどれほど高いかを考えると、行く価値はない。」  
+- **Con lo difícil que fue el examen, estoy sorprendido de haber aprobado.**  
+  → 「試験があれほど難しかったのに、合格したことに驚いている。」
+📌 **「era」** が直説法過去で使われている理由は、**「過去の状態を述べている」** からです。  
+  - **Paco era buena persona.** → パコは良い人だった。
+---
+## **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 部分 &lt;/th&gt;
+      &lt;th&gt; 役割 &lt;/th&gt;
+      &lt;th&gt; 文法 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¡Qué pena que...! &lt;/th&gt;
+      &lt;td&gt; 感嘆 &lt;/td&gt;
+      &lt;td&gt; 接続法 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; se vaya Paco &lt;/th&gt;
+      &lt;td&gt; 主文 &lt;/td&gt;
+      &lt;td&gt; 接続法現在 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; con lo buena persona que era &lt;/th&gt;
+      &lt;td&gt; 強調 &lt;/td&gt;
+      &lt;td&gt; lo + 形容詞 + que + 直説法過去 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+### **日本語訳**
+👉 「パコが行ってしまうなんて残念だ、あんなに良い人だったのに！」
+---
+## **✅ ポイント**
+1️⃣ **感嘆文では接続法を使う！**  
+2️⃣ **「lo + 形容詞 + que」** で性質を強調できる。  
+3️⃣ **過去の状態や性質を述べるときは直説法過去を使う！**
+この構文は、感情を込めて何かを伝えたいときによく使われます。
+少し複雑ですが、慣れるととても表現豊かになりますよ！ 😊</x:t>
   </x:si>
   <x:si>
     <x:t>賞をもらったのはBegoñaですか？</x:t>
@@ -9838,7 +10730,45 @@
 Es a Begoña: 強調構文で、Begoñaに焦点を当てる。
 A quien: 関係代名詞 quien で「賞をもらった人」を示す。
 Le han dado: 間接目的語 le で Begoña に賞が与えられたことを表す。
-El premio: 賞そのものが直接目的語。</x:t>
+El premio: 賞そのものが直接目的語。
+======
+### **🔹 文の構造解析**  
+**¿Es a Begoña a quien le han dado el premio?**  
+➡ 「賞をもらったのはベゴーニャですか？」  
+この文は **関係詞 "quien" を使った強調構文** になっています。  
+---
+### **🔸 文の要素ごとの解説**  
+1️⃣ **基本の平叙文**  
+　💡 まず、元の形を考えると以下のようになります：  
+　👉 **Le han dado el premio a Begoña.**（「彼らはベゴーニャに賞を与えた。」）  
+2️⃣ **強調構文**（Cleft sentence）  
+「賞をもらったのはベゴーニャなの？」と **「ベゴーニャ」を強調** したいとき、次の形に変えます：  
+　👉 **Es a Begoña a quien le han dado el premio.**  
+　（🔹「賞をもらったのは **ベゴーニャ** です。」）  
+　💡 **"Es … a quien ..." の構造で、受け手（目的語）を強調する形** になっています。  
+3️⃣ **疑問文化**  
+この文を疑問文にすると：  
+　👉 **¿Es a Begoña a quien le han dado el premio?**  
+　（🔹「賞をもらったのはベゴーニャなの？」）  
+---
+### **🔸 文法ポイント**
+🔹 **"Es … a quien ..." の構造**  
+この形は **関係詞 "quien" を用いた強調構文** で、英語の **"It is … who/whom …"** に相当します。  
+例えば：  
+✅ **Fue mi hermano quien me ayudó.**  
+　➡「私を助けてくれたのは兄です。」  
+✅ **Es a María a quien quiero ver.**  
+　➡「私が会いたいのはマリアです。」  
+📌 **"a quien" が使われる理由**  
+- **動詞 "dar" は「与える」なので、間接目的語が必要。**  
+- **"Begoña" は賞を受け取る人（受け手）なので、間接目的語の "a Begoña" になる。**  
+- **関係詞 "quien" を使うときも "a" を保持するので、"a quien" となる。**  
+---
+### **🔹 まとめ**
+✅ **強調構文 "Es … a quien ..." を使った疑問文。**  
+✅ **関係詞 "quien" の前に "a" がついているのは、"dar" の間接目的語だから。**  
+✅ **「賞をもらったのはベゴーニャなの？」という意味。**  
+💡 **この構造は日常会話でも使われるので、しっかり覚えておくと便利！ 😉**</x:t>
   </x:si>
   <x:si>
     <x:t>(君たち)いい旅行を！</x:t>
@@ -10099,7 +11029,45 @@
 （重要なのは冷静さを保つことです。）
 Prefiero lo sencillo.
 （私はシンプルなものが好きです。）
-このように「lo」は、抽象的な概念を簡潔に表現するための便利な代名詞です。</x:t>
+このように「lo」は、抽象的な概念を簡潔に表現するための便利な代名詞です。
+======
+### **🔹 "con lo previsto" の意味と使い方**  
+この文の **"con lo previsto"** は、
+**「予定されていることに従って」「計画通りに」** という意味で使われています。  
+---
+## **📌 文の構造**
+💡 **A no ser que haya una oferta mejor, no hay otro remedio que seguir con lo previsto.**  
+🔹 **A no ser que + 接続法（haya）** → 「もし～でなければ（unless）」  
+🔹 **No hay otro remedio que + 動詞の原形（seguir）** → 「～する以外に選択肢がない」  
+🔹 **con lo previsto** → 「予定されていることに従って」  
+✅ **全体の意味：**  
+「もっと良いオファーがない限り、予定通り進めるしかない。」  
+---
+## **📌 "con lo previsto" の文法的な解説**
+### ① **"lo + 過去分詞"（lo previsto）**
+- **"lo + 過去分詞"** は **「～されたもの」** という意味を作る。  
+- **"previsto"（予定された）** は **"prever"（予測する、予定する）** の過去分詞。  
+- **"lo previsto"** は「予定されたこと」「計画されたこと」を指す。  
+🔹 **例文**  
+- **Debemos ajustarnos a lo previsto.**  
+  （予定されていることに従わなければならない。）  
+- **No podemos cambiar lo previsto.**  
+  （予定されていることを変えることはできない。）  
+---
+### ② **"con lo previsto" の意味**
+- **"con + 名詞"** は「～に従って」「～とともに」という意味を持つことがある。  
+- **"con lo previsto"** → 「予定されていることに従って」「計画に沿って」  
+🔹 **例文**  
+- **Seguimos adelante con lo previsto.**  
+  （予定通り進めます。）  
+- **No hubo cambios y todo se hizo con lo previsto.**  
+  （変更はなく、すべて予定通りに行われた。）  
+---
+## **💡 まとめ**
+📌 **"con lo previsto" は「予定されていることに従って」「計画通りに」という意味で使われる。**  
+📌 **"lo previsto" は "prever" の過去分詞を使った構造で、「予定されたこと」** を意味する。  
+📌 **"con lo previsto" = 「計画に沿って」「予定通りに」**  
+💡 **「変更がない」「計画通りに進む」と言いたいときによく使われる表現です！ 😉**</x:t>
   </x:si>
   <x:si>
     <x:t>私たちみんなLauraのせいだと知っているが、彼女をグループから追い出すことはできない</x:t>
@@ -10703,6 +11671,185 @@
   </x:si>
   <x:si>
     <x:t>Sacamos las mesas de modo que quepa más gente.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>これらの前置詞句はすべて **「～するために」** という意味を持ちますが、
+使い方やニュアンスに違いがあります。それぞれの特徴と使い分けを解説します！  
+---
+## **📌 ① 「目的」を表す基本の para que**
+🔹 **para que + 接続法**  
+→ **「～するために」**（目的を表す最も一般的な表現）  
+📌 **特徴**  
+- **最もよく使われる目的表現**  
+- **「意図的な目的」** を表し、具体的な行動を促す  
+- **主語が変わるときに使う**（主語が同じ場合は "para + 不定詞" を使う）  
+📌 **例文**  
+✅ **Estudio español para que pueda hablar con los nativos.**  
+（ネイティブと話せるように、スペイン語を勉強しています。）  
+✅ **Te llamé para que supieras la noticia.**  
+（そのニュースを知ってもらうために君に電話した。）  
+---
+## **📌 ② 「手段・方法」を強調する de modo que / de manera que**
+🔹 **de modo que / de manera que + 接続法**  
+→ **「～できるように」**（目的を表す場合）  
+🔹 **de modo que / de manera que + 直説法**  
+→ **「その結果～となる」**（結果を表す場合）  
+📌 **特徴**  
+- **「方法」を重視した目的の表現**  
+- **手段を強調しながら、最終的な目的に結びつくイメージ**  
+- **直説法か接続法かで意味が変わる！**  
+📌 **例文（目的）**  
+✅ **Habló más alto de modo que todos lo oyeran.**  
+（みんなが聞こえるように、彼は大きな声で話した。）  
+✅ **Coloca las piezas de manera que encajen perfectamente.**  
+（ぴったり合うように、ピースを配置してください。）  
+📌 **例文（結果）**  
+✅ **Se pinchó una rueda de manera que tuvimos que esperar una hora.**  
+（タイヤがパンクしたので、1時間待たなければならなかった。）  
+---
+## **📌 ③ 「最終目的」を表す a fin de que / con el fin de que**
+🔹 **a fin de que / con el fin de que + 接続法**  
+→ **「～する目的で」「～するために」**  
+📌 **特徴**  
+- **文語的（フォーマルな文でよく使う）**  
+- **「最終目的」を強調**  
+- **para que よりもかたい表現**  
+📌 **例文**  
+✅ **Se tomó medidas a fin de que no ocurrieran más accidentes.**  
+（さらなる事故が起こらないように、対策が取られた。）  
+✅ **Se aprobó una ley con el fin de que se reduzca la contaminación.**  
+（汚染を減らすために、法律が可決された。）  
+---
+## **📌 ④ 「目的・狙い」を表す el objetivo de que**
+🔹 **el objetivo de que + 接続法**  
+→ **「～することを目的として」**  
+📌 **特徴**  
+- **「目標」としてのニュアンスが強い**  
+- **公的な発表やビジネスシーンで使われることが多い**  
+- **「最終目的」よりも、「狙いや意図」に焦点を当てる**  
+📌 **例文**  
+✅ **Organizamos la reunión con el objetivo de que todos dieran su opinión.**  
+（みんなが意見を言うことを目的として、会議を開いた。）  
+✅ **El gobierno lanzó una campaña con el objetivo de que la población reduzca el consumo de azúcar.**  
+（政府は、国民が砂糖の摂取量を減らすことを目的にキャンペーンを始めた。）  
+---
+## **📌 ⑤ 「～するように」と指示・命令に近い a que**
+🔹 **a que + 接続法**  
+→ **「～するように」**（動詞によって使えるかどうか決まる）  
+📌 **特徴**  
+- **「働きかけ」や「誘導」のニュアンス**  
+- **動詞によっては para que の代わりに使える**  
+- **特に「招待・説得・指示・強制」を表す動詞と一緒に使う**
+（convidar, invitar, incitar, obligar, enseñar など）  
+📌 **例文**  
+✅ **Te invito a que vengas a mi casa.**  
+（私の家に来るように君を招待する。）  
+✅ **Lo obligaron a que pidiera perdón.**  
+（彼は謝るように強制された。）  
+❌ **Incorrecto:**  
+🚫 **Quiero a que me llames.** → ✅ **Quiero que me llames.**  
+（"a que" は「命令・指示」の動詞とセットで使うため、"querer" では不可。）  
+---
+## **💡 まとめ：どれを使えばいい？**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; 使い方 &lt;/th&gt;
+      &lt;th&gt; ニュアンス・特徴 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; para que &lt;/th&gt;
+      &lt;td&gt; ～するために &lt;/td&gt;
+      &lt;td&gt; 最も一般的 &lt;/td&gt;
+      &lt;td&gt; 主語が変わるときに使う &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; de modo que / de manera que &lt;/th&gt;
+      &lt;td&gt; ～できるように &lt;/td&gt;
+      &lt;td&gt; 手段・方法を強調 &lt;/td&gt;
+      &lt;td&gt; 直説法なら「結果」になる &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; a fin de que / con el fin de que &lt;/th&gt;
+      &lt;td&gt; ～することを最終目的として &lt;/td&gt;
+      &lt;td&gt; 文語的 &lt;/td&gt;
+      &lt;td&gt; para que よりフォーマル &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; el objetivo de que &lt;/th&gt;
+      &lt;td&gt; ～することを目的として &lt;/td&gt;
+      &lt;td&gt; ビジネス・公的 &lt;/td&gt;
+      &lt;td&gt; 目標や狙いを重視 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; a que &lt;/th&gt;
+      &lt;td&gt; ～するように &lt;/td&gt;
+      &lt;td&gt; 指示・命令の動詞とセット &lt;/td&gt;
+      &lt;td&gt; 強制・働きかけを強調 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **💡 どの表現を使うべき？**
+✅ **日常会話・シンプルな目的 → 「para que」**  
+✅ **手段を強調したい → 「de modo que / de manera que」**  
+✅ **フォーマルな場面（法律・政策など） → 「a fin de que / con el fin de que」**  
+✅ **目標や戦略の文脈 → 「el objetivo de que」**  
+✅ **強制・説得 → 「a que」**  
+---
+**✨ 例文をたくさん見て、実際に使いながら慣れていくのが一番の近道です！ 😉**
+======
+&lt;pregunta&gt;
+Estudio español para que pueda hablar con los nativos.
+主節も従属節も主語が同じだと思うのですが、なぜparaではなくpara queを使っているのでしょうか？
+&lt;/pregunta&gt;
+とても鋭い質問ですね！通常、「主節と従属節の主語が同じ場合は *para + 不定詞* を使う」と習いますが、
+この例文では **なぜ *para que + 接続法* を使っているのか** を解説します。  
+---
+## **🔹 基本ルールの復習**
+✅ **主語が同じ場合 →** *para + 不定詞*  
+✅ **主語が異なる場合 →** *para que + 接続法*  
+📌 **普通ならこうなるはず！**  
+✔ **Estudio español para hablar con los nativos.**  
+（ネイティブと話すためにスペイン語を勉強する。）  
+👆 この場合、話すのも私なので *para + 不定詞* を使うのが一般的です。  
+---
+## **🔹 なぜ「para que pueda」を使っているのか？**
+**この文の「pueda」は、実は「私自身」ではなく、仮の主体（一般的な状況）を想定している可能性があります。**
+つまり：
+**「話せるようになれることを目指してスペイン語を勉強する」**
+という意味を持たせるために *para que + 接続法* を使っています。  
+📌 **少し言い換えてみると…**  
+✔ **Estudio español para que sea posible hablar con los nativos.**  
+（ネイティブと話せるようになるために、スペイン語を勉強する。）  
+👆「話せる状態になること」が目的なので、*para que + 接続法* が使われています。  
+---
+## **🔹 他の例で確認**
+こうしたパターンは他の動詞でも見られます。  
+✅ **Entreno mucho para ganar la competencia.**  
+（試合に勝つためにたくさんトレーニングする。）  
+👆 主語が同じなので *para + 不定詞*  
+✅ **Entreno mucho para que mi equipo pueda ganar la competencia.**  
+（チームが試合に勝てるようにたくさんトレーニングする。）  
+👆 主語が違うので *para que + 接続法*  
+しかし、次のように言うこともできます：  
+✅ **Entreno mucho para que sea posible ganar la competencia.**  
+（試合に勝つことが可能になるようにたくさんトレーニングする。）  
+👆 ここでは「勝てる状態を作ること」が目的なので *para que + 接続法* が使われる。  
+---
+## **🔹 結論**
+**「話すのが私自身であっても、その可能性や状態を目的にする場合は *para que + 接続法* になる！」**  
+👉「話せるようになるために」というニュアンスを出したいから *para que pueda* が使われている。  
+でも、日常会話では **「Estudio español para hablar con los nativos.」** も自然なので、
+*para que pueda* にこだわる必要はありません！ 💡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/06
+2025/02/06</x:t>
   </x:si>
   <x:si>
     <x:t>Javiは今度の夏ダイビングに行くために講習に申し込んだ</x:t>
@@ -11766,7 +12913,7 @@
       <x:selection activeCell="C231" sqref="C231"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="17.210625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="18.960625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -16472,89 +17619,107 @@
       <x:c r="C492" s="1" t="s">
         <x:v>1216</x:v>
       </x:c>
+      <x:c r="F492" s="1" t="s">
+        <x:v>1217</x:v>
+      </x:c>
+      <x:c r="G492" s="0" t="s">
+        <x:v>1218</x:v>
+      </x:c>
     </x:row>
     <x:row r="493" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B493" s="1" t="s">
-        <x:v>1217</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="C493" s="1" t="s">
-        <x:v>1218</x:v>
+        <x:v>1220</x:v>
       </x:c>
     </x:row>
     <x:row r="494" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B494" s="1" t="s">
-        <x:v>1219</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="C494" s="1" t="s">
-        <x:v>1220</x:v>
+        <x:v>1222</x:v>
+      </x:c>
+      <x:c r="F494" s="1" t="s">
+        <x:v>1223</x:v>
+      </x:c>
+      <x:c r="G494" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="495" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B495" s="1" t="s">
-        <x:v>1221</x:v>
+        <x:v>1224</x:v>
       </x:c>
       <x:c r="C495" s="1" t="s">
-        <x:v>1222</x:v>
+        <x:v>1225</x:v>
       </x:c>
     </x:row>
     <x:row r="496" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B496" s="1" t="s">
-        <x:v>1223</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="C496" s="1" t="s">
-        <x:v>1224</x:v>
+        <x:v>1227</x:v>
+      </x:c>
+      <x:c r="F496" s="1" t="s">
+        <x:v>1228</x:v>
+      </x:c>
+      <x:c r="G496" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="497" spans="1:7" ht="243.75" customHeight="1">
       <x:c r="B497" s="1" t="s">
-        <x:v>1225</x:v>
+        <x:v>1229</x:v>
       </x:c>
       <x:c r="C497" s="1" t="s">
-        <x:v>1226</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="F497" s="1" t="s">
-        <x:v>1227</x:v>
+        <x:v>1231</x:v>
       </x:c>
     </x:row>
     <x:row r="498" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B498" s="1" t="s">
-        <x:v>1228</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="C498" s="1" t="s">
-        <x:v>1229</x:v>
+        <x:v>1233</x:v>
       </x:c>
     </x:row>
     <x:row r="499" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B499" s="1" t="s">
-        <x:v>1230</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="C499" s="1" t="s">
-        <x:v>1231</x:v>
+        <x:v>1235</x:v>
       </x:c>
     </x:row>
     <x:row r="500" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B500" s="1" t="s">
-        <x:v>1232</x:v>
+        <x:v>1236</x:v>
       </x:c>
       <x:c r="C500" s="1" t="s">
-        <x:v>1233</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
     <x:row r="501" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B501" s="1" t="s">
-        <x:v>1234</x:v>
+        <x:v>1238</x:v>
       </x:c>
       <x:c r="C501" s="1" t="s">
-        <x:v>1235</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="D501" s="0" t="s">
-        <x:v>1236</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="E501" s="0" t="s">
-        <x:v>1237</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="F501" s="1" t="s">
-        <x:v>1238</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="G501" s="0" t="s">
         <x:v>1092</x:v>
@@ -16562,77 +17727,77 @@
     </x:row>
     <x:row r="502" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B502" s="1" t="s">
-        <x:v>1239</x:v>
+        <x:v>1243</x:v>
       </x:c>
       <x:c r="C502" s="1" t="s">
-        <x:v>1240</x:v>
+        <x:v>1244</x:v>
       </x:c>
     </x:row>
     <x:row r="503" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B503" s="1" t="s">
-        <x:v>1241</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="C503" s="1" t="s">
-        <x:v>1242</x:v>
+        <x:v>1246</x:v>
       </x:c>
     </x:row>
     <x:row r="504" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B504" s="1" t="s">
-        <x:v>1243</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="C504" s="1" t="s">
-        <x:v>1244</x:v>
+        <x:v>1248</x:v>
       </x:c>
     </x:row>
     <x:row r="505" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B505" s="1" t="s">
-        <x:v>1245</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="C505" s="1" t="s">
-        <x:v>1246</x:v>
+        <x:v>1250</x:v>
       </x:c>
     </x:row>
     <x:row r="506" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B506" s="1" t="s">
-        <x:v>1247</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="C506" s="1" t="s">
-        <x:v>1248</x:v>
+        <x:v>1252</x:v>
       </x:c>
     </x:row>
     <x:row r="507" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B507" s="1" t="s">
-        <x:v>1249</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="C507" s="1" t="s">
-        <x:v>1250</x:v>
+        <x:v>1254</x:v>
       </x:c>
     </x:row>
     <x:row r="508" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B508" s="1" t="s">
-        <x:v>1251</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="C508" s="1" t="s">
-        <x:v>1252</x:v>
+        <x:v>1256</x:v>
       </x:c>
     </x:row>
     <x:row r="509" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B509" s="1" t="s">
-        <x:v>1253</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="C509" s="1" t="s">
-        <x:v>1254</x:v>
+        <x:v>1258</x:v>
       </x:c>
     </x:row>
     <x:row r="510" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B510" s="1" t="s">
-        <x:v>1255</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="C510" s="1" t="s">
-        <x:v>1256</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="F510" s="1" t="s">
-        <x:v>1257</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="G510" s="0" t="s">
         <x:v>1163</x:v>
@@ -16640,887 +17805,926 @@
     </x:row>
     <x:row r="511" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B511" s="1" t="s">
-        <x:v>1258</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="C511" s="1" t="s">
-        <x:v>1259</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="D511" s="0" t="s">
-        <x:v>1260</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="E511" s="0" t="s">
-        <x:v>1261</x:v>
+        <x:v>1265</x:v>
+      </x:c>
+      <x:c r="F511" s="1" t="s">
+        <x:v>1266</x:v>
+      </x:c>
+      <x:c r="G511" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="512" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B512" s="1" t="s">
-        <x:v>1262</x:v>
+        <x:v>1267</x:v>
       </x:c>
       <x:c r="C512" s="1" t="s">
-        <x:v>1261</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="F512" s="1" t="s">
-        <x:v>1263</x:v>
+        <x:v>1268</x:v>
+      </x:c>
+      <x:c r="G512" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="513" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B513" s="1" t="s">
-        <x:v>1264</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="C513" s="1" t="s">
-        <x:v>1265</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="F513" s="1" t="s">
-        <x:v>1266</x:v>
+        <x:v>1271</x:v>
       </x:c>
     </x:row>
     <x:row r="514" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B514" s="1" t="s">
-        <x:v>1267</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="C514" s="1" t="s">
-        <x:v>1268</x:v>
+        <x:v>1273</x:v>
+      </x:c>
+      <x:c r="F514" s="1" t="s">
+        <x:v>1274</x:v>
+      </x:c>
+      <x:c r="G514" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="515" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B515" s="1" t="s">
-        <x:v>1269</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="C515" s="1" t="s">
-        <x:v>1270</x:v>
+        <x:v>1276</x:v>
+      </x:c>
+      <x:c r="F515" s="1" t="s">
+        <x:v>1277</x:v>
+      </x:c>
+      <x:c r="G515" s="1" t="s">
+        <x:v>1278</x:v>
       </x:c>
     </x:row>
     <x:row r="516" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B516" s="1" t="s">
-        <x:v>1271</x:v>
+        <x:v>1279</x:v>
       </x:c>
       <x:c r="C516" s="1" t="s">
-        <x:v>1272</x:v>
+        <x:v>1280</x:v>
       </x:c>
     </x:row>
     <x:row r="517" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B517" s="1" t="s">
-        <x:v>1273</x:v>
+        <x:v>1281</x:v>
       </x:c>
       <x:c r="C517" s="1" t="s">
-        <x:v>1274</x:v>
+        <x:v>1282</x:v>
       </x:c>
     </x:row>
     <x:row r="518" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B518" s="1" t="s">
-        <x:v>1275</x:v>
+        <x:v>1283</x:v>
       </x:c>
       <x:c r="C518" s="1" t="s">
-        <x:v>1276</x:v>
+        <x:v>1284</x:v>
       </x:c>
       <x:c r="F518" s="1" t="s">
-        <x:v>1277</x:v>
+        <x:v>1285</x:v>
+      </x:c>
+      <x:c r="G518" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="519" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B519" s="1" t="s">
-        <x:v>1278</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="C519" s="1" t="s">
-        <x:v>1279</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="F519" s="1" t="s">
-        <x:v>1280</x:v>
+        <x:v>1288</x:v>
+      </x:c>
+      <x:c r="G519" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="520" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B520" s="1" t="s">
-        <x:v>1281</x:v>
+        <x:v>1289</x:v>
       </x:c>
       <x:c r="C520" s="1" t="s">
-        <x:v>1282</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="F520" s="1" t="s">
-        <x:v>1283</x:v>
+        <x:v>1291</x:v>
+      </x:c>
+      <x:c r="G520" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="521" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B521" s="1" t="s">
-        <x:v>1284</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="C521" s="1" t="s">
-        <x:v>1285</x:v>
+        <x:v>1293</x:v>
       </x:c>
       <x:c r="D521" s="0" t="s">
-        <x:v>1286</x:v>
+        <x:v>1294</x:v>
       </x:c>
       <x:c r="E521" s="0" t="s">
-        <x:v>1287</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="522" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B522" s="1" t="s">
-        <x:v>1288</x:v>
+        <x:v>1296</x:v>
       </x:c>
       <x:c r="C522" s="1" t="s">
-        <x:v>1289</x:v>
+        <x:v>1297</x:v>
       </x:c>
     </x:row>
     <x:row r="523" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B523" s="1" t="s">
-        <x:v>1290</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="C523" s="1" t="s">
-        <x:v>1291</x:v>
+        <x:v>1299</x:v>
       </x:c>
     </x:row>
     <x:row r="524" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B524" s="1" t="s">
-        <x:v>1292</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="C524" s="1" t="s">
-        <x:v>1293</x:v>
+        <x:v>1301</x:v>
       </x:c>
     </x:row>
     <x:row r="525" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B525" s="1" t="s">
-        <x:v>1294</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="C525" s="1" t="s">
-        <x:v>1295</x:v>
+        <x:v>1303</x:v>
       </x:c>
     </x:row>
     <x:row r="526" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B526" s="1" t="s">
-        <x:v>1296</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="C526" s="1" t="s">
-        <x:v>1297</x:v>
+        <x:v>1305</x:v>
       </x:c>
     </x:row>
     <x:row r="527" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B527" s="1" t="s">
-        <x:v>1298</x:v>
+        <x:v>1306</x:v>
       </x:c>
       <x:c r="C527" s="1" t="s">
-        <x:v>1299</x:v>
+        <x:v>1307</x:v>
       </x:c>
     </x:row>
     <x:row r="528" spans="1:7" ht="356.25" customHeight="1">
       <x:c r="B528" s="1" t="s">
-        <x:v>1300</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="C528" s="1" t="s">
-        <x:v>1301</x:v>
+        <x:v>1309</x:v>
       </x:c>
       <x:c r="F528" s="1" t="s">
-        <x:v>1302</x:v>
+        <x:v>1310</x:v>
       </x:c>
     </x:row>
     <x:row r="529" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B529" s="1" t="s">
-        <x:v>1303</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="C529" s="1" t="s">
-        <x:v>1304</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="F529" s="1" t="s">
-        <x:v>1305</x:v>
+        <x:v>1313</x:v>
       </x:c>
     </x:row>
     <x:row r="530" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B530" s="1" t="s">
-        <x:v>1306</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="C530" s="1" t="s">
-        <x:v>1307</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="F530" s="1" t="s">
-        <x:v>1308</x:v>
+        <x:v>1316</x:v>
       </x:c>
     </x:row>
     <x:row r="531" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B531" s="1" t="s">
-        <x:v>1309</x:v>
+        <x:v>1317</x:v>
       </x:c>
       <x:c r="C531" s="1" t="s">
-        <x:v>1310</x:v>
+        <x:v>1318</x:v>
       </x:c>
       <x:c r="D531" s="0" t="s">
-        <x:v>1311</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="E531" s="0" t="s">
-        <x:v>1312</x:v>
+        <x:v>1320</x:v>
       </x:c>
     </x:row>
     <x:row r="532" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B532" s="1" t="s">
-        <x:v>1313</x:v>
+        <x:v>1321</x:v>
       </x:c>
       <x:c r="C532" s="1" t="s">
-        <x:v>1314</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="F532" s="1" t="s">
-        <x:v>1315</x:v>
+        <x:v>1323</x:v>
       </x:c>
     </x:row>
     <x:row r="533" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B533" s="1" t="s">
-        <x:v>1316</x:v>
+        <x:v>1324</x:v>
       </x:c>
       <x:c r="C533" s="1" t="s">
-        <x:v>1317</x:v>
+        <x:v>1325</x:v>
       </x:c>
     </x:row>
     <x:row r="534" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B534" s="1" t="s">
-        <x:v>1318</x:v>
+        <x:v>1326</x:v>
       </x:c>
       <x:c r="C534" s="1" t="s">
-        <x:v>1319</x:v>
+        <x:v>1327</x:v>
       </x:c>
       <x:c r="F534" s="1" t="s">
-        <x:v>1320</x:v>
+        <x:v>1328</x:v>
       </x:c>
     </x:row>
     <x:row r="535" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B535" s="1" t="s">
-        <x:v>1321</x:v>
+        <x:v>1329</x:v>
       </x:c>
       <x:c r="C535" s="1" t="s">
-        <x:v>1322</x:v>
+        <x:v>1330</x:v>
       </x:c>
     </x:row>
     <x:row r="536" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B536" s="1" t="s">
-        <x:v>1323</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="C536" s="1" t="s">
-        <x:v>1324</x:v>
+        <x:v>1332</x:v>
       </x:c>
     </x:row>
     <x:row r="537" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B537" s="1" t="s">
-        <x:v>1325</x:v>
+        <x:v>1333</x:v>
       </x:c>
       <x:c r="C537" s="1" t="s">
-        <x:v>1326</x:v>
+        <x:v>1334</x:v>
       </x:c>
     </x:row>
     <x:row r="538" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B538" s="1" t="s">
-        <x:v>1327</x:v>
+        <x:v>1335</x:v>
       </x:c>
       <x:c r="C538" s="1" t="s">
-        <x:v>1328</x:v>
+        <x:v>1336</x:v>
       </x:c>
     </x:row>
     <x:row r="539" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B539" s="1" t="s">
-        <x:v>1329</x:v>
+        <x:v>1337</x:v>
       </x:c>
       <x:c r="C539" s="1" t="s">
-        <x:v>1330</x:v>
+        <x:v>1338</x:v>
       </x:c>
     </x:row>
     <x:row r="540" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B540" s="1" t="s">
-        <x:v>1331</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="C540" s="1" t="s">
-        <x:v>1332</x:v>
+        <x:v>1340</x:v>
       </x:c>
       <x:c r="F540" s="1" t="s">
-        <x:v>1333</x:v>
+        <x:v>1341</x:v>
+      </x:c>
+      <x:c r="G540" s="0" t="s">
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="541" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B541" s="1" t="s">
-        <x:v>1334</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="C541" s="1" t="s">
-        <x:v>1335</x:v>
+        <x:v>1343</x:v>
       </x:c>
       <x:c r="D541" s="0" t="s">
-        <x:v>1336</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="E541" s="0" t="s">
-        <x:v>1337</x:v>
+        <x:v>1345</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B542" s="1" t="s">
-        <x:v>1338</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="C542" s="1" t="s">
-        <x:v>1339</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="F542" s="1" t="s">
-        <x:v>1340</x:v>
+        <x:v>1348</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B543" s="1" t="s">
-        <x:v>1341</x:v>
+        <x:v>1349</x:v>
       </x:c>
       <x:c r="C543" s="1" t="s">
-        <x:v>1337</x:v>
+        <x:v>1345</x:v>
       </x:c>
     </x:row>
     <x:row r="544" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B544" s="1" t="s">
-        <x:v>1342</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="C544" s="1" t="s">
-        <x:v>1343</x:v>
+        <x:v>1351</x:v>
       </x:c>
     </x:row>
     <x:row r="545" spans="1:7" ht="187.5" customHeight="1">
       <x:c r="B545" s="1" t="s">
-        <x:v>1344</x:v>
+        <x:v>1352</x:v>
       </x:c>
       <x:c r="C545" s="1" t="s">
-        <x:v>1345</x:v>
+        <x:v>1353</x:v>
       </x:c>
       <x:c r="F545" s="1" t="s">
-        <x:v>1346</x:v>
+        <x:v>1354</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B546" s="1" t="s">
-        <x:v>1347</x:v>
+        <x:v>1355</x:v>
       </x:c>
       <x:c r="C546" s="1" t="s">
-        <x:v>1348</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="F546" s="1" t="s">
-        <x:v>1349</x:v>
+        <x:v>1357</x:v>
       </x:c>
     </x:row>
     <x:row r="547" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B547" s="1" t="s">
-        <x:v>1350</x:v>
+        <x:v>1358</x:v>
       </x:c>
       <x:c r="C547" s="1" t="s">
-        <x:v>1351</x:v>
+        <x:v>1359</x:v>
       </x:c>
       <x:c r="F547" s="1" t="s">
-        <x:v>1352</x:v>
+        <x:v>1360</x:v>
       </x:c>
     </x:row>
     <x:row r="548" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B548" s="1" t="s">
-        <x:v>1353</x:v>
+        <x:v>1361</x:v>
       </x:c>
       <x:c r="C548" s="1" t="s">
-        <x:v>1354</x:v>
+        <x:v>1362</x:v>
       </x:c>
       <x:c r="F548" s="1" t="s">
-        <x:v>1355</x:v>
+        <x:v>1363</x:v>
       </x:c>
     </x:row>
     <x:row r="549" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B549" s="1" t="s">
-        <x:v>1356</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="C549" s="1" t="s">
-        <x:v>1357</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="F549" s="1" t="s">
-        <x:v>1358</x:v>
+        <x:v>1366</x:v>
       </x:c>
     </x:row>
     <x:row r="550" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B550" s="1" t="s">
-        <x:v>1359</x:v>
+        <x:v>1367</x:v>
       </x:c>
       <x:c r="C550" s="1" t="s">
-        <x:v>1360</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="F550" s="1" t="s">
-        <x:v>1361</x:v>
+        <x:v>1369</x:v>
       </x:c>
     </x:row>
     <x:row r="551" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B551" s="1" t="s">
-        <x:v>1362</x:v>
+        <x:v>1370</x:v>
       </x:c>
       <x:c r="C551" s="1" t="s">
-        <x:v>1363</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="D551" s="0" t="s">
-        <x:v>1364</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="E551" s="0" t="s">
-        <x:v>1365</x:v>
+        <x:v>1373</x:v>
       </x:c>
     </x:row>
     <x:row r="552" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B552" s="1" t="s">
-        <x:v>1366</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="C552" s="1" t="s">
-        <x:v>1367</x:v>
+        <x:v>1375</x:v>
       </x:c>
     </x:row>
     <x:row r="553" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B553" s="1" t="s">
-        <x:v>1368</x:v>
+        <x:v>1376</x:v>
       </x:c>
       <x:c r="C553" s="1" t="s">
-        <x:v>1369</x:v>
+        <x:v>1377</x:v>
       </x:c>
     </x:row>
     <x:row r="554" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B554" s="1" t="s">
-        <x:v>1370</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="C554" s="1" t="s">
-        <x:v>1371</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="F554" s="1" t="s">
-        <x:v>1372</x:v>
+        <x:v>1380</x:v>
       </x:c>
     </x:row>
     <x:row r="555" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B555" s="1" t="s">
-        <x:v>1373</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="C555" s="1" t="s">
-        <x:v>1374</x:v>
+        <x:v>1382</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B556" s="1" t="s">
-        <x:v>1375</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="C556" s="1" t="s">
-        <x:v>1376</x:v>
+        <x:v>1384</x:v>
       </x:c>
     </x:row>
     <x:row r="557" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B557" s="1" t="s">
-        <x:v>1377</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="C557" s="1" t="s">
-        <x:v>1378</x:v>
+        <x:v>1386</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B558" s="1" t="s">
-        <x:v>1379</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="C558" s="1" t="s">
-        <x:v>1380</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="F558" s="1" t="s">
-        <x:v>1381</x:v>
+        <x:v>1389</x:v>
       </x:c>
     </x:row>
     <x:row r="559" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B559" s="1" t="s">
-        <x:v>1382</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="C559" s="1" t="s">
-        <x:v>1383</x:v>
+        <x:v>1391</x:v>
       </x:c>
       <x:c r="F559" s="1" t="s">
-        <x:v>1384</x:v>
+        <x:v>1392</x:v>
       </x:c>
     </x:row>
     <x:row r="560" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B560" s="1" t="s">
-        <x:v>1385</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="C560" s="1" t="s">
-        <x:v>1386</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="F560" s="1" t="s">
-        <x:v>1387</x:v>
+        <x:v>1395</x:v>
       </x:c>
     </x:row>
     <x:row r="561" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B561" s="1" t="s">
-        <x:v>1388</x:v>
+        <x:v>1396</x:v>
       </x:c>
       <x:c r="C561" s="1" t="s">
-        <x:v>1389</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="D561" s="0" t="s">
-        <x:v>1390</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="E561" s="0" t="s">
-        <x:v>1391</x:v>
+        <x:v>1399</x:v>
+      </x:c>
+      <x:c r="F561" s="1" t="s">
+        <x:v>1400</x:v>
+      </x:c>
+      <x:c r="G561" s="1" t="s">
+        <x:v>1401</x:v>
       </x:c>
     </x:row>
     <x:row r="562" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B562" s="1" t="s">
-        <x:v>1392</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="C562" s="1" t="s">
-        <x:v>1393</x:v>
+        <x:v>1403</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B563" s="1" t="s">
-        <x:v>1394</x:v>
+        <x:v>1404</x:v>
       </x:c>
       <x:c r="C563" s="1" t="s">
-        <x:v>1395</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="F563" s="1" t="s">
-        <x:v>1396</x:v>
+        <x:v>1406</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B564" s="1" t="s">
-        <x:v>1397</x:v>
+        <x:v>1407</x:v>
       </x:c>
       <x:c r="C564" s="1" t="s">
-        <x:v>1398</x:v>
+        <x:v>1408</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B565" s="1" t="s">
-        <x:v>1399</x:v>
+        <x:v>1409</x:v>
       </x:c>
       <x:c r="C565" s="1" t="s">
-        <x:v>1400</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B566" s="1" t="s">
-        <x:v>1401</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="C566" s="1" t="s">
-        <x:v>1402</x:v>
+        <x:v>1412</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B567" s="1" t="s">
-        <x:v>1403</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="C567" s="1" t="s">
-        <x:v>1404</x:v>
+        <x:v>1414</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B568" s="1" t="s">
-        <x:v>1405</x:v>
+        <x:v>1415</x:v>
       </x:c>
       <x:c r="C568" s="1" t="s">
-        <x:v>1406</x:v>
+        <x:v>1416</x:v>
       </x:c>
     </x:row>
     <x:row r="569" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B569" s="1" t="s">
-        <x:v>1407</x:v>
+        <x:v>1417</x:v>
       </x:c>
       <x:c r="C569" s="1" t="s">
-        <x:v>1408</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="F569" s="1" t="s">
-        <x:v>1409</x:v>
+        <x:v>1419</x:v>
       </x:c>
     </x:row>
     <x:row r="570" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B570" s="1" t="s">
-        <x:v>1410</x:v>
+        <x:v>1420</x:v>
       </x:c>
       <x:c r="C570" s="1" t="s">
-        <x:v>1411</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="F570" s="1" t="s">
-        <x:v>1412</x:v>
+        <x:v>1422</x:v>
       </x:c>
     </x:row>
     <x:row r="571" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B571" s="1" t="s">
-        <x:v>1413</x:v>
+        <x:v>1423</x:v>
       </x:c>
       <x:c r="C571" s="1" t="s">
-        <x:v>1414</x:v>
+        <x:v>1424</x:v>
       </x:c>
       <x:c r="D571" s="0" t="s">
-        <x:v>1415</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="E571" s="0" t="s">
-        <x:v>1416</x:v>
+        <x:v>1426</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B572" s="1" t="s">
-        <x:v>1417</x:v>
+        <x:v>1427</x:v>
       </x:c>
       <x:c r="C572" s="1" t="s">
-        <x:v>1418</x:v>
+        <x:v>1428</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B573" s="1" t="s">
-        <x:v>1419</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="C573" s="1" t="s">
-        <x:v>1420</x:v>
+        <x:v>1430</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B574" s="1" t="s">
-        <x:v>1421</x:v>
+        <x:v>1431</x:v>
       </x:c>
       <x:c r="C574" s="1" t="s">
-        <x:v>1422</x:v>
+        <x:v>1432</x:v>
       </x:c>
     </x:row>
     <x:row r="575" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B575" s="1" t="s">
-        <x:v>1423</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="C575" s="1" t="s">
-        <x:v>1424</x:v>
+        <x:v>1434</x:v>
       </x:c>
     </x:row>
     <x:row r="576" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B576" s="1" t="s">
-        <x:v>1425</x:v>
+        <x:v>1435</x:v>
       </x:c>
       <x:c r="C576" s="1" t="s">
-        <x:v>1426</x:v>
+        <x:v>1436</x:v>
       </x:c>
     </x:row>
     <x:row r="577" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B577" s="1" t="s">
-        <x:v>1427</x:v>
+        <x:v>1437</x:v>
       </x:c>
       <x:c r="C577" s="1" t="s">
-        <x:v>1428</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>1429</x:v>
+        <x:v>1439</x:v>
       </x:c>
     </x:row>
     <x:row r="578" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B578" s="1" t="s">
-        <x:v>1430</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="C578" s="1" t="s">
-        <x:v>1431</x:v>
+        <x:v>1441</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B579" s="1" t="s">
-        <x:v>1432</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="C579" s="1" t="s">
-        <x:v>1433</x:v>
+        <x:v>1443</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B580" s="1" t="s">
-        <x:v>1434</x:v>
+        <x:v>1444</x:v>
       </x:c>
       <x:c r="C580" s="1" t="s">
-        <x:v>1435</x:v>
+        <x:v>1445</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B581" s="1" t="s">
-        <x:v>1436</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="C581" s="1" t="s">
-        <x:v>1437</x:v>
+        <x:v>1447</x:v>
       </x:c>
       <x:c r="D581" s="0" t="s">
-        <x:v>1438</x:v>
+        <x:v>1448</x:v>
       </x:c>
       <x:c r="E581" s="0" t="s">
-        <x:v>1439</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="F581" s="1" t="s">
-        <x:v>1440</x:v>
+        <x:v>1450</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B582" s="1" t="s">
-        <x:v>1441</x:v>
+        <x:v>1451</x:v>
       </x:c>
       <x:c r="C582" s="1" t="s">
-        <x:v>1442</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>1443</x:v>
+        <x:v>1453</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:7" ht="375" customHeight="1">
       <x:c r="B583" s="1" t="s">
-        <x:v>1444</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="C583" s="1" t="s">
-        <x:v>1445</x:v>
+        <x:v>1455</x:v>
       </x:c>
       <x:c r="F583" s="1" t="s">
-        <x:v>1446</x:v>
+        <x:v>1456</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:7" ht="300" customHeight="1">
       <x:c r="B584" s="1" t="s">
-        <x:v>1447</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="C584" s="1" t="s">
-        <x:v>1448</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="F584" s="1" t="s">
-        <x:v>1449</x:v>
+        <x:v>1459</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B585" s="1" t="s">
-        <x:v>1450</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="C585" s="1" t="s">
-        <x:v>1451</x:v>
+        <x:v>1461</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B586" s="1" t="s">
-        <x:v>1452</x:v>
+        <x:v>1462</x:v>
       </x:c>
       <x:c r="C586" s="1" t="s">
-        <x:v>1453</x:v>
+        <x:v>1463</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B587" s="1" t="s">
-        <x:v>1454</x:v>
+        <x:v>1464</x:v>
       </x:c>
       <x:c r="C587" s="1" t="s">
-        <x:v>1455</x:v>
+        <x:v>1465</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:7" ht="75" customHeight="1">
       <x:c r="B588" s="1" t="s">
-        <x:v>1456</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="C588" s="1" t="s">
-        <x:v>1457</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="F588" s="1" t="s">
-        <x:v>1458</x:v>
+        <x:v>1468</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B589" s="1" t="s">
-        <x:v>1459</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="C589" s="1" t="s">
-        <x:v>1460</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="F589" s="1" t="s">
-        <x:v>1461</x:v>
+        <x:v>1471</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:7" ht="262.5" customHeight="1">
       <x:c r="B590" s="1" t="s">
-        <x:v>1462</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="C590" s="1" t="s">
-        <x:v>1463</x:v>
+        <x:v>1473</x:v>
       </x:c>
       <x:c r="F590" s="1" t="s">
-        <x:v>1464</x:v>
+        <x:v>1474</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B591" s="1" t="s">
-        <x:v>1465</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="C591" s="1" t="s">
-        <x:v>1466</x:v>
+        <x:v>1476</x:v>
       </x:c>
       <x:c r="D591" s="0" t="s">
-        <x:v>1467</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="E591" s="0" t="s">
-        <x:v>1468</x:v>
+        <x:v>1478</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B592" s="1" t="s">
-        <x:v>1469</x:v>
+        <x:v>1479</x:v>
       </x:c>
       <x:c r="C592" s="1" t="s">
-        <x:v>1470</x:v>
+        <x:v>1480</x:v>
       </x:c>
     </x:row>
     <x:row r="593" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B593" s="1" t="s">
-        <x:v>1471</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="C593" s="1" t="s">
-        <x:v>1472</x:v>
+        <x:v>1482</x:v>
       </x:c>
     </x:row>
     <x:row r="594" spans="1:7" ht="75" customHeight="1">
       <x:c r="B594" s="1" t="s">
-        <x:v>1473</x:v>
+        <x:v>1483</x:v>
       </x:c>
       <x:c r="C594" s="1" t="s">
-        <x:v>1474</x:v>
+        <x:v>1484</x:v>
       </x:c>
       <x:c r="F594" s="1" t="s">
-        <x:v>1475</x:v>
+        <x:v>1485</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B595" s="1" t="s">
-        <x:v>1476</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="C595" s="1" t="s">
-        <x:v>1477</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="F595" s="1" t="s">
-        <x:v>1478</x:v>
+        <x:v>1488</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B596" s="1" t="s">
-        <x:v>1479</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="C596" s="1" t="s">
-        <x:v>1480</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
-        <x:v>1481</x:v>
+        <x:v>1491</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B597" s="1" t="s">
-        <x:v>1482</x:v>
+        <x:v>1492</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
-        <x:v>1483</x:v>
+        <x:v>1493</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B598" s="1" t="s">
-        <x:v>1484</x:v>
+        <x:v>1494</x:v>
       </x:c>
       <x:c r="C598" s="1" t="s">
-        <x:v>1485</x:v>
+        <x:v>1495</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B599" s="1" t="s">
-        <x:v>1486</x:v>
+        <x:v>1496</x:v>
       </x:c>
       <x:c r="C599" s="1" t="s">
-        <x:v>1487</x:v>
+        <x:v>1497</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B600" s="1" t="s">
-        <x:v>1488</x:v>
+        <x:v>1498</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>1489</x:v>
+        <x:v>1499</x:v>
       </x:c>
       <x:c r="F600" s="1" t="s">
-        <x:v>1490</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -17544,7 +18748,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="17.210625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="18.960625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="50.375" style="0" customWidth="1"/>
@@ -17723,7 +18927,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1491</x:v>
+        <x:v>1501</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="18.75" customHeight="1">
@@ -17750,7 +18954,7 @@
         <x:v>583</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1492</x:v>
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3" ht="18.75" customHeight="1">
@@ -17913,7 +19117,7 @@
         <x:v>1083</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1493</x:v>
+        <x:v>1503</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3" ht="18.75" customHeight="1">
@@ -17961,7 +19165,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>1236</x:v>
+        <x:v>1240</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3" ht="18.75" customHeight="1">
@@ -17969,7 +19173,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>1260</x:v>
+        <x:v>1264</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3" ht="18.75" customHeight="1">
@@ -17977,7 +19181,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>1286</x:v>
+        <x:v>1294</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3" ht="18.75" customHeight="1">
@@ -17985,7 +19189,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>1311</x:v>
+        <x:v>1319</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3" ht="18.75" customHeight="1">
@@ -17993,7 +19197,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>1336</x:v>
+        <x:v>1344</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3" ht="18.75" customHeight="1">
@@ -18001,7 +19205,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>1364</x:v>
+        <x:v>1372</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3" ht="18.75" customHeight="1">
@@ -18009,7 +19213,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>1390</x:v>
+        <x:v>1398</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" ht="18.75" customHeight="1">
@@ -18017,7 +19221,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>1415</x:v>
+        <x:v>1425</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3" ht="18.75" customHeight="1">
@@ -18025,7 +19229,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>1438</x:v>
+        <x:v>1448</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3" ht="18.75" customHeight="1">
@@ -18033,7 +19237,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>1467</x:v>
+        <x:v>1477</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -11511,13 +11511,150 @@
 （彼が遅刻するかもしれないことに驚くだろう。）
 → 「遅刻すること」が未確定で可能性に過ぎない。
 このように、「Puesto que」で理由を述べつつ、
-接続法を使って主観的な推測や感情を示している点がこの文の特徴です。</x:t>
+接続法を使って主観的な推測や感情を示している点がこの文の特徴です。
+======
+**🔹 Puesto que の使い方について解説します！**  
+### **📌 Puesto que とは？**
+➡ **「～なので」「～だから」という理由・原因を表す接続詞** です。  
+➡ **英語で言うと** *since* や *given that* に相当します。  
+➡ **理由を説明するときに使われ、直後には直説法の動詞が続きます。**  
+---
+### **🔹 例文で確認！**
+1️⃣ **Puesto que sabes mi opinión, no te sorprenderá que vote en contra.**  
+（**あなたは私の意見を知っているのだから**、私が反対に投票しても驚かないでしょう。）  
+👆 **「理由」** を説明しているので *puesto que* を使っています。  
+2️⃣ **Puesto que hace frío, voy a ponerme un abrigo.**  
+（**寒いので**、コートを着るつもりです。）  
+3️⃣ **No podemos salir, puesto que está lloviendo.**  
+（**雨が降っているので**、外出できません。）  
+---
+### **🔹 Puesto que vs. 他の「理由」を表す表現**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現       &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; 文法の特徴 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Puesto que &lt;/th&gt;
+      &lt;td&gt; 「～なので」「～だから」 &lt;/td&gt;
+      &lt;td&gt; 直説法 &lt;/td&gt;
+      &lt;td&gt; Puesto que ya es tarde, vámonos. (遅いので、帰ろう) &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Ya que &lt;/th&gt;
+      &lt;td&gt; 「～なので」「～だから」 &lt;/td&gt;
+      &lt;td&gt; 直説法 &lt;/td&gt;
+      &lt;td&gt; Ya que no tienes hambre, no cocino. (お腹が空いてないなら、料理しないよ) &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Como &lt;/th&gt;
+      &lt;td&gt; 「～なので」 (主に文頭) &lt;/td&gt;
+      &lt;td&gt; 直説法 &lt;/td&gt;
+      &lt;td&gt; Como estaba cansado, me acosté temprano. (疲れていたので、早く寝た) &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Porque &lt;/th&gt;
+      &lt;td&gt; 「～だから」 (最も一般的) &lt;/td&gt;
+      &lt;td&gt; 直説法 &lt;/td&gt;
+      &lt;td&gt; No salimos porque llueve. (雨が降っているから外出しない) &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **🔹 Puesto que のポイント**
+✅ **フォーマルな響きがあり、書き言葉でもよく使われる。**  
+✅ **「すでに知られている理由」に使われることが多い。**  
+✅ **Ya que や Como などの表現と似ているが、文頭・文中どちらでも使える。**  
+---
+### **🔹 まとめ**
+**Puesto que = 「～なので」「～だから」**  
+🔹 **すでにわかっている理由を述べるときに使う。**  
+🔹 **直説法と一緒に使われる。**  
+🔹 **フォーマルな響きがあり、書き言葉でよく使われる。**  
+**✅ 例文をもう一度！**  
+**Puesto que sabes mi opinión, no te sorprenderá que vote en contra.**  
+（**あなたは私の意見を知っているのだから**、私が反対に投票しても驚かないでしょう。）  
+この文では、「すでに相手が知っていること」を前提にしているので *puesto que* を使っています！ 💡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/07</x:t>
   </x:si>
   <x:si>
     <x:t>警察は彼女に罰金を科した、というのも時速120キロ以上で走っていたからだ</x:t>
   </x:si>
   <x:si>
     <x:t>La policía le puso una malta, pues iba a más de 120 kilómetros por hora.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>### **📌 「pues」の使い方について解説！**  
+この文の **pues** は、「理由・原因」を表しています。  
+➡ **「なぜなら」「というのも」「～だから」** という意味で使われています。  
+➡ **英語では** *because* や *since* に近いニュアンスです。  
+➡ **直後には直説法の動詞が続きます。**  
+---
+### **🔹 例文で確認！**  
+1️⃣ **La policía le puso una multa, pues iba a más de 120 kilómetros por hora.**  
+（警察は彼に**罰金を科した。なぜなら、**時速120キロ以上で走っていたからだ。）  
+2️⃣ **No voy a salir, pues está lloviendo mucho.**  
+（私は出かけないよ。**というのも**、雨がたくさん降っているから。）  
+3️⃣ **Debes descansar, pues pareces muy cansado.**  
+（**休むべきだよ、**とても疲れているようだから。）  
+---
+### **🔹 「pues」と他の「理由」を表す接続詞との違い**  
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現      &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; 文法の特徴 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Pues &lt;/th&gt;
+      &lt;td&gt; 「なぜなら」「というのも」 &lt;/td&gt;
+      &lt;td&gt; 直説法 &lt;/td&gt;
+      &lt;td&gt; No vayas, pues está muy lejos. (行かないで、遠すぎるから) &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Porque &lt;/th&gt;
+      &lt;td&gt; 「～だから」 &lt;/td&gt;
+      &lt;td&gt; 直説法 &lt;/td&gt;
+      &lt;td&gt; No salimos porque llueve. (雨が降っているから外出しない) &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Ya que &lt;/th&gt;
+      &lt;td&gt; 「～なので」 (ややフォーマル) &lt;/td&gt;
+      &lt;td&gt; 直説法 &lt;/td&gt;
+      &lt;td&gt; Ya que no tienes dinero, te invito. (お金がないなら、奢るよ) &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Como &lt;/th&gt;
+      &lt;td&gt; 「～なので」 (主に文頭) &lt;/td&gt;
+      &lt;td&gt; 直説法 &lt;/td&gt;
+      &lt;td&gt; Como estaba cansado, me fui a casa. (疲れていたので、帰った) &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **🔹 「pues」のポイント**  
+✅ **「理由」を述べるときに使う。（= porque に近い）**  
+✅ **「説明」を付け加えるときにも使える。**  
+✅ **「会話」では、言い淀みの「ええと、まあ」みたいな意味でも使われる。**  
+---
+### **🔹 まとめ**  
+この文の **pues** は、「なぜなら」「というのも」という理由を表す接続詞です！  
+直後には直説法の動詞が続き、**porque に近いけれど、よりフォーマルな響きがある** ことがポイントです。  
+**✅ 例文の再確認！**  
+**La policía le puso una multa, pues iba a más de 120 kilómetros por hora.**  
+（警察は彼に罰金を科した。**なぜなら**、時速120キロ以上で走っていたからだ。）  
+このように、前の文の「結果」に対して、「理由」を説明するために **pues** を使っています！ 💡</x:t>
   </x:si>
   <x:si>
     <x:t>あまりにすごい行列だったので、私たちは半時間待たなければならなかった</x:t>
@@ -11846,10 +11983,6 @@
 👉「話せるようになるために」というニュアンスを出したいから *para que pueda* が使われている。  
 でも、日常会話では **「Estudio español para hablar con los nativos.」** も自然なので、
 *para que pueda* にこだわる必要はありません！ 💡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025/02/06
-2025/02/06</x:t>
   </x:si>
   <x:si>
     <x:t>Javiは今度の夏ダイビングに行くために講習に申し込んだ</x:t>
@@ -12913,7 +13046,7 @@
       <x:selection activeCell="C231" sqref="C231"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="18.960625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="19.210625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -18274,457 +18407,466 @@
       <x:c r="F554" s="1" t="s">
         <x:v>1380</x:v>
       </x:c>
+      <x:c r="G554" s="0" t="s">
+        <x:v>1381</x:v>
+      </x:c>
     </x:row>
     <x:row r="555" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B555" s="1" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="C555" s="1" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="F555" s="1" t="s">
+        <x:v>1384</x:v>
+      </x:c>
+      <x:c r="G555" s="0" t="s">
         <x:v>1381</x:v>
-      </x:c>
-      <x:c r="C555" s="1" t="s">
-        <x:v>1382</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B556" s="1" t="s">
-        <x:v>1383</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="C556" s="1" t="s">
-        <x:v>1384</x:v>
+        <x:v>1386</x:v>
       </x:c>
     </x:row>
     <x:row r="557" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B557" s="1" t="s">
-        <x:v>1385</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="C557" s="1" t="s">
-        <x:v>1386</x:v>
+        <x:v>1388</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B558" s="1" t="s">
-        <x:v>1387</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="C558" s="1" t="s">
-        <x:v>1388</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="F558" s="1" t="s">
-        <x:v>1389</x:v>
+        <x:v>1391</x:v>
       </x:c>
     </x:row>
     <x:row r="559" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B559" s="1" t="s">
-        <x:v>1390</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="C559" s="1" t="s">
-        <x:v>1391</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="F559" s="1" t="s">
-        <x:v>1392</x:v>
+        <x:v>1394</x:v>
       </x:c>
     </x:row>
     <x:row r="560" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B560" s="1" t="s">
-        <x:v>1393</x:v>
+        <x:v>1395</x:v>
       </x:c>
       <x:c r="C560" s="1" t="s">
-        <x:v>1394</x:v>
+        <x:v>1396</x:v>
       </x:c>
       <x:c r="F560" s="1" t="s">
-        <x:v>1395</x:v>
+        <x:v>1397</x:v>
       </x:c>
     </x:row>
     <x:row r="561" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B561" s="1" t="s">
-        <x:v>1396</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="C561" s="1" t="s">
-        <x:v>1397</x:v>
+        <x:v>1399</x:v>
       </x:c>
       <x:c r="D561" s="0" t="s">
-        <x:v>1398</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="E561" s="0" t="s">
-        <x:v>1399</x:v>
+        <x:v>1401</x:v>
       </x:c>
       <x:c r="F561" s="1" t="s">
-        <x:v>1400</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="G561" s="1" t="s">
-        <x:v>1401</x:v>
+        <x:v>1278</x:v>
       </x:c>
     </x:row>
     <x:row r="562" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B562" s="1" t="s">
-        <x:v>1402</x:v>
+        <x:v>1403</x:v>
       </x:c>
       <x:c r="C562" s="1" t="s">
-        <x:v>1403</x:v>
+        <x:v>1404</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B563" s="1" t="s">
-        <x:v>1404</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="C563" s="1" t="s">
-        <x:v>1405</x:v>
+        <x:v>1406</x:v>
       </x:c>
       <x:c r="F563" s="1" t="s">
-        <x:v>1406</x:v>
+        <x:v>1407</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B564" s="1" t="s">
-        <x:v>1407</x:v>
+        <x:v>1408</x:v>
       </x:c>
       <x:c r="C564" s="1" t="s">
-        <x:v>1408</x:v>
+        <x:v>1409</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B565" s="1" t="s">
-        <x:v>1409</x:v>
+        <x:v>1410</x:v>
       </x:c>
       <x:c r="C565" s="1" t="s">
-        <x:v>1410</x:v>
+        <x:v>1411</x:v>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B566" s="1" t="s">
-        <x:v>1411</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="C566" s="1" t="s">
-        <x:v>1412</x:v>
+        <x:v>1413</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B567" s="1" t="s">
-        <x:v>1413</x:v>
+        <x:v>1414</x:v>
       </x:c>
       <x:c r="C567" s="1" t="s">
-        <x:v>1414</x:v>
+        <x:v>1415</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B568" s="1" t="s">
-        <x:v>1415</x:v>
+        <x:v>1416</x:v>
       </x:c>
       <x:c r="C568" s="1" t="s">
-        <x:v>1416</x:v>
+        <x:v>1417</x:v>
       </x:c>
     </x:row>
     <x:row r="569" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B569" s="1" t="s">
-        <x:v>1417</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="C569" s="1" t="s">
-        <x:v>1418</x:v>
+        <x:v>1419</x:v>
       </x:c>
       <x:c r="F569" s="1" t="s">
-        <x:v>1419</x:v>
+        <x:v>1420</x:v>
       </x:c>
     </x:row>
     <x:row r="570" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B570" s="1" t="s">
-        <x:v>1420</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="C570" s="1" t="s">
-        <x:v>1421</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="F570" s="1" t="s">
-        <x:v>1422</x:v>
+        <x:v>1423</x:v>
       </x:c>
     </x:row>
     <x:row r="571" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B571" s="1" t="s">
-        <x:v>1423</x:v>
+        <x:v>1424</x:v>
       </x:c>
       <x:c r="C571" s="1" t="s">
-        <x:v>1424</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="D571" s="0" t="s">
-        <x:v>1425</x:v>
+        <x:v>1426</x:v>
       </x:c>
       <x:c r="E571" s="0" t="s">
-        <x:v>1426</x:v>
+        <x:v>1427</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B572" s="1" t="s">
-        <x:v>1427</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="C572" s="1" t="s">
-        <x:v>1428</x:v>
+        <x:v>1429</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B573" s="1" t="s">
-        <x:v>1429</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="C573" s="1" t="s">
-        <x:v>1430</x:v>
+        <x:v>1431</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B574" s="1" t="s">
-        <x:v>1431</x:v>
+        <x:v>1432</x:v>
       </x:c>
       <x:c r="C574" s="1" t="s">
-        <x:v>1432</x:v>
+        <x:v>1433</x:v>
       </x:c>
     </x:row>
     <x:row r="575" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B575" s="1" t="s">
-        <x:v>1433</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="C575" s="1" t="s">
-        <x:v>1434</x:v>
+        <x:v>1435</x:v>
       </x:c>
     </x:row>
     <x:row r="576" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B576" s="1" t="s">
-        <x:v>1435</x:v>
+        <x:v>1436</x:v>
       </x:c>
       <x:c r="C576" s="1" t="s">
-        <x:v>1436</x:v>
+        <x:v>1437</x:v>
       </x:c>
     </x:row>
     <x:row r="577" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B577" s="1" t="s">
-        <x:v>1437</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="C577" s="1" t="s">
-        <x:v>1438</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>1439</x:v>
+        <x:v>1440</x:v>
       </x:c>
     </x:row>
     <x:row r="578" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B578" s="1" t="s">
-        <x:v>1440</x:v>
+        <x:v>1441</x:v>
       </x:c>
       <x:c r="C578" s="1" t="s">
-        <x:v>1441</x:v>
+        <x:v>1442</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B579" s="1" t="s">
-        <x:v>1442</x:v>
+        <x:v>1443</x:v>
       </x:c>
       <x:c r="C579" s="1" t="s">
-        <x:v>1443</x:v>
+        <x:v>1444</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B580" s="1" t="s">
-        <x:v>1444</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="C580" s="1" t="s">
-        <x:v>1445</x:v>
+        <x:v>1446</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B581" s="1" t="s">
-        <x:v>1446</x:v>
+        <x:v>1447</x:v>
       </x:c>
       <x:c r="C581" s="1" t="s">
-        <x:v>1447</x:v>
+        <x:v>1448</x:v>
       </x:c>
       <x:c r="D581" s="0" t="s">
-        <x:v>1448</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="E581" s="0" t="s">
-        <x:v>1449</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="F581" s="1" t="s">
-        <x:v>1450</x:v>
+        <x:v>1451</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B582" s="1" t="s">
-        <x:v>1451</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="C582" s="1" t="s">
-        <x:v>1452</x:v>
+        <x:v>1453</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>1453</x:v>
+        <x:v>1454</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:7" ht="375" customHeight="1">
       <x:c r="B583" s="1" t="s">
-        <x:v>1454</x:v>
+        <x:v>1455</x:v>
       </x:c>
       <x:c r="C583" s="1" t="s">
-        <x:v>1455</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="F583" s="1" t="s">
-        <x:v>1456</x:v>
+        <x:v>1457</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:7" ht="300" customHeight="1">
       <x:c r="B584" s="1" t="s">
-        <x:v>1457</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="C584" s="1" t="s">
-        <x:v>1458</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="F584" s="1" t="s">
-        <x:v>1459</x:v>
+        <x:v>1460</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B585" s="1" t="s">
-        <x:v>1460</x:v>
+        <x:v>1461</x:v>
       </x:c>
       <x:c r="C585" s="1" t="s">
-        <x:v>1461</x:v>
+        <x:v>1462</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B586" s="1" t="s">
-        <x:v>1462</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="C586" s="1" t="s">
-        <x:v>1463</x:v>
+        <x:v>1464</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B587" s="1" t="s">
-        <x:v>1464</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="C587" s="1" t="s">
-        <x:v>1465</x:v>
+        <x:v>1466</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:7" ht="75" customHeight="1">
       <x:c r="B588" s="1" t="s">
-        <x:v>1466</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="C588" s="1" t="s">
-        <x:v>1467</x:v>
+        <x:v>1468</x:v>
       </x:c>
       <x:c r="F588" s="1" t="s">
-        <x:v>1468</x:v>
+        <x:v>1469</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B589" s="1" t="s">
-        <x:v>1469</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="C589" s="1" t="s">
-        <x:v>1470</x:v>
+        <x:v>1471</x:v>
       </x:c>
       <x:c r="F589" s="1" t="s">
-        <x:v>1471</x:v>
+        <x:v>1472</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:7" ht="262.5" customHeight="1">
       <x:c r="B590" s="1" t="s">
-        <x:v>1472</x:v>
+        <x:v>1473</x:v>
       </x:c>
       <x:c r="C590" s="1" t="s">
-        <x:v>1473</x:v>
+        <x:v>1474</x:v>
       </x:c>
       <x:c r="F590" s="1" t="s">
-        <x:v>1474</x:v>
+        <x:v>1475</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B591" s="1" t="s">
-        <x:v>1475</x:v>
+        <x:v>1476</x:v>
       </x:c>
       <x:c r="C591" s="1" t="s">
-        <x:v>1476</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="D591" s="0" t="s">
-        <x:v>1477</x:v>
+        <x:v>1478</x:v>
       </x:c>
       <x:c r="E591" s="0" t="s">
-        <x:v>1478</x:v>
+        <x:v>1479</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B592" s="1" t="s">
-        <x:v>1479</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="C592" s="1" t="s">
-        <x:v>1480</x:v>
+        <x:v>1481</x:v>
       </x:c>
     </x:row>
     <x:row r="593" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B593" s="1" t="s">
-        <x:v>1481</x:v>
+        <x:v>1482</x:v>
       </x:c>
       <x:c r="C593" s="1" t="s">
-        <x:v>1482</x:v>
+        <x:v>1483</x:v>
       </x:c>
     </x:row>
     <x:row r="594" spans="1:7" ht="75" customHeight="1">
       <x:c r="B594" s="1" t="s">
-        <x:v>1483</x:v>
+        <x:v>1484</x:v>
       </x:c>
       <x:c r="C594" s="1" t="s">
-        <x:v>1484</x:v>
+        <x:v>1485</x:v>
       </x:c>
       <x:c r="F594" s="1" t="s">
-        <x:v>1485</x:v>
+        <x:v>1486</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B595" s="1" t="s">
-        <x:v>1486</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="C595" s="1" t="s">
-        <x:v>1487</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="F595" s="1" t="s">
-        <x:v>1488</x:v>
+        <x:v>1489</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B596" s="1" t="s">
-        <x:v>1489</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="C596" s="1" t="s">
-        <x:v>1490</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
-        <x:v>1491</x:v>
+        <x:v>1492</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B597" s="1" t="s">
-        <x:v>1492</x:v>
+        <x:v>1493</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
-        <x:v>1493</x:v>
+        <x:v>1494</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B598" s="1" t="s">
-        <x:v>1494</x:v>
+        <x:v>1495</x:v>
       </x:c>
       <x:c r="C598" s="1" t="s">
-        <x:v>1495</x:v>
+        <x:v>1496</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B599" s="1" t="s">
-        <x:v>1496</x:v>
+        <x:v>1497</x:v>
       </x:c>
       <x:c r="C599" s="1" t="s">
-        <x:v>1497</x:v>
+        <x:v>1498</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B600" s="1" t="s">
-        <x:v>1498</x:v>
+        <x:v>1499</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>1499</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="F600" s="1" t="s">
-        <x:v>1500</x:v>
+        <x:v>1501</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -18748,7 +18890,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="18.960625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="19.210625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="50.375" style="0" customWidth="1"/>
@@ -18927,7 +19069,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1501</x:v>
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="18.75" customHeight="1">
@@ -18954,7 +19096,7 @@
         <x:v>583</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1502</x:v>
+        <x:v>1503</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3" ht="18.75" customHeight="1">
@@ -19117,7 +19259,7 @@
         <x:v>1083</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1503</x:v>
+        <x:v>1504</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3" ht="18.75" customHeight="1">
@@ -19213,7 +19355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>1398</x:v>
+        <x:v>1400</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" ht="18.75" customHeight="1">
@@ -19221,7 +19363,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>1425</x:v>
+        <x:v>1426</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3" ht="18.75" customHeight="1">
@@ -19229,7 +19371,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>1448</x:v>
+        <x:v>1449</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3" ht="18.75" customHeight="1">
@@ -19237,7 +19379,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>1477</x:v>
+        <x:v>1478</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -10924,6 +10924,76 @@
     <x:t>Yo en su lugar, no me arriesgaría.</x:t>
   </x:si>
   <x:si>
+    <x:t>&lt;pregunta&gt;
+iremosについて、なぜ未来形なのでしょうか？
+vamos al zoológicoでもいいような気がするのですが。
+というか、iremosを使ってことがないので、私はとっさにはvamosを使ってしまうでしょうね。
+&lt;/pregunta&gt;
+**「Si mañana hace buen tiempo, iremos al zoológico.」** の **「iremos」** について、
+なぜ未来形が使われているのかを詳しく解説します！😊  
+---
+### **1. 未来形の「iremos」が使われる理由**
+この文は **「Si + 現在形, 未来形」** の構造になっています。  
+この形は **「可能性のある未来の条件文」** を表します。
+📌 **文法ルール：「Si + 現在形, 未来形」**  
+👉 「もし○○なら、～する（未来に）」  
+つまり、  
+✅ **「Si mañana hace buen tiempo, iremos al zoológico.」**  
+＝「もし明日天気が良ければ、動物園に行くつもりだ。」  
+この場合、**「iremos」** を使うことで **「今は決まっていないけど、
+条件次第で未来に起こる可能性が高い」** というニュアンスが強くなります。
+---
+### **2. 「vamos al zoológico」でもOK？**
+👉 **「Si mañana hace buen tiempo, vamos al zoológico.」**  
+これは **ネイティブも言うことがある表現** です！  
+**「vamos」** を使うと、**よりカジュアルで口語的な響き** になり、
+未来形ほど「確定的」な感じがしません。  
+例えば、家族や友達同士で話していて、
+**「天気がよかったら、行こうね！」** という感覚なら **「vamos」** も自然に聞こえます。  
+✅ **「Si hace buen tiempo, vamos al zoológico.」**（気軽な会話）  
+✅ **「Si hace buen tiempo, iremos al zoológico.」**（少しフォーマル・予定を強調）  
+---
+### **3. 「iremos」と「vamos」の違い**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 動詞 &lt;/th&gt;
+      &lt;th&gt; ニュアンス &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; iremos（未来形） &lt;/th&gt;
+      &lt;td&gt; 「予定・確定した未来」「行くつもりだ」「行くことが決まっている」 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; vamos（現在形） &lt;/th&gt;
+      &lt;td&gt; 「近い未来・計画」「行こうね」「行くって感じでOK？」 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+💡 **未来のことでも、現在形を使うことはよくある！**  
+特に**会話では「vamos」を使うことが多い**です。  
+---
+### **4. 「irá」「va」の場合も考えてみよう**
+**「Si mañana hace buen tiempo, irá al zoológico.」**（彼/彼女は行くだろう）  
+👉 未来の予定だけど、話し手が主語（彼/彼女）の意志を知らない場合。  
+**「Si mañana hace buen tiempo, va al zoológico.」**（彼/彼女は行く予定）  
+👉 すでに決まっている予定を話す場合。  
+---
+### **5. まとめ**
+✅ 「Si + 現在形, 未来形」は「条件付きの未来の出来事」を表す。  
+✅ 「iremos」は **「決まった予定・確定的な未来」** を強調。  
+✅ 「vamos」は **「気軽な話し方・会話的」** で使われることもある。  
+✅ **会話では「vamos」のほうが自然な場合が多い** ので、使ってもOK！😊  
+つまり、あなたがとっさに **「vamos」** を使ってしまうのは、**自然な感覚** だから大丈夫！  
+フォーマルな場面や文章では **「iremos」** を使うことも意識しておけば、完璧ですね！💡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/12 水
+2025/02/12 水</x:t>
+  </x:si>
+  <x:si>
     <x:t>私があなたの立場なら、危険は冒さずにまたの機会を待つでしょう</x:t>
   </x:si>
   <x:si>
@@ -11007,6 +11077,40 @@
   </x:si>
   <x:si>
     <x:t>De ser cierto lo que dice Ramón, tendríamos que replantear el procedimiento.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>この文 **「De ser cierto lo que dice Ramón, tendríamos que replantear el procedimiento.」** 
+において、**「tendríamos」**（tenerの過去未来形・条件法）が使われている理由を説明します！  
+---
+### **1. 文の意味**
+📌 **「もしラモンが言っていることが本当なら、手続きを見直さなければならないだろう。」**  
+---
+### **2. 条件法（過去未来形）の役割**
+**「tendríamos」** は **「tener que + 不定詞（～しなければならない）」** の条件法（過去未来形）です。  
+条件法は、「仮定条件」を表すときに使われます。
+**✅ 文法ルール：「もし○○なら、～するだろう」**
+→ **Si（もし）+ 接続法過去, 条件法（過去未来形）**  
+これは **「非現実的な仮定（仮定法過去）」** を表す構文です。  
+普通の形だとこうなります👇  
+📌 **Si lo que dice Ramón fuera cierto, tendríamos que replantear el procedimiento.**  
+（もしラモンが言っていることが本当なら、手続きを見直さなければならないだろう。）
+---
+### **3. なぜ「De ser cierto」が使われているの？**
+**「De ser cierto」** は **「Si lo que dice Ramón fuera cierto」** の代わりに使われる形式で、よりフォーマルな表現です。  
+🔹 **「De + 不定詞」** は仮定を表す言い方。  
+- **「De ser cierto ～」** ＝ 「もし～が本当なら」  
+- **「De haber sabido esto antes, habría actuado diferente.」**  
+  （もしこれを前もって知っていたら、違う行動をしていただろう。）  
+👉 つまり、**「De ser cierto lo que dice Ramón」** ＝ **「Si lo que dice Ramón fuera cierto」**（仮定法過去）  
+---
+### **4. まとめ**
+✅ **「tendríamos」**（tenerの条件法）は、仮定法の結果として使われている！  
+✅ **「De ser cierto ～」** は「Si + 接続法過去」の代わりに使えるフォーマルな表現。  
+✅ **「Si lo que dice Ramón fuera cierto, tendríamos que replantear el procedimiento.」** と同じ意味！  
+このような表現はニュース記事やビジネス文書などでよく見かけるので、覚えておくと便利ですよ！😊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/12 水</x:t>
   </x:si>
   <x:si>
     <x:t>より良いオファーがあるのでない限り、予定通り続けるしか方法がありません</x:t>
@@ -13046,7 +13150,7 @@
       <x:selection activeCell="C231" sqref="C231"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="19.210625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="19.585625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -18175,86 +18279,98 @@
       <x:c r="E531" s="0" t="s">
         <x:v>1320</x:v>
       </x:c>
+      <x:c r="F531" s="1" t="s">
+        <x:v>1321</x:v>
+      </x:c>
+      <x:c r="G531" s="1" t="s">
+        <x:v>1322</x:v>
+      </x:c>
     </x:row>
     <x:row r="532" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B532" s="1" t="s">
-        <x:v>1321</x:v>
+        <x:v>1323</x:v>
       </x:c>
       <x:c r="C532" s="1" t="s">
-        <x:v>1322</x:v>
+        <x:v>1324</x:v>
       </x:c>
       <x:c r="F532" s="1" t="s">
-        <x:v>1323</x:v>
+        <x:v>1325</x:v>
       </x:c>
     </x:row>
     <x:row r="533" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B533" s="1" t="s">
-        <x:v>1324</x:v>
+        <x:v>1326</x:v>
       </x:c>
       <x:c r="C533" s="1" t="s">
-        <x:v>1325</x:v>
+        <x:v>1327</x:v>
       </x:c>
     </x:row>
     <x:row r="534" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B534" s="1" t="s">
-        <x:v>1326</x:v>
+        <x:v>1328</x:v>
       </x:c>
       <x:c r="C534" s="1" t="s">
-        <x:v>1327</x:v>
+        <x:v>1329</x:v>
       </x:c>
       <x:c r="F534" s="1" t="s">
-        <x:v>1328</x:v>
+        <x:v>1330</x:v>
       </x:c>
     </x:row>
     <x:row r="535" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B535" s="1" t="s">
-        <x:v>1329</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="C535" s="1" t="s">
-        <x:v>1330</x:v>
+        <x:v>1332</x:v>
       </x:c>
     </x:row>
     <x:row r="536" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B536" s="1" t="s">
-        <x:v>1331</x:v>
+        <x:v>1333</x:v>
       </x:c>
       <x:c r="C536" s="1" t="s">
-        <x:v>1332</x:v>
+        <x:v>1334</x:v>
       </x:c>
     </x:row>
     <x:row r="537" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B537" s="1" t="s">
-        <x:v>1333</x:v>
+        <x:v>1335</x:v>
       </x:c>
       <x:c r="C537" s="1" t="s">
-        <x:v>1334</x:v>
+        <x:v>1336</x:v>
       </x:c>
     </x:row>
     <x:row r="538" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B538" s="1" t="s">
-        <x:v>1335</x:v>
+        <x:v>1337</x:v>
       </x:c>
       <x:c r="C538" s="1" t="s">
-        <x:v>1336</x:v>
+        <x:v>1338</x:v>
       </x:c>
     </x:row>
     <x:row r="539" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B539" s="1" t="s">
-        <x:v>1337</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="C539" s="1" t="s">
-        <x:v>1338</x:v>
+        <x:v>1340</x:v>
+      </x:c>
+      <x:c r="F539" s="1" t="s">
+        <x:v>1341</x:v>
+      </x:c>
+      <x:c r="G539" s="0" t="s">
+        <x:v>1342</x:v>
       </x:c>
     </x:row>
     <x:row r="540" spans="1:7" ht="318.75" customHeight="1">
       <x:c r="B540" s="1" t="s">
-        <x:v>1339</x:v>
+        <x:v>1343</x:v>
       </x:c>
       <x:c r="C540" s="1" t="s">
-        <x:v>1340</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="F540" s="1" t="s">
-        <x:v>1341</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="G540" s="0" t="s">
         <x:v>1218</x:v>
@@ -18262,233 +18378,233 @@
     </x:row>
     <x:row r="541" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B541" s="1" t="s">
-        <x:v>1342</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="C541" s="1" t="s">
-        <x:v>1343</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="D541" s="0" t="s">
-        <x:v>1344</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="E541" s="0" t="s">
-        <x:v>1345</x:v>
+        <x:v>1349</x:v>
       </x:c>
     </x:row>
     <x:row r="542" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B542" s="1" t="s">
-        <x:v>1346</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="C542" s="1" t="s">
-        <x:v>1347</x:v>
+        <x:v>1351</x:v>
       </x:c>
       <x:c r="F542" s="1" t="s">
-        <x:v>1348</x:v>
+        <x:v>1352</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B543" s="1" t="s">
+        <x:v>1353</x:v>
+      </x:c>
+      <x:c r="C543" s="1" t="s">
         <x:v>1349</x:v>
-      </x:c>
-      <x:c r="C543" s="1" t="s">
-        <x:v>1345</x:v>
       </x:c>
     </x:row>
     <x:row r="544" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B544" s="1" t="s">
-        <x:v>1350</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="C544" s="1" t="s">
-        <x:v>1351</x:v>
+        <x:v>1355</x:v>
       </x:c>
     </x:row>
     <x:row r="545" spans="1:7" ht="187.5" customHeight="1">
       <x:c r="B545" s="1" t="s">
-        <x:v>1352</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="C545" s="1" t="s">
-        <x:v>1353</x:v>
+        <x:v>1357</x:v>
       </x:c>
       <x:c r="F545" s="1" t="s">
-        <x:v>1354</x:v>
+        <x:v>1358</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B546" s="1" t="s">
-        <x:v>1355</x:v>
+        <x:v>1359</x:v>
       </x:c>
       <x:c r="C546" s="1" t="s">
-        <x:v>1356</x:v>
+        <x:v>1360</x:v>
       </x:c>
       <x:c r="F546" s="1" t="s">
-        <x:v>1357</x:v>
+        <x:v>1361</x:v>
       </x:c>
     </x:row>
     <x:row r="547" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B547" s="1" t="s">
-        <x:v>1358</x:v>
+        <x:v>1362</x:v>
       </x:c>
       <x:c r="C547" s="1" t="s">
-        <x:v>1359</x:v>
+        <x:v>1363</x:v>
       </x:c>
       <x:c r="F547" s="1" t="s">
-        <x:v>1360</x:v>
+        <x:v>1364</x:v>
       </x:c>
     </x:row>
     <x:row r="548" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B548" s="1" t="s">
-        <x:v>1361</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="C548" s="1" t="s">
-        <x:v>1362</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="F548" s="1" t="s">
-        <x:v>1363</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="549" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B549" s="1" t="s">
-        <x:v>1364</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="C549" s="1" t="s">
-        <x:v>1365</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="F549" s="1" t="s">
-        <x:v>1366</x:v>
+        <x:v>1370</x:v>
       </x:c>
     </x:row>
     <x:row r="550" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B550" s="1" t="s">
-        <x:v>1367</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="C550" s="1" t="s">
-        <x:v>1368</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="F550" s="1" t="s">
-        <x:v>1369</x:v>
+        <x:v>1373</x:v>
       </x:c>
     </x:row>
     <x:row r="551" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B551" s="1" t="s">
-        <x:v>1370</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="C551" s="1" t="s">
-        <x:v>1371</x:v>
+        <x:v>1375</x:v>
       </x:c>
       <x:c r="D551" s="0" t="s">
-        <x:v>1372</x:v>
+        <x:v>1376</x:v>
       </x:c>
       <x:c r="E551" s="0" t="s">
-        <x:v>1373</x:v>
+        <x:v>1377</x:v>
       </x:c>
     </x:row>
     <x:row r="552" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B552" s="1" t="s">
-        <x:v>1374</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="C552" s="1" t="s">
-        <x:v>1375</x:v>
+        <x:v>1379</x:v>
       </x:c>
     </x:row>
     <x:row r="553" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B553" s="1" t="s">
-        <x:v>1376</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="C553" s="1" t="s">
-        <x:v>1377</x:v>
+        <x:v>1381</x:v>
       </x:c>
     </x:row>
     <x:row r="554" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B554" s="1" t="s">
-        <x:v>1378</x:v>
+        <x:v>1382</x:v>
       </x:c>
       <x:c r="C554" s="1" t="s">
-        <x:v>1379</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="F554" s="1" t="s">
-        <x:v>1380</x:v>
+        <x:v>1384</x:v>
       </x:c>
       <x:c r="G554" s="0" t="s">
-        <x:v>1381</x:v>
+        <x:v>1385</x:v>
       </x:c>
     </x:row>
     <x:row r="555" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B555" s="1" t="s">
-        <x:v>1382</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="C555" s="1" t="s">
-        <x:v>1383</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="F555" s="1" t="s">
-        <x:v>1384</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="G555" s="0" t="s">
-        <x:v>1381</x:v>
+        <x:v>1385</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B556" s="1" t="s">
-        <x:v>1385</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="C556" s="1" t="s">
-        <x:v>1386</x:v>
+        <x:v>1390</x:v>
       </x:c>
     </x:row>
     <x:row r="557" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B557" s="1" t="s">
-        <x:v>1387</x:v>
+        <x:v>1391</x:v>
       </x:c>
       <x:c r="C557" s="1" t="s">
-        <x:v>1388</x:v>
+        <x:v>1392</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B558" s="1" t="s">
-        <x:v>1389</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="C558" s="1" t="s">
-        <x:v>1390</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="F558" s="1" t="s">
-        <x:v>1391</x:v>
+        <x:v>1395</x:v>
       </x:c>
     </x:row>
     <x:row r="559" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B559" s="1" t="s">
-        <x:v>1392</x:v>
+        <x:v>1396</x:v>
       </x:c>
       <x:c r="C559" s="1" t="s">
-        <x:v>1393</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="F559" s="1" t="s">
-        <x:v>1394</x:v>
+        <x:v>1398</x:v>
       </x:c>
     </x:row>
     <x:row r="560" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B560" s="1" t="s">
-        <x:v>1395</x:v>
+        <x:v>1399</x:v>
       </x:c>
       <x:c r="C560" s="1" t="s">
-        <x:v>1396</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="F560" s="1" t="s">
-        <x:v>1397</x:v>
+        <x:v>1401</x:v>
       </x:c>
     </x:row>
     <x:row r="561" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B561" s="1" t="s">
-        <x:v>1398</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="C561" s="1" t="s">
-        <x:v>1399</x:v>
+        <x:v>1403</x:v>
       </x:c>
       <x:c r="D561" s="0" t="s">
-        <x:v>1400</x:v>
+        <x:v>1404</x:v>
       </x:c>
       <x:c r="E561" s="0" t="s">
-        <x:v>1401</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="F561" s="1" t="s">
-        <x:v>1402</x:v>
+        <x:v>1406</x:v>
       </x:c>
       <x:c r="G561" s="1" t="s">
         <x:v>1278</x:v>
@@ -18496,377 +18612,377 @@
     </x:row>
     <x:row r="562" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B562" s="1" t="s">
-        <x:v>1403</x:v>
+        <x:v>1407</x:v>
       </x:c>
       <x:c r="C562" s="1" t="s">
-        <x:v>1404</x:v>
+        <x:v>1408</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B563" s="1" t="s">
-        <x:v>1405</x:v>
+        <x:v>1409</x:v>
       </x:c>
       <x:c r="C563" s="1" t="s">
-        <x:v>1406</x:v>
+        <x:v>1410</x:v>
       </x:c>
       <x:c r="F563" s="1" t="s">
-        <x:v>1407</x:v>
+        <x:v>1411</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B564" s="1" t="s">
-        <x:v>1408</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="C564" s="1" t="s">
-        <x:v>1409</x:v>
+        <x:v>1413</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B565" s="1" t="s">
-        <x:v>1410</x:v>
+        <x:v>1414</x:v>
       </x:c>
       <x:c r="C565" s="1" t="s">
-        <x:v>1411</x:v>
+        <x:v>1415</x:v>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B566" s="1" t="s">
-        <x:v>1412</x:v>
+        <x:v>1416</x:v>
       </x:c>
       <x:c r="C566" s="1" t="s">
-        <x:v>1413</x:v>
+        <x:v>1417</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B567" s="1" t="s">
-        <x:v>1414</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="C567" s="1" t="s">
-        <x:v>1415</x:v>
+        <x:v>1419</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B568" s="1" t="s">
-        <x:v>1416</x:v>
+        <x:v>1420</x:v>
       </x:c>
       <x:c r="C568" s="1" t="s">
-        <x:v>1417</x:v>
+        <x:v>1421</x:v>
       </x:c>
     </x:row>
     <x:row r="569" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B569" s="1" t="s">
-        <x:v>1418</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="C569" s="1" t="s">
-        <x:v>1419</x:v>
+        <x:v>1423</x:v>
       </x:c>
       <x:c r="F569" s="1" t="s">
-        <x:v>1420</x:v>
+        <x:v>1424</x:v>
       </x:c>
     </x:row>
     <x:row r="570" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B570" s="1" t="s">
-        <x:v>1421</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="C570" s="1" t="s">
-        <x:v>1422</x:v>
+        <x:v>1426</x:v>
       </x:c>
       <x:c r="F570" s="1" t="s">
-        <x:v>1423</x:v>
+        <x:v>1427</x:v>
       </x:c>
     </x:row>
     <x:row r="571" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B571" s="1" t="s">
-        <x:v>1424</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="C571" s="1" t="s">
-        <x:v>1425</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="D571" s="0" t="s">
-        <x:v>1426</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="E571" s="0" t="s">
-        <x:v>1427</x:v>
+        <x:v>1431</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B572" s="1" t="s">
-        <x:v>1428</x:v>
+        <x:v>1432</x:v>
       </x:c>
       <x:c r="C572" s="1" t="s">
-        <x:v>1429</x:v>
+        <x:v>1433</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B573" s="1" t="s">
-        <x:v>1430</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="C573" s="1" t="s">
-        <x:v>1431</x:v>
+        <x:v>1435</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B574" s="1" t="s">
-        <x:v>1432</x:v>
+        <x:v>1436</x:v>
       </x:c>
       <x:c r="C574" s="1" t="s">
-        <x:v>1433</x:v>
+        <x:v>1437</x:v>
       </x:c>
     </x:row>
     <x:row r="575" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B575" s="1" t="s">
-        <x:v>1434</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="C575" s="1" t="s">
-        <x:v>1435</x:v>
+        <x:v>1439</x:v>
       </x:c>
     </x:row>
     <x:row r="576" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B576" s="1" t="s">
-        <x:v>1436</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="C576" s="1" t="s">
-        <x:v>1437</x:v>
+        <x:v>1441</x:v>
       </x:c>
     </x:row>
     <x:row r="577" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B577" s="1" t="s">
-        <x:v>1438</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="C577" s="1" t="s">
-        <x:v>1439</x:v>
+        <x:v>1443</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>1440</x:v>
+        <x:v>1444</x:v>
       </x:c>
     </x:row>
     <x:row r="578" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B578" s="1" t="s">
-        <x:v>1441</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="C578" s="1" t="s">
-        <x:v>1442</x:v>
+        <x:v>1446</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B579" s="1" t="s">
-        <x:v>1443</x:v>
+        <x:v>1447</x:v>
       </x:c>
       <x:c r="C579" s="1" t="s">
-        <x:v>1444</x:v>
+        <x:v>1448</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B580" s="1" t="s">
-        <x:v>1445</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="C580" s="1" t="s">
-        <x:v>1446</x:v>
+        <x:v>1450</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B581" s="1" t="s">
-        <x:v>1447</x:v>
+        <x:v>1451</x:v>
       </x:c>
       <x:c r="C581" s="1" t="s">
-        <x:v>1448</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="D581" s="0" t="s">
-        <x:v>1449</x:v>
+        <x:v>1453</x:v>
       </x:c>
       <x:c r="E581" s="0" t="s">
-        <x:v>1450</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="F581" s="1" t="s">
-        <x:v>1451</x:v>
+        <x:v>1455</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B582" s="1" t="s">
-        <x:v>1452</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="C582" s="1" t="s">
-        <x:v>1453</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>1454</x:v>
+        <x:v>1458</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:7" ht="375" customHeight="1">
       <x:c r="B583" s="1" t="s">
-        <x:v>1455</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="C583" s="1" t="s">
-        <x:v>1456</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="F583" s="1" t="s">
-        <x:v>1457</x:v>
+        <x:v>1461</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:7" ht="300" customHeight="1">
       <x:c r="B584" s="1" t="s">
-        <x:v>1458</x:v>
+        <x:v>1462</x:v>
       </x:c>
       <x:c r="C584" s="1" t="s">
-        <x:v>1459</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="F584" s="1" t="s">
-        <x:v>1460</x:v>
+        <x:v>1464</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B585" s="1" t="s">
-        <x:v>1461</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="C585" s="1" t="s">
-        <x:v>1462</x:v>
+        <x:v>1466</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B586" s="1" t="s">
-        <x:v>1463</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="C586" s="1" t="s">
-        <x:v>1464</x:v>
+        <x:v>1468</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B587" s="1" t="s">
-        <x:v>1465</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="C587" s="1" t="s">
-        <x:v>1466</x:v>
+        <x:v>1470</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:7" ht="75" customHeight="1">
       <x:c r="B588" s="1" t="s">
-        <x:v>1467</x:v>
+        <x:v>1471</x:v>
       </x:c>
       <x:c r="C588" s="1" t="s">
-        <x:v>1468</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="F588" s="1" t="s">
-        <x:v>1469</x:v>
+        <x:v>1473</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B589" s="1" t="s">
-        <x:v>1470</x:v>
+        <x:v>1474</x:v>
       </x:c>
       <x:c r="C589" s="1" t="s">
-        <x:v>1471</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="F589" s="1" t="s">
-        <x:v>1472</x:v>
+        <x:v>1476</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:7" ht="262.5" customHeight="1">
       <x:c r="B590" s="1" t="s">
-        <x:v>1473</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="C590" s="1" t="s">
-        <x:v>1474</x:v>
+        <x:v>1478</x:v>
       </x:c>
       <x:c r="F590" s="1" t="s">
-        <x:v>1475</x:v>
+        <x:v>1479</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B591" s="1" t="s">
-        <x:v>1476</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="C591" s="1" t="s">
-        <x:v>1477</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="D591" s="0" t="s">
-        <x:v>1478</x:v>
+        <x:v>1482</x:v>
       </x:c>
       <x:c r="E591" s="0" t="s">
-        <x:v>1479</x:v>
+        <x:v>1483</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B592" s="1" t="s">
-        <x:v>1480</x:v>
+        <x:v>1484</x:v>
       </x:c>
       <x:c r="C592" s="1" t="s">
-        <x:v>1481</x:v>
+        <x:v>1485</x:v>
       </x:c>
     </x:row>
     <x:row r="593" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B593" s="1" t="s">
-        <x:v>1482</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="C593" s="1" t="s">
-        <x:v>1483</x:v>
+        <x:v>1487</x:v>
       </x:c>
     </x:row>
     <x:row r="594" spans="1:7" ht="75" customHeight="1">
       <x:c r="B594" s="1" t="s">
-        <x:v>1484</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="C594" s="1" t="s">
-        <x:v>1485</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="F594" s="1" t="s">
-        <x:v>1486</x:v>
+        <x:v>1490</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B595" s="1" t="s">
-        <x:v>1487</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="C595" s="1" t="s">
-        <x:v>1488</x:v>
+        <x:v>1492</x:v>
       </x:c>
       <x:c r="F595" s="1" t="s">
-        <x:v>1489</x:v>
+        <x:v>1493</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B596" s="1" t="s">
-        <x:v>1490</x:v>
+        <x:v>1494</x:v>
       </x:c>
       <x:c r="C596" s="1" t="s">
-        <x:v>1491</x:v>
+        <x:v>1495</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
-        <x:v>1492</x:v>
+        <x:v>1496</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B597" s="1" t="s">
-        <x:v>1493</x:v>
+        <x:v>1497</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
-        <x:v>1494</x:v>
+        <x:v>1498</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B598" s="1" t="s">
-        <x:v>1495</x:v>
+        <x:v>1499</x:v>
       </x:c>
       <x:c r="C598" s="1" t="s">
-        <x:v>1496</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B599" s="1" t="s">
-        <x:v>1497</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="C599" s="1" t="s">
-        <x:v>1498</x:v>
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B600" s="1" t="s">
-        <x:v>1499</x:v>
+        <x:v>1503</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>1500</x:v>
+        <x:v>1504</x:v>
       </x:c>
       <x:c r="F600" s="1" t="s">
-        <x:v>1501</x:v>
+        <x:v>1505</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -18890,7 +19006,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="19.210625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="19.585625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="50.375" style="0" customWidth="1"/>
@@ -19069,7 +19185,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1502</x:v>
+        <x:v>1506</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="18.75" customHeight="1">
@@ -19096,7 +19212,7 @@
         <x:v>583</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1503</x:v>
+        <x:v>1507</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3" ht="18.75" customHeight="1">
@@ -19259,7 +19375,7 @@
         <x:v>1083</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1504</x:v>
+        <x:v>1508</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3" ht="18.75" customHeight="1">
@@ -19339,7 +19455,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>1344</x:v>
+        <x:v>1348</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3" ht="18.75" customHeight="1">
@@ -19347,7 +19463,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>1372</x:v>
+        <x:v>1376</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3" ht="18.75" customHeight="1">
@@ -19355,7 +19471,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>1400</x:v>
+        <x:v>1404</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" ht="18.75" customHeight="1">
@@ -19363,7 +19479,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>1426</x:v>
+        <x:v>1430</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3" ht="18.75" customHeight="1">
@@ -19371,7 +19487,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>1449</x:v>
+        <x:v>1453</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3" ht="18.75" customHeight="1">
@@ -19379,7 +19495,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>1478</x:v>
+        <x:v>1482</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -11186,6 +11186,119 @@
     <x:t>Aunque eso sea verdad, no cambiaré de idea.</x:t>
   </x:si>
   <x:si>
+    <x:t>### **📌 譲歩を表す表現まとめ！**  
+スペイン語で「譲歩」（＝「～だけれども」「～にもかかわらず」）を表す表現はいくつかあります。  
+すでに **「aunque, por mucho que, por muy 形容詞 que, a pesar de que, pese a que」** を知っているので、
+それ以外の表現も含めて整理します！  
+---
+### **🔹 1. Aunque（～だけれども、たとえ～でも）**  
+➡ 最も一般的な譲歩表現。「直説法 or 接続法」でニュアンスが変わる！  
+✔ **Aunque llueve, saldremos.**（雨が降っているけど、出かけるよ。） → 事実の譲歩（直説法）  
+✔ **Aunque llueva, saldremos.**（たとえ雨が降っても、出かけるよ。） → 仮定の譲歩（接続法）  
+---
+### **🔹 2. Por mucho que / Por muy 形容詞 que（どんなに～しても / どんなに～でも）**  
+➡ 「いくら～しても」という強調された譲歩。**基本的に接続法** を使う！  
+✔ **Por mucho que estudies, no aprobarás sin práctica.**  
+（どんなに勉強しても、練習しないと合格しないよ。）  
+✔ **Por muy difícil que sea, lo intentaré.**  
+（どんなに難しくても、やってみるよ。）  
+---
+### **🔹 3. A pesar de que / Pese a que（～にもかかわらず）**  
+➡ **事実の譲歩** を表し、直説法が多い。  
+✔ **A pesar de que hace frío, salimos sin abrigo.**  
+（寒いにもかかわらず、私たちはコートなしで出かけた。）  
+✔ **Pese a que estaba enfermo, fue a trabajar.**  
+（彼は病気だったにもかかわらず、仕事に行った。）  
+➡ **「A pesar de ＋ 名詞 / 不定詞」もOK！**  
+✔ **A pesar del frío, salimos sin abrigo.**（寒さにもかかわらず、コートなしで出かけた。）  
+---
+### **🔹 4. Otros conectores（その他の譲歩表現）**  
+✅ **Si bien（～ではあるが）** → ちょっとフォーマル  
+✔ **Si bien es caro, vale la pena.**（高いが、それだけの価値がある。）  
+✅ **Aun cuando（たとえ～でも / ～にもかかわらず）** →「Aunque」と同じように使える  
+✔ **Aun cuando tengas razón, no cambiaré de opinión.**（たとえ君が正しくても、意見は変えない。）  
+✅ **Así + 接続法（たとえ～でも）** → **接続法必須**  
+✔ **Así me lo prohíbas, lo haré.**（たとえ君が禁止しても、やるよ。）  
+✅ **Y eso que（～なのに、それなのに）** → **カジュアルな口語表現**  
+✔ **Tiene mucho dinero, y eso que dice que no le pagan bien.**  
+（彼はお金をたくさん持っている。それなのに、給料が安いって言ってる。）  
+✅ **Con todo（それでも、とはいえ）** → **フォーマル寄り**  
+✔ **Estaba cansado; con todo, siguió trabajando.**  
+（彼は疲れていた。それでも、働き続けた。）  
+✅ **Ni aunque（たとえ～でも～ない）** → **否定の譲歩！**  
+✔ **Ni aunque me lo pidas de rodillas, te lo daré.**  
+（たとえ君がひざまずいて頼んでも、あげないよ。）  
+---
+### **📌 まとめ！**  
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味・ニュアンス &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Aunque &lt;/th&gt;
+      &lt;td&gt; ～だけれども / たとえ～でも &lt;/td&gt;
+      &lt;td&gt; Aunque llueva, saldremos. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Por mucho que / Por muy 形容詞 que &lt;/th&gt;
+      &lt;td&gt; どんなに～しても / どんなに～でも &lt;/td&gt;
+      &lt;td&gt; Por muy difícil que sea, lo intentaré. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; A pesar de que / Pese a que &lt;/th&gt;
+      &lt;td&gt; ～にもかかわらず &lt;/td&gt;
+      &lt;td&gt; A pesar de que hace frío, salimos sin abrigo. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Si bien &lt;/th&gt;
+      &lt;td&gt; ～ではあるが（フォーマル） &lt;/td&gt;
+      &lt;td&gt; Si bien es caro, vale la pena. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Aun cuando &lt;/th&gt;
+      &lt;td&gt; たとえ～でも / ～にもかかわらず &lt;/td&gt;
+      &lt;td&gt; Aun cuando tengas razón, no cambiaré de opinión. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Así + 接続法 &lt;/th&gt;
+      &lt;td&gt; たとえ～でも（強調） &lt;/td&gt;
+      &lt;td&gt; Así me lo prohíbas, lo haré. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Y eso que &lt;/th&gt;
+      &lt;td&gt; ～なのに（カジュアル） &lt;/td&gt;
+      &lt;td&gt; Tiene mucho dinero, y eso que dice que no le pagan bien. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Con todo &lt;/th&gt;
+      &lt;td&gt; それでも（フォーマル寄り） &lt;/td&gt;
+      &lt;td&gt; Estaba cansado; con todo, siguió trabajando. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Ni aunque &lt;/th&gt;
+      &lt;td&gt; たとえ～でも～ない（否定） &lt;/td&gt;
+      &lt;td&gt; Ni aunque me lo pidas de rodillas, te lo daré. &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+💡 **📝 ポイント！**  
+1️⃣ **「Aunque」** は直説法と接続法で意味が変わる！  
+2️⃣ **「Por mucho que」「Por muy 形容詞 que」** は接続法とセット！  
+3️⃣ **「A pesar de que」「Pese a que」** は事実の譲歩で直説法が多い！  
+4️⃣ **「Ni aunque」** は否定の譲歩として使う！  
+---
+これで譲歩表現はバッチリですね！💡✨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/13 木</x:t>
+  </x:si>
+  <x:si>
     <x:t>わざとじゃなかったとしても、Ángelaの態度に私はとても傷つきました</x:t>
   </x:si>
   <x:si>
@@ -11546,7 +11659,38 @@
 Estés donde estés, siempre encontrarás buena gente dispuesta a ayudarte.
 → 「どこにいようとも、いつも助ける気がある良い人々を見つけるだろう。」
 dispuesta の役割は、gente の性質（「助ける準備ができている」）を具体的に説明する点にあります。
-この表現によって、人々の親切さや気配りの良さを強調しています。</x:t>
+この表現によって、人々の親切さや気配りの良さを強調しています。
+======
+### **📌 「dispuesta a ayudarte」の解説！**  
+➡ **「dispuesta a ayudarte」** は、文全体の意味として 
+**「あなたを助ける気がある」「助ける用意がある」** というニュアンスになります。  
+---
+### **🔹 文法的な構造**  
+✅ **「dispuesta a + 動詞の原形」** = 「～する準備ができている」「～する気がある」  
+✅ **「dispuesto/a」は形容詞で、「準備ができた」「用意ができた」「～する気がある」** という意味  
+✅ **「a」は前置詞で、後ろに動詞の原形（不定詞）がくる**  
+➡ **「dispuesta a ayudarte」** は直訳すると「あなたを助ける準備ができている（人）」という意味になります！  
+---
+### **🔹 例文で確認！**  
+1️⃣ **Estoy dispuesta a trabajar en cualquier parte.**  
+（私はどこででも働く準備ができています。）  
+2️⃣ **No estaba dispuesto a aceptar las condiciones del contrato.**  
+（彼は契約の条件を受け入れる気がなかった。）  
+3️⃣ **Necesitamos gente dispuesta a ayudar a los demás.**  
+（私たちは、他の人を助ける気がある人が必要です。）  
+---
+### **🔹 文全体の意味**  
+**Estés donde estés, siempre encontrarás buena gente dispuesta a ayudarte.**  
+（どこにいても、あなたを助ける気がある良い人に必ず出会うでしょう。）  
+➡ 「dispuesta a ayudarte」は、前にある「buena gente」を説明していて、
+**「助ける準備ができている・助ける気がある人」** という意味になっています！  
+---
+### **🔹 まとめ**  
+✅ **「dispuesto/a + a + 不定詞」** = 「～する準備ができた」「～する意思がある」  
+✅ **「dispuesta a ayudarte」** は、「あなたを助ける気がある（人）」という意味  
+✅ **形容詞「dispuesto/a」が「buena gente」を説明している！**  
+➡ **「良い人（buena gente）」が「助ける準備ができている（dispuesta a ayudarte）」** 
+という関係になっているんですね！ 💡</x:t>
   </x:si>
   <x:si>
     <x:t>彼が何という名前か覚えていなかったので、話しかける勇気が出なかった</x:t>
@@ -11559,6 +11703,192 @@
   </x:si>
   <x:si>
     <x:t>Como no me acordaba de cómo se llamaba…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>### **原因・結果を表す表現のまとめ**  
+スペイン語で **原因・結果** を表す表現はたくさんありますが、**フォーマル度や使い方** によって違いがあります。  
+以下の表で **「フォーマル度・口語度」「使い方」** を整理しました！  
+---
+## **1️⃣ 直接的に「だから」と言う表現**  
+（主に接続詞・副詞として使われる）
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; フォーマル度 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; por eso &lt;/th&gt;
+      &lt;td&gt; だから、それで &lt;/td&gt;
+      &lt;td&gt; 口語的 &lt;/td&gt;
+      &lt;td&gt; Estaba cansado, por eso me fui a casa temprano.（疲れていた、それで早く帰った。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; así que &lt;/th&gt;
+      &lt;td&gt; だから、それで &lt;/td&gt;
+      &lt;td&gt; 口語的 &lt;/td&gt;
+      &lt;td&gt; No tenía dinero, así que no compré nada.（お金がなかった、だから何も買わなかった。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; por lo tanto &lt;/th&gt;
+      &lt;td&gt; したがって、それゆえ &lt;/td&gt;
+      &lt;td&gt; ややフォーマル &lt;/td&gt;
+      &lt;td&gt; No hay evidencia suficiente, por lo tanto, no podemos acusarlo.（十分な証拠がない。したがって、彼を告発できない。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; por consiguiente &lt;/th&gt;
+      &lt;td&gt; したがって、それゆえ &lt;/td&gt;
+      &lt;td&gt; フォーマル &lt;/td&gt;
+      &lt;td&gt; Está enfermo, por consiguiente, no asistirá a la reunión.（彼は病気だ。したがって、会議に出席しない。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; de ahí que + 接続法 &lt;/th&gt;
+      &lt;td&gt; そのため、それゆえに &lt;/td&gt;
+      &lt;td&gt; フォーマル &lt;/td&gt;
+      &lt;td&gt; No estudió nada, de ahí que haya suspendido el examen.（彼は全く勉強しなかった。そのため試験に落ちた。） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **2️⃣ 因果関係を強調する表現**  
+（文全体を補足する、文の最初・途中に来ることが多い）
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; フォーマル度 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; en consecuencia &lt;/th&gt;
+      &lt;td&gt; その結果、それゆえに &lt;/td&gt;
+      &lt;td&gt; フォーマル &lt;/td&gt;
+      &lt;td&gt; No cumplió con el contrato, en consecuencia, perdió el trabajo.（契約を守らなかった。その結果、仕事を失った。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; por ende &lt;/th&gt;
+      &lt;td&gt; それゆえに &lt;/td&gt;
+      &lt;td&gt; フォーマル &lt;/td&gt;
+      &lt;td&gt; El equipo no entrenó bien, por ende, no ganó el partido.（チームはちゃんと練習しなかった。それゆえに試合に勝てなかった。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; con lo cual &lt;/th&gt;
+      &lt;td&gt; それによって、その結果 &lt;/td&gt;
+      &lt;td&gt; ややフォーマル &lt;/td&gt;
+      &lt;td&gt; Se rompió la pierna, con lo cual no puede jugar al fútbol.（彼は足を骨折した。それによって、サッカーができない。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; de manera que / de modo que &lt;/th&gt;
+      &lt;td&gt; だから、それゆえに &lt;/td&gt;
+      &lt;td&gt; 口語的～フォーマル &lt;/td&gt;
+      &lt;td&gt; No me llamó, de modo que pensé que no quería venir.（彼は電話してこなかった。だから、来たくないのかと思った。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; entonces &lt;/th&gt;
+      &lt;td&gt; それで、じゃあ &lt;/td&gt;
+      &lt;td&gt; 口語的 &lt;/td&gt;
+      &lt;td&gt; No tienes tiempo, entonces mejor lo dejamos para otro día.（時間がないのね。じゃあ、別の日にしましょう。） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **3️⃣ 「～なので」「～だから」と原因を説明する表現**  
+（主に文の前半で使われる）
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; フォーマル度 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; porque &lt;/th&gt;
+      &lt;td&gt; ～だから &lt;/td&gt;
+      &lt;td&gt; 一般的 &lt;/td&gt;
+      &lt;td&gt; Me fui a casa porque estaba cansado.（疲れていたから、家に帰った。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; como（文頭） &lt;/th&gt;
+      &lt;td&gt; ～なので &lt;/td&gt;
+      &lt;td&gt; 口語的 &lt;/td&gt;
+      &lt;td&gt; Como estaba cansado, me fui a casa.（疲れていたので、家に帰った。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ya que &lt;/th&gt;
+      &lt;td&gt; ～なので &lt;/td&gt;
+      &lt;td&gt; ややフォーマル &lt;/td&gt;
+      &lt;td&gt; No puedo salir, ya que tengo que estudiar.（勉強しなければならないので、出かけられない。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; puesto que &lt;/th&gt;
+      &lt;td&gt; ～なので &lt;/td&gt;
+      &lt;td&gt; フォーマル &lt;/td&gt;
+      &lt;td&gt; Puesto que no hay tiempo, terminaremos aquí.（時間がないので、ここで終わりにします。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; debido a que &lt;/th&gt;
+      &lt;td&gt; ～のために（理由） &lt;/td&gt;
+      &lt;td&gt; フォーマル &lt;/td&gt;
+      &lt;td&gt; No pudo asistir a la reunión debido a que estaba enfermo.（彼は病気だったため、会議に出席できなかった。） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **4️⃣ 結果を強調する表現（口語的・強調）**
+（話し言葉で使われることが多い）
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; フォーマル度 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; tanto que + 動詞 &lt;/th&gt;
+      &lt;td&gt; あまりに～なので &lt;/td&gt;
+      &lt;td&gt; 口語的 &lt;/td&gt;
+      &lt;td&gt; Comí tanto que me dolió el estómago.（食べすぎてお腹が痛くなった。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; de tal forma que / de tal manera que &lt;/th&gt;
+      &lt;td&gt; ～のように、～なので &lt;/td&gt;
+      &lt;td&gt; ややフォーマル &lt;/td&gt;
+      &lt;td&gt; Explicó el tema de tal forma que todos lo entendieron.（彼は全員が理解できるように説明した。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; tal que &lt;/th&gt;
+      &lt;td&gt; あまりに～なので &lt;/td&gt;
+      &lt;td&gt; 口語的 &lt;/td&gt;
+      &lt;td&gt; El dolor era tal que no podía caminar.（痛みがあまりにひどくて歩けなかった。） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+## **まとめ**
+📌 **「だから」**（結果）：  
+- **口語的**：「por eso」「así que」「entonces」  
+- **フォーマル**：「por lo tanto」「por consiguiente」「de ahí que（+ 接続法）」  
+📌 **「その結果」**（因果関係を補足）：  
+- **フォーマル**：「en consecuencia」「por ende」「con lo cual」  
+📌 **「～なので」**（原因）：  
+- **口語的**：「porque」「como（文頭）」  
+- **フォーマル**：「ya que」「puesto que」「debido a que」  
+📌 **「～するほど」「～なので」**（強調）：  
+- 「tanto que」「de tal forma que」「tal que」  
+これらを意識して使い分けると、スペイン語の表現がより自然になりますよ！✨</x:t>
   </x:si>
   <x:si>
     <x:t>明日はとてもハードな1日になるので、今日はよく休まなくてはなりません</x:t>
@@ -11899,7 +12229,121 @@
 （痛みが非常にひどく、ホセはもう立っていられなかった。）
 まとめ
 この文は、tal que を用いて原因（痛みのひどさ）と結果（立ち続けられなかったこと）の因果関係を強調しています。
-類似の表現を覚えると、より柔軟に使えるようになります！</x:t>
+類似の表現を覚えると、より柔軟に使えるようになります！
+======
+### **📌 「tal que」の使い方について解説！**  
+この **「tal que」** は、「とても～なので」「～するほどの」という意味で、**結果** を表す表現です。  
+➡ **「tal + 名詞 + que + 結果」** の形で使われます。  
+➡ **英語では** *so... that* や *such... that* に相当します。  
+➡ **tal は強調のために使われる！**  
+---
+### **🔹 例文で確認！**  
+1️⃣ **El dolor era tal que José no pudo mantenerse más de pie.**  
+（**痛みがとても強かったので**、ホセはもう立っていられなかった。）  
+2️⃣ **Su éxito fue tal que lo invitaron a una conferencia internacional.**  
+（**彼の成功は非常に大きかったので**、国際会議に招待された。）  
+3️⃣ **Había tal ruido en la calle que no podía dormir.**  
+（**通りの騒音があまりにも大きかったので**、眠れなかった。）  
+---
+### **🔹 「tal que」のポイント！**  
+✅ **「とても～なので」「～するほどの」** の意味で結果を表す。  
+✅ **tal は後に続く名詞を強調する役割を持つ。**  
+✅ **話し言葉よりも、ややフォーマルな文章でよく使われる。**  
+---
+### **🔹 似た表現との違い**  
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 表現 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; tan ... que + 形容詞・副詞 &lt;/th&gt;
+      &lt;td&gt; 「とても～なので」 &lt;/td&gt;
+      &lt;td&gt; El problema era tan difícil que nadie pudo resolverlo. (問題はとても難しくて、誰も解けなかった) &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; tal ... que + 名詞 &lt;/th&gt;
+      &lt;td&gt; 「とても～なので」 &lt;/td&gt;
+      &lt;td&gt; Fue un tal escándalo que salió en las noticias. (それはとても大きなスキャンダルだったので、ニュースになった) &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; de tal forma que &lt;/th&gt;
+      &lt;td&gt; 「～のような形で」 &lt;/td&gt;
+      &lt;td&gt; Lo explicó de tal forma que todos lo entendieron. (彼は皆が理解できるような形で説明した) &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **🔹 まとめ**  
+**「tal que」** は、「とても～なので」「～するほどの」という **結果** を表す表現です！  
+➡ **tal + 名詞 + que + 結果** の形で使い、**「tan ... que」との違いは、
+後に続くのが名詞か形容詞・副詞か** という点です。  
+**✅ 例文の再確認！**  
+**El dolor era tal que José no pudo mantenerse más de pie.**  
+（**痛みがとても強かったので**、ホセはもう立っていられなかった。）  
+このように、前の文の「程度の大きさ」を強調しながら、後ろの文の「結果」につなげる役割を持っています！ 💡
+&lt;pregunta&gt;
+El dolor era tal que José no pudo mantenerse más de pie.
+この文のtal que の部分について、
+この構文は「tal + 名詞 + que + 結果」であるのですが
+talとqueの間に何もないのはどういうことなのでしょうか？
+talとqueの間に単語が入るときと入らないときの違いがわかりません
+&lt;/pregunta&gt;
+**「tal que」** 構文の **「tal」と「que」の間に単語が入る場合と入らない場合の違い** について説明します。  
+---
+### **🔹 「tal que」構文の基本**
+「tal que」は、**「あまりに～なので（結果として）」** という因果関係を表す表現です。  
+通常の構造は：  
+📌 **「tal + 名詞 + que + 結果」**  
+✅ **例文：**  
+✔ **"Era tal el ruido que no podía dormir."**  
+（騒音がひどすぎて、眠れなかった。）  
+この場合、「tal + el ruido（名詞）」のように、**talは名詞を修飾する形** で使われています。  
+---
+### **🔹 では、なぜ「El dolor era tal que～」のように名詞がない？**
+このように **「tal que」の間に名詞がないケース** もありますが、
+これは **「tal」がすでに前に出た名詞を指している** ためです。  
+✅ **今回の文：**
+✔ **"El dolor era tal que José no pudo mantenerse más de pie."**  
+（痛みがあまりにもひどかったので、ホセは立っていられなかった。）  
+🔸 「tal」の前にすでに「el dolor（痛み）」があるため、あえて「tal dolor que」としなくても意味が通じる。  
+🔸 **「tal」だけで強調し、そのまま結果を導く「que」につながる。**  
+📌 **省略せずに書くと：**  
+✔ **"El dolor era de tal intensidad que José no pudo mantenerse más de pie."**  
+（その痛みは非常に激しく、ホセは立っていられなかった。）  
+でも、普通は「de tal intensidad」などを省略してシンプルに 
+**「El dolor era tal que～」** という形で使われることが多いです。
+---
+### **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; パターン &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+      &lt;th&gt; 特徴 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 「tal + 名詞 + que」 &lt;/th&gt;
+      &lt;td&gt; "Era tal el ruido que no podía dormir." &lt;/td&gt;
+      &lt;td&gt; 名詞が直接ある場合 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 「tal que」 &lt;/th&gt;
+      &lt;td&gt; "El dolor era tal que José no pudo mantenerse de pie." &lt;/td&gt;
+      &lt;td&gt; 名詞が前に出ていて、強調のため「tal」単独で使われる場合 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+📌 **ポイント**
+- **「tal + 名詞 + que」**：名詞がすぐ後に続くパターン  
+- **「tal que」**：名詞がすでに前にある場合、「tal」単独で強調  
+このルールを覚えておけば、自然なスペイン語表現ができるようになりますよ！✨</x:t>
   </x:si>
   <x:si>
     <x:t>写真にもっと光が入るように窓にもっと近づいてもらえる？</x:t>
@@ -12366,7 +12810,62 @@
 ¿Sería tan amable de rellenar este formulario?
 （このフォームを記入していただけませんか？）
 ¿Me haría el favor de rellenar este formulario?
-（さらに丁寧で仮定法を使った表現）</x:t>
+（さらに丁寧で仮定法を使った表現）
+======
+はい、**「Me hace el favor de + 動詞の原形」** は定型表現です！  
+### **🔹 意味とニュアンス**
+「～していただけますか？」という丁寧なお願いをする表現です。  
+英語に訳すと **"Would you do me the favor of ~?"** のようなニュアンスになります。  
+- **¿Me hace el favor de rellenar este formulario?**  
+  → **この書類に記入していただけますか？**  
+これはフォーマルな場面で使われることが多く、例えば役所や職場などでのやり取りに向いています。  
+---
+### **🔹 類似表現**
+**Me hace el favor de + 動詞の原形** 以外にも、似たような表現がいくつかあります。  
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; スペイン語 &lt;/th&gt;
+      &lt;th&gt; 日本語 &lt;/th&gt;
+      &lt;th&gt; ニュアンス &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿Me puede hacer el favor de + 動詞の原形? &lt;/th&gt;
+      &lt;td&gt; 〜していただけますか？ &lt;/td&gt;
+      &lt;td&gt; さらに丁寧なバージョン &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿Podría + 動詞の原形? &lt;/th&gt;
+      &lt;td&gt; 〜していただけますか？ &lt;/td&gt;
+      &lt;td&gt; フォーマルな丁寧表現 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿Me haría el favor de + 動詞の原形? &lt;/th&gt;
+      &lt;td&gt; 〜していただけますか？ &lt;/td&gt;
+      &lt;td&gt; 条件法を使ったより丁寧な表現 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; ¿Sería tan amable de + 動詞の原形? &lt;/th&gt;
+      &lt;td&gt; 〜していただけますか？ &lt;/td&gt;
+      &lt;td&gt; かなりフォーマルで礼儀正しい &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **🔹 口語ではどう言う？**
+もっとカジュアルに頼みたい場合は、次のように言えます。  
+✔ **¿Puedes rellenar este formulario?**（この書類に記入してくれる？）  
+✔ **¿Me rellenas este formulario?**（この書類を書いてくれる？）  
+✔ **¿Me haces el favor de rellenarlo?**（ちょっと記入してもらえる？）  
+---
+💡 **ポイント**  
+「Me hace el favor de ～」は、フォーマルなお願いをする表現なので、
+日常会話ではあまり使いませんが、丁寧な対応が求められる場面ではとても役立ちます！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/14</x:t>
   </x:si>
   <x:si>
     <x:t>Toledoまでの往復切符を1枚欲しいんですが</x:t>
@@ -12381,6 +12880,64 @@
   <x:si>
     <x:t>¿Qué hacemos esta noche?
 Me gustaría que fuéramos a ver una película.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>### **🔹「Me gustaría que + 接続法」と「Me gustaría + 不定詞」の使い分け**  
+**「Me gustaría」** は「～したいのですが…」という控えめな希望や願望を表す表現です。  
+ただし、後に続く構造によってニュアンスが変わります。  
+---
+### **🟠 1.「Me gustaría + 不定詞」**  
+➡ **主語が自分（または「nosotros」などの一緒に行動する人）の場合**  
+- **Me gustaría ver una película.**  
+  → （私が）映画を見たいです。  
+- **Nos gustaría viajar a España el próximo verano.**  
+  → （私たちは）来年の夏にスペインへ旅行したいです。  
+**📌 ポイント**  
+👉 自分の希望を直接言うときに使う  
+👉 主語は **自分**（または話し手を含むグループ）  
+👉 具体的な計画や願望を述べるときに適している  
+---
+### **🟠 2.「Me gustaría que + 接続法」**  
+➡ **希望することの主語が「自分以外」の場合**  
+- **Me gustaría que fuéramos a ver una película.**  
+  → みんなで映画を見に行けたらいいな（＝話し相手にも関係がある希望）  
+- **Me gustaría que vinieras a la fiesta.**  
+  → あなたにパーティーに来てほしいな。  
+**📌 ポイント**  
+👉 **希望することの主語が話し手以外**（相手や他人）  
+👉 「○○してほしい」と他人に対する願望を表す  
+👉 **接続法** を使う（「実現するかどうかわからない」ことを示すため）  
+---
+### **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 構文 &lt;/th&gt;
+      &lt;th&gt; 使い方 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Me gustaría + 不定詞 &lt;/th&gt;
+      &lt;td&gt; 自分の希望を言うとき &lt;/td&gt;
+      &lt;td&gt; Me gustaría viajar a España. &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Me gustaría que + 接続法 &lt;/th&gt;
+      &lt;td&gt; 他の人に○○してほしいとき &lt;/td&gt;
+      &lt;td&gt; Me gustaría que tú viajaras a España conmigo. &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+💡 **結論：どちらを使うかは、希望の主語による！**  
+✔ **自分のこと** → **Me gustaría + 不定詞**  
+✔ **他人に○○してほしい** → **Me gustaría que + 接続法**  
+だから、  
+**「Me gustaría que fuéramos a ver una película.」**  
+→ **「（みんなで）映画を見に行きたいな」**（話し相手も含めた希望）  
+になっているんですね！ 😊</x:t>
   </x:si>
   <x:si>
     <x:t>最終のバスが何時か知りたいんですが</x:t>
@@ -12487,41 +13044,72 @@
 Ah, no me había fijado.</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="Yu Gothic"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">━～・se
+    <x:t>━～・se
 [再]
 1 留まる，固定する．
 El armario se ha fijado en la pared de la derecha.｜タンスは右側の壁に収まった．
-2 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="Segoe UI Symbol"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>⸨</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="Yu Gothic"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">en... …に⸩ 気づく；注意する．
-¡Fíjese en lo que le digo!｜私があなたに言うことを注意して聞いてください．</x:t>
-    </x:r>
+2 ⸨en... …に⸩ 気づく；注意する．
+¡Fíjese en lo que le digo!｜私があなたに言うことを注意して聞いてください．
+======
+### **🔹 fijarse の意味と使い方**  
+📌 **fijarse (en algo)** = 「（何かに）気づく・注意を向ける」  
+➡ **Ah, no me había fijado.**  
+→ **「ああ、気づいていませんでした。」**  
+この文の **fijarse** は「注意を払う」「気がつく」という意味で使われています。  
+ここでは、過去完了形（**no me había fijado**）になっていて、  
+「（それまで）気づいていなかった」というニュアンスです。
+---
+### **🟠 fijarse の使い方**
+❶ **fijarse en + 名詞** = 「～に注意を向ける、気づく」  
+- **Fíjate en los detalles.**（細かいところに注意して。）  
+- **No me fijé en el cartel.**（その看板に気づかなかった。）  
+❷ **fijarse que + 文** = 「～ということに気づく」  
+- **¿Te fijaste que han cambiado el menú?**（メニューが変わったのに気づいた？）  
+❸ **命令形 Fíjate / Fíjese**（注意を促す）  
+- **¡Fíjate en eso!**（それに注目して！）  
+- **Fíjese bien en lo que dice.**（言っていることをよく聞いてください。）  
+---
+### **🟠 似た表現との違い**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 動詞 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+      &lt;th&gt; 例文 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; fijarse en &lt;/th&gt;
+      &lt;td&gt; （意識して）注意を払う、気づく &lt;/td&gt;
+      &lt;td&gt; No me había fijado en eso.（それに気づいていなかった。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; darse cuenta de &lt;/th&gt;
+      &lt;td&gt; （後から）気づく、悟る &lt;/td&gt;
+      &lt;td&gt; No me di cuenta de que era tarde.（遅いことに気づかなかった。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; notar &lt;/th&gt;
+      &lt;td&gt; （五感で）気づく、感じる &lt;/td&gt;
+      &lt;td&gt; Noté un olor extraño.（変な匂いがした。） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; observar &lt;/th&gt;
+      &lt;td&gt; （意識的に）観察する &lt;/td&gt;
+      &lt;td&gt; Observé que la puerta estaba abierta.（ドアが開いているのを観察した。） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+🔹 **ポイント：**  
+- **fijarse** は **「意識して」気づく** ニュアンス。  
+- **darse cuenta** は **「後から」気づく（ハッとする感じ）**。  
+- **notar** は **五感で感じる**（視覚・聴覚・嗅覚など）。  
+---
+### **🔹 まとめ**
+📌 **Ah, no me había fijado.**  
+→ 「ああ、気づいていませんでした。」  
+💡 「（意識して）見るべきだったけど、見落としていた」というニュアンス！</x:t>
   </x:si>
   <x:si>
     <x:t>1時間で10枚の報告書を書かされたんだ</x:t>
@@ -12545,7 +13133,87 @@
 			&lt;td&gt;1時間で&lt;/td&gt;
 		&lt;/tr&gt;
 	&lt;/tbody&gt;
-&lt;/table&gt;</x:t>
+&lt;/table&gt;
+======
+### **🔹 Me hicieron escribir の意味と構造**  
+➡ **「Me hicieron escribir un informe de diez páginas en una hora.」**  
+→ **「私は1時間で10ページのレポートを書かされた。」**  
+この文は、**「使役（causativa）」の構文** になっています。  
+つまり、「誰かが私に○○させた」という意味を表す表現です。
+---
+### **🟠 使役構文の構造**
+📌 **Hacer + 人 + 動詞の原形** ＝ 「（人）に（動作）させる」
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 構文 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Me hicieron escribir un informe. &lt;/th&gt;
+      &lt;td&gt; （彼らは）私にレポートを書かせた。 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Te hago estudiar español. &lt;/th&gt;
+      &lt;td&gt; 私は君にスペイン語を勉強させる。 &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Nos hicieron esperar mucho tiempo. &lt;/th&gt;
+      &lt;td&gt; （彼らは）私たちを長い間待たせた。 &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+---
+### **🟠 使役構文のポイント**
+1️⃣ **Hacer + 人 + 動詞の原形**  
+   - 「誰かが（無理やり or 指示して）私に○○させた」という意味。  
+   - **強制・義務的なニュアンスが強い**。
+2️⃣ **動詞は原形（不定詞）を使う**  
+   - **Me hicieron escribir.**（書かされた）  
+   - **Nos hicieron esperar.**（待たされた）  
+   - **Le hicieron limpiar.**（彼に掃除をさせた）
+3️⃣ **主語は「動作をさせた人」**（省略されることもある）  
+   - **「Me hicieron escribir」**（彼らに書かされた）  
+   - **「Nos hicieron esperar」**（彼らに待たされた）
+---
+### **🟠 似た表現との比較**
+#### ❶ **Hacer + 動詞原形（使役）**（強制・義務）
+- **Me hicieron limpiar la casa.**  
+  → **「私は（彼らに）家の掃除をさせられた。」**（強制）
+#### ❷ **Dejar + 動詞原形（許可）**（許可・容認）
+- **Me dejaron salir temprano.**  
+  → **「（彼らは）私が早く帰るのを許してくれた。」**
+#### ❸ **Mandar + 動詞原形（指示・命令）**（命令）
+- **Me mandaron escribir un informe.**  
+  → **「（彼らは）私にレポートを書くように命じた。」**（指示）
+---
+### **🔹 まとめ**
+&lt;table&gt;
+  &lt;thead&gt;
+    &lt;tr&gt;
+      &lt;th&gt; 構文 &lt;/th&gt;
+      &lt;th&gt; 意味 &lt;/th&gt;
+    &lt;/tr&gt;
+  &lt;/thead&gt;
+  &lt;tbody&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Hacer + 人 + 動詞原形 &lt;/th&gt;
+      &lt;td&gt; （人）に○○させる（強制） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Dejar + 人 + 動詞原形 &lt;/th&gt;
+      &lt;td&gt; （人）が○○するのを許す（許可） &lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt; Mandar + 人 + 動詞原形 &lt;/th&gt;
+      &lt;td&gt; （人）に○○するよう指示する（命令） &lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/tbody&gt;
+&lt;/table&gt;
+💡 **「Me hicieron escribir ～」＝「（誰かに）書かされた」という強制的なニュアンス**  
+→ 「自主的に書いた」のではなく、「書かされた」という意味がポイント！</x:t>
   </x:si>
   <x:si>
     <x:t>医者(男性)は彼女に右ひざのX線写真を撮るように指示した</x:t>
@@ -13150,7 +13818,7 @@
       <x:selection activeCell="C231" sqref="C231"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="19.585625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="20.585625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -18389,21 +19057,27 @@
       <x:c r="E541" s="0" t="s">
         <x:v>1349</x:v>
       </x:c>
+      <x:c r="F541" s="1" t="s">
+        <x:v>1350</x:v>
+      </x:c>
+      <x:c r="G541" s="0" t="s">
+        <x:v>1351</x:v>
+      </x:c>
     </x:row>
     <x:row r="542" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B542" s="1" t="s">
-        <x:v>1350</x:v>
+        <x:v>1352</x:v>
       </x:c>
       <x:c r="C542" s="1" t="s">
-        <x:v>1351</x:v>
+        <x:v>1353</x:v>
       </x:c>
       <x:c r="F542" s="1" t="s">
-        <x:v>1352</x:v>
+        <x:v>1354</x:v>
       </x:c>
     </x:row>
     <x:row r="543" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B543" s="1" t="s">
-        <x:v>1353</x:v>
+        <x:v>1355</x:v>
       </x:c>
       <x:c r="C543" s="1" t="s">
         <x:v>1349</x:v>
@@ -18411,200 +19085,212 @@
     </x:row>
     <x:row r="544" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B544" s="1" t="s">
-        <x:v>1354</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="C544" s="1" t="s">
-        <x:v>1355</x:v>
+        <x:v>1357</x:v>
       </x:c>
     </x:row>
     <x:row r="545" spans="1:7" ht="187.5" customHeight="1">
       <x:c r="B545" s="1" t="s">
-        <x:v>1356</x:v>
+        <x:v>1358</x:v>
       </x:c>
       <x:c r="C545" s="1" t="s">
-        <x:v>1357</x:v>
+        <x:v>1359</x:v>
       </x:c>
       <x:c r="F545" s="1" t="s">
-        <x:v>1358</x:v>
+        <x:v>1360</x:v>
       </x:c>
     </x:row>
     <x:row r="546" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B546" s="1" t="s">
-        <x:v>1359</x:v>
+        <x:v>1361</x:v>
       </x:c>
       <x:c r="C546" s="1" t="s">
-        <x:v>1360</x:v>
+        <x:v>1362</x:v>
       </x:c>
       <x:c r="F546" s="1" t="s">
-        <x:v>1361</x:v>
+        <x:v>1363</x:v>
       </x:c>
     </x:row>
     <x:row r="547" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B547" s="1" t="s">
-        <x:v>1362</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="C547" s="1" t="s">
-        <x:v>1363</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="F547" s="1" t="s">
-        <x:v>1364</x:v>
+        <x:v>1366</x:v>
       </x:c>
     </x:row>
     <x:row r="548" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B548" s="1" t="s">
-        <x:v>1365</x:v>
+        <x:v>1367</x:v>
       </x:c>
       <x:c r="C548" s="1" t="s">
-        <x:v>1366</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="F548" s="1" t="s">
-        <x:v>1367</x:v>
+        <x:v>1369</x:v>
       </x:c>
     </x:row>
     <x:row r="549" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B549" s="1" t="s">
-        <x:v>1368</x:v>
+        <x:v>1370</x:v>
       </x:c>
       <x:c r="C549" s="1" t="s">
-        <x:v>1369</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="F549" s="1" t="s">
-        <x:v>1370</x:v>
+        <x:v>1372</x:v>
       </x:c>
     </x:row>
     <x:row r="550" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B550" s="1" t="s">
-        <x:v>1371</x:v>
+        <x:v>1373</x:v>
       </x:c>
       <x:c r="C550" s="1" t="s">
-        <x:v>1372</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="F550" s="1" t="s">
-        <x:v>1373</x:v>
+        <x:v>1375</x:v>
+      </x:c>
+      <x:c r="G550" s="0" t="s">
+        <x:v>1351</x:v>
       </x:c>
     </x:row>
     <x:row r="551" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B551" s="1" t="s">
-        <x:v>1374</x:v>
+        <x:v>1376</x:v>
       </x:c>
       <x:c r="C551" s="1" t="s">
-        <x:v>1375</x:v>
+        <x:v>1377</x:v>
       </x:c>
       <x:c r="D551" s="0" t="s">
-        <x:v>1376</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="E551" s="0" t="s">
-        <x:v>1377</x:v>
+        <x:v>1379</x:v>
+      </x:c>
+      <x:c r="F551" s="1" t="s">
+        <x:v>1380</x:v>
+      </x:c>
+      <x:c r="G551" s="0" t="s">
+        <x:v>1351</x:v>
       </x:c>
     </x:row>
     <x:row r="552" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B552" s="1" t="s">
-        <x:v>1378</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="C552" s="1" t="s">
-        <x:v>1379</x:v>
+        <x:v>1382</x:v>
       </x:c>
     </x:row>
     <x:row r="553" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B553" s="1" t="s">
-        <x:v>1380</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="C553" s="1" t="s">
-        <x:v>1381</x:v>
+        <x:v>1384</x:v>
       </x:c>
     </x:row>
     <x:row r="554" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B554" s="1" t="s">
-        <x:v>1382</x:v>
+        <x:v>1385</x:v>
       </x:c>
       <x:c r="C554" s="1" t="s">
-        <x:v>1383</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="F554" s="1" t="s">
-        <x:v>1384</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="G554" s="0" t="s">
-        <x:v>1385</x:v>
+        <x:v>1388</x:v>
       </x:c>
     </x:row>
     <x:row r="555" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B555" s="1" t="s">
-        <x:v>1386</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="C555" s="1" t="s">
-        <x:v>1387</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="F555" s="1" t="s">
+        <x:v>1391</x:v>
+      </x:c>
+      <x:c r="G555" s="0" t="s">
         <x:v>1388</x:v>
-      </x:c>
-      <x:c r="G555" s="0" t="s">
-        <x:v>1385</x:v>
       </x:c>
     </x:row>
     <x:row r="556" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B556" s="1" t="s">
-        <x:v>1389</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="C556" s="1" t="s">
-        <x:v>1390</x:v>
+        <x:v>1393</x:v>
       </x:c>
     </x:row>
     <x:row r="557" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B557" s="1" t="s">
-        <x:v>1391</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="C557" s="1" t="s">
-        <x:v>1392</x:v>
+        <x:v>1395</x:v>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B558" s="1" t="s">
-        <x:v>1393</x:v>
+        <x:v>1396</x:v>
       </x:c>
       <x:c r="C558" s="1" t="s">
-        <x:v>1394</x:v>
+        <x:v>1397</x:v>
       </x:c>
       <x:c r="F558" s="1" t="s">
-        <x:v>1395</x:v>
+        <x:v>1398</x:v>
       </x:c>
     </x:row>
     <x:row r="559" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B559" s="1" t="s">
-        <x:v>1396</x:v>
+        <x:v>1399</x:v>
       </x:c>
       <x:c r="C559" s="1" t="s">
-        <x:v>1397</x:v>
+        <x:v>1400</x:v>
       </x:c>
       <x:c r="F559" s="1" t="s">
-        <x:v>1398</x:v>
+        <x:v>1401</x:v>
       </x:c>
     </x:row>
     <x:row r="560" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B560" s="1" t="s">
-        <x:v>1399</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="C560" s="1" t="s">
-        <x:v>1400</x:v>
+        <x:v>1403</x:v>
       </x:c>
       <x:c r="F560" s="1" t="s">
-        <x:v>1401</x:v>
+        <x:v>1404</x:v>
+      </x:c>
+      <x:c r="G560" s="0" t="s">
+        <x:v>1351</x:v>
       </x:c>
     </x:row>
     <x:row r="561" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B561" s="1" t="s">
-        <x:v>1402</x:v>
+        <x:v>1405</x:v>
       </x:c>
       <x:c r="C561" s="1" t="s">
-        <x:v>1403</x:v>
+        <x:v>1406</x:v>
       </x:c>
       <x:c r="D561" s="0" t="s">
-        <x:v>1404</x:v>
+        <x:v>1407</x:v>
       </x:c>
       <x:c r="E561" s="0" t="s">
-        <x:v>1405</x:v>
+        <x:v>1408</x:v>
       </x:c>
       <x:c r="F561" s="1" t="s">
-        <x:v>1406</x:v>
+        <x:v>1409</x:v>
       </x:c>
       <x:c r="G561" s="1" t="s">
         <x:v>1278</x:v>
@@ -18612,377 +19298,392 @@
     </x:row>
     <x:row r="562" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B562" s="1" t="s">
-        <x:v>1407</x:v>
+        <x:v>1410</x:v>
       </x:c>
       <x:c r="C562" s="1" t="s">
-        <x:v>1408</x:v>
+        <x:v>1411</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B563" s="1" t="s">
-        <x:v>1409</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="C563" s="1" t="s">
-        <x:v>1410</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="F563" s="1" t="s">
-        <x:v>1411</x:v>
+        <x:v>1414</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B564" s="1" t="s">
-        <x:v>1412</x:v>
+        <x:v>1415</x:v>
       </x:c>
       <x:c r="C564" s="1" t="s">
-        <x:v>1413</x:v>
+        <x:v>1416</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B565" s="1" t="s">
-        <x:v>1414</x:v>
+        <x:v>1417</x:v>
       </x:c>
       <x:c r="C565" s="1" t="s">
-        <x:v>1415</x:v>
+        <x:v>1418</x:v>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B566" s="1" t="s">
-        <x:v>1416</x:v>
+        <x:v>1419</x:v>
       </x:c>
       <x:c r="C566" s="1" t="s">
-        <x:v>1417</x:v>
+        <x:v>1420</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B567" s="1" t="s">
-        <x:v>1418</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="C567" s="1" t="s">
-        <x:v>1419</x:v>
+        <x:v>1422</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B568" s="1" t="s">
-        <x:v>1420</x:v>
+        <x:v>1423</x:v>
       </x:c>
       <x:c r="C568" s="1" t="s">
-        <x:v>1421</x:v>
+        <x:v>1424</x:v>
       </x:c>
     </x:row>
     <x:row r="569" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B569" s="1" t="s">
-        <x:v>1422</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="C569" s="1" t="s">
-        <x:v>1423</x:v>
+        <x:v>1426</x:v>
       </x:c>
       <x:c r="F569" s="1" t="s">
-        <x:v>1424</x:v>
+        <x:v>1427</x:v>
       </x:c>
     </x:row>
     <x:row r="570" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B570" s="1" t="s">
-        <x:v>1425</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="C570" s="1" t="s">
-        <x:v>1426</x:v>
+        <x:v>1429</x:v>
       </x:c>
       <x:c r="F570" s="1" t="s">
-        <x:v>1427</x:v>
+        <x:v>1430</x:v>
       </x:c>
     </x:row>
     <x:row r="571" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B571" s="1" t="s">
-        <x:v>1428</x:v>
+        <x:v>1431</x:v>
       </x:c>
       <x:c r="C571" s="1" t="s">
-        <x:v>1429</x:v>
+        <x:v>1432</x:v>
       </x:c>
       <x:c r="D571" s="0" t="s">
-        <x:v>1430</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="E571" s="0" t="s">
-        <x:v>1431</x:v>
+        <x:v>1434</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B572" s="1" t="s">
-        <x:v>1432</x:v>
+        <x:v>1435</x:v>
       </x:c>
       <x:c r="C572" s="1" t="s">
-        <x:v>1433</x:v>
+        <x:v>1436</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B573" s="1" t="s">
-        <x:v>1434</x:v>
+        <x:v>1437</x:v>
       </x:c>
       <x:c r="C573" s="1" t="s">
-        <x:v>1435</x:v>
+        <x:v>1438</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B574" s="1" t="s">
-        <x:v>1436</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="C574" s="1" t="s">
-        <x:v>1437</x:v>
+        <x:v>1440</x:v>
       </x:c>
     </x:row>
     <x:row r="575" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B575" s="1" t="s">
-        <x:v>1438</x:v>
+        <x:v>1441</x:v>
       </x:c>
       <x:c r="C575" s="1" t="s">
-        <x:v>1439</x:v>
+        <x:v>1442</x:v>
       </x:c>
     </x:row>
     <x:row r="576" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B576" s="1" t="s">
-        <x:v>1440</x:v>
+        <x:v>1443</x:v>
       </x:c>
       <x:c r="C576" s="1" t="s">
-        <x:v>1441</x:v>
+        <x:v>1444</x:v>
       </x:c>
     </x:row>
     <x:row r="577" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B577" s="1" t="s">
-        <x:v>1442</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="C577" s="1" t="s">
-        <x:v>1443</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>1444</x:v>
+        <x:v>1447</x:v>
+      </x:c>
+      <x:c r="G577" s="0" t="s">
+        <x:v>1448</x:v>
       </x:c>
     </x:row>
     <x:row r="578" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B578" s="1" t="s">
-        <x:v>1445</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="C578" s="1" t="s">
-        <x:v>1446</x:v>
+        <x:v>1450</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B579" s="1" t="s">
-        <x:v>1447</x:v>
+        <x:v>1451</x:v>
       </x:c>
       <x:c r="C579" s="1" t="s">
+        <x:v>1452</x:v>
+      </x:c>
+      <x:c r="F579" s="1" t="s">
+        <x:v>1453</x:v>
+      </x:c>
+      <x:c r="G579" s="0" t="s">
         <x:v>1448</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B580" s="1" t="s">
-        <x:v>1449</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="C580" s="1" t="s">
-        <x:v>1450</x:v>
+        <x:v>1455</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B581" s="1" t="s">
-        <x:v>1451</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="C581" s="1" t="s">
-        <x:v>1452</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="D581" s="0" t="s">
-        <x:v>1453</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="E581" s="0" t="s">
-        <x:v>1454</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="F581" s="1" t="s">
-        <x:v>1455</x:v>
+        <x:v>1460</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B582" s="1" t="s">
-        <x:v>1456</x:v>
+        <x:v>1461</x:v>
       </x:c>
       <x:c r="C582" s="1" t="s">
-        <x:v>1457</x:v>
+        <x:v>1462</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>1458</x:v>
+        <x:v>1463</x:v>
+      </x:c>
+      <x:c r="G582" s="0" t="s">
+        <x:v>1448</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:7" ht="375" customHeight="1">
       <x:c r="B583" s="1" t="s">
-        <x:v>1459</x:v>
+        <x:v>1464</x:v>
       </x:c>
       <x:c r="C583" s="1" t="s">
-        <x:v>1460</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="F583" s="1" t="s">
-        <x:v>1461</x:v>
+        <x:v>1466</x:v>
+      </x:c>
+      <x:c r="G583" s="0" t="s">
+        <x:v>1448</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:7" ht="300" customHeight="1">
       <x:c r="B584" s="1" t="s">
-        <x:v>1462</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="C584" s="1" t="s">
-        <x:v>1463</x:v>
+        <x:v>1468</x:v>
       </x:c>
       <x:c r="F584" s="1" t="s">
-        <x:v>1464</x:v>
+        <x:v>1469</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B585" s="1" t="s">
-        <x:v>1465</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="C585" s="1" t="s">
-        <x:v>1466</x:v>
+        <x:v>1471</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B586" s="1" t="s">
-        <x:v>1467</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="C586" s="1" t="s">
-        <x:v>1468</x:v>
+        <x:v>1473</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B587" s="1" t="s">
-        <x:v>1469</x:v>
+        <x:v>1474</x:v>
       </x:c>
       <x:c r="C587" s="1" t="s">
-        <x:v>1470</x:v>
+        <x:v>1475</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:7" ht="75" customHeight="1">
       <x:c r="B588" s="1" t="s">
-        <x:v>1471</x:v>
+        <x:v>1476</x:v>
       </x:c>
       <x:c r="C588" s="1" t="s">
-        <x:v>1472</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="F588" s="1" t="s">
-        <x:v>1473</x:v>
+        <x:v>1478</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B589" s="1" t="s">
-        <x:v>1474</x:v>
+        <x:v>1479</x:v>
       </x:c>
       <x:c r="C589" s="1" t="s">
-        <x:v>1475</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="F589" s="1" t="s">
-        <x:v>1476</x:v>
+        <x:v>1481</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:7" ht="262.5" customHeight="1">
       <x:c r="B590" s="1" t="s">
-        <x:v>1477</x:v>
+        <x:v>1482</x:v>
       </x:c>
       <x:c r="C590" s="1" t="s">
-        <x:v>1478</x:v>
+        <x:v>1483</x:v>
       </x:c>
       <x:c r="F590" s="1" t="s">
-        <x:v>1479</x:v>
+        <x:v>1484</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B591" s="1" t="s">
-        <x:v>1480</x:v>
+        <x:v>1485</x:v>
       </x:c>
       <x:c r="C591" s="1" t="s">
-        <x:v>1481</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="D591" s="0" t="s">
-        <x:v>1482</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="E591" s="0" t="s">
-        <x:v>1483</x:v>
+        <x:v>1488</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B592" s="1" t="s">
-        <x:v>1484</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="C592" s="1" t="s">
-        <x:v>1485</x:v>
+        <x:v>1490</x:v>
       </x:c>
     </x:row>
     <x:row r="593" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B593" s="1" t="s">
-        <x:v>1486</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="C593" s="1" t="s">
-        <x:v>1487</x:v>
+        <x:v>1492</x:v>
       </x:c>
     </x:row>
     <x:row r="594" spans="1:7" ht="75" customHeight="1">
       <x:c r="B594" s="1" t="s">
-        <x:v>1488</x:v>
+        <x:v>1493</x:v>
       </x:c>
       <x:c r="C594" s="1" t="s">
-        <x:v>1489</x:v>
+        <x:v>1494</x:v>
       </x:c>
       <x:c r="F594" s="1" t="s">
-        <x:v>1490</x:v>
+        <x:v>1495</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B595" s="1" t="s">
-        <x:v>1491</x:v>
+        <x:v>1496</x:v>
       </x:c>
       <x:c r="C595" s="1" t="s">
-        <x:v>1492</x:v>
+        <x:v>1497</x:v>
       </x:c>
       <x:c r="F595" s="1" t="s">
-        <x:v>1493</x:v>
+        <x:v>1498</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B596" s="1" t="s">
-        <x:v>1494</x:v>
+        <x:v>1499</x:v>
       </x:c>
       <x:c r="C596" s="1" t="s">
-        <x:v>1495</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
-        <x:v>1496</x:v>
+        <x:v>1501</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B597" s="1" t="s">
-        <x:v>1497</x:v>
+        <x:v>1502</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
-        <x:v>1498</x:v>
+        <x:v>1503</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B598" s="1" t="s">
-        <x:v>1499</x:v>
+        <x:v>1504</x:v>
       </x:c>
       <x:c r="C598" s="1" t="s">
-        <x:v>1500</x:v>
+        <x:v>1505</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B599" s="1" t="s">
-        <x:v>1501</x:v>
+        <x:v>1506</x:v>
       </x:c>
       <x:c r="C599" s="1" t="s">
-        <x:v>1502</x:v>
+        <x:v>1507</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B600" s="1" t="s">
-        <x:v>1503</x:v>
+        <x:v>1508</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>1504</x:v>
+        <x:v>1509</x:v>
       </x:c>
       <x:c r="F600" s="1" t="s">
-        <x:v>1505</x:v>
+        <x:v>1510</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -19006,7 +19707,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="19.585625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="20.585625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="50.375" style="0" customWidth="1"/>
@@ -19185,7 +19886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1506</x:v>
+        <x:v>1511</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="18.75" customHeight="1">
@@ -19212,7 +19913,7 @@
         <x:v>583</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1507</x:v>
+        <x:v>1512</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3" ht="18.75" customHeight="1">
@@ -19375,7 +20076,7 @@
         <x:v>1083</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1508</x:v>
+        <x:v>1513</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3" ht="18.75" customHeight="1">
@@ -19463,7 +20164,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>1376</x:v>
+        <x:v>1378</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3" ht="18.75" customHeight="1">
@@ -19471,7 +20172,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>1404</x:v>
+        <x:v>1407</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3" ht="18.75" customHeight="1">
@@ -19479,7 +20180,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>1430</x:v>
+        <x:v>1433</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3" ht="18.75" customHeight="1">
@@ -19487,7 +20188,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>1453</x:v>
+        <x:v>1458</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3" ht="18.75" customHeight="1">
@@ -19495,7 +20196,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>1482</x:v>
+        <x:v>1487</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -13465,7 +13465,50 @@
 まとめ
 la pastilla は「特定の薬」を指すために定冠詞を使っています。
 dolor には冠詞をつけず、「痛み」という抽象的・一般的な概念として扱っています。
-文脈とニュアンスのバランスを考慮した表現です。</x:t>
+文脈とニュアンスのバランスを考慮した表現です。
+======
+### **🔹 se tomara の使い方**  
+📌 **La doctora le dijo a mi hijo que solo se tomara la pastilla en caso de dolor muy fuerte.**  
+👉 **「医者は息子に、強い痛みがある場合にのみ薬を飲むようにと言った。」**  
+---
+### **🟠 se tomara の文法解説**  
+この **se tomara** は **接続法過去（imperfecto de subjuntivo）** です。  
+では、なぜここで **接続法過去** が使われているのか、詳しく見ていきましょう。
+---
+### **🟢 ① 「命令・指示の間接話法」**
+**主節：La doctora le dijo a mi hijo（医者は息子に言った）**  
+**従属節：que solo se tomara la pastilla...（薬を飲むように）**  
+このように、「**誰かが何かを指示・依頼した内容を間接的に伝える文**」では、  
+接続法が使われます。  
+📍 **直接話法（直説法命令形）**  
+👩‍⚕️ **"Solo tómate la pastilla en caso de dolor muy fuerte."**  
+（「強い痛みがある場合にのみ薬を飲みなさい。」）  
+📍 **間接話法（接続法過去）**  
+➡ **La doctora le dijo a mi hijo que solo se tomara la pastilla en caso de dolor muy fuerte.**  
+（「医者は息子に、強い痛みがある場合にのみ薬を飲むようにと言った。」）  
+**✅ ポイント：**  
+- **直接話法で命令形（tómate）が使われていた場合、間接話法では接続法過去（se tomara）に変わる！**  
+---
+### **🟢 ② 「条件文（en caso de）」**
+この文には **「en caso de ～（～の場合には）」** という **条件を表す表現** があります。  
+条件文では、未来のことや仮定的なことを表すときに接続法が使われることが多いです。
+📍 **類似の構文**  
+- **En caso de que fuera necesario, llamaríamos a un médico.**  
+（必要なら、医者を呼ぶだろう。）  
+- **Lo haré en caso de que me lo pidas.**  
+（君が頼むなら、それをやるよ。）  
+**✅ ポイント：**  
+- **「en caso de que + 接続法」** の形で使われることが多い。  
+- **本来「en caso de」は不定詞と一緒に使うことが多いが、動詞を入れる場合は「en caso de que + 接続法」になる。**  
+---
+### **🔹 まとめ**
+**📌 se tomara が接続法過去になっている理由**  
+1️⃣ **間接話法のルール**：「命令形（tómate）」→「接続法過去（se tomara）」に変化。  
+2️⃣ **条件文の影響**：「en caso de（～の場合には）」が条件を表しているため、接続法を使うのが自然。  
+💡 **言い換えれば、「もし強い痛みがあったら飲むように」と指示されたから、接続法になっている！**</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/17</x:t>
   </x:si>
   <x:si>
     <x:t>Andrés、Marinaが電話してきて、今日の午後会えないって言ってたよ</x:t>
@@ -13478,6 +13521,47 @@
   </x:si>
   <x:si>
     <x:t>El policía le preguntó con quién había estado la noche anterior.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>### **🔹 con quién の使い方**  
+📌 **El policía le preguntó con quién había estado la noche anterior.**  
+👉 **「警官は彼に、前の晩誰と一緒にいたのか尋ねた。」**  
+---
+### **🟠 con quién の文法解説**  
+この **con quién** は **疑問詞 quién に前置詞 con が付いた形** で、
+「誰と」という意味を表します。  
+📍 **基本の形：con + quién（誰と）**  
+- **¿Con quién fuiste al cine?**  
+（誰と映画に行ったの？）  
+- **No sé con quién está hablando.**  
+（彼／彼女が誰と話しているのか知らない。）  
+---
+### **🟢 ① 直接疑問文での使い方**  
+通常の疑問文では **con quién** を文頭に置いて、「誰と～？」と質問します。  
+📍 **直接疑問文（Sí/Noで答えられない質問）**  
+- **¿Con quién cenaste anoche?**  
+（昨日の夜、誰と夕食を食べたの？）  
+- **¿Con quién hablaste por teléfono?**  
+（誰と電話で話したの？）  
+---
+### **🟢 ② 間接疑問文での使い方**  
+今回の例文では、**con quién が間接疑問文の一部** になっています。  
+間接疑問文では、疑問詞を使った節（que 以下）が、文の一部として働きます。  
+📍 **間接疑問文の例**  
+- **No sé con quién habló Marta.**  
+（マルタが誰と話したのかわからない。）  
+- **Me gustaría saber con quién va a viajar.**  
+（彼／彼女が誰と旅行するのか知りたい。）  
+📍 **今回の例文の構造**  
+- **El policía le preguntó**（警官は彼に尋ねた）  
+- **con quién había estado la noche anterior.**（前の晩誰と一緒にいたのか）  
+👉 **疑問詞 con quién を使って「尋ねた内容」を表している！**  
+---
+### **🔹 まとめ**
+✅ **con quién は「誰と」という意味で、疑問文や間接疑問文で使われる！**  
+✅ **直接疑問文では「¿Con quién ～？」と文頭に置く。**  
+✅ **間接疑問文では「con quién ～」が文の一部として働く。**  
+💡 **今回の文は「警官が尋ねた内容」を間接疑問文で表している！**</x:t>
   </x:si>
   <x:si>
     <x:t>Óscarは君(男性)が最近ちょっと変だって言ってるよ</x:t>
@@ -13818,7 +13902,7 @@
       <x:selection activeCell="C231" sqref="C231"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="20.585625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="20.835625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -19650,40 +19734,49 @@
       <x:c r="F596" s="1" t="s">
         <x:v>1501</x:v>
       </x:c>
+      <x:c r="G596" s="0" t="s">
+        <x:v>1502</x:v>
+      </x:c>
     </x:row>
     <x:row r="597" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B597" s="1" t="s">
-        <x:v>1502</x:v>
+        <x:v>1503</x:v>
       </x:c>
       <x:c r="C597" s="1" t="s">
-        <x:v>1503</x:v>
+        <x:v>1504</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B598" s="1" t="s">
-        <x:v>1504</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="C598" s="1" t="s">
-        <x:v>1505</x:v>
+        <x:v>1506</x:v>
+      </x:c>
+      <x:c r="F598" s="1" t="s">
+        <x:v>1507</x:v>
+      </x:c>
+      <x:c r="G598" s="0" t="s">
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B599" s="1" t="s">
-        <x:v>1506</x:v>
+        <x:v>1508</x:v>
       </x:c>
       <x:c r="C599" s="1" t="s">
-        <x:v>1507</x:v>
+        <x:v>1509</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B600" s="1" t="s">
-        <x:v>1508</x:v>
+        <x:v>1510</x:v>
       </x:c>
       <x:c r="C600" s="1" t="s">
-        <x:v>1509</x:v>
+        <x:v>1511</x:v>
       </x:c>
       <x:c r="F600" s="1" t="s">
-        <x:v>1510</x:v>
+        <x:v>1512</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -19707,7 +19800,7 @@
       <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="20.585625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="20.835625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="50.375" style="0" customWidth="1"/>
@@ -19886,7 +19979,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1511</x:v>
+        <x:v>1513</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="18.75" customHeight="1">
@@ -19913,7 +20006,7 @@
         <x:v>583</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1512</x:v>
+        <x:v>1514</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3" ht="18.75" customHeight="1">
@@ -20076,7 +20169,7 @@
         <x:v>1083</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1513</x:v>
+        <x:v>1515</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3" ht="18.75" customHeight="1">

--- a/resource/MiBocaRecuerda.xlsx
+++ b/resource/MiBocaRecuerda.xlsx
@@ -669,7 +669,7 @@
         <x:rFont val="Yu Gothic"/>
         <x:family val="2"/>
       </x:rPr>
-      <x:t>[¿Dónde compráis vino normalmente?^¿Normalmente, Dónde compráis vino?]
+      <x:t xml:space="preserve">[¿Dónde compráis vino normalmente?^¿Normalmente, Dónde compráis vino?]
 Pues, por Internet.</x:t>
     </x:r>
     <x:phoneticPr fontId="0"/>
@@ -1342,7 +1342,29 @@
 まとめ
 Ni yo misma: 強調（「私自身でさえ」）。
 me lo explico: 再帰動詞で「自分に説明する」。
-否定の強調によって、話し手の困惑や理解不能さを表現しています。</x:t>
+否定の強調によって、話し手の困惑や理解不能さを表現しています。
+======
+**Ni yo misma me lo explico…** は、「私自身にも説明がつかない…」
+「自分でもわからない…」という意味です。  
+### **文の構造を分解すると：**
+- **Ni** → 「～さえも…ない」「全く…ない」（否定を強調）  
+- **yo misma** → 「私自身」  
+- **me explico** → 「自分に説明する」「自分で理解する」  
+- **me lo explico** → 「それを自分で説明する」「自分で納得する」  
+つまり、**「（どうしてそうしたのか）自分でも説明がつかない」
+「自分でも理解できない」** という意味になります。  
+💡 **似た表現**
+- **Ni yo misma lo entiendo.**（私自身も理解できない。）  
+- **No sé ni yo por qué lo hice.**（なんでやったのか自分でもわからない。）  
+- **No me lo explico.**（どうしてなのか説明がつかない。）  
+### **例文**
+🗣 **— ¿Por qué confiaste en él si sabías que mentía?**  
+（彼が嘘をつくって知ってたのに、なんで信用したの？）  
+💬 **— Ni yo misma me lo explico…**  
+（自分でも説明がつかない…）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/26</x:t>
   </x:si>
   <x:si>
     <x:t>あなた方がそんなに和食が好きだなんて思いもしませんでした</x:t>
@@ -1417,6 +1439,53 @@
   <x:si>
     <x:t>No puedo abrir el archivo.
 A ver… Ah, lo tienes que descargar primero en el ordenador.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>この **「lo tienes que descargar」** の **「lo」** は、文全体の目的語として使われています。
+実際、スペイン語ではこのように代名詞を入れることがとても一般的です。  
+### **「lo」を入れる理由**  
+**lo** は「el archivo（ファイル）」を指しています。
+この文は **「Tienes que descargar el archivo」**
+（君はそのファイルをダウンロードしなければならない）を代名詞に置き換えた形です。  
+スペイン語では、**動詞 + 名詞** の構造のとき、代名詞を使う場合は **lo** を前に持ってくるのが自然です。  
+✅ **Lo tienes que descargar.**  
+🚫 **Tienes que descargar lo.**（この形は文法的に誤り）  
+ただし、**不定詞（descargar）に直接くっつける形も可能** です。  
+✅ **Tienes que descargarlo.**（lo をダウンロードしなければならない）  
+### **lo を入れなくてもいい？**  
+**lo を省略することは可能な場合もありますが、文脈によります。**  
+たとえば、直前に **「el archivo」** が明確に言われていれば、  
+✅ **Tienes que descargar primero en el ordenador.**（PCにまずダウンロードしなければならない）  
+でも通じます。  
+しかし、一般的に **目的語が何かを明確にするために lo を使うことが多い** ので、lo を入れるのが自然です。  
+### **他の例文**  
+- **¿Ya enviaste el correo?** 
+→ **No, lo tengo que enviar ahora.**（いいえ、今送らなきゃ。）  
+- **No encuentro mi chaqueta.** 
+→ **La tienes que buscar bien.**（ちゃんと探さなきゃ。）  
+- **¿Puedo ver el documento?** 
+→ **Sí, pero lo tienes que abrir con este programa.**（はい、でもこのプログラムで開かなきゃいけません。）  
+**👉 ポイント：**  
+🔹 **lo / la / los / las** を入れるのはスペイン語の自然な言い方。  
+🔹 「tener que + 動詞」の場合は **lo** を前に置くか、動詞にくっつける。  
+🔹 直前に目的語がはっきりしていれば、省略も可能だが、一般的には使う。  
+慣れるまでは、**「何を？」に答えるものは代名詞を入れる** と意識するといいですね！ 😊
+=====
+&lt;pregunta&gt;
+あー、なんかちょっとわかったかもしれないです。
+lo tienes que descargarみたいに、動詞と目的語が離れてるのを見慣れてないから、僕は違和感を感じてるのかもしれません。
+tienes que descargarlo だと自然に感じます。
+&lt;/pregunta&gt;
+なるほど！確かに **「tienes que descargarlo」** のほうが、動詞と目的語（lo）がくっついてるから、
+日本語の語順に近くてしっくりくるのかもしれませんね。  
+スペイン語では、**助動詞（tener que, poder, deber など）があると、
+目的語の代名詞は「前にも置けるし、不定詞にくっつけることもできる」** というルールがあるので、どちらも正しいです。  
+✅ **Lo tienes que descargar.**  
+✅ **Tienes que descargarlo.**  
+だけど、**日本語の感覚では「動詞のすぐ後ろに目的語がある」ほうが自然に感じる** ので、
+最初は「tienes que descargarlo」のほうがしっくりくるのかも。  
+慣れてくると、**どっちの形でも違和感なく読めるようになる** と思うので、
+今の時点では **「不定詞につける形のほうが覚えやすい」** と思っておけばOKですよ！😊</x:t>
   </x:si>
   <x:si>
     <x:t>Aliciaは何か問題を抱えてるんですか？少し落ち込んでいるように見えますが</x:t>
@@ -1559,6 +1628,24 @@
   <x:si>
     <x:t>¿Nos lo explicas otra vez?
 Lo siento, pero ahora no tengo tiempo.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>この **「pero」** は、日本語に直訳すると「でも」になりがちですが、
+自然な日本語にすると **「申し訳ないけど」「ごめんね、今はちょっと…」** というニュアンスになります。  
+日本語では、こういう **「謝る＋理由を言う」** みたいな場面では、
+**逆接の接続詞を入れずに、単に「ごめんね、今ちょっと時間がないんだ」** みたいに言うことが多いですよね。  
+なので、この会話を自然に訳すとすると：  
+💬 **¿Nos lo explicas otra vez?**  
+👉「もう一回説明してくれる？」  
+💬 **Lo siento, pero ahora no tengo tiempo.**  
+👉「ごめんね、今ちょっと時間がなくて。」  
+この **「pero」** は、日本語の「でも」みたいに強調されるわけではなく、
+**「ちょっと申し訳ないんだけどね」** くらいのやわらかい流れを作る役割をしているんですね。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025/02/26
+2025/02/26
+2025/02/26</x:t>
   </x:si>
   <x:si>
     <x:t>「あなた方に両親を紹介します。María JesúsとÁlvaroです」
@@ -13971,7 +14058,7 @@
       <x:selection activeCell="C59" sqref="C59"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="20.960625" defaultRowHeight="18.75"/>
+  <x:sheetFormatPr defaultColWidth="21.585625" defaultRowHeight="18.75"/>
   <x:cols>
     <x:col min="1" max="1" width="8.5" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="48.875" style="0" customWidth="1"/>
@@ -15042,4816 +15129,4831 @@
       <x:c r="F119" s="1" t="s">
         <x:v>271</x:v>
       </x:c>
+      <x:c r="G119" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
     </x:row>
     <x:row r="120" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B120" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B121" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B122" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C122" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B123" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C123" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B124" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C124" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B125" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C125" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B126" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C126" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B127" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C127" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B128" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C128" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="F128" s="1" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="G128" s="0" t="s">
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B129" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C129" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B130" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C130" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B131" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C131" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F131" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B132" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C132" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F132" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B133" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C133" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B134" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C134" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B135" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C135" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="F135" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="G135" s="1" t="s">
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B136" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C136" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B137" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C137" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B138" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C138" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F138" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B139" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C139" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B140" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C140" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B141" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C141" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B142" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C142" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B143" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B144" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B145" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C145" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B146" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C146" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B147" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C147" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B148" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C148" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="F148" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B149" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C149" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B150" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C150" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B151" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C151" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="D151" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B152" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C152" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="F152" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B153" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C153" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B154" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="F154" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B155" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B156" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C156" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B157" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:7" ht="206.25" customHeight="1">
       <x:c r="B158" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="F158" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B159" s="1" t="s">
-        <x:v>365</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B160" s="1" t="s">
-        <x:v>367</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F160" s="1" t="s">
-        <x:v>369</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B161" s="1" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C161" s="1" t="s">
-        <x:v>371</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B162" s="1" t="s">
-        <x:v>374</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B163" s="1" t="s">
-        <x:v>376</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C163" s="1" t="s">
-        <x:v>377</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B164" s="1" t="s">
-        <x:v>378</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C164" s="1" t="s">
-        <x:v>379</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B165" s="1" t="s">
-        <x:v>380</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C165" s="1" t="s">
-        <x:v>381</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="F165" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B166" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C166" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B167" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C167" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="F167" s="1" t="s">
-        <x:v>387</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B168" s="1" t="s">
-        <x:v>388</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C168" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="F168" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B169" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C169" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="F169" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:7" ht="243.75" customHeight="1">
       <x:c r="B170" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C170" s="1" t="s">
-        <x:v>395</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="F170" s="1" t="s">
-        <x:v>396</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B171" s="1" t="s">
-        <x:v>397</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B172" s="1" t="s">
-        <x:v>401</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B173" s="1" t="s">
-        <x:v>403</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B174" s="1" t="s">
-        <x:v>405</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C174" s="1" t="s">
-        <x:v>406</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B175" s="1" t="s">
-        <x:v>407</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>412</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B176" s="1" t="s">
-        <x:v>409</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="F176" s="1" t="s">
-        <x:v>411</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B177" s="1" t="s">
-        <x:v>412</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C177" s="1" t="s">
-        <x:v>413</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="F177" s="1" t="s">
-        <x:v>414</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B178" s="1" t="s">
-        <x:v>415</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C178" s="1" t="s">
-        <x:v>416</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:7" ht="75" customHeight="1">
       <x:c r="B179" s="1" t="s">
-        <x:v>417</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C179" s="1" t="s">
-        <x:v>418</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="F179" s="1" t="s">
-        <x:v>419</x:v>
+        <x:v>423</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B180" s="1" t="s">
-        <x:v>420</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C180" s="1" t="s">
-        <x:v>421</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B181" s="1" t="s">
-        <x:v>422</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B182" s="1" t="s">
-        <x:v>426</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B183" s="1" t="s">
-        <x:v>428</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="F183" s="1" t="s">
-        <x:v>430</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:7" ht="206.25" customHeight="1">
       <x:c r="B184" s="1" t="s">
-        <x:v>431</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="F184" s="1" t="s">
-        <x:v>433</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B185" s="1" t="s">
-        <x:v>434</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="F185" s="1" t="s">
-        <x:v>436</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B186" s="1" t="s">
-        <x:v>437</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>442</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B187" s="1" t="s">
-        <x:v>439</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B188" s="1" t="s">
-        <x:v>441</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="F188" s="1" t="s">
-        <x:v>443</x:v>
+        <x:v>447</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B189" s="1" t="s">
-        <x:v>444</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C189" s="1" t="s">
-        <x:v>445</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="F189" s="1" t="s">
-        <x:v>446</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B190" s="1" t="s">
-        <x:v>447</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="F190" s="1" t="s">
-        <x:v>449</x:v>
+        <x:v>453</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:7" ht="83.25" customHeight="1">
       <x:c r="B191" s="1" t="s">
-        <x:v>450</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C191" s="1" t="s">
-        <x:v>451</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="F191" s="2" t="s">
-        <x:v>453</x:v>
+        <x:v>457</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:7" ht="206.25" customHeight="1">
       <x:c r="B192" s="1" t="s">
-        <x:v>454</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="F192" s="1" t="s">
-        <x:v>456</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:7" ht="356.25" customHeight="1">
       <x:c r="B193" s="1" t="s">
-        <x:v>457</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="F193" s="1" t="s">
-        <x:v>459</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:7" ht="116.25" customHeight="1">
       <x:c r="B194" s="1" t="s">
-        <x:v>460</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="F194" s="2" t="s">
-        <x:v>462</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B195" s="1" t="s">
-        <x:v>463</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>468</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B196" s="1" t="s">
-        <x:v>465</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="F196" s="1" t="s">
-        <x:v>467</x:v>
+        <x:v>471</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B197" s="1" t="s">
-        <x:v>468</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="F197" s="1" t="s">
-        <x:v>470</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:7" ht="300" customHeight="1">
       <x:c r="B198" s="1" t="s">
-        <x:v>471</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="F198" s="1" t="s">
-        <x:v>473</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:7" ht="131.25" customHeight="1">
       <x:c r="B199" s="1" t="s">
-        <x:v>474</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="F199" s="1" t="s">
-        <x:v>476</x:v>
+        <x:v>480</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:7" ht="187.5" customHeight="1">
       <x:c r="B200" s="1" t="s">
-        <x:v>477</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="C200" s="1" t="s">
-        <x:v>478</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="F200" s="1" t="s">
-        <x:v>479</x:v>
+        <x:v>483</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B201" s="1" t="s">
-        <x:v>480</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="C201" s="1" t="s">
-        <x:v>481</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>487</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B202" s="1" t="s">
-        <x:v>484</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="F202" s="1" t="s">
-        <x:v>486</x:v>
+        <x:v>490</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B203" s="1" t="s">
-        <x:v>487</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>492</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B204" s="1" t="s">
-        <x:v>489</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="F204" s="1" t="s">
-        <x:v>491</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B205" s="1" t="s">
-        <x:v>492</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="F205" s="1" t="s">
-        <x:v>494</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B206" s="1" t="s">
-        <x:v>495</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="F206" s="1" t="s">
-        <x:v>497</x:v>
+        <x:v>501</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B207" s="1" t="s">
-        <x:v>498</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="C207" s="1" t="s">
-        <x:v>499</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="F207" s="1" t="s">
-        <x:v>500</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B208" s="1" t="s">
-        <x:v>501</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="F208" s="1" t="s">
-        <x:v>503</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B209" s="1" t="s">
-        <x:v>504</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B210" s="1" t="s">
-        <x:v>506</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="F210" s="1" t="s">
-        <x:v>508</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B211" s="1" t="s">
-        <x:v>509</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="D211" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B212" s="1" t="s">
-        <x:v>513</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>518</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B213" s="1" t="s">
-        <x:v>515</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B214" s="1" t="s">
-        <x:v>517</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="C214" s="1" t="s">
-        <x:v>518</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B215" s="1" t="s">
-        <x:v>519</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C215" s="1" t="s">
-        <x:v>520</x:v>
+        <x:v>524</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B216" s="1" t="s">
-        <x:v>521</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="C216" s="1" t="s">
-        <x:v>522</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="F216" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B217" s="1" t="s">
-        <x:v>524</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="C217" s="1" t="s">
-        <x:v>525</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="F217" s="1" t="s">
-        <x:v>526</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B218" s="1" t="s">
-        <x:v>527</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="C218" s="1" t="s">
-        <x:v>528</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="F218" s="1" t="s">
-        <x:v>529</x:v>
+        <x:v>533</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B219" s="1" t="s">
-        <x:v>530</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="C219" s="1" t="s">
-        <x:v>531</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B220" s="1" t="s">
-        <x:v>532</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="C220" s="1" t="s">
-        <x:v>533</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B221" s="1" t="s">
-        <x:v>534</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="E221" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>541</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B222" s="1" t="s">
-        <x:v>538</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C222" s="1" t="s">
-        <x:v>539</x:v>
+        <x:v>543</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B223" s="1" t="s">
-        <x:v>540</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C223" s="1" t="s">
-        <x:v>541</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:7" ht="168.75" customHeight="1">
       <x:c r="B224" s="1" t="s">
-        <x:v>542</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="F224" s="1" t="s">
-        <x:v>544</x:v>
+        <x:v>548</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B225" s="1" t="s">
-        <x:v>545</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="C225" s="1" t="s">
-        <x:v>546</x:v>
+        <x:v>550</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B226" s="1" t="s">
-        <x:v>547</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="C226" s="1" t="s">
-        <x:v>548</x:v>
+        <x:v>552</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:7" ht="206.25" customHeight="1">
       <x:c r="B227" s="1" t="s">
-        <x:v>549</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="C227" s="1" t="s">
-        <x:v>550</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="F227" s="1" t="s">
-        <x:v>551</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B228" s="1" t="s">
-        <x:v>552</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="C228" s="1" t="s">
-        <x:v>537</x:v>
+        <x:v>541</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B229" s="1" t="s">
-        <x:v>553</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="C229" s="1" t="s">
-        <x:v>554</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="F229" s="1" t="s">
-        <x:v>555</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B230" s="1" t="s">
-        <x:v>556</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="C230" s="1" t="s">
-        <x:v>557</x:v>
+        <x:v>561</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B231" s="1" t="s">
-        <x:v>558</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="D231" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="E231" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B232" s="1" t="s">
-        <x:v>562</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B233" s="1" t="s">
-        <x:v>564</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>569</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B234" s="1" t="s">
-        <x:v>566</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="C234" s="1" t="s">
-        <x:v>567</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B235" s="1" t="s">
-        <x:v>568</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B236" s="1" t="s">
-        <x:v>570</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="C236" s="1" t="s">
-        <x:v>571</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="F236" s="1" t="s">
-        <x:v>572</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B237" s="1" t="s">
-        <x:v>573</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="C237" s="1" t="s">
-        <x:v>574</x:v>
+        <x:v>578</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B238" s="1" t="s">
-        <x:v>575</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="C238" s="1" t="s">
-        <x:v>576</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="F238" s="1" t="s">
-        <x:v>577</x:v>
+        <x:v>581</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B239" s="1" t="s">
-        <x:v>578</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="C239" s="1" t="s">
-        <x:v>579</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B240" s="1" t="s">
-        <x:v>580</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="C240" s="1" t="s">
-        <x:v>581</x:v>
+        <x:v>585</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="A241" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="B241" s="1" t="s">
-        <x:v>583</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="C241" s="1" t="s">
-        <x:v>584</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="D241" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>590</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B242" s="1" t="s">
-        <x:v>587</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="C242" s="1" t="s">
-        <x:v>588</x:v>
+        <x:v>592</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B243" s="1" t="s">
-        <x:v>589</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="C243" s="1" t="s">
-        <x:v>590</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B244" s="1" t="s">
-        <x:v>591</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="C244" s="1" t="s">
-        <x:v>592</x:v>
+        <x:v>596</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B245" s="1" t="s">
-        <x:v>593</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="C245" s="1" t="s">
-        <x:v>594</x:v>
+        <x:v>598</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B246" s="1" t="s">
-        <x:v>595</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="C246" s="1" t="s">
-        <x:v>596</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B247" s="1" t="s">
-        <x:v>597</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C247" s="1" t="s">
-        <x:v>598</x:v>
+        <x:v>602</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B248" s="1" t="s">
-        <x:v>599</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C248" s="1" t="s">
-        <x:v>600</x:v>
+        <x:v>604</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B249" s="1" t="s">
-        <x:v>601</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="C249" s="1" t="s">
-        <x:v>602</x:v>
+        <x:v>606</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B250" s="1" t="s">
-        <x:v>603</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="C250" s="1" t="s">
-        <x:v>604</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B251" s="1" t="s">
-        <x:v>605</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="C251" s="1" t="s">
-        <x:v>606</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>612</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B252" s="1" t="s">
-        <x:v>609</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C252" s="1" t="s">
-        <x:v>610</x:v>
+        <x:v>614</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B253" s="1" t="s">
-        <x:v>611</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C253" s="1" t="s">
-        <x:v>612</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B254" s="1" t="s">
-        <x:v>613</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C254" s="1" t="s">
-        <x:v>614</x:v>
+        <x:v>618</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B255" s="1" t="s">
-        <x:v>615</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C255" s="1" t="s">
-        <x:v>616</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="F255" s="1" t="s">
-        <x:v>617</x:v>
+        <x:v>621</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B256" s="1" t="s">
-        <x:v>618</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="C256" s="1" t="s">
-        <x:v>619</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B257" s="1" t="s">
-        <x:v>620</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="C257" s="1" t="s">
-        <x:v>621</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B258" s="1" t="s">
-        <x:v>622</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="C258" s="1" t="s">
-        <x:v>623</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B259" s="1" t="s">
-        <x:v>624</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="C259" s="1" t="s">
-        <x:v>625</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F259" s="1" t="s">
-        <x:v>626</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B260" s="1" t="s">
-        <x:v>627</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C260" s="1" t="s">
-        <x:v>628</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B261" s="1" t="s">
-        <x:v>629</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="D261" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="E261" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>636</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B262" s="1" t="s">
-        <x:v>633</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>638</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B263" s="1" t="s">
-        <x:v>635</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="F263" s="1" t="s">
-        <x:v>637</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B264" s="1" t="s">
-        <x:v>638</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="F264" s="1" t="s">
-        <x:v>640</x:v>
+        <x:v>644</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B265" s="1" t="s">
-        <x:v>641</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B266" s="1" t="s">
-        <x:v>643</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>636</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B267" s="1" t="s">
-        <x:v>644</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="C267" s="1" t="s">
-        <x:v>645</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B268" s="1" t="s">
-        <x:v>646</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C268" s="1" t="s">
-        <x:v>647</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B269" s="1" t="s">
-        <x:v>648</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C269" s="1" t="s">
-        <x:v>649</x:v>
+        <x:v>653</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B270" s="1" t="s">
-        <x:v>650</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C270" s="1" t="s">
-        <x:v>651</x:v>
+        <x:v>655</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B271" s="1" t="s">
-        <x:v>652</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C271" s="1" t="s">
-        <x:v>653</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="D271" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="E271" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>659</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B272" s="1" t="s">
-        <x:v>656</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C272" s="1" t="s">
-        <x:v>657</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B273" s="1" t="s">
-        <x:v>658</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="C273" s="1" t="s">
-        <x:v>659</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F273" s="1" t="s">
-        <x:v>660</x:v>
+        <x:v>664</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:7" ht="56.25" customHeight="1">
       <x:c r="B274" s="1" t="s">
-        <x:v>661</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C274" s="1" t="s">
-        <x:v>662</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:7" ht="409.5" customHeight="1">
       <x:c r="B275" s="1" t="s">
-        <x:v>663</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="C275" s="1" t="s">
-        <x:v>664</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="F275" s="1" t="s">
-        <x:v>665</x:v>
+        <x:v>669</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:7" ht="18.75" customHeight="1">
       <x:c r="B276" s="1" t="s">
-        <x:v>666</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C276" s="1" t="s">
-        <x:v>667</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B277" s="1" t="s">
-        <x:v>668</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C277" s="1" t="s">
-        <x:v>669</x:v>
+        <x:v>673</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B278" s="1" t="s">
-        <x:v>670</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C278" s="1" t="s">
-        <x:v>671</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B279" s="1" t="s">
-        <x:v>672</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C279" s="1" t="s">
-        <x:v>673</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B280" s="1" t="s">
-        <x:v>674</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C280" s="1" t="s">
-        <x:v>675</x:v>
+        <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B281" s="1" t="s">
-        <x:v>676</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C281" s="1" t="s">
-        <x:v>677</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="D281" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="E281" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>683</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B282" s="1" t="s">
-        <x:v>680</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C282" s="1" t="s">
-        <x:v>681</x:v>
+        <x:v>685</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:7" ht="37.5" customHeight="1">
       <x:c r="B283" s="1" t="s">
-        <x:v>682</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="C283" s="1" t="s">
-        <x:v>683</x:v>
+        <x:v>687</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:7" ht="409.5" custo